--- a/Population/data/Population Indicators.xlsx
+++ b/Population/data/Population Indicators.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\JusticeCOVID\Population\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E5C7A02-16C8-4056-86E9-31A64F244B79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032FF15F-1969-4148-A890-6060D46EB21A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40125" yWindow="1530" windowWidth="36225" windowHeight="15435" xr2:uid="{B9AFA079-0671-40AD-860D-809D829A87F1}"/>
+    <workbookView xWindow="39840" yWindow="1935" windowWidth="36225" windowHeight="15435" xr2:uid="{B9AFA079-0671-40AD-860D-809D829A87F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Summaries" sheetId="1" r:id="rId1"/>
@@ -1794,7 +1794,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="612">
   <si>
     <t>&lt; 10</t>
   </si>
@@ -3757,6 +3757,9 @@
   </si>
   <si>
     <t>COVID-19 Mortality by Comorbidity</t>
+  </si>
+  <si>
+    <t>South Korea</t>
   </si>
 </sst>
 </file>
@@ -5195,7 +5198,7 @@
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="405">
+  <cellXfs count="407">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -5517,63 +5520,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="38" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="38" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="38" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="38" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="38" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="38" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="38" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="24" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -5581,35 +5527,17 @@
     <xf numFmtId="49" fontId="24" fillId="35" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="42" fillId="35" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="42" fillId="35" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="50" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="42" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="42" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="42" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="35" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="42" fillId="35" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5705,23 +5633,8 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="24" fillId="35" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="35" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="42" fillId="35" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5729,16 +5642,7 @@
     <xf numFmtId="49" fontId="24" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="42" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="42" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="35" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="35" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="42" fillId="35" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5810,15 +5714,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="55" xfId="35" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="56" xfId="35" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="59" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
@@ -5856,17 +5751,6 @@
     <xf numFmtId="166" fontId="57" fillId="37" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="61" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="61" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -5898,9 +5782,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="52" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="24" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="24" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="167" fontId="24" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -5914,22 +5795,13 @@
     <xf numFmtId="0" fontId="24" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="41" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="60" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="24" fillId="37" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="42" fillId="37" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="24" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="37" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="42" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5969,6 +5841,139 @@
     <xf numFmtId="164" fontId="12" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="38" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="38" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="38" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="38" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="38" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="38" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="38" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="24" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="35" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="35" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="35" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="35" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="42" fillId="35" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="59" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="55" xfId="35" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="56" xfId="35" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="24" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="37" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="37" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="26" xfId="35" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="73">
     <cellStyle name="20% - Accent1" xfId="17" builtinId="30" customBuiltin="1"/>
@@ -6368,8 +6373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69445D4F-6ED8-41C8-8CD1-A1D8E95413A8}">
   <dimension ref="A2:AF158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="AE133" sqref="AE133"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="AC83" sqref="AC83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6377,6 +6382,7 @@
     <col min="1" max="1" width="27.5703125" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" customWidth="1"/>
     <col min="31" max="31" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -6387,18 +6393,18 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="B3" s="223" t="s">
+      <c r="B3" s="364" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="225"/>
-      <c r="D3" s="223" t="s">
+      <c r="C3" s="366"/>
+      <c r="D3" s="364" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="225"/>
-      <c r="F3" s="223" t="s">
+      <c r="E3" s="366"/>
+      <c r="F3" s="364" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="225"/>
+      <c r="G3" s="366"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
@@ -6675,13 +6681,13 @@
       <c r="A16" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="H16" s="223" t="s">
+      <c r="H16" s="364" t="s">
         <v>279</v>
       </c>
-      <c r="I16" s="224"/>
-      <c r="J16" s="225"/>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="I16" s="365"/>
+      <c r="J16" s="366"/>
+    </row>
+    <row r="17" spans="1:14">
       <c r="B17" s="178" t="s">
         <v>9</v>
       </c>
@@ -6709,17 +6715,20 @@
       <c r="J17" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="K17" s="60" t="s">
+      <c r="K17" s="405" t="s">
         <v>170</v>
       </c>
-      <c r="L17" s="59" t="s">
+      <c r="L17" s="78" t="s">
         <v>169</v>
       </c>
-      <c r="M17" s="59" t="s">
+      <c r="M17" s="78" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17" s="165" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -6763,11 +6772,14 @@
       <c r="L18" s="54">
         <v>0</v>
       </c>
-      <c r="M18" s="61">
+      <c r="M18" s="54">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1" t="s">
         <v>1</v>
       </c>
@@ -6811,11 +6823,14 @@
       <c r="L19" s="62">
         <v>0</v>
       </c>
-      <c r="M19" s="63">
+      <c r="M19" s="62">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -6859,11 +6874,14 @@
       <c r="L20" s="62">
         <v>0</v>
       </c>
-      <c r="M20" s="63">
+      <c r="M20" s="62">
         <v>2.2000000000000001E-3</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
@@ -6907,11 +6925,14 @@
       <c r="L21" s="62">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="M21" s="63">
+      <c r="M21" s="62">
         <v>1.4E-3</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="63">
+        <v>1.1000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1" t="s">
         <v>4</v>
       </c>
@@ -6955,11 +6976,14 @@
       <c r="L22" s="62">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="M22" s="63">
+      <c r="M22" s="62">
         <v>3.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22" s="63">
+        <v>8.0000000000000004E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1" t="s">
         <v>5</v>
       </c>
@@ -7003,11 +7027,14 @@
       <c r="L23" s="62">
         <v>0.01</v>
       </c>
-      <c r="M23" s="63">
+      <c r="M23" s="62">
         <v>4.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23" s="63">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1" t="s">
         <v>6</v>
       </c>
@@ -7051,11 +7078,14 @@
       <c r="L24" s="62">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="M24" s="63">
+      <c r="M24" s="62">
         <v>1.9E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24" s="63">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1" t="s">
         <v>7</v>
       </c>
@@ -7099,11 +7129,14 @@
       <c r="L25" s="62">
         <v>0.128</v>
       </c>
-      <c r="M25" s="63">
+      <c r="M25" s="62">
         <v>4.8000000000000001E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="N25" s="63">
+        <v>6.3E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="1" t="s">
         <v>8</v>
       </c>
@@ -7147,11 +7180,14 @@
       <c r="L26" s="47">
         <v>0.20200000000000001</v>
       </c>
-      <c r="M26" s="64">
+      <c r="M26" s="47">
         <v>0.156</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="64">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="1" t="s">
         <v>11</v>
       </c>
@@ -7179,8 +7215,20 @@
         <f t="shared" si="11"/>
         <v>1.5482841181165203E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="K27" s="5">
+        <v>5.5199999999999999E-2</v>
+      </c>
+      <c r="L27" s="5">
+        <v>0.1391</v>
+      </c>
+      <c r="M27" s="5">
+        <v>0.1178</v>
+      </c>
+      <c r="N27" s="5">
+        <v>2.3599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" s="1"/>
       <c r="B28" s="65">
         <f>B27/F27</f>
@@ -7193,19 +7241,19 @@
       <c r="H28" s="9"/>
       <c r="J28" s="9"/>
     </row>
-    <row r="29" spans="1:13" s="337" customFormat="1">
+    <row r="29" spans="1:14" s="301" customFormat="1">
       <c r="A29" s="1"/>
       <c r="B29" s="56"/>
       <c r="D29" s="56"/>
       <c r="H29" s="9"/>
       <c r="J29" s="9"/>
     </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="338" t="s">
+    <row r="30" spans="1:14">
+      <c r="A30" s="302" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:14">
       <c r="B31" s="59" t="s">
         <v>166</v>
       </c>
@@ -7213,7 +7261,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:14">
       <c r="A32" s="211" t="s">
         <v>286</v>
       </c>
@@ -7314,89 +7362,89 @@
       <c r="C42" s="62"/>
     </row>
     <row r="43" spans="1:28">
-      <c r="A43" s="328" t="s">
+      <c r="A43" s="295" t="s">
         <v>528</v>
       </c>
-      <c r="B43" s="289" t="s">
+      <c r="B43" s="361" t="s">
         <v>434</v>
       </c>
-      <c r="C43" s="290"/>
-      <c r="D43" s="290"/>
-      <c r="E43" s="290"/>
-      <c r="F43" s="290"/>
-      <c r="G43" s="290"/>
-      <c r="H43" s="290"/>
-      <c r="I43" s="290"/>
-      <c r="J43" s="291"/>
-      <c r="K43" s="223" t="s">
+      <c r="C43" s="362"/>
+      <c r="D43" s="362"/>
+      <c r="E43" s="362"/>
+      <c r="F43" s="362"/>
+      <c r="G43" s="362"/>
+      <c r="H43" s="362"/>
+      <c r="I43" s="362"/>
+      <c r="J43" s="363"/>
+      <c r="K43" s="364" t="s">
         <v>237</v>
       </c>
-      <c r="L43" s="224"/>
-      <c r="M43" s="224"/>
-      <c r="N43" s="224"/>
-      <c r="O43" s="224"/>
-      <c r="P43" s="224"/>
-      <c r="Q43" s="224"/>
-      <c r="R43" s="224"/>
-      <c r="S43" s="225"/>
-      <c r="T43" s="226" t="s">
+      <c r="L43" s="365"/>
+      <c r="M43" s="365"/>
+      <c r="N43" s="365"/>
+      <c r="O43" s="365"/>
+      <c r="P43" s="365"/>
+      <c r="Q43" s="365"/>
+      <c r="R43" s="365"/>
+      <c r="S43" s="366"/>
+      <c r="T43" s="360" t="s">
         <v>525</v>
       </c>
-      <c r="U43" s="226"/>
-      <c r="V43" s="226"/>
-      <c r="W43" s="226"/>
-      <c r="X43" s="226"/>
-      <c r="Y43" s="226"/>
-      <c r="Z43" s="226"/>
-      <c r="AA43" s="226"/>
-      <c r="AB43" s="226"/>
+      <c r="U43" s="360"/>
+      <c r="V43" s="360"/>
+      <c r="W43" s="360"/>
+      <c r="X43" s="360"/>
+      <c r="Y43" s="360"/>
+      <c r="Z43" s="360"/>
+      <c r="AA43" s="360"/>
+      <c r="AB43" s="360"/>
     </row>
     <row r="44" spans="1:28" ht="15" customHeight="1">
-      <c r="B44" s="226" t="s">
+      <c r="B44" s="360" t="s">
         <v>180</v>
       </c>
-      <c r="C44" s="226"/>
-      <c r="D44" s="226"/>
-      <c r="E44" s="226" t="s">
+      <c r="C44" s="360"/>
+      <c r="D44" s="360"/>
+      <c r="E44" s="360" t="s">
         <v>181</v>
       </c>
-      <c r="F44" s="226"/>
-      <c r="G44" s="226"/>
-      <c r="H44" s="226" t="s">
+      <c r="F44" s="360"/>
+      <c r="G44" s="360"/>
+      <c r="H44" s="360" t="s">
         <v>435</v>
       </c>
-      <c r="I44" s="226"/>
-      <c r="J44" s="226"/>
-      <c r="K44" s="292" t="s">
+      <c r="I44" s="360"/>
+      <c r="J44" s="360"/>
+      <c r="K44" s="373" t="s">
         <v>180</v>
       </c>
-      <c r="L44" s="292"/>
-      <c r="M44" s="292"/>
-      <c r="N44" s="292" t="s">
+      <c r="L44" s="373"/>
+      <c r="M44" s="373"/>
+      <c r="N44" s="373" t="s">
         <v>181</v>
       </c>
-      <c r="O44" s="292"/>
-      <c r="P44" s="292"/>
-      <c r="Q44" s="223" t="s">
+      <c r="O44" s="373"/>
+      <c r="P44" s="373"/>
+      <c r="Q44" s="364" t="s">
         <v>435</v>
       </c>
-      <c r="R44" s="224"/>
-      <c r="S44" s="225"/>
-      <c r="T44" s="226" t="s">
+      <c r="R44" s="365"/>
+      <c r="S44" s="366"/>
+      <c r="T44" s="360" t="s">
         <v>180</v>
       </c>
-      <c r="U44" s="226"/>
-      <c r="V44" s="226"/>
-      <c r="W44" s="226" t="s">
+      <c r="U44" s="360"/>
+      <c r="V44" s="360"/>
+      <c r="W44" s="360" t="s">
         <v>181</v>
       </c>
-      <c r="X44" s="226"/>
-      <c r="Y44" s="226"/>
-      <c r="Z44" s="226" t="s">
+      <c r="X44" s="360"/>
+      <c r="Y44" s="360"/>
+      <c r="Z44" s="360" t="s">
         <v>435</v>
       </c>
-      <c r="AA44" s="226"/>
-      <c r="AB44" s="226"/>
+      <c r="AA44" s="360"/>
+      <c r="AB44" s="360"/>
     </row>
     <row r="45" spans="1:28">
       <c r="B45" s="66" t="s">
@@ -8009,38 +8057,38 @@
         <f>Obesity!BA9/100</f>
         <v>0.72799999999999998</v>
       </c>
-      <c r="T50" s="326"/>
-      <c r="U50" s="324"/>
-      <c r="V50" s="327"/>
-      <c r="W50" s="326"/>
-      <c r="X50" s="324"/>
-      <c r="Y50" s="327"/>
-      <c r="Z50" s="326"/>
-      <c r="AA50" s="324"/>
-      <c r="AB50" s="327"/>
+      <c r="T50" s="293"/>
+      <c r="U50" s="291"/>
+      <c r="V50" s="294"/>
+      <c r="W50" s="293"/>
+      <c r="X50" s="291"/>
+      <c r="Y50" s="294"/>
+      <c r="Z50" s="293"/>
+      <c r="AA50" s="291"/>
+      <c r="AB50" s="294"/>
     </row>
     <row r="51" spans="1:32">
       <c r="A51" t="s">
         <v>473</v>
       </c>
-      <c r="B51" s="324"/>
-      <c r="C51" s="324"/>
-      <c r="D51" s="324"/>
-      <c r="E51" s="324"/>
-      <c r="F51" s="324"/>
-      <c r="G51" s="324"/>
-      <c r="H51" s="324"/>
-      <c r="I51" s="324"/>
-      <c r="J51" s="324"/>
-      <c r="K51" s="324"/>
-      <c r="L51" s="324"/>
-      <c r="M51" s="324"/>
-      <c r="N51" s="324"/>
-      <c r="O51" s="324"/>
-      <c r="P51" s="324"/>
-      <c r="Q51" s="324"/>
-      <c r="R51" s="324"/>
-      <c r="S51" s="324"/>
+      <c r="B51" s="291"/>
+      <c r="C51" s="291"/>
+      <c r="D51" s="291"/>
+      <c r="E51" s="291"/>
+      <c r="F51" s="291"/>
+      <c r="G51" s="291"/>
+      <c r="H51" s="291"/>
+      <c r="I51" s="291"/>
+      <c r="J51" s="291"/>
+      <c r="K51" s="291"/>
+      <c r="L51" s="291"/>
+      <c r="M51" s="291"/>
+      <c r="N51" s="291"/>
+      <c r="O51" s="291"/>
+      <c r="P51" s="291"/>
+      <c r="Q51" s="291"/>
+      <c r="R51" s="291"/>
+      <c r="S51" s="291"/>
       <c r="T51" s="48">
         <f>Obesity!B29/100</f>
         <v>0.42200000000000004</v>
@@ -8082,24 +8130,24 @@
       <c r="A52" t="s">
         <v>483</v>
       </c>
-      <c r="B52" s="324"/>
-      <c r="C52" s="324"/>
-      <c r="D52" s="324"/>
-      <c r="E52" s="324"/>
-      <c r="F52" s="324"/>
-      <c r="G52" s="324"/>
-      <c r="H52" s="324"/>
-      <c r="I52" s="324"/>
-      <c r="J52" s="324"/>
-      <c r="K52" s="324"/>
-      <c r="L52" s="324"/>
-      <c r="M52" s="324"/>
-      <c r="N52" s="324"/>
-      <c r="O52" s="324"/>
-      <c r="P52" s="324"/>
-      <c r="Q52" s="324"/>
-      <c r="R52" s="324"/>
-      <c r="S52" s="324"/>
+      <c r="B52" s="291"/>
+      <c r="C52" s="291"/>
+      <c r="D52" s="291"/>
+      <c r="E52" s="291"/>
+      <c r="F52" s="291"/>
+      <c r="G52" s="291"/>
+      <c r="H52" s="291"/>
+      <c r="I52" s="291"/>
+      <c r="J52" s="291"/>
+      <c r="K52" s="291"/>
+      <c r="L52" s="291"/>
+      <c r="M52" s="291"/>
+      <c r="N52" s="291"/>
+      <c r="O52" s="291"/>
+      <c r="P52" s="291"/>
+      <c r="Q52" s="291"/>
+      <c r="R52" s="291"/>
+      <c r="S52" s="291"/>
       <c r="T52" s="48">
         <f>Obesity!B30/100</f>
         <v>0.40899999999999997</v>
@@ -8141,24 +8189,24 @@
       <c r="A53" t="s">
         <v>492</v>
       </c>
-      <c r="B53" s="324"/>
-      <c r="C53" s="324"/>
-      <c r="D53" s="324"/>
-      <c r="E53" s="324"/>
-      <c r="F53" s="324"/>
-      <c r="G53" s="324"/>
-      <c r="H53" s="324"/>
-      <c r="I53" s="324"/>
-      <c r="J53" s="324"/>
-      <c r="K53" s="324"/>
-      <c r="L53" s="324"/>
-      <c r="M53" s="324"/>
-      <c r="N53" s="324"/>
-      <c r="O53" s="324"/>
-      <c r="P53" s="324"/>
-      <c r="Q53" s="324"/>
-      <c r="R53" s="324"/>
-      <c r="S53" s="324"/>
+      <c r="B53" s="291"/>
+      <c r="C53" s="291"/>
+      <c r="D53" s="291"/>
+      <c r="E53" s="291"/>
+      <c r="F53" s="291"/>
+      <c r="G53" s="291"/>
+      <c r="H53" s="291"/>
+      <c r="I53" s="291"/>
+      <c r="J53" s="291"/>
+      <c r="K53" s="291"/>
+      <c r="L53" s="291"/>
+      <c r="M53" s="291"/>
+      <c r="N53" s="291"/>
+      <c r="O53" s="291"/>
+      <c r="P53" s="291"/>
+      <c r="Q53" s="291"/>
+      <c r="R53" s="291"/>
+      <c r="S53" s="291"/>
       <c r="T53" s="48">
         <f>Obesity!B31/100</f>
         <v>0.44</v>
@@ -8200,24 +8248,24 @@
       <c r="A54" t="s">
         <v>502</v>
       </c>
-      <c r="B54" s="324"/>
-      <c r="C54" s="324"/>
-      <c r="D54" s="325"/>
-      <c r="E54" s="325"/>
-      <c r="F54" s="325"/>
-      <c r="G54" s="325"/>
-      <c r="H54" s="325"/>
-      <c r="I54" s="325"/>
-      <c r="J54" s="325"/>
-      <c r="K54" s="325"/>
-      <c r="L54" s="325"/>
-      <c r="M54" s="325"/>
-      <c r="N54" s="325"/>
-      <c r="O54" s="325"/>
-      <c r="P54" s="325"/>
-      <c r="Q54" s="325"/>
-      <c r="R54" s="325"/>
-      <c r="S54" s="325"/>
+      <c r="B54" s="291"/>
+      <c r="C54" s="291"/>
+      <c r="D54" s="292"/>
+      <c r="E54" s="292"/>
+      <c r="F54" s="292"/>
+      <c r="G54" s="292"/>
+      <c r="H54" s="292"/>
+      <c r="I54" s="292"/>
+      <c r="J54" s="292"/>
+      <c r="K54" s="292"/>
+      <c r="L54" s="292"/>
+      <c r="M54" s="292"/>
+      <c r="N54" s="292"/>
+      <c r="O54" s="292"/>
+      <c r="P54" s="292"/>
+      <c r="Q54" s="292"/>
+      <c r="R54" s="292"/>
+      <c r="S54" s="292"/>
       <c r="T54" s="49">
         <f>Obesity!B32/100</f>
         <v>0.46200000000000002</v>
@@ -8373,52 +8421,52 @@
       <c r="C56" s="62"/>
     </row>
     <row r="58" spans="1:32">
-      <c r="A58" s="328" t="s">
+      <c r="A58" s="295" t="s">
         <v>529</v>
       </c>
-      <c r="B58" s="226">
+      <c r="B58" s="360">
         <v>2019</v>
       </c>
-      <c r="C58" s="226"/>
-      <c r="D58" s="226">
+      <c r="C58" s="360"/>
+      <c r="D58" s="360">
         <v>2018</v>
       </c>
-      <c r="E58" s="226"/>
-      <c r="F58" s="226"/>
-      <c r="G58" s="223">
+      <c r="E58" s="360"/>
+      <c r="F58" s="360"/>
+      <c r="G58" s="364">
         <v>2019</v>
       </c>
-      <c r="H58" s="224"/>
-      <c r="I58" s="224"/>
-      <c r="J58" s="224"/>
-      <c r="K58" s="224"/>
-      <c r="L58" s="225"/>
-      <c r="M58" s="225">
+      <c r="H58" s="365"/>
+      <c r="I58" s="365"/>
+      <c r="J58" s="365"/>
+      <c r="K58" s="365"/>
+      <c r="L58" s="366"/>
+      <c r="M58" s="366">
         <v>2018</v>
       </c>
-      <c r="N58" s="226"/>
-      <c r="O58" s="226"/>
-      <c r="P58" s="223">
+      <c r="N58" s="360"/>
+      <c r="O58" s="360"/>
+      <c r="P58" s="364">
         <v>2019</v>
       </c>
-      <c r="Q58" s="224"/>
-      <c r="R58" s="224"/>
-      <c r="S58" s="224"/>
-      <c r="T58" s="224"/>
-      <c r="U58" s="225"/>
-      <c r="V58" s="225">
+      <c r="Q58" s="365"/>
+      <c r="R58" s="365"/>
+      <c r="S58" s="365"/>
+      <c r="T58" s="365"/>
+      <c r="U58" s="366"/>
+      <c r="V58" s="366">
         <v>2018</v>
       </c>
-      <c r="W58" s="226"/>
-      <c r="X58" s="226"/>
-      <c r="Y58" s="223">
+      <c r="W58" s="360"/>
+      <c r="X58" s="360"/>
+      <c r="Y58" s="364">
         <v>2019</v>
       </c>
-      <c r="Z58" s="224"/>
-      <c r="AA58" s="224"/>
-      <c r="AB58" s="224"/>
-      <c r="AC58" s="224"/>
-      <c r="AD58" s="225"/>
+      <c r="Z58" s="365"/>
+      <c r="AA58" s="365"/>
+      <c r="AB58" s="365"/>
+      <c r="AC58" s="365"/>
+      <c r="AD58" s="366"/>
       <c r="AE58" s="172" t="s">
         <v>262</v>
       </c>
@@ -8430,45 +8478,45 @@
       <c r="C59" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="D59" s="223" t="s">
+      <c r="D59" s="364" t="s">
         <v>251</v>
       </c>
-      <c r="E59" s="224"/>
-      <c r="F59" s="225"/>
-      <c r="G59" s="223" t="s">
+      <c r="E59" s="365"/>
+      <c r="F59" s="366"/>
+      <c r="G59" s="364" t="s">
         <v>165</v>
       </c>
-      <c r="H59" s="224"/>
-      <c r="I59" s="224"/>
-      <c r="J59" s="224"/>
-      <c r="K59" s="224"/>
-      <c r="L59" s="225"/>
-      <c r="M59" s="224" t="s">
+      <c r="H59" s="365"/>
+      <c r="I59" s="365"/>
+      <c r="J59" s="365"/>
+      <c r="K59" s="365"/>
+      <c r="L59" s="366"/>
+      <c r="M59" s="365" t="s">
         <v>239</v>
       </c>
-      <c r="N59" s="224"/>
-      <c r="O59" s="225"/>
-      <c r="P59" s="223" t="s">
+      <c r="N59" s="365"/>
+      <c r="O59" s="366"/>
+      <c r="P59" s="364" t="s">
         <v>164</v>
       </c>
-      <c r="Q59" s="224"/>
-      <c r="R59" s="224"/>
-      <c r="S59" s="224"/>
-      <c r="T59" s="224"/>
-      <c r="U59" s="225"/>
-      <c r="V59" s="224" t="s">
+      <c r="Q59" s="365"/>
+      <c r="R59" s="365"/>
+      <c r="S59" s="365"/>
+      <c r="T59" s="365"/>
+      <c r="U59" s="366"/>
+      <c r="V59" s="365" t="s">
         <v>261</v>
       </c>
-      <c r="W59" s="224"/>
-      <c r="X59" s="225"/>
-      <c r="Y59" s="223" t="s">
+      <c r="W59" s="365"/>
+      <c r="X59" s="366"/>
+      <c r="Y59" s="364" t="s">
         <v>260</v>
       </c>
-      <c r="Z59" s="224"/>
-      <c r="AA59" s="224"/>
-      <c r="AB59" s="224"/>
-      <c r="AC59" s="224"/>
-      <c r="AD59" s="225"/>
+      <c r="Z59" s="365"/>
+      <c r="AA59" s="365"/>
+      <c r="AB59" s="365"/>
+      <c r="AC59" s="365"/>
+      <c r="AD59" s="366"/>
       <c r="AE59" s="20">
         <f>SUM(F64:F68)</f>
         <v>17700241</v>
@@ -8642,15 +8690,15 @@
         <f>'AU Pop'!H22</f>
         <v>9.5612474089386751E-2</v>
       </c>
-      <c r="D62" s="232">
+      <c r="D62" s="371">
         <f>'A&amp;TSI Pop'!L11</f>
         <v>1405253</v>
       </c>
-      <c r="E62" s="232">
+      <c r="E62" s="371">
         <f>'A&amp;TSI Pop'!L29</f>
         <v>1333829</v>
       </c>
-      <c r="F62" s="232">
+      <c r="F62" s="371">
         <f>'A&amp;TSI Pop'!L47</f>
         <v>2739082</v>
       </c>
@@ -8658,15 +8706,15 @@
       <c r="I62" s="58"/>
       <c r="K62" s="58"/>
       <c r="L62" s="74"/>
-      <c r="M62" s="229">
+      <c r="M62" s="367">
         <f>'A&amp;TSI Pop'!H11</f>
         <v>85770</v>
       </c>
-      <c r="N62" s="229">
+      <c r="N62" s="367">
         <f>'A&amp;TSI Pop'!H29</f>
         <v>81992</v>
       </c>
-      <c r="O62" s="231">
+      <c r="O62" s="369">
         <f>'A&amp;TSI Pop'!H47</f>
         <v>167762</v>
       </c>
@@ -8674,15 +8722,15 @@
       <c r="R62" s="58"/>
       <c r="T62" s="74"/>
       <c r="U62" s="74"/>
-      <c r="V62" s="227">
+      <c r="V62" s="376">
         <f t="shared" si="12"/>
         <v>1491023</v>
       </c>
-      <c r="W62" s="229">
+      <c r="W62" s="367">
         <f t="shared" si="12"/>
         <v>1415821</v>
       </c>
-      <c r="X62" s="231">
+      <c r="X62" s="369">
         <f t="shared" si="12"/>
         <v>2906844</v>
       </c>
@@ -8706,9 +8754,9 @@
         <f>'AU Pop'!H25</f>
         <v>2.4952286703894818E-2</v>
       </c>
-      <c r="D63" s="233"/>
-      <c r="E63" s="233"/>
-      <c r="F63" s="233"/>
+      <c r="D63" s="372"/>
+      <c r="E63" s="372"/>
+      <c r="F63" s="372"/>
       <c r="G63" s="80">
         <f>'Prison Pop'!L58</f>
         <v>353</v>
@@ -8722,9 +8770,9 @@
         <v>376</v>
       </c>
       <c r="L63" s="74"/>
-      <c r="M63" s="230"/>
-      <c r="N63" s="230"/>
-      <c r="O63" s="234"/>
+      <c r="M63" s="368"/>
+      <c r="N63" s="368"/>
+      <c r="O63" s="370"/>
       <c r="P63" s="80">
         <f>'Prison Pop'!L6</f>
         <v>348</v>
@@ -8738,9 +8786,9 @@
         <v>378</v>
       </c>
       <c r="U63" s="74"/>
-      <c r="V63" s="228"/>
-      <c r="W63" s="230"/>
-      <c r="X63" s="230"/>
+      <c r="V63" s="377"/>
+      <c r="W63" s="368"/>
+      <c r="X63" s="368"/>
       <c r="Y63" s="80">
         <f t="shared" ref="Y63:Y68" si="13">P63+G63</f>
         <v>701</v>
@@ -9387,52 +9435,52 @@
       </c>
     </row>
     <row r="70" spans="1:32">
-      <c r="A70" s="328" t="s">
+      <c r="A70" s="295" t="s">
         <v>530</v>
       </c>
-      <c r="B70" s="226">
+      <c r="B70" s="360">
         <v>2019</v>
       </c>
-      <c r="C70" s="226"/>
-      <c r="D70" s="226">
+      <c r="C70" s="360"/>
+      <c r="D70" s="360">
         <v>2018</v>
       </c>
-      <c r="E70" s="226"/>
-      <c r="F70" s="226"/>
-      <c r="G70" s="223">
+      <c r="E70" s="360"/>
+      <c r="F70" s="360"/>
+      <c r="G70" s="364">
         <v>2019</v>
       </c>
-      <c r="H70" s="224"/>
-      <c r="I70" s="224"/>
-      <c r="J70" s="224"/>
-      <c r="K70" s="224"/>
-      <c r="L70" s="225"/>
-      <c r="M70" s="226">
+      <c r="H70" s="365"/>
+      <c r="I70" s="365"/>
+      <c r="J70" s="365"/>
+      <c r="K70" s="365"/>
+      <c r="L70" s="366"/>
+      <c r="M70" s="360">
         <v>2018</v>
       </c>
-      <c r="N70" s="226"/>
-      <c r="O70" s="226"/>
-      <c r="P70" s="223">
+      <c r="N70" s="360"/>
+      <c r="O70" s="360"/>
+      <c r="P70" s="364">
         <v>2019</v>
       </c>
-      <c r="Q70" s="224"/>
-      <c r="R70" s="224"/>
-      <c r="S70" s="224"/>
-      <c r="T70" s="224"/>
-      <c r="U70" s="225"/>
-      <c r="V70" s="226">
+      <c r="Q70" s="365"/>
+      <c r="R70" s="365"/>
+      <c r="S70" s="365"/>
+      <c r="T70" s="365"/>
+      <c r="U70" s="366"/>
+      <c r="V70" s="360">
         <v>2018</v>
       </c>
-      <c r="W70" s="226"/>
-      <c r="X70" s="226"/>
-      <c r="Y70" s="223">
+      <c r="W70" s="360"/>
+      <c r="X70" s="360"/>
+      <c r="Y70" s="364">
         <v>2019</v>
       </c>
-      <c r="Z70" s="224"/>
-      <c r="AA70" s="224"/>
-      <c r="AB70" s="224"/>
-      <c r="AC70" s="224"/>
-      <c r="AD70" s="225"/>
+      <c r="Z70" s="365"/>
+      <c r="AA70" s="365"/>
+      <c r="AB70" s="365"/>
+      <c r="AC70" s="365"/>
+      <c r="AD70" s="366"/>
       <c r="AE70" s="214">
         <f>AE68/(AE66/1000)</f>
         <v>51.915153020331211</v>
@@ -9445,45 +9493,45 @@
       <c r="C71" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="D71" s="223" t="s">
+      <c r="D71" s="364" t="s">
         <v>251</v>
       </c>
-      <c r="E71" s="224"/>
-      <c r="F71" s="225"/>
-      <c r="G71" s="223" t="s">
+      <c r="E71" s="365"/>
+      <c r="F71" s="366"/>
+      <c r="G71" s="364" t="s">
         <v>165</v>
       </c>
-      <c r="H71" s="224"/>
-      <c r="I71" s="224"/>
-      <c r="J71" s="224"/>
-      <c r="K71" s="224"/>
-      <c r="L71" s="225"/>
-      <c r="M71" s="223" t="s">
+      <c r="H71" s="365"/>
+      <c r="I71" s="365"/>
+      <c r="J71" s="365"/>
+      <c r="K71" s="365"/>
+      <c r="L71" s="366"/>
+      <c r="M71" s="364" t="s">
         <v>239</v>
       </c>
-      <c r="N71" s="224"/>
-      <c r="O71" s="225"/>
-      <c r="P71" s="223" t="s">
+      <c r="N71" s="365"/>
+      <c r="O71" s="366"/>
+      <c r="P71" s="364" t="s">
         <v>164</v>
       </c>
-      <c r="Q71" s="224"/>
-      <c r="R71" s="224"/>
-      <c r="S71" s="224"/>
-      <c r="T71" s="224"/>
-      <c r="U71" s="225"/>
-      <c r="V71" s="223" t="s">
+      <c r="Q71" s="365"/>
+      <c r="R71" s="365"/>
+      <c r="S71" s="365"/>
+      <c r="T71" s="365"/>
+      <c r="U71" s="366"/>
+      <c r="V71" s="364" t="s">
         <v>239</v>
       </c>
-      <c r="W71" s="224"/>
-      <c r="X71" s="225"/>
-      <c r="Y71" s="223" t="s">
+      <c r="W71" s="365"/>
+      <c r="X71" s="366"/>
+      <c r="Y71" s="364" t="s">
         <v>260</v>
       </c>
-      <c r="Z71" s="224"/>
-      <c r="AA71" s="224"/>
-      <c r="AB71" s="224"/>
-      <c r="AC71" s="224"/>
-      <c r="AD71" s="225"/>
+      <c r="Z71" s="365"/>
+      <c r="AA71" s="365"/>
+      <c r="AB71" s="365"/>
+      <c r="AC71" s="365"/>
+      <c r="AD71" s="366"/>
     </row>
     <row r="72" spans="1:32">
       <c r="B72" s="3"/>
@@ -10233,7 +10281,7 @@
       </c>
     </row>
     <row r="80" spans="1:32">
-      <c r="A80" s="328" t="s">
+      <c r="A80" s="295" t="s">
         <v>531</v>
       </c>
       <c r="B80" s="158">
@@ -10253,21 +10301,21 @@
       <c r="I80" s="159"/>
       <c r="J80" s="160"/>
     </row>
-    <row r="81" spans="1:11">
-      <c r="B81" s="223" t="s">
+    <row r="81" spans="1:12">
+      <c r="B81" s="364" t="s">
         <v>210</v>
       </c>
-      <c r="C81" s="224"/>
-      <c r="D81" s="224"/>
-      <c r="E81" s="224"/>
-      <c r="F81" s="224"/>
-      <c r="G81" s="224"/>
-      <c r="H81" s="224"/>
-      <c r="I81" s="224"/>
-      <c r="J81" s="225"/>
+      <c r="C81" s="365"/>
+      <c r="D81" s="365"/>
+      <c r="E81" s="365"/>
+      <c r="F81" s="365"/>
+      <c r="G81" s="365"/>
+      <c r="H81" s="365"/>
+      <c r="I81" s="365"/>
+      <c r="J81" s="366"/>
       <c r="K81" s="114"/>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:12">
       <c r="B82" s="112" t="s">
         <v>12</v>
       </c>
@@ -10296,7 +10344,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:12">
       <c r="A83" t="s">
         <v>9</v>
       </c>
@@ -10309,8 +10357,8 @@
       <c r="D83" s="110">
         <v>0.13</v>
       </c>
-      <c r="E83" s="397"/>
-      <c r="F83" s="397"/>
+      <c r="E83" s="352"/>
+      <c r="F83" s="352"/>
       <c r="G83" s="110">
         <v>0.01</v>
       </c>
@@ -10324,7 +10372,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:12">
       <c r="A84" t="s">
         <v>10</v>
       </c>
@@ -10337,8 +10385,8 @@
       <c r="D84" s="111">
         <v>0.27</v>
       </c>
-      <c r="E84" s="398"/>
-      <c r="F84" s="398"/>
+      <c r="E84" s="353"/>
+      <c r="F84" s="353"/>
       <c r="G84" s="111">
         <v>0</v>
       </c>
@@ -10352,7 +10400,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:12">
       <c r="A85" t="s">
         <v>146</v>
       </c>
@@ -10365,8 +10413,8 @@
       <c r="D85" s="110">
         <v>0.11</v>
       </c>
-      <c r="E85" s="397"/>
-      <c r="F85" s="397"/>
+      <c r="E85" s="352"/>
+      <c r="F85" s="352"/>
       <c r="G85" s="110">
         <v>0.01</v>
       </c>
@@ -10380,7 +10428,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:12">
       <c r="A86" t="s">
         <v>147</v>
       </c>
@@ -10393,8 +10441,8 @@
       <c r="D86" s="111">
         <v>0.19</v>
       </c>
-      <c r="E86" s="398"/>
-      <c r="F86" s="398"/>
+      <c r="E86" s="353"/>
+      <c r="F86" s="353"/>
       <c r="G86" s="111">
         <v>0.01</v>
       </c>
@@ -10408,21 +10456,21 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:12">
       <c r="A87" s="72" t="s">
         <v>202</v>
       </c>
       <c r="B87" s="78"/>
       <c r="C87" s="78"/>
       <c r="D87" s="78"/>
-      <c r="E87" s="399"/>
-      <c r="F87" s="399"/>
+      <c r="E87" s="354"/>
+      <c r="F87" s="354"/>
       <c r="G87" s="78"/>
       <c r="H87" s="78"/>
       <c r="I87" s="78"/>
       <c r="J87" s="78"/>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:12">
       <c r="A88" s="1" t="s">
         <v>203</v>
       </c>
@@ -10435,8 +10483,8 @@
       <c r="D88" s="113">
         <v>0.18</v>
       </c>
-      <c r="E88" s="400"/>
-      <c r="F88" s="400"/>
+      <c r="E88" s="355"/>
+      <c r="F88" s="355"/>
       <c r="G88" s="113">
         <v>0.01</v>
       </c>
@@ -10450,7 +10498,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:12">
       <c r="A89" s="1" t="s">
         <v>204</v>
       </c>
@@ -10463,8 +10511,8 @@
       <c r="D89" s="113">
         <v>0.15</v>
       </c>
-      <c r="E89" s="400"/>
-      <c r="F89" s="400"/>
+      <c r="E89" s="355"/>
+      <c r="F89" s="355"/>
       <c r="G89" s="113">
         <v>0.01</v>
       </c>
@@ -10478,7 +10526,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:12">
       <c r="A90" s="1" t="s">
         <v>205</v>
       </c>
@@ -10491,8 +10539,8 @@
       <c r="D90" s="113">
         <v>0.15</v>
       </c>
-      <c r="E90" s="400"/>
-      <c r="F90" s="400"/>
+      <c r="E90" s="355"/>
+      <c r="F90" s="355"/>
       <c r="G90" s="113">
         <v>0</v>
       </c>
@@ -10506,7 +10554,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:12">
       <c r="A91" s="1" t="s">
         <v>206</v>
       </c>
@@ -10519,8 +10567,8 @@
       <c r="D91" s="113">
         <v>0.18</v>
       </c>
-      <c r="E91" s="400"/>
-      <c r="F91" s="400"/>
+      <c r="E91" s="355"/>
+      <c r="F91" s="355"/>
       <c r="G91" s="113">
         <v>0.03</v>
       </c>
@@ -10534,7 +10582,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:12">
       <c r="A92" s="1" t="s">
         <v>189</v>
       </c>
@@ -10547,8 +10595,8 @@
       <c r="D92" s="111">
         <v>0.09</v>
       </c>
-      <c r="E92" s="398"/>
-      <c r="F92" s="398"/>
+      <c r="E92" s="353"/>
+      <c r="F92" s="353"/>
       <c r="G92" s="111">
         <v>0</v>
       </c>
@@ -10562,7 +10610,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:12">
       <c r="A93" s="1"/>
       <c r="B93" s="197"/>
       <c r="C93" s="197"/>
@@ -10574,8 +10622,8 @@
       <c r="I93" s="197"/>
       <c r="J93" s="197"/>
     </row>
-    <row r="94" spans="1:11">
-      <c r="A94" s="329" t="s">
+    <row r="94" spans="1:12">
+      <c r="A94" s="296" t="s">
         <v>532</v>
       </c>
       <c r="B94" s="197"/>
@@ -10588,7 +10636,7 @@
       <c r="I94" s="197"/>
       <c r="J94" s="197"/>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:12">
       <c r="A95" s="1" t="s">
         <v>282</v>
       </c>
@@ -10601,14 +10649,24 @@
       <c r="D95" s="198" t="s">
         <v>269</v>
       </c>
-      <c r="E95" s="197"/>
-      <c r="F95" s="197"/>
-      <c r="G95" s="197"/>
-      <c r="H95" s="197"/>
-      <c r="I95" s="197"/>
-      <c r="J95" s="197"/>
-    </row>
-    <row r="96" spans="1:11">
+      <c r="E95" s="60" t="s">
+        <v>170</v>
+      </c>
+      <c r="F95" s="160"/>
+      <c r="G95" s="59" t="s">
+        <v>169</v>
+      </c>
+      <c r="H95" s="160"/>
+      <c r="I95" s="59" t="s">
+        <v>171</v>
+      </c>
+      <c r="J95" s="160"/>
+      <c r="K95" s="165" t="s">
+        <v>611</v>
+      </c>
+      <c r="L95" s="75"/>
+    </row>
+    <row r="96" spans="1:12">
       <c r="A96" t="s">
         <v>9</v>
       </c>
@@ -10624,14 +10682,36 @@
         <f>B96*C96</f>
         <v>678.11439466158242</v>
       </c>
-      <c r="E96" s="197"/>
-      <c r="F96" s="197"/>
-      <c r="G96" s="197"/>
-      <c r="H96" s="197"/>
-      <c r="I96" s="197"/>
-      <c r="J96" s="197"/>
-    </row>
-    <row r="97" spans="1:10">
+      <c r="E96" s="406">
+        <v>0.64</v>
+      </c>
+      <c r="F96" s="61">
+        <f>K27*E96</f>
+        <v>3.5327999999999998E-2</v>
+      </c>
+      <c r="G96" s="406">
+        <v>0.62</v>
+      </c>
+      <c r="H96" s="61">
+        <f>L27*G96</f>
+        <v>8.6241999999999999E-2</v>
+      </c>
+      <c r="I96" s="406">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="J96" s="54">
+        <f>M27*I96</f>
+        <v>6.8323999999999996E-2</v>
+      </c>
+      <c r="K96" s="406">
+        <v>0.52</v>
+      </c>
+      <c r="L96" s="61">
+        <f>N27*K96</f>
+        <v>1.2272E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
       <c r="A97" t="s">
         <v>10</v>
       </c>
@@ -10647,14 +10727,36 @@
         <f>B97*C97</f>
         <v>48.295702373316232</v>
       </c>
-      <c r="E97" s="197"/>
-      <c r="F97" s="197"/>
-      <c r="G97" s="197"/>
-      <c r="H97" s="197"/>
-      <c r="I97" s="197"/>
-      <c r="J97" s="197"/>
-    </row>
-    <row r="98" spans="1:10">
+      <c r="E97" s="199">
+        <v>0.36</v>
+      </c>
+      <c r="F97" s="64">
+        <f>K27*E97</f>
+        <v>1.9871999999999997E-2</v>
+      </c>
+      <c r="G97" s="199">
+        <v>0.38</v>
+      </c>
+      <c r="H97" s="64">
+        <f>L27*G97</f>
+        <v>5.2858000000000002E-2</v>
+      </c>
+      <c r="I97" s="199">
+        <v>0.42</v>
+      </c>
+      <c r="J97" s="47">
+        <f>M27*I97</f>
+        <v>4.9475999999999999E-2</v>
+      </c>
+      <c r="K97" s="199">
+        <v>0.48</v>
+      </c>
+      <c r="L97" s="64">
+        <f>N27*K97</f>
+        <v>1.1328E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
       <c r="A98" s="1"/>
       <c r="B98" s="197"/>
       <c r="C98" s="197"/>
@@ -10666,8 +10768,8 @@
       <c r="I98" s="197"/>
       <c r="J98" s="197"/>
     </row>
-    <row r="99" spans="1:10">
-      <c r="A99" s="329" t="s">
+    <row r="99" spans="1:12">
+      <c r="A99" s="296" t="s">
         <v>533</v>
       </c>
       <c r="B99" s="197"/>
@@ -10680,7 +10782,7 @@
       <c r="I99" s="197"/>
       <c r="J99" s="197"/>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:12">
       <c r="A100" s="1" t="s">
         <v>271</v>
       </c>
@@ -10694,25 +10796,25 @@
       <c r="I100" s="197"/>
       <c r="J100" s="197"/>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:12">
       <c r="A101" s="1"/>
       <c r="B101" s="197"/>
-      <c r="C101" s="221" t="s">
+      <c r="C101" s="374" t="s">
         <v>11</v>
       </c>
-      <c r="D101" s="222"/>
-      <c r="E101" s="221" t="s">
+      <c r="D101" s="375"/>
+      <c r="E101" s="374" t="s">
         <v>237</v>
       </c>
-      <c r="F101" s="222"/>
-      <c r="G101" s="221" t="s">
+      <c r="F101" s="375"/>
+      <c r="G101" s="374" t="s">
         <v>146</v>
       </c>
-      <c r="H101" s="222"/>
+      <c r="H101" s="375"/>
       <c r="I101" s="197"/>
       <c r="J101" s="197"/>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:12">
       <c r="A102" s="1"/>
       <c r="B102" s="198" t="s">
         <v>168</v>
@@ -10738,7 +10840,7 @@
       <c r="I102" s="197"/>
       <c r="J102" s="197"/>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" spans="1:12">
       <c r="A103" s="1" t="s">
         <v>2</v>
       </c>
@@ -10776,7 +10878,7 @@
         <v>13043</v>
       </c>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" spans="1:12">
       <c r="A104" s="1" t="s">
         <v>3</v>
       </c>
@@ -10811,7 +10913,7 @@
       <c r="I104" s="197"/>
       <c r="J104" s="197"/>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" spans="1:12">
       <c r="A105" s="1" t="s">
         <v>4</v>
       </c>
@@ -10846,7 +10948,7 @@
       <c r="I105" s="197"/>
       <c r="J105" s="197"/>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" spans="1:12">
       <c r="A106" s="1" t="s">
         <v>5</v>
       </c>
@@ -10881,7 +10983,7 @@
       <c r="I106" s="197"/>
       <c r="J106" s="197"/>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" spans="1:12">
       <c r="A107" s="1" t="s">
         <v>201</v>
       </c>
@@ -10916,7 +11018,7 @@
       <c r="I107" s="197"/>
       <c r="J107" s="197"/>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" spans="1:12">
       <c r="A108" s="1" t="s">
         <v>207</v>
       </c>
@@ -10948,7 +11050,7 @@
       <c r="I108" s="197"/>
       <c r="J108" s="197"/>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" spans="1:12">
       <c r="A109" s="1" t="s">
         <v>270</v>
       </c>
@@ -10971,7 +11073,7 @@
       <c r="I109" s="197"/>
       <c r="J109" s="197"/>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" spans="1:12">
       <c r="A110" s="1"/>
       <c r="B110" s="197"/>
       <c r="C110" s="197"/>
@@ -10983,8 +11085,8 @@
       <c r="I110" s="197"/>
       <c r="J110" s="197"/>
     </row>
-    <row r="111" spans="1:10">
-      <c r="A111" s="329" t="s">
+    <row r="111" spans="1:12">
+      <c r="A111" s="296" t="s">
         <v>534</v>
       </c>
       <c r="B111" s="197"/>
@@ -10997,7 +11099,7 @@
       <c r="I111" s="197"/>
       <c r="J111" s="197"/>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" spans="1:12">
       <c r="A112" s="1" t="s">
         <v>272</v>
       </c>
@@ -11033,7 +11135,7 @@
       <c r="H113" s="159" t="s">
         <v>269</v>
       </c>
-      <c r="I113" s="333" t="s">
+      <c r="I113" s="300" t="s">
         <v>527</v>
       </c>
       <c r="J113" s="50" t="s">
@@ -11069,13 +11171,13 @@
       <c r="T113" s="160" t="s">
         <v>269</v>
       </c>
-      <c r="U113" s="333" t="s">
+      <c r="U113" s="300" t="s">
         <v>275</v>
       </c>
-      <c r="V113" s="401" t="s">
+      <c r="V113" s="356" t="s">
         <v>276</v>
       </c>
-      <c r="X113" s="343"/>
+      <c r="X113" s="307"/>
       <c r="Y113" s="59" t="s">
         <v>208</v>
       </c>
@@ -11136,15 +11238,15 @@
         <f>J114*$C$34</f>
         <v>107.05697099999999</v>
       </c>
-      <c r="L114" s="330">
+      <c r="L114" s="297">
         <v>0.13</v>
       </c>
       <c r="M114" s="180">
-        <f>B114*L114</f>
+        <f t="shared" ref="M114:M122" si="46">B114*L114</f>
         <v>5137.47</v>
       </c>
       <c r="N114" s="180">
-        <f>M114*$C$35</f>
+        <f t="shared" ref="N114:N122" si="47">M114*$C$35</f>
         <v>0</v>
       </c>
       <c r="O114" s="99">
@@ -11158,11 +11260,11 @@
         <f>P114*$C$36</f>
         <v>853.61040000000003</v>
       </c>
-      <c r="R114" s="330">
+      <c r="R114" s="297">
         <v>0.01</v>
       </c>
       <c r="S114" s="180">
-        <f>B114*R114</f>
+        <f t="shared" ref="S114:S122" si="48">B114*R114</f>
         <v>395.19</v>
       </c>
       <c r="T114" s="180">
@@ -11182,21 +11284,21 @@
         <v>0.25</v>
       </c>
       <c r="Z114" s="203">
-        <f>B114*Y114</f>
+        <f t="shared" ref="Z114:Z122" si="49">B114*Y114</f>
         <v>9879.75</v>
       </c>
       <c r="AA114" s="113">
         <v>0.74</v>
       </c>
       <c r="AB114" s="80">
-        <f>B114*AA114</f>
+        <f t="shared" ref="AB114:AB122" si="50">B114*AA114</f>
         <v>29244.06</v>
       </c>
       <c r="AC114" s="113">
         <v>0.11</v>
       </c>
       <c r="AD114" s="80">
-        <f>B114*AC114</f>
+        <f t="shared" ref="AD114:AD122" si="51">B114*AC114</f>
         <v>4347.09</v>
       </c>
     </row>
@@ -11234,40 +11336,40 @@
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="J115" s="181">
-        <f t="shared" ref="J115:J122" si="46">B115*I115</f>
+        <f t="shared" ref="J115:J122" si="52">B115*I115</f>
         <v>168.096</v>
       </c>
       <c r="K115" s="190">
-        <f t="shared" ref="K115:K122" si="47">J115*$C$34</f>
+        <f t="shared" ref="K115:K122" si="53">J115*$C$34</f>
         <v>10.590047999999999</v>
       </c>
-      <c r="L115" s="331">
+      <c r="L115" s="298">
         <v>0.27</v>
       </c>
       <c r="M115" s="181">
-        <f>B115*L115</f>
+        <f t="shared" si="46"/>
         <v>945.54000000000008</v>
       </c>
       <c r="N115" s="181">
-        <f>M115*$C$35</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="O115" s="101">
         <v>0.314</v>
       </c>
       <c r="P115" s="181">
-        <f t="shared" ref="P115:P122" si="48">B115*O115</f>
+        <f t="shared" ref="P115:P122" si="54">B115*O115</f>
         <v>1099.6279999999999</v>
       </c>
       <c r="Q115" s="190">
-        <f t="shared" ref="Q115:Q122" si="49">P115*$C$36</f>
+        <f t="shared" ref="Q115:Q122" si="55">P115*$C$36</f>
         <v>65.977679999999992</v>
       </c>
-      <c r="R115" s="331">
+      <c r="R115" s="298">
         <v>0</v>
       </c>
       <c r="S115" s="181">
-        <f>B115*R115</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="T115" s="181">
@@ -11275,11 +11377,11 @@
         <v>0</v>
       </c>
       <c r="U115" s="103">
-        <f t="shared" ref="U115:U122" si="50">D115+G115+J115+M115+P115+S115</f>
+        <f t="shared" ref="U115:U121" si="56">D115+G115+J115+M115+P115+S115</f>
         <v>2423.384</v>
       </c>
       <c r="V115" s="189">
-        <f t="shared" ref="V115:V122" si="51">E115+H115+K115+N115+Q115+T115</f>
+        <f t="shared" ref="V115:V122" si="57">E115+H115+K115+N115+Q115+T115</f>
         <v>95.268407999999994</v>
       </c>
       <c r="X115" s="197"/>
@@ -11287,21 +11389,21 @@
         <v>0.36</v>
       </c>
       <c r="Z115" s="190">
-        <f>B115*Y115</f>
+        <f t="shared" si="49"/>
         <v>1260.72</v>
       </c>
       <c r="AA115" s="111">
         <v>0.86</v>
       </c>
       <c r="AB115" s="79">
-        <f>B115*AA115</f>
+        <f t="shared" si="50"/>
         <v>3011.72</v>
       </c>
       <c r="AC115" s="111">
         <v>0.05</v>
       </c>
       <c r="AD115" s="79">
-        <f>B115*AC115</f>
+        <f t="shared" si="51"/>
         <v>175.10000000000002</v>
       </c>
     </row>
@@ -11335,44 +11437,44 @@
         <f>G116*$C$33</f>
         <v>78.018749999999997</v>
       </c>
-      <c r="I116" s="402">
+      <c r="I116" s="357">
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="J116" s="202">
+        <f t="shared" si="52"/>
+        <v>534.375</v>
+      </c>
+      <c r="K116" s="203">
+        <f t="shared" si="53"/>
+        <v>33.665624999999999</v>
+      </c>
+      <c r="L116" s="299">
+        <v>0.11</v>
+      </c>
+      <c r="M116" s="202">
         <f t="shared" si="46"/>
-        <v>534.375</v>
-      </c>
-      <c r="K116" s="203">
+        <v>1306.25</v>
+      </c>
+      <c r="N116" s="202">
         <f t="shared" si="47"/>
-        <v>33.665624999999999</v>
-      </c>
-      <c r="L116" s="332">
-        <v>0.11</v>
-      </c>
-      <c r="M116" s="202">
-        <f>B116*L116</f>
-        <v>1306.25</v>
-      </c>
-      <c r="N116" s="202">
-        <f>M116*$C$35</f>
         <v>0</v>
       </c>
-      <c r="O116" s="402">
+      <c r="O116" s="357">
         <v>0.33700000000000002</v>
       </c>
       <c r="P116" s="202">
+        <f t="shared" si="54"/>
+        <v>4001.8750000000005</v>
+      </c>
+      <c r="Q116" s="203">
+        <f t="shared" si="55"/>
+        <v>240.11250000000001</v>
+      </c>
+      <c r="R116" s="299">
+        <v>0.01</v>
+      </c>
+      <c r="S116" s="202">
         <f t="shared" si="48"/>
-        <v>4001.8750000000005</v>
-      </c>
-      <c r="Q116" s="203">
-        <f t="shared" si="49"/>
-        <v>240.11250000000001</v>
-      </c>
-      <c r="R116" s="332">
-        <v>0.01</v>
-      </c>
-      <c r="S116" s="202">
-        <f>B116*R116</f>
         <v>118.75</v>
       </c>
       <c r="T116" s="202">
@@ -11380,11 +11482,11 @@
         <v>6.65</v>
       </c>
       <c r="U116" s="167">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>7623.75</v>
       </c>
       <c r="V116" s="203">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>420.79062499999998</v>
       </c>
       <c r="X116" s="197"/>
@@ -11392,21 +11494,21 @@
         <v>0.23</v>
       </c>
       <c r="Z116" s="203">
-        <f>B116*Y116</f>
+        <f t="shared" si="49"/>
         <v>2731.25</v>
       </c>
       <c r="AA116" s="110">
         <v>0.8</v>
       </c>
       <c r="AB116" s="80">
-        <f>B116*AA116</f>
+        <f t="shared" si="50"/>
         <v>9500</v>
       </c>
       <c r="AC116" s="110">
         <v>0.06</v>
       </c>
       <c r="AD116" s="80">
-        <f>B116*AC116</f>
+        <f t="shared" si="51"/>
         <v>712.5</v>
       </c>
     </row>
@@ -11440,44 +11542,44 @@
         <f>G117*$C$33</f>
         <v>90.946319999999986</v>
       </c>
-      <c r="I117" s="403">
+      <c r="I117" s="358">
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="J117" s="181">
+        <f t="shared" si="52"/>
+        <v>1401.57</v>
+      </c>
+      <c r="K117" s="190">
+        <f t="shared" si="53"/>
+        <v>88.298909999999992</v>
+      </c>
+      <c r="L117" s="298">
+        <v>0.19</v>
+      </c>
+      <c r="M117" s="180">
         <f t="shared" si="46"/>
-        <v>1401.57</v>
-      </c>
-      <c r="K117" s="190">
+        <v>5917.74</v>
+      </c>
+      <c r="N117" s="180">
         <f t="shared" si="47"/>
-        <v>88.298909999999992</v>
-      </c>
-      <c r="L117" s="331">
-        <v>0.19</v>
-      </c>
-      <c r="M117" s="180">
-        <f>B117*L117</f>
-        <v>5917.74</v>
-      </c>
-      <c r="N117" s="180">
-        <f>M117*$C$35</f>
         <v>0</v>
       </c>
-      <c r="O117" s="403">
+      <c r="O117" s="358">
         <v>0.33700000000000002</v>
       </c>
       <c r="P117" s="181">
+        <f t="shared" si="54"/>
+        <v>10496.202000000001</v>
+      </c>
+      <c r="Q117" s="190">
+        <f t="shared" si="55"/>
+        <v>629.77212000000009</v>
+      </c>
+      <c r="R117" s="298">
+        <v>0.01</v>
+      </c>
+      <c r="S117" s="180">
         <f t="shared" si="48"/>
-        <v>10496.202000000001</v>
-      </c>
-      <c r="Q117" s="190">
-        <f t="shared" si="49"/>
-        <v>629.77212000000009</v>
-      </c>
-      <c r="R117" s="331">
-        <v>0.01</v>
-      </c>
-      <c r="S117" s="180">
-        <f>B117*R117</f>
         <v>311.45999999999998</v>
       </c>
       <c r="T117" s="180">
@@ -11485,11 +11587,11 @@
         <v>17.441759999999999</v>
       </c>
       <c r="U117" s="103">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>20307.191999999999</v>
       </c>
       <c r="V117" s="189">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>924.56901000000005</v>
       </c>
       <c r="X117" s="197"/>
@@ -11497,21 +11599,21 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="Z117" s="190">
-        <f>B117*Y117</f>
+        <f t="shared" si="49"/>
         <v>8720.880000000001</v>
       </c>
       <c r="AA117" s="111">
         <v>0.73</v>
       </c>
       <c r="AB117" s="79">
-        <f>B117*AA117</f>
+        <f t="shared" si="50"/>
         <v>22736.579999999998</v>
       </c>
       <c r="AC117" s="111">
         <v>0.12</v>
       </c>
       <c r="AD117" s="79">
-        <f>B117*AC117</f>
+        <f t="shared" si="51"/>
         <v>3737.52</v>
       </c>
     </row>
@@ -11527,96 +11629,96 @@
         <v>0.01</v>
       </c>
       <c r="D118" s="167">
-        <f t="shared" ref="D118:D122" si="52">B118*C118</f>
+        <f t="shared" ref="D118:D122" si="58">B118*C118</f>
         <v>60.483481676905896</v>
       </c>
       <c r="E118" s="203">
-        <f t="shared" ref="E118:E122" si="53">D118*$C$32</f>
+        <f t="shared" ref="E118:E122" si="59">D118*$C$32</f>
         <v>6.3507655760751192</v>
       </c>
       <c r="F118" s="197">
         <v>0.01</v>
       </c>
       <c r="G118" s="167">
-        <f t="shared" ref="G118:G122" si="54">B118*F118</f>
+        <f t="shared" ref="G118:G122" si="60">B118*F118</f>
         <v>60.483481676905896</v>
       </c>
       <c r="H118" s="202">
-        <f t="shared" ref="H118:H122" si="55">G118*$C$33</f>
+        <f t="shared" ref="H118:H122" si="61">G118*$C$33</f>
         <v>4.4152941624141304</v>
       </c>
       <c r="I118" s="100">
         <v>0</v>
       </c>
       <c r="J118" s="180">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="K118" s="189">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="L118" s="197">
+        <v>0.18</v>
+      </c>
+      <c r="M118" s="167">
         <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="K118" s="189">
+        <v>1088.702670184306</v>
+      </c>
+      <c r="N118" s="202">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="L118" s="197">
-        <v>0.18</v>
-      </c>
-      <c r="M118" s="167">
-        <f>B118*L118</f>
-        <v>1088.702670184306</v>
-      </c>
-      <c r="N118" s="202">
-        <f>M118*$C$35</f>
-        <v>0</v>
-      </c>
       <c r="O118" s="100">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="P118" s="180">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>453.62611257679418</v>
       </c>
       <c r="Q118" s="189">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>27.217566754607649</v>
       </c>
       <c r="R118" s="197">
         <v>0.01</v>
       </c>
       <c r="S118" s="167">
-        <f>B118*R118</f>
+        <f t="shared" si="48"/>
         <v>60.483481676905896</v>
       </c>
       <c r="T118" s="202">
-        <f t="shared" ref="T118:T122" si="56">S118*$C$37</f>
+        <f t="shared" ref="T118:T122" si="62">S118*$C$37</f>
         <v>3.3870749739067301</v>
       </c>
       <c r="U118" s="167">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>1723.7792277918179</v>
       </c>
       <c r="V118" s="203">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>41.370701467003627</v>
       </c>
-      <c r="X118" s="343"/>
+      <c r="X118" s="307"/>
       <c r="Y118" s="113">
         <v>0.21</v>
       </c>
       <c r="Z118" s="203">
-        <f>B118*Y118</f>
+        <f t="shared" si="49"/>
         <v>1270.1531152150237</v>
       </c>
       <c r="AA118" s="113">
         <v>0.8</v>
       </c>
       <c r="AB118" s="80">
-        <f>B118*AA118</f>
+        <f t="shared" si="50"/>
         <v>4838.6785341524719</v>
       </c>
       <c r="AC118" s="113">
         <v>0.05</v>
       </c>
       <c r="AD118" s="80">
-        <f>B118*AC118</f>
+        <f t="shared" si="51"/>
         <v>302.41740838452949</v>
       </c>
     </row>
@@ -11625,103 +11727,103 @@
         <v>204</v>
       </c>
       <c r="B119" s="105">
-        <f t="shared" ref="B119:B122" si="57">AC75</f>
+        <f t="shared" ref="B119:B122" si="63">AC75</f>
         <v>15521.901451053342</v>
       </c>
       <c r="C119" s="204">
         <v>0.02</v>
       </c>
       <c r="D119" s="103">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>310.43802902106682</v>
       </c>
       <c r="E119" s="189">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>32.595993047212012</v>
       </c>
       <c r="F119" s="197">
         <v>0.03</v>
       </c>
       <c r="G119" s="103">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>465.65704353160021</v>
       </c>
       <c r="H119" s="180">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>33.992964177806812</v>
       </c>
       <c r="I119" s="100">
         <v>0</v>
       </c>
       <c r="J119" s="180">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="K119" s="189">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="L119" s="197">
+        <v>0.15</v>
+      </c>
+      <c r="M119" s="103">
         <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="K119" s="189">
+        <v>2328.2852176580013</v>
+      </c>
+      <c r="N119" s="180">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="L119" s="197">
-        <v>0.15</v>
-      </c>
-      <c r="M119" s="103">
-        <f>B119*L119</f>
-        <v>2328.2852176580013</v>
-      </c>
-      <c r="N119" s="180">
-        <f>M119*$C$35</f>
-        <v>0</v>
-      </c>
       <c r="O119" s="100">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="P119" s="180">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>1164.1426088290007</v>
       </c>
       <c r="Q119" s="189">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>69.848556529740037</v>
       </c>
       <c r="R119" s="197">
         <v>0.01</v>
       </c>
       <c r="S119" s="103">
-        <f>B119*R119</f>
+        <f t="shared" si="48"/>
         <v>155.21901451053341</v>
       </c>
       <c r="T119" s="180">
+        <f t="shared" si="62"/>
+        <v>8.6922648125898707</v>
+      </c>
+      <c r="U119" s="103">
         <f t="shared" si="56"/>
-        <v>8.6922648125898707</v>
-      </c>
-      <c r="U119" s="103">
-        <f t="shared" si="50"/>
         <v>4423.7419135502023</v>
       </c>
       <c r="V119" s="189">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>145.12977856734875</v>
       </c>
-      <c r="X119" s="343"/>
+      <c r="X119" s="307"/>
       <c r="Y119" s="113">
         <v>0.2</v>
       </c>
       <c r="Z119" s="189">
-        <f>B119*Y119</f>
+        <f t="shared" si="49"/>
         <v>3104.3802902106686</v>
       </c>
       <c r="AA119" s="113">
         <v>0.76</v>
       </c>
       <c r="AB119" s="105">
-        <f>B119*AA119</f>
+        <f t="shared" si="50"/>
         <v>11796.645102800539</v>
       </c>
       <c r="AC119" s="113">
         <v>0.1</v>
       </c>
       <c r="AD119" s="105">
-        <f>B119*AC119</f>
+        <f t="shared" si="51"/>
         <v>1552.1901451053343</v>
       </c>
     </row>
@@ -11730,103 +11832,103 @@
         <v>205</v>
       </c>
       <c r="B120" s="105">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v>11885.752374017402</v>
       </c>
       <c r="C120" s="204">
         <v>0.04</v>
       </c>
       <c r="D120" s="103">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>475.43009496069607</v>
       </c>
       <c r="E120" s="189">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>49.920159970873087</v>
       </c>
       <c r="F120" s="197">
         <v>0.08</v>
       </c>
       <c r="G120" s="103">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>950.86018992139213</v>
       </c>
       <c r="H120" s="180">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>69.412793864261616</v>
       </c>
       <c r="I120" s="100">
         <v>0</v>
       </c>
       <c r="J120" s="180">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="K120" s="189">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="L120" s="197">
+        <v>0.15</v>
+      </c>
+      <c r="M120" s="103">
         <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="K120" s="189">
+        <v>1782.8628561026103</v>
+      </c>
+      <c r="N120" s="180">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="L120" s="197">
-        <v>0.15</v>
-      </c>
-      <c r="M120" s="103">
-        <f>B120*L120</f>
-        <v>1782.8628561026103</v>
-      </c>
-      <c r="N120" s="180">
-        <f>M120*$C$35</f>
-        <v>0</v>
-      </c>
       <c r="O120" s="100">
         <v>0.159</v>
       </c>
       <c r="P120" s="180">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>1889.8346274687669</v>
       </c>
       <c r="Q120" s="189">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>113.39007764812601</v>
       </c>
       <c r="R120" s="197">
         <v>0</v>
       </c>
       <c r="S120" s="103">
-        <f>B120*R120</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="T120" s="180">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="U120" s="103">
         <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="U120" s="103">
-        <f t="shared" si="50"/>
         <v>5098.9877684534658</v>
       </c>
       <c r="V120" s="189">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>232.72303148326071</v>
       </c>
-      <c r="X120" s="343"/>
+      <c r="X120" s="307"/>
       <c r="Y120" s="113">
         <v>0.28000000000000003</v>
       </c>
       <c r="Z120" s="189">
-        <f>B120*Y120</f>
+        <f t="shared" si="49"/>
         <v>3328.0106647248726</v>
       </c>
       <c r="AA120" s="113">
         <v>0.79</v>
       </c>
       <c r="AB120" s="105">
-        <f>B120*AA120</f>
+        <f t="shared" si="50"/>
         <v>9389.7443754737487</v>
       </c>
       <c r="AC120" s="113">
         <v>0.09</v>
       </c>
       <c r="AD120" s="105">
-        <f>B120*AC120</f>
+        <f t="shared" si="51"/>
         <v>1069.7177136615662</v>
       </c>
     </row>
@@ -11835,103 +11937,103 @@
         <v>206</v>
       </c>
       <c r="B121" s="105">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v>6122.6429837205578</v>
       </c>
       <c r="C121" s="204">
         <v>0.04</v>
       </c>
       <c r="D121" s="103">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>244.90571934882232</v>
       </c>
       <c r="E121" s="189">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>25.715100531626341</v>
       </c>
       <c r="F121" s="197">
         <v>0.08</v>
       </c>
       <c r="G121" s="103">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>489.81143869764463</v>
       </c>
       <c r="H121" s="180">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>35.756235024928053</v>
       </c>
       <c r="I121" s="100">
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="J121" s="180">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>134.69814564185228</v>
       </c>
       <c r="K121" s="189">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>8.4859831754366937</v>
       </c>
       <c r="L121" s="197">
         <v>0.18</v>
       </c>
       <c r="M121" s="103">
-        <f>B121*L121</f>
+        <f t="shared" si="46"/>
         <v>1102.0757370697004</v>
       </c>
       <c r="N121" s="180">
-        <f>M121*$C$35</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="O121" s="404">
+      <c r="O121" s="359">
         <v>0.26400000000000001</v>
       </c>
       <c r="P121" s="180">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>1616.3777477022275</v>
       </c>
       <c r="Q121" s="189">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>96.982664862133646</v>
       </c>
       <c r="R121" s="197">
         <v>0.03</v>
       </c>
       <c r="S121" s="103">
-        <f>B121*R121</f>
+        <f t="shared" si="48"/>
         <v>183.67928951161673</v>
       </c>
       <c r="T121" s="180">
+        <f t="shared" si="62"/>
+        <v>10.286040212650537</v>
+      </c>
+      <c r="U121" s="103">
         <f t="shared" si="56"/>
-        <v>10.286040212650537</v>
-      </c>
-      <c r="U121" s="103">
-        <f t="shared" si="50"/>
         <v>3771.5480779718637</v>
       </c>
       <c r="V121" s="189">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>177.22602380677526</v>
       </c>
-      <c r="X121" s="343"/>
+      <c r="X121" s="307"/>
       <c r="Y121" s="113">
         <v>0.36</v>
       </c>
       <c r="Z121" s="189">
-        <f>B121*Y121</f>
+        <f t="shared" si="49"/>
         <v>2204.1514741394008</v>
       </c>
       <c r="AA121" s="113">
         <v>0.66</v>
       </c>
       <c r="AB121" s="105">
-        <f>B121*AA121</f>
+        <f t="shared" si="50"/>
         <v>4040.9443692555683</v>
       </c>
       <c r="AC121" s="113">
         <v>0.15</v>
       </c>
       <c r="AD121" s="105">
-        <f>B121*AC121</f>
+        <f t="shared" si="51"/>
         <v>918.39644755808365</v>
       </c>
     </row>
@@ -11940,73 +12042,73 @@
         <v>189</v>
       </c>
       <c r="B122" s="79">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v>3468.0717639909399</v>
       </c>
       <c r="C122" s="199">
         <v>0.38</v>
       </c>
       <c r="D122" s="104">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>1317.8672703165571</v>
       </c>
       <c r="E122" s="190">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>138.37606338323849</v>
       </c>
       <c r="F122" s="200">
         <v>0.28999999999999998</v>
       </c>
       <c r="G122" s="104">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>1005.7408115573725</v>
       </c>
       <c r="H122" s="181">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>73.419079243688188</v>
       </c>
       <c r="I122" s="101">
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="J122" s="181">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>169.93551643555605</v>
       </c>
       <c r="K122" s="190">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>10.705937535440031</v>
       </c>
       <c r="L122" s="200">
         <v>0.09</v>
       </c>
       <c r="M122" s="104">
-        <f>B122*L122</f>
+        <f t="shared" si="46"/>
         <v>312.12645875918457</v>
       </c>
       <c r="N122" s="181">
-        <f>M122*$C$35</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="O122" s="101">
         <v>0.33500000000000002</v>
       </c>
       <c r="P122" s="181">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>1161.8040409369648</v>
       </c>
       <c r="Q122" s="190">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>69.708242456217889</v>
       </c>
       <c r="R122" s="200">
         <v>0</v>
       </c>
       <c r="S122" s="104">
-        <f>B122*R122</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="T122" s="181">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="U122" s="104">
@@ -12014,29 +12116,29 @@
         <v>3967.4740980056349</v>
       </c>
       <c r="V122" s="190">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>292.20932261858462</v>
       </c>
-      <c r="X122" s="343"/>
+      <c r="X122" s="307"/>
       <c r="Y122" s="111">
         <v>0.71</v>
       </c>
       <c r="Z122" s="190">
-        <f>B122*Y122</f>
+        <f t="shared" si="49"/>
         <v>2462.3309524335673</v>
       </c>
       <c r="AA122" s="111">
         <v>0.53</v>
       </c>
       <c r="AB122" s="79">
-        <f>B122*AA122</f>
+        <f t="shared" si="50"/>
         <v>1838.0780349151983</v>
       </c>
       <c r="AC122" s="111">
         <v>0.21</v>
       </c>
       <c r="AD122" s="79">
-        <f>B122*AC122</f>
+        <f t="shared" si="51"/>
         <v>728.29507043809735</v>
       </c>
     </row>
@@ -12270,45 +12372,6 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="W44:Y44"/>
-    <mergeCell ref="Z44:AB44"/>
-    <mergeCell ref="T43:AB43"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="B43:J43"/>
-    <mergeCell ref="K43:S43"/>
-    <mergeCell ref="Q44:S44"/>
-    <mergeCell ref="T44:V44"/>
-    <mergeCell ref="P58:U58"/>
-    <mergeCell ref="P59:U59"/>
-    <mergeCell ref="P70:U70"/>
-    <mergeCell ref="P71:U71"/>
-    <mergeCell ref="M71:O71"/>
-    <mergeCell ref="D71:F71"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="M58:O58"/>
-    <mergeCell ref="D70:F70"/>
-    <mergeCell ref="M70:O70"/>
-    <mergeCell ref="M62:M63"/>
-    <mergeCell ref="N62:N63"/>
-    <mergeCell ref="O62:O63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="G70:L70"/>
-    <mergeCell ref="G71:L71"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="M59:O59"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="G58:L58"/>
-    <mergeCell ref="G59:L59"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="K44:M44"/>
-    <mergeCell ref="N44:P44"/>
     <mergeCell ref="C101:D101"/>
     <mergeCell ref="E101:F101"/>
     <mergeCell ref="G101:H101"/>
@@ -12325,6 +12388,45 @@
     <mergeCell ref="V71:X71"/>
     <mergeCell ref="B81:J81"/>
     <mergeCell ref="D62:D63"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="M59:O59"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="G58:L58"/>
+    <mergeCell ref="G59:L59"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="K44:M44"/>
+    <mergeCell ref="N44:P44"/>
+    <mergeCell ref="D71:F71"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="M58:O58"/>
+    <mergeCell ref="D70:F70"/>
+    <mergeCell ref="M70:O70"/>
+    <mergeCell ref="M62:M63"/>
+    <mergeCell ref="N62:N63"/>
+    <mergeCell ref="O62:O63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="G70:L70"/>
+    <mergeCell ref="G71:L71"/>
+    <mergeCell ref="P58:U58"/>
+    <mergeCell ref="P59:U59"/>
+    <mergeCell ref="P70:U70"/>
+    <mergeCell ref="P71:U71"/>
+    <mergeCell ref="M71:O71"/>
+    <mergeCell ref="W44:Y44"/>
+    <mergeCell ref="Z44:AB44"/>
+    <mergeCell ref="T43:AB43"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="B43:J43"/>
+    <mergeCell ref="K43:S43"/>
+    <mergeCell ref="Q44:S44"/>
+    <mergeCell ref="T44:V44"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C31" r:id="rId1" location="case-fatality-rate-of-covid-19-by-preexisting-health-conditions" xr:uid="{7F3EF4B5-28AC-495F-9AED-D8A19838DCA0}"/>
@@ -12349,10 +12451,11 @@
     <hyperlink ref="A35" r:id="rId20" xr:uid="{835DA959-D71B-4B56-94C4-289E50701209}"/>
     <hyperlink ref="A32" r:id="rId21" xr:uid="{57162B4F-9074-4543-A7ED-DEAC3AB59B9C}"/>
     <hyperlink ref="A34" r:id="rId22" xr:uid="{60813F71-2D48-4FC4-BB31-2C80537C581A}"/>
+    <hyperlink ref="E95" r:id="rId23" xr:uid="{1E10D623-F632-4900-8692-DFD69F89DFB9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId23"/>
-  <legacyDrawing r:id="rId24"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId24"/>
+  <legacyDrawing r:id="rId25"/>
 </worksheet>
 </file>
 
@@ -14413,15 +14516,15 @@
       </c>
     </row>
     <row r="7" spans="1:255">
-      <c r="A7" s="235" t="s">
+      <c r="A7" s="378" t="s">
         <v>143</v>
       </c>
-      <c r="B7" s="235"/>
-      <c r="C7" s="235"/>
-      <c r="D7" s="235"/>
-      <c r="E7" s="236"/>
-      <c r="F7" s="236"/>
-      <c r="G7" s="235"/>
+      <c r="B7" s="378"/>
+      <c r="C7" s="378"/>
+      <c r="D7" s="378"/>
+      <c r="E7" s="379"/>
+      <c r="F7" s="379"/>
+      <c r="G7" s="378"/>
       <c r="H7" s="153" t="s">
         <v>249</v>
       </c>
@@ -15056,15 +15159,15 @@
       <c r="M24" s="20"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="235" t="s">
+      <c r="A25" s="378" t="s">
         <v>144</v>
       </c>
-      <c r="B25" s="235"/>
-      <c r="C25" s="235"/>
-      <c r="D25" s="235"/>
-      <c r="E25" s="236"/>
-      <c r="F25" s="236"/>
-      <c r="G25" s="235"/>
+      <c r="B25" s="378"/>
+      <c r="C25" s="378"/>
+      <c r="D25" s="378"/>
+      <c r="E25" s="379"/>
+      <c r="F25" s="379"/>
+      <c r="G25" s="378"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="67" t="s">
@@ -15680,15 +15783,15 @@
       </c>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="235" t="s">
+      <c r="A43" s="378" t="s">
         <v>145</v>
       </c>
-      <c r="B43" s="235"/>
-      <c r="C43" s="235"/>
-      <c r="D43" s="235"/>
-      <c r="E43" s="236"/>
-      <c r="F43" s="236"/>
-      <c r="G43" s="235"/>
+      <c r="B43" s="378"/>
+      <c r="C43" s="378"/>
+      <c r="D43" s="378"/>
+      <c r="E43" s="379"/>
+      <c r="F43" s="379"/>
+      <c r="G43" s="378"/>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="67" t="s">
@@ -16386,23 +16489,23 @@
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="237" t="s">
+      <c r="A3" s="380" t="s">
         <v>159</v>
       </c>
-      <c r="B3" s="237"/>
-      <c r="C3" s="237"/>
-      <c r="D3" s="237"/>
-      <c r="E3" s="237"/>
-      <c r="F3" s="237"/>
-      <c r="G3" s="237"/>
-      <c r="H3" s="237"/>
-      <c r="I3" s="237"/>
-      <c r="J3" s="237"/>
-      <c r="K3" s="237"/>
-      <c r="L3" s="238" t="s">
+      <c r="B3" s="380"/>
+      <c r="C3" s="380"/>
+      <c r="D3" s="380"/>
+      <c r="E3" s="380"/>
+      <c r="F3" s="380"/>
+      <c r="G3" s="380"/>
+      <c r="H3" s="380"/>
+      <c r="I3" s="380"/>
+      <c r="J3" s="380"/>
+      <c r="K3" s="380"/>
+      <c r="L3" s="381" t="s">
         <v>207</v>
       </c>
-      <c r="M3" s="238"/>
+      <c r="M3" s="381"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="29" t="s">
@@ -18223,19 +18326,19 @@
       <c r="K54" s="40"/>
     </row>
     <row r="55" spans="1:13">
-      <c r="A55" s="237" t="s">
+      <c r="A55" s="380" t="s">
         <v>162</v>
       </c>
-      <c r="B55" s="237"/>
-      <c r="C55" s="237"/>
-      <c r="D55" s="237"/>
-      <c r="E55" s="237"/>
-      <c r="F55" s="237"/>
-      <c r="G55" s="237"/>
-      <c r="H55" s="237"/>
-      <c r="I55" s="237"/>
-      <c r="J55" s="237"/>
-      <c r="K55" s="237"/>
+      <c r="B55" s="380"/>
+      <c r="C55" s="380"/>
+      <c r="D55" s="380"/>
+      <c r="E55" s="380"/>
+      <c r="F55" s="380"/>
+      <c r="G55" s="380"/>
+      <c r="H55" s="380"/>
+      <c r="I55" s="380"/>
+      <c r="J55" s="380"/>
+      <c r="K55" s="380"/>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="29" t="s">
@@ -20056,19 +20159,19 @@
       <c r="K106" s="40"/>
     </row>
     <row r="107" spans="1:13">
-      <c r="A107" s="237" t="s">
+      <c r="A107" s="380" t="s">
         <v>163</v>
       </c>
-      <c r="B107" s="237"/>
-      <c r="C107" s="237"/>
-      <c r="D107" s="237"/>
-      <c r="E107" s="237"/>
-      <c r="F107" s="237"/>
-      <c r="G107" s="237"/>
-      <c r="H107" s="237"/>
-      <c r="I107" s="237"/>
-      <c r="J107" s="237"/>
-      <c r="K107" s="237"/>
+      <c r="B107" s="380"/>
+      <c r="C107" s="380"/>
+      <c r="D107" s="380"/>
+      <c r="E107" s="380"/>
+      <c r="F107" s="380"/>
+      <c r="G107" s="380"/>
+      <c r="H107" s="380"/>
+      <c r="I107" s="380"/>
+      <c r="J107" s="380"/>
+      <c r="K107" s="380"/>
     </row>
     <row r="108" spans="1:13">
       <c r="A108" s="29" t="s">
@@ -21958,15 +22061,15 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="90"/>
-      <c r="B4" s="239" t="s">
+      <c r="B4" s="382" t="s">
         <v>178</v>
       </c>
-      <c r="C4" s="239"/>
-      <c r="D4" s="239"/>
-      <c r="E4" s="239"/>
-      <c r="F4" s="239"/>
-      <c r="G4" s="239"/>
-      <c r="H4" s="239"/>
+      <c r="C4" s="382"/>
+      <c r="D4" s="382"/>
+      <c r="E4" s="382"/>
+      <c r="F4" s="382"/>
+      <c r="G4" s="382"/>
+      <c r="H4" s="382"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="91" t="s">
@@ -22266,15 +22369,15 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="90"/>
-      <c r="B18" s="239" t="s">
+      <c r="B18" s="382" t="s">
         <v>191</v>
       </c>
-      <c r="C18" s="239"/>
-      <c r="D18" s="239"/>
-      <c r="E18" s="239"/>
-      <c r="F18" s="239"/>
-      <c r="G18" s="239"/>
-      <c r="H18" s="239"/>
+      <c r="C18" s="382"/>
+      <c r="D18" s="382"/>
+      <c r="E18" s="382"/>
+      <c r="F18" s="382"/>
+      <c r="G18" s="382"/>
+      <c r="H18" s="382"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="91" t="s">
@@ -22640,7 +22743,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" style="288" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" style="263" customWidth="1"/>
     <col min="2" max="2" width="6" style="32" customWidth="1"/>
     <col min="3" max="3" width="7.28515625" style="32" customWidth="1"/>
     <col min="4" max="4" width="3.28515625" style="32" customWidth="1"/>
@@ -22697,1682 +22800,1682 @@
     <col min="55" max="16384" width="9.140625" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" s="241" customFormat="1" ht="12.75">
-      <c r="A1" s="240" t="s">
+    <row r="1" spans="1:54" s="222" customFormat="1" ht="12.75">
+      <c r="A1" s="221" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="2" spans="1:54">
-      <c r="A2" s="242"/>
-      <c r="B2" s="243" t="s">
+      <c r="A2" s="223"/>
+      <c r="B2" s="390" t="s">
         <v>290</v>
       </c>
-      <c r="C2" s="243"/>
-      <c r="D2" s="243"/>
-      <c r="E2" s="243"/>
-      <c r="F2" s="243"/>
-      <c r="G2" s="243"/>
-      <c r="H2" s="243"/>
-      <c r="I2" s="243"/>
-      <c r="J2" s="244"/>
-      <c r="K2" s="243" t="s">
+      <c r="C2" s="390"/>
+      <c r="D2" s="390"/>
+      <c r="E2" s="390"/>
+      <c r="F2" s="390"/>
+      <c r="G2" s="390"/>
+      <c r="H2" s="390"/>
+      <c r="I2" s="390"/>
+      <c r="J2" s="224"/>
+      <c r="K2" s="390" t="s">
         <v>291</v>
       </c>
-      <c r="L2" s="243"/>
-      <c r="M2" s="243"/>
-      <c r="N2" s="243"/>
-      <c r="O2" s="243"/>
-      <c r="P2" s="243"/>
-      <c r="Q2" s="243"/>
-      <c r="R2" s="243"/>
-      <c r="S2" s="244"/>
-      <c r="T2" s="243" t="s">
+      <c r="L2" s="390"/>
+      <c r="M2" s="390"/>
+      <c r="N2" s="390"/>
+      <c r="O2" s="390"/>
+      <c r="P2" s="390"/>
+      <c r="Q2" s="390"/>
+      <c r="R2" s="390"/>
+      <c r="S2" s="224"/>
+      <c r="T2" s="390" t="s">
         <v>292</v>
       </c>
-      <c r="U2" s="243"/>
-      <c r="V2" s="243"/>
-      <c r="W2" s="243"/>
-      <c r="X2" s="243"/>
-      <c r="Y2" s="243"/>
-      <c r="Z2" s="243"/>
-      <c r="AA2" s="243"/>
-      <c r="AB2" s="244"/>
-      <c r="AC2" s="243" t="s">
+      <c r="U2" s="390"/>
+      <c r="V2" s="390"/>
+      <c r="W2" s="390"/>
+      <c r="X2" s="390"/>
+      <c r="Y2" s="390"/>
+      <c r="Z2" s="390"/>
+      <c r="AA2" s="390"/>
+      <c r="AB2" s="224"/>
+      <c r="AC2" s="390" t="s">
         <v>293</v>
       </c>
-      <c r="AD2" s="243"/>
-      <c r="AE2" s="243"/>
-      <c r="AF2" s="243"/>
-      <c r="AG2" s="243"/>
-      <c r="AH2" s="243"/>
-      <c r="AI2" s="243"/>
-      <c r="AJ2" s="243"/>
-      <c r="AK2" s="244"/>
-      <c r="AL2" s="243" t="s">
+      <c r="AD2" s="390"/>
+      <c r="AE2" s="390"/>
+      <c r="AF2" s="390"/>
+      <c r="AG2" s="390"/>
+      <c r="AH2" s="390"/>
+      <c r="AI2" s="390"/>
+      <c r="AJ2" s="390"/>
+      <c r="AK2" s="224"/>
+      <c r="AL2" s="390" t="s">
         <v>294</v>
       </c>
-      <c r="AM2" s="243"/>
-      <c r="AN2" s="243"/>
-      <c r="AO2" s="243"/>
-      <c r="AP2" s="243"/>
-      <c r="AQ2" s="243"/>
-      <c r="AR2" s="243"/>
-      <c r="AS2" s="243"/>
-      <c r="AT2" s="245"/>
-      <c r="AU2" s="246" t="s">
+      <c r="AM2" s="390"/>
+      <c r="AN2" s="390"/>
+      <c r="AO2" s="390"/>
+      <c r="AP2" s="390"/>
+      <c r="AQ2" s="390"/>
+      <c r="AR2" s="390"/>
+      <c r="AS2" s="390"/>
+      <c r="AT2" s="225"/>
+      <c r="AU2" s="391" t="s">
         <v>295</v>
       </c>
-      <c r="AV2" s="247"/>
-      <c r="AW2" s="247"/>
-      <c r="AX2" s="247"/>
-      <c r="AY2" s="247"/>
-      <c r="AZ2" s="247"/>
-      <c r="BA2" s="247"/>
-      <c r="BB2" s="247"/>
+      <c r="AV2" s="392"/>
+      <c r="AW2" s="392"/>
+      <c r="AX2" s="392"/>
+      <c r="AY2" s="392"/>
+      <c r="AZ2" s="392"/>
+      <c r="BA2" s="392"/>
+      <c r="BB2" s="392"/>
     </row>
     <row r="3" spans="1:54" ht="25.5" customHeight="1">
-      <c r="A3" s="248"/>
-      <c r="B3" s="249" t="s">
+      <c r="A3" s="226"/>
+      <c r="B3" s="387" t="s">
         <v>296</v>
       </c>
-      <c r="C3" s="249"/>
-      <c r="D3" s="250"/>
-      <c r="E3" s="251" t="s">
+      <c r="C3" s="387"/>
+      <c r="D3" s="227"/>
+      <c r="E3" s="388" t="s">
         <v>297</v>
       </c>
-      <c r="F3" s="251"/>
-      <c r="G3" s="250"/>
-      <c r="H3" s="249" t="s">
+      <c r="F3" s="388"/>
+      <c r="G3" s="227"/>
+      <c r="H3" s="387" t="s">
         <v>298</v>
       </c>
-      <c r="I3" s="249"/>
-      <c r="J3" s="252"/>
-      <c r="K3" s="253" t="s">
+      <c r="I3" s="387"/>
+      <c r="J3" s="228"/>
+      <c r="K3" s="389" t="s">
         <v>296</v>
       </c>
-      <c r="L3" s="253"/>
-      <c r="M3" s="254"/>
-      <c r="N3" s="253" t="s">
+      <c r="L3" s="389"/>
+      <c r="M3" s="229"/>
+      <c r="N3" s="389" t="s">
         <v>297</v>
       </c>
-      <c r="O3" s="253"/>
-      <c r="P3" s="254"/>
-      <c r="Q3" s="253" t="s">
+      <c r="O3" s="389"/>
+      <c r="P3" s="229"/>
+      <c r="Q3" s="389" t="s">
         <v>298</v>
       </c>
-      <c r="R3" s="253"/>
-      <c r="S3" s="250"/>
-      <c r="T3" s="249" t="s">
+      <c r="R3" s="389"/>
+      <c r="S3" s="227"/>
+      <c r="T3" s="387" t="s">
         <v>296</v>
       </c>
-      <c r="U3" s="249"/>
-      <c r="V3" s="250"/>
-      <c r="W3" s="251" t="s">
+      <c r="U3" s="387"/>
+      <c r="V3" s="227"/>
+      <c r="W3" s="388" t="s">
         <v>297</v>
       </c>
-      <c r="X3" s="251"/>
-      <c r="Y3" s="250"/>
-      <c r="Z3" s="249" t="s">
+      <c r="X3" s="388"/>
+      <c r="Y3" s="227"/>
+      <c r="Z3" s="387" t="s">
         <v>298</v>
       </c>
-      <c r="AA3" s="249"/>
-      <c r="AB3" s="252"/>
-      <c r="AC3" s="249" t="s">
+      <c r="AA3" s="387"/>
+      <c r="AB3" s="228"/>
+      <c r="AC3" s="387" t="s">
         <v>296</v>
       </c>
-      <c r="AD3" s="249"/>
-      <c r="AE3" s="250"/>
-      <c r="AF3" s="251" t="s">
+      <c r="AD3" s="387"/>
+      <c r="AE3" s="227"/>
+      <c r="AF3" s="388" t="s">
         <v>297</v>
       </c>
-      <c r="AG3" s="251"/>
-      <c r="AH3" s="250"/>
-      <c r="AI3" s="249" t="s">
+      <c r="AG3" s="388"/>
+      <c r="AH3" s="227"/>
+      <c r="AI3" s="387" t="s">
         <v>298</v>
       </c>
-      <c r="AJ3" s="249"/>
-      <c r="AK3" s="252"/>
-      <c r="AL3" s="249" t="s">
+      <c r="AJ3" s="387"/>
+      <c r="AK3" s="228"/>
+      <c r="AL3" s="387" t="s">
         <v>296</v>
       </c>
-      <c r="AM3" s="249"/>
-      <c r="AN3" s="250"/>
-      <c r="AO3" s="251" t="s">
+      <c r="AM3" s="387"/>
+      <c r="AN3" s="227"/>
+      <c r="AO3" s="388" t="s">
         <v>297</v>
       </c>
-      <c r="AP3" s="251"/>
-      <c r="AR3" s="249" t="s">
+      <c r="AP3" s="388"/>
+      <c r="AR3" s="387" t="s">
         <v>298</v>
       </c>
-      <c r="AS3" s="249"/>
-      <c r="AU3" s="249" t="s">
+      <c r="AS3" s="387"/>
+      <c r="AU3" s="387" t="s">
         <v>296</v>
       </c>
-      <c r="AV3" s="249"/>
-      <c r="AW3" s="250"/>
-      <c r="AX3" s="251" t="s">
+      <c r="AV3" s="387"/>
+      <c r="AW3" s="227"/>
+      <c r="AX3" s="388" t="s">
         <v>297</v>
       </c>
-      <c r="AY3" s="251"/>
-      <c r="BA3" s="249" t="s">
+      <c r="AY3" s="388"/>
+      <c r="BA3" s="387" t="s">
         <v>298</v>
       </c>
-      <c r="BB3" s="249"/>
+      <c r="BB3" s="387"/>
     </row>
     <row r="4" spans="1:54">
-      <c r="A4" s="255" t="s">
+      <c r="A4" s="230" t="s">
         <v>299</v>
       </c>
-      <c r="B4" s="256" t="s">
+      <c r="B4" s="231" t="s">
         <v>300</v>
       </c>
-      <c r="C4" s="256" t="s">
+      <c r="C4" s="231" t="s">
         <v>301</v>
       </c>
-      <c r="D4" s="250"/>
-      <c r="E4" s="256" t="s">
+      <c r="D4" s="227"/>
+      <c r="E4" s="231" t="s">
         <v>300</v>
       </c>
-      <c r="F4" s="256" t="s">
+      <c r="F4" s="231" t="s">
         <v>301</v>
       </c>
-      <c r="G4" s="250"/>
-      <c r="H4" s="257" t="s">
+      <c r="G4" s="227"/>
+      <c r="H4" s="232" t="s">
         <v>300</v>
       </c>
-      <c r="I4" s="257" t="s">
+      <c r="I4" s="232" t="s">
         <v>301</v>
       </c>
-      <c r="J4" s="250"/>
-      <c r="K4" s="257" t="s">
+      <c r="J4" s="227"/>
+      <c r="K4" s="232" t="s">
         <v>300</v>
       </c>
-      <c r="L4" s="257" t="s">
+      <c r="L4" s="232" t="s">
         <v>301</v>
       </c>
-      <c r="M4" s="250"/>
-      <c r="N4" s="257" t="s">
+      <c r="M4" s="227"/>
+      <c r="N4" s="232" t="s">
         <v>300</v>
       </c>
-      <c r="O4" s="257" t="s">
+      <c r="O4" s="232" t="s">
         <v>301</v>
       </c>
-      <c r="P4" s="250"/>
-      <c r="Q4" s="257" t="s">
+      <c r="P4" s="227"/>
+      <c r="Q4" s="232" t="s">
         <v>300</v>
       </c>
-      <c r="R4" s="257" t="s">
+      <c r="R4" s="232" t="s">
         <v>301</v>
       </c>
-      <c r="S4" s="250"/>
-      <c r="T4" s="256" t="s">
+      <c r="S4" s="227"/>
+      <c r="T4" s="231" t="s">
         <v>300</v>
       </c>
-      <c r="U4" s="256" t="s">
+      <c r="U4" s="231" t="s">
         <v>301</v>
       </c>
-      <c r="V4" s="250"/>
-      <c r="W4" s="256" t="s">
+      <c r="V4" s="227"/>
+      <c r="W4" s="231" t="s">
         <v>300</v>
       </c>
-      <c r="X4" s="256" t="s">
+      <c r="X4" s="231" t="s">
         <v>301</v>
       </c>
-      <c r="Y4" s="250"/>
-      <c r="Z4" s="257" t="s">
+      <c r="Y4" s="227"/>
+      <c r="Z4" s="232" t="s">
         <v>300</v>
       </c>
-      <c r="AA4" s="257" t="s">
+      <c r="AA4" s="232" t="s">
         <v>301</v>
       </c>
-      <c r="AB4" s="250"/>
-      <c r="AC4" s="257" t="s">
+      <c r="AB4" s="227"/>
+      <c r="AC4" s="232" t="s">
         <v>300</v>
       </c>
-      <c r="AD4" s="257" t="s">
+      <c r="AD4" s="232" t="s">
         <v>301</v>
       </c>
-      <c r="AE4" s="250"/>
-      <c r="AF4" s="257" t="s">
+      <c r="AE4" s="227"/>
+      <c r="AF4" s="232" t="s">
         <v>300</v>
       </c>
-      <c r="AG4" s="257" t="s">
+      <c r="AG4" s="232" t="s">
         <v>301</v>
       </c>
-      <c r="AH4" s="250"/>
-      <c r="AI4" s="257" t="s">
+      <c r="AH4" s="227"/>
+      <c r="AI4" s="232" t="s">
         <v>300</v>
       </c>
-      <c r="AJ4" s="257" t="s">
+      <c r="AJ4" s="232" t="s">
         <v>301</v>
       </c>
-      <c r="AK4" s="250"/>
-      <c r="AL4" s="256" t="s">
+      <c r="AK4" s="227"/>
+      <c r="AL4" s="231" t="s">
         <v>300</v>
       </c>
-      <c r="AM4" s="256" t="s">
+      <c r="AM4" s="231" t="s">
         <v>301</v>
       </c>
-      <c r="AN4" s="250"/>
-      <c r="AO4" s="256" t="s">
+      <c r="AN4" s="227"/>
+      <c r="AO4" s="231" t="s">
         <v>300</v>
       </c>
-      <c r="AP4" s="256" t="s">
+      <c r="AP4" s="231" t="s">
         <v>301</v>
       </c>
-      <c r="AR4" s="257" t="s">
+      <c r="AR4" s="232" t="s">
         <v>300</v>
       </c>
-      <c r="AS4" s="257" t="s">
+      <c r="AS4" s="232" t="s">
         <v>301</v>
       </c>
-      <c r="AU4" s="257" t="s">
+      <c r="AU4" s="232" t="s">
         <v>300</v>
       </c>
-      <c r="AV4" s="257" t="s">
+      <c r="AV4" s="232" t="s">
         <v>301</v>
       </c>
-      <c r="AW4" s="250"/>
-      <c r="AX4" s="257" t="s">
+      <c r="AW4" s="227"/>
+      <c r="AX4" s="232" t="s">
         <v>300</v>
       </c>
-      <c r="AY4" s="257" t="s">
+      <c r="AY4" s="232" t="s">
         <v>301</v>
       </c>
-      <c r="BA4" s="257" t="s">
+      <c r="BA4" s="232" t="s">
         <v>300</v>
       </c>
-      <c r="BB4" s="257" t="s">
+      <c r="BB4" s="232" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="5" spans="1:54">
-      <c r="A5" s="258" t="s">
+      <c r="A5" s="233" t="s">
         <v>185</v>
       </c>
-      <c r="B5" s="259">
+      <c r="B5" s="234">
         <v>27.5</v>
       </c>
-      <c r="C5" s="259" t="s">
+      <c r="C5" s="234" t="s">
         <v>302</v>
       </c>
-      <c r="D5" s="260"/>
-      <c r="E5" s="259">
+      <c r="D5" s="235"/>
+      <c r="E5" s="234">
         <v>25.9</v>
       </c>
-      <c r="F5" s="259" t="s">
+      <c r="F5" s="234" t="s">
         <v>303</v>
       </c>
-      <c r="G5" s="260"/>
-      <c r="H5" s="260">
+      <c r="G5" s="235"/>
+      <c r="H5" s="235">
         <v>53.4</v>
       </c>
-      <c r="I5" s="260" t="s">
+      <c r="I5" s="235" t="s">
         <v>304</v>
       </c>
-      <c r="J5" s="260"/>
-      <c r="K5" s="260">
+      <c r="J5" s="235"/>
+      <c r="K5" s="235">
         <v>28.4</v>
       </c>
-      <c r="L5" s="261" t="s">
+      <c r="L5" s="236" t="s">
         <v>305</v>
       </c>
-      <c r="M5" s="260"/>
-      <c r="N5" s="260">
+      <c r="M5" s="235"/>
+      <c r="N5" s="235">
         <v>12.4</v>
       </c>
-      <c r="O5" s="261" t="s">
+      <c r="O5" s="236" t="s">
         <v>306</v>
       </c>
-      <c r="P5" s="260"/>
-      <c r="Q5" s="260">
+      <c r="P5" s="235"/>
+      <c r="Q5" s="235">
         <v>40.700000000000003</v>
       </c>
-      <c r="R5" s="261" t="s">
+      <c r="R5" s="236" t="s">
         <v>307</v>
       </c>
-      <c r="S5" s="260"/>
-      <c r="T5" s="259">
+      <c r="S5" s="235"/>
+      <c r="T5" s="234">
         <v>26.2</v>
       </c>
-      <c r="U5" s="262" t="s">
+      <c r="U5" s="237" t="s">
         <v>308</v>
       </c>
-      <c r="V5" s="260"/>
-      <c r="W5" s="259">
+      <c r="V5" s="235"/>
+      <c r="W5" s="234">
         <v>31</v>
       </c>
-      <c r="X5" s="262" t="s">
+      <c r="X5" s="237" t="s">
         <v>309</v>
       </c>
-      <c r="Y5" s="263"/>
-      <c r="Z5" s="263">
+      <c r="Y5" s="238"/>
+      <c r="Z5" s="238">
         <v>57.2</v>
       </c>
-      <c r="AA5" s="264" t="s">
+      <c r="AA5" s="239" t="s">
         <v>310</v>
       </c>
-      <c r="AB5" s="263"/>
-      <c r="AC5" s="265">
+      <c r="AB5" s="238"/>
+      <c r="AC5" s="240">
         <v>14.6</v>
       </c>
-      <c r="AD5" s="264" t="s">
+      <c r="AD5" s="239" t="s">
         <v>311</v>
       </c>
-      <c r="AE5" s="263"/>
-      <c r="AF5" s="263">
+      <c r="AE5" s="238"/>
+      <c r="AF5" s="238">
         <v>16.5</v>
       </c>
-      <c r="AG5" s="264" t="s">
+      <c r="AG5" s="239" t="s">
         <v>312</v>
       </c>
-      <c r="AH5" s="263"/>
-      <c r="AI5" s="263">
+      <c r="AH5" s="238"/>
+      <c r="AI5" s="238">
         <v>31.1</v>
       </c>
-      <c r="AJ5" s="264" t="s">
+      <c r="AJ5" s="239" t="s">
         <v>313</v>
       </c>
-      <c r="AK5" s="263"/>
-      <c r="AL5" s="259">
+      <c r="AK5" s="238"/>
+      <c r="AL5" s="234">
         <v>26.9</v>
       </c>
-      <c r="AM5" s="259" t="s">
+      <c r="AM5" s="234" t="s">
         <v>314</v>
       </c>
-      <c r="AN5" s="260"/>
-      <c r="AO5" s="259">
+      <c r="AN5" s="235"/>
+      <c r="AO5" s="234">
         <v>28.4</v>
       </c>
-      <c r="AP5" s="259" t="s">
+      <c r="AP5" s="234" t="s">
         <v>315</v>
       </c>
-      <c r="AR5" s="265">
+      <c r="AR5" s="240">
         <v>55.3</v>
       </c>
-      <c r="AS5" s="266" t="s">
+      <c r="AS5" s="241" t="s">
         <v>316</v>
       </c>
       <c r="AU5" s="32">
         <v>21.7</v>
       </c>
-      <c r="AV5" s="266" t="s">
+      <c r="AV5" s="241" t="s">
         <v>317</v>
       </c>
-      <c r="AX5" s="265">
+      <c r="AX5" s="240">
         <v>14.4</v>
       </c>
-      <c r="AY5" s="266" t="s">
+      <c r="AY5" s="241" t="s">
         <v>318</v>
       </c>
       <c r="BA5" s="32">
         <v>36.1</v>
       </c>
-      <c r="BB5" s="266" t="s">
+      <c r="BB5" s="241" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="6" spans="1:54">
-      <c r="A6" s="267" t="s">
+      <c r="A6" s="242" t="s">
         <v>186</v>
       </c>
-      <c r="B6" s="260">
+      <c r="B6" s="235">
         <v>34.6</v>
       </c>
-      <c r="C6" s="260" t="s">
+      <c r="C6" s="235" t="s">
         <v>320</v>
       </c>
-      <c r="D6" s="260"/>
-      <c r="E6" s="260">
+      <c r="D6" s="235"/>
+      <c r="E6" s="235">
         <v>32.799999999999997</v>
       </c>
-      <c r="F6" s="260" t="s">
+      <c r="F6" s="235" t="s">
         <v>321</v>
       </c>
-      <c r="G6" s="260"/>
-      <c r="H6" s="260">
+      <c r="G6" s="235"/>
+      <c r="H6" s="235">
         <v>67.400000000000006</v>
       </c>
-      <c r="I6" s="260" t="s">
+      <c r="I6" s="235" t="s">
         <v>322</v>
       </c>
-      <c r="J6" s="260"/>
-      <c r="K6" s="260">
+      <c r="J6" s="235"/>
+      <c r="K6" s="235">
         <v>43.8</v>
       </c>
-      <c r="L6" s="261" t="s">
+      <c r="L6" s="236" t="s">
         <v>323</v>
       </c>
-      <c r="M6" s="260"/>
-      <c r="N6" s="260">
+      <c r="M6" s="235"/>
+      <c r="N6" s="235">
         <v>20.7</v>
       </c>
-      <c r="O6" s="261" t="s">
+      <c r="O6" s="236" t="s">
         <v>324</v>
       </c>
-      <c r="P6" s="260"/>
-      <c r="Q6" s="260">
+      <c r="P6" s="235"/>
+      <c r="Q6" s="235">
         <v>64.599999999999994</v>
       </c>
-      <c r="R6" s="261" t="s">
+      <c r="R6" s="236" t="s">
         <v>325</v>
       </c>
-      <c r="S6" s="260"/>
-      <c r="T6" s="260">
+      <c r="S6" s="235"/>
+      <c r="T6" s="235">
         <v>24.7</v>
       </c>
-      <c r="U6" s="263" t="s">
+      <c r="U6" s="238" t="s">
         <v>326</v>
       </c>
-      <c r="V6" s="260"/>
-      <c r="W6" s="260">
+      <c r="V6" s="235"/>
+      <c r="W6" s="235">
         <v>39.700000000000003</v>
       </c>
-      <c r="X6" s="263" t="s">
+      <c r="X6" s="238" t="s">
         <v>327</v>
       </c>
-      <c r="Y6" s="263"/>
-      <c r="Z6" s="263">
+      <c r="Y6" s="238"/>
+      <c r="Z6" s="238">
         <v>64.3</v>
       </c>
-      <c r="AA6" s="264" t="s">
+      <c r="AA6" s="239" t="s">
         <v>328</v>
       </c>
-      <c r="AB6" s="263"/>
-      <c r="AC6" s="263">
+      <c r="AB6" s="238"/>
+      <c r="AC6" s="238">
         <v>22.9</v>
       </c>
-      <c r="AD6" s="264" t="s">
+      <c r="AD6" s="239" t="s">
         <v>329</v>
       </c>
-      <c r="AE6" s="263"/>
-      <c r="AF6" s="263">
+      <c r="AE6" s="238"/>
+      <c r="AF6" s="238">
         <v>19.899999999999999</v>
       </c>
-      <c r="AG6" s="264" t="s">
+      <c r="AG6" s="239" t="s">
         <v>330</v>
       </c>
-      <c r="AH6" s="263"/>
-      <c r="AI6" s="263">
+      <c r="AH6" s="238"/>
+      <c r="AI6" s="238">
         <v>42.8</v>
       </c>
-      <c r="AJ6" s="264" t="s">
+      <c r="AJ6" s="239" t="s">
         <v>331</v>
       </c>
-      <c r="AK6" s="263"/>
-      <c r="AL6" s="260">
+      <c r="AK6" s="238"/>
+      <c r="AL6" s="235">
         <v>29.6</v>
       </c>
-      <c r="AM6" s="260" t="s">
+      <c r="AM6" s="235" t="s">
         <v>332</v>
       </c>
-      <c r="AN6" s="260"/>
-      <c r="AO6" s="260">
+      <c r="AN6" s="235"/>
+      <c r="AO6" s="235">
         <v>36.299999999999997</v>
       </c>
-      <c r="AP6" s="260" t="s">
+      <c r="AP6" s="235" t="s">
         <v>333</v>
       </c>
-      <c r="AR6" s="265">
+      <c r="AR6" s="240">
         <v>65.900000000000006</v>
       </c>
-      <c r="AS6" s="266" t="s">
+      <c r="AS6" s="241" t="s">
         <v>334</v>
       </c>
       <c r="AU6" s="41">
         <v>34</v>
       </c>
-      <c r="AV6" s="266" t="s">
+      <c r="AV6" s="241" t="s">
         <v>335</v>
       </c>
-      <c r="AX6" s="265">
+      <c r="AX6" s="240">
         <v>20.399999999999999</v>
       </c>
-      <c r="AY6" s="266" t="s">
+      <c r="AY6" s="241" t="s">
         <v>336</v>
       </c>
       <c r="BA6" s="32">
         <v>54.3</v>
       </c>
-      <c r="BB6" s="266" t="s">
+      <c r="BB6" s="241" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="7" spans="1:54">
-      <c r="A7" s="267" t="s">
+      <c r="A7" s="242" t="s">
         <v>187</v>
       </c>
-      <c r="B7" s="260">
+      <c r="B7" s="235">
         <v>32.299999999999997</v>
       </c>
-      <c r="C7" s="260" t="s">
+      <c r="C7" s="235" t="s">
         <v>338</v>
       </c>
-      <c r="D7" s="260"/>
-      <c r="E7" s="260">
+      <c r="D7" s="235"/>
+      <c r="E7" s="235">
         <v>42.7</v>
       </c>
-      <c r="F7" s="260" t="s">
+      <c r="F7" s="235" t="s">
         <v>339</v>
       </c>
-      <c r="G7" s="260"/>
-      <c r="H7" s="260">
+      <c r="G7" s="235"/>
+      <c r="H7" s="235">
         <v>75</v>
       </c>
-      <c r="I7" s="260" t="s">
+      <c r="I7" s="235" t="s">
         <v>340</v>
       </c>
-      <c r="J7" s="260"/>
-      <c r="K7" s="260">
+      <c r="J7" s="235"/>
+      <c r="K7" s="235">
         <v>45.6</v>
       </c>
-      <c r="L7" s="261" t="s">
+      <c r="L7" s="236" t="s">
         <v>341</v>
       </c>
-      <c r="M7" s="260"/>
-      <c r="N7" s="260">
+      <c r="M7" s="235"/>
+      <c r="N7" s="235">
         <v>29.3</v>
       </c>
-      <c r="O7" s="261" t="s">
+      <c r="O7" s="236" t="s">
         <v>342</v>
       </c>
-      <c r="P7" s="260"/>
-      <c r="Q7" s="260">
+      <c r="P7" s="235"/>
+      <c r="Q7" s="235">
         <v>74.900000000000006</v>
       </c>
-      <c r="R7" s="261" t="s">
+      <c r="R7" s="236" t="s">
         <v>343</v>
       </c>
-      <c r="S7" s="260"/>
-      <c r="T7" s="260">
+      <c r="S7" s="235"/>
+      <c r="T7" s="235">
         <v>26.8</v>
       </c>
-      <c r="U7" s="263" t="s">
+      <c r="U7" s="238" t="s">
         <v>344</v>
       </c>
-      <c r="V7" s="260"/>
-      <c r="W7" s="260">
+      <c r="V7" s="235"/>
+      <c r="W7" s="235">
         <v>48.6</v>
       </c>
-      <c r="X7" s="263" t="s">
+      <c r="X7" s="238" t="s">
         <v>345</v>
       </c>
-      <c r="Y7" s="263"/>
-      <c r="Z7" s="263">
+      <c r="Y7" s="238"/>
+      <c r="Z7" s="238">
         <v>75.400000000000006</v>
       </c>
-      <c r="AA7" s="264" t="s">
+      <c r="AA7" s="239" t="s">
         <v>346</v>
       </c>
-      <c r="AB7" s="263"/>
-      <c r="AC7" s="263">
+      <c r="AB7" s="238"/>
+      <c r="AC7" s="238">
         <v>27.3</v>
       </c>
-      <c r="AD7" s="264" t="s">
+      <c r="AD7" s="239" t="s">
         <v>347</v>
       </c>
-      <c r="AE7" s="263"/>
-      <c r="AF7" s="263">
+      <c r="AE7" s="238"/>
+      <c r="AF7" s="238">
         <v>27.1</v>
       </c>
-      <c r="AG7" s="264" t="s">
+      <c r="AG7" s="239" t="s">
         <v>348</v>
       </c>
-      <c r="AH7" s="263"/>
-      <c r="AI7" s="263">
+      <c r="AH7" s="238"/>
+      <c r="AI7" s="238">
         <v>54.4</v>
       </c>
-      <c r="AJ7" s="264" t="s">
+      <c r="AJ7" s="239" t="s">
         <v>349</v>
       </c>
-      <c r="AK7" s="263"/>
-      <c r="AL7" s="260">
+      <c r="AK7" s="238"/>
+      <c r="AL7" s="235">
         <v>29.5</v>
       </c>
-      <c r="AM7" s="260" t="s">
+      <c r="AM7" s="235" t="s">
         <v>350</v>
       </c>
-      <c r="AN7" s="260"/>
-      <c r="AO7" s="260">
+      <c r="AN7" s="235"/>
+      <c r="AO7" s="235">
         <v>45.7</v>
       </c>
-      <c r="AP7" s="260" t="s">
+      <c r="AP7" s="235" t="s">
         <v>351</v>
       </c>
-      <c r="AR7" s="265">
+      <c r="AR7" s="240">
         <v>75.2</v>
       </c>
-      <c r="AS7" s="266" t="s">
+      <c r="AS7" s="241" t="s">
         <v>352</v>
       </c>
       <c r="AU7" s="32">
         <v>36.6</v>
       </c>
-      <c r="AV7" s="266" t="s">
+      <c r="AV7" s="241" t="s">
         <v>353</v>
       </c>
-      <c r="AX7" s="265">
+      <c r="AX7" s="240">
         <v>28.2</v>
       </c>
-      <c r="AY7" s="266" t="s">
+      <c r="AY7" s="241" t="s">
         <v>354</v>
       </c>
       <c r="BA7" s="32">
         <v>64.8</v>
       </c>
-      <c r="BB7" s="266" t="s">
+      <c r="BB7" s="241" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="8" spans="1:54">
-      <c r="A8" s="267" t="s">
+      <c r="A8" s="242" t="s">
         <v>188</v>
       </c>
-      <c r="B8" s="260">
+      <c r="B8" s="235">
         <v>38.299999999999997</v>
       </c>
-      <c r="C8" s="260" t="s">
+      <c r="C8" s="235" t="s">
         <v>356</v>
       </c>
-      <c r="D8" s="260"/>
-      <c r="E8" s="260">
+      <c r="D8" s="235"/>
+      <c r="E8" s="235">
         <v>38.700000000000003</v>
       </c>
-      <c r="F8" s="260" t="s">
+      <c r="F8" s="235" t="s">
         <v>357</v>
       </c>
-      <c r="G8" s="260"/>
-      <c r="H8" s="260">
+      <c r="G8" s="235"/>
+      <c r="H8" s="235">
         <v>76.900000000000006</v>
       </c>
-      <c r="I8" s="260" t="s">
+      <c r="I8" s="235" t="s">
         <v>358</v>
       </c>
-      <c r="J8" s="260"/>
-      <c r="K8" s="265">
+      <c r="J8" s="235"/>
+      <c r="K8" s="240">
         <v>45.4</v>
       </c>
-      <c r="L8" s="266" t="s">
+      <c r="L8" s="241" t="s">
         <v>359</v>
       </c>
-      <c r="N8" s="265">
+      <c r="N8" s="240">
         <v>33.200000000000003</v>
       </c>
-      <c r="O8" s="268" t="s">
+      <c r="O8" s="243" t="s">
         <v>360</v>
       </c>
-      <c r="P8" s="265"/>
-      <c r="Q8" s="265">
+      <c r="P8" s="240"/>
+      <c r="Q8" s="240">
         <v>78.5</v>
       </c>
-      <c r="R8" s="261" t="s">
+      <c r="R8" s="236" t="s">
         <v>361</v>
       </c>
-      <c r="S8" s="260"/>
-      <c r="T8" s="260">
+      <c r="S8" s="235"/>
+      <c r="T8" s="235">
         <v>25.1</v>
       </c>
-      <c r="U8" s="263" t="s">
+      <c r="U8" s="238" t="s">
         <v>362</v>
       </c>
-      <c r="V8" s="260"/>
-      <c r="W8" s="260">
+      <c r="V8" s="235"/>
+      <c r="W8" s="235">
         <v>51.2</v>
       </c>
-      <c r="X8" s="263" t="s">
+      <c r="X8" s="238" t="s">
         <v>363</v>
       </c>
-      <c r="Y8" s="263"/>
-      <c r="Z8" s="263">
+      <c r="Y8" s="238"/>
+      <c r="Z8" s="238">
         <v>76.3</v>
       </c>
-      <c r="AA8" s="264" t="s">
+      <c r="AA8" s="239" t="s">
         <v>364</v>
       </c>
-      <c r="AB8" s="263"/>
-      <c r="AC8" s="263">
+      <c r="AB8" s="238"/>
+      <c r="AC8" s="238">
         <v>32.799999999999997</v>
       </c>
-      <c r="AD8" s="264" t="s">
+      <c r="AD8" s="239" t="s">
         <v>365</v>
       </c>
-      <c r="AE8" s="263"/>
-      <c r="AF8" s="263">
+      <c r="AE8" s="238"/>
+      <c r="AF8" s="238">
         <v>30.6</v>
       </c>
-      <c r="AG8" s="264" t="s">
+      <c r="AG8" s="239" t="s">
         <v>366</v>
       </c>
-      <c r="AH8" s="263"/>
-      <c r="AI8" s="263">
+      <c r="AH8" s="238"/>
+      <c r="AI8" s="238">
         <v>63.4</v>
       </c>
-      <c r="AJ8" s="264" t="s">
+      <c r="AJ8" s="239" t="s">
         <v>367</v>
       </c>
-      <c r="AK8" s="263"/>
-      <c r="AL8" s="260">
+      <c r="AK8" s="238"/>
+      <c r="AL8" s="235">
         <v>31.5</v>
       </c>
-      <c r="AM8" s="260" t="s">
+      <c r="AM8" s="235" t="s">
         <v>368</v>
       </c>
-      <c r="AN8" s="260"/>
-      <c r="AO8" s="260">
+      <c r="AN8" s="235"/>
+      <c r="AO8" s="235">
         <v>45.1</v>
       </c>
-      <c r="AP8" s="260" t="s">
+      <c r="AP8" s="235" t="s">
         <v>369</v>
       </c>
-      <c r="AR8" s="265">
+      <c r="AR8" s="240">
         <v>76.599999999999994</v>
       </c>
-      <c r="AS8" s="266" t="s">
+      <c r="AS8" s="241" t="s">
         <v>370</v>
       </c>
       <c r="AU8" s="32">
         <v>39.1</v>
       </c>
-      <c r="AV8" s="266" t="s">
+      <c r="AV8" s="241" t="s">
         <v>371</v>
       </c>
-      <c r="AX8" s="265">
+      <c r="AX8" s="240">
         <v>31.9</v>
       </c>
-      <c r="AY8" s="266" t="s">
+      <c r="AY8" s="241" t="s">
         <v>372</v>
       </c>
       <c r="BA8" s="41">
         <v>71</v>
       </c>
-      <c r="BB8" s="266" t="s">
+      <c r="BB8" s="241" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="9" spans="1:54">
-      <c r="A9" s="269" t="s">
+      <c r="A9" s="244" t="s">
         <v>374</v>
       </c>
-      <c r="B9" s="260">
+      <c r="B9" s="235">
         <v>29.7</v>
       </c>
-      <c r="C9" s="260" t="s">
+      <c r="C9" s="235" t="s">
         <v>375</v>
       </c>
-      <c r="D9" s="260"/>
-      <c r="E9" s="260">
+      <c r="D9" s="235"/>
+      <c r="E9" s="235">
         <v>46.8</v>
       </c>
-      <c r="F9" s="260" t="s">
+      <c r="F9" s="235" t="s">
         <v>376</v>
       </c>
-      <c r="G9" s="260"/>
-      <c r="H9" s="260">
+      <c r="G9" s="235"/>
+      <c r="H9" s="235">
         <v>76.5</v>
       </c>
-      <c r="I9" s="260" t="s">
+      <c r="I9" s="235" t="s">
         <v>377</v>
       </c>
-      <c r="J9" s="260"/>
-      <c r="K9" s="260">
+      <c r="J9" s="235"/>
+      <c r="K9" s="235">
         <v>44</v>
       </c>
-      <c r="L9" s="261" t="s">
+      <c r="L9" s="236" t="s">
         <v>378</v>
       </c>
-      <c r="M9" s="260"/>
-      <c r="N9" s="260">
+      <c r="M9" s="235"/>
+      <c r="N9" s="235">
         <v>33.5</v>
       </c>
-      <c r="O9" s="261" t="s">
+      <c r="O9" s="236" t="s">
         <v>379</v>
       </c>
-      <c r="P9" s="260"/>
-      <c r="Q9" s="260">
+      <c r="P9" s="235"/>
+      <c r="Q9" s="235">
         <v>77.5</v>
       </c>
-      <c r="R9" s="261" t="s">
+      <c r="R9" s="236" t="s">
         <v>380</v>
       </c>
-      <c r="S9" s="260"/>
-      <c r="T9" s="260">
+      <c r="S9" s="235"/>
+      <c r="T9" s="235">
         <v>31.8</v>
       </c>
-      <c r="U9" s="263" t="s">
+      <c r="U9" s="238" t="s">
         <v>381</v>
       </c>
-      <c r="V9" s="260"/>
-      <c r="W9" s="260">
+      <c r="V9" s="235"/>
+      <c r="W9" s="235">
         <v>50.7</v>
       </c>
-      <c r="X9" s="263" t="s">
+      <c r="X9" s="238" t="s">
         <v>382</v>
       </c>
-      <c r="Y9" s="263"/>
-      <c r="Z9" s="263">
+      <c r="Y9" s="238"/>
+      <c r="Z9" s="238">
         <v>82.6</v>
       </c>
-      <c r="AA9" s="264" t="s">
+      <c r="AA9" s="239" t="s">
         <v>383</v>
       </c>
-      <c r="AB9" s="263"/>
-      <c r="AC9" s="263">
+      <c r="AB9" s="238"/>
+      <c r="AC9" s="238">
         <v>34.5</v>
       </c>
-      <c r="AD9" s="264" t="s">
+      <c r="AD9" s="239" t="s">
         <v>384</v>
       </c>
-      <c r="AE9" s="263"/>
-      <c r="AF9" s="263">
+      <c r="AE9" s="238"/>
+      <c r="AF9" s="238">
         <v>33.700000000000003</v>
       </c>
-      <c r="AG9" s="264" t="s">
+      <c r="AG9" s="239" t="s">
         <v>385</v>
       </c>
-      <c r="AH9" s="263"/>
-      <c r="AI9" s="263">
+      <c r="AH9" s="238"/>
+      <c r="AI9" s="238">
         <v>68.2</v>
       </c>
-      <c r="AJ9" s="264" t="s">
+      <c r="AJ9" s="239" t="s">
         <v>386</v>
       </c>
-      <c r="AK9" s="263"/>
-      <c r="AL9" s="260">
+      <c r="AK9" s="238"/>
+      <c r="AL9" s="235">
         <v>30.8</v>
       </c>
-      <c r="AM9" s="260" t="s">
+      <c r="AM9" s="235" t="s">
         <v>387</v>
       </c>
-      <c r="AN9" s="260"/>
-      <c r="AO9" s="260">
+      <c r="AN9" s="235"/>
+      <c r="AO9" s="235">
         <v>48.8</v>
       </c>
-      <c r="AP9" s="260" t="s">
+      <c r="AP9" s="235" t="s">
         <v>388</v>
       </c>
-      <c r="AR9" s="265">
+      <c r="AR9" s="240">
         <v>79.599999999999994</v>
       </c>
-      <c r="AS9" s="266" t="s">
+      <c r="AS9" s="241" t="s">
         <v>389</v>
       </c>
       <c r="AU9" s="32">
         <v>39.200000000000003</v>
       </c>
-      <c r="AV9" s="266" t="s">
+      <c r="AV9" s="241" t="s">
         <v>390</v>
       </c>
-      <c r="AX9" s="265">
+      <c r="AX9" s="240">
         <v>33.6</v>
       </c>
-      <c r="AY9" s="266" t="s">
+      <c r="AY9" s="241" t="s">
         <v>391</v>
       </c>
       <c r="BA9" s="32">
         <v>72.8</v>
       </c>
-      <c r="BB9" s="266" t="s">
+      <c r="BB9" s="241" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="10" spans="1:54" s="271" customFormat="1" ht="22.5">
-      <c r="A10" s="270" t="s">
+    <row r="10" spans="1:54" s="246" customFormat="1" ht="22.5">
+      <c r="A10" s="245" t="s">
         <v>393</v>
       </c>
-      <c r="B10" s="271">
+      <c r="B10" s="246">
         <v>32.299999999999997</v>
       </c>
-      <c r="C10" s="271" t="s">
+      <c r="C10" s="246" t="s">
         <v>394</v>
       </c>
-      <c r="E10" s="271">
+      <c r="E10" s="246">
         <v>36.200000000000003</v>
       </c>
-      <c r="F10" s="271" t="s">
+      <c r="F10" s="246" t="s">
         <v>395</v>
       </c>
-      <c r="H10" s="271">
+      <c r="H10" s="246">
         <v>68.5</v>
       </c>
-      <c r="I10" s="271" t="s">
+      <c r="I10" s="246" t="s">
         <v>396</v>
       </c>
-      <c r="K10" s="271">
+      <c r="K10" s="246">
         <v>42.4</v>
       </c>
-      <c r="L10" s="272" t="s">
+      <c r="L10" s="247" t="s">
         <v>397</v>
       </c>
-      <c r="N10" s="271">
+      <c r="N10" s="246">
         <v>27.4</v>
       </c>
-      <c r="O10" s="272" t="s">
+      <c r="O10" s="247" t="s">
         <v>398</v>
       </c>
-      <c r="Q10" s="271">
+      <c r="Q10" s="246">
         <v>69.8</v>
       </c>
-      <c r="R10" s="272" t="s">
+      <c r="R10" s="247" t="s">
         <v>399</v>
       </c>
-      <c r="T10" s="271">
+      <c r="T10" s="246">
         <v>26.6</v>
       </c>
-      <c r="U10" s="271" t="s">
+      <c r="U10" s="246" t="s">
         <v>400</v>
       </c>
-      <c r="W10" s="271">
+      <c r="W10" s="246">
         <v>43.3</v>
       </c>
-      <c r="X10" s="271" t="s">
+      <c r="X10" s="246" t="s">
         <v>401</v>
       </c>
-      <c r="Z10" s="271">
+      <c r="Z10" s="246">
         <v>69.900000000000006</v>
       </c>
-      <c r="AA10" s="272" t="s">
+      <c r="AA10" s="247" t="s">
         <v>402</v>
       </c>
-      <c r="AC10" s="271">
+      <c r="AC10" s="246">
         <v>28.2</v>
       </c>
-      <c r="AD10" s="272" t="s">
+      <c r="AD10" s="247" t="s">
         <v>403</v>
       </c>
-      <c r="AF10" s="271">
+      <c r="AF10" s="246">
         <v>27.2</v>
       </c>
-      <c r="AG10" s="272" t="s">
+      <c r="AG10" s="247" t="s">
         <v>404</v>
       </c>
-      <c r="AI10" s="271">
+      <c r="AI10" s="246">
         <v>55.4</v>
       </c>
-      <c r="AJ10" s="272" t="s">
+      <c r="AJ10" s="247" t="s">
         <v>405</v>
       </c>
-      <c r="AL10" s="271">
+      <c r="AL10" s="246">
         <v>29.4</v>
       </c>
-      <c r="AM10" s="271" t="s">
+      <c r="AM10" s="246" t="s">
         <v>406</v>
       </c>
-      <c r="AO10" s="271">
+      <c r="AO10" s="246">
         <v>39.799999999999997</v>
       </c>
-      <c r="AP10" s="271" t="s">
+      <c r="AP10" s="246" t="s">
         <v>407</v>
       </c>
-      <c r="AR10" s="271">
+      <c r="AR10" s="246">
         <v>69.2</v>
       </c>
-      <c r="AS10" s="272" t="s">
+      <c r="AS10" s="247" t="s">
         <v>408</v>
       </c>
-      <c r="AU10" s="271">
+      <c r="AU10" s="246">
         <v>35.4</v>
       </c>
-      <c r="AV10" s="272" t="s">
+      <c r="AV10" s="247" t="s">
         <v>409</v>
       </c>
-      <c r="AX10" s="271">
+      <c r="AX10" s="246">
         <v>27.3</v>
       </c>
-      <c r="AY10" s="272" t="s">
+      <c r="AY10" s="247" t="s">
         <v>410</v>
       </c>
-      <c r="BA10" s="271">
+      <c r="BA10" s="246">
         <v>62.7</v>
       </c>
-      <c r="BB10" s="272" t="s">
+      <c r="BB10" s="247" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="11" spans="1:54" s="271" customFormat="1" ht="33.75">
-      <c r="A11" s="273" t="s">
+    <row r="11" spans="1:54" s="246" customFormat="1" ht="33.75">
+      <c r="A11" s="248" t="s">
         <v>412</v>
       </c>
-      <c r="B11" s="274">
+      <c r="B11" s="249">
         <v>32.5</v>
       </c>
-      <c r="C11" s="275" t="s">
+      <c r="C11" s="250" t="s">
         <v>413</v>
       </c>
-      <c r="D11" s="274"/>
-      <c r="E11" s="274">
+      <c r="D11" s="249"/>
+      <c r="E11" s="249">
         <v>39.1</v>
       </c>
-      <c r="F11" s="275" t="s">
+      <c r="F11" s="250" t="s">
         <v>414</v>
       </c>
-      <c r="G11" s="274"/>
-      <c r="H11" s="274">
+      <c r="G11" s="249"/>
+      <c r="H11" s="249">
         <v>71.599999999999994</v>
       </c>
-      <c r="I11" s="274" t="s">
+      <c r="I11" s="249" t="s">
         <v>415</v>
       </c>
-      <c r="J11" s="274"/>
-      <c r="K11" s="274">
+      <c r="J11" s="249"/>
+      <c r="K11" s="249">
         <v>42.6</v>
       </c>
-      <c r="L11" s="275" t="s">
+      <c r="L11" s="250" t="s">
         <v>416</v>
       </c>
-      <c r="M11" s="274"/>
-      <c r="N11" s="274">
+      <c r="M11" s="249"/>
+      <c r="N11" s="249">
         <v>27.4</v>
       </c>
-      <c r="O11" s="275" t="s">
+      <c r="O11" s="250" t="s">
         <v>398</v>
       </c>
-      <c r="P11" s="274"/>
-      <c r="Q11" s="276">
+      <c r="P11" s="249"/>
+      <c r="Q11" s="251">
         <v>70</v>
       </c>
-      <c r="R11" s="275" t="s">
+      <c r="R11" s="250" t="s">
         <v>417</v>
       </c>
-      <c r="S11" s="274"/>
-      <c r="T11" s="276">
+      <c r="S11" s="249"/>
+      <c r="T11" s="251">
         <v>27.5</v>
       </c>
-      <c r="U11" s="275" t="s">
+      <c r="U11" s="250" t="s">
         <v>418</v>
       </c>
-      <c r="V11" s="274"/>
-      <c r="W11" s="274">
+      <c r="V11" s="249"/>
+      <c r="W11" s="249">
         <v>45.7</v>
       </c>
-      <c r="X11" s="275" t="s">
+      <c r="X11" s="250" t="s">
         <v>419</v>
       </c>
-      <c r="Y11" s="274"/>
-      <c r="Z11" s="276">
+      <c r="Y11" s="249"/>
+      <c r="Z11" s="251">
         <v>73.2</v>
       </c>
-      <c r="AA11" s="275" t="s">
+      <c r="AA11" s="250" t="s">
         <v>420</v>
       </c>
-      <c r="AB11" s="274"/>
-      <c r="AC11" s="274">
+      <c r="AB11" s="249"/>
+      <c r="AC11" s="249">
         <v>27.9</v>
       </c>
-      <c r="AD11" s="275" t="s">
+      <c r="AD11" s="250" t="s">
         <v>421</v>
       </c>
-      <c r="AE11" s="274"/>
-      <c r="AF11" s="274">
+      <c r="AE11" s="249"/>
+      <c r="AF11" s="249">
         <v>26.9</v>
       </c>
-      <c r="AG11" s="275" t="s">
+      <c r="AG11" s="250" t="s">
         <v>422</v>
       </c>
-      <c r="AH11" s="274"/>
-      <c r="AI11" s="274">
+      <c r="AH11" s="249"/>
+      <c r="AI11" s="249">
         <v>54.9</v>
       </c>
-      <c r="AJ11" s="275" t="s">
+      <c r="AJ11" s="250" t="s">
         <v>423</v>
       </c>
-      <c r="AK11" s="274"/>
-      <c r="AL11" s="274">
+      <c r="AK11" s="249"/>
+      <c r="AL11" s="249">
         <v>29.9</v>
       </c>
-      <c r="AM11" s="275" t="s">
+      <c r="AM11" s="250" t="s">
         <v>424</v>
       </c>
-      <c r="AN11" s="274"/>
-      <c r="AO11" s="274">
+      <c r="AN11" s="249"/>
+      <c r="AO11" s="249">
         <v>42.5</v>
       </c>
-      <c r="AP11" s="275" t="s">
+      <c r="AP11" s="250" t="s">
         <v>425</v>
       </c>
-      <c r="AQ11" s="274"/>
-      <c r="AR11" s="274">
+      <c r="AQ11" s="249"/>
+      <c r="AR11" s="249">
         <v>72.400000000000006</v>
       </c>
-      <c r="AS11" s="274" t="s">
+      <c r="AS11" s="249" t="s">
         <v>426</v>
       </c>
-      <c r="AT11" s="274"/>
-      <c r="AU11" s="274">
+      <c r="AT11" s="249"/>
+      <c r="AU11" s="249">
         <v>35.4</v>
       </c>
-      <c r="AV11" s="275" t="s">
+      <c r="AV11" s="250" t="s">
         <v>409</v>
       </c>
-      <c r="AW11" s="274"/>
-      <c r="AX11" s="274">
+      <c r="AW11" s="249"/>
+      <c r="AX11" s="249">
         <v>27.2</v>
       </c>
-      <c r="AY11" s="275" t="s">
+      <c r="AY11" s="250" t="s">
         <v>427</v>
       </c>
-      <c r="AZ11" s="274"/>
-      <c r="BA11" s="274">
+      <c r="AZ11" s="249"/>
+      <c r="BA11" s="249">
         <v>62.6</v>
       </c>
-      <c r="BB11" s="275" t="s">
+      <c r="BB11" s="250" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="12" spans="1:54" ht="14.25">
-      <c r="A12" s="277" t="s">
+      <c r="A12" s="252" t="s">
         <v>429</v>
       </c>
-      <c r="B12" s="278"/>
-      <c r="C12" s="278"/>
-      <c r="D12" s="278"/>
-      <c r="E12" s="278"/>
-      <c r="F12" s="278"/>
-      <c r="G12" s="278"/>
-      <c r="H12" s="278"/>
-      <c r="I12" s="278"/>
-      <c r="J12" s="278"/>
-      <c r="K12" s="278"/>
-      <c r="L12" s="278"/>
-      <c r="M12" s="278"/>
-      <c r="N12" s="278"/>
-      <c r="O12" s="278"/>
-      <c r="P12" s="278"/>
-      <c r="Q12" s="278"/>
-      <c r="R12" s="278"/>
-      <c r="S12" s="279"/>
-      <c r="T12" s="279"/>
-      <c r="U12" s="279"/>
-      <c r="V12" s="279"/>
-      <c r="W12" s="279"/>
-      <c r="X12" s="279"/>
-      <c r="Y12" s="279"/>
-      <c r="Z12" s="279"/>
-      <c r="AA12" s="279"/>
-      <c r="AB12" s="279"/>
-      <c r="AC12" s="279"/>
-      <c r="AD12" s="279"/>
-      <c r="AE12" s="279"/>
-      <c r="AF12" s="279"/>
-      <c r="AG12" s="279"/>
-      <c r="AH12" s="279"/>
-      <c r="AI12" s="279"/>
-      <c r="AJ12" s="280"/>
-      <c r="AK12" s="279"/>
-      <c r="AL12" s="279"/>
-      <c r="AM12" s="279"/>
-      <c r="AN12" s="279"/>
-      <c r="AO12" s="279"/>
-      <c r="AP12" s="279"/>
-      <c r="AS12" s="266"/>
+      <c r="B12" s="253"/>
+      <c r="C12" s="253"/>
+      <c r="D12" s="253"/>
+      <c r="E12" s="253"/>
+      <c r="F12" s="253"/>
+      <c r="G12" s="253"/>
+      <c r="H12" s="253"/>
+      <c r="I12" s="253"/>
+      <c r="J12" s="253"/>
+      <c r="K12" s="253"/>
+      <c r="L12" s="253"/>
+      <c r="M12" s="253"/>
+      <c r="N12" s="253"/>
+      <c r="O12" s="253"/>
+      <c r="P12" s="253"/>
+      <c r="Q12" s="253"/>
+      <c r="R12" s="253"/>
+      <c r="S12" s="254"/>
+      <c r="T12" s="254"/>
+      <c r="U12" s="254"/>
+      <c r="V12" s="254"/>
+      <c r="W12" s="254"/>
+      <c r="X12" s="254"/>
+      <c r="Y12" s="254"/>
+      <c r="Z12" s="254"/>
+      <c r="AA12" s="254"/>
+      <c r="AB12" s="254"/>
+      <c r="AC12" s="254"/>
+      <c r="AD12" s="254"/>
+      <c r="AE12" s="254"/>
+      <c r="AF12" s="254"/>
+      <c r="AG12" s="254"/>
+      <c r="AH12" s="254"/>
+      <c r="AI12" s="254"/>
+      <c r="AJ12" s="255"/>
+      <c r="AK12" s="254"/>
+      <c r="AL12" s="254"/>
+      <c r="AM12" s="254"/>
+      <c r="AN12" s="254"/>
+      <c r="AO12" s="254"/>
+      <c r="AP12" s="254"/>
+      <c r="AS12" s="241"/>
     </row>
     <row r="13" spans="1:54">
-      <c r="A13" s="281" t="s">
+      <c r="A13" s="256" t="s">
         <v>430</v>
       </c>
-      <c r="B13" s="282"/>
-      <c r="C13" s="282"/>
-      <c r="D13" s="282"/>
-      <c r="E13" s="282"/>
-      <c r="F13" s="282"/>
-      <c r="G13" s="282"/>
-      <c r="H13" s="282"/>
-      <c r="I13" s="282"/>
-      <c r="J13" s="282"/>
-      <c r="K13" s="282"/>
-      <c r="L13" s="282"/>
-      <c r="M13" s="282"/>
-      <c r="N13" s="282"/>
-      <c r="O13" s="282"/>
-      <c r="P13" s="282"/>
-      <c r="Q13" s="282"/>
-      <c r="R13" s="282"/>
-      <c r="S13" s="282"/>
-      <c r="T13" s="282"/>
-      <c r="U13" s="282"/>
-      <c r="V13" s="282"/>
-      <c r="W13" s="282"/>
-      <c r="X13" s="282"/>
-      <c r="Y13" s="282"/>
-      <c r="Z13" s="282"/>
-      <c r="AA13" s="282"/>
-      <c r="AB13" s="282"/>
-      <c r="AC13" s="282"/>
-      <c r="AD13" s="282"/>
-      <c r="AE13" s="282"/>
-      <c r="AF13" s="282"/>
-      <c r="AG13" s="282"/>
-      <c r="AH13" s="282"/>
-      <c r="AI13" s="282"/>
-      <c r="AJ13" s="282"/>
-      <c r="AK13" s="282"/>
-      <c r="AL13" s="282"/>
-      <c r="AM13" s="282"/>
-      <c r="AN13" s="282"/>
-      <c r="AO13" s="282"/>
-      <c r="AP13" s="282"/>
-      <c r="AS13" s="266"/>
+      <c r="B13" s="257"/>
+      <c r="C13" s="257"/>
+      <c r="D13" s="257"/>
+      <c r="E13" s="257"/>
+      <c r="F13" s="257"/>
+      <c r="G13" s="257"/>
+      <c r="H13" s="257"/>
+      <c r="I13" s="257"/>
+      <c r="J13" s="257"/>
+      <c r="K13" s="257"/>
+      <c r="L13" s="257"/>
+      <c r="M13" s="257"/>
+      <c r="N13" s="257"/>
+      <c r="O13" s="257"/>
+      <c r="P13" s="257"/>
+      <c r="Q13" s="257"/>
+      <c r="R13" s="257"/>
+      <c r="S13" s="257"/>
+      <c r="T13" s="257"/>
+      <c r="U13" s="257"/>
+      <c r="V13" s="257"/>
+      <c r="W13" s="257"/>
+      <c r="X13" s="257"/>
+      <c r="Y13" s="257"/>
+      <c r="Z13" s="257"/>
+      <c r="AA13" s="257"/>
+      <c r="AB13" s="257"/>
+      <c r="AC13" s="257"/>
+      <c r="AD13" s="257"/>
+      <c r="AE13" s="257"/>
+      <c r="AF13" s="257"/>
+      <c r="AG13" s="257"/>
+      <c r="AH13" s="257"/>
+      <c r="AI13" s="257"/>
+      <c r="AJ13" s="257"/>
+      <c r="AK13" s="257"/>
+      <c r="AL13" s="257"/>
+      <c r="AM13" s="257"/>
+      <c r="AN13" s="257"/>
+      <c r="AO13" s="257"/>
+      <c r="AP13" s="257"/>
+      <c r="AS13" s="241"/>
     </row>
     <row r="14" spans="1:54">
-      <c r="A14" s="281" t="s">
+      <c r="A14" s="256" t="s">
         <v>431</v>
       </c>
-      <c r="B14" s="282"/>
-      <c r="C14" s="282"/>
-      <c r="D14" s="282"/>
-      <c r="E14" s="282"/>
-      <c r="F14" s="282"/>
-      <c r="G14" s="282"/>
-      <c r="H14" s="282"/>
-      <c r="I14" s="282"/>
-      <c r="J14" s="282"/>
-      <c r="K14" s="282"/>
-      <c r="L14" s="282"/>
-      <c r="M14" s="282"/>
-      <c r="N14" s="282"/>
-      <c r="O14" s="282"/>
-      <c r="P14" s="282"/>
-      <c r="Q14" s="282"/>
-      <c r="R14" s="282"/>
-      <c r="S14" s="282"/>
-      <c r="T14" s="282"/>
-      <c r="U14" s="282"/>
-      <c r="V14" s="282"/>
-      <c r="W14" s="282"/>
-      <c r="X14" s="282"/>
-      <c r="Y14" s="282"/>
-      <c r="Z14" s="282"/>
-      <c r="AA14" s="282"/>
-      <c r="AB14" s="282"/>
-      <c r="AC14" s="282"/>
-      <c r="AD14" s="282"/>
-      <c r="AE14" s="282"/>
-      <c r="AF14" s="282"/>
-      <c r="AG14" s="282"/>
-      <c r="AH14" s="282"/>
-      <c r="AI14" s="282"/>
-      <c r="AJ14" s="282"/>
-      <c r="AK14" s="282"/>
-      <c r="AL14" s="282"/>
-      <c r="AM14" s="282"/>
-      <c r="AN14" s="282"/>
-      <c r="AO14" s="282"/>
-      <c r="AP14" s="282"/>
+      <c r="B14" s="257"/>
+      <c r="C14" s="257"/>
+      <c r="D14" s="257"/>
+      <c r="E14" s="257"/>
+      <c r="F14" s="257"/>
+      <c r="G14" s="257"/>
+      <c r="H14" s="257"/>
+      <c r="I14" s="257"/>
+      <c r="J14" s="257"/>
+      <c r="K14" s="257"/>
+      <c r="L14" s="257"/>
+      <c r="M14" s="257"/>
+      <c r="N14" s="257"/>
+      <c r="O14" s="257"/>
+      <c r="P14" s="257"/>
+      <c r="Q14" s="257"/>
+      <c r="R14" s="257"/>
+      <c r="S14" s="257"/>
+      <c r="T14" s="257"/>
+      <c r="U14" s="257"/>
+      <c r="V14" s="257"/>
+      <c r="W14" s="257"/>
+      <c r="X14" s="257"/>
+      <c r="Y14" s="257"/>
+      <c r="Z14" s="257"/>
+      <c r="AA14" s="257"/>
+      <c r="AB14" s="257"/>
+      <c r="AC14" s="257"/>
+      <c r="AD14" s="257"/>
+      <c r="AE14" s="257"/>
+      <c r="AF14" s="257"/>
+      <c r="AG14" s="257"/>
+      <c r="AH14" s="257"/>
+      <c r="AI14" s="257"/>
+      <c r="AJ14" s="257"/>
+      <c r="AK14" s="257"/>
+      <c r="AL14" s="257"/>
+      <c r="AM14" s="257"/>
+      <c r="AN14" s="257"/>
+      <c r="AO14" s="257"/>
+      <c r="AP14" s="257"/>
     </row>
     <row r="15" spans="1:54">
-      <c r="A15" s="281" t="s">
+      <c r="A15" s="256" t="s">
         <v>432</v>
       </c>
-      <c r="B15" s="282"/>
-      <c r="C15" s="282"/>
-      <c r="D15" s="282"/>
-      <c r="E15" s="282"/>
-      <c r="F15" s="282"/>
-      <c r="G15" s="282"/>
-      <c r="H15" s="282"/>
-      <c r="I15" s="282"/>
-      <c r="J15" s="282"/>
-      <c r="K15" s="282"/>
-      <c r="L15" s="282"/>
-      <c r="M15" s="282"/>
-      <c r="N15" s="282"/>
-      <c r="O15" s="282"/>
-      <c r="P15" s="282"/>
-      <c r="Q15" s="282"/>
-      <c r="R15" s="282"/>
-      <c r="S15" s="282"/>
-      <c r="T15" s="282"/>
-      <c r="U15" s="282"/>
-      <c r="V15" s="282"/>
-      <c r="W15" s="282"/>
-      <c r="X15" s="282"/>
-      <c r="Y15" s="282"/>
-      <c r="Z15" s="282"/>
-      <c r="AA15" s="282"/>
-      <c r="AB15" s="282"/>
-      <c r="AC15" s="282"/>
-      <c r="AD15" s="282"/>
-      <c r="AE15" s="282"/>
-      <c r="AF15" s="282"/>
-      <c r="AG15" s="282"/>
-      <c r="AH15" s="282"/>
-      <c r="AI15" s="282"/>
-      <c r="AJ15" s="282"/>
-      <c r="AK15" s="282"/>
-      <c r="AL15" s="282"/>
-      <c r="AM15" s="282"/>
-      <c r="AN15" s="282"/>
-      <c r="AO15" s="282"/>
-      <c r="AP15" s="282"/>
+      <c r="B15" s="257"/>
+      <c r="C15" s="257"/>
+      <c r="D15" s="257"/>
+      <c r="E15" s="257"/>
+      <c r="F15" s="257"/>
+      <c r="G15" s="257"/>
+      <c r="H15" s="257"/>
+      <c r="I15" s="257"/>
+      <c r="J15" s="257"/>
+      <c r="K15" s="257"/>
+      <c r="L15" s="257"/>
+      <c r="M15" s="257"/>
+      <c r="N15" s="257"/>
+      <c r="O15" s="257"/>
+      <c r="P15" s="257"/>
+      <c r="Q15" s="257"/>
+      <c r="R15" s="257"/>
+      <c r="S15" s="257"/>
+      <c r="T15" s="257"/>
+      <c r="U15" s="257"/>
+      <c r="V15" s="257"/>
+      <c r="W15" s="257"/>
+      <c r="X15" s="257"/>
+      <c r="Y15" s="257"/>
+      <c r="Z15" s="257"/>
+      <c r="AA15" s="257"/>
+      <c r="AB15" s="257"/>
+      <c r="AC15" s="257"/>
+      <c r="AD15" s="257"/>
+      <c r="AE15" s="257"/>
+      <c r="AF15" s="257"/>
+      <c r="AG15" s="257"/>
+      <c r="AH15" s="257"/>
+      <c r="AI15" s="257"/>
+      <c r="AJ15" s="257"/>
+      <c r="AK15" s="257"/>
+      <c r="AL15" s="257"/>
+      <c r="AM15" s="257"/>
+      <c r="AN15" s="257"/>
+      <c r="AO15" s="257"/>
+      <c r="AP15" s="257"/>
     </row>
     <row r="16" spans="1:54">
-      <c r="A16" s="283" t="s">
+      <c r="A16" s="258" t="s">
         <v>433</v>
       </c>
-      <c r="B16" s="284"/>
-      <c r="C16" s="284"/>
-      <c r="D16" s="284"/>
-      <c r="E16" s="285"/>
-      <c r="F16" s="284"/>
-      <c r="G16" s="284"/>
-      <c r="H16" s="284"/>
-      <c r="I16" s="284"/>
-      <c r="J16" s="284"/>
-      <c r="K16" s="284"/>
-      <c r="L16" s="284"/>
-      <c r="M16" s="284"/>
-      <c r="N16" s="284"/>
-      <c r="O16" s="284"/>
-      <c r="P16" s="284"/>
-      <c r="Q16" s="284"/>
-      <c r="R16" s="284"/>
-      <c r="S16" s="285"/>
-      <c r="T16" s="284"/>
-      <c r="U16" s="284"/>
-      <c r="V16" s="284"/>
-      <c r="W16" s="285"/>
-      <c r="X16" s="284"/>
-      <c r="Y16" s="284"/>
-      <c r="Z16" s="284"/>
-      <c r="AA16" s="284"/>
-      <c r="AB16" s="284"/>
-      <c r="AC16" s="284"/>
-      <c r="AD16" s="284"/>
-      <c r="AE16" s="284"/>
-      <c r="AF16" s="284"/>
-      <c r="AG16" s="284"/>
-      <c r="AH16" s="284"/>
-      <c r="AI16" s="284"/>
-      <c r="AJ16" s="284"/>
-      <c r="AK16" s="284"/>
-      <c r="AL16" s="284"/>
-      <c r="AM16" s="284"/>
-      <c r="AN16" s="284"/>
-      <c r="AO16" s="285"/>
-      <c r="AP16" s="284"/>
+      <c r="B16" s="259"/>
+      <c r="C16" s="259"/>
+      <c r="D16" s="259"/>
+      <c r="E16" s="260"/>
+      <c r="F16" s="259"/>
+      <c r="G16" s="259"/>
+      <c r="H16" s="259"/>
+      <c r="I16" s="259"/>
+      <c r="J16" s="259"/>
+      <c r="K16" s="259"/>
+      <c r="L16" s="259"/>
+      <c r="M16" s="259"/>
+      <c r="N16" s="259"/>
+      <c r="O16" s="259"/>
+      <c r="P16" s="259"/>
+      <c r="Q16" s="259"/>
+      <c r="R16" s="259"/>
+      <c r="S16" s="260"/>
+      <c r="T16" s="259"/>
+      <c r="U16" s="259"/>
+      <c r="V16" s="259"/>
+      <c r="W16" s="260"/>
+      <c r="X16" s="259"/>
+      <c r="Y16" s="259"/>
+      <c r="Z16" s="259"/>
+      <c r="AA16" s="259"/>
+      <c r="AB16" s="259"/>
+      <c r="AC16" s="259"/>
+      <c r="AD16" s="259"/>
+      <c r="AE16" s="259"/>
+      <c r="AF16" s="259"/>
+      <c r="AG16" s="259"/>
+      <c r="AH16" s="259"/>
+      <c r="AI16" s="259"/>
+      <c r="AJ16" s="259"/>
+      <c r="AK16" s="259"/>
+      <c r="AL16" s="259"/>
+      <c r="AM16" s="259"/>
+      <c r="AN16" s="259"/>
+      <c r="AO16" s="260"/>
+      <c r="AP16" s="259"/>
     </row>
     <row r="17" spans="1:42" ht="14.25">
-      <c r="A17" s="286"/>
-      <c r="B17" s="287"/>
-      <c r="C17" s="287"/>
-      <c r="D17" s="287"/>
-      <c r="E17" s="279"/>
-      <c r="F17" s="287"/>
-      <c r="G17" s="287"/>
-      <c r="H17" s="287"/>
-      <c r="I17" s="287"/>
-      <c r="J17" s="287"/>
-      <c r="K17" s="287"/>
-      <c r="L17" s="287"/>
-      <c r="M17" s="287"/>
-      <c r="N17" s="287"/>
-      <c r="O17" s="287"/>
-      <c r="P17" s="287"/>
-      <c r="Q17" s="287"/>
-      <c r="R17" s="287"/>
-      <c r="S17" s="279"/>
-      <c r="T17" s="287"/>
-      <c r="U17" s="287"/>
-      <c r="V17" s="287"/>
-      <c r="W17" s="279"/>
-      <c r="X17" s="287"/>
-      <c r="Y17" s="287"/>
-      <c r="Z17" s="287"/>
-      <c r="AA17" s="287"/>
-      <c r="AB17" s="287"/>
-      <c r="AC17" s="287"/>
-      <c r="AD17" s="287"/>
-      <c r="AE17" s="287"/>
-      <c r="AF17" s="287"/>
-      <c r="AG17" s="287"/>
-      <c r="AH17" s="287"/>
-      <c r="AI17" s="287"/>
-      <c r="AJ17" s="287"/>
-      <c r="AK17" s="287"/>
-      <c r="AL17" s="287"/>
-      <c r="AM17" s="287"/>
-      <c r="AN17" s="287"/>
-      <c r="AO17" s="279"/>
-      <c r="AP17" s="287"/>
+      <c r="A17" s="261"/>
+      <c r="B17" s="262"/>
+      <c r="C17" s="262"/>
+      <c r="D17" s="262"/>
+      <c r="E17" s="254"/>
+      <c r="F17" s="262"/>
+      <c r="G17" s="262"/>
+      <c r="H17" s="262"/>
+      <c r="I17" s="262"/>
+      <c r="J17" s="262"/>
+      <c r="K17" s="262"/>
+      <c r="L17" s="262"/>
+      <c r="M17" s="262"/>
+      <c r="N17" s="262"/>
+      <c r="O17" s="262"/>
+      <c r="P17" s="262"/>
+      <c r="Q17" s="262"/>
+      <c r="R17" s="262"/>
+      <c r="S17" s="254"/>
+      <c r="T17" s="262"/>
+      <c r="U17" s="262"/>
+      <c r="V17" s="262"/>
+      <c r="W17" s="254"/>
+      <c r="X17" s="262"/>
+      <c r="Y17" s="262"/>
+      <c r="Z17" s="262"/>
+      <c r="AA17" s="262"/>
+      <c r="AB17" s="262"/>
+      <c r="AC17" s="262"/>
+      <c r="AD17" s="262"/>
+      <c r="AE17" s="262"/>
+      <c r="AF17" s="262"/>
+      <c r="AG17" s="262"/>
+      <c r="AH17" s="262"/>
+      <c r="AI17" s="262"/>
+      <c r="AJ17" s="262"/>
+      <c r="AK17" s="262"/>
+      <c r="AL17" s="262"/>
+      <c r="AM17" s="262"/>
+      <c r="AN17" s="262"/>
+      <c r="AO17" s="254"/>
+      <c r="AP17" s="262"/>
     </row>
     <row r="21" spans="1:42" ht="12.75">
-      <c r="A21" s="241" t="s">
+      <c r="A21" s="222" t="s">
         <v>436</v>
       </c>
-      <c r="B21" s="241"/>
-      <c r="C21" s="241"/>
-      <c r="D21" s="241"/>
-      <c r="E21" s="241"/>
-      <c r="F21" s="241"/>
-      <c r="G21" s="241"/>
-      <c r="H21" s="241"/>
-      <c r="I21" s="241"/>
-      <c r="J21" s="241"/>
-      <c r="K21" s="241"/>
-      <c r="L21" s="241"/>
-      <c r="M21" s="241"/>
-      <c r="N21" s="241"/>
-      <c r="O21" s="241"/>
-      <c r="P21" s="241"/>
-      <c r="Q21" s="241"/>
-      <c r="R21" s="241"/>
-      <c r="S21" s="241"/>
-      <c r="T21" s="241"/>
-      <c r="U21" s="241"/>
-      <c r="V21" s="241"/>
-      <c r="W21" s="241"/>
-      <c r="X21" s="241"/>
-      <c r="Y21" s="241"/>
-      <c r="Z21" s="241"/>
-      <c r="AA21" s="241"/>
+      <c r="B21" s="222"/>
+      <c r="C21" s="222"/>
+      <c r="D21" s="222"/>
+      <c r="E21" s="222"/>
+      <c r="F21" s="222"/>
+      <c r="G21" s="222"/>
+      <c r="H21" s="222"/>
+      <c r="I21" s="222"/>
+      <c r="J21" s="222"/>
+      <c r="K21" s="222"/>
+      <c r="L21" s="222"/>
+      <c r="M21" s="222"/>
+      <c r="N21" s="222"/>
+      <c r="O21" s="222"/>
+      <c r="P21" s="222"/>
+      <c r="Q21" s="222"/>
+      <c r="R21" s="222"/>
+      <c r="S21" s="222"/>
+      <c r="T21" s="222"/>
+      <c r="U21" s="222"/>
+      <c r="V21" s="222"/>
+      <c r="W21" s="222"/>
+      <c r="X21" s="222"/>
+      <c r="Y21" s="222"/>
+      <c r="Z21" s="222"/>
+      <c r="AA21" s="222"/>
     </row>
     <row r="22" spans="1:42">
-      <c r="A22" s="293"/>
-      <c r="B22" s="294" t="s">
+      <c r="A22" s="264"/>
+      <c r="B22" s="384" t="s">
         <v>180</v>
       </c>
-      <c r="C22" s="294"/>
-      <c r="D22" s="294"/>
-      <c r="E22" s="294"/>
-      <c r="F22" s="294"/>
-      <c r="G22" s="294"/>
-      <c r="H22" s="294"/>
-      <c r="I22" s="294"/>
-      <c r="J22" s="295"/>
-      <c r="K22" s="294" t="s">
+      <c r="C22" s="384"/>
+      <c r="D22" s="384"/>
+      <c r="E22" s="384"/>
+      <c r="F22" s="384"/>
+      <c r="G22" s="384"/>
+      <c r="H22" s="384"/>
+      <c r="I22" s="384"/>
+      <c r="J22" s="265"/>
+      <c r="K22" s="384" t="s">
         <v>181</v>
       </c>
-      <c r="L22" s="294"/>
-      <c r="M22" s="294"/>
-      <c r="N22" s="294"/>
-      <c r="O22" s="294"/>
-      <c r="P22" s="294"/>
-      <c r="Q22" s="294"/>
-      <c r="R22" s="294"/>
-      <c r="S22" s="295"/>
-      <c r="T22" s="294" t="s">
+      <c r="L22" s="384"/>
+      <c r="M22" s="384"/>
+      <c r="N22" s="384"/>
+      <c r="O22" s="384"/>
+      <c r="P22" s="384"/>
+      <c r="Q22" s="384"/>
+      <c r="R22" s="384"/>
+      <c r="S22" s="265"/>
+      <c r="T22" s="384" t="s">
         <v>435</v>
       </c>
-      <c r="U22" s="294"/>
-      <c r="V22" s="294"/>
-      <c r="W22" s="294"/>
-      <c r="X22" s="294"/>
-      <c r="Y22" s="294"/>
-      <c r="Z22" s="294"/>
-      <c r="AA22" s="294"/>
+      <c r="U22" s="384"/>
+      <c r="V22" s="384"/>
+      <c r="W22" s="384"/>
+      <c r="X22" s="384"/>
+      <c r="Y22" s="384"/>
+      <c r="Z22" s="384"/>
+      <c r="AA22" s="384"/>
     </row>
     <row r="23" spans="1:42" ht="22.5" customHeight="1">
-      <c r="A23" s="296"/>
-      <c r="B23" s="297" t="s">
+      <c r="A23" s="266"/>
+      <c r="B23" s="385" t="s">
         <v>296</v>
       </c>
-      <c r="C23" s="297"/>
-      <c r="D23" s="298"/>
-      <c r="E23" s="299" t="s">
+      <c r="C23" s="385"/>
+      <c r="D23" s="267"/>
+      <c r="E23" s="383" t="s">
         <v>297</v>
       </c>
-      <c r="F23" s="299"/>
-      <c r="G23" s="300"/>
-      <c r="H23" s="301" t="s">
+      <c r="F23" s="383"/>
+      <c r="G23" s="268"/>
+      <c r="H23" s="386" t="s">
         <v>298</v>
       </c>
-      <c r="I23" s="301"/>
-      <c r="J23" s="302"/>
-      <c r="K23" s="297" t="s">
+      <c r="I23" s="386"/>
+      <c r="J23" s="269"/>
+      <c r="K23" s="385" t="s">
         <v>296</v>
       </c>
-      <c r="L23" s="297"/>
-      <c r="M23" s="298"/>
-      <c r="N23" s="299" t="s">
+      <c r="L23" s="385"/>
+      <c r="M23" s="267"/>
+      <c r="N23" s="383" t="s">
         <v>297</v>
       </c>
-      <c r="O23" s="299"/>
-      <c r="P23" s="300"/>
-      <c r="Q23" s="301" t="s">
+      <c r="O23" s="383"/>
+      <c r="P23" s="268"/>
+      <c r="Q23" s="386" t="s">
         <v>298</v>
       </c>
-      <c r="R23" s="301"/>
-      <c r="S23" s="302"/>
-      <c r="T23" s="299" t="s">
+      <c r="R23" s="386"/>
+      <c r="S23" s="269"/>
+      <c r="T23" s="383" t="s">
         <v>296</v>
       </c>
-      <c r="U23" s="299"/>
-      <c r="V23" s="300"/>
-      <c r="W23" s="299" t="s">
+      <c r="U23" s="383"/>
+      <c r="V23" s="268"/>
+      <c r="W23" s="383" t="s">
         <v>297</v>
       </c>
-      <c r="X23" s="299"/>
-      <c r="Y23" s="303"/>
-      <c r="Z23" s="299" t="s">
+      <c r="X23" s="383"/>
+      <c r="Y23" s="270"/>
+      <c r="Z23" s="383" t="s">
         <v>298</v>
       </c>
-      <c r="AA23" s="299"/>
+      <c r="AA23" s="383"/>
     </row>
     <row r="24" spans="1:42">
-      <c r="A24" s="304" t="s">
+      <c r="A24" s="271" t="s">
         <v>299</v>
       </c>
-      <c r="B24" s="257" t="s">
+      <c r="B24" s="232" t="s">
         <v>300</v>
       </c>
-      <c r="C24" s="257" t="s">
+      <c r="C24" s="232" t="s">
         <v>301</v>
       </c>
-      <c r="D24" s="250"/>
-      <c r="E24" s="257" t="s">
+      <c r="D24" s="227"/>
+      <c r="E24" s="232" t="s">
         <v>300</v>
       </c>
-      <c r="F24" s="257" t="s">
+      <c r="F24" s="232" t="s">
         <v>301</v>
       </c>
-      <c r="G24" s="250"/>
-      <c r="H24" s="257" t="s">
+      <c r="G24" s="227"/>
+      <c r="H24" s="232" t="s">
         <v>300</v>
       </c>
-      <c r="I24" s="257" t="s">
+      <c r="I24" s="232" t="s">
         <v>301</v>
       </c>
-      <c r="J24" s="250"/>
-      <c r="K24" s="257" t="s">
+      <c r="J24" s="227"/>
+      <c r="K24" s="232" t="s">
         <v>300</v>
       </c>
-      <c r="L24" s="257" t="s">
+      <c r="L24" s="232" t="s">
         <v>301</v>
       </c>
-      <c r="M24" s="250"/>
-      <c r="N24" s="257" t="s">
+      <c r="M24" s="227"/>
+      <c r="N24" s="232" t="s">
         <v>300</v>
       </c>
-      <c r="O24" s="257" t="s">
+      <c r="O24" s="232" t="s">
         <v>301</v>
       </c>
-      <c r="P24" s="250"/>
-      <c r="Q24" s="257" t="s">
+      <c r="P24" s="227"/>
+      <c r="Q24" s="232" t="s">
         <v>300</v>
       </c>
-      <c r="R24" s="257" t="s">
+      <c r="R24" s="232" t="s">
         <v>301</v>
       </c>
-      <c r="S24" s="250"/>
-      <c r="T24" s="257" t="s">
+      <c r="S24" s="227"/>
+      <c r="T24" s="232" t="s">
         <v>300</v>
       </c>
-      <c r="U24" s="257" t="s">
+      <c r="U24" s="232" t="s">
         <v>301</v>
       </c>
-      <c r="V24" s="250"/>
-      <c r="W24" s="257" t="s">
+      <c r="V24" s="227"/>
+      <c r="W24" s="232" t="s">
         <v>300</v>
       </c>
-      <c r="X24" s="257" t="s">
+      <c r="X24" s="232" t="s">
         <v>301</v>
       </c>
-      <c r="Z24" s="257" t="s">
+      <c r="Z24" s="232" t="s">
         <v>300</v>
       </c>
-      <c r="AA24" s="257" t="s">
+      <c r="AA24" s="232" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="25" spans="1:42">
-      <c r="A25" s="305" t="s">
+      <c r="A25" s="272" t="s">
         <v>185</v>
       </c>
-      <c r="B25" s="306">
+      <c r="B25" s="273">
         <v>35</v>
       </c>
-      <c r="C25" s="262" t="s">
+      <c r="C25" s="237" t="s">
         <v>437</v>
       </c>
-      <c r="D25" s="263"/>
-      <c r="E25" s="306">
+      <c r="D25" s="238"/>
+      <c r="E25" s="273">
         <v>18.100000000000001</v>
       </c>
-      <c r="F25" s="262" t="s">
+      <c r="F25" s="237" t="s">
         <v>438</v>
       </c>
-      <c r="G25" s="263"/>
-      <c r="H25" s="306">
+      <c r="G25" s="238"/>
+      <c r="H25" s="273">
         <v>52.4</v>
       </c>
-      <c r="I25" s="263" t="s">
+      <c r="I25" s="238" t="s">
         <v>439</v>
       </c>
-      <c r="J25" s="263"/>
-      <c r="K25" s="306">
+      <c r="J25" s="238"/>
+      <c r="K25" s="273">
         <v>26</v>
       </c>
-      <c r="L25" s="262" t="s">
+      <c r="L25" s="237" t="s">
         <v>440</v>
       </c>
-      <c r="M25" s="263"/>
-      <c r="N25" s="306">
+      <c r="M25" s="238"/>
+      <c r="N25" s="273">
         <v>13.5</v>
       </c>
-      <c r="O25" s="262" t="s">
+      <c r="O25" s="237" t="s">
         <v>441</v>
       </c>
-      <c r="P25" s="263"/>
-      <c r="Q25" s="306">
+      <c r="P25" s="238"/>
+      <c r="Q25" s="273">
         <v>39.9</v>
       </c>
-      <c r="R25" s="263" t="s">
+      <c r="R25" s="238" t="s">
         <v>442</v>
       </c>
-      <c r="S25" s="263"/>
-      <c r="T25" s="306">
+      <c r="S25" s="238"/>
+      <c r="T25" s="273">
         <v>30.3</v>
       </c>
-      <c r="U25" s="262" t="s">
+      <c r="U25" s="237" t="s">
         <v>443</v>
       </c>
-      <c r="V25" s="263"/>
-      <c r="W25" s="306">
+      <c r="V25" s="238"/>
+      <c r="W25" s="273">
         <v>15.5</v>
       </c>
-      <c r="X25" s="262" t="s">
+      <c r="X25" s="237" t="s">
         <v>444</v>
       </c>
-      <c r="Z25" s="306">
+      <c r="Z25" s="273">
         <v>46</v>
       </c>
       <c r="AA25" s="32" t="s">
@@ -24380,65 +24483,65 @@
       </c>
     </row>
     <row r="26" spans="1:42">
-      <c r="A26" s="307" t="s">
+      <c r="A26" s="274" t="s">
         <v>186</v>
       </c>
-      <c r="B26" s="306">
+      <c r="B26" s="273">
         <v>42.2</v>
       </c>
-      <c r="C26" s="263" t="s">
+      <c r="C26" s="238" t="s">
         <v>446</v>
       </c>
-      <c r="D26" s="263"/>
-      <c r="E26" s="306">
+      <c r="D26" s="238"/>
+      <c r="E26" s="273">
         <v>24.6</v>
       </c>
-      <c r="F26" s="263" t="s">
+      <c r="F26" s="238" t="s">
         <v>447</v>
       </c>
-      <c r="G26" s="263"/>
-      <c r="H26" s="306">
+      <c r="G26" s="238"/>
+      <c r="H26" s="273">
         <v>66.5</v>
       </c>
-      <c r="I26" s="263" t="s">
+      <c r="I26" s="238" t="s">
         <v>448</v>
       </c>
-      <c r="J26" s="263"/>
-      <c r="K26" s="306">
+      <c r="J26" s="238"/>
+      <c r="K26" s="273">
         <v>26</v>
       </c>
-      <c r="L26" s="263" t="s">
+      <c r="L26" s="238" t="s">
         <v>449</v>
       </c>
-      <c r="M26" s="263"/>
-      <c r="N26" s="306">
+      <c r="M26" s="238"/>
+      <c r="N26" s="273">
         <v>22.9</v>
       </c>
-      <c r="O26" s="263" t="s">
+      <c r="O26" s="238" t="s">
         <v>450</v>
       </c>
-      <c r="P26" s="263"/>
-      <c r="Q26" s="306">
+      <c r="P26" s="238"/>
+      <c r="Q26" s="273">
         <v>49.2</v>
       </c>
-      <c r="R26" s="263" t="s">
+      <c r="R26" s="238" t="s">
         <v>451</v>
       </c>
-      <c r="S26" s="263"/>
-      <c r="T26" s="306">
+      <c r="S26" s="238"/>
+      <c r="T26" s="273">
         <v>33.9</v>
       </c>
-      <c r="U26" s="263" t="s">
+      <c r="U26" s="238" t="s">
         <v>452</v>
       </c>
-      <c r="V26" s="263"/>
-      <c r="W26" s="306">
+      <c r="V26" s="238"/>
+      <c r="W26" s="273">
         <v>23.8</v>
       </c>
-      <c r="X26" s="263" t="s">
+      <c r="X26" s="238" t="s">
         <v>453</v>
       </c>
-      <c r="Z26" s="306">
+      <c r="Z26" s="273">
         <v>57.7</v>
       </c>
       <c r="AA26" s="32" t="s">
@@ -24446,65 +24549,65 @@
       </c>
     </row>
     <row r="27" spans="1:42">
-      <c r="A27" s="307" t="s">
+      <c r="A27" s="274" t="s">
         <v>187</v>
       </c>
-      <c r="B27" s="306">
+      <c r="B27" s="273">
         <v>45.4</v>
       </c>
-      <c r="C27" s="263" t="s">
+      <c r="C27" s="238" t="s">
         <v>455</v>
       </c>
-      <c r="D27" s="263"/>
-      <c r="E27" s="306">
+      <c r="D27" s="238"/>
+      <c r="E27" s="273">
         <v>32</v>
       </c>
-      <c r="F27" s="263" t="s">
+      <c r="F27" s="238" t="s">
         <v>456</v>
       </c>
-      <c r="G27" s="263"/>
-      <c r="H27" s="306">
+      <c r="G27" s="238"/>
+      <c r="H27" s="273">
         <v>77.5</v>
       </c>
-      <c r="I27" s="263" t="s">
+      <c r="I27" s="238" t="s">
         <v>457</v>
       </c>
-      <c r="J27" s="263"/>
-      <c r="K27" s="306">
+      <c r="J27" s="238"/>
+      <c r="K27" s="273">
         <v>30.7</v>
       </c>
-      <c r="L27" s="263" t="s">
+      <c r="L27" s="238" t="s">
         <v>458</v>
       </c>
-      <c r="M27" s="263"/>
-      <c r="N27" s="306">
+      <c r="M27" s="238"/>
+      <c r="N27" s="273">
         <v>29.6</v>
       </c>
-      <c r="O27" s="263" t="s">
+      <c r="O27" s="238" t="s">
         <v>459</v>
       </c>
-      <c r="P27" s="263"/>
-      <c r="Q27" s="306">
+      <c r="P27" s="238"/>
+      <c r="Q27" s="273">
         <v>60.1</v>
       </c>
-      <c r="R27" s="263" t="s">
+      <c r="R27" s="238" t="s">
         <v>460</v>
       </c>
-      <c r="S27" s="263"/>
-      <c r="T27" s="306">
+      <c r="S27" s="238"/>
+      <c r="T27" s="273">
         <v>38.1</v>
       </c>
-      <c r="U27" s="263" t="s">
+      <c r="U27" s="238" t="s">
         <v>461</v>
       </c>
-      <c r="V27" s="263"/>
-      <c r="W27" s="306">
+      <c r="V27" s="238"/>
+      <c r="W27" s="273">
         <v>30.6</v>
       </c>
-      <c r="X27" s="263" t="s">
+      <c r="X27" s="238" t="s">
         <v>462</v>
       </c>
-      <c r="Z27" s="306">
+      <c r="Z27" s="273">
         <v>68.7</v>
       </c>
       <c r="AA27" s="32" t="s">
@@ -24512,65 +24615,65 @@
       </c>
     </row>
     <row r="28" spans="1:42">
-      <c r="A28" s="307" t="s">
+      <c r="A28" s="274" t="s">
         <v>188</v>
       </c>
-      <c r="B28" s="306">
+      <c r="B28" s="273">
         <v>43</v>
       </c>
-      <c r="C28" s="263" t="s">
+      <c r="C28" s="238" t="s">
         <v>464</v>
       </c>
-      <c r="D28" s="263"/>
-      <c r="E28" s="306">
+      <c r="D28" s="238"/>
+      <c r="E28" s="273">
         <v>40.6</v>
       </c>
-      <c r="F28" s="263" t="s">
+      <c r="F28" s="238" t="s">
         <v>465</v>
       </c>
-      <c r="G28" s="263"/>
-      <c r="H28" s="306">
+      <c r="G28" s="238"/>
+      <c r="H28" s="273">
         <v>82.9</v>
       </c>
-      <c r="I28" s="263" t="s">
+      <c r="I28" s="238" t="s">
         <v>466</v>
       </c>
-      <c r="J28" s="263"/>
-      <c r="K28" s="306">
+      <c r="J28" s="238"/>
+      <c r="K28" s="273">
         <v>30.7</v>
       </c>
-      <c r="L28" s="263" t="s">
+      <c r="L28" s="238" t="s">
         <v>467</v>
       </c>
-      <c r="M28" s="263"/>
-      <c r="N28" s="306">
+      <c r="M28" s="238"/>
+      <c r="N28" s="273">
         <v>34.5</v>
       </c>
-      <c r="O28" s="263" t="s">
+      <c r="O28" s="238" t="s">
         <v>468</v>
       </c>
-      <c r="P28" s="263"/>
-      <c r="Q28" s="306">
+      <c r="P28" s="238"/>
+      <c r="Q28" s="273">
         <v>65.2</v>
       </c>
-      <c r="R28" s="263" t="s">
+      <c r="R28" s="238" t="s">
         <v>469</v>
       </c>
-      <c r="S28" s="263"/>
-      <c r="T28" s="306">
+      <c r="S28" s="238"/>
+      <c r="T28" s="273">
         <v>36.6</v>
       </c>
-      <c r="U28" s="263" t="s">
+      <c r="U28" s="238" t="s">
         <v>470</v>
       </c>
-      <c r="V28" s="263"/>
-      <c r="W28" s="306">
+      <c r="V28" s="238"/>
+      <c r="W28" s="273">
         <v>37.4</v>
       </c>
-      <c r="X28" s="263" t="s">
+      <c r="X28" s="238" t="s">
         <v>471</v>
       </c>
-      <c r="Z28" s="306">
+      <c r="Z28" s="273">
         <v>74</v>
       </c>
       <c r="AA28" s="32" t="s">
@@ -24578,65 +24681,65 @@
       </c>
     </row>
     <row r="29" spans="1:42">
-      <c r="A29" s="307" t="s">
+      <c r="A29" s="274" t="s">
         <v>473</v>
       </c>
-      <c r="B29" s="306">
+      <c r="B29" s="273">
         <v>42.2</v>
       </c>
-      <c r="C29" s="263" t="s">
+      <c r="C29" s="238" t="s">
         <v>474</v>
       </c>
-      <c r="D29" s="263"/>
-      <c r="E29" s="306">
+      <c r="D29" s="238"/>
+      <c r="E29" s="273">
         <v>41.6</v>
       </c>
-      <c r="F29" s="263" t="s">
+      <c r="F29" s="238" t="s">
         <v>475</v>
       </c>
-      <c r="G29" s="263"/>
-      <c r="H29" s="306">
+      <c r="G29" s="238"/>
+      <c r="H29" s="273">
         <v>83.6</v>
       </c>
-      <c r="I29" s="263" t="s">
+      <c r="I29" s="238" t="s">
         <v>476</v>
       </c>
-      <c r="J29" s="263"/>
-      <c r="K29" s="306">
+      <c r="J29" s="238"/>
+      <c r="K29" s="273">
         <v>28.4</v>
       </c>
-      <c r="L29" s="263" t="s">
+      <c r="L29" s="238" t="s">
         <v>477</v>
       </c>
-      <c r="M29" s="263"/>
-      <c r="N29" s="306">
+      <c r="M29" s="238"/>
+      <c r="N29" s="273">
         <v>38.1</v>
       </c>
-      <c r="O29" s="263" t="s">
+      <c r="O29" s="238" t="s">
         <v>478</v>
       </c>
-      <c r="P29" s="263"/>
-      <c r="Q29" s="306">
+      <c r="P29" s="238"/>
+      <c r="Q29" s="273">
         <v>66.599999999999994</v>
       </c>
-      <c r="R29" s="263" t="s">
+      <c r="R29" s="238" t="s">
         <v>479</v>
       </c>
-      <c r="S29" s="263"/>
-      <c r="T29" s="306">
+      <c r="S29" s="238"/>
+      <c r="T29" s="273">
         <v>34.799999999999997</v>
       </c>
-      <c r="U29" s="263" t="s">
+      <c r="U29" s="238" t="s">
         <v>480</v>
       </c>
-      <c r="V29" s="263"/>
-      <c r="W29" s="306">
+      <c r="V29" s="238"/>
+      <c r="W29" s="273">
         <v>39.9</v>
       </c>
-      <c r="X29" s="263" t="s">
+      <c r="X29" s="238" t="s">
         <v>481</v>
       </c>
-      <c r="Z29" s="306">
+      <c r="Z29" s="273">
         <v>74.7</v>
       </c>
       <c r="AA29" s="32" t="s">
@@ -24644,65 +24747,65 @@
       </c>
     </row>
     <row r="30" spans="1:42">
-      <c r="A30" s="307" t="s">
+      <c r="A30" s="274" t="s">
         <v>483</v>
       </c>
-      <c r="B30" s="308">
+      <c r="B30" s="275">
         <v>40.9</v>
       </c>
-      <c r="C30" s="309" t="s">
+      <c r="C30" s="276" t="s">
         <v>484</v>
       </c>
-      <c r="D30" s="309"/>
-      <c r="E30" s="309">
+      <c r="D30" s="276"/>
+      <c r="E30" s="276">
         <v>42.2</v>
       </c>
-      <c r="F30" s="263" t="s">
+      <c r="F30" s="238" t="s">
         <v>474</v>
       </c>
-      <c r="G30" s="309"/>
-      <c r="H30" s="309">
+      <c r="G30" s="276"/>
+      <c r="H30" s="276">
         <v>83.3</v>
       </c>
-      <c r="I30" s="263" t="s">
+      <c r="I30" s="238" t="s">
         <v>485</v>
       </c>
-      <c r="J30" s="309"/>
-      <c r="K30" s="309">
+      <c r="J30" s="276"/>
+      <c r="K30" s="276">
         <v>34.4</v>
       </c>
-      <c r="L30" s="263" t="s">
+      <c r="L30" s="238" t="s">
         <v>486</v>
       </c>
-      <c r="M30" s="309"/>
-      <c r="N30" s="309">
+      <c r="M30" s="276"/>
+      <c r="N30" s="276">
         <v>38.700000000000003</v>
       </c>
-      <c r="O30" s="263" t="s">
+      <c r="O30" s="238" t="s">
         <v>487</v>
       </c>
-      <c r="P30" s="309"/>
-      <c r="Q30" s="309">
+      <c r="P30" s="276"/>
+      <c r="Q30" s="276">
         <v>73.3</v>
       </c>
-      <c r="R30" s="263" t="s">
+      <c r="R30" s="238" t="s">
         <v>488</v>
       </c>
-      <c r="S30" s="309"/>
-      <c r="T30" s="309">
+      <c r="S30" s="276"/>
+      <c r="T30" s="276">
         <v>37.5</v>
       </c>
-      <c r="U30" s="263" t="s">
+      <c r="U30" s="238" t="s">
         <v>489</v>
       </c>
-      <c r="V30" s="309"/>
-      <c r="W30" s="309">
+      <c r="V30" s="276"/>
+      <c r="W30" s="276">
         <v>40.5</v>
       </c>
-      <c r="X30" s="263" t="s">
+      <c r="X30" s="238" t="s">
         <v>490</v>
       </c>
-      <c r="Z30" s="265">
+      <c r="Z30" s="240">
         <v>78.2</v>
       </c>
       <c r="AA30" s="32" t="s">
@@ -24710,65 +24813,65 @@
       </c>
     </row>
     <row r="31" spans="1:42">
-      <c r="A31" s="307" t="s">
+      <c r="A31" s="274" t="s">
         <v>492</v>
       </c>
-      <c r="B31" s="310">
+      <c r="B31" s="277">
         <v>44</v>
       </c>
-      <c r="C31" s="309" t="s">
+      <c r="C31" s="276" t="s">
         <v>493</v>
       </c>
-      <c r="D31" s="309"/>
-      <c r="E31" s="309">
+      <c r="D31" s="276"/>
+      <c r="E31" s="276">
         <v>33.200000000000003</v>
       </c>
-      <c r="F31" s="263" t="s">
+      <c r="F31" s="238" t="s">
         <v>494</v>
       </c>
-      <c r="G31" s="309"/>
-      <c r="H31" s="309">
+      <c r="G31" s="276"/>
+      <c r="H31" s="276">
         <v>78.3</v>
       </c>
-      <c r="I31" s="263" t="s">
+      <c r="I31" s="238" t="s">
         <v>495</v>
       </c>
-      <c r="J31" s="309"/>
-      <c r="K31" s="309">
+      <c r="J31" s="276"/>
+      <c r="K31" s="276">
         <v>33.299999999999997</v>
       </c>
-      <c r="L31" s="263" t="s">
+      <c r="L31" s="238" t="s">
         <v>496</v>
       </c>
-      <c r="M31" s="309"/>
-      <c r="N31" s="306">
+      <c r="M31" s="276"/>
+      <c r="N31" s="273">
         <v>38.6</v>
       </c>
-      <c r="O31" s="263" t="s">
+      <c r="O31" s="238" t="s">
         <v>497</v>
       </c>
-      <c r="P31" s="309"/>
-      <c r="Q31" s="306">
+      <c r="P31" s="276"/>
+      <c r="Q31" s="273">
         <v>72.099999999999994</v>
       </c>
-      <c r="R31" s="263" t="s">
+      <c r="R31" s="238" t="s">
         <v>498</v>
       </c>
-      <c r="S31" s="309"/>
-      <c r="T31" s="306">
+      <c r="S31" s="276"/>
+      <c r="T31" s="273">
         <v>38.1</v>
       </c>
-      <c r="U31" s="263" t="s">
+      <c r="U31" s="238" t="s">
         <v>499</v>
       </c>
-      <c r="V31" s="309"/>
-      <c r="W31" s="306">
+      <c r="V31" s="276"/>
+      <c r="W31" s="273">
         <v>36.299999999999997</v>
       </c>
-      <c r="X31" s="263" t="s">
+      <c r="X31" s="238" t="s">
         <v>500</v>
       </c>
-      <c r="Z31" s="306">
+      <c r="Z31" s="273">
         <v>75</v>
       </c>
       <c r="AA31" s="32" t="s">
@@ -24776,65 +24879,65 @@
       </c>
     </row>
     <row r="32" spans="1:42">
-      <c r="A32" s="311" t="s">
+      <c r="A32" s="278" t="s">
         <v>502</v>
       </c>
-      <c r="B32" s="312">
+      <c r="B32" s="279">
         <v>46.2</v>
       </c>
-      <c r="C32" s="309" t="s">
+      <c r="C32" s="276" t="s">
         <v>503</v>
       </c>
-      <c r="D32" s="309"/>
-      <c r="E32" s="313">
+      <c r="D32" s="276"/>
+      <c r="E32" s="280">
         <v>16</v>
       </c>
-      <c r="F32" s="263" t="s">
+      <c r="F32" s="238" t="s">
         <v>504</v>
       </c>
-      <c r="G32" s="309"/>
-      <c r="H32" s="309">
+      <c r="G32" s="276"/>
+      <c r="H32" s="276">
         <v>65.099999999999994</v>
       </c>
-      <c r="I32" s="263" t="s">
+      <c r="I32" s="238" t="s">
         <v>505</v>
       </c>
-      <c r="J32" s="309"/>
-      <c r="K32" s="313">
+      <c r="J32" s="276"/>
+      <c r="K32" s="280">
         <v>38</v>
       </c>
-      <c r="L32" s="263" t="s">
+      <c r="L32" s="238" t="s">
         <v>506</v>
       </c>
-      <c r="M32" s="309"/>
-      <c r="N32" s="306">
+      <c r="M32" s="276"/>
+      <c r="N32" s="273">
         <v>22.8</v>
       </c>
-      <c r="O32" s="263" t="s">
+      <c r="O32" s="238" t="s">
         <v>507</v>
       </c>
-      <c r="P32" s="309"/>
-      <c r="Q32" s="306">
+      <c r="P32" s="276"/>
+      <c r="Q32" s="273">
         <v>61.2</v>
       </c>
-      <c r="R32" s="263" t="s">
+      <c r="R32" s="238" t="s">
         <v>508</v>
       </c>
-      <c r="S32" s="309"/>
-      <c r="T32" s="306">
+      <c r="S32" s="276"/>
+      <c r="T32" s="273">
         <v>42.3</v>
       </c>
-      <c r="U32" s="263" t="s">
+      <c r="U32" s="238" t="s">
         <v>509</v>
       </c>
-      <c r="V32" s="309"/>
-      <c r="W32" s="306">
+      <c r="V32" s="276"/>
+      <c r="W32" s="273">
         <v>19.8</v>
       </c>
-      <c r="X32" s="263" t="s">
+      <c r="X32" s="238" t="s">
         <v>510</v>
       </c>
-      <c r="Z32" s="306">
+      <c r="Z32" s="273">
         <v>61.8</v>
       </c>
       <c r="AA32" s="32" t="s">
@@ -24842,248 +24945,272 @@
       </c>
     </row>
     <row r="33" spans="1:27" ht="22.5">
-      <c r="A33" s="314" t="s">
+      <c r="A33" s="281" t="s">
         <v>512</v>
       </c>
-      <c r="B33" s="315">
+      <c r="B33" s="282">
         <v>42</v>
       </c>
-      <c r="C33" s="315" t="s">
+      <c r="C33" s="282" t="s">
         <v>513</v>
       </c>
-      <c r="D33" s="315"/>
-      <c r="E33" s="315">
+      <c r="D33" s="282"/>
+      <c r="E33" s="282">
         <v>32.5</v>
       </c>
-      <c r="F33" s="316" t="s">
+      <c r="F33" s="283" t="s">
         <v>514</v>
       </c>
-      <c r="G33" s="315"/>
-      <c r="H33" s="315">
+      <c r="G33" s="282"/>
+      <c r="H33" s="282">
         <v>74.5</v>
       </c>
-      <c r="I33" s="316" t="s">
+      <c r="I33" s="283" t="s">
         <v>515</v>
       </c>
-      <c r="J33" s="317"/>
-      <c r="K33" s="315">
+      <c r="J33" s="284"/>
+      <c r="K33" s="282">
         <v>29.6</v>
       </c>
-      <c r="L33" s="316" t="s">
+      <c r="L33" s="283" t="s">
         <v>516</v>
       </c>
-      <c r="M33" s="315"/>
-      <c r="N33" s="315">
+      <c r="M33" s="282"/>
+      <c r="N33" s="282">
         <v>30.2</v>
       </c>
-      <c r="O33" s="316" t="s">
+      <c r="O33" s="283" t="s">
         <v>517</v>
       </c>
-      <c r="P33" s="315"/>
-      <c r="Q33" s="315">
+      <c r="P33" s="282"/>
+      <c r="Q33" s="282">
         <v>59.7</v>
       </c>
-      <c r="R33" s="316" t="s">
+      <c r="R33" s="283" t="s">
         <v>518</v>
       </c>
-      <c r="S33" s="317"/>
-      <c r="T33" s="315">
+      <c r="S33" s="284"/>
+      <c r="T33" s="282">
         <v>35.6</v>
       </c>
-      <c r="U33" s="316" t="s">
+      <c r="U33" s="283" t="s">
         <v>519</v>
       </c>
-      <c r="V33" s="315"/>
-      <c r="W33" s="315">
+      <c r="V33" s="282"/>
+      <c r="W33" s="282">
         <v>31.3</v>
       </c>
-      <c r="X33" s="316" t="s">
+      <c r="X33" s="283" t="s">
         <v>520</v>
       </c>
-      <c r="Y33" s="318"/>
-      <c r="Z33" s="319">
+      <c r="Y33" s="285"/>
+      <c r="Z33" s="286">
         <v>67</v>
       </c>
-      <c r="AA33" s="320" t="s">
+      <c r="AA33" s="287" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="34" spans="1:27">
-      <c r="A34" s="321" t="s">
+      <c r="A34" s="288" t="s">
         <v>522</v>
       </c>
-      <c r="B34" s="282"/>
-      <c r="C34" s="282"/>
-      <c r="D34" s="282"/>
-      <c r="E34" s="282"/>
-      <c r="F34" s="282"/>
-      <c r="G34" s="282"/>
-      <c r="H34" s="282"/>
-      <c r="I34" s="282"/>
-      <c r="J34" s="282"/>
-      <c r="K34" s="282"/>
-      <c r="L34" s="282"/>
-      <c r="M34" s="282"/>
-      <c r="N34" s="282"/>
-      <c r="O34" s="282"/>
-      <c r="P34" s="282"/>
-      <c r="Q34" s="282"/>
-      <c r="R34" s="282"/>
-      <c r="S34" s="282"/>
-      <c r="T34" s="282"/>
-      <c r="U34" s="282"/>
-      <c r="V34" s="282"/>
-      <c r="W34" s="282"/>
-      <c r="X34" s="282"/>
+      <c r="B34" s="257"/>
+      <c r="C34" s="257"/>
+      <c r="D34" s="257"/>
+      <c r="E34" s="257"/>
+      <c r="F34" s="257"/>
+      <c r="G34" s="257"/>
+      <c r="H34" s="257"/>
+      <c r="I34" s="257"/>
+      <c r="J34" s="257"/>
+      <c r="K34" s="257"/>
+      <c r="L34" s="257"/>
+      <c r="M34" s="257"/>
+      <c r="N34" s="257"/>
+      <c r="O34" s="257"/>
+      <c r="P34" s="257"/>
+      <c r="Q34" s="257"/>
+      <c r="R34" s="257"/>
+      <c r="S34" s="257"/>
+      <c r="T34" s="257"/>
+      <c r="U34" s="257"/>
+      <c r="V34" s="257"/>
+      <c r="W34" s="257"/>
+      <c r="X34" s="257"/>
     </row>
     <row r="35" spans="1:27">
-      <c r="A35" s="322" t="s">
+      <c r="A35" s="289" t="s">
         <v>429</v>
       </c>
-      <c r="B35" s="282"/>
-      <c r="C35" s="282"/>
-      <c r="D35" s="282"/>
-      <c r="E35" s="282"/>
-      <c r="F35" s="282"/>
-      <c r="G35" s="282"/>
-      <c r="H35" s="282"/>
-      <c r="I35" s="282"/>
-      <c r="J35" s="282"/>
-      <c r="K35" s="282"/>
-      <c r="L35" s="282"/>
-      <c r="M35" s="282"/>
-      <c r="N35" s="282"/>
-      <c r="O35" s="282"/>
-      <c r="P35" s="282"/>
-      <c r="Q35" s="282"/>
-      <c r="R35" s="282"/>
-      <c r="S35" s="282"/>
-      <c r="T35" s="282"/>
-      <c r="U35" s="282"/>
-      <c r="V35" s="282"/>
-      <c r="W35" s="282"/>
-      <c r="X35" s="282"/>
+      <c r="B35" s="257"/>
+      <c r="C35" s="257"/>
+      <c r="D35" s="257"/>
+      <c r="E35" s="257"/>
+      <c r="F35" s="257"/>
+      <c r="G35" s="257"/>
+      <c r="H35" s="257"/>
+      <c r="I35" s="257"/>
+      <c r="J35" s="257"/>
+      <c r="K35" s="257"/>
+      <c r="L35" s="257"/>
+      <c r="M35" s="257"/>
+      <c r="N35" s="257"/>
+      <c r="O35" s="257"/>
+      <c r="P35" s="257"/>
+      <c r="Q35" s="257"/>
+      <c r="R35" s="257"/>
+      <c r="S35" s="257"/>
+      <c r="T35" s="257"/>
+      <c r="U35" s="257"/>
+      <c r="V35" s="257"/>
+      <c r="W35" s="257"/>
+      <c r="X35" s="257"/>
     </row>
     <row r="36" spans="1:27">
-      <c r="A36" s="285" t="s">
+      <c r="A36" s="260" t="s">
         <v>430</v>
       </c>
-      <c r="B36" s="282"/>
-      <c r="C36" s="282"/>
-      <c r="D36" s="282"/>
-      <c r="E36" s="282"/>
-      <c r="F36" s="282"/>
-      <c r="G36" s="282"/>
-      <c r="H36" s="282"/>
-      <c r="I36" s="282"/>
-      <c r="J36" s="282"/>
-      <c r="K36" s="282"/>
-      <c r="L36" s="282"/>
-      <c r="M36" s="282"/>
-      <c r="N36" s="282"/>
-      <c r="O36" s="282"/>
-      <c r="P36" s="282"/>
-      <c r="Q36" s="282"/>
-      <c r="R36" s="282"/>
-      <c r="S36" s="282"/>
-      <c r="T36" s="282"/>
-      <c r="U36" s="282"/>
-      <c r="V36" s="282"/>
-      <c r="W36" s="282"/>
-      <c r="X36" s="282"/>
+      <c r="B36" s="257"/>
+      <c r="C36" s="257"/>
+      <c r="D36" s="257"/>
+      <c r="E36" s="257"/>
+      <c r="F36" s="257"/>
+      <c r="G36" s="257"/>
+      <c r="H36" s="257"/>
+      <c r="I36" s="257"/>
+      <c r="J36" s="257"/>
+      <c r="K36" s="257"/>
+      <c r="L36" s="257"/>
+      <c r="M36" s="257"/>
+      <c r="N36" s="257"/>
+      <c r="O36" s="257"/>
+      <c r="P36" s="257"/>
+      <c r="Q36" s="257"/>
+      <c r="R36" s="257"/>
+      <c r="S36" s="257"/>
+      <c r="T36" s="257"/>
+      <c r="U36" s="257"/>
+      <c r="V36" s="257"/>
+      <c r="W36" s="257"/>
+      <c r="X36" s="257"/>
     </row>
     <row r="37" spans="1:27">
-      <c r="A37" s="285" t="s">
+      <c r="A37" s="260" t="s">
         <v>431</v>
       </c>
-      <c r="B37" s="282"/>
-      <c r="C37" s="282"/>
-      <c r="D37" s="282"/>
-      <c r="E37" s="282"/>
-      <c r="F37" s="282"/>
-      <c r="G37" s="282"/>
-      <c r="H37" s="282"/>
-      <c r="I37" s="282"/>
-      <c r="J37" s="282"/>
-      <c r="K37" s="282"/>
-      <c r="L37" s="282"/>
-      <c r="M37" s="282"/>
-      <c r="N37" s="282"/>
-      <c r="O37" s="282"/>
-      <c r="P37" s="282"/>
-      <c r="Q37" s="282"/>
-      <c r="R37" s="282"/>
-      <c r="S37" s="282"/>
-      <c r="T37" s="282"/>
-      <c r="U37" s="282"/>
-      <c r="V37" s="282"/>
-      <c r="W37" s="282"/>
-      <c r="X37" s="282"/>
+      <c r="B37" s="257"/>
+      <c r="C37" s="257"/>
+      <c r="D37" s="257"/>
+      <c r="E37" s="257"/>
+      <c r="F37" s="257"/>
+      <c r="G37" s="257"/>
+      <c r="H37" s="257"/>
+      <c r="I37" s="257"/>
+      <c r="J37" s="257"/>
+      <c r="K37" s="257"/>
+      <c r="L37" s="257"/>
+      <c r="M37" s="257"/>
+      <c r="N37" s="257"/>
+      <c r="O37" s="257"/>
+      <c r="P37" s="257"/>
+      <c r="Q37" s="257"/>
+      <c r="R37" s="257"/>
+      <c r="S37" s="257"/>
+      <c r="T37" s="257"/>
+      <c r="U37" s="257"/>
+      <c r="V37" s="257"/>
+      <c r="W37" s="257"/>
+      <c r="X37" s="257"/>
     </row>
     <row r="38" spans="1:27">
-      <c r="A38" s="285" t="s">
+      <c r="A38" s="260" t="s">
         <v>523</v>
       </c>
-      <c r="B38" s="282"/>
-      <c r="C38" s="282"/>
-      <c r="D38" s="282"/>
-      <c r="E38" s="282"/>
-      <c r="F38" s="282"/>
-      <c r="G38" s="282"/>
-      <c r="H38" s="282"/>
-      <c r="I38" s="282"/>
-      <c r="J38" s="282"/>
-      <c r="K38" s="282"/>
-      <c r="L38" s="282"/>
-      <c r="M38" s="282"/>
-      <c r="N38" s="282"/>
-      <c r="O38" s="282"/>
-      <c r="P38" s="282"/>
-      <c r="Q38" s="282"/>
-      <c r="R38" s="282"/>
-      <c r="S38" s="282"/>
-      <c r="T38" s="282"/>
-      <c r="U38" s="282"/>
-      <c r="V38" s="282"/>
-      <c r="W38" s="282"/>
-      <c r="X38" s="282"/>
+      <c r="B38" s="257"/>
+      <c r="C38" s="257"/>
+      <c r="D38" s="257"/>
+      <c r="E38" s="257"/>
+      <c r="F38" s="257"/>
+      <c r="G38" s="257"/>
+      <c r="H38" s="257"/>
+      <c r="I38" s="257"/>
+      <c r="J38" s="257"/>
+      <c r="K38" s="257"/>
+      <c r="L38" s="257"/>
+      <c r="M38" s="257"/>
+      <c r="N38" s="257"/>
+      <c r="O38" s="257"/>
+      <c r="P38" s="257"/>
+      <c r="Q38" s="257"/>
+      <c r="R38" s="257"/>
+      <c r="S38" s="257"/>
+      <c r="T38" s="257"/>
+      <c r="U38" s="257"/>
+      <c r="V38" s="257"/>
+      <c r="W38" s="257"/>
+      <c r="X38" s="257"/>
     </row>
     <row r="39" spans="1:27">
-      <c r="A39" s="322" t="s">
+      <c r="A39" s="289" t="s">
         <v>524</v>
       </c>
-      <c r="B39" s="284"/>
-      <c r="C39" s="284"/>
-      <c r="D39" s="284"/>
-      <c r="E39" s="285"/>
-      <c r="F39" s="284"/>
-      <c r="G39" s="285"/>
-      <c r="H39" s="285"/>
-      <c r="I39" s="285"/>
-      <c r="J39" s="285"/>
-      <c r="K39" s="285"/>
-      <c r="L39" s="285"/>
-      <c r="M39" s="285"/>
-      <c r="N39" s="285"/>
-      <c r="O39" s="285"/>
-      <c r="P39" s="285"/>
-      <c r="Q39" s="285"/>
-      <c r="R39" s="285"/>
-      <c r="S39" s="285"/>
-      <c r="T39" s="285"/>
-      <c r="U39" s="285"/>
-      <c r="V39" s="285"/>
-      <c r="W39" s="285"/>
-      <c r="X39" s="285"/>
+      <c r="B39" s="259"/>
+      <c r="C39" s="259"/>
+      <c r="D39" s="259"/>
+      <c r="E39" s="260"/>
+      <c r="F39" s="259"/>
+      <c r="G39" s="260"/>
+      <c r="H39" s="260"/>
+      <c r="I39" s="260"/>
+      <c r="J39" s="260"/>
+      <c r="K39" s="260"/>
+      <c r="L39" s="260"/>
+      <c r="M39" s="260"/>
+      <c r="N39" s="260"/>
+      <c r="O39" s="260"/>
+      <c r="P39" s="260"/>
+      <c r="Q39" s="260"/>
+      <c r="R39" s="260"/>
+      <c r="S39" s="260"/>
+      <c r="T39" s="260"/>
+      <c r="U39" s="260"/>
+      <c r="V39" s="260"/>
+      <c r="W39" s="260"/>
+      <c r="X39" s="260"/>
     </row>
     <row r="40" spans="1:27">
       <c r="A40" s="32"/>
     </row>
     <row r="41" spans="1:27">
-      <c r="A41" s="323"/>
+      <c r="A41" s="290"/>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="AL2:AS2"/>
+    <mergeCell ref="AU2:BB2"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="K2:R2"/>
+    <mergeCell ref="T2:AA2"/>
+    <mergeCell ref="AC2:AJ2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AL3:AM3"/>
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="AR3:AS3"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AX3:AY3"/>
     <mergeCell ref="W23:X23"/>
     <mergeCell ref="Z23:AA23"/>
     <mergeCell ref="B22:I22"/>
@@ -25096,30 +25223,6 @@
     <mergeCell ref="N23:O23"/>
     <mergeCell ref="Q23:R23"/>
     <mergeCell ref="T23:U23"/>
-    <mergeCell ref="AL3:AM3"/>
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="AR3:AS3"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AX3:AY3"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="K2:R2"/>
-    <mergeCell ref="T2:AA2"/>
-    <mergeCell ref="AC2:AJ2"/>
-    <mergeCell ref="AL2:AS2"/>
-    <mergeCell ref="AU2:BB2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -25136,355 +25239,355 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A1" s="337"/>
-      <c r="B1" s="337"/>
-      <c r="C1" s="337"/>
-      <c r="D1" s="337"/>
-      <c r="E1" s="337"/>
-      <c r="F1" s="337"/>
-      <c r="G1" s="337"/>
-      <c r="H1" s="337"/>
-      <c r="I1" s="337"/>
+      <c r="A1" s="301"/>
+      <c r="B1" s="301"/>
+      <c r="C1" s="301"/>
+      <c r="D1" s="301"/>
+      <c r="E1" s="301"/>
+      <c r="F1" s="301"/>
+      <c r="G1" s="301"/>
+      <c r="H1" s="301"/>
+      <c r="I1" s="301"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A2" s="337"/>
-      <c r="B2" s="337"/>
-      <c r="C2" s="337"/>
-      <c r="D2" s="337"/>
-      <c r="E2" s="337"/>
-      <c r="F2" s="337"/>
-      <c r="G2" s="337"/>
-      <c r="H2" s="334" t="s">
+      <c r="A2" s="301"/>
+      <c r="B2" s="301"/>
+      <c r="C2" s="301"/>
+      <c r="D2" s="301"/>
+      <c r="E2" s="301"/>
+      <c r="F2" s="301"/>
+      <c r="G2" s="301"/>
+      <c r="H2" s="394" t="s">
         <v>535</v>
       </c>
-      <c r="I2" s="335"/>
+      <c r="I2" s="395"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickTop="1">
-      <c r="A3" s="337"/>
-      <c r="B3" s="337"/>
-      <c r="C3" s="337"/>
-      <c r="D3" s="337"/>
-      <c r="E3" s="337"/>
-      <c r="F3" s="337"/>
-      <c r="G3" s="337"/>
-      <c r="H3" s="337"/>
-      <c r="I3" s="337"/>
+      <c r="A3" s="301"/>
+      <c r="B3" s="301"/>
+      <c r="C3" s="301"/>
+      <c r="D3" s="301"/>
+      <c r="E3" s="301"/>
+      <c r="F3" s="301"/>
+      <c r="G3" s="301"/>
+      <c r="H3" s="301"/>
+      <c r="I3" s="301"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="338"/>
-      <c r="B5" s="337"/>
-      <c r="C5" s="337"/>
-      <c r="D5" s="337"/>
-      <c r="E5" s="337"/>
-      <c r="F5" s="337"/>
-      <c r="G5" s="337"/>
-      <c r="H5" s="337"/>
-      <c r="I5" s="337"/>
+      <c r="A5" s="302"/>
+      <c r="B5" s="301"/>
+      <c r="C5" s="301"/>
+      <c r="D5" s="301"/>
+      <c r="E5" s="301"/>
+      <c r="F5" s="301"/>
+      <c r="G5" s="301"/>
+      <c r="H5" s="301"/>
+      <c r="I5" s="301"/>
     </row>
     <row r="6" spans="1:9" ht="15.75">
-      <c r="A6" s="337"/>
-      <c r="B6" s="354" t="s">
+      <c r="A6" s="301"/>
+      <c r="B6" s="396" t="s">
         <v>536</v>
       </c>
-      <c r="C6" s="354"/>
-      <c r="D6" s="354"/>
-      <c r="E6" s="355"/>
-      <c r="F6" s="355"/>
-      <c r="G6" s="355"/>
-      <c r="H6" s="355"/>
-      <c r="I6" s="355"/>
+      <c r="C6" s="396"/>
+      <c r="D6" s="396"/>
+      <c r="E6" s="397"/>
+      <c r="F6" s="397"/>
+      <c r="G6" s="397"/>
+      <c r="H6" s="397"/>
+      <c r="I6" s="397"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="337"/>
-      <c r="B7" s="341"/>
-      <c r="C7" s="356" t="s">
+      <c r="A7" s="301"/>
+      <c r="B7" s="305"/>
+      <c r="C7" s="398" t="s">
         <v>180</v>
       </c>
-      <c r="D7" s="356"/>
-      <c r="E7" s="356" t="s">
+      <c r="D7" s="398"/>
+      <c r="E7" s="398" t="s">
         <v>181</v>
       </c>
-      <c r="F7" s="357"/>
-      <c r="G7" s="356" t="s">
+      <c r="F7" s="399"/>
+      <c r="G7" s="398" t="s">
         <v>435</v>
       </c>
-      <c r="H7" s="357"/>
-      <c r="I7" s="337"/>
+      <c r="H7" s="399"/>
+      <c r="I7" s="301"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="337"/>
-      <c r="B8" s="339" t="s">
+      <c r="A8" s="301"/>
+      <c r="B8" s="303" t="s">
         <v>299</v>
       </c>
-      <c r="C8" s="344" t="s">
+      <c r="C8" s="308" t="s">
         <v>191</v>
       </c>
-      <c r="D8" s="345" t="s">
+      <c r="D8" s="309" t="s">
         <v>537</v>
       </c>
-      <c r="E8" s="345" t="s">
+      <c r="E8" s="309" t="s">
         <v>191</v>
       </c>
-      <c r="F8" s="345" t="s">
+      <c r="F8" s="309" t="s">
         <v>537</v>
       </c>
-      <c r="G8" s="345" t="s">
+      <c r="G8" s="309" t="s">
         <v>191</v>
       </c>
-      <c r="H8" s="345" t="s">
+      <c r="H8" s="309" t="s">
         <v>537</v>
       </c>
-      <c r="I8" s="337"/>
+      <c r="I8" s="301"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="337"/>
-      <c r="B9" s="340" t="s">
+      <c r="A9" s="301"/>
+      <c r="B9" s="304" t="s">
         <v>188</v>
       </c>
-      <c r="C9" s="346">
+      <c r="C9" s="310">
         <v>2</v>
       </c>
-      <c r="D9" s="346" t="s">
+      <c r="D9" s="310" t="s">
         <v>538</v>
       </c>
-      <c r="E9" s="346">
+      <c r="E9" s="310">
         <v>2.5</v>
       </c>
-      <c r="F9" s="346" t="s">
+      <c r="F9" s="310" t="s">
         <v>539</v>
       </c>
-      <c r="G9" s="346">
+      <c r="G9" s="310">
         <v>2.2000000000000002</v>
       </c>
-      <c r="H9" s="347" t="s">
+      <c r="H9" s="311" t="s">
         <v>540</v>
       </c>
-      <c r="I9" s="337"/>
+      <c r="I9" s="301"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="337"/>
-      <c r="B10" s="340" t="s">
+      <c r="A10" s="301"/>
+      <c r="B10" s="304" t="s">
         <v>473</v>
       </c>
-      <c r="C10" s="346">
+      <c r="C10" s="310">
         <v>3.6</v>
       </c>
-      <c r="D10" s="346" t="s">
+      <c r="D10" s="310" t="s">
         <v>541</v>
       </c>
-      <c r="E10" s="346">
+      <c r="E10" s="310">
         <v>6.1666312772165996</v>
       </c>
-      <c r="F10" s="346" t="s">
+      <c r="F10" s="310" t="s">
         <v>542</v>
       </c>
-      <c r="G10" s="346">
+      <c r="G10" s="310">
         <v>4.9000000000000004</v>
       </c>
-      <c r="H10" s="347" t="s">
+      <c r="H10" s="311" t="s">
         <v>543</v>
       </c>
-      <c r="I10" s="337"/>
+      <c r="I10" s="301"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="337"/>
-      <c r="B11" s="340" t="s">
+      <c r="A11" s="301"/>
+      <c r="B11" s="304" t="s">
         <v>483</v>
       </c>
-      <c r="C11" s="346">
+      <c r="C11" s="310">
         <v>7.5456429129401998</v>
       </c>
-      <c r="D11" s="346" t="s">
+      <c r="D11" s="310" t="s">
         <v>544</v>
       </c>
-      <c r="E11" s="346">
+      <c r="E11" s="310">
         <v>6.7</v>
       </c>
-      <c r="F11" s="346" t="s">
+      <c r="F11" s="310" t="s">
         <v>545</v>
       </c>
-      <c r="G11" s="346">
+      <c r="G11" s="310">
         <v>7.1</v>
       </c>
-      <c r="H11" s="347" t="s">
+      <c r="H11" s="311" t="s">
         <v>546</v>
       </c>
-      <c r="I11" s="337"/>
+      <c r="I11" s="301"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="337"/>
-      <c r="B12" s="340" t="s">
+      <c r="A12" s="301"/>
+      <c r="B12" s="304" t="s">
         <v>547</v>
       </c>
-      <c r="C12" s="346">
+      <c r="C12" s="310">
         <v>7.3</v>
       </c>
-      <c r="D12" s="346" t="s">
+      <c r="D12" s="310" t="s">
         <v>548</v>
       </c>
-      <c r="E12" s="346">
+      <c r="E12" s="310">
         <v>5.9</v>
       </c>
-      <c r="F12" s="346" t="s">
+      <c r="F12" s="310" t="s">
         <v>549</v>
       </c>
-      <c r="G12" s="346">
+      <c r="G12" s="310">
         <v>6.6</v>
       </c>
-      <c r="H12" s="347" t="s">
+      <c r="H12" s="311" t="s">
         <v>550</v>
       </c>
-      <c r="I12" s="337"/>
+      <c r="I12" s="301"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="337"/>
-      <c r="B13" s="340" t="s">
+      <c r="A13" s="301"/>
+      <c r="B13" s="304" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="346">
+      <c r="C13" s="310">
         <v>4.5</v>
       </c>
-      <c r="D13" s="346" t="s">
+      <c r="D13" s="310" t="s">
         <v>551</v>
       </c>
-      <c r="E13" s="346">
+      <c r="E13" s="310">
         <v>5.0999999999999996</v>
       </c>
-      <c r="F13" s="346" t="s">
+      <c r="F13" s="310" t="s">
         <v>552</v>
       </c>
-      <c r="G13" s="346">
+      <c r="G13" s="310">
         <v>4.8</v>
       </c>
-      <c r="H13" s="347" t="s">
+      <c r="H13" s="311" t="s">
         <v>553</v>
       </c>
-      <c r="I13" s="337"/>
+      <c r="I13" s="301"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="337"/>
-      <c r="B14" s="351" t="s">
+      <c r="A14" s="301"/>
+      <c r="B14" s="315" t="s">
         <v>554</v>
       </c>
-      <c r="C14" s="352">
+      <c r="C14" s="316">
         <v>4.3</v>
       </c>
-      <c r="D14" s="352" t="s">
+      <c r="D14" s="316" t="s">
         <v>555</v>
       </c>
-      <c r="E14" s="352">
+      <c r="E14" s="316">
         <v>4.8</v>
       </c>
-      <c r="F14" s="352" t="s">
+      <c r="F14" s="316" t="s">
         <v>556</v>
       </c>
-      <c r="G14" s="352">
+      <c r="G14" s="316">
         <v>4.5999999999999996</v>
       </c>
-      <c r="H14" s="353" t="s">
+      <c r="H14" s="317" t="s">
         <v>557</v>
       </c>
-      <c r="I14" s="337"/>
+      <c r="I14" s="301"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="337"/>
-      <c r="B15" s="336" t="s">
+      <c r="A15" s="301"/>
+      <c r="B15" s="393" t="s">
         <v>558</v>
       </c>
-      <c r="C15" s="336"/>
-      <c r="D15" s="336"/>
-      <c r="E15" s="336"/>
-      <c r="F15" s="336"/>
-      <c r="G15" s="336"/>
-      <c r="H15" s="336"/>
-      <c r="I15" s="337"/>
+      <c r="C15" s="393"/>
+      <c r="D15" s="393"/>
+      <c r="E15" s="393"/>
+      <c r="F15" s="393"/>
+      <c r="G15" s="393"/>
+      <c r="H15" s="393"/>
+      <c r="I15" s="301"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="337"/>
-      <c r="B16" s="340" t="s">
+      <c r="A16" s="301"/>
+      <c r="B16" s="304" t="s">
         <v>559</v>
       </c>
-      <c r="C16" s="337"/>
-      <c r="D16" s="337"/>
-      <c r="E16" s="337"/>
-      <c r="F16" s="337"/>
-      <c r="G16" s="337"/>
-      <c r="H16" s="337"/>
-      <c r="I16" s="337"/>
+      <c r="C16" s="301"/>
+      <c r="D16" s="301"/>
+      <c r="E16" s="301"/>
+      <c r="F16" s="301"/>
+      <c r="G16" s="301"/>
+      <c r="H16" s="301"/>
+      <c r="I16" s="301"/>
     </row>
     <row r="17" spans="2:9">
-      <c r="B17" s="340" t="s">
+      <c r="B17" s="304" t="s">
         <v>560</v>
       </c>
-      <c r="C17" s="337"/>
-      <c r="D17" s="337"/>
-      <c r="E17" s="337"/>
-      <c r="F17" s="337"/>
-      <c r="G17" s="337"/>
-      <c r="H17" s="337"/>
-      <c r="I17" s="350"/>
+      <c r="C17" s="301"/>
+      <c r="D17" s="301"/>
+      <c r="E17" s="301"/>
+      <c r="F17" s="301"/>
+      <c r="G17" s="301"/>
+      <c r="H17" s="301"/>
+      <c r="I17" s="314"/>
     </row>
     <row r="18" spans="2:9">
-      <c r="B18" s="348" t="s">
+      <c r="B18" s="312" t="s">
         <v>561</v>
       </c>
-      <c r="C18" s="337"/>
-      <c r="D18" s="337"/>
-      <c r="E18" s="337"/>
-      <c r="F18" s="337"/>
-      <c r="G18" s="337"/>
-      <c r="H18" s="337"/>
-      <c r="I18" s="337"/>
+      <c r="C18" s="301"/>
+      <c r="D18" s="301"/>
+      <c r="E18" s="301"/>
+      <c r="F18" s="301"/>
+      <c r="G18" s="301"/>
+      <c r="H18" s="301"/>
+      <c r="I18" s="301"/>
     </row>
     <row r="19" spans="2:9">
-      <c r="B19" s="337"/>
-      <c r="C19" s="337"/>
-      <c r="D19" s="337"/>
-      <c r="E19" s="337"/>
-      <c r="F19" s="337"/>
-      <c r="G19" s="337"/>
-      <c r="H19" s="338"/>
-      <c r="I19" s="337"/>
+      <c r="B19" s="301"/>
+      <c r="C19" s="301"/>
+      <c r="D19" s="301"/>
+      <c r="E19" s="301"/>
+      <c r="F19" s="301"/>
+      <c r="G19" s="301"/>
+      <c r="H19" s="302"/>
+      <c r="I19" s="301"/>
     </row>
     <row r="20" spans="2:9">
-      <c r="B20" s="337"/>
-      <c r="C20" s="337"/>
-      <c r="D20" s="337"/>
-      <c r="E20" s="337"/>
-      <c r="F20" s="337"/>
-      <c r="G20" s="337"/>
-      <c r="H20" s="337"/>
-      <c r="I20" s="337"/>
+      <c r="B20" s="301"/>
+      <c r="C20" s="301"/>
+      <c r="D20" s="301"/>
+      <c r="E20" s="301"/>
+      <c r="F20" s="301"/>
+      <c r="G20" s="301"/>
+      <c r="H20" s="301"/>
+      <c r="I20" s="301"/>
     </row>
     <row r="21" spans="2:9">
-      <c r="B21" s="337"/>
-      <c r="C21" s="337"/>
-      <c r="D21" s="337"/>
-      <c r="E21" s="337"/>
-      <c r="F21" s="337"/>
-      <c r="G21" s="337"/>
-      <c r="H21" s="337"/>
-      <c r="I21" s="342"/>
+      <c r="B21" s="301"/>
+      <c r="C21" s="301"/>
+      <c r="D21" s="301"/>
+      <c r="E21" s="301"/>
+      <c r="F21" s="301"/>
+      <c r="G21" s="301"/>
+      <c r="H21" s="301"/>
+      <c r="I21" s="306"/>
     </row>
     <row r="22" spans="2:9">
-      <c r="B22" s="337"/>
-      <c r="C22" s="337"/>
-      <c r="D22" s="337"/>
-      <c r="E22" s="337"/>
-      <c r="F22" s="337"/>
-      <c r="G22" s="337"/>
-      <c r="H22" s="337"/>
-      <c r="I22" s="337"/>
+      <c r="B22" s="301"/>
+      <c r="C22" s="301"/>
+      <c r="D22" s="301"/>
+      <c r="E22" s="301"/>
+      <c r="F22" s="301"/>
+      <c r="G22" s="301"/>
+      <c r="H22" s="301"/>
+      <c r="I22" s="301"/>
     </row>
     <row r="23" spans="2:9">
-      <c r="B23" s="337"/>
-      <c r="C23" s="337"/>
-      <c r="D23" s="337"/>
-      <c r="E23" s="337"/>
-      <c r="F23" s="337"/>
-      <c r="G23" s="337"/>
-      <c r="H23" s="337"/>
-      <c r="I23" s="337"/>
+      <c r="B23" s="301"/>
+      <c r="C23" s="301"/>
+      <c r="D23" s="301"/>
+      <c r="E23" s="301"/>
+      <c r="F23" s="301"/>
+      <c r="G23" s="301"/>
+      <c r="H23" s="301"/>
+      <c r="I23" s="301"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -25512,589 +25615,595 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.85546875" style="349" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="349"/>
+    <col min="1" max="1" width="28.85546875" style="313" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="313"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="43.5" customHeight="1">
-      <c r="A1" s="358" t="s">
+      <c r="A1" s="403" t="s">
         <v>563</v>
       </c>
-      <c r="B1" s="358"/>
-      <c r="C1" s="358"/>
-      <c r="D1" s="359"/>
-      <c r="E1" s="359"/>
-      <c r="F1" s="359"/>
-      <c r="G1" s="359"/>
-      <c r="H1" s="359"/>
+      <c r="B1" s="403"/>
+      <c r="C1" s="403"/>
+      <c r="D1" s="318"/>
+      <c r="E1" s="318"/>
+      <c r="F1" s="318"/>
+      <c r="G1" s="318"/>
+      <c r="H1" s="318"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="360" t="s">
+      <c r="A2" s="319" t="s">
         <v>564</v>
       </c>
-      <c r="B2" s="361" t="s">
+      <c r="B2" s="320" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="361" t="s">
+      <c r="C2" s="320" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="362" t="s">
+      <c r="A3" s="321" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="363" t="s">
+      <c r="A4" s="322" t="s">
         <v>565</v>
       </c>
-      <c r="B4" s="364">
+      <c r="B4" s="323">
         <v>33.665999999999997</v>
       </c>
-      <c r="C4" s="365" t="s">
+      <c r="C4" s="324" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="366" t="s">
+      <c r="A5" s="325" t="s">
         <v>567</v>
       </c>
-      <c r="B5" s="364">
+      <c r="B5" s="323">
         <v>22.814</v>
       </c>
-      <c r="C5" s="365" t="s">
+      <c r="C5" s="324" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="367" t="s">
+      <c r="A6" s="326" t="s">
         <v>569</v>
       </c>
-      <c r="B6" s="364">
+      <c r="B6" s="323">
         <v>10.852</v>
       </c>
-      <c r="C6" s="365" t="s">
+      <c r="C6" s="324" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="367"/>
-      <c r="B7" s="364"/>
-      <c r="C7" s="365"/>
+      <c r="A7" s="326"/>
+      <c r="B7" s="323"/>
+      <c r="C7" s="324"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="368" t="s">
+      <c r="A8" s="327" t="s">
         <v>180</v>
       </c>
-      <c r="B8" s="364"/>
-      <c r="C8" s="365"/>
+      <c r="B8" s="323"/>
+      <c r="C8" s="324"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="266" t="s">
+      <c r="A9" s="241" t="s">
         <v>565</v>
       </c>
-      <c r="B9" s="364">
+      <c r="B9" s="323">
         <v>35.994</v>
       </c>
-      <c r="C9" s="365" t="s">
+      <c r="C9" s="324" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="367" t="s">
+      <c r="A10" s="326" t="s">
         <v>567</v>
       </c>
-      <c r="B10" s="364">
+      <c r="B10" s="323">
         <v>25.445</v>
       </c>
-      <c r="C10" s="365" t="s">
+      <c r="C10" s="324" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="367" t="s">
+      <c r="A11" s="326" t="s">
         <v>569</v>
       </c>
-      <c r="B11" s="364">
+      <c r="B11" s="323">
         <v>10.548999999999999</v>
       </c>
-      <c r="C11" s="365" t="s">
+      <c r="C11" s="324" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="367"/>
-      <c r="B12" s="364"/>
-      <c r="C12" s="365"/>
+      <c r="A12" s="326"/>
+      <c r="B12" s="323"/>
+      <c r="C12" s="324"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="368" t="s">
+      <c r="A13" s="327" t="s">
         <v>181</v>
       </c>
-      <c r="B13" s="364"/>
-      <c r="C13" s="365"/>
+      <c r="B13" s="323"/>
+      <c r="C13" s="324"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="363" t="s">
+      <c r="A14" s="322" t="s">
         <v>565</v>
       </c>
-      <c r="B14" s="364">
+      <c r="B14" s="323">
         <v>31.428000000000001</v>
       </c>
-      <c r="C14" s="365" t="s">
+      <c r="C14" s="324" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="366" t="s">
+      <c r="A15" s="325" t="s">
         <v>567</v>
       </c>
-      <c r="B15" s="364">
+      <c r="B15" s="323">
         <v>20.286000000000001</v>
       </c>
-      <c r="C15" s="365" t="s">
+      <c r="C15" s="324" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="369" t="s">
+      <c r="A16" s="328" t="s">
         <v>569</v>
       </c>
-      <c r="B16" s="370">
+      <c r="B16" s="329">
         <v>11.141999999999999</v>
       </c>
-      <c r="C16" s="371" t="s">
+      <c r="C16" s="330" t="s">
         <v>576</v>
       </c>
-      <c r="D16" s="372"/>
+      <c r="D16" s="331"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="D17" s="372"/>
-      <c r="E17" s="372"/>
-      <c r="F17" s="372"/>
-      <c r="G17" s="372"/>
-      <c r="H17" s="372"/>
+      <c r="D17" s="331"/>
+      <c r="E17" s="331"/>
+      <c r="F17" s="331"/>
+      <c r="G17" s="331"/>
+      <c r="H17" s="331"/>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="373" t="s">
+      <c r="A18" s="332" t="s">
         <v>429</v>
       </c>
-      <c r="B18" s="372"/>
-      <c r="C18" s="372"/>
-      <c r="D18" s="372"/>
-      <c r="E18" s="372"/>
-      <c r="F18" s="372"/>
-      <c r="G18" s="372"/>
-      <c r="H18" s="372"/>
+      <c r="B18" s="331"/>
+      <c r="C18" s="331"/>
+      <c r="D18" s="331"/>
+      <c r="E18" s="331"/>
+      <c r="F18" s="331"/>
+      <c r="G18" s="331"/>
+      <c r="H18" s="331"/>
     </row>
     <row r="19" spans="1:15" ht="24.75" customHeight="1">
-      <c r="A19" s="374" t="s">
+      <c r="A19" s="400" t="s">
         <v>577</v>
       </c>
-      <c r="B19" s="374"/>
-      <c r="C19" s="374"/>
-      <c r="D19" s="372"/>
-      <c r="E19" s="372"/>
-      <c r="F19" s="372"/>
-      <c r="G19" s="372"/>
-      <c r="H19" s="372"/>
+      <c r="B19" s="400"/>
+      <c r="C19" s="400"/>
+      <c r="D19" s="331"/>
+      <c r="E19" s="331"/>
+      <c r="F19" s="331"/>
+      <c r="G19" s="331"/>
+      <c r="H19" s="331"/>
     </row>
     <row r="20" spans="1:15" ht="46.5" customHeight="1">
-      <c r="A20" s="374" t="s">
+      <c r="A20" s="400" t="s">
         <v>578</v>
       </c>
-      <c r="B20" s="374"/>
-      <c r="C20" s="374"/>
-      <c r="D20" s="372"/>
-      <c r="E20" s="372"/>
-      <c r="F20" s="372"/>
-      <c r="G20" s="372"/>
-      <c r="H20" s="372"/>
+      <c r="B20" s="400"/>
+      <c r="C20" s="400"/>
+      <c r="D20" s="331"/>
+      <c r="E20" s="331"/>
+      <c r="F20" s="331"/>
+      <c r="G20" s="331"/>
+      <c r="H20" s="331"/>
     </row>
     <row r="21" spans="1:15" ht="59.25" customHeight="1">
-      <c r="A21" s="374" t="s">
+      <c r="A21" s="400" t="s">
         <v>579</v>
       </c>
-      <c r="B21" s="374"/>
-      <c r="C21" s="374"/>
-      <c r="D21" s="375"/>
-      <c r="E21" s="375"/>
-      <c r="F21" s="375"/>
-      <c r="G21" s="375"/>
-      <c r="H21" s="375"/>
+      <c r="B21" s="400"/>
+      <c r="C21" s="400"/>
+      <c r="D21" s="333"/>
+      <c r="E21" s="333"/>
+      <c r="F21" s="333"/>
+      <c r="G21" s="333"/>
+      <c r="H21" s="333"/>
     </row>
     <row r="22" spans="1:15" ht="26.25" customHeight="1">
-      <c r="A22" s="374" t="s">
+      <c r="A22" s="400" t="s">
         <v>431</v>
       </c>
-      <c r="B22" s="374"/>
-      <c r="C22" s="374"/>
-      <c r="D22" s="376"/>
-      <c r="E22" s="377"/>
-      <c r="F22" s="377"/>
-      <c r="G22" s="377"/>
-      <c r="H22" s="377"/>
-      <c r="I22" s="377"/>
-      <c r="J22" s="377"/>
-      <c r="K22" s="377"/>
-      <c r="L22" s="377"/>
-      <c r="M22" s="377"/>
-      <c r="N22" s="377"/>
-      <c r="O22" s="377"/>
+      <c r="B22" s="400"/>
+      <c r="C22" s="400"/>
+      <c r="D22" s="334"/>
+      <c r="E22" s="335"/>
+      <c r="F22" s="335"/>
+      <c r="G22" s="335"/>
+      <c r="H22" s="335"/>
+      <c r="I22" s="335"/>
+      <c r="J22" s="335"/>
+      <c r="K22" s="335"/>
+      <c r="L22" s="335"/>
+      <c r="M22" s="335"/>
+      <c r="N22" s="335"/>
+      <c r="O22" s="335"/>
     </row>
     <row r="23" spans="1:15" ht="25.5" customHeight="1">
-      <c r="A23" s="375" t="s">
+      <c r="A23" s="333" t="s">
         <v>580</v>
       </c>
-      <c r="B23" s="375"/>
-      <c r="C23" s="375"/>
-      <c r="D23" s="378"/>
-      <c r="E23" s="379"/>
-      <c r="F23" s="379"/>
-      <c r="G23" s="379"/>
-      <c r="H23" s="379"/>
-      <c r="I23" s="379"/>
+      <c r="B23" s="333"/>
+      <c r="C23" s="333"/>
+      <c r="D23" s="336"/>
+      <c r="E23" s="337"/>
+      <c r="F23" s="337"/>
+      <c r="G23" s="337"/>
+      <c r="H23" s="337"/>
+      <c r="I23" s="337"/>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="376"/>
-      <c r="B24" s="376"/>
-      <c r="C24" s="376"/>
+      <c r="A24" s="334"/>
+      <c r="B24" s="334"/>
+      <c r="C24" s="334"/>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="378"/>
-      <c r="B25" s="378"/>
-      <c r="C25" s="378"/>
+      <c r="A25" s="336"/>
+      <c r="B25" s="336"/>
+      <c r="C25" s="336"/>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="380" t="s">
+      <c r="A26" s="404" t="s">
         <v>581</v>
       </c>
-      <c r="B26" s="380"/>
-      <c r="C26" s="380"/>
-      <c r="D26" s="380"/>
-      <c r="E26" s="380"/>
-      <c r="F26" s="380"/>
-      <c r="G26" s="380"/>
+      <c r="B26" s="404"/>
+      <c r="C26" s="404"/>
+      <c r="D26" s="404"/>
+      <c r="E26" s="404"/>
+      <c r="F26" s="404"/>
+      <c r="G26" s="404"/>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="381"/>
-      <c r="B27" s="382"/>
-      <c r="C27" s="382"/>
-      <c r="D27" s="382"/>
-      <c r="E27" s="382"/>
-      <c r="F27" s="382"/>
-      <c r="G27" s="382"/>
+      <c r="A27" s="338"/>
+      <c r="B27" s="339"/>
+      <c r="C27" s="339"/>
+      <c r="D27" s="339"/>
+      <c r="E27" s="339"/>
+      <c r="F27" s="339"/>
+      <c r="G27" s="339"/>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="383"/>
-      <c r="B28" s="384" t="s">
+      <c r="A28" s="340"/>
+      <c r="B28" s="401" t="s">
         <v>582</v>
       </c>
-      <c r="C28" s="384"/>
-      <c r="D28" s="384"/>
-      <c r="E28" s="384"/>
-      <c r="F28" s="384"/>
-      <c r="G28" s="384"/>
+      <c r="C28" s="401"/>
+      <c r="D28" s="401"/>
+      <c r="E28" s="401"/>
+      <c r="F28" s="401"/>
+      <c r="G28" s="401"/>
     </row>
     <row r="29" spans="1:15">
-      <c r="A29" s="385"/>
-      <c r="B29" s="386" t="s">
+      <c r="A29" s="341"/>
+      <c r="B29" s="402" t="s">
         <v>180</v>
       </c>
-      <c r="C29" s="386"/>
-      <c r="D29" s="386" t="s">
+      <c r="C29" s="402"/>
+      <c r="D29" s="402" t="s">
         <v>181</v>
       </c>
-      <c r="E29" s="386"/>
-      <c r="F29" s="386" t="s">
+      <c r="E29" s="402"/>
+      <c r="F29" s="402" t="s">
         <v>435</v>
       </c>
-      <c r="G29" s="386"/>
+      <c r="G29" s="402"/>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="387" t="s">
+      <c r="A30" s="342" t="s">
         <v>299</v>
       </c>
-      <c r="B30" s="388" t="s">
+      <c r="B30" s="343" t="s">
         <v>191</v>
       </c>
-      <c r="C30" s="388" t="s">
+      <c r="C30" s="343" t="s">
         <v>301</v>
       </c>
-      <c r="D30" s="388" t="s">
+      <c r="D30" s="343" t="s">
         <v>191</v>
       </c>
-      <c r="E30" s="388" t="s">
+      <c r="E30" s="343" t="s">
         <v>301</v>
       </c>
-      <c r="F30" s="388" t="s">
+      <c r="F30" s="343" t="s">
         <v>191</v>
       </c>
-      <c r="G30" s="388" t="s">
+      <c r="G30" s="343" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="31" spans="1:15">
-      <c r="A31" s="389" t="s">
+      <c r="A31" s="344" t="s">
         <v>583</v>
       </c>
-      <c r="B31" s="390">
+      <c r="B31" s="345">
         <v>10.186328305</v>
       </c>
-      <c r="C31" s="391" t="s">
+      <c r="C31" s="346" t="s">
         <v>584</v>
       </c>
-      <c r="D31" s="391">
+      <c r="D31" s="346">
         <v>4.9072006353999997</v>
       </c>
-      <c r="E31" s="391" t="s">
+      <c r="E31" s="346" t="s">
         <v>585</v>
       </c>
-      <c r="F31" s="391">
+      <c r="F31" s="346">
         <v>7.5</v>
       </c>
-      <c r="G31" s="391" t="s">
+      <c r="G31" s="346" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="32" spans="1:15">
-      <c r="A32" s="392" t="s">
+      <c r="A32" s="347" t="s">
         <v>187</v>
       </c>
-      <c r="B32" s="393">
+      <c r="B32" s="348">
         <v>18.3</v>
       </c>
-      <c r="C32" s="393" t="s">
+      <c r="C32" s="348" t="s">
         <v>587</v>
       </c>
-      <c r="D32" s="393">
+      <c r="D32" s="348">
         <v>13.8</v>
       </c>
-      <c r="E32" s="393" t="s">
+      <c r="E32" s="348" t="s">
         <v>588</v>
       </c>
-      <c r="F32" s="393">
+      <c r="F32" s="348">
         <v>15.9</v>
       </c>
-      <c r="G32" s="393" t="s">
+      <c r="G32" s="348" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="392" t="s">
+      <c r="A33" s="347" t="s">
         <v>188</v>
       </c>
-      <c r="B33" s="393">
+      <c r="B33" s="348">
         <v>32.700000000000003</v>
       </c>
-      <c r="C33" s="393" t="s">
+      <c r="C33" s="348" t="s">
         <v>590</v>
       </c>
-      <c r="D33" s="393">
+      <c r="D33" s="348">
         <v>20.7</v>
       </c>
-      <c r="E33" s="393" t="s">
+      <c r="E33" s="348" t="s">
         <v>591</v>
       </c>
-      <c r="F33" s="393">
+      <c r="F33" s="348">
         <v>26.4</v>
       </c>
-      <c r="G33" s="393" t="s">
+      <c r="G33" s="348" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="392" t="s">
+      <c r="A34" s="347" t="s">
         <v>473</v>
       </c>
-      <c r="B34" s="393">
+      <c r="B34" s="348">
         <v>37</v>
       </c>
-      <c r="C34" s="393" t="s">
+      <c r="C34" s="348" t="s">
         <v>593</v>
       </c>
-      <c r="D34" s="393">
+      <c r="D34" s="348">
         <v>30.4</v>
       </c>
-      <c r="E34" s="393" t="s">
+      <c r="E34" s="348" t="s">
         <v>594</v>
       </c>
-      <c r="F34" s="393">
+      <c r="F34" s="348">
         <v>33.5</v>
       </c>
-      <c r="G34" s="393" t="s">
+      <c r="G34" s="348" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="392" t="s">
+      <c r="A35" s="347" t="s">
         <v>483</v>
       </c>
-      <c r="B35" s="393">
+      <c r="B35" s="348">
         <v>42.1</v>
       </c>
-      <c r="C35" s="393" t="s">
+      <c r="C35" s="348" t="s">
         <v>596</v>
       </c>
-      <c r="D35" s="393">
+      <c r="D35" s="348">
         <v>38.5</v>
       </c>
-      <c r="E35" s="393" t="s">
+      <c r="E35" s="348" t="s">
         <v>597</v>
       </c>
-      <c r="F35" s="393">
+      <c r="F35" s="348">
         <v>40.200000000000003</v>
       </c>
-      <c r="G35" s="393" t="s">
+      <c r="G35" s="348" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="392" t="s">
+      <c r="A36" s="347" t="s">
         <v>492</v>
       </c>
-      <c r="B36" s="393">
+      <c r="B36" s="348">
         <v>41.8</v>
       </c>
-      <c r="C36" s="393" t="s">
+      <c r="C36" s="348" t="s">
         <v>599</v>
       </c>
-      <c r="D36" s="393">
+      <c r="D36" s="348">
         <v>45.5</v>
       </c>
-      <c r="E36" s="393" t="s">
+      <c r="E36" s="348" t="s">
         <v>600</v>
       </c>
-      <c r="F36" s="393">
+      <c r="F36" s="348">
         <v>43.8</v>
       </c>
-      <c r="G36" s="393" t="s">
+      <c r="G36" s="348" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="394" t="s">
+      <c r="A37" s="349" t="s">
         <v>502</v>
       </c>
-      <c r="B37" s="393">
+      <c r="B37" s="348">
         <v>51</v>
       </c>
-      <c r="C37" s="393" t="s">
+      <c r="C37" s="348" t="s">
         <v>602</v>
       </c>
-      <c r="D37" s="393">
+      <c r="D37" s="348">
         <v>47.5</v>
       </c>
-      <c r="E37" s="393" t="s">
+      <c r="E37" s="348" t="s">
         <v>603</v>
       </c>
-      <c r="F37" s="393">
+      <c r="F37" s="348">
         <v>47.4</v>
       </c>
-      <c r="G37" s="393" t="s">
+      <c r="G37" s="348" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="395" t="s">
+      <c r="A38" s="350" t="s">
         <v>512</v>
       </c>
-      <c r="B38" s="396">
+      <c r="B38" s="351">
         <v>25.4</v>
       </c>
-      <c r="C38" s="396" t="s">
+      <c r="C38" s="351" t="s">
         <v>605</v>
       </c>
-      <c r="D38" s="396">
+      <c r="D38" s="351">
         <v>20.3</v>
       </c>
-      <c r="E38" s="396" t="s">
+      <c r="E38" s="351" t="s">
         <v>575</v>
       </c>
-      <c r="F38" s="396">
+      <c r="F38" s="351">
         <v>22.8</v>
       </c>
-      <c r="G38" s="396" t="s">
+      <c r="G38" s="351" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="373" t="s">
+      <c r="A39" s="332" t="s">
         <v>429</v>
       </c>
-      <c r="B39" s="382"/>
-      <c r="C39" s="382"/>
-      <c r="D39" s="382"/>
-      <c r="E39" s="382"/>
-      <c r="F39" s="382"/>
-      <c r="G39" s="382"/>
+      <c r="B39" s="339"/>
+      <c r="C39" s="339"/>
+      <c r="D39" s="339"/>
+      <c r="E39" s="339"/>
+      <c r="F39" s="339"/>
+      <c r="G39" s="339"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="374" t="s">
+      <c r="A40" s="400" t="s">
         <v>606</v>
       </c>
-      <c r="B40" s="374"/>
-      <c r="C40" s="374"/>
-      <c r="D40" s="374"/>
-      <c r="E40" s="374"/>
-      <c r="F40" s="374"/>
-      <c r="G40" s="374"/>
+      <c r="B40" s="400"/>
+      <c r="C40" s="400"/>
+      <c r="D40" s="400"/>
+      <c r="E40" s="400"/>
+      <c r="F40" s="400"/>
+      <c r="G40" s="400"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="374" t="s">
+      <c r="A41" s="400" t="s">
         <v>579</v>
       </c>
-      <c r="B41" s="374"/>
-      <c r="C41" s="374"/>
-      <c r="D41" s="374"/>
-      <c r="E41" s="374"/>
-      <c r="F41" s="374"/>
-      <c r="G41" s="374"/>
+      <c r="B41" s="400"/>
+      <c r="C41" s="400"/>
+      <c r="D41" s="400"/>
+      <c r="E41" s="400"/>
+      <c r="F41" s="400"/>
+      <c r="G41" s="400"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="374" t="s">
+      <c r="A42" s="400" t="s">
         <v>431</v>
       </c>
-      <c r="B42" s="374"/>
-      <c r="C42" s="374"/>
-      <c r="D42" s="374"/>
-      <c r="E42" s="374"/>
-      <c r="F42" s="374"/>
-      <c r="G42" s="374"/>
+      <c r="B42" s="400"/>
+      <c r="C42" s="400"/>
+      <c r="D42" s="400"/>
+      <c r="E42" s="400"/>
+      <c r="F42" s="400"/>
+      <c r="G42" s="400"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="374" t="s">
+      <c r="A43" s="400" t="s">
         <v>607</v>
       </c>
-      <c r="B43" s="374"/>
-      <c r="C43" s="374"/>
-      <c r="D43" s="374"/>
-      <c r="E43" s="374"/>
-      <c r="F43" s="374"/>
-      <c r="G43" s="374"/>
+      <c r="B43" s="400"/>
+      <c r="C43" s="400"/>
+      <c r="D43" s="400"/>
+      <c r="E43" s="400"/>
+      <c r="F43" s="400"/>
+      <c r="G43" s="400"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="382"/>
-      <c r="B44" s="382"/>
-      <c r="C44" s="382"/>
-      <c r="D44" s="382"/>
-      <c r="E44" s="382"/>
-      <c r="F44" s="382"/>
-      <c r="G44" s="382"/>
+      <c r="A44" s="339"/>
+      <c r="B44" s="339"/>
+      <c r="C44" s="339"/>
+      <c r="D44" s="339"/>
+      <c r="E44" s="339"/>
+      <c r="F44" s="339"/>
+      <c r="G44" s="339"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="373" t="s">
+      <c r="A45" s="332" t="s">
         <v>608</v>
       </c>
-      <c r="B45" s="382"/>
-      <c r="C45" s="382"/>
-      <c r="D45" s="382"/>
-      <c r="E45" s="382"/>
-      <c r="F45" s="382"/>
-      <c r="G45" s="382"/>
+      <c r="B45" s="339"/>
+      <c r="C45" s="339"/>
+      <c r="D45" s="339"/>
+      <c r="E45" s="339"/>
+      <c r="F45" s="339"/>
+      <c r="G45" s="339"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
     <mergeCell ref="A42:G42"/>
     <mergeCell ref="A43:G43"/>
     <mergeCell ref="B28:G28"/>
@@ -26103,12 +26212,6 @@
     <mergeCell ref="F29:G29"/>
     <mergeCell ref="A40:G40"/>
     <mergeCell ref="A41:G41"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A26:G26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Population/data/Population Indicators.xlsx
+++ b/Population/data/Population Indicators.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\JusticeCOVID\Population\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032FF15F-1969-4148-A890-6060D46EB21A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E3BCC48-028F-4E4C-B708-E625F06FC3BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39840" yWindow="1935" windowWidth="36225" windowHeight="15435" xr2:uid="{B9AFA079-0671-40AD-860D-809D829A87F1}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{B9AFA079-0671-40AD-860D-809D829A87F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Summaries" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E74" authorId="0" shapeId="0" xr:uid="{37F09249-CCAA-4FB7-A8E3-F7CAB87E4943}">
+    <comment ref="F74" authorId="0" shapeId="0" xr:uid="{37F09249-CCAA-4FB7-A8E3-F7CAB87E4943}">
       <text>
         <r>
           <rPr>
@@ -73,7 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F74" authorId="0" shapeId="0" xr:uid="{70BA0359-8ABC-4DA5-B5CA-8A699B3BAC39}">
+    <comment ref="H74" authorId="0" shapeId="0" xr:uid="{70BA0359-8ABC-4DA5-B5CA-8A699B3BAC39}">
       <text>
         <r>
           <rPr>
@@ -87,7 +87,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M74" authorId="0" shapeId="0" xr:uid="{3FBCE7B4-B9E1-4D04-B3F2-12B3B681F779}">
+    <comment ref="O74" authorId="0" shapeId="0" xr:uid="{3FBCE7B4-B9E1-4D04-B3F2-12B3B681F779}">
       <text>
         <r>
           <rPr>
@@ -101,7 +101,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N74" authorId="0" shapeId="0" xr:uid="{B13B0F71-D787-47A8-B82C-6466B7E42A00}">
+    <comment ref="Q74" authorId="0" shapeId="0" xr:uid="{B13B0F71-D787-47A8-B82C-6466B7E42A00}">
       <text>
         <r>
           <rPr>
@@ -115,7 +115,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O74" authorId="0" shapeId="0" xr:uid="{6DDAC677-19B2-4075-B842-94C3CA45A39B}">
+    <comment ref="S74" authorId="0" shapeId="0" xr:uid="{6DDAC677-19B2-4075-B842-94C3CA45A39B}">
       <text>
         <r>
           <rPr>
@@ -1794,7 +1794,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="613">
   <si>
     <t>&lt; 10</t>
   </si>
@@ -3760,6 +3760,9 @@
   </si>
   <si>
     <t>South Korea</t>
+  </si>
+  <si>
+    <t>Combined Pop</t>
   </si>
 </sst>
 </file>
@@ -5198,7 +5201,7 @@
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="407">
+  <cellXfs count="427">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -5841,16 +5844,12 @@
     <xf numFmtId="164" fontId="12" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="26" xfId="35" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5862,6 +5861,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="38" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="38" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5869,9 +5877,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="38" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="38" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="38" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5883,17 +5888,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="38" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="38" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -5910,6 +5912,24 @@
     <xf numFmtId="0" fontId="32" fillId="33" borderId="24" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="42" fillId="35" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="35" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="42" fillId="35" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -5921,24 +5941,6 @@
     </xf>
     <xf numFmtId="49" fontId="42" fillId="35" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="35" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="42" fillId="35" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="59" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -5957,6 +5959,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="41" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="24" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -5966,14 +5974,47 @@
     <xf numFmtId="49" fontId="42" fillId="37" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="38" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="3" fontId="38" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="26" xfId="35" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="38" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="38" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="38" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="38" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="38" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="38" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="38" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="38" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="38" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="38" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="38" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="38" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="60" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="60" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="60" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="73">
     <cellStyle name="20% - Accent1" xfId="17" builtinId="30" customBuiltin="1"/>
@@ -6371,10 +6412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69445D4F-6ED8-41C8-8CD1-A1D8E95413A8}">
-  <dimension ref="A2:AF158"/>
+  <dimension ref="A2:AJ158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="AC83" sqref="AC83"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="Q84" sqref="Q84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6715,7 +6756,7 @@
       <c r="J17" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="K17" s="405" t="s">
+      <c r="K17" s="360" t="s">
         <v>170</v>
       </c>
       <c r="L17" s="78" t="s">
@@ -6759,7 +6800,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="54">
-        <f t="shared" ref="I18:I27" si="10">D18/D4</f>
+        <f t="shared" ref="I18:I26" si="10">D18/D4</f>
         <v>0</v>
       </c>
       <c r="J18" s="54">
@@ -7148,19 +7189,19 @@
         <v>8.2618366698442962E-3</v>
       </c>
       <c r="D26" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E26" s="7">
         <f t="shared" si="6"/>
-        <v>8.3386786401539442E-3</v>
+        <v>8.6593970493906349E-3</v>
       </c>
       <c r="F26" s="4">
         <f t="shared" si="7"/>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G26" s="6">
         <f t="shared" si="8"/>
-        <v>8.3000798084596969E-3</v>
+        <v>8.4596967278531519E-3</v>
       </c>
       <c r="H26" s="49">
         <f t="shared" si="9"/>
@@ -7168,11 +7209,11 @@
       </c>
       <c r="I26" s="47">
         <f t="shared" si="10"/>
-        <v>0.26530612244897961</v>
+        <v>0.27551020408163263</v>
       </c>
       <c r="J26" s="47">
         <f t="shared" si="11"/>
-        <v>0.24761904761904763</v>
+        <v>0.25238095238095237</v>
       </c>
       <c r="K26" s="49">
         <v>0.14799999999999999</v>
@@ -7197,23 +7238,23 @@
       </c>
       <c r="D27" s="59">
         <f>SUM(D18:D26)</f>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F27" s="59">
         <f>SUM(F18:F26)</f>
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H27" s="66">
         <f t="shared" si="9"/>
         <v>1.7159199237368923E-2</v>
       </c>
       <c r="I27" s="66">
-        <f t="shared" si="10"/>
-        <v>1.3790891597177678E-2</v>
+        <f>D27/D13</f>
+        <v>1.4111610006414367E-2</v>
       </c>
       <c r="J27" s="66">
         <f t="shared" si="11"/>
-        <v>1.5482841181165203E-2</v>
+        <v>1.564245810055866E-2</v>
       </c>
       <c r="K27" s="5">
         <v>5.5199999999999999E-2</v>
@@ -7232,11 +7273,11 @@
       <c r="A28" s="1"/>
       <c r="B28" s="65">
         <f>B27/F27</f>
-        <v>0.55670103092783507</v>
+        <v>0.55102040816326525</v>
       </c>
       <c r="D28" s="65">
         <f>D27/F27</f>
-        <v>0.44329896907216493</v>
+        <v>0.44897959183673469</v>
       </c>
       <c r="H28" s="9"/>
       <c r="J28" s="9"/>
@@ -7365,17 +7406,17 @@
       <c r="A43" s="295" t="s">
         <v>528</v>
       </c>
-      <c r="B43" s="361" t="s">
+      <c r="B43" s="376" t="s">
         <v>434</v>
       </c>
-      <c r="C43" s="362"/>
-      <c r="D43" s="362"/>
-      <c r="E43" s="362"/>
-      <c r="F43" s="362"/>
-      <c r="G43" s="362"/>
-      <c r="H43" s="362"/>
-      <c r="I43" s="362"/>
-      <c r="J43" s="363"/>
+      <c r="C43" s="377"/>
+      <c r="D43" s="377"/>
+      <c r="E43" s="377"/>
+      <c r="F43" s="377"/>
+      <c r="G43" s="377"/>
+      <c r="H43" s="377"/>
+      <c r="I43" s="377"/>
+      <c r="J43" s="378"/>
       <c r="K43" s="364" t="s">
         <v>237</v>
       </c>
@@ -7387,64 +7428,64 @@
       <c r="Q43" s="365"/>
       <c r="R43" s="365"/>
       <c r="S43" s="366"/>
-      <c r="T43" s="360" t="s">
+      <c r="T43" s="367" t="s">
         <v>525</v>
       </c>
-      <c r="U43" s="360"/>
-      <c r="V43" s="360"/>
-      <c r="W43" s="360"/>
-      <c r="X43" s="360"/>
-      <c r="Y43" s="360"/>
-      <c r="Z43" s="360"/>
-      <c r="AA43" s="360"/>
-      <c r="AB43" s="360"/>
+      <c r="U43" s="367"/>
+      <c r="V43" s="367"/>
+      <c r="W43" s="367"/>
+      <c r="X43" s="367"/>
+      <c r="Y43" s="367"/>
+      <c r="Z43" s="367"/>
+      <c r="AA43" s="367"/>
+      <c r="AB43" s="367"/>
     </row>
     <row r="44" spans="1:28" ht="15" customHeight="1">
-      <c r="B44" s="360" t="s">
+      <c r="B44" s="367" t="s">
         <v>180</v>
       </c>
-      <c r="C44" s="360"/>
-      <c r="D44" s="360"/>
-      <c r="E44" s="360" t="s">
+      <c r="C44" s="367"/>
+      <c r="D44" s="367"/>
+      <c r="E44" s="367" t="s">
         <v>181</v>
       </c>
-      <c r="F44" s="360"/>
-      <c r="G44" s="360"/>
-      <c r="H44" s="360" t="s">
+      <c r="F44" s="367"/>
+      <c r="G44" s="367"/>
+      <c r="H44" s="367" t="s">
         <v>435</v>
       </c>
-      <c r="I44" s="360"/>
-      <c r="J44" s="360"/>
-      <c r="K44" s="373" t="s">
+      <c r="I44" s="367"/>
+      <c r="J44" s="367"/>
+      <c r="K44" s="375" t="s">
         <v>180</v>
       </c>
-      <c r="L44" s="373"/>
-      <c r="M44" s="373"/>
-      <c r="N44" s="373" t="s">
+      <c r="L44" s="375"/>
+      <c r="M44" s="375"/>
+      <c r="N44" s="375" t="s">
         <v>181</v>
       </c>
-      <c r="O44" s="373"/>
-      <c r="P44" s="373"/>
+      <c r="O44" s="375"/>
+      <c r="P44" s="375"/>
       <c r="Q44" s="364" t="s">
         <v>435</v>
       </c>
       <c r="R44" s="365"/>
       <c r="S44" s="366"/>
-      <c r="T44" s="360" t="s">
+      <c r="T44" s="367" t="s">
         <v>180</v>
       </c>
-      <c r="U44" s="360"/>
-      <c r="V44" s="360"/>
-      <c r="W44" s="360" t="s">
+      <c r="U44" s="367"/>
+      <c r="V44" s="367"/>
+      <c r="W44" s="367" t="s">
         <v>181</v>
       </c>
-      <c r="X44" s="360"/>
-      <c r="Y44" s="360"/>
-      <c r="Z44" s="360" t="s">
+      <c r="X44" s="367"/>
+      <c r="Y44" s="367"/>
+      <c r="Z44" s="367" t="s">
         <v>435</v>
       </c>
-      <c r="AA44" s="360"/>
-      <c r="AB44" s="360"/>
+      <c r="AA44" s="367"/>
+      <c r="AB44" s="367"/>
     </row>
     <row r="45" spans="1:28">
       <c r="B45" s="66" t="s">
@@ -7868,7 +7909,7 @@
         <v>0.68700000000000006</v>
       </c>
     </row>
-    <row r="49" spans="1:32">
+    <row r="49" spans="1:36">
       <c r="A49" t="s">
         <v>188</v>
       </c>
@@ -7981,7 +8022,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="50" spans="1:32">
+    <row r="50" spans="1:36">
       <c r="A50" t="s">
         <v>374</v>
       </c>
@@ -8067,7 +8108,7 @@
       <c r="AA50" s="291"/>
       <c r="AB50" s="294"/>
     </row>
-    <row r="51" spans="1:32">
+    <row r="51" spans="1:36">
       <c r="A51" t="s">
         <v>473</v>
       </c>
@@ -8126,7 +8167,7 @@
         <v>0.747</v>
       </c>
     </row>
-    <row r="52" spans="1:32">
+    <row r="52" spans="1:36">
       <c r="A52" t="s">
         <v>483</v>
       </c>
@@ -8185,7 +8226,7 @@
         <v>0.78200000000000003</v>
       </c>
     </row>
-    <row r="53" spans="1:32">
+    <row r="53" spans="1:36">
       <c r="A53" t="s">
         <v>492</v>
       </c>
@@ -8244,7 +8285,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="54" spans="1:32">
+    <row r="54" spans="1:36">
       <c r="A54" t="s">
         <v>502</v>
       </c>
@@ -8303,7 +8344,7 @@
         <v>0.61799999999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:32">
+    <row r="55" spans="1:36">
       <c r="A55" t="s">
         <v>526</v>
       </c>
@@ -8416,62 +8457,66 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="56" spans="1:32">
+    <row r="56" spans="1:36">
       <c r="B56" s="62"/>
       <c r="C56" s="62"/>
     </row>
-    <row r="58" spans="1:32">
+    <row r="58" spans="1:36">
       <c r="A58" s="295" t="s">
         <v>529</v>
       </c>
-      <c r="B58" s="360">
+      <c r="B58" s="367">
         <v>2019</v>
       </c>
-      <c r="C58" s="360"/>
-      <c r="D58" s="360">
+      <c r="C58" s="367"/>
+      <c r="D58" s="364">
         <v>2018</v>
       </c>
-      <c r="E58" s="360"/>
-      <c r="F58" s="360"/>
-      <c r="G58" s="364">
+      <c r="E58" s="365"/>
+      <c r="F58" s="365"/>
+      <c r="G58" s="365"/>
+      <c r="H58" s="366"/>
+      <c r="I58" s="364">
         <v>2019</v>
       </c>
-      <c r="H58" s="365"/>
-      <c r="I58" s="365"/>
       <c r="J58" s="365"/>
       <c r="K58" s="365"/>
-      <c r="L58" s="366"/>
-      <c r="M58" s="366">
+      <c r="L58" s="365"/>
+      <c r="M58" s="365"/>
+      <c r="N58" s="366"/>
+      <c r="O58" s="364">
         <v>2018</v>
       </c>
-      <c r="N58" s="360"/>
-      <c r="O58" s="360"/>
-      <c r="P58" s="364">
-        <v>2019</v>
-      </c>
+      <c r="P58" s="365"/>
       <c r="Q58" s="365"/>
       <c r="R58" s="365"/>
-      <c r="S58" s="365"/>
-      <c r="T58" s="365"/>
-      <c r="U58" s="366"/>
-      <c r="V58" s="366">
+      <c r="S58" s="366"/>
+      <c r="T58" s="364">
+        <v>2019</v>
+      </c>
+      <c r="U58" s="365"/>
+      <c r="V58" s="365"/>
+      <c r="W58" s="365"/>
+      <c r="X58" s="365"/>
+      <c r="Y58" s="366"/>
+      <c r="Z58" s="366">
         <v>2018</v>
       </c>
-      <c r="W58" s="360"/>
-      <c r="X58" s="360"/>
-      <c r="Y58" s="364">
+      <c r="AA58" s="367"/>
+      <c r="AB58" s="367"/>
+      <c r="AC58" s="364">
         <v>2019</v>
       </c>
-      <c r="Z58" s="365"/>
-      <c r="AA58" s="365"/>
-      <c r="AB58" s="365"/>
-      <c r="AC58" s="365"/>
-      <c r="AD58" s="366"/>
-      <c r="AE58" s="172" t="s">
+      <c r="AD58" s="365"/>
+      <c r="AE58" s="365"/>
+      <c r="AF58" s="365"/>
+      <c r="AG58" s="365"/>
+      <c r="AH58" s="366"/>
+      <c r="AI58" s="172" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="59" spans="1:32">
+    <row r="59" spans="1:36">
       <c r="B59" s="59" t="s">
         <v>19</v>
       </c>
@@ -8482,135 +8527,151 @@
         <v>251</v>
       </c>
       <c r="E59" s="365"/>
-      <c r="F59" s="366"/>
-      <c r="G59" s="364" t="s">
+      <c r="F59" s="365"/>
+      <c r="G59" s="365"/>
+      <c r="H59" s="366"/>
+      <c r="I59" s="364" t="s">
         <v>165</v>
       </c>
-      <c r="H59" s="365"/>
-      <c r="I59" s="365"/>
       <c r="J59" s="365"/>
       <c r="K59" s="365"/>
-      <c r="L59" s="366"/>
-      <c r="M59" s="365" t="s">
+      <c r="L59" s="365"/>
+      <c r="M59" s="365"/>
+      <c r="N59" s="366"/>
+      <c r="O59" s="364" t="s">
         <v>239</v>
       </c>
-      <c r="N59" s="365"/>
-      <c r="O59" s="366"/>
-      <c r="P59" s="364" t="s">
-        <v>164</v>
-      </c>
+      <c r="P59" s="365"/>
       <c r="Q59" s="365"/>
       <c r="R59" s="365"/>
-      <c r="S59" s="365"/>
-      <c r="T59" s="365"/>
-      <c r="U59" s="366"/>
-      <c r="V59" s="365" t="s">
+      <c r="S59" s="366"/>
+      <c r="T59" s="364" t="s">
+        <v>164</v>
+      </c>
+      <c r="U59" s="365"/>
+      <c r="V59" s="365"/>
+      <c r="W59" s="365"/>
+      <c r="X59" s="365"/>
+      <c r="Y59" s="366"/>
+      <c r="Z59" s="365" t="s">
         <v>261</v>
       </c>
-      <c r="W59" s="365"/>
-      <c r="X59" s="366"/>
-      <c r="Y59" s="364" t="s">
+      <c r="AA59" s="365"/>
+      <c r="AB59" s="366"/>
+      <c r="AC59" s="364" t="s">
         <v>260</v>
       </c>
-      <c r="Z59" s="365"/>
-      <c r="AA59" s="365"/>
-      <c r="AB59" s="365"/>
-      <c r="AC59" s="365"/>
-      <c r="AD59" s="366"/>
-      <c r="AE59" s="20">
-        <f>SUM(F64:F68)</f>
+      <c r="AD59" s="365"/>
+      <c r="AE59" s="365"/>
+      <c r="AF59" s="365"/>
+      <c r="AG59" s="365"/>
+      <c r="AH59" s="366"/>
+      <c r="AI59" s="20">
+        <f>SUM(H64:H68)</f>
         <v>17700241</v>
       </c>
     </row>
-    <row r="60" spans="1:32">
+    <row r="60" spans="1:36">
       <c r="B60" s="3"/>
       <c r="C60" s="74"/>
-      <c r="D60" s="77" t="s">
+      <c r="D60" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="E60" s="77" t="s">
+      <c r="E60" s="159" t="s">
+        <v>300</v>
+      </c>
+      <c r="F60" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="F60" s="165" t="s">
+      <c r="G60" s="208" t="s">
+        <v>300</v>
+      </c>
+      <c r="H60" s="165" t="s">
         <v>11</v>
       </c>
-      <c r="G60" s="112" t="s">
+      <c r="I60" s="112" t="s">
         <v>9</v>
-      </c>
-      <c r="H60" s="182" t="s">
-        <v>252</v>
-      </c>
-      <c r="I60" s="112" t="s">
-        <v>10</v>
       </c>
       <c r="J60" s="182" t="s">
         <v>252</v>
       </c>
-      <c r="K60" s="182" t="s">
-        <v>11</v>
+      <c r="K60" s="112" t="s">
+        <v>10</v>
       </c>
       <c r="L60" s="182" t="s">
         <v>252</v>
       </c>
-      <c r="M60" s="50" t="s">
+      <c r="M60" s="182" t="s">
+        <v>11</v>
+      </c>
+      <c r="N60" s="182" t="s">
+        <v>252</v>
+      </c>
+      <c r="O60" s="406" t="s">
         <v>9</v>
       </c>
-      <c r="N60" s="50" t="s">
+      <c r="P60" s="421" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q60" s="406" t="s">
         <v>10</v>
       </c>
-      <c r="O60" s="75" t="s">
+      <c r="R60" s="421" t="s">
+        <v>300</v>
+      </c>
+      <c r="S60" s="406" t="s">
         <v>11</v>
       </c>
-      <c r="P60" s="112" t="s">
+      <c r="T60" s="112" t="s">
         <v>9</v>
-      </c>
-      <c r="Q60" s="182" t="s">
-        <v>252</v>
-      </c>
-      <c r="R60" s="112" t="s">
-        <v>10</v>
-      </c>
-      <c r="S60" s="182" t="s">
-        <v>252</v>
-      </c>
-      <c r="T60" s="182" t="s">
-        <v>11</v>
       </c>
       <c r="U60" s="182" t="s">
         <v>252</v>
       </c>
-      <c r="V60" s="50" t="s">
+      <c r="V60" s="112" t="s">
+        <v>10</v>
+      </c>
+      <c r="W60" s="182" t="s">
+        <v>252</v>
+      </c>
+      <c r="X60" s="182" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y60" s="182" t="s">
+        <v>252</v>
+      </c>
+      <c r="Z60" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="W60" s="50" t="s">
+      <c r="AA60" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="X60" s="75" t="s">
+      <c r="AB60" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="Y60" s="112" t="s">
+      <c r="AC60" s="112" t="s">
         <v>9</v>
-      </c>
-      <c r="Z60" s="182" t="s">
-        <v>252</v>
-      </c>
-      <c r="AA60" s="112" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB60" s="182" t="s">
-        <v>252</v>
-      </c>
-      <c r="AC60" s="182" t="s">
-        <v>11</v>
       </c>
       <c r="AD60" s="182" t="s">
         <v>252</v>
       </c>
-      <c r="AE60" s="172" t="s">
+      <c r="AE60" s="112" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF60" s="182" t="s">
+        <v>252</v>
+      </c>
+      <c r="AG60" s="182" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH60" s="182" t="s">
+        <v>252</v>
+      </c>
+      <c r="AI60" s="172" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="61" spans="1:32">
+    <row r="61" spans="1:36">
       <c r="A61" s="72" t="s">
         <v>0</v>
       </c>
@@ -8622,63 +8683,79 @@
         <f>'AU Pop'!D13</f>
         <v>0.1255958322404806</v>
       </c>
-      <c r="D61" s="106">
+      <c r="D61" s="161">
         <f>'A&amp;TSI Pop'!L9</f>
         <v>1516001</v>
       </c>
-      <c r="E61" s="106">
+      <c r="E61" s="412">
+        <f>D61/SUM($D$61:$D$68)</f>
+        <v>0.13063764398783725</v>
+      </c>
+      <c r="F61" s="106">
         <f>'A&amp;TSI Pop'!L27</f>
         <v>1437218</v>
       </c>
-      <c r="F61" s="161">
+      <c r="G61" s="412">
+        <f>F61/SUM($F$61:$F$68)</f>
+        <v>0.12192299300402208</v>
+      </c>
+      <c r="H61" s="161">
         <f>'A&amp;TSI Pop'!L45</f>
         <v>2953219</v>
       </c>
-      <c r="G61" s="3"/>
-      <c r="I61" s="58"/>
+      <c r="I61" s="3"/>
       <c r="K61" s="58"/>
-      <c r="L61" s="74"/>
-      <c r="M61" s="168">
+      <c r="M61" s="58"/>
+      <c r="N61" s="74"/>
+      <c r="O61" s="420">
         <f>'A&amp;TSI Pop'!H9</f>
         <v>96111</v>
       </c>
-      <c r="N61" s="168">
+      <c r="P61" s="412">
+        <f>O61/SUM($O$61:$O$68)</f>
+        <v>0.24123459826863078</v>
+      </c>
+      <c r="Q61" s="409">
         <f>'A&amp;TSI Pop'!H27</f>
         <v>91577</v>
       </c>
-      <c r="O61" s="163">
+      <c r="R61" s="412">
+        <f>Q61/SUM($Q$61:$Q$68)</f>
+        <v>0.22896997639716765</v>
+      </c>
+      <c r="S61" s="410">
         <f>'A&amp;TSI Pop'!H45</f>
         <v>187688</v>
       </c>
-      <c r="P61" s="3"/>
-      <c r="R61" s="58"/>
-      <c r="T61" s="74"/>
-      <c r="U61" s="74"/>
-      <c r="V61" s="168">
-        <f t="shared" ref="V61:X62" si="12">M61+D61</f>
+      <c r="T61" s="3"/>
+      <c r="V61" s="58"/>
+      <c r="X61" s="74"/>
+      <c r="Y61" s="74"/>
+      <c r="Z61" s="168">
+        <f>O61+D61</f>
         <v>1612112</v>
       </c>
-      <c r="W61" s="168">
-        <f t="shared" si="12"/>
+      <c r="AA61" s="168">
+        <f>Q61+F61</f>
         <v>1528795</v>
       </c>
-      <c r="X61" s="163">
-        <f t="shared" si="12"/>
+      <c r="AB61" s="163">
+        <f>S61+H61</f>
         <v>3140907</v>
       </c>
-      <c r="Y61" s="3"/>
-      <c r="AA61" s="58"/>
-      <c r="AC61" s="74"/>
-      <c r="AD61" s="74"/>
-      <c r="AE61" s="26">
-        <f>SUM(G64:G68,I64:I68,K64:K68)</f>
+      <c r="AC61" s="3"/>
+      <c r="AE61" s="58"/>
+      <c r="AG61" s="74"/>
+      <c r="AH61" s="74"/>
+      <c r="AI61" s="26">
+        <f>SUM(I64:I68,K64:K68,M64:M68)</f>
         <v>61540</v>
       </c>
-      <c r="AF61" t="s">
+      <c r="AJ61" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="62" spans="1:32">
+    <row r="62" spans="1:36">
       <c r="A62" s="72" t="s">
         <v>250</v>
       </c>
@@ -8690,59 +8767,75 @@
         <f>'AU Pop'!H22</f>
         <v>9.5612474089386751E-2</v>
       </c>
-      <c r="D62" s="371">
+      <c r="D62" s="373">
         <f>'A&amp;TSI Pop'!L11</f>
         <v>1405253</v>
       </c>
-      <c r="E62" s="371">
+      <c r="E62" s="411">
+        <f t="shared" ref="E62:E68" si="12">D62/SUM($D$61:$D$68)</f>
+        <v>0.12109420846479671</v>
+      </c>
+      <c r="F62" s="368">
         <f>'A&amp;TSI Pop'!L29</f>
         <v>1333829</v>
       </c>
-      <c r="F62" s="371">
+      <c r="G62" s="411">
+        <f t="shared" ref="G62:G68" si="13">F62/SUM($F$61:$F$68)</f>
+        <v>0.11315223148858543</v>
+      </c>
+      <c r="H62" s="407">
         <f>'A&amp;TSI Pop'!L47</f>
         <v>2739082</v>
       </c>
-      <c r="G62" s="3"/>
-      <c r="I62" s="58"/>
+      <c r="I62" s="3"/>
       <c r="K62" s="58"/>
-      <c r="L62" s="74"/>
-      <c r="M62" s="367">
+      <c r="M62" s="58"/>
+      <c r="N62" s="74"/>
+      <c r="O62" s="414">
         <f>'A&amp;TSI Pop'!H11</f>
         <v>85770</v>
       </c>
-      <c r="N62" s="367">
+      <c r="P62" s="411">
+        <f t="shared" ref="P62:P68" si="14">O62/SUM($O$61:$O$68)</f>
+        <v>0.21527911990823592</v>
+      </c>
+      <c r="Q62" s="416">
         <f>'A&amp;TSI Pop'!H29</f>
         <v>81992</v>
       </c>
-      <c r="O62" s="369">
+      <c r="R62" s="411">
+        <f t="shared" ref="R62:R68" si="15">Q62/SUM($Q$61:$Q$68)</f>
+        <v>0.20500460055206624</v>
+      </c>
+      <c r="S62" s="418">
         <f>'A&amp;TSI Pop'!H47</f>
         <v>167762</v>
       </c>
-      <c r="P62" s="3"/>
-      <c r="R62" s="58"/>
-      <c r="T62" s="74"/>
-      <c r="U62" s="74"/>
-      <c r="V62" s="376">
-        <f t="shared" si="12"/>
+      <c r="T62" s="3"/>
+      <c r="V62" s="58"/>
+      <c r="X62" s="74"/>
+      <c r="Y62" s="74"/>
+      <c r="Z62" s="368">
+        <f>O62+D62</f>
         <v>1491023</v>
       </c>
-      <c r="W62" s="367">
-        <f t="shared" si="12"/>
+      <c r="AA62" s="370">
+        <f>Q62+F62</f>
         <v>1415821</v>
       </c>
-      <c r="X62" s="369">
-        <f t="shared" si="12"/>
+      <c r="AB62" s="372">
+        <f>S62+H62</f>
         <v>2906844</v>
       </c>
-      <c r="Y62" s="3"/>
-      <c r="AA62" s="58"/>
-      <c r="AC62" s="74"/>
-      <c r="AD62" s="74"/>
-      <c r="AE62" t="s">
+      <c r="AC62" s="3"/>
+      <c r="AE62" s="58"/>
+      <c r="AG62" s="74"/>
+      <c r="AH62" s="74"/>
+      <c r="AI62" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="63" spans="1:32">
+    <row r="63" spans="1:36">
       <c r="A63" s="1" t="s">
         <v>200</v>
       </c>
@@ -8754,60 +8847,64 @@
         <f>'AU Pop'!H25</f>
         <v>2.4952286703894818E-2</v>
       </c>
-      <c r="D63" s="372"/>
-      <c r="E63" s="372"/>
-      <c r="F63" s="372"/>
-      <c r="G63" s="80">
+      <c r="D63" s="374"/>
+      <c r="E63" s="413"/>
+      <c r="F63" s="369"/>
+      <c r="G63" s="413"/>
+      <c r="H63" s="408"/>
+      <c r="I63" s="80">
         <f>'Prison Pop'!L58</f>
         <v>353</v>
       </c>
-      <c r="I63" s="80">
+      <c r="K63" s="80">
         <f>'Prison Pop'!L75</f>
         <v>23</v>
       </c>
-      <c r="K63" s="80">
-        <f>SUM(G63,I63)</f>
+      <c r="M63" s="80">
+        <f>SUM(I63,K63)</f>
         <v>376</v>
       </c>
-      <c r="L63" s="74"/>
-      <c r="M63" s="368"/>
-      <c r="N63" s="368"/>
-      <c r="O63" s="370"/>
-      <c r="P63" s="80">
+      <c r="N63" s="74"/>
+      <c r="O63" s="415"/>
+      <c r="P63" s="413"/>
+      <c r="Q63" s="417"/>
+      <c r="R63" s="413"/>
+      <c r="S63" s="419"/>
+      <c r="T63" s="80">
         <f>'Prison Pop'!L6</f>
         <v>348</v>
       </c>
-      <c r="R63" s="80">
+      <c r="V63" s="80">
         <f>'Prison Pop'!L23</f>
         <v>30</v>
       </c>
-      <c r="T63" s="80">
-        <f>SUM(P63,R63)</f>
+      <c r="X63" s="80">
+        <f>SUM(T63,V63)</f>
         <v>378</v>
       </c>
-      <c r="U63" s="74"/>
-      <c r="V63" s="377"/>
-      <c r="W63" s="368"/>
-      <c r="X63" s="368"/>
-      <c r="Y63" s="80">
-        <f t="shared" ref="Y63:Y68" si="13">P63+G63</f>
+      <c r="Y63" s="74"/>
+      <c r="Z63" s="369"/>
+      <c r="AA63" s="371"/>
+      <c r="AB63" s="371"/>
+      <c r="AC63" s="80">
+        <f>T63+I63</f>
         <v>701</v>
       </c>
-      <c r="AA63" s="80">
-        <f>R63+I63</f>
+      <c r="AE63" s="80">
+        <f>V63+K63</f>
         <v>53</v>
       </c>
-      <c r="AC63" s="80">
-        <f>SUM(Y63,AA63)</f>
+      <c r="AG63" s="80">
+        <f>SUM(AC63,AE63)</f>
         <v>754</v>
       </c>
-      <c r="AD63" s="74"/>
-      <c r="AE63" s="214">
-        <f>AE61/(AE59/1000)</f>
+      <c r="AH63" s="74"/>
+      <c r="AI63" s="214">
+        <f>AI61/(AI59/1000)</f>
         <v>3.4767888188641045</v>
       </c>
     </row>
-    <row r="64" spans="1:32">
+    <row r="64" spans="1:36">
       <c r="A64" s="1" t="s">
         <v>2</v>
       </c>
@@ -8823,112 +8920,128 @@
         <f>'A&amp;TSI Pop'!L13</f>
         <v>1702705</v>
       </c>
-      <c r="E64" s="109">
+      <c r="E64" s="100">
+        <f t="shared" si="12"/>
+        <v>0.14672640031656342</v>
+      </c>
+      <c r="F64" s="109">
         <f>'A&amp;TSI Pop'!L31</f>
         <v>1668970</v>
       </c>
-      <c r="F64" s="109">
+      <c r="G64" s="99">
+        <f t="shared" si="13"/>
+        <v>0.14158312631342129</v>
+      </c>
+      <c r="H64" s="109">
         <f>'A&amp;TSI Pop'!L49</f>
         <v>3371675</v>
       </c>
-      <c r="G64" s="103">
+      <c r="I64" s="103">
         <f>'Prison Pop'!L60</f>
         <v>7737</v>
       </c>
-      <c r="H64" s="191">
-        <f>G64/(D64/1000)</f>
+      <c r="J64" s="191">
+        <f>I64/(D64/1000)</f>
         <v>4.54394625023125</v>
       </c>
-      <c r="I64" s="105">
+      <c r="K64" s="105">
         <f>'Prison Pop'!L77</f>
         <v>702</v>
       </c>
-      <c r="J64" s="215">
-        <f>I64/(E64/1000)</f>
+      <c r="L64" s="215">
+        <f>K64/(F64/1000)</f>
         <v>0.42061870494975945</v>
       </c>
-      <c r="K64" s="105">
-        <f t="shared" ref="K64:K68" si="14">SUM(G64,I64)</f>
+      <c r="M64" s="105">
+        <f>SUM(I64,K64)</f>
         <v>8439</v>
       </c>
-      <c r="L64" s="186">
-        <f>K64/(F64/1000)</f>
+      <c r="N64" s="186">
+        <f>M64/(H64/1000)</f>
         <v>2.5029102745667955</v>
       </c>
-      <c r="M64" s="164">
+      <c r="O64" s="184">
         <f>'A&amp;TSI Pop'!H13</f>
         <v>70004</v>
       </c>
-      <c r="N64" s="109">
+      <c r="P64" s="100">
+        <f t="shared" si="14"/>
+        <v>0.17570711799062783</v>
+      </c>
+      <c r="Q64" s="184">
         <f>'A&amp;TSI Pop'!H31</f>
         <v>66691</v>
       </c>
-      <c r="O64" s="109">
+      <c r="R64" s="100">
+        <f t="shared" si="15"/>
+        <v>0.16674750970116414</v>
+      </c>
+      <c r="S64" s="164">
         <f>'A&amp;TSI Pop'!H49</f>
         <v>136695</v>
       </c>
-      <c r="P64" s="105">
+      <c r="T64" s="105">
         <f>'Prison Pop'!L8</f>
         <v>4163</v>
       </c>
-      <c r="Q64" s="191">
-        <f>P64/(M64/1000)</f>
+      <c r="U64" s="191">
+        <f>T64/(O64/1000)</f>
         <v>59.468030398262954</v>
       </c>
-      <c r="R64" s="105">
+      <c r="V64" s="105">
         <f>'Prison Pop'!L25</f>
         <v>441</v>
       </c>
-      <c r="S64" s="218">
-        <f>R64/(N64/1000)</f>
+      <c r="W64" s="218">
+        <f>V64/(Q64/1000)</f>
         <v>6.6125864059618236</v>
       </c>
-      <c r="T64" s="105">
-        <f t="shared" ref="T64:T68" si="15">SUM(P64,R64)</f>
+      <c r="X64" s="105">
+        <f>SUM(T64,V64)</f>
         <v>4604</v>
       </c>
-      <c r="U64" s="186">
-        <f>T64/(O64/1000)</f>
+      <c r="Y64" s="186">
+        <f>X64/(S64/1000)</f>
         <v>33.680822268554081</v>
       </c>
-      <c r="V64" s="108">
-        <f t="shared" ref="V64:X65" si="16">M64+D64</f>
+      <c r="Z64" s="108">
+        <f>O64+D64</f>
         <v>1772709</v>
       </c>
-      <c r="W64" s="170">
-        <f t="shared" si="16"/>
+      <c r="AA64" s="170">
+        <f>Q64+F64</f>
         <v>1735661</v>
       </c>
-      <c r="X64" s="183">
-        <f t="shared" si="16"/>
+      <c r="AB64" s="183">
+        <f>S64+H64</f>
         <v>3508370</v>
       </c>
-      <c r="Y64" s="103">
-        <f t="shared" si="13"/>
+      <c r="AC64" s="103">
+        <f>T64+I64</f>
         <v>11900</v>
       </c>
-      <c r="Z64" s="191">
-        <f>Y64/(V64/1000)</f>
+      <c r="AD64" s="191">
+        <f>AC64/(Z64/1000)</f>
         <v>6.7128897072221099</v>
       </c>
-      <c r="AA64" s="180">
-        <f>R64+I64</f>
+      <c r="AE64" s="180">
+        <f>V64+K64</f>
         <v>1143</v>
       </c>
-      <c r="AB64" s="218">
-        <f>AA64/(W64/1000)</f>
+      <c r="AF64" s="218">
+        <f>AE64/(AA64/1000)</f>
         <v>0.65853873538669128</v>
       </c>
-      <c r="AC64" s="105">
-        <f t="shared" ref="AC64:AC68" si="17">SUM(Y64,AA64)</f>
+      <c r="AG64" s="105">
+        <f>SUM(AC64,AE64)</f>
         <v>13043</v>
       </c>
-      <c r="AD64" s="194">
-        <f>AC64/(X64/1000)</f>
+      <c r="AH64" s="194">
+        <f>AG64/(AB64/1000)</f>
         <v>3.7176808603425524</v>
       </c>
     </row>
-    <row r="65" spans="1:32">
+    <row r="65" spans="1:36">
       <c r="A65" s="1" t="s">
         <v>3</v>
       </c>
@@ -8944,115 +9057,131 @@
         <f>'A&amp;TSI Pop'!L15</f>
         <v>1647555</v>
       </c>
-      <c r="E65" s="109">
+      <c r="E65" s="100">
+        <f t="shared" si="12"/>
+        <v>0.14197398520210819</v>
+      </c>
+      <c r="F65" s="109">
         <f>'A&amp;TSI Pop'!L33</f>
         <v>1659922</v>
       </c>
-      <c r="F65" s="109">
+      <c r="G65" s="100">
+        <f t="shared" si="13"/>
+        <v>0.14081556061308886</v>
+      </c>
+      <c r="H65" s="109">
         <f>'A&amp;TSI Pop'!L51</f>
         <v>3307477</v>
       </c>
-      <c r="G65" s="103">
+      <c r="I65" s="103">
         <f>'Prison Pop'!L62</f>
         <v>9721</v>
       </c>
-      <c r="H65" s="192">
-        <f t="shared" ref="H65:H68" si="18">G65/(D65/1000)</f>
+      <c r="J65" s="192">
+        <f>I65/(D65/1000)</f>
         <v>5.9002582614844421</v>
       </c>
-      <c r="I65" s="105">
+      <c r="K65" s="105">
         <f>'Prison Pop'!L79</f>
         <v>808</v>
       </c>
-      <c r="J65" s="216">
-        <f t="shared" ref="J65:J68" si="19">I65/(E65/1000)</f>
+      <c r="L65" s="216">
+        <f>K65/(F65/1000)</f>
         <v>0.48676986027054281</v>
       </c>
-      <c r="K65" s="105">
-        <f t="shared" si="14"/>
+      <c r="M65" s="105">
+        <f>SUM(I65,K65)</f>
         <v>10529</v>
       </c>
-      <c r="L65" s="187">
-        <f>K65/(F65/1000)</f>
+      <c r="N65" s="187">
+        <f>M65/(H65/1000)</f>
         <v>3.1833932632033419</v>
       </c>
-      <c r="M65" s="164">
+      <c r="O65" s="184">
         <f>'A&amp;TSI Pop'!H15</f>
         <v>46374</v>
       </c>
-      <c r="N65" s="109">
+      <c r="P65" s="100">
+        <f t="shared" si="14"/>
+        <v>0.11639680432114415</v>
+      </c>
+      <c r="Q65" s="184">
         <f>'A&amp;TSI Pop'!H33</f>
         <v>47696</v>
       </c>
-      <c r="O65" s="109">
+      <c r="R65" s="100">
+        <f t="shared" si="15"/>
+        <v>0.11925431051726207</v>
+      </c>
+      <c r="S65" s="164">
         <f>'A&amp;TSI Pop'!H51</f>
         <v>94070</v>
       </c>
-      <c r="P65" s="105">
+      <c r="T65" s="105">
         <f>'Prison Pop'!L10</f>
         <v>3619</v>
       </c>
-      <c r="Q65" s="192">
-        <f t="shared" ref="Q65:Q68" si="20">P65/(M65/1000)</f>
+      <c r="U65" s="192">
+        <f>T65/(O65/1000)</f>
         <v>78.039418639755027</v>
       </c>
-      <c r="R65" s="105">
+      <c r="V65" s="105">
         <f>'Prison Pop'!L27</f>
         <v>436</v>
       </c>
-      <c r="S65" s="219">
-        <f t="shared" ref="S65:S68" si="21">R65/(N65/1000)</f>
+      <c r="W65" s="219">
+        <f>V65/(Q65/1000)</f>
         <v>9.1412277759141229</v>
       </c>
-      <c r="T65" s="105">
-        <f t="shared" si="15"/>
+      <c r="X65" s="105">
+        <f>SUM(T65,V65)</f>
         <v>4055</v>
       </c>
-      <c r="U65" s="187">
-        <f>T65/(O65/1000)</f>
+      <c r="Y65" s="187">
+        <f>X65/(S65/1000)</f>
         <v>43.106197512490702</v>
       </c>
-      <c r="V65" s="109">
-        <f t="shared" si="16"/>
+      <c r="Z65" s="109">
+        <f>O65+D65</f>
         <v>1693929</v>
       </c>
-      <c r="W65" s="164">
-        <f t="shared" si="16"/>
+      <c r="AA65" s="164">
+        <f>Q65+F65</f>
         <v>1707618</v>
       </c>
-      <c r="X65" s="184">
-        <f t="shared" si="16"/>
+      <c r="AB65" s="184">
+        <f>S65+H65</f>
         <v>3401547</v>
       </c>
-      <c r="Y65" s="103">
-        <f t="shared" si="13"/>
+      <c r="AC65" s="103">
+        <f>T65+I65</f>
         <v>13340</v>
       </c>
-      <c r="Z65" s="192">
-        <f t="shared" ref="Z65:Z68" si="22">Y65/(V65/1000)</f>
+      <c r="AD65" s="192">
+        <f>AC65/(Z65/1000)</f>
         <v>7.8751824899390703</v>
       </c>
-      <c r="AA65" s="180">
-        <f t="shared" ref="AA65:AA68" si="23">R65+I65</f>
+      <c r="AE65" s="180">
+        <f>V65+K65</f>
         <v>1244</v>
       </c>
-      <c r="AB65" s="219">
-        <f>AA65/(W65/1000)</f>
+      <c r="AF65" s="219">
+        <f>AE65/(AA65/1000)</f>
         <v>0.72850016807037643</v>
       </c>
-      <c r="AC65" s="105">
-        <f t="shared" si="17"/>
+      <c r="AG65" s="105">
+        <f>SUM(AC65,AE65)</f>
         <v>14584</v>
       </c>
-      <c r="AD65" s="195">
-        <f t="shared" ref="AD65:AD68" si="24">AC65/(X65/1000)</f>
+      <c r="AH65" s="195">
+        <f>AG65/(AB65/1000)</f>
         <v>4.2874609699645481</v>
       </c>
-      <c r="AE65" t="s">
+      <c r="AI65" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="66" spans="1:32">
+    <row r="66" spans="1:36">
       <c r="A66" s="1" t="s">
         <v>4</v>
       </c>
@@ -9068,116 +9197,132 @@
         <f>'A&amp;TSI Pop'!L17</f>
         <v>1551221</v>
       </c>
-      <c r="E66" s="109">
+      <c r="E66" s="100">
+        <f t="shared" si="12"/>
+        <v>0.13367264054869152</v>
+      </c>
+      <c r="F66" s="109">
         <f>'A&amp;TSI Pop'!L35</f>
         <v>1592347</v>
       </c>
-      <c r="F66" s="109">
+      <c r="G66" s="100">
+        <f t="shared" si="13"/>
+        <v>0.13508299516216438</v>
+      </c>
+      <c r="H66" s="109">
         <f>'A&amp;TSI Pop'!L53</f>
         <v>3143568</v>
       </c>
-      <c r="G66" s="103">
+      <c r="I66" s="103">
         <f>'Prison Pop'!L64</f>
         <v>6245</v>
       </c>
-      <c r="H66" s="192">
-        <f t="shared" si="18"/>
+      <c r="J66" s="192">
+        <f>I66/(D66/1000)</f>
         <v>4.0258609185925156</v>
       </c>
-      <c r="I66" s="105">
+      <c r="K66" s="105">
         <f>'Prison Pop'!L81</f>
         <v>522</v>
       </c>
-      <c r="J66" s="216">
-        <f t="shared" si="19"/>
+      <c r="L66" s="216">
+        <f>K66/(F66/1000)</f>
         <v>0.32781799444467818</v>
       </c>
-      <c r="K66" s="105">
-        <f t="shared" si="14"/>
+      <c r="M66" s="105">
+        <f>SUM(I66,K66)</f>
         <v>6767</v>
       </c>
-      <c r="L66" s="187">
-        <f>K66/(F66/1000)</f>
+      <c r="N66" s="187">
+        <f>M66/(H66/1000)</f>
         <v>2.1526494734645469</v>
       </c>
-      <c r="M66" s="164">
+      <c r="O66" s="184">
         <f>'A&amp;TSI Pop'!H17</f>
         <v>42087</v>
       </c>
-      <c r="N66" s="109">
+      <c r="P66" s="100">
+        <f t="shared" si="14"/>
+        <v>0.10563661326312143</v>
+      </c>
+      <c r="Q66" s="184">
         <f>'A&amp;TSI Pop'!H35</f>
         <v>46051</v>
       </c>
-      <c r="O66" s="109">
+      <c r="R66" s="100">
+        <f t="shared" si="15"/>
+        <v>0.11514131695803496</v>
+      </c>
+      <c r="S66" s="164">
         <f>'A&amp;TSI Pop'!H53</f>
         <v>88138</v>
       </c>
-      <c r="P66" s="105">
+      <c r="T66" s="105">
         <f>'Prison Pop'!L12</f>
         <v>1867</v>
       </c>
-      <c r="Q66" s="192">
-        <f t="shared" si="20"/>
+      <c r="U66" s="192">
+        <f>T66/(O66/1000)</f>
         <v>44.360491363128752</v>
       </c>
-      <c r="R66" s="105">
+      <c r="V66" s="105">
         <f>'Prison Pop'!L29</f>
         <v>206</v>
       </c>
-      <c r="S66" s="219">
-        <f t="shared" si="21"/>
+      <c r="W66" s="219">
+        <f>V66/(Q66/1000)</f>
         <v>4.4733013398188959</v>
       </c>
-      <c r="T66" s="105">
-        <f t="shared" si="15"/>
+      <c r="X66" s="105">
+        <f>SUM(T66,V66)</f>
         <v>2073</v>
       </c>
-      <c r="U66" s="187">
-        <f>T66/(O66/1000)</f>
+      <c r="Y66" s="187">
+        <f>X66/(S66/1000)</f>
         <v>23.519934647938459</v>
       </c>
-      <c r="V66" s="109">
-        <f t="shared" ref="V66:X68" si="25">M66+D66</f>
+      <c r="Z66" s="109">
+        <f>O66+D66</f>
         <v>1593308</v>
       </c>
-      <c r="W66" s="164">
-        <f t="shared" si="25"/>
+      <c r="AA66" s="164">
+        <f>Q66+F66</f>
         <v>1638398</v>
       </c>
-      <c r="X66" s="184">
-        <f t="shared" si="25"/>
+      <c r="AB66" s="184">
+        <f>S66+H66</f>
         <v>3231706</v>
       </c>
-      <c r="Y66" s="103">
-        <f t="shared" si="13"/>
+      <c r="AC66" s="103">
+        <f>T66+I66</f>
         <v>8112</v>
       </c>
-      <c r="Z66" s="192">
-        <f t="shared" si="22"/>
+      <c r="AD66" s="192">
+        <f>AC66/(Z66/1000)</f>
         <v>5.0912943385710738</v>
       </c>
-      <c r="AA66" s="180">
-        <f t="shared" si="23"/>
+      <c r="AE66" s="180">
+        <f>V66+K66</f>
         <v>728</v>
       </c>
-      <c r="AB66" s="219">
-        <f t="shared" ref="AB66:AB68" si="26">AA66/(W66/1000)</f>
+      <c r="AF66" s="219">
+        <f>AE66/(AA66/1000)</f>
         <v>0.44433647990292957</v>
       </c>
-      <c r="AC66" s="105">
-        <f t="shared" si="17"/>
+      <c r="AG66" s="105">
+        <f>SUM(AC66,AE66)</f>
         <v>8840</v>
       </c>
-      <c r="AD66" s="195">
-        <f t="shared" si="24"/>
+      <c r="AH66" s="195">
+        <f>AG66/(AB66/1000)</f>
         <v>2.7353973412185391</v>
       </c>
-      <c r="AE66" s="20">
-        <f>SUM(O64:O68)</f>
+      <c r="AI66" s="20">
+        <f>SUM(S64:S68)</f>
         <v>442915</v>
       </c>
     </row>
-    <row r="67" spans="1:32">
+    <row r="67" spans="1:36">
       <c r="A67" s="1" t="s">
         <v>5</v>
       </c>
@@ -9193,115 +9338,131 @@
         <f>'A&amp;TSI Pop'!L19</f>
         <v>1454427</v>
       </c>
-      <c r="E67" s="109">
+      <c r="E67" s="100">
+        <f t="shared" si="12"/>
+        <v>0.12533165653076628</v>
+      </c>
+      <c r="F67" s="109">
         <f>'A&amp;TSI Pop'!L37</f>
         <v>1502388</v>
       </c>
-      <c r="F67" s="109">
+      <c r="G67" s="100">
+        <f t="shared" si="13"/>
+        <v>0.12745153596276051</v>
+      </c>
+      <c r="H67" s="109">
         <f>'A&amp;TSI Pop'!L55</f>
         <v>2956815</v>
       </c>
-      <c r="G67" s="103">
+      <c r="I67" s="103">
         <f>'Prison Pop'!L66</f>
         <v>2885</v>
       </c>
-      <c r="H67" s="192">
-        <f t="shared" si="18"/>
+      <c r="J67" s="192">
+        <f>I67/(D67/1000)</f>
         <v>1.9835990393467668</v>
       </c>
-      <c r="I67" s="105">
+      <c r="K67" s="105">
         <f>'Prison Pop'!L83</f>
         <v>233</v>
       </c>
-      <c r="J67" s="216">
-        <f t="shared" si="19"/>
+      <c r="L67" s="216">
+        <f>K67/(F67/1000)</f>
         <v>0.1550864357276549</v>
       </c>
-      <c r="K67" s="105">
-        <f t="shared" si="14"/>
+      <c r="M67" s="105">
+        <f>SUM(I67,K67)</f>
         <v>3118</v>
       </c>
-      <c r="L67" s="187">
-        <f>K67/(F67/1000)</f>
+      <c r="N67" s="187">
+        <f>M67/(H67/1000)</f>
         <v>1.0545130486689225</v>
       </c>
-      <c r="M67" s="164">
+      <c r="O67" s="184">
         <f>'A&amp;TSI Pop'!H19</f>
         <v>32099</v>
       </c>
-      <c r="N67" s="109">
+      <c r="P67" s="100">
+        <f t="shared" si="14"/>
+        <v>8.0567150168292703E-2</v>
+      </c>
+      <c r="Q67" s="184">
         <f>'A&amp;TSI Pop'!H37</f>
         <v>35477</v>
       </c>
-      <c r="O67" s="109">
+      <c r="R67" s="100">
+        <f t="shared" si="15"/>
+        <v>8.870314437732528E-2</v>
+      </c>
+      <c r="S67" s="164">
         <f>'A&amp;TSI Pop'!H55</f>
         <v>67576</v>
       </c>
-      <c r="P67" s="105">
+      <c r="T67" s="105">
         <f>'Prison Pop'!L14</f>
         <v>598</v>
       </c>
-      <c r="Q67" s="192">
-        <f t="shared" si="20"/>
+      <c r="U67" s="192">
+        <f>T67/(O67/1000)</f>
         <v>18.629863858687187</v>
       </c>
-      <c r="R67" s="105">
+      <c r="V67" s="105">
         <f>'Prison Pop'!L31</f>
         <v>44</v>
       </c>
-      <c r="S67" s="219">
-        <f t="shared" si="21"/>
+      <c r="W67" s="219">
+        <f>V67/(Q67/1000)</f>
         <v>1.240240155593765</v>
       </c>
-      <c r="T67" s="105">
-        <f t="shared" si="15"/>
+      <c r="X67" s="105">
+        <f>SUM(T67,V67)</f>
         <v>642</v>
       </c>
-      <c r="U67" s="187">
-        <f>T67/(O67/1000)</f>
+      <c r="Y67" s="187">
+        <f>X67/(S67/1000)</f>
         <v>9.5004143482893344</v>
       </c>
-      <c r="V67" s="109">
-        <f t="shared" si="25"/>
+      <c r="Z67" s="109">
+        <f>O67+D67</f>
         <v>1486526</v>
       </c>
-      <c r="W67" s="164">
-        <f t="shared" si="25"/>
+      <c r="AA67" s="164">
+        <f>Q67+F67</f>
         <v>1537865</v>
       </c>
-      <c r="X67" s="184">
-        <f t="shared" si="25"/>
+      <c r="AB67" s="184">
+        <f>S67+H67</f>
         <v>3024391</v>
       </c>
-      <c r="Y67" s="103">
-        <f t="shared" si="13"/>
+      <c r="AC67" s="103">
+        <f>T67+I67</f>
         <v>3483</v>
       </c>
-      <c r="Z67" s="192">
-        <f t="shared" si="22"/>
+      <c r="AD67" s="192">
+        <f>AC67/(Z67/1000)</f>
         <v>2.3430468084648366</v>
       </c>
-      <c r="AA67" s="180">
-        <f t="shared" si="23"/>
+      <c r="AE67" s="180">
+        <f>V67+K67</f>
         <v>277</v>
       </c>
-      <c r="AB67" s="219">
-        <f t="shared" si="26"/>
+      <c r="AF67" s="219">
+        <f>AE67/(AA67/1000)</f>
         <v>0.18011984146852941</v>
       </c>
-      <c r="AC67" s="105">
-        <f t="shared" si="17"/>
+      <c r="AG67" s="105">
+        <f>SUM(AC67,AE67)</f>
         <v>3760</v>
       </c>
-      <c r="AD67" s="195">
-        <f t="shared" si="24"/>
+      <c r="AH67" s="195">
+        <f>AG67/(AB67/1000)</f>
         <v>1.2432254956452389</v>
       </c>
-      <c r="AE67" t="s">
+      <c r="AI67" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="68" spans="1:32">
+    <row r="68" spans="1:36">
       <c r="A68" s="1" t="s">
         <v>201</v>
       </c>
@@ -9317,176 +9478,196 @@
         <f>SUM('A&amp;TSI Pop'!L21, 'A&amp;TSI Pop'!L23)</f>
         <v>2327464</v>
       </c>
-      <c r="E68" s="76">
+      <c r="E68" s="101">
+        <f t="shared" si="12"/>
+        <v>0.20056346494923663</v>
+      </c>
+      <c r="F68" s="76">
         <f>'A&amp;TSI Pop'!L39+'A&amp;TSI Pop'!L41</f>
         <v>2593242</v>
       </c>
-      <c r="F68" s="76">
+      <c r="G68" s="101">
+        <f t="shared" si="13"/>
+        <v>0.21999155745595744</v>
+      </c>
+      <c r="H68" s="76">
         <f>'A&amp;TSI Pop'!L57+'A&amp;TSI Pop'!L59</f>
         <v>4920706</v>
       </c>
-      <c r="G68" s="104">
+      <c r="I68" s="104">
         <f>'Prison Pop'!L68</f>
         <v>1863</v>
       </c>
-      <c r="H68" s="193">
-        <f t="shared" si="18"/>
+      <c r="J68" s="193">
+        <f>I68/(D68/1000)</f>
         <v>0.80044202617097404</v>
       </c>
-      <c r="I68" s="79">
+      <c r="K68" s="79">
         <f>'Prison Pop'!L85</f>
         <v>54</v>
       </c>
-      <c r="J68" s="217">
-        <f t="shared" si="19"/>
+      <c r="L68" s="217">
+        <f>K68/(F68/1000)</f>
         <v>2.0823355475501321E-2</v>
       </c>
-      <c r="K68" s="79">
-        <f t="shared" si="14"/>
+      <c r="M68" s="79">
+        <f>SUM(I68,K68)</f>
         <v>1917</v>
       </c>
-      <c r="L68" s="188">
-        <f>K68/(F68/1000)</f>
+      <c r="N68" s="188">
+        <f>M68/(H68/1000)</f>
         <v>0.38957824344718012</v>
       </c>
-      <c r="M68" s="169">
+      <c r="O68" s="185">
         <f>'A&amp;TSI Pop'!H21+'A&amp;TSI Pop'!H23</f>
         <v>25968</v>
       </c>
-      <c r="N68" s="76">
+      <c r="P68" s="101">
+        <f t="shared" si="14"/>
+        <v>6.5178596079947193E-2</v>
+      </c>
+      <c r="Q68" s="185">
         <f>'A&amp;TSI Pop'!H39+'A&amp;TSI Pop'!H41</f>
         <v>30468</v>
       </c>
-      <c r="O68" s="76">
+      <c r="R68" s="101">
+        <f t="shared" si="15"/>
+        <v>7.6179141496979644E-2</v>
+      </c>
+      <c r="S68" s="169">
         <f>'A&amp;TSI Pop'!H57+'A&amp;TSI Pop'!H59</f>
         <v>56436</v>
       </c>
-      <c r="P68" s="79">
+      <c r="T68" s="79">
         <f>'Prison Pop'!L16</f>
         <v>120</v>
       </c>
-      <c r="Q68" s="193">
-        <f t="shared" si="20"/>
+      <c r="U68" s="193">
+        <f>T68/(O68/1000)</f>
         <v>4.621072088724584</v>
       </c>
-      <c r="R68" s="79">
+      <c r="V68" s="79">
         <f>'Prison Pop'!L33</f>
         <v>3</v>
       </c>
-      <c r="S68" s="220">
-        <f t="shared" si="21"/>
+      <c r="W68" s="220">
+        <f>V68/(Q68/1000)</f>
         <v>9.8463962189838522E-2</v>
       </c>
-      <c r="T68" s="79">
-        <f t="shared" si="15"/>
+      <c r="X68" s="79">
+        <f>SUM(T68,V68)</f>
         <v>123</v>
       </c>
-      <c r="U68" s="188">
-        <f>T68/(O68/1000)</f>
+      <c r="Y68" s="188">
+        <f>X68/(S68/1000)</f>
         <v>2.1794599192005104</v>
       </c>
-      <c r="V68" s="76">
-        <f t="shared" si="25"/>
+      <c r="Z68" s="76">
+        <f>O68+D68</f>
         <v>2353432</v>
       </c>
-      <c r="W68" s="169">
-        <f t="shared" si="25"/>
+      <c r="AA68" s="169">
+        <f>Q68+F68</f>
         <v>2623710</v>
       </c>
-      <c r="X68" s="185">
-        <f t="shared" si="25"/>
+      <c r="AB68" s="185">
+        <f>S68+H68</f>
         <v>4977142</v>
       </c>
-      <c r="Y68" s="104">
-        <f t="shared" si="13"/>
+      <c r="AC68" s="104">
+        <f>T68+I68</f>
         <v>1983</v>
       </c>
-      <c r="Z68" s="193">
-        <f t="shared" si="22"/>
+      <c r="AD68" s="193">
+        <f>AC68/(Z68/1000)</f>
         <v>0.84259923379982948</v>
       </c>
-      <c r="AA68" s="181">
-        <f t="shared" si="23"/>
+      <c r="AE68" s="181">
+        <f>V68+K68</f>
         <v>57</v>
       </c>
-      <c r="AB68" s="220">
-        <f t="shared" si="26"/>
+      <c r="AF68" s="220">
+        <f>AE68/(AA68/1000)</f>
         <v>2.1724961981316532E-2</v>
       </c>
-      <c r="AC68" s="79">
-        <f t="shared" si="17"/>
+      <c r="AG68" s="79">
+        <f>SUM(AC68,AE68)</f>
         <v>2040</v>
       </c>
-      <c r="AD68" s="196">
-        <f t="shared" si="24"/>
+      <c r="AH68" s="196">
+        <f>AG68/(AB68/1000)</f>
         <v>0.40987377896792981</v>
       </c>
-      <c r="AE68" s="26">
-        <f>SUM(P64:P68,R64:R68,T64:T68)</f>
+      <c r="AI68" s="26">
+        <f>SUM(T64:T68,V64:V68,X64:X68)</f>
         <v>22994</v>
       </c>
-      <c r="AF68" t="s">
+      <c r="AJ68" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="69" spans="1:32">
-      <c r="AE69" t="s">
+    <row r="69" spans="1:36">
+      <c r="AI69" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="70" spans="1:32">
+    <row r="70" spans="1:36">
       <c r="A70" s="295" t="s">
         <v>530</v>
       </c>
-      <c r="B70" s="360">
+      <c r="B70" s="367">
         <v>2019</v>
       </c>
-      <c r="C70" s="360"/>
-      <c r="D70" s="360">
+      <c r="C70" s="367"/>
+      <c r="D70" s="364">
         <v>2018</v>
       </c>
-      <c r="E70" s="360"/>
-      <c r="F70" s="360"/>
-      <c r="G70" s="364">
+      <c r="E70" s="365"/>
+      <c r="F70" s="365"/>
+      <c r="G70" s="365"/>
+      <c r="H70" s="366"/>
+      <c r="I70" s="364">
         <v>2019</v>
       </c>
-      <c r="H70" s="365"/>
-      <c r="I70" s="365"/>
       <c r="J70" s="365"/>
       <c r="K70" s="365"/>
-      <c r="L70" s="366"/>
-      <c r="M70" s="360">
+      <c r="L70" s="365"/>
+      <c r="M70" s="365"/>
+      <c r="N70" s="366"/>
+      <c r="O70" s="364">
         <v>2018</v>
       </c>
-      <c r="N70" s="360"/>
-      <c r="O70" s="360"/>
-      <c r="P70" s="364">
-        <v>2019</v>
-      </c>
+      <c r="P70" s="365"/>
       <c r="Q70" s="365"/>
       <c r="R70" s="365"/>
-      <c r="S70" s="365"/>
-      <c r="T70" s="365"/>
-      <c r="U70" s="366"/>
-      <c r="V70" s="360">
+      <c r="S70" s="366"/>
+      <c r="T70" s="364">
+        <v>2019</v>
+      </c>
+      <c r="U70" s="365"/>
+      <c r="V70" s="365"/>
+      <c r="W70" s="365"/>
+      <c r="X70" s="365"/>
+      <c r="Y70" s="366"/>
+      <c r="Z70" s="367">
         <v>2018</v>
       </c>
-      <c r="W70" s="360"/>
-      <c r="X70" s="360"/>
-      <c r="Y70" s="364">
+      <c r="AA70" s="367"/>
+      <c r="AB70" s="367"/>
+      <c r="AC70" s="364">
         <v>2019</v>
       </c>
-      <c r="Z70" s="365"/>
-      <c r="AA70" s="365"/>
-      <c r="AB70" s="365"/>
-      <c r="AC70" s="365"/>
-      <c r="AD70" s="366"/>
-      <c r="AE70" s="214">
-        <f>AE68/(AE66/1000)</f>
+      <c r="AD70" s="365"/>
+      <c r="AE70" s="365"/>
+      <c r="AF70" s="365"/>
+      <c r="AG70" s="365"/>
+      <c r="AH70" s="366"/>
+      <c r="AI70" s="214">
+        <f>AI68/(AI66/1000)</f>
         <v>51.915153020331211</v>
       </c>
     </row>
-    <row r="71" spans="1:32">
+    <row r="71" spans="1:36">
       <c r="B71" s="59" t="s">
         <v>19</v>
       </c>
@@ -9497,128 +9678,144 @@
         <v>251</v>
       </c>
       <c r="E71" s="365"/>
-      <c r="F71" s="366"/>
-      <c r="G71" s="364" t="s">
+      <c r="F71" s="365"/>
+      <c r="G71" s="365"/>
+      <c r="H71" s="366"/>
+      <c r="I71" s="364" t="s">
         <v>165</v>
       </c>
-      <c r="H71" s="365"/>
-      <c r="I71" s="365"/>
       <c r="J71" s="365"/>
       <c r="K71" s="365"/>
-      <c r="L71" s="366"/>
-      <c r="M71" s="364" t="s">
+      <c r="L71" s="365"/>
+      <c r="M71" s="365"/>
+      <c r="N71" s="366"/>
+      <c r="O71" s="364" t="s">
         <v>239</v>
       </c>
-      <c r="N71" s="365"/>
-      <c r="O71" s="366"/>
-      <c r="P71" s="364" t="s">
-        <v>164</v>
-      </c>
+      <c r="P71" s="365"/>
       <c r="Q71" s="365"/>
       <c r="R71" s="365"/>
-      <c r="S71" s="365"/>
-      <c r="T71" s="365"/>
-      <c r="U71" s="366"/>
-      <c r="V71" s="364" t="s">
-        <v>239</v>
-      </c>
+      <c r="S71" s="366"/>
+      <c r="T71" s="364" t="s">
+        <v>164</v>
+      </c>
+      <c r="U71" s="365"/>
+      <c r="V71" s="365"/>
       <c r="W71" s="365"/>
-      <c r="X71" s="366"/>
-      <c r="Y71" s="364" t="s">
+      <c r="X71" s="365"/>
+      <c r="Y71" s="366"/>
+      <c r="Z71" s="364" t="s">
+        <v>612</v>
+      </c>
+      <c r="AA71" s="365"/>
+      <c r="AB71" s="366"/>
+      <c r="AC71" s="364" t="s">
         <v>260</v>
       </c>
-      <c r="Z71" s="365"/>
-      <c r="AA71" s="365"/>
-      <c r="AB71" s="365"/>
-      <c r="AC71" s="365"/>
-      <c r="AD71" s="366"/>
-    </row>
-    <row r="72" spans="1:32">
+      <c r="AD71" s="365"/>
+      <c r="AE71" s="365"/>
+      <c r="AF71" s="365"/>
+      <c r="AG71" s="365"/>
+      <c r="AH71" s="366"/>
+    </row>
+    <row r="72" spans="1:36">
       <c r="B72" s="3"/>
       <c r="C72" s="74"/>
       <c r="D72" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="E72" s="77" t="s">
+      <c r="E72" s="59" t="s">
+        <v>300</v>
+      </c>
+      <c r="F72" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="F72" s="165" t="s">
+      <c r="G72" s="422" t="s">
+        <v>300</v>
+      </c>
+      <c r="H72" s="172" t="s">
         <v>11</v>
       </c>
-      <c r="G72" s="112" t="s">
+      <c r="I72" s="112" t="s">
         <v>9</v>
-      </c>
-      <c r="H72" s="182" t="s">
-        <v>252</v>
-      </c>
-      <c r="I72" s="112" t="s">
-        <v>10</v>
       </c>
       <c r="J72" s="182" t="s">
         <v>252</v>
       </c>
-      <c r="K72" s="182" t="s">
-        <v>11</v>
+      <c r="K72" s="112" t="s">
+        <v>10</v>
       </c>
       <c r="L72" s="182" t="s">
         <v>252</v>
       </c>
-      <c r="M72" s="59" t="s">
+      <c r="M72" s="182" t="s">
+        <v>11</v>
+      </c>
+      <c r="N72" s="182" t="s">
+        <v>252</v>
+      </c>
+      <c r="O72" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="N72" s="59" t="s">
+      <c r="P72" s="172" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q72" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="O72" s="59" t="s">
+      <c r="R72" s="172" t="s">
+        <v>300</v>
+      </c>
+      <c r="S72" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="P72" s="77" t="s">
+      <c r="T72" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="Q72" s="182" t="s">
+      <c r="U72" s="182" t="s">
         <v>252</v>
       </c>
-      <c r="R72" s="77" t="s">
+      <c r="V72" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="S72" s="182" t="s">
+      <c r="W72" s="182" t="s">
         <v>252</v>
       </c>
-      <c r="T72" s="172" t="s">
+      <c r="X72" s="172" t="s">
         <v>11</v>
       </c>
-      <c r="U72" s="172" t="s">
+      <c r="Y72" s="172" t="s">
         <v>252</v>
       </c>
-      <c r="V72" s="59" t="s">
+      <c r="Z72" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="W72" s="59" t="s">
+      <c r="AA72" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="X72" s="59" t="s">
+      <c r="AB72" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="Y72" s="77" t="s">
+      <c r="AC72" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="Z72" s="182" t="s">
+      <c r="AD72" s="182" t="s">
         <v>252</v>
       </c>
-      <c r="AA72" s="77" t="s">
+      <c r="AE72" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="AB72" s="182" t="s">
+      <c r="AF72" s="182" t="s">
         <v>252</v>
       </c>
-      <c r="AC72" s="172" t="s">
+      <c r="AG72" s="172" t="s">
         <v>11</v>
       </c>
-      <c r="AD72" s="172" t="s">
+      <c r="AH72" s="172" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="73" spans="1:32">
+    <row r="73" spans="1:36">
       <c r="A73" s="72" t="s">
         <v>202</v>
       </c>
@@ -9634,48 +9831,64 @@
         <f>'A&amp;TSI Pop'!M11</f>
         <v>2921254</v>
       </c>
-      <c r="E73" s="161">
+      <c r="E73" s="423">
+        <f>D73/SUM($D$73:$D$78)</f>
+        <v>0.25173185245263396</v>
+      </c>
+      <c r="F73" s="161">
         <f>'A&amp;TSI Pop'!M29</f>
         <v>2771047</v>
       </c>
-      <c r="F73" s="161">
+      <c r="G73" s="423">
+        <f>F73/SUM($F$73:$F$78)</f>
+        <v>0.23507522449260751</v>
+      </c>
+      <c r="H73" s="161">
         <f>'A&amp;TSI Pop'!M47</f>
         <v>5692301</v>
       </c>
-      <c r="M73" s="171">
+      <c r="O73" s="171">
         <f>'A&amp;TSI Pop'!J11</f>
         <v>181881</v>
       </c>
-      <c r="N73" s="171">
+      <c r="P73" s="423">
+        <f>O73/SUM($O$73:$O$78)</f>
+        <v>0.4565137181768667</v>
+      </c>
+      <c r="Q73" s="171">
         <f>'A&amp;TSI Pop'!J29</f>
         <v>173569</v>
       </c>
-      <c r="O73" s="177">
+      <c r="R73" s="412">
+        <f>Q73/SUM($Q$73:$Q$78)</f>
+        <v>0.43397457694923391</v>
+      </c>
+      <c r="S73" s="177">
         <f>'A&amp;TSI Pop'!J47</f>
         <v>355450</v>
       </c>
-      <c r="P73" s="158"/>
-      <c r="R73" s="159"/>
-      <c r="T73" s="159"/>
-      <c r="U73" s="160"/>
-      <c r="V73" s="168">
-        <f t="shared" ref="V73:X75" si="27">M73+D73</f>
+      <c r="T73" s="158"/>
+      <c r="V73" s="159"/>
+      <c r="X73" s="159"/>
+      <c r="Y73" s="160"/>
+      <c r="Z73" s="168">
+        <f>O73+D73</f>
         <v>3103135</v>
       </c>
-      <c r="W73" s="168">
-        <f t="shared" si="27"/>
+      <c r="AA73" s="168">
+        <f>Q73+F73</f>
         <v>2944616</v>
       </c>
-      <c r="X73" s="163">
-        <f t="shared" si="27"/>
+      <c r="AB73" s="163">
+        <f>S73+H73</f>
         <v>6047751</v>
       </c>
-      <c r="Y73" s="158"/>
-      <c r="AA73" s="159"/>
-      <c r="AC73" s="159"/>
-      <c r="AD73" s="160"/>
-    </row>
-    <row r="74" spans="1:32">
+      <c r="AC73" s="158"/>
+      <c r="AE73" s="159"/>
+      <c r="AG73" s="159"/>
+      <c r="AH73" s="160"/>
+    </row>
+    <row r="74" spans="1:36">
       <c r="A74" s="1" t="s">
         <v>203</v>
       </c>
@@ -9691,112 +9904,128 @@
         <f>'A&amp;TSI Pop'!M12</f>
         <v>826809</v>
       </c>
-      <c r="E74" s="108">
+      <c r="E74" s="424">
+        <f>D74/SUM($D$73:$D$78)</f>
+        <v>7.1248224630418938E-2</v>
+      </c>
+      <c r="F74" s="108">
         <f>'A&amp;TSI Pop'!M30</f>
         <v>793203</v>
       </c>
-      <c r="F74" s="108">
+      <c r="G74" s="424">
+        <f>F74/SUM($F$73:$F$78)</f>
+        <v>6.7289502232625337E-2</v>
+      </c>
+      <c r="H74" s="108">
         <f>'A&amp;TSI Pop'!M48</f>
         <v>1620012</v>
       </c>
-      <c r="G74" s="170">
+      <c r="I74" s="170">
         <f>'Prison Pop'!M59</f>
         <v>3234</v>
       </c>
-      <c r="H74" s="174">
-        <f>G74/(D74/1000)</f>
+      <c r="J74" s="174">
+        <f>I74/(D74/1000)</f>
         <v>3.9114233154210951</v>
       </c>
-      <c r="I74" s="108">
+      <c r="K74" s="108">
         <f>'Prison Pop'!M76</f>
         <v>323</v>
       </c>
-      <c r="J74" s="174">
-        <f>I74/(E74/1000)</f>
-        <v>0.40720975588846742</v>
-      </c>
-      <c r="K74" s="108">
-        <f>SUM(G74:I74)</f>
-        <v>3560.911423315421</v>
-      </c>
       <c r="L74" s="174">
         <f>K74/(F74/1000)</f>
+        <v>0.40720975588846742</v>
+      </c>
+      <c r="M74" s="108">
+        <f>SUM(I74:K74)</f>
+        <v>3560.911423315421</v>
+      </c>
+      <c r="N74" s="174">
+        <f>M74/(H74/1000)</f>
         <v>2.1980771891291058</v>
       </c>
-      <c r="M74" s="109">
+      <c r="O74" s="109">
         <f>'A&amp;TSI Pop'!J12</f>
         <v>38165</v>
       </c>
-      <c r="N74" s="109">
+      <c r="P74" s="424">
+        <f>O74/SUM($O$73:$O$78)</f>
+        <v>9.5792556969777592E-2</v>
+      </c>
+      <c r="Q74" s="107">
         <f>'A&amp;TSI Pop'!J30</f>
         <v>35897</v>
       </c>
-      <c r="O74" s="109">
+      <c r="R74" s="424">
+        <f t="shared" ref="R74:R78" si="16">Q74/SUM($Q$73:$Q$78)</f>
+        <v>8.9753270392447099E-2</v>
+      </c>
+      <c r="S74" s="164">
         <f>'A&amp;TSI Pop'!J48</f>
         <v>74062</v>
       </c>
-      <c r="P74" s="109">
+      <c r="T74" s="109">
         <f>'Prison Pop'!M7</f>
         <v>2257</v>
       </c>
-      <c r="Q74" s="174">
-        <f>P74/(M74/1000)</f>
+      <c r="U74" s="174">
+        <f>T74/(O74/1000)</f>
         <v>59.137953622428931</v>
       </c>
-      <c r="R74" s="109">
+      <c r="V74" s="109">
         <f>'Prison Pop'!M24</f>
         <v>228</v>
       </c>
-      <c r="S74" s="174">
-        <f>R74/(N74/1000)</f>
+      <c r="W74" s="174">
+        <f>V74/(Q74/1000)</f>
         <v>6.3515056968548906</v>
       </c>
-      <c r="T74" s="109">
-        <f>SUM(P74:R74)</f>
+      <c r="X74" s="109">
+        <f>SUM(T74:V74)</f>
         <v>2544.137953622429</v>
       </c>
-      <c r="U74" s="175">
-        <f>T74/(O74/1000)</f>
+      <c r="Y74" s="175">
+        <f>X74/(S74/1000)</f>
         <v>34.351461662153724</v>
       </c>
-      <c r="V74" s="108">
-        <f t="shared" si="27"/>
+      <c r="Z74" s="108">
+        <f>O74+D74</f>
         <v>864974</v>
       </c>
-      <c r="W74" s="170">
-        <f t="shared" si="27"/>
+      <c r="AA74" s="170">
+        <f>Q74+F74</f>
         <v>829100</v>
       </c>
-      <c r="X74" s="183">
-        <f t="shared" si="27"/>
+      <c r="AB74" s="183">
+        <f>S74+H74</f>
         <v>1694074</v>
       </c>
-      <c r="Y74" s="103">
-        <f>P74+G74</f>
+      <c r="AC74" s="103">
+        <f>T74+I74</f>
         <v>5491</v>
       </c>
-      <c r="Z74" s="174">
-        <f>Y74/(V74/1000)</f>
+      <c r="AD74" s="174">
+        <f>AC74/(Z74/1000)</f>
         <v>6.348167690589543</v>
       </c>
-      <c r="AA74" s="180">
-        <f>R74+I74</f>
+      <c r="AE74" s="180">
+        <f>V74+K74</f>
         <v>551</v>
       </c>
-      <c r="AB74" s="174">
-        <f>AA74/(W74/1000)</f>
+      <c r="AF74" s="174">
+        <f>AE74/(AA74/1000)</f>
         <v>0.66457604631528167</v>
       </c>
-      <c r="AC74" s="180">
-        <f>SUM(Y74:AA74)</f>
+      <c r="AG74" s="180">
+        <f>SUM(AC74:AE74)</f>
         <v>6048.3481676905894</v>
       </c>
-      <c r="AD74" s="174">
-        <f>AC74/(X74/1000)</f>
+      <c r="AH74" s="174">
+        <f>AG74/(AB74/1000)</f>
         <v>3.5702975003987953</v>
       </c>
     </row>
-    <row r="75" spans="1:32">
+    <row r="75" spans="1:36">
       <c r="A75" s="1" t="s">
         <v>204</v>
       </c>
@@ -9812,112 +10041,128 @@
         <f>'A&amp;TSI Pop'!M14</f>
         <v>1742567</v>
       </c>
-      <c r="E75" s="109">
+      <c r="E75" s="425">
+        <f>D75/SUM($D$73:$D$78)</f>
+        <v>0.15016140976882839</v>
+      </c>
+      <c r="F75" s="109">
         <f>'A&amp;TSI Pop'!M32</f>
         <v>1752002</v>
       </c>
-      <c r="F75" s="109">
+      <c r="G75" s="425">
+        <f>F75/SUM($F$73:$F$78)</f>
+        <v>0.14862694983574704</v>
+      </c>
+      <c r="H75" s="109">
         <f>'A&amp;TSI Pop'!M50</f>
         <v>3494569</v>
       </c>
-      <c r="G75" s="164">
+      <c r="I75" s="164">
         <f>'Prison Pop'!M61</f>
         <v>9950</v>
       </c>
-      <c r="H75" s="175">
-        <f t="shared" ref="H75:H78" si="28">G75/(D75/1000)</f>
+      <c r="J75" s="175">
+        <f>I75/(D75/1000)</f>
         <v>5.7099669625328611</v>
       </c>
-      <c r="I75" s="109">
+      <c r="K75" s="109">
         <f>'Prison Pop'!M78</f>
         <v>831</v>
       </c>
-      <c r="J75" s="175">
-        <f t="shared" ref="J75:J78" si="29">I75/(E75/1000)</f>
-        <v>0.47431452703821114</v>
-      </c>
-      <c r="K75" s="109">
-        <f>SUM(G75:I75)</f>
-        <v>10786.709966962533</v>
-      </c>
       <c r="L75" s="175">
         <f>K75/(F75/1000)</f>
+        <v>0.47431452703821114</v>
+      </c>
+      <c r="M75" s="109">
+        <f>SUM(I75:K75)</f>
+        <v>10786.709966962533</v>
+      </c>
+      <c r="N75" s="175">
+        <f>M75/(H75/1000)</f>
         <v>3.086706820487028</v>
       </c>
-      <c r="M75" s="109">
+      <c r="O75" s="109">
         <f>'A&amp;TSI Pop'!J14</f>
         <v>57229</v>
       </c>
-      <c r="N75" s="109">
+      <c r="P75" s="425">
+        <f>O75/SUM($O$73:$O$78)</f>
+        <v>0.14364240122686761</v>
+      </c>
+      <c r="Q75" s="107">
         <f>'A&amp;TSI Pop'!J32</f>
         <v>56583</v>
       </c>
-      <c r="O75" s="109">
+      <c r="R75" s="425">
+        <f t="shared" si="16"/>
+        <v>0.14147447693723247</v>
+      </c>
+      <c r="S75" s="164">
         <f>'A&amp;TSI Pop'!J50</f>
         <v>113812</v>
       </c>
-      <c r="P75" s="109">
+      <c r="T75" s="109">
         <f>'Prison Pop'!M9</f>
         <v>4271</v>
       </c>
-      <c r="Q75" s="175">
-        <f t="shared" ref="Q75:Q78" si="30">P75/(M75/1000)</f>
+      <c r="U75" s="175">
+        <f>T75/(O75/1000)</f>
         <v>74.629995282112219</v>
       </c>
-      <c r="R75" s="109">
+      <c r="V75" s="109">
         <f>'Prison Pop'!M26</f>
         <v>462</v>
       </c>
-      <c r="S75" s="175">
-        <f t="shared" ref="S75:S78" si="31">R75/(N75/1000)</f>
+      <c r="W75" s="175">
+        <f>V75/(Q75/1000)</f>
         <v>8.1649965537352216</v>
       </c>
-      <c r="T75" s="109">
-        <f>SUM(P75:R75)</f>
+      <c r="X75" s="109">
+        <f>SUM(T75:V75)</f>
         <v>4807.6299952821118</v>
       </c>
-      <c r="U75" s="175">
-        <f>T75/(O75/1000)</f>
+      <c r="Y75" s="175">
+        <f>X75/(S75/1000)</f>
         <v>42.241854947475765</v>
       </c>
-      <c r="V75" s="109">
-        <f t="shared" si="27"/>
+      <c r="Z75" s="109">
+        <f>O75+D75</f>
         <v>1799796</v>
       </c>
-      <c r="W75" s="164">
-        <f t="shared" si="27"/>
+      <c r="AA75" s="164">
+        <f>Q75+F75</f>
         <v>1808585</v>
       </c>
-      <c r="X75" s="184">
-        <f t="shared" si="27"/>
+      <c r="AB75" s="184">
+        <f>S75+H75</f>
         <v>3608381</v>
       </c>
-      <c r="Y75" s="103">
-        <f>P75+G75</f>
+      <c r="AC75" s="103">
+        <f>T75+I75</f>
         <v>14221</v>
       </c>
-      <c r="Z75" s="175">
-        <f t="shared" ref="Z75:Z78" si="32">Y75/(V75/1000)</f>
+      <c r="AD75" s="175">
+        <f t="shared" ref="AD75:AD78" si="17">AC75/(Z75/1000)</f>
         <v>7.9014510533416011</v>
       </c>
-      <c r="AA75" s="180">
-        <f t="shared" ref="AA75:AA78" si="33">R75+I75</f>
+      <c r="AE75" s="180">
+        <f>V75+K75</f>
         <v>1293</v>
       </c>
-      <c r="AB75" s="175">
-        <f t="shared" ref="AB75:AB78" si="34">AA75/(W75/1000)</f>
+      <c r="AF75" s="175">
+        <f t="shared" ref="AF75:AF78" si="18">AE75/(AA75/1000)</f>
         <v>0.71492354520246493</v>
       </c>
-      <c r="AC75" s="180">
-        <f>SUM(Y75:AA75)</f>
+      <c r="AG75" s="180">
+        <f>SUM(AC75:AE75)</f>
         <v>15521.901451053342</v>
       </c>
-      <c r="AD75" s="175">
-        <f t="shared" ref="AD75:AD78" si="35">AC75/(X75/1000)</f>
+      <c r="AH75" s="175">
+        <f t="shared" ref="AH75:AH78" si="19">AG75/(AB75/1000)</f>
         <v>4.3016248702820858</v>
       </c>
     </row>
-    <row r="76" spans="1:32">
+    <row r="76" spans="1:36">
       <c r="A76" s="1" t="s">
         <v>205</v>
       </c>
@@ -9933,112 +10178,128 @@
         <f>'A&amp;TSI Pop'!M16</f>
         <v>1566762</v>
       </c>
-      <c r="E76" s="109">
+      <c r="E76" s="425">
+        <f>D76/SUM($D$73:$D$78)</f>
+        <v>0.1350118478613615</v>
+      </c>
+      <c r="F76" s="109">
         <f>'A&amp;TSI Pop'!M34</f>
         <v>1579694</v>
       </c>
-      <c r="F76" s="109">
+      <c r="G76" s="425">
+        <f>F76/SUM($F$73:$F$78)</f>
+        <v>0.13400960780514554</v>
+      </c>
+      <c r="H76" s="109">
         <f>'A&amp;TSI Pop'!M52</f>
         <v>3146456</v>
       </c>
-      <c r="G76" s="164">
+      <c r="I76" s="164">
         <f>'Prison Pop'!M63</f>
         <v>8145</v>
       </c>
-      <c r="H76" s="175">
-        <f t="shared" si="28"/>
+      <c r="J76" s="175">
+        <f>I76/(D76/1000)</f>
         <v>5.1986198286657448</v>
       </c>
-      <c r="I76" s="109">
+      <c r="K76" s="109">
         <f>'Prison Pop'!M80</f>
         <v>675</v>
       </c>
-      <c r="J76" s="175">
-        <f t="shared" si="29"/>
-        <v>0.42729794504505303</v>
-      </c>
-      <c r="K76" s="109">
-        <f>SUM(G76:I76)</f>
-        <v>8825.198619828665</v>
-      </c>
       <c r="L76" s="175">
         <f>K76/(F76/1000)</f>
+        <v>0.42729794504505303</v>
+      </c>
+      <c r="M76" s="109">
+        <f>SUM(I76:K76)</f>
+        <v>8825.198619828665</v>
+      </c>
+      <c r="N76" s="175">
+        <f>M76/(H76/1000)</f>
         <v>2.8048059848377553</v>
       </c>
-      <c r="M76" s="109">
+      <c r="O76" s="109">
         <f>'A&amp;TSI Pop'!J16</f>
         <v>42746</v>
       </c>
-      <c r="N76" s="109">
+      <c r="P76" s="425">
+        <f t="shared" ref="P76:P78" si="20">O76/SUM($O$73:$O$78)</f>
+        <v>0.10729067575606217</v>
+      </c>
+      <c r="Q76" s="107">
         <f>'A&amp;TSI Pop'!J34</f>
         <v>45036</v>
       </c>
-      <c r="O76" s="109">
+      <c r="R76" s="425">
+        <f t="shared" si="16"/>
+        <v>0.11260351242149058</v>
+      </c>
+      <c r="S76" s="164">
         <f>'A&amp;TSI Pop'!J52</f>
         <v>87782</v>
       </c>
-      <c r="P76" s="109">
+      <c r="T76" s="109">
         <f>'Prison Pop'!M11</f>
         <v>2723</v>
       </c>
-      <c r="Q76" s="175">
-        <f t="shared" si="30"/>
+      <c r="U76" s="175">
+        <f>T76/(O76/1000)</f>
         <v>63.701866841341875</v>
       </c>
-      <c r="R76" s="109">
+      <c r="V76" s="109">
         <f>'Prison Pop'!M28</f>
         <v>336</v>
       </c>
-      <c r="S76" s="175">
-        <f t="shared" si="31"/>
+      <c r="W76" s="175">
+        <f>V76/(Q76/1000)</f>
         <v>7.4606981081801225</v>
       </c>
-      <c r="T76" s="109">
-        <f>SUM(P76:R76)</f>
+      <c r="X76" s="109">
+        <f>SUM(T76:V76)</f>
         <v>3122.7018668413421</v>
       </c>
-      <c r="U76" s="175">
-        <f>T76/(O76/1000)</f>
+      <c r="Y76" s="175">
+        <f>X76/(S76/1000)</f>
         <v>35.573373434660205</v>
       </c>
-      <c r="V76" s="109">
-        <f t="shared" ref="V76:V78" si="36">M76+D76</f>
+      <c r="Z76" s="109">
+        <f>O76+D76</f>
         <v>1609508</v>
       </c>
-      <c r="W76" s="164">
-        <f t="shared" ref="W76:W78" si="37">N76+E76</f>
+      <c r="AA76" s="164">
+        <f>Q76+F76</f>
         <v>1624730</v>
       </c>
-      <c r="X76" s="184">
-        <f t="shared" ref="X76:X78" si="38">O76+F76</f>
+      <c r="AB76" s="184">
+        <f>S76+H76</f>
         <v>3234238</v>
       </c>
-      <c r="Y76" s="103">
-        <f>P76+G76</f>
+      <c r="AC76" s="103">
+        <f>T76+I76</f>
         <v>10868</v>
       </c>
-      <c r="Z76" s="175">
-        <f t="shared" si="32"/>
+      <c r="AD76" s="175">
+        <f t="shared" si="17"/>
         <v>6.7523740174015909</v>
       </c>
-      <c r="AA76" s="180">
-        <f t="shared" si="33"/>
+      <c r="AE76" s="180">
+        <f>V76+K76</f>
         <v>1011</v>
       </c>
-      <c r="AB76" s="175">
-        <f t="shared" si="34"/>
+      <c r="AF76" s="175">
+        <f t="shared" si="18"/>
         <v>0.62225723658700216</v>
       </c>
-      <c r="AC76" s="180">
-        <f>SUM(Y76:AA76)</f>
+      <c r="AG76" s="180">
+        <f>SUM(AC76:AE76)</f>
         <v>11885.752374017402</v>
       </c>
-      <c r="AD76" s="175">
-        <f t="shared" si="35"/>
+      <c r="AH76" s="175">
+        <f t="shared" si="19"/>
         <v>3.674977652855913</v>
       </c>
     </row>
-    <row r="77" spans="1:32">
+    <row r="77" spans="1:36">
       <c r="A77" s="1" t="s">
         <v>206</v>
       </c>
@@ -10054,112 +10315,128 @@
         <f>'A&amp;TSI Pop'!M18</f>
         <v>1510465</v>
       </c>
-      <c r="E77" s="109">
+      <c r="E77" s="425">
+        <f>D77/SUM($D$73:$D$78)</f>
+        <v>0.1301605928532294</v>
+      </c>
+      <c r="F77" s="109">
         <f>'A&amp;TSI Pop'!M36</f>
         <v>1562479</v>
       </c>
-      <c r="F77" s="109">
+      <c r="G77" s="425">
+        <f>F77/SUM($F$73:$F$78)</f>
+        <v>0.13254921395775132</v>
+      </c>
+      <c r="H77" s="109">
         <f>'A&amp;TSI Pop'!M54</f>
         <v>3072944</v>
       </c>
-      <c r="G77" s="164">
+      <c r="I77" s="164">
         <f>'Prison Pop'!M65</f>
         <v>4486</v>
       </c>
-      <c r="H77" s="175">
-        <f t="shared" si="28"/>
+      <c r="J77" s="175">
+        <f>I77/(D77/1000)</f>
         <v>2.9699463410274323</v>
       </c>
-      <c r="I77" s="109">
+      <c r="K77" s="109">
         <f>'Prison Pop'!M82</f>
         <v>363</v>
       </c>
-      <c r="J77" s="175">
-        <f t="shared" si="29"/>
-        <v>0.23232312242276534</v>
-      </c>
-      <c r="K77" s="109">
-        <f>SUM(G77:I77)</f>
-        <v>4851.969946341027</v>
-      </c>
       <c r="L77" s="175">
         <f>K77/(F77/1000)</f>
+        <v>0.23232312242276534</v>
+      </c>
+      <c r="M77" s="109">
+        <f>SUM(I77:K77)</f>
+        <v>4851.969946341027</v>
+      </c>
+      <c r="N77" s="175">
+        <f>M77/(H77/1000)</f>
         <v>1.5789321075623335</v>
       </c>
-      <c r="M77" s="109">
+      <c r="O77" s="109">
         <f>'A&amp;TSI Pop'!J18</f>
         <v>37991</v>
       </c>
-      <c r="N77" s="109">
+      <c r="P77" s="425">
+        <f t="shared" si="20"/>
+        <v>9.5355824232643008E-2</v>
+      </c>
+      <c r="Q77" s="107">
         <f>'A&amp;TSI Pop'!J36</f>
         <v>42471</v>
       </c>
-      <c r="O77" s="109">
+      <c r="R77" s="425">
+        <f t="shared" si="16"/>
+        <v>0.1061902428291395</v>
+      </c>
+      <c r="S77" s="164">
         <f>'A&amp;TSI Pop'!J54</f>
         <v>80462</v>
       </c>
-      <c r="P77" s="109">
+      <c r="T77" s="109">
         <f>'Prison Pop'!M13</f>
         <v>1155</v>
       </c>
-      <c r="Q77" s="175">
-        <f t="shared" si="30"/>
+      <c r="U77" s="175">
+        <f>T77/(O77/1000)</f>
         <v>30.401937300939696</v>
       </c>
-      <c r="R77" s="109">
+      <c r="V77" s="109">
         <f>'Prison Pop'!M30</f>
         <v>115</v>
       </c>
-      <c r="S77" s="175">
-        <f t="shared" si="31"/>
+      <c r="W77" s="175">
+        <f>V77/(Q77/1000)</f>
         <v>2.7077299804572532</v>
       </c>
-      <c r="T77" s="109">
-        <f>SUM(P77:R77)</f>
+      <c r="X77" s="109">
+        <f>SUM(T77:V77)</f>
         <v>1300.4019373009396</v>
       </c>
-      <c r="U77" s="175">
-        <f>T77/(O77/1000)</f>
+      <c r="Y77" s="175">
+        <f>X77/(S77/1000)</f>
         <v>16.161690453890525</v>
       </c>
-      <c r="V77" s="109">
-        <f t="shared" si="36"/>
+      <c r="Z77" s="109">
+        <f>O77+D77</f>
         <v>1548456</v>
       </c>
-      <c r="W77" s="164">
-        <f t="shared" si="37"/>
+      <c r="AA77" s="164">
+        <f>Q77+F77</f>
         <v>1604950</v>
       </c>
-      <c r="X77" s="184">
-        <f t="shared" si="38"/>
+      <c r="AB77" s="184">
+        <f>S77+H77</f>
         <v>3153406</v>
       </c>
-      <c r="Y77" s="103">
-        <f>P77+G77</f>
+      <c r="AC77" s="103">
+        <f>T77+I77</f>
         <v>5641</v>
       </c>
-      <c r="Z77" s="175">
-        <f t="shared" si="32"/>
+      <c r="AD77" s="175">
+        <f t="shared" si="17"/>
         <v>3.6429837205577686</v>
       </c>
-      <c r="AA77" s="180">
-        <f t="shared" si="33"/>
+      <c r="AE77" s="180">
+        <f>V77+K77</f>
         <v>478</v>
       </c>
-      <c r="AB77" s="175">
-        <f t="shared" si="34"/>
+      <c r="AF77" s="175">
+        <f t="shared" si="18"/>
         <v>0.29782859279105267</v>
       </c>
-      <c r="AC77" s="180">
-        <f>SUM(Y77:AA77)</f>
+      <c r="AG77" s="180">
+        <f>SUM(AC77:AE77)</f>
         <v>6122.6429837205578</v>
       </c>
-      <c r="AD77" s="175">
-        <f t="shared" si="35"/>
+      <c r="AH77" s="175">
+        <f t="shared" si="19"/>
         <v>1.9415967952495041</v>
       </c>
     </row>
-    <row r="78" spans="1:32">
+    <row r="78" spans="1:36">
       <c r="A78" s="1" t="s">
         <v>189</v>
       </c>
@@ -10175,112 +10452,128 @@
         <f>'A&amp;TSI Pop'!M23</f>
         <v>3036769</v>
       </c>
-      <c r="E78" s="76">
+      <c r="E78" s="426">
+        <f>D78/SUM($D$73:$D$78)</f>
+        <v>0.26168607243352782</v>
+      </c>
+      <c r="F78" s="76">
         <f>'A&amp;TSI Pop'!M41</f>
         <v>3329491</v>
       </c>
-      <c r="F78" s="76">
+      <c r="G78" s="426">
+        <f>F78/SUM($F$73:$F$78)</f>
+        <v>0.28244950167612326</v>
+      </c>
+      <c r="H78" s="76">
         <f>'A&amp;TSI Pop'!M59</f>
         <v>6366260</v>
       </c>
-      <c r="G78" s="169">
+      <c r="I78" s="169">
         <f>'Prison Pop'!M68</f>
         <v>2989</v>
       </c>
-      <c r="H78" s="176">
-        <f t="shared" si="28"/>
+      <c r="J78" s="176">
+        <f>I78/(D78/1000)</f>
         <v>0.98426979464029041</v>
       </c>
-      <c r="I78" s="76">
+      <c r="K78" s="76">
         <f>'Prison Pop'!M85</f>
         <v>150</v>
       </c>
-      <c r="J78" s="176">
-        <f t="shared" si="29"/>
-        <v>4.5051931361280148E-2</v>
-      </c>
-      <c r="K78" s="76">
-        <f>SUM(G78:I78)</f>
-        <v>3139.9842697946401</v>
-      </c>
       <c r="L78" s="176">
         <f>K78/(F78/1000)</f>
+        <v>4.5051931361280148E-2</v>
+      </c>
+      <c r="M78" s="76">
+        <f>SUM(I78:K78)</f>
+        <v>3139.9842697946401</v>
+      </c>
+      <c r="N78" s="176">
+        <f>M78/(H78/1000)</f>
         <v>0.49322275084502359</v>
       </c>
-      <c r="M78" s="76">
+      <c r="O78" s="76">
         <f>'A&amp;TSI Pop'!J23</f>
         <v>40401</v>
       </c>
-      <c r="N78" s="76">
+      <c r="P78" s="426">
+        <f t="shared" si="20"/>
+        <v>0.1014048236377829</v>
+      </c>
+      <c r="Q78" s="73">
         <f>'A&amp;TSI Pop'!J41</f>
         <v>46396</v>
       </c>
-      <c r="O78" s="76">
+      <c r="R78" s="426">
+        <f t="shared" si="16"/>
+        <v>0.11600392047045645</v>
+      </c>
+      <c r="S78" s="169">
         <f>'A&amp;TSI Pop'!J59</f>
         <v>86797</v>
       </c>
-      <c r="P78" s="76">
+      <c r="T78" s="76">
         <f>'Prison Pop'!M16</f>
         <v>309</v>
       </c>
-      <c r="Q78" s="176">
-        <f t="shared" si="30"/>
+      <c r="U78" s="176">
+        <f>T78/(O78/1000)</f>
         <v>7.6483255364966212</v>
       </c>
-      <c r="R78" s="76">
+      <c r="V78" s="76">
         <f>'Prison Pop'!M33</f>
         <v>19</v>
       </c>
-      <c r="S78" s="176">
-        <f t="shared" si="31"/>
+      <c r="W78" s="176">
+        <f>V78/(Q78/1000)</f>
         <v>0.40951806190188811</v>
       </c>
-      <c r="T78" s="76">
-        <f>SUM(P78:R78)</f>
+      <c r="X78" s="76">
+        <f>SUM(T78:V78)</f>
         <v>335.6483255364966</v>
       </c>
-      <c r="U78" s="176">
-        <f>T78/(O78/1000)</f>
+      <c r="Y78" s="176">
+        <f>X78/(S78/1000)</f>
         <v>3.8670498466133232</v>
       </c>
-      <c r="V78" s="76">
-        <f t="shared" si="36"/>
+      <c r="Z78" s="76">
+        <f>O78+D78</f>
         <v>3077170</v>
       </c>
-      <c r="W78" s="169">
-        <f t="shared" si="37"/>
+      <c r="AA78" s="169">
+        <f>Q78+F78</f>
         <v>3375887</v>
       </c>
-      <c r="X78" s="185">
-        <f t="shared" si="38"/>
+      <c r="AB78" s="185">
+        <f>S78+H78</f>
         <v>6453057</v>
       </c>
-      <c r="Y78" s="104">
-        <f>P78+G78</f>
+      <c r="AC78" s="104">
+        <f>T78+I78</f>
         <v>3298</v>
       </c>
-      <c r="Z78" s="176">
-        <f t="shared" si="32"/>
+      <c r="AD78" s="176">
+        <f t="shared" si="17"/>
         <v>1.071763990939727</v>
       </c>
-      <c r="AA78" s="181">
-        <f t="shared" si="33"/>
+      <c r="AE78" s="181">
+        <f>V78+K78</f>
         <v>169</v>
       </c>
-      <c r="AB78" s="176">
-        <f t="shared" si="34"/>
+      <c r="AF78" s="176">
+        <f t="shared" si="18"/>
         <v>5.0060917323358274E-2</v>
       </c>
-      <c r="AC78" s="181">
-        <f>SUM(Y78:AA78)</f>
+      <c r="AG78" s="181">
+        <f>SUM(AC78:AE78)</f>
         <v>3468.0717639909399</v>
       </c>
-      <c r="AD78" s="176">
-        <f t="shared" si="35"/>
+      <c r="AH78" s="176">
+        <f t="shared" si="19"/>
         <v>0.53743082758930227</v>
       </c>
     </row>
-    <row r="80" spans="1:32">
+    <row r="80" spans="1:36">
       <c r="A80" s="295" t="s">
         <v>531</v>
       </c>
@@ -10288,7 +10581,7 @@
         <v>2018</v>
       </c>
       <c r="C80" s="173">
-        <f>802/SUM(N74:N78)</f>
+        <f>802/SUM(Q74:Q78)</f>
         <v>3.5426688399747331E-3</v>
       </c>
       <c r="D80" s="159" t="s">
@@ -10671,7 +10964,7 @@
         <v>9</v>
       </c>
       <c r="B96" s="167">
-        <f>SUM(Y63:Y68)</f>
+        <f>SUM(AC63:AC68)</f>
         <v>39519</v>
       </c>
       <c r="C96" s="54">
@@ -10682,28 +10975,28 @@
         <f>B96*C96</f>
         <v>678.11439466158242</v>
       </c>
-      <c r="E96" s="406">
+      <c r="E96" s="361">
         <v>0.64</v>
       </c>
       <c r="F96" s="61">
         <f>K27*E96</f>
         <v>3.5327999999999998E-2</v>
       </c>
-      <c r="G96" s="406">
+      <c r="G96" s="361">
         <v>0.62</v>
       </c>
       <c r="H96" s="61">
         <f>L27*G96</f>
         <v>8.6241999999999999E-2</v>
       </c>
-      <c r="I96" s="406">
+      <c r="I96" s="361">
         <v>0.57999999999999996</v>
       </c>
       <c r="J96" s="54">
         <f>M27*I96</f>
         <v>6.8323999999999996E-2</v>
       </c>
-      <c r="K96" s="406">
+      <c r="K96" s="361">
         <v>0.52</v>
       </c>
       <c r="L96" s="61">
@@ -10716,16 +11009,16 @@
         <v>10</v>
       </c>
       <c r="B97" s="104">
-        <f>SUM(AA63:AA68)</f>
+        <f>SUM(AE63:AE68)</f>
         <v>3502</v>
       </c>
       <c r="C97" s="47">
         <f>I27</f>
-        <v>1.3790891597177678E-2</v>
+        <v>1.4111610006414367E-2</v>
       </c>
       <c r="D97" s="190">
         <f>B97*C97</f>
-        <v>48.295702373316232</v>
+        <v>49.418858242463116</v>
       </c>
       <c r="E97" s="199">
         <v>0.36</v>
@@ -10799,18 +11092,18 @@
     <row r="101" spans="1:12">
       <c r="A101" s="1"/>
       <c r="B101" s="197"/>
-      <c r="C101" s="374" t="s">
+      <c r="C101" s="362" t="s">
         <v>11</v>
       </c>
-      <c r="D101" s="375"/>
-      <c r="E101" s="374" t="s">
+      <c r="D101" s="363"/>
+      <c r="E101" s="362" t="s">
         <v>237</v>
       </c>
-      <c r="F101" s="375"/>
-      <c r="G101" s="374" t="s">
+      <c r="F101" s="363"/>
+      <c r="G101" s="362" t="s">
         <v>146</v>
       </c>
-      <c r="H101" s="375"/>
+      <c r="H101" s="363"/>
       <c r="I101" s="197"/>
       <c r="J101" s="197"/>
     </row>
@@ -10849,7 +11142,7 @@
         <v>0</v>
       </c>
       <c r="C103" s="180">
-        <f>AC64</f>
+        <f>AG64</f>
         <v>13043</v>
       </c>
       <c r="D103" s="105">
@@ -10857,7 +11150,7 @@
         <v>0</v>
       </c>
       <c r="E103" s="180">
-        <f>K64</f>
+        <f>M64</f>
         <v>8439</v>
       </c>
       <c r="F103" s="80">
@@ -10865,7 +11158,7 @@
         <v>0</v>
       </c>
       <c r="G103" s="103">
-        <f>T64</f>
+        <f>X64</f>
         <v>4604</v>
       </c>
       <c r="H103" s="80">
@@ -10887,27 +11180,27 @@
         <v>0</v>
       </c>
       <c r="C104" s="180">
-        <f t="shared" ref="C104:C107" si="39">AC65</f>
+        <f>AG65</f>
         <v>14584</v>
       </c>
       <c r="D104" s="105">
-        <f t="shared" ref="D104:D107" si="40">C104*B104</f>
+        <f t="shared" ref="D104:D107" si="21">C104*B104</f>
         <v>0</v>
       </c>
       <c r="E104" s="180">
-        <f t="shared" ref="E104:E107" si="41">K65</f>
+        <f>M65</f>
         <v>10529</v>
       </c>
       <c r="F104" s="105">
-        <f t="shared" ref="F104:F107" si="42">E104*B104</f>
+        <f t="shared" ref="F104:F107" si="22">E104*B104</f>
         <v>0</v>
       </c>
       <c r="G104" s="103">
-        <f t="shared" ref="G104:G107" si="43">T65</f>
+        <f>X65</f>
         <v>4055</v>
       </c>
       <c r="H104" s="105">
-        <f t="shared" ref="H104:H107" si="44">G104*B104</f>
+        <f t="shared" ref="H104:H107" si="23">G104*B104</f>
         <v>0</v>
       </c>
       <c r="I104" s="197"/>
@@ -10922,27 +11215,27 @@
         <v>1.2738853503184713E-3</v>
       </c>
       <c r="C105" s="180">
-        <f t="shared" si="39"/>
+        <f>AG66</f>
         <v>8840</v>
       </c>
       <c r="D105" s="105">
-        <f t="shared" si="40"/>
+        <f t="shared" si="21"/>
         <v>11.261146496815286</v>
       </c>
       <c r="E105" s="180">
-        <f t="shared" si="41"/>
+        <f>M66</f>
         <v>6767</v>
       </c>
       <c r="F105" s="105">
-        <f t="shared" si="42"/>
+        <f t="shared" si="22"/>
         <v>8.6203821656050952</v>
       </c>
       <c r="G105" s="103">
-        <f t="shared" si="43"/>
+        <f>X66</f>
         <v>2073</v>
       </c>
       <c r="H105" s="105">
-        <f t="shared" si="44"/>
+        <f t="shared" si="23"/>
         <v>2.6407643312101912</v>
       </c>
       <c r="I105" s="197"/>
@@ -10957,27 +11250,27 @@
         <v>1.9880715705765406E-3</v>
       </c>
       <c r="C106" s="180">
-        <f t="shared" si="39"/>
+        <f>AG67</f>
         <v>3760</v>
       </c>
       <c r="D106" s="105">
-        <f t="shared" si="40"/>
+        <f t="shared" si="21"/>
         <v>7.4751491053677928</v>
       </c>
       <c r="E106" s="180">
-        <f t="shared" si="41"/>
+        <f>M67</f>
         <v>3118</v>
       </c>
       <c r="F106" s="105">
-        <f t="shared" si="42"/>
+        <f t="shared" si="22"/>
         <v>6.1988071570576535</v>
       </c>
       <c r="G106" s="103">
-        <f t="shared" si="43"/>
+        <f>X67</f>
         <v>642</v>
       </c>
       <c r="H106" s="105">
-        <f t="shared" si="44"/>
+        <f t="shared" si="23"/>
         <v>1.276341948310139</v>
       </c>
       <c r="I106" s="197"/>
@@ -10989,31 +11282,31 @@
       </c>
       <c r="B107" s="111">
         <f>SUM(F24:F26)/SUM(F10:F12)</f>
-        <v>4.8654244306418216E-2</v>
+        <v>4.917184265010352E-2</v>
       </c>
       <c r="C107" s="180">
-        <f t="shared" si="39"/>
+        <f>AG68</f>
         <v>2040</v>
       </c>
       <c r="D107" s="79">
-        <f t="shared" si="40"/>
-        <v>99.254658385093165</v>
+        <f t="shared" si="21"/>
+        <v>100.31055900621118</v>
       </c>
       <c r="E107" s="180">
-        <f t="shared" si="41"/>
+        <f>M68</f>
         <v>1917</v>
       </c>
       <c r="F107" s="79">
-        <f t="shared" si="42"/>
-        <v>93.270186335403722</v>
+        <f t="shared" si="22"/>
+        <v>94.262422360248451</v>
       </c>
       <c r="G107" s="103">
-        <f t="shared" si="43"/>
+        <f>X68</f>
         <v>123</v>
       </c>
       <c r="H107" s="79">
-        <f t="shared" si="44"/>
-        <v>5.9844720496894404</v>
+        <f t="shared" si="23"/>
+        <v>6.0481366459627326</v>
       </c>
       <c r="I107" s="197"/>
       <c r="J107" s="197"/>
@@ -11028,24 +11321,24 @@
         <v>42267</v>
       </c>
       <c r="D108" s="201">
-        <f t="shared" ref="D108:H108" si="45">SUM(D103:D107)</f>
-        <v>117.99095398727624</v>
+        <f t="shared" ref="D108:H108" si="24">SUM(D103:D107)</f>
+        <v>119.04685460839426</v>
       </c>
       <c r="E108" s="201">
         <f>SUM(E103:E107)</f>
         <v>30770</v>
       </c>
       <c r="F108" s="201">
-        <f t="shared" si="45"/>
-        <v>108.08937565806647</v>
+        <f t="shared" si="24"/>
+        <v>109.0816116829112</v>
       </c>
       <c r="G108" s="201">
         <f>SUM(G103:G107)</f>
         <v>11497</v>
       </c>
       <c r="H108" s="201">
-        <f t="shared" si="45"/>
-        <v>9.9015783292097694</v>
+        <f t="shared" si="24"/>
+        <v>9.9652429254830626</v>
       </c>
       <c r="I108" s="197"/>
       <c r="J108" s="197"/>
@@ -11058,17 +11351,17 @@
       <c r="C109" s="197"/>
       <c r="D109" s="201">
         <f>D108*0.8</f>
-        <v>94.392763189820997</v>
+        <v>95.237483686715407</v>
       </c>
       <c r="E109" s="197"/>
       <c r="F109" s="201">
         <f>F108*0.8</f>
-        <v>86.471500526453184</v>
+        <v>87.26528934632897</v>
       </c>
       <c r="G109" s="197"/>
       <c r="H109" s="201">
         <f>H108*0.8</f>
-        <v>7.9212626633678163</v>
+        <v>7.9721943403864506</v>
       </c>
       <c r="I109" s="197"/>
       <c r="J109" s="197"/>
@@ -11202,7 +11495,7 @@
         <v>9</v>
       </c>
       <c r="B114" s="202">
-        <f>SUM(Y63:Y68)</f>
+        <f>SUM(AC63:AC68)</f>
         <v>39519</v>
       </c>
       <c r="C114" s="113">
@@ -11242,11 +11535,11 @@
         <v>0.13</v>
       </c>
       <c r="M114" s="180">
-        <f t="shared" ref="M114:M122" si="46">B114*L114</f>
+        <f t="shared" ref="M114:M122" si="25">B114*L114</f>
         <v>5137.47</v>
       </c>
       <c r="N114" s="180">
-        <f t="shared" ref="N114:N122" si="47">M114*$C$35</f>
+        <f t="shared" ref="N114:N122" si="26">M114*$C$35</f>
         <v>0</v>
       </c>
       <c r="O114" s="99">
@@ -11264,7 +11557,7 @@
         <v>0.01</v>
       </c>
       <c r="S114" s="180">
-        <f t="shared" ref="S114:S122" si="48">B114*R114</f>
+        <f t="shared" ref="S114:S122" si="27">B114*R114</f>
         <v>395.19</v>
       </c>
       <c r="T114" s="180">
@@ -11284,21 +11577,21 @@
         <v>0.25</v>
       </c>
       <c r="Z114" s="203">
-        <f t="shared" ref="Z114:Z122" si="49">B114*Y114</f>
+        <f t="shared" ref="Z114:Z122" si="28">B114*Y114</f>
         <v>9879.75</v>
       </c>
       <c r="AA114" s="113">
         <v>0.74</v>
       </c>
       <c r="AB114" s="80">
-        <f t="shared" ref="AB114:AB122" si="50">B114*AA114</f>
+        <f t="shared" ref="AB114:AB122" si="29">B114*AA114</f>
         <v>29244.06</v>
       </c>
       <c r="AC114" s="113">
         <v>0.11</v>
       </c>
       <c r="AD114" s="80">
-        <f t="shared" ref="AD114:AD122" si="51">B114*AC114</f>
+        <f t="shared" ref="AD114:AD122" si="30">B114*AC114</f>
         <v>4347.09</v>
       </c>
     </row>
@@ -11307,7 +11600,7 @@
         <v>10</v>
       </c>
       <c r="B115" s="181">
-        <f>SUM(AA63:AA68)</f>
+        <f>SUM(AE63:AE68)</f>
         <v>3502</v>
       </c>
       <c r="C115" s="111">
@@ -11336,40 +11629,40 @@
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="J115" s="181">
-        <f t="shared" ref="J115:J122" si="52">B115*I115</f>
+        <f t="shared" ref="J115:J122" si="31">B115*I115</f>
         <v>168.096</v>
       </c>
       <c r="K115" s="190">
-        <f t="shared" ref="K115:K122" si="53">J115*$C$34</f>
+        <f t="shared" ref="K115:K122" si="32">J115*$C$34</f>
         <v>10.590047999999999</v>
       </c>
       <c r="L115" s="298">
         <v>0.27</v>
       </c>
       <c r="M115" s="181">
-        <f t="shared" si="46"/>
+        <f t="shared" si="25"/>
         <v>945.54000000000008</v>
       </c>
       <c r="N115" s="181">
-        <f t="shared" si="47"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="O115" s="101">
         <v>0.314</v>
       </c>
       <c r="P115" s="181">
-        <f t="shared" ref="P115:P122" si="54">B115*O115</f>
+        <f t="shared" ref="P115:P122" si="33">B115*O115</f>
         <v>1099.6279999999999</v>
       </c>
       <c r="Q115" s="190">
-        <f t="shared" ref="Q115:Q122" si="55">P115*$C$36</f>
+        <f t="shared" ref="Q115:Q122" si="34">P115*$C$36</f>
         <v>65.977679999999992</v>
       </c>
       <c r="R115" s="298">
         <v>0</v>
       </c>
       <c r="S115" s="181">
-        <f t="shared" si="48"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="T115" s="181">
@@ -11377,11 +11670,11 @@
         <v>0</v>
       </c>
       <c r="U115" s="103">
-        <f t="shared" ref="U115:U121" si="56">D115+G115+J115+M115+P115+S115</f>
+        <f t="shared" ref="U115:U121" si="35">D115+G115+J115+M115+P115+S115</f>
         <v>2423.384</v>
       </c>
       <c r="V115" s="189">
-        <f t="shared" ref="V115:V122" si="57">E115+H115+K115+N115+Q115+T115</f>
+        <f t="shared" ref="V115:V122" si="36">E115+H115+K115+N115+Q115+T115</f>
         <v>95.268407999999994</v>
       </c>
       <c r="X115" s="197"/>
@@ -11389,21 +11682,21 @@
         <v>0.36</v>
       </c>
       <c r="Z115" s="190">
-        <f t="shared" si="49"/>
+        <f t="shared" si="28"/>
         <v>1260.72</v>
       </c>
       <c r="AA115" s="111">
         <v>0.86</v>
       </c>
       <c r="AB115" s="79">
-        <f t="shared" si="50"/>
+        <f t="shared" si="29"/>
         <v>3011.72</v>
       </c>
       <c r="AC115" s="111">
         <v>0.05</v>
       </c>
       <c r="AD115" s="79">
-        <f t="shared" si="51"/>
+        <f t="shared" si="30"/>
         <v>175.10000000000002</v>
       </c>
     </row>
@@ -11412,7 +11705,7 @@
         <v>146</v>
       </c>
       <c r="B116" s="180">
-        <f>SUM(T63:T68)</f>
+        <f>SUM(X63:X68)</f>
         <v>11875</v>
       </c>
       <c r="C116" s="110">
@@ -11441,40 +11734,40 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="J116" s="202">
-        <f t="shared" si="52"/>
+        <f t="shared" si="31"/>
         <v>534.375</v>
       </c>
       <c r="K116" s="203">
-        <f t="shared" si="53"/>
+        <f t="shared" si="32"/>
         <v>33.665624999999999</v>
       </c>
       <c r="L116" s="299">
         <v>0.11</v>
       </c>
       <c r="M116" s="202">
-        <f t="shared" si="46"/>
+        <f t="shared" si="25"/>
         <v>1306.25</v>
       </c>
       <c r="N116" s="202">
-        <f t="shared" si="47"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="O116" s="357">
         <v>0.33700000000000002</v>
       </c>
       <c r="P116" s="202">
-        <f t="shared" si="54"/>
+        <f t="shared" si="33"/>
         <v>4001.8750000000005</v>
       </c>
       <c r="Q116" s="203">
-        <f t="shared" si="55"/>
+        <f t="shared" si="34"/>
         <v>240.11250000000001</v>
       </c>
       <c r="R116" s="299">
         <v>0.01</v>
       </c>
       <c r="S116" s="202">
-        <f t="shared" si="48"/>
+        <f t="shared" si="27"/>
         <v>118.75</v>
       </c>
       <c r="T116" s="202">
@@ -11482,11 +11775,11 @@
         <v>6.65</v>
       </c>
       <c r="U116" s="167">
-        <f t="shared" si="56"/>
+        <f t="shared" si="35"/>
         <v>7623.75</v>
       </c>
       <c r="V116" s="203">
-        <f t="shared" si="57"/>
+        <f t="shared" si="36"/>
         <v>420.79062499999998</v>
       </c>
       <c r="X116" s="197"/>
@@ -11494,21 +11787,21 @@
         <v>0.23</v>
       </c>
       <c r="Z116" s="203">
-        <f t="shared" si="49"/>
+        <f t="shared" si="28"/>
         <v>2731.25</v>
       </c>
       <c r="AA116" s="110">
         <v>0.8</v>
       </c>
       <c r="AB116" s="80">
-        <f t="shared" si="50"/>
+        <f t="shared" si="29"/>
         <v>9500</v>
       </c>
       <c r="AC116" s="110">
         <v>0.06</v>
       </c>
       <c r="AD116" s="80">
-        <f t="shared" si="51"/>
+        <f t="shared" si="30"/>
         <v>712.5</v>
       </c>
     </row>
@@ -11517,7 +11810,7 @@
         <v>147</v>
       </c>
       <c r="B117" s="180">
-        <f>SUM(K63:K68)</f>
+        <f>SUM(M63:M68)</f>
         <v>31146</v>
       </c>
       <c r="C117" s="111">
@@ -11546,40 +11839,40 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="J117" s="181">
-        <f t="shared" si="52"/>
+        <f t="shared" si="31"/>
         <v>1401.57</v>
       </c>
       <c r="K117" s="190">
-        <f t="shared" si="53"/>
+        <f t="shared" si="32"/>
         <v>88.298909999999992</v>
       </c>
       <c r="L117" s="298">
         <v>0.19</v>
       </c>
       <c r="M117" s="180">
-        <f t="shared" si="46"/>
+        <f t="shared" si="25"/>
         <v>5917.74</v>
       </c>
       <c r="N117" s="180">
-        <f t="shared" si="47"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="O117" s="358">
         <v>0.33700000000000002</v>
       </c>
       <c r="P117" s="181">
-        <f t="shared" si="54"/>
+        <f t="shared" si="33"/>
         <v>10496.202000000001</v>
       </c>
       <c r="Q117" s="190">
-        <f t="shared" si="55"/>
+        <f t="shared" si="34"/>
         <v>629.77212000000009</v>
       </c>
       <c r="R117" s="298">
         <v>0.01</v>
       </c>
       <c r="S117" s="180">
-        <f t="shared" si="48"/>
+        <f t="shared" si="27"/>
         <v>311.45999999999998</v>
       </c>
       <c r="T117" s="180">
@@ -11587,11 +11880,11 @@
         <v>17.441759999999999</v>
       </c>
       <c r="U117" s="103">
-        <f t="shared" si="56"/>
+        <f t="shared" si="35"/>
         <v>20307.191999999999</v>
       </c>
       <c r="V117" s="189">
-        <f t="shared" si="57"/>
+        <f t="shared" si="36"/>
         <v>924.56901000000005</v>
       </c>
       <c r="X117" s="197"/>
@@ -11599,21 +11892,21 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="Z117" s="190">
-        <f t="shared" si="49"/>
+        <f t="shared" si="28"/>
         <v>8720.880000000001</v>
       </c>
       <c r="AA117" s="111">
         <v>0.73</v>
       </c>
       <c r="AB117" s="79">
-        <f t="shared" si="50"/>
+        <f t="shared" si="29"/>
         <v>22736.579999999998</v>
       </c>
       <c r="AC117" s="111">
         <v>0.12</v>
       </c>
       <c r="AD117" s="79">
-        <f t="shared" si="51"/>
+        <f t="shared" si="30"/>
         <v>3737.52</v>
       </c>
     </row>
@@ -11622,81 +11915,81 @@
         <v>203</v>
       </c>
       <c r="B118" s="80">
-        <f>AC74</f>
+        <f>AG74</f>
         <v>6048.3481676905894</v>
       </c>
       <c r="C118" s="204">
         <v>0.01</v>
       </c>
       <c r="D118" s="167">
-        <f t="shared" ref="D118:D122" si="58">B118*C118</f>
+        <f t="shared" ref="D118:D122" si="37">B118*C118</f>
         <v>60.483481676905896</v>
       </c>
       <c r="E118" s="203">
-        <f t="shared" ref="E118:E122" si="59">D118*$C$32</f>
+        <f t="shared" ref="E118:E122" si="38">D118*$C$32</f>
         <v>6.3507655760751192</v>
       </c>
       <c r="F118" s="197">
         <v>0.01</v>
       </c>
       <c r="G118" s="167">
-        <f t="shared" ref="G118:G122" si="60">B118*F118</f>
+        <f t="shared" ref="G118:G122" si="39">B118*F118</f>
         <v>60.483481676905896</v>
       </c>
       <c r="H118" s="202">
-        <f t="shared" ref="H118:H122" si="61">G118*$C$33</f>
+        <f t="shared" ref="H118:H122" si="40">G118*$C$33</f>
         <v>4.4152941624141304</v>
       </c>
       <c r="I118" s="100">
         <v>0</v>
       </c>
       <c r="J118" s="180">
-        <f t="shared" si="52"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="K118" s="189">
-        <f t="shared" si="53"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="L118" s="197">
         <v>0.18</v>
       </c>
       <c r="M118" s="167">
-        <f t="shared" si="46"/>
+        <f t="shared" si="25"/>
         <v>1088.702670184306</v>
       </c>
       <c r="N118" s="202">
-        <f t="shared" si="47"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="O118" s="100">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="P118" s="180">
-        <f t="shared" si="54"/>
+        <f t="shared" si="33"/>
         <v>453.62611257679418</v>
       </c>
       <c r="Q118" s="189">
-        <f t="shared" si="55"/>
+        <f t="shared" si="34"/>
         <v>27.217566754607649</v>
       </c>
       <c r="R118" s="197">
         <v>0.01</v>
       </c>
       <c r="S118" s="167">
-        <f t="shared" si="48"/>
+        <f t="shared" si="27"/>
         <v>60.483481676905896</v>
       </c>
       <c r="T118" s="202">
-        <f t="shared" ref="T118:T122" si="62">S118*$C$37</f>
+        <f t="shared" ref="T118:T122" si="41">S118*$C$37</f>
         <v>3.3870749739067301</v>
       </c>
       <c r="U118" s="167">
-        <f t="shared" si="56"/>
+        <f t="shared" si="35"/>
         <v>1723.7792277918179</v>
       </c>
       <c r="V118" s="203">
-        <f t="shared" si="57"/>
+        <f t="shared" si="36"/>
         <v>41.370701467003627</v>
       </c>
       <c r="X118" s="307"/>
@@ -11704,21 +11997,21 @@
         <v>0.21</v>
       </c>
       <c r="Z118" s="203">
-        <f t="shared" si="49"/>
+        <f t="shared" si="28"/>
         <v>1270.1531152150237</v>
       </c>
       <c r="AA118" s="113">
         <v>0.8</v>
       </c>
       <c r="AB118" s="80">
-        <f t="shared" si="50"/>
+        <f t="shared" si="29"/>
         <v>4838.6785341524719</v>
       </c>
       <c r="AC118" s="113">
         <v>0.05</v>
       </c>
       <c r="AD118" s="80">
-        <f t="shared" si="51"/>
+        <f t="shared" si="30"/>
         <v>302.41740838452949</v>
       </c>
     </row>
@@ -11727,81 +12020,81 @@
         <v>204</v>
       </c>
       <c r="B119" s="105">
-        <f t="shared" ref="B119:B122" si="63">AC75</f>
+        <f>AG75</f>
         <v>15521.901451053342</v>
       </c>
       <c r="C119" s="204">
         <v>0.02</v>
       </c>
       <c r="D119" s="103">
-        <f t="shared" si="58"/>
+        <f t="shared" si="37"/>
         <v>310.43802902106682</v>
       </c>
       <c r="E119" s="189">
-        <f t="shared" si="59"/>
+        <f t="shared" si="38"/>
         <v>32.595993047212012</v>
       </c>
       <c r="F119" s="197">
         <v>0.03</v>
       </c>
       <c r="G119" s="103">
-        <f t="shared" si="60"/>
+        <f t="shared" si="39"/>
         <v>465.65704353160021</v>
       </c>
       <c r="H119" s="180">
-        <f t="shared" si="61"/>
+        <f t="shared" si="40"/>
         <v>33.992964177806812</v>
       </c>
       <c r="I119" s="100">
         <v>0</v>
       </c>
       <c r="J119" s="180">
-        <f t="shared" si="52"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="K119" s="189">
-        <f t="shared" si="53"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="L119" s="197">
         <v>0.15</v>
       </c>
       <c r="M119" s="103">
-        <f t="shared" si="46"/>
+        <f t="shared" si="25"/>
         <v>2328.2852176580013</v>
       </c>
       <c r="N119" s="180">
-        <f t="shared" si="47"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="O119" s="100">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="P119" s="180">
-        <f t="shared" si="54"/>
+        <f t="shared" si="33"/>
         <v>1164.1426088290007</v>
       </c>
       <c r="Q119" s="189">
-        <f t="shared" si="55"/>
+        <f t="shared" si="34"/>
         <v>69.848556529740037</v>
       </c>
       <c r="R119" s="197">
         <v>0.01</v>
       </c>
       <c r="S119" s="103">
-        <f t="shared" si="48"/>
+        <f t="shared" si="27"/>
         <v>155.21901451053341</v>
       </c>
       <c r="T119" s="180">
-        <f t="shared" si="62"/>
+        <f t="shared" si="41"/>
         <v>8.6922648125898707</v>
       </c>
       <c r="U119" s="103">
-        <f t="shared" si="56"/>
+        <f t="shared" si="35"/>
         <v>4423.7419135502023</v>
       </c>
       <c r="V119" s="189">
-        <f t="shared" si="57"/>
+        <f t="shared" si="36"/>
         <v>145.12977856734875</v>
       </c>
       <c r="X119" s="307"/>
@@ -11809,21 +12102,21 @@
         <v>0.2</v>
       </c>
       <c r="Z119" s="189">
-        <f t="shared" si="49"/>
+        <f t="shared" si="28"/>
         <v>3104.3802902106686</v>
       </c>
       <c r="AA119" s="113">
         <v>0.76</v>
       </c>
       <c r="AB119" s="105">
-        <f t="shared" si="50"/>
+        <f t="shared" si="29"/>
         <v>11796.645102800539</v>
       </c>
       <c r="AC119" s="113">
         <v>0.1</v>
       </c>
       <c r="AD119" s="105">
-        <f t="shared" si="51"/>
+        <f t="shared" si="30"/>
         <v>1552.1901451053343</v>
       </c>
     </row>
@@ -11832,81 +12125,81 @@
         <v>205</v>
       </c>
       <c r="B120" s="105">
-        <f t="shared" si="63"/>
+        <f>AG76</f>
         <v>11885.752374017402</v>
       </c>
       <c r="C120" s="204">
         <v>0.04</v>
       </c>
       <c r="D120" s="103">
-        <f t="shared" si="58"/>
+        <f t="shared" si="37"/>
         <v>475.43009496069607</v>
       </c>
       <c r="E120" s="189">
-        <f t="shared" si="59"/>
+        <f t="shared" si="38"/>
         <v>49.920159970873087</v>
       </c>
       <c r="F120" s="197">
         <v>0.08</v>
       </c>
       <c r="G120" s="103">
-        <f t="shared" si="60"/>
+        <f t="shared" si="39"/>
         <v>950.86018992139213</v>
       </c>
       <c r="H120" s="180">
-        <f t="shared" si="61"/>
+        <f t="shared" si="40"/>
         <v>69.412793864261616</v>
       </c>
       <c r="I120" s="100">
         <v>0</v>
       </c>
       <c r="J120" s="180">
-        <f t="shared" si="52"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="K120" s="189">
-        <f t="shared" si="53"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="L120" s="197">
         <v>0.15</v>
       </c>
       <c r="M120" s="103">
-        <f t="shared" si="46"/>
+        <f t="shared" si="25"/>
         <v>1782.8628561026103</v>
       </c>
       <c r="N120" s="180">
-        <f t="shared" si="47"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="O120" s="100">
         <v>0.159</v>
       </c>
       <c r="P120" s="180">
-        <f t="shared" si="54"/>
+        <f t="shared" si="33"/>
         <v>1889.8346274687669</v>
       </c>
       <c r="Q120" s="189">
-        <f t="shared" si="55"/>
+        <f t="shared" si="34"/>
         <v>113.39007764812601</v>
       </c>
       <c r="R120" s="197">
         <v>0</v>
       </c>
       <c r="S120" s="103">
-        <f t="shared" si="48"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="T120" s="180">
-        <f t="shared" si="62"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="U120" s="103">
-        <f t="shared" si="56"/>
+        <f t="shared" si="35"/>
         <v>5098.9877684534658</v>
       </c>
       <c r="V120" s="189">
-        <f t="shared" si="57"/>
+        <f t="shared" si="36"/>
         <v>232.72303148326071</v>
       </c>
       <c r="X120" s="307"/>
@@ -11914,21 +12207,21 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="Z120" s="189">
-        <f t="shared" si="49"/>
+        <f t="shared" si="28"/>
         <v>3328.0106647248726</v>
       </c>
       <c r="AA120" s="113">
         <v>0.79</v>
       </c>
       <c r="AB120" s="105">
-        <f t="shared" si="50"/>
+        <f t="shared" si="29"/>
         <v>9389.7443754737487</v>
       </c>
       <c r="AC120" s="113">
         <v>0.09</v>
       </c>
       <c r="AD120" s="105">
-        <f t="shared" si="51"/>
+        <f t="shared" si="30"/>
         <v>1069.7177136615662</v>
       </c>
     </row>
@@ -11937,81 +12230,81 @@
         <v>206</v>
       </c>
       <c r="B121" s="105">
-        <f t="shared" si="63"/>
+        <f>AG77</f>
         <v>6122.6429837205578</v>
       </c>
       <c r="C121" s="204">
         <v>0.04</v>
       </c>
       <c r="D121" s="103">
-        <f t="shared" si="58"/>
+        <f t="shared" si="37"/>
         <v>244.90571934882232</v>
       </c>
       <c r="E121" s="189">
-        <f t="shared" si="59"/>
+        <f t="shared" si="38"/>
         <v>25.715100531626341</v>
       </c>
       <c r="F121" s="197">
         <v>0.08</v>
       </c>
       <c r="G121" s="103">
-        <f t="shared" si="60"/>
+        <f t="shared" si="39"/>
         <v>489.81143869764463</v>
       </c>
       <c r="H121" s="180">
-        <f t="shared" si="61"/>
+        <f t="shared" si="40"/>
         <v>35.756235024928053</v>
       </c>
       <c r="I121" s="100">
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="J121" s="180">
-        <f t="shared" si="52"/>
+        <f t="shared" si="31"/>
         <v>134.69814564185228</v>
       </c>
       <c r="K121" s="189">
-        <f t="shared" si="53"/>
+        <f t="shared" si="32"/>
         <v>8.4859831754366937</v>
       </c>
       <c r="L121" s="197">
         <v>0.18</v>
       </c>
       <c r="M121" s="103">
-        <f t="shared" si="46"/>
+        <f t="shared" si="25"/>
         <v>1102.0757370697004</v>
       </c>
       <c r="N121" s="180">
-        <f t="shared" si="47"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="O121" s="359">
         <v>0.26400000000000001</v>
       </c>
       <c r="P121" s="180">
-        <f t="shared" si="54"/>
+        <f t="shared" si="33"/>
         <v>1616.3777477022275</v>
       </c>
       <c r="Q121" s="189">
-        <f t="shared" si="55"/>
+        <f t="shared" si="34"/>
         <v>96.982664862133646</v>
       </c>
       <c r="R121" s="197">
         <v>0.03</v>
       </c>
       <c r="S121" s="103">
-        <f t="shared" si="48"/>
+        <f t="shared" si="27"/>
         <v>183.67928951161673</v>
       </c>
       <c r="T121" s="180">
-        <f t="shared" si="62"/>
+        <f t="shared" si="41"/>
         <v>10.286040212650537</v>
       </c>
       <c r="U121" s="103">
-        <f t="shared" si="56"/>
+        <f t="shared" si="35"/>
         <v>3771.5480779718637</v>
       </c>
       <c r="V121" s="189">
-        <f t="shared" si="57"/>
+        <f t="shared" si="36"/>
         <v>177.22602380677526</v>
       </c>
       <c r="X121" s="307"/>
@@ -12019,21 +12312,21 @@
         <v>0.36</v>
       </c>
       <c r="Z121" s="189">
-        <f t="shared" si="49"/>
+        <f t="shared" si="28"/>
         <v>2204.1514741394008</v>
       </c>
       <c r="AA121" s="113">
         <v>0.66</v>
       </c>
       <c r="AB121" s="105">
-        <f t="shared" si="50"/>
+        <f t="shared" si="29"/>
         <v>4040.9443692555683</v>
       </c>
       <c r="AC121" s="113">
         <v>0.15</v>
       </c>
       <c r="AD121" s="105">
-        <f t="shared" si="51"/>
+        <f t="shared" si="30"/>
         <v>918.39644755808365</v>
       </c>
     </row>
@@ -12042,73 +12335,73 @@
         <v>189</v>
       </c>
       <c r="B122" s="79">
-        <f t="shared" si="63"/>
+        <f>AG78</f>
         <v>3468.0717639909399</v>
       </c>
       <c r="C122" s="199">
         <v>0.38</v>
       </c>
       <c r="D122" s="104">
-        <f t="shared" si="58"/>
+        <f t="shared" si="37"/>
         <v>1317.8672703165571</v>
       </c>
       <c r="E122" s="190">
-        <f t="shared" si="59"/>
+        <f t="shared" si="38"/>
         <v>138.37606338323849</v>
       </c>
       <c r="F122" s="200">
         <v>0.28999999999999998</v>
       </c>
       <c r="G122" s="104">
-        <f t="shared" si="60"/>
+        <f t="shared" si="39"/>
         <v>1005.7408115573725</v>
       </c>
       <c r="H122" s="181">
-        <f t="shared" si="61"/>
+        <f t="shared" si="40"/>
         <v>73.419079243688188</v>
       </c>
       <c r="I122" s="101">
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="J122" s="181">
-        <f t="shared" si="52"/>
+        <f t="shared" si="31"/>
         <v>169.93551643555605</v>
       </c>
       <c r="K122" s="190">
-        <f t="shared" si="53"/>
+        <f t="shared" si="32"/>
         <v>10.705937535440031</v>
       </c>
       <c r="L122" s="200">
         <v>0.09</v>
       </c>
       <c r="M122" s="104">
-        <f t="shared" si="46"/>
+        <f t="shared" si="25"/>
         <v>312.12645875918457</v>
       </c>
       <c r="N122" s="181">
-        <f t="shared" si="47"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="O122" s="101">
         <v>0.33500000000000002</v>
       </c>
       <c r="P122" s="181">
-        <f t="shared" si="54"/>
+        <f t="shared" si="33"/>
         <v>1161.8040409369648</v>
       </c>
       <c r="Q122" s="190">
-        <f t="shared" si="55"/>
+        <f t="shared" si="34"/>
         <v>69.708242456217889</v>
       </c>
       <c r="R122" s="200">
         <v>0</v>
       </c>
       <c r="S122" s="104">
-        <f t="shared" si="48"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="T122" s="181">
-        <f t="shared" si="62"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="U122" s="104">
@@ -12116,7 +12409,7 @@
         <v>3967.4740980056349</v>
       </c>
       <c r="V122" s="190">
-        <f t="shared" si="57"/>
+        <f t="shared" si="36"/>
         <v>292.20932261858462</v>
       </c>
       <c r="X122" s="307"/>
@@ -12124,21 +12417,21 @@
         <v>0.71</v>
       </c>
       <c r="Z122" s="190">
-        <f t="shared" si="49"/>
+        <f t="shared" si="28"/>
         <v>2462.3309524335673</v>
       </c>
       <c r="AA122" s="111">
         <v>0.53</v>
       </c>
       <c r="AB122" s="79">
-        <f t="shared" si="50"/>
+        <f t="shared" si="29"/>
         <v>1838.0780349151983</v>
       </c>
       <c r="AC122" s="111">
         <v>0.21</v>
       </c>
       <c r="AD122" s="79">
-        <f t="shared" si="51"/>
+        <f t="shared" si="30"/>
         <v>728.29507043809735</v>
       </c>
     </row>
@@ -12371,62 +12664,65 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="55">
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="E101:F101"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="Y58:AD58"/>
-    <mergeCell ref="Y59:AD59"/>
-    <mergeCell ref="Y70:AD70"/>
-    <mergeCell ref="Y71:AD71"/>
-    <mergeCell ref="V58:X58"/>
-    <mergeCell ref="V59:X59"/>
-    <mergeCell ref="V62:V63"/>
-    <mergeCell ref="W62:W63"/>
-    <mergeCell ref="X62:X63"/>
-    <mergeCell ref="V70:X70"/>
-    <mergeCell ref="V71:X71"/>
-    <mergeCell ref="B81:J81"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="M59:O59"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="G58:L58"/>
-    <mergeCell ref="G59:L59"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="K44:M44"/>
-    <mergeCell ref="N44:P44"/>
-    <mergeCell ref="D71:F71"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="M58:O58"/>
-    <mergeCell ref="D70:F70"/>
-    <mergeCell ref="M70:O70"/>
-    <mergeCell ref="M62:M63"/>
-    <mergeCell ref="N62:N63"/>
-    <mergeCell ref="O62:O63"/>
+  <mergeCells count="58">
     <mergeCell ref="E62:E63"/>
+    <mergeCell ref="D58:H58"/>
+    <mergeCell ref="D59:H59"/>
     <mergeCell ref="F62:F63"/>
-    <mergeCell ref="G70:L70"/>
-    <mergeCell ref="G71:L71"/>
-    <mergeCell ref="P58:U58"/>
-    <mergeCell ref="P59:U59"/>
-    <mergeCell ref="P70:U70"/>
-    <mergeCell ref="P71:U71"/>
-    <mergeCell ref="M71:O71"/>
-    <mergeCell ref="W44:Y44"/>
-    <mergeCell ref="Z44:AB44"/>
+    <mergeCell ref="G62:G63"/>
     <mergeCell ref="T43:AB43"/>
     <mergeCell ref="H44:J44"/>
     <mergeCell ref="B43:J43"/>
     <mergeCell ref="K43:S43"/>
     <mergeCell ref="Q44:S44"/>
     <mergeCell ref="T44:V44"/>
+    <mergeCell ref="T70:Y70"/>
+    <mergeCell ref="T71:Y71"/>
+    <mergeCell ref="W44:Y44"/>
+    <mergeCell ref="Z44:AB44"/>
+    <mergeCell ref="O62:O63"/>
+    <mergeCell ref="P62:P63"/>
+    <mergeCell ref="R62:R63"/>
+    <mergeCell ref="Q62:Q63"/>
+    <mergeCell ref="S62:S63"/>
+    <mergeCell ref="O58:S58"/>
+    <mergeCell ref="O59:S59"/>
+    <mergeCell ref="O70:S70"/>
+    <mergeCell ref="O71:S71"/>
+    <mergeCell ref="I70:N70"/>
+    <mergeCell ref="I71:N71"/>
+    <mergeCell ref="D70:H70"/>
+    <mergeCell ref="D71:H71"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="I58:N58"/>
+    <mergeCell ref="I59:N59"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="K44:M44"/>
+    <mergeCell ref="N44:P44"/>
+    <mergeCell ref="T58:Y58"/>
+    <mergeCell ref="T59:Y59"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="AC58:AH58"/>
+    <mergeCell ref="AC59:AH59"/>
+    <mergeCell ref="AC70:AH70"/>
+    <mergeCell ref="AC71:AH71"/>
+    <mergeCell ref="Z58:AB58"/>
+    <mergeCell ref="Z59:AB59"/>
+    <mergeCell ref="Z62:Z63"/>
+    <mergeCell ref="AA62:AA63"/>
+    <mergeCell ref="AB62:AB63"/>
+    <mergeCell ref="Z70:AB70"/>
+    <mergeCell ref="Z71:AB71"/>
+    <mergeCell ref="B81:J81"/>
+    <mergeCell ref="D62:D63"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C31" r:id="rId1" location="case-fatality-rate-of-covid-19-by-preexisting-health-conditions" xr:uid="{7F3EF4B5-28AC-495F-9AED-D8A19838DCA0}"/>
@@ -14516,15 +14812,15 @@
       </c>
     </row>
     <row r="7" spans="1:255">
-      <c r="A7" s="378" t="s">
+      <c r="A7" s="379" t="s">
         <v>143</v>
       </c>
-      <c r="B7" s="378"/>
-      <c r="C7" s="378"/>
-      <c r="D7" s="378"/>
-      <c r="E7" s="379"/>
-      <c r="F7" s="379"/>
-      <c r="G7" s="378"/>
+      <c r="B7" s="379"/>
+      <c r="C7" s="379"/>
+      <c r="D7" s="379"/>
+      <c r="E7" s="380"/>
+      <c r="F7" s="380"/>
+      <c r="G7" s="379"/>
       <c r="H7" s="153" t="s">
         <v>249</v>
       </c>
@@ -15159,15 +15455,15 @@
       <c r="M24" s="20"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="378" t="s">
+      <c r="A25" s="379" t="s">
         <v>144</v>
       </c>
-      <c r="B25" s="378"/>
-      <c r="C25" s="378"/>
-      <c r="D25" s="378"/>
-      <c r="E25" s="379"/>
-      <c r="F25" s="379"/>
-      <c r="G25" s="378"/>
+      <c r="B25" s="379"/>
+      <c r="C25" s="379"/>
+      <c r="D25" s="379"/>
+      <c r="E25" s="380"/>
+      <c r="F25" s="380"/>
+      <c r="G25" s="379"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="67" t="s">
@@ -15783,15 +16079,15 @@
       </c>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="378" t="s">
+      <c r="A43" s="379" t="s">
         <v>145</v>
       </c>
-      <c r="B43" s="378"/>
-      <c r="C43" s="378"/>
-      <c r="D43" s="378"/>
-      <c r="E43" s="379"/>
-      <c r="F43" s="379"/>
-      <c r="G43" s="378"/>
+      <c r="B43" s="379"/>
+      <c r="C43" s="379"/>
+      <c r="D43" s="379"/>
+      <c r="E43" s="380"/>
+      <c r="F43" s="380"/>
+      <c r="G43" s="379"/>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="67" t="s">
@@ -16489,23 +16785,23 @@
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="380" t="s">
+      <c r="A3" s="381" t="s">
         <v>159</v>
       </c>
-      <c r="B3" s="380"/>
-      <c r="C3" s="380"/>
-      <c r="D3" s="380"/>
-      <c r="E3" s="380"/>
-      <c r="F3" s="380"/>
-      <c r="G3" s="380"/>
-      <c r="H3" s="380"/>
-      <c r="I3" s="380"/>
-      <c r="J3" s="380"/>
-      <c r="K3" s="380"/>
-      <c r="L3" s="381" t="s">
+      <c r="B3" s="381"/>
+      <c r="C3" s="381"/>
+      <c r="D3" s="381"/>
+      <c r="E3" s="381"/>
+      <c r="F3" s="381"/>
+      <c r="G3" s="381"/>
+      <c r="H3" s="381"/>
+      <c r="I3" s="381"/>
+      <c r="J3" s="381"/>
+      <c r="K3" s="381"/>
+      <c r="L3" s="382" t="s">
         <v>207</v>
       </c>
-      <c r="M3" s="381"/>
+      <c r="M3" s="382"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="29" t="s">
@@ -18326,19 +18622,19 @@
       <c r="K54" s="40"/>
     </row>
     <row r="55" spans="1:13">
-      <c r="A55" s="380" t="s">
+      <c r="A55" s="381" t="s">
         <v>162</v>
       </c>
-      <c r="B55" s="380"/>
-      <c r="C55" s="380"/>
-      <c r="D55" s="380"/>
-      <c r="E55" s="380"/>
-      <c r="F55" s="380"/>
-      <c r="G55" s="380"/>
-      <c r="H55" s="380"/>
-      <c r="I55" s="380"/>
-      <c r="J55" s="380"/>
-      <c r="K55" s="380"/>
+      <c r="B55" s="381"/>
+      <c r="C55" s="381"/>
+      <c r="D55" s="381"/>
+      <c r="E55" s="381"/>
+      <c r="F55" s="381"/>
+      <c r="G55" s="381"/>
+      <c r="H55" s="381"/>
+      <c r="I55" s="381"/>
+      <c r="J55" s="381"/>
+      <c r="K55" s="381"/>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="29" t="s">
@@ -20159,19 +20455,19 @@
       <c r="K106" s="40"/>
     </row>
     <row r="107" spans="1:13">
-      <c r="A107" s="380" t="s">
+      <c r="A107" s="381" t="s">
         <v>163</v>
       </c>
-      <c r="B107" s="380"/>
-      <c r="C107" s="380"/>
-      <c r="D107" s="380"/>
-      <c r="E107" s="380"/>
-      <c r="F107" s="380"/>
-      <c r="G107" s="380"/>
-      <c r="H107" s="380"/>
-      <c r="I107" s="380"/>
-      <c r="J107" s="380"/>
-      <c r="K107" s="380"/>
+      <c r="B107" s="381"/>
+      <c r="C107" s="381"/>
+      <c r="D107" s="381"/>
+      <c r="E107" s="381"/>
+      <c r="F107" s="381"/>
+      <c r="G107" s="381"/>
+      <c r="H107" s="381"/>
+      <c r="I107" s="381"/>
+      <c r="J107" s="381"/>
+      <c r="K107" s="381"/>
     </row>
     <row r="108" spans="1:13">
       <c r="A108" s="29" t="s">
@@ -22061,15 +22357,15 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="90"/>
-      <c r="B4" s="382" t="s">
+      <c r="B4" s="383" t="s">
         <v>178</v>
       </c>
-      <c r="C4" s="382"/>
-      <c r="D4" s="382"/>
-      <c r="E4" s="382"/>
-      <c r="F4" s="382"/>
-      <c r="G4" s="382"/>
-      <c r="H4" s="382"/>
+      <c r="C4" s="383"/>
+      <c r="D4" s="383"/>
+      <c r="E4" s="383"/>
+      <c r="F4" s="383"/>
+      <c r="G4" s="383"/>
+      <c r="H4" s="383"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="91" t="s">
@@ -22369,15 +22665,15 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="90"/>
-      <c r="B18" s="382" t="s">
+      <c r="B18" s="383" t="s">
         <v>191</v>
       </c>
-      <c r="C18" s="382"/>
-      <c r="D18" s="382"/>
-      <c r="E18" s="382"/>
-      <c r="F18" s="382"/>
-      <c r="G18" s="382"/>
-      <c r="H18" s="382"/>
+      <c r="C18" s="383"/>
+      <c r="D18" s="383"/>
+      <c r="E18" s="383"/>
+      <c r="F18" s="383"/>
+      <c r="G18" s="383"/>
+      <c r="H18" s="383"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="91" t="s">
@@ -22807,160 +23103,160 @@
     </row>
     <row r="2" spans="1:54">
       <c r="A2" s="223"/>
-      <c r="B2" s="390" t="s">
+      <c r="B2" s="384" t="s">
         <v>290</v>
       </c>
-      <c r="C2" s="390"/>
-      <c r="D2" s="390"/>
-      <c r="E2" s="390"/>
-      <c r="F2" s="390"/>
-      <c r="G2" s="390"/>
-      <c r="H2" s="390"/>
-      <c r="I2" s="390"/>
+      <c r="C2" s="384"/>
+      <c r="D2" s="384"/>
+      <c r="E2" s="384"/>
+      <c r="F2" s="384"/>
+      <c r="G2" s="384"/>
+      <c r="H2" s="384"/>
+      <c r="I2" s="384"/>
       <c r="J2" s="224"/>
-      <c r="K2" s="390" t="s">
+      <c r="K2" s="384" t="s">
         <v>291</v>
       </c>
-      <c r="L2" s="390"/>
-      <c r="M2" s="390"/>
-      <c r="N2" s="390"/>
-      <c r="O2" s="390"/>
-      <c r="P2" s="390"/>
-      <c r="Q2" s="390"/>
-      <c r="R2" s="390"/>
+      <c r="L2" s="384"/>
+      <c r="M2" s="384"/>
+      <c r="N2" s="384"/>
+      <c r="O2" s="384"/>
+      <c r="P2" s="384"/>
+      <c r="Q2" s="384"/>
+      <c r="R2" s="384"/>
       <c r="S2" s="224"/>
-      <c r="T2" s="390" t="s">
+      <c r="T2" s="384" t="s">
         <v>292</v>
       </c>
-      <c r="U2" s="390"/>
-      <c r="V2" s="390"/>
-      <c r="W2" s="390"/>
-      <c r="X2" s="390"/>
-      <c r="Y2" s="390"/>
-      <c r="Z2" s="390"/>
-      <c r="AA2" s="390"/>
+      <c r="U2" s="384"/>
+      <c r="V2" s="384"/>
+      <c r="W2" s="384"/>
+      <c r="X2" s="384"/>
+      <c r="Y2" s="384"/>
+      <c r="Z2" s="384"/>
+      <c r="AA2" s="384"/>
       <c r="AB2" s="224"/>
-      <c r="AC2" s="390" t="s">
+      <c r="AC2" s="384" t="s">
         <v>293</v>
       </c>
-      <c r="AD2" s="390"/>
-      <c r="AE2" s="390"/>
-      <c r="AF2" s="390"/>
-      <c r="AG2" s="390"/>
-      <c r="AH2" s="390"/>
-      <c r="AI2" s="390"/>
-      <c r="AJ2" s="390"/>
+      <c r="AD2" s="384"/>
+      <c r="AE2" s="384"/>
+      <c r="AF2" s="384"/>
+      <c r="AG2" s="384"/>
+      <c r="AH2" s="384"/>
+      <c r="AI2" s="384"/>
+      <c r="AJ2" s="384"/>
       <c r="AK2" s="224"/>
-      <c r="AL2" s="390" t="s">
+      <c r="AL2" s="384" t="s">
         <v>294</v>
       </c>
-      <c r="AM2" s="390"/>
-      <c r="AN2" s="390"/>
-      <c r="AO2" s="390"/>
-      <c r="AP2" s="390"/>
-      <c r="AQ2" s="390"/>
-      <c r="AR2" s="390"/>
-      <c r="AS2" s="390"/>
+      <c r="AM2" s="384"/>
+      <c r="AN2" s="384"/>
+      <c r="AO2" s="384"/>
+      <c r="AP2" s="384"/>
+      <c r="AQ2" s="384"/>
+      <c r="AR2" s="384"/>
+      <c r="AS2" s="384"/>
       <c r="AT2" s="225"/>
-      <c r="AU2" s="391" t="s">
+      <c r="AU2" s="385" t="s">
         <v>295</v>
       </c>
-      <c r="AV2" s="392"/>
-      <c r="AW2" s="392"/>
-      <c r="AX2" s="392"/>
-      <c r="AY2" s="392"/>
-      <c r="AZ2" s="392"/>
-      <c r="BA2" s="392"/>
-      <c r="BB2" s="392"/>
+      <c r="AV2" s="386"/>
+      <c r="AW2" s="386"/>
+      <c r="AX2" s="386"/>
+      <c r="AY2" s="386"/>
+      <c r="AZ2" s="386"/>
+      <c r="BA2" s="386"/>
+      <c r="BB2" s="386"/>
     </row>
     <row r="3" spans="1:54" ht="25.5" customHeight="1">
       <c r="A3" s="226"/>
-      <c r="B3" s="387" t="s">
+      <c r="B3" s="388" t="s">
         <v>296</v>
       </c>
-      <c r="C3" s="387"/>
+      <c r="C3" s="388"/>
       <c r="D3" s="227"/>
-      <c r="E3" s="388" t="s">
+      <c r="E3" s="389" t="s">
         <v>297</v>
       </c>
-      <c r="F3" s="388"/>
+      <c r="F3" s="389"/>
       <c r="G3" s="227"/>
-      <c r="H3" s="387" t="s">
+      <c r="H3" s="388" t="s">
         <v>298</v>
       </c>
-      <c r="I3" s="387"/>
+      <c r="I3" s="388"/>
       <c r="J3" s="228"/>
-      <c r="K3" s="389" t="s">
+      <c r="K3" s="387" t="s">
         <v>296</v>
       </c>
-      <c r="L3" s="389"/>
+      <c r="L3" s="387"/>
       <c r="M3" s="229"/>
-      <c r="N3" s="389" t="s">
+      <c r="N3" s="387" t="s">
         <v>297</v>
       </c>
-      <c r="O3" s="389"/>
+      <c r="O3" s="387"/>
       <c r="P3" s="229"/>
-      <c r="Q3" s="389" t="s">
+      <c r="Q3" s="387" t="s">
         <v>298</v>
       </c>
-      <c r="R3" s="389"/>
+      <c r="R3" s="387"/>
       <c r="S3" s="227"/>
-      <c r="T3" s="387" t="s">
+      <c r="T3" s="388" t="s">
         <v>296</v>
       </c>
-      <c r="U3" s="387"/>
+      <c r="U3" s="388"/>
       <c r="V3" s="227"/>
-      <c r="W3" s="388" t="s">
+      <c r="W3" s="389" t="s">
         <v>297</v>
       </c>
-      <c r="X3" s="388"/>
+      <c r="X3" s="389"/>
       <c r="Y3" s="227"/>
-      <c r="Z3" s="387" t="s">
+      <c r="Z3" s="388" t="s">
         <v>298</v>
       </c>
-      <c r="AA3" s="387"/>
+      <c r="AA3" s="388"/>
       <c r="AB3" s="228"/>
-      <c r="AC3" s="387" t="s">
+      <c r="AC3" s="388" t="s">
         <v>296</v>
       </c>
-      <c r="AD3" s="387"/>
+      <c r="AD3" s="388"/>
       <c r="AE3" s="227"/>
-      <c r="AF3" s="388" t="s">
+      <c r="AF3" s="389" t="s">
         <v>297</v>
       </c>
-      <c r="AG3" s="388"/>
+      <c r="AG3" s="389"/>
       <c r="AH3" s="227"/>
-      <c r="AI3" s="387" t="s">
+      <c r="AI3" s="388" t="s">
         <v>298</v>
       </c>
-      <c r="AJ3" s="387"/>
+      <c r="AJ3" s="388"/>
       <c r="AK3" s="228"/>
-      <c r="AL3" s="387" t="s">
+      <c r="AL3" s="388" t="s">
         <v>296</v>
       </c>
-      <c r="AM3" s="387"/>
+      <c r="AM3" s="388"/>
       <c r="AN3" s="227"/>
-      <c r="AO3" s="388" t="s">
+      <c r="AO3" s="389" t="s">
         <v>297</v>
       </c>
-      <c r="AP3" s="388"/>
-      <c r="AR3" s="387" t="s">
+      <c r="AP3" s="389"/>
+      <c r="AR3" s="388" t="s">
         <v>298</v>
       </c>
-      <c r="AS3" s="387"/>
-      <c r="AU3" s="387" t="s">
+      <c r="AS3" s="388"/>
+      <c r="AU3" s="388" t="s">
         <v>296</v>
       </c>
-      <c r="AV3" s="387"/>
+      <c r="AV3" s="388"/>
       <c r="AW3" s="227"/>
-      <c r="AX3" s="388" t="s">
+      <c r="AX3" s="389" t="s">
         <v>297</v>
       </c>
-      <c r="AY3" s="388"/>
-      <c r="BA3" s="387" t="s">
+      <c r="AY3" s="389"/>
+      <c r="BA3" s="388" t="s">
         <v>298</v>
       </c>
-      <c r="BB3" s="387"/>
+      <c r="BB3" s="388"/>
     </row>
     <row r="4" spans="1:54">
       <c r="A4" s="230" t="s">
@@ -24270,85 +24566,85 @@
     </row>
     <row r="22" spans="1:42">
       <c r="A22" s="264"/>
-      <c r="B22" s="384" t="s">
+      <c r="B22" s="391" t="s">
         <v>180</v>
       </c>
-      <c r="C22" s="384"/>
-      <c r="D22" s="384"/>
-      <c r="E22" s="384"/>
-      <c r="F22" s="384"/>
-      <c r="G22" s="384"/>
-      <c r="H22" s="384"/>
-      <c r="I22" s="384"/>
+      <c r="C22" s="391"/>
+      <c r="D22" s="391"/>
+      <c r="E22" s="391"/>
+      <c r="F22" s="391"/>
+      <c r="G22" s="391"/>
+      <c r="H22" s="391"/>
+      <c r="I22" s="391"/>
       <c r="J22" s="265"/>
-      <c r="K22" s="384" t="s">
+      <c r="K22" s="391" t="s">
         <v>181</v>
       </c>
-      <c r="L22" s="384"/>
-      <c r="M22" s="384"/>
-      <c r="N22" s="384"/>
-      <c r="O22" s="384"/>
-      <c r="P22" s="384"/>
-      <c r="Q22" s="384"/>
-      <c r="R22" s="384"/>
+      <c r="L22" s="391"/>
+      <c r="M22" s="391"/>
+      <c r="N22" s="391"/>
+      <c r="O22" s="391"/>
+      <c r="P22" s="391"/>
+      <c r="Q22" s="391"/>
+      <c r="R22" s="391"/>
       <c r="S22" s="265"/>
-      <c r="T22" s="384" t="s">
+      <c r="T22" s="391" t="s">
         <v>435</v>
       </c>
-      <c r="U22" s="384"/>
-      <c r="V22" s="384"/>
-      <c r="W22" s="384"/>
-      <c r="X22" s="384"/>
-      <c r="Y22" s="384"/>
-      <c r="Z22" s="384"/>
-      <c r="AA22" s="384"/>
+      <c r="U22" s="391"/>
+      <c r="V22" s="391"/>
+      <c r="W22" s="391"/>
+      <c r="X22" s="391"/>
+      <c r="Y22" s="391"/>
+      <c r="Z22" s="391"/>
+      <c r="AA22" s="391"/>
     </row>
     <row r="23" spans="1:42" ht="22.5" customHeight="1">
       <c r="A23" s="266"/>
-      <c r="B23" s="385" t="s">
+      <c r="B23" s="392" t="s">
         <v>296</v>
       </c>
-      <c r="C23" s="385"/>
+      <c r="C23" s="392"/>
       <c r="D23" s="267"/>
-      <c r="E23" s="383" t="s">
+      <c r="E23" s="390" t="s">
         <v>297</v>
       </c>
-      <c r="F23" s="383"/>
+      <c r="F23" s="390"/>
       <c r="G23" s="268"/>
-      <c r="H23" s="386" t="s">
+      <c r="H23" s="393" t="s">
         <v>298</v>
       </c>
-      <c r="I23" s="386"/>
+      <c r="I23" s="393"/>
       <c r="J23" s="269"/>
-      <c r="K23" s="385" t="s">
+      <c r="K23" s="392" t="s">
         <v>296</v>
       </c>
-      <c r="L23" s="385"/>
+      <c r="L23" s="392"/>
       <c r="M23" s="267"/>
-      <c r="N23" s="383" t="s">
+      <c r="N23" s="390" t="s">
         <v>297</v>
       </c>
-      <c r="O23" s="383"/>
+      <c r="O23" s="390"/>
       <c r="P23" s="268"/>
-      <c r="Q23" s="386" t="s">
+      <c r="Q23" s="393" t="s">
         <v>298</v>
       </c>
-      <c r="R23" s="386"/>
+      <c r="R23" s="393"/>
       <c r="S23" s="269"/>
-      <c r="T23" s="383" t="s">
+      <c r="T23" s="390" t="s">
         <v>296</v>
       </c>
-      <c r="U23" s="383"/>
+      <c r="U23" s="390"/>
       <c r="V23" s="268"/>
-      <c r="W23" s="383" t="s">
+      <c r="W23" s="390" t="s">
         <v>297</v>
       </c>
-      <c r="X23" s="383"/>
+      <c r="X23" s="390"/>
       <c r="Y23" s="270"/>
-      <c r="Z23" s="383" t="s">
+      <c r="Z23" s="390" t="s">
         <v>298</v>
       </c>
-      <c r="AA23" s="383"/>
+      <c r="AA23" s="390"/>
     </row>
     <row r="24" spans="1:42">
       <c r="A24" s="271" t="s">
@@ -25187,6 +25483,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="K22:R22"/>
+    <mergeCell ref="T22:AA22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="AR3:AS3"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AX3:AY3"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="Z23:AA23"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AL3:AM3"/>
+    <mergeCell ref="AO3:AP3"/>
     <mergeCell ref="AL2:AS2"/>
     <mergeCell ref="AU2:BB2"/>
     <mergeCell ref="Q3:R3"/>
@@ -25203,26 +25519,6 @@
     <mergeCell ref="T3:U3"/>
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AL3:AM3"/>
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="AR3:AS3"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AX3:AY3"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="Z23:AA23"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="K22:R22"/>
-    <mergeCell ref="T22:AA22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="T23:U23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -25257,10 +25553,10 @@
       <c r="E2" s="301"/>
       <c r="F2" s="301"/>
       <c r="G2" s="301"/>
-      <c r="H2" s="394" t="s">
+      <c r="H2" s="395" t="s">
         <v>535</v>
       </c>
-      <c r="I2" s="395"/>
+      <c r="I2" s="396"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickTop="1">
       <c r="A3" s="301"/>
@@ -25286,32 +25582,32 @@
     </row>
     <row r="6" spans="1:9" ht="15.75">
       <c r="A6" s="301"/>
-      <c r="B6" s="396" t="s">
+      <c r="B6" s="397" t="s">
         <v>536</v>
       </c>
-      <c r="C6" s="396"/>
-      <c r="D6" s="396"/>
-      <c r="E6" s="397"/>
-      <c r="F6" s="397"/>
-      <c r="G6" s="397"/>
-      <c r="H6" s="397"/>
-      <c r="I6" s="397"/>
+      <c r="C6" s="397"/>
+      <c r="D6" s="397"/>
+      <c r="E6" s="398"/>
+      <c r="F6" s="398"/>
+      <c r="G6" s="398"/>
+      <c r="H6" s="398"/>
+      <c r="I6" s="398"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="301"/>
       <c r="B7" s="305"/>
-      <c r="C7" s="398" t="s">
+      <c r="C7" s="399" t="s">
         <v>180</v>
       </c>
-      <c r="D7" s="398"/>
-      <c r="E7" s="398" t="s">
+      <c r="D7" s="399"/>
+      <c r="E7" s="399" t="s">
         <v>181</v>
       </c>
-      <c r="F7" s="399"/>
-      <c r="G7" s="398" t="s">
+      <c r="F7" s="400"/>
+      <c r="G7" s="399" t="s">
         <v>435</v>
       </c>
-      <c r="H7" s="399"/>
+      <c r="H7" s="400"/>
       <c r="I7" s="301"/>
     </row>
     <row r="8" spans="1:9">
@@ -25491,15 +25787,15 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="301"/>
-      <c r="B15" s="393" t="s">
+      <c r="B15" s="394" t="s">
         <v>558</v>
       </c>
-      <c r="C15" s="393"/>
-      <c r="D15" s="393"/>
-      <c r="E15" s="393"/>
-      <c r="F15" s="393"/>
-      <c r="G15" s="393"/>
-      <c r="H15" s="393"/>
+      <c r="C15" s="394"/>
+      <c r="D15" s="394"/>
+      <c r="E15" s="394"/>
+      <c r="F15" s="394"/>
+      <c r="G15" s="394"/>
+      <c r="H15" s="394"/>
       <c r="I15" s="301"/>
     </row>
     <row r="16" spans="1:9">
@@ -25620,11 +25916,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="43.5" customHeight="1">
-      <c r="A1" s="403" t="s">
+      <c r="A1" s="402" t="s">
         <v>563</v>
       </c>
-      <c r="B1" s="403"/>
-      <c r="C1" s="403"/>
+      <c r="B1" s="402"/>
+      <c r="C1" s="402"/>
       <c r="D1" s="318"/>
       <c r="E1" s="318"/>
       <c r="F1" s="318"/>
@@ -25791,11 +26087,11 @@
       <c r="H18" s="331"/>
     </row>
     <row r="19" spans="1:15" ht="24.75" customHeight="1">
-      <c r="A19" s="400" t="s">
+      <c r="A19" s="403" t="s">
         <v>577</v>
       </c>
-      <c r="B19" s="400"/>
-      <c r="C19" s="400"/>
+      <c r="B19" s="403"/>
+      <c r="C19" s="403"/>
       <c r="D19" s="331"/>
       <c r="E19" s="331"/>
       <c r="F19" s="331"/>
@@ -25803,11 +26099,11 @@
       <c r="H19" s="331"/>
     </row>
     <row r="20" spans="1:15" ht="46.5" customHeight="1">
-      <c r="A20" s="400" t="s">
+      <c r="A20" s="403" t="s">
         <v>578</v>
       </c>
-      <c r="B20" s="400"/>
-      <c r="C20" s="400"/>
+      <c r="B20" s="403"/>
+      <c r="C20" s="403"/>
       <c r="D20" s="331"/>
       <c r="E20" s="331"/>
       <c r="F20" s="331"/>
@@ -25815,11 +26111,11 @@
       <c r="H20" s="331"/>
     </row>
     <row r="21" spans="1:15" ht="59.25" customHeight="1">
-      <c r="A21" s="400" t="s">
+      <c r="A21" s="403" t="s">
         <v>579</v>
       </c>
-      <c r="B21" s="400"/>
-      <c r="C21" s="400"/>
+      <c r="B21" s="403"/>
+      <c r="C21" s="403"/>
       <c r="D21" s="333"/>
       <c r="E21" s="333"/>
       <c r="F21" s="333"/>
@@ -25827,11 +26123,11 @@
       <c r="H21" s="333"/>
     </row>
     <row r="22" spans="1:15" ht="26.25" customHeight="1">
-      <c r="A22" s="400" t="s">
+      <c r="A22" s="403" t="s">
         <v>431</v>
       </c>
-      <c r="B22" s="400"/>
-      <c r="C22" s="400"/>
+      <c r="B22" s="403"/>
+      <c r="C22" s="403"/>
       <c r="D22" s="334"/>
       <c r="E22" s="335"/>
       <c r="F22" s="335"/>
@@ -25869,15 +26165,15 @@
       <c r="C25" s="336"/>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="404" t="s">
+      <c r="A26" s="401" t="s">
         <v>581</v>
       </c>
-      <c r="B26" s="404"/>
-      <c r="C26" s="404"/>
-      <c r="D26" s="404"/>
-      <c r="E26" s="404"/>
-      <c r="F26" s="404"/>
-      <c r="G26" s="404"/>
+      <c r="B26" s="401"/>
+      <c r="C26" s="401"/>
+      <c r="D26" s="401"/>
+      <c r="E26" s="401"/>
+      <c r="F26" s="401"/>
+      <c r="G26" s="401"/>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="338"/>
@@ -25890,29 +26186,29 @@
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="340"/>
-      <c r="B28" s="401" t="s">
+      <c r="B28" s="404" t="s">
         <v>582</v>
       </c>
-      <c r="C28" s="401"/>
-      <c r="D28" s="401"/>
-      <c r="E28" s="401"/>
-      <c r="F28" s="401"/>
-      <c r="G28" s="401"/>
+      <c r="C28" s="404"/>
+      <c r="D28" s="404"/>
+      <c r="E28" s="404"/>
+      <c r="F28" s="404"/>
+      <c r="G28" s="404"/>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="341"/>
-      <c r="B29" s="402" t="s">
+      <c r="B29" s="405" t="s">
         <v>180</v>
       </c>
-      <c r="C29" s="402"/>
-      <c r="D29" s="402" t="s">
+      <c r="C29" s="405"/>
+      <c r="D29" s="405" t="s">
         <v>181</v>
       </c>
-      <c r="E29" s="402"/>
-      <c r="F29" s="402" t="s">
+      <c r="E29" s="405"/>
+      <c r="F29" s="405" t="s">
         <v>435</v>
       </c>
-      <c r="G29" s="402"/>
+      <c r="G29" s="405"/>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="342" t="s">
@@ -26133,48 +26429,48 @@
       <c r="G39" s="339"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="400" t="s">
+      <c r="A40" s="403" t="s">
         <v>606</v>
       </c>
-      <c r="B40" s="400"/>
-      <c r="C40" s="400"/>
-      <c r="D40" s="400"/>
-      <c r="E40" s="400"/>
-      <c r="F40" s="400"/>
-      <c r="G40" s="400"/>
+      <c r="B40" s="403"/>
+      <c r="C40" s="403"/>
+      <c r="D40" s="403"/>
+      <c r="E40" s="403"/>
+      <c r="F40" s="403"/>
+      <c r="G40" s="403"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="400" t="s">
+      <c r="A41" s="403" t="s">
         <v>579</v>
       </c>
-      <c r="B41" s="400"/>
-      <c r="C41" s="400"/>
-      <c r="D41" s="400"/>
-      <c r="E41" s="400"/>
-      <c r="F41" s="400"/>
-      <c r="G41" s="400"/>
+      <c r="B41" s="403"/>
+      <c r="C41" s="403"/>
+      <c r="D41" s="403"/>
+      <c r="E41" s="403"/>
+      <c r="F41" s="403"/>
+      <c r="G41" s="403"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="400" t="s">
+      <c r="A42" s="403" t="s">
         <v>431</v>
       </c>
-      <c r="B42" s="400"/>
-      <c r="C42" s="400"/>
-      <c r="D42" s="400"/>
-      <c r="E42" s="400"/>
-      <c r="F42" s="400"/>
-      <c r="G42" s="400"/>
+      <c r="B42" s="403"/>
+      <c r="C42" s="403"/>
+      <c r="D42" s="403"/>
+      <c r="E42" s="403"/>
+      <c r="F42" s="403"/>
+      <c r="G42" s="403"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="400" t="s">
+      <c r="A43" s="403" t="s">
         <v>607</v>
       </c>
-      <c r="B43" s="400"/>
-      <c r="C43" s="400"/>
-      <c r="D43" s="400"/>
-      <c r="E43" s="400"/>
-      <c r="F43" s="400"/>
-      <c r="G43" s="400"/>
+      <c r="B43" s="403"/>
+      <c r="C43" s="403"/>
+      <c r="D43" s="403"/>
+      <c r="E43" s="403"/>
+      <c r="F43" s="403"/>
+      <c r="G43" s="403"/>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="339"/>
@@ -26198,12 +26494,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A26:G26"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
     <mergeCell ref="A42:G42"/>
     <mergeCell ref="A43:G43"/>
     <mergeCell ref="B28:G28"/>
@@ -26212,6 +26502,12 @@
     <mergeCell ref="F29:G29"/>
     <mergeCell ref="A40:G40"/>
     <mergeCell ref="A41:G41"/>
+    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Population/data/Population Indicators.xlsx
+++ b/Population/data/Population Indicators.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\JusticeCOVID\Population\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E3BCC48-028F-4E4C-B708-E625F06FC3BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55880A6D-A95B-4275-8E43-3C05F8DD9C21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{B9AFA079-0671-40AD-860D-809D829A87F1}"/>
   </bookViews>
@@ -45,7 +45,7 @@
     <author>Andy</author>
   </authors>
   <commentList>
-    <comment ref="D74" authorId="0" shapeId="0" xr:uid="{40D01B5A-3F51-41F3-99FD-9B17EF165BBC}">
+    <comment ref="D76" authorId="0" shapeId="0" xr:uid="{40D01B5A-3F51-41F3-99FD-9B17EF165BBC}">
       <text>
         <r>
           <rPr>
@@ -59,7 +59,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F74" authorId="0" shapeId="0" xr:uid="{37F09249-CCAA-4FB7-A8E3-F7CAB87E4943}">
+    <comment ref="F76" authorId="0" shapeId="0" xr:uid="{37F09249-CCAA-4FB7-A8E3-F7CAB87E4943}">
       <text>
         <r>
           <rPr>
@@ -73,7 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H74" authorId="0" shapeId="0" xr:uid="{70BA0359-8ABC-4DA5-B5CA-8A699B3BAC39}">
+    <comment ref="H76" authorId="0" shapeId="0" xr:uid="{70BA0359-8ABC-4DA5-B5CA-8A699B3BAC39}">
       <text>
         <r>
           <rPr>
@@ -87,7 +87,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O74" authorId="0" shapeId="0" xr:uid="{3FBCE7B4-B9E1-4D04-B3F2-12B3B681F779}">
+    <comment ref="O76" authorId="0" shapeId="0" xr:uid="{3FBCE7B4-B9E1-4D04-B3F2-12B3B681F779}">
       <text>
         <r>
           <rPr>
@@ -101,7 +101,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q74" authorId="0" shapeId="0" xr:uid="{B13B0F71-D787-47A8-B82C-6466B7E42A00}">
+    <comment ref="Q76" authorId="0" shapeId="0" xr:uid="{B13B0F71-D787-47A8-B82C-6466B7E42A00}">
       <text>
         <r>
           <rPr>
@@ -115,7 +115,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S74" authorId="0" shapeId="0" xr:uid="{6DDAC677-19B2-4075-B842-94C3CA45A39B}">
+    <comment ref="S76" authorId="0" shapeId="0" xr:uid="{6DDAC677-19B2-4075-B842-94C3CA45A39B}">
       <text>
         <r>
           <rPr>
@@ -1794,7 +1794,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="614">
   <si>
     <t>&lt; 10</t>
   </si>
@@ -3763,6 +3763,9 @@
   </si>
   <si>
     <t>Combined Pop</t>
+  </si>
+  <si>
+    <t>70+</t>
   </si>
 </sst>
 </file>
@@ -5201,7 +5204,7 @@
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="427">
+  <cellXfs count="432">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -5846,11 +5849,28 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="26" xfId="35" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="38" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="3" fontId="38" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="38" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="38" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="38" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="38" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="38" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="60" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="60" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="60" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="38" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="38" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5861,31 +5881,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="38" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="38" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="38" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="38" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="38" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="38" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -5896,99 +5898,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="24" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="42" fillId="35" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="35" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="35" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="35" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="35" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="59" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="55" xfId="35" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="56" xfId="35" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="41" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="37" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="37" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="38" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="38" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="38" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="38" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="38" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="38" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="38" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="38" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -6008,13 +5917,112 @@
     <xf numFmtId="3" fontId="38" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="38" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="38" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="60" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="60" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="60" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="38" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="38" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="38" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="38" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="24" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="35" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="35" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="35" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="42" fillId="35" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="35" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="59" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="55" xfId="35" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="56" xfId="35" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="24" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="37" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="37" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="38" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="38" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="38" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="38" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="73">
     <cellStyle name="20% - Accent1" xfId="17" builtinId="30" customBuiltin="1"/>
@@ -6412,10 +6420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69445D4F-6ED8-41C8-8CD1-A1D8E95413A8}">
-  <dimension ref="A2:AJ158"/>
+  <dimension ref="A2:AJ160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="Q84" sqref="Q84"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U21" sqref="U21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6434,18 +6442,18 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="B3" s="364" t="s">
+      <c r="B3" s="377" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="366"/>
-      <c r="D3" s="364" t="s">
+      <c r="C3" s="379"/>
+      <c r="D3" s="377" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="366"/>
-      <c r="F3" s="364" t="s">
+      <c r="E3" s="379"/>
+      <c r="F3" s="377" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="366"/>
+      <c r="G3" s="379"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
@@ -6722,11 +6730,11 @@
       <c r="A16" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="H16" s="364" t="s">
+      <c r="H16" s="377" t="s">
         <v>279</v>
       </c>
-      <c r="I16" s="365"/>
-      <c r="J16" s="366"/>
+      <c r="I16" s="378"/>
+      <c r="J16" s="379"/>
     </row>
     <row r="17" spans="1:14">
       <c r="B17" s="178" t="s">
@@ -7406,86 +7414,86 @@
       <c r="A43" s="295" t="s">
         <v>528</v>
       </c>
-      <c r="B43" s="376" t="s">
+      <c r="B43" s="383" t="s">
         <v>434</v>
       </c>
-      <c r="C43" s="377"/>
-      <c r="D43" s="377"/>
-      <c r="E43" s="377"/>
-      <c r="F43" s="377"/>
-      <c r="G43" s="377"/>
-      <c r="H43" s="377"/>
-      <c r="I43" s="377"/>
-      <c r="J43" s="378"/>
-      <c r="K43" s="364" t="s">
+      <c r="C43" s="384"/>
+      <c r="D43" s="384"/>
+      <c r="E43" s="384"/>
+      <c r="F43" s="384"/>
+      <c r="G43" s="384"/>
+      <c r="H43" s="384"/>
+      <c r="I43" s="384"/>
+      <c r="J43" s="385"/>
+      <c r="K43" s="377" t="s">
         <v>237</v>
       </c>
-      <c r="L43" s="365"/>
-      <c r="M43" s="365"/>
-      <c r="N43" s="365"/>
-      <c r="O43" s="365"/>
-      <c r="P43" s="365"/>
-      <c r="Q43" s="365"/>
-      <c r="R43" s="365"/>
-      <c r="S43" s="366"/>
-      <c r="T43" s="367" t="s">
+      <c r="L43" s="378"/>
+      <c r="M43" s="378"/>
+      <c r="N43" s="378"/>
+      <c r="O43" s="378"/>
+      <c r="P43" s="378"/>
+      <c r="Q43" s="378"/>
+      <c r="R43" s="378"/>
+      <c r="S43" s="379"/>
+      <c r="T43" s="382" t="s">
         <v>525</v>
       </c>
-      <c r="U43" s="367"/>
-      <c r="V43" s="367"/>
-      <c r="W43" s="367"/>
-      <c r="X43" s="367"/>
-      <c r="Y43" s="367"/>
-      <c r="Z43" s="367"/>
-      <c r="AA43" s="367"/>
-      <c r="AB43" s="367"/>
+      <c r="U43" s="382"/>
+      <c r="V43" s="382"/>
+      <c r="W43" s="382"/>
+      <c r="X43" s="382"/>
+      <c r="Y43" s="382"/>
+      <c r="Z43" s="382"/>
+      <c r="AA43" s="382"/>
+      <c r="AB43" s="382"/>
     </row>
     <row r="44" spans="1:28" ht="15" customHeight="1">
-      <c r="B44" s="367" t="s">
+      <c r="B44" s="382" t="s">
         <v>180</v>
       </c>
-      <c r="C44" s="367"/>
-      <c r="D44" s="367"/>
-      <c r="E44" s="367" t="s">
+      <c r="C44" s="382"/>
+      <c r="D44" s="382"/>
+      <c r="E44" s="382" t="s">
         <v>181</v>
       </c>
-      <c r="F44" s="367"/>
-      <c r="G44" s="367"/>
-      <c r="H44" s="367" t="s">
+      <c r="F44" s="382"/>
+      <c r="G44" s="382"/>
+      <c r="H44" s="382" t="s">
         <v>435</v>
       </c>
-      <c r="I44" s="367"/>
-      <c r="J44" s="367"/>
-      <c r="K44" s="375" t="s">
+      <c r="I44" s="382"/>
+      <c r="J44" s="382"/>
+      <c r="K44" s="392" t="s">
         <v>180</v>
       </c>
-      <c r="L44" s="375"/>
-      <c r="M44" s="375"/>
-      <c r="N44" s="375" t="s">
+      <c r="L44" s="392"/>
+      <c r="M44" s="392"/>
+      <c r="N44" s="392" t="s">
         <v>181</v>
       </c>
-      <c r="O44" s="375"/>
-      <c r="P44" s="375"/>
-      <c r="Q44" s="364" t="s">
+      <c r="O44" s="392"/>
+      <c r="P44" s="392"/>
+      <c r="Q44" s="377" t="s">
         <v>435</v>
       </c>
-      <c r="R44" s="365"/>
-      <c r="S44" s="366"/>
-      <c r="T44" s="367" t="s">
+      <c r="R44" s="378"/>
+      <c r="S44" s="379"/>
+      <c r="T44" s="382" t="s">
         <v>180</v>
       </c>
-      <c r="U44" s="367"/>
-      <c r="V44" s="367"/>
-      <c r="W44" s="367" t="s">
+      <c r="U44" s="382"/>
+      <c r="V44" s="382"/>
+      <c r="W44" s="382" t="s">
         <v>181</v>
       </c>
-      <c r="X44" s="367"/>
-      <c r="Y44" s="367"/>
-      <c r="Z44" s="367" t="s">
+      <c r="X44" s="382"/>
+      <c r="Y44" s="382"/>
+      <c r="Z44" s="382" t="s">
         <v>435</v>
       </c>
-      <c r="AA44" s="367"/>
-      <c r="AB44" s="367"/>
+      <c r="AA44" s="382"/>
+      <c r="AB44" s="382"/>
     </row>
     <row r="45" spans="1:28">
       <c r="B45" s="66" t="s">
@@ -8465,53 +8473,53 @@
       <c r="A58" s="295" t="s">
         <v>529</v>
       </c>
-      <c r="B58" s="367">
+      <c r="B58" s="382">
         <v>2019</v>
       </c>
-      <c r="C58" s="367"/>
-      <c r="D58" s="364">
-        <v>2018</v>
-      </c>
-      <c r="E58" s="365"/>
-      <c r="F58" s="365"/>
-      <c r="G58" s="365"/>
-      <c r="H58" s="366"/>
-      <c r="I58" s="364">
+      <c r="C58" s="382"/>
+      <c r="D58" s="377">
+        <v>2016</v>
+      </c>
+      <c r="E58" s="378"/>
+      <c r="F58" s="378"/>
+      <c r="G58" s="378"/>
+      <c r="H58" s="379"/>
+      <c r="I58" s="377">
         <v>2019</v>
       </c>
-      <c r="J58" s="365"/>
-      <c r="K58" s="365"/>
-      <c r="L58" s="365"/>
-      <c r="M58" s="365"/>
-      <c r="N58" s="366"/>
-      <c r="O58" s="364">
-        <v>2018</v>
-      </c>
-      <c r="P58" s="365"/>
-      <c r="Q58" s="365"/>
-      <c r="R58" s="365"/>
-      <c r="S58" s="366"/>
-      <c r="T58" s="364">
+      <c r="J58" s="378"/>
+      <c r="K58" s="378"/>
+      <c r="L58" s="378"/>
+      <c r="M58" s="378"/>
+      <c r="N58" s="379"/>
+      <c r="O58" s="377">
+        <v>2016</v>
+      </c>
+      <c r="P58" s="378"/>
+      <c r="Q58" s="378"/>
+      <c r="R58" s="378"/>
+      <c r="S58" s="379"/>
+      <c r="T58" s="377">
         <v>2019</v>
       </c>
-      <c r="U58" s="365"/>
-      <c r="V58" s="365"/>
-      <c r="W58" s="365"/>
-      <c r="X58" s="365"/>
-      <c r="Y58" s="366"/>
-      <c r="Z58" s="366">
-        <v>2018</v>
-      </c>
-      <c r="AA58" s="367"/>
-      <c r="AB58" s="367"/>
-      <c r="AC58" s="364">
+      <c r="U58" s="378"/>
+      <c r="V58" s="378"/>
+      <c r="W58" s="378"/>
+      <c r="X58" s="378"/>
+      <c r="Y58" s="379"/>
+      <c r="Z58" s="379">
+        <v>2016</v>
+      </c>
+      <c r="AA58" s="382"/>
+      <c r="AB58" s="382"/>
+      <c r="AC58" s="377">
         <v>2019</v>
       </c>
-      <c r="AD58" s="365"/>
-      <c r="AE58" s="365"/>
-      <c r="AF58" s="365"/>
-      <c r="AG58" s="365"/>
-      <c r="AH58" s="366"/>
+      <c r="AD58" s="378"/>
+      <c r="AE58" s="378"/>
+      <c r="AF58" s="378"/>
+      <c r="AG58" s="378"/>
+      <c r="AH58" s="379"/>
       <c r="AI58" s="172" t="s">
         <v>262</v>
       </c>
@@ -8523,49 +8531,49 @@
       <c r="C59" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="D59" s="364" t="s">
+      <c r="D59" s="377" t="s">
         <v>251</v>
       </c>
-      <c r="E59" s="365"/>
-      <c r="F59" s="365"/>
-      <c r="G59" s="365"/>
-      <c r="H59" s="366"/>
-      <c r="I59" s="364" t="s">
+      <c r="E59" s="378"/>
+      <c r="F59" s="378"/>
+      <c r="G59" s="378"/>
+      <c r="H59" s="379"/>
+      <c r="I59" s="377" t="s">
         <v>165</v>
       </c>
-      <c r="J59" s="365"/>
-      <c r="K59" s="365"/>
-      <c r="L59" s="365"/>
-      <c r="M59" s="365"/>
-      <c r="N59" s="366"/>
-      <c r="O59" s="364" t="s">
+      <c r="J59" s="378"/>
+      <c r="K59" s="378"/>
+      <c r="L59" s="378"/>
+      <c r="M59" s="378"/>
+      <c r="N59" s="379"/>
+      <c r="O59" s="377" t="s">
         <v>239</v>
       </c>
-      <c r="P59" s="365"/>
-      <c r="Q59" s="365"/>
-      <c r="R59" s="365"/>
-      <c r="S59" s="366"/>
-      <c r="T59" s="364" t="s">
+      <c r="P59" s="378"/>
+      <c r="Q59" s="378"/>
+      <c r="R59" s="378"/>
+      <c r="S59" s="379"/>
+      <c r="T59" s="377" t="s">
         <v>164</v>
       </c>
-      <c r="U59" s="365"/>
-      <c r="V59" s="365"/>
-      <c r="W59" s="365"/>
-      <c r="X59" s="365"/>
-      <c r="Y59" s="366"/>
-      <c r="Z59" s="365" t="s">
+      <c r="U59" s="378"/>
+      <c r="V59" s="378"/>
+      <c r="W59" s="378"/>
+      <c r="X59" s="378"/>
+      <c r="Y59" s="379"/>
+      <c r="Z59" s="378" t="s">
         <v>261</v>
       </c>
-      <c r="AA59" s="365"/>
-      <c r="AB59" s="366"/>
-      <c r="AC59" s="364" t="s">
+      <c r="AA59" s="378"/>
+      <c r="AB59" s="379"/>
+      <c r="AC59" s="377" t="s">
         <v>260</v>
       </c>
-      <c r="AD59" s="365"/>
-      <c r="AE59" s="365"/>
-      <c r="AF59" s="365"/>
-      <c r="AG59" s="365"/>
-      <c r="AH59" s="366"/>
+      <c r="AD59" s="378"/>
+      <c r="AE59" s="378"/>
+      <c r="AF59" s="378"/>
+      <c r="AG59" s="378"/>
+      <c r="AH59" s="379"/>
       <c r="AI59" s="20">
         <f>SUM(H64:H68)</f>
         <v>17700241</v>
@@ -8607,19 +8615,19 @@
       <c r="N60" s="182" t="s">
         <v>252</v>
       </c>
-      <c r="O60" s="406" t="s">
+      <c r="O60" s="362" t="s">
         <v>9</v>
       </c>
-      <c r="P60" s="421" t="s">
+      <c r="P60" s="369" t="s">
         <v>300</v>
       </c>
-      <c r="Q60" s="406" t="s">
+      <c r="Q60" s="362" t="s">
         <v>10</v>
       </c>
-      <c r="R60" s="421" t="s">
+      <c r="R60" s="369" t="s">
         <v>300</v>
       </c>
-      <c r="S60" s="406" t="s">
+      <c r="S60" s="362" t="s">
         <v>11</v>
       </c>
       <c r="T60" s="112" t="s">
@@ -8687,7 +8695,7 @@
         <f>'A&amp;TSI Pop'!L9</f>
         <v>1516001</v>
       </c>
-      <c r="E61" s="412">
+      <c r="E61" s="367">
         <f>D61/SUM($D$61:$D$68)</f>
         <v>0.13063764398783725</v>
       </c>
@@ -8695,7 +8703,7 @@
         <f>'A&amp;TSI Pop'!L27</f>
         <v>1437218</v>
       </c>
-      <c r="G61" s="412">
+      <c r="G61" s="367">
         <f>F61/SUM($F$61:$F$68)</f>
         <v>0.12192299300402208</v>
       </c>
@@ -8707,23 +8715,23 @@
       <c r="K61" s="58"/>
       <c r="M61" s="58"/>
       <c r="N61" s="74"/>
-      <c r="O61" s="420">
+      <c r="O61" s="368">
         <f>'A&amp;TSI Pop'!H9</f>
         <v>96111</v>
       </c>
-      <c r="P61" s="412">
+      <c r="P61" s="367">
         <f>O61/SUM($O$61:$O$68)</f>
         <v>0.24123459826863078</v>
       </c>
-      <c r="Q61" s="409">
+      <c r="Q61" s="365">
         <f>'A&amp;TSI Pop'!H27</f>
         <v>91577</v>
       </c>
-      <c r="R61" s="412">
+      <c r="R61" s="367">
         <f>Q61/SUM($Q$61:$Q$68)</f>
         <v>0.22896997639716765</v>
       </c>
-      <c r="S61" s="410">
+      <c r="S61" s="366">
         <f>'A&amp;TSI Pop'!H45</f>
         <v>187688</v>
       </c>
@@ -8767,23 +8775,23 @@
         <f>'AU Pop'!H22</f>
         <v>9.5612474089386751E-2</v>
       </c>
-      <c r="D62" s="373">
+      <c r="D62" s="398">
         <f>'A&amp;TSI Pop'!L11</f>
         <v>1405253</v>
       </c>
-      <c r="E62" s="411">
+      <c r="E62" s="375">
         <f t="shared" ref="E62:E68" si="12">D62/SUM($D$61:$D$68)</f>
         <v>0.12109420846479671</v>
       </c>
-      <c r="F62" s="368">
+      <c r="F62" s="380">
         <f>'A&amp;TSI Pop'!L29</f>
         <v>1333829</v>
       </c>
-      <c r="G62" s="411">
-        <f t="shared" ref="G62:G68" si="13">F62/SUM($F$61:$F$68)</f>
+      <c r="G62" s="375">
+        <f t="shared" ref="G62:G70" si="13">F62/SUM($F$61:$F$68)</f>
         <v>0.11315223148858543</v>
       </c>
-      <c r="H62" s="407">
+      <c r="H62" s="363">
         <f>'A&amp;TSI Pop'!L47</f>
         <v>2739082</v>
       </c>
@@ -8791,23 +8799,23 @@
       <c r="K62" s="58"/>
       <c r="M62" s="58"/>
       <c r="N62" s="74"/>
-      <c r="O62" s="414">
+      <c r="O62" s="386">
         <f>'A&amp;TSI Pop'!H11</f>
         <v>85770</v>
       </c>
-      <c r="P62" s="411">
-        <f t="shared" ref="P62:P68" si="14">O62/SUM($O$61:$O$68)</f>
+      <c r="P62" s="375">
+        <f t="shared" ref="P62:P70" si="14">O62/SUM($O$61:$O$68)</f>
         <v>0.21527911990823592</v>
       </c>
-      <c r="Q62" s="416">
+      <c r="Q62" s="388">
         <f>'A&amp;TSI Pop'!H29</f>
         <v>81992</v>
       </c>
-      <c r="R62" s="411">
-        <f t="shared" ref="R62:R68" si="15">Q62/SUM($Q$61:$Q$68)</f>
+      <c r="R62" s="375">
+        <f t="shared" ref="R62:R70" si="15">Q62/SUM($Q$61:$Q$68)</f>
         <v>0.20500460055206624</v>
       </c>
-      <c r="S62" s="418">
+      <c r="S62" s="390">
         <f>'A&amp;TSI Pop'!H47</f>
         <v>167762</v>
       </c>
@@ -8815,15 +8823,15 @@
       <c r="V62" s="58"/>
       <c r="X62" s="74"/>
       <c r="Y62" s="74"/>
-      <c r="Z62" s="368">
+      <c r="Z62" s="380">
         <f>O62+D62</f>
         <v>1491023</v>
       </c>
-      <c r="AA62" s="370">
+      <c r="AA62" s="395">
         <f>Q62+F62</f>
         <v>1415821</v>
       </c>
-      <c r="AB62" s="372">
+      <c r="AB62" s="397">
         <f>S62+H62</f>
         <v>2906844</v>
       </c>
@@ -8847,11 +8855,11 @@
         <f>'AU Pop'!H25</f>
         <v>2.4952286703894818E-2</v>
       </c>
-      <c r="D63" s="374"/>
-      <c r="E63" s="413"/>
-      <c r="F63" s="369"/>
-      <c r="G63" s="413"/>
-      <c r="H63" s="408"/>
+      <c r="D63" s="399"/>
+      <c r="E63" s="376"/>
+      <c r="F63" s="381"/>
+      <c r="G63" s="376"/>
+      <c r="H63" s="364"/>
       <c r="I63" s="80">
         <f>'Prison Pop'!L58</f>
         <v>353</v>
@@ -8861,15 +8869,15 @@
         <v>23</v>
       </c>
       <c r="M63" s="80">
-        <f>SUM(I63,K63)</f>
+        <f t="shared" ref="M63:M68" si="16">SUM(I63,K63)</f>
         <v>376</v>
       </c>
       <c r="N63" s="74"/>
-      <c r="O63" s="415"/>
-      <c r="P63" s="413"/>
-      <c r="Q63" s="417"/>
-      <c r="R63" s="413"/>
-      <c r="S63" s="419"/>
+      <c r="O63" s="387"/>
+      <c r="P63" s="376"/>
+      <c r="Q63" s="389"/>
+      <c r="R63" s="376"/>
+      <c r="S63" s="391"/>
       <c r="T63" s="80">
         <f>'Prison Pop'!L6</f>
         <v>348</v>
@@ -8879,23 +8887,23 @@
         <v>30</v>
       </c>
       <c r="X63" s="80">
-        <f>SUM(T63,V63)</f>
+        <f t="shared" ref="X63:X68" si="17">SUM(T63,V63)</f>
         <v>378</v>
       </c>
       <c r="Y63" s="74"/>
-      <c r="Z63" s="369"/>
-      <c r="AA63" s="371"/>
-      <c r="AB63" s="371"/>
+      <c r="Z63" s="381"/>
+      <c r="AA63" s="396"/>
+      <c r="AB63" s="396"/>
       <c r="AC63" s="80">
-        <f>T63+I63</f>
+        <f t="shared" ref="AC63:AC68" si="18">T63+I63</f>
         <v>701</v>
       </c>
       <c r="AE63" s="80">
-        <f>V63+K63</f>
+        <f t="shared" ref="AE63:AE68" si="19">V63+K63</f>
         <v>53</v>
       </c>
       <c r="AG63" s="80">
-        <f>SUM(AC63,AE63)</f>
+        <f t="shared" ref="AG63:AG68" si="20">SUM(AC63,AE63)</f>
         <v>754</v>
       </c>
       <c r="AH63" s="74"/>
@@ -8953,7 +8961,7 @@
         <v>0.42061870494975945</v>
       </c>
       <c r="M64" s="105">
-        <f>SUM(I64,K64)</f>
+        <f t="shared" si="16"/>
         <v>8439</v>
       </c>
       <c r="N64" s="186">
@@ -8997,7 +9005,7 @@
         <v>6.6125864059618236</v>
       </c>
       <c r="X64" s="105">
-        <f>SUM(T64,V64)</f>
+        <f t="shared" si="17"/>
         <v>4604</v>
       </c>
       <c r="Y64" s="186">
@@ -9017,7 +9025,7 @@
         <v>3508370</v>
       </c>
       <c r="AC64" s="103">
-        <f>T64+I64</f>
+        <f t="shared" si="18"/>
         <v>11900</v>
       </c>
       <c r="AD64" s="191">
@@ -9025,7 +9033,7 @@
         <v>6.7128897072221099</v>
       </c>
       <c r="AE64" s="180">
-        <f>V64+K64</f>
+        <f t="shared" si="19"/>
         <v>1143</v>
       </c>
       <c r="AF64" s="218">
@@ -9033,7 +9041,7 @@
         <v>0.65853873538669128</v>
       </c>
       <c r="AG64" s="105">
-        <f>SUM(AC64,AE64)</f>
+        <f t="shared" si="20"/>
         <v>13043</v>
       </c>
       <c r="AH64" s="194">
@@ -9090,7 +9098,7 @@
         <v>0.48676986027054281</v>
       </c>
       <c r="M65" s="105">
-        <f>SUM(I65,K65)</f>
+        <f t="shared" si="16"/>
         <v>10529</v>
       </c>
       <c r="N65" s="187">
@@ -9134,7 +9142,7 @@
         <v>9.1412277759141229</v>
       </c>
       <c r="X65" s="105">
-        <f>SUM(T65,V65)</f>
+        <f t="shared" si="17"/>
         <v>4055</v>
       </c>
       <c r="Y65" s="187">
@@ -9154,7 +9162,7 @@
         <v>3401547</v>
       </c>
       <c r="AC65" s="103">
-        <f>T65+I65</f>
+        <f t="shared" si="18"/>
         <v>13340</v>
       </c>
       <c r="AD65" s="192">
@@ -9162,7 +9170,7 @@
         <v>7.8751824899390703</v>
       </c>
       <c r="AE65" s="180">
-        <f>V65+K65</f>
+        <f t="shared" si="19"/>
         <v>1244</v>
       </c>
       <c r="AF65" s="219">
@@ -9170,7 +9178,7 @@
         <v>0.72850016807037643</v>
       </c>
       <c r="AG65" s="105">
-        <f>SUM(AC65,AE65)</f>
+        <f t="shared" si="20"/>
         <v>14584</v>
       </c>
       <c r="AH65" s="195">
@@ -9230,7 +9238,7 @@
         <v>0.32781799444467818</v>
       </c>
       <c r="M66" s="105">
-        <f>SUM(I66,K66)</f>
+        <f t="shared" si="16"/>
         <v>6767</v>
       </c>
       <c r="N66" s="187">
@@ -9274,7 +9282,7 @@
         <v>4.4733013398188959</v>
       </c>
       <c r="X66" s="105">
-        <f>SUM(T66,V66)</f>
+        <f t="shared" si="17"/>
         <v>2073</v>
       </c>
       <c r="Y66" s="187">
@@ -9294,7 +9302,7 @@
         <v>3231706</v>
       </c>
       <c r="AC66" s="103">
-        <f>T66+I66</f>
+        <f t="shared" si="18"/>
         <v>8112</v>
       </c>
       <c r="AD66" s="192">
@@ -9302,7 +9310,7 @@
         <v>5.0912943385710738</v>
       </c>
       <c r="AE66" s="180">
-        <f>V66+K66</f>
+        <f t="shared" si="19"/>
         <v>728</v>
       </c>
       <c r="AF66" s="219">
@@ -9310,7 +9318,7 @@
         <v>0.44433647990292957</v>
       </c>
       <c r="AG66" s="105">
-        <f>SUM(AC66,AE66)</f>
+        <f t="shared" si="20"/>
         <v>8840</v>
       </c>
       <c r="AH66" s="195">
@@ -9339,7 +9347,7 @@
         <v>1454427</v>
       </c>
       <c r="E67" s="100">
-        <f t="shared" si="12"/>
+        <f>D67/SUM($D$61:$D$68)</f>
         <v>0.12533165653076628</v>
       </c>
       <c r="F67" s="109">
@@ -9371,7 +9379,7 @@
         <v>0.1550864357276549</v>
       </c>
       <c r="M67" s="105">
-        <f>SUM(I67,K67)</f>
+        <f t="shared" si="16"/>
         <v>3118</v>
       </c>
       <c r="N67" s="187">
@@ -9415,7 +9423,7 @@
         <v>1.240240155593765</v>
       </c>
       <c r="X67" s="105">
-        <f>SUM(T67,V67)</f>
+        <f t="shared" si="17"/>
         <v>642</v>
       </c>
       <c r="Y67" s="187">
@@ -9435,7 +9443,7 @@
         <v>3024391</v>
       </c>
       <c r="AC67" s="103">
-        <f>T67+I67</f>
+        <f t="shared" si="18"/>
         <v>3483</v>
       </c>
       <c r="AD67" s="192">
@@ -9443,7 +9451,7 @@
         <v>2.3430468084648366</v>
       </c>
       <c r="AE67" s="180">
-        <f>V67+K67</f>
+        <f t="shared" si="19"/>
         <v>277</v>
       </c>
       <c r="AF67" s="219">
@@ -9451,7 +9459,7 @@
         <v>0.18011984146852941</v>
       </c>
       <c r="AG67" s="105">
-        <f>SUM(AC67,AE67)</f>
+        <f t="shared" si="20"/>
         <v>3760</v>
       </c>
       <c r="AH67" s="195">
@@ -9511,7 +9519,7 @@
         <v>2.0823355475501321E-2</v>
       </c>
       <c r="M68" s="79">
-        <f>SUM(I68,K68)</f>
+        <f t="shared" si="16"/>
         <v>1917</v>
       </c>
       <c r="N68" s="188">
@@ -9555,7 +9563,7 @@
         <v>9.8463962189838522E-2</v>
       </c>
       <c r="X68" s="79">
-        <f>SUM(T68,V68)</f>
+        <f t="shared" si="17"/>
         <v>123</v>
       </c>
       <c r="Y68" s="188">
@@ -9575,7 +9583,7 @@
         <v>4977142</v>
       </c>
       <c r="AC68" s="104">
-        <f>T68+I68</f>
+        <f t="shared" si="18"/>
         <v>1983</v>
       </c>
       <c r="AD68" s="193">
@@ -9583,7 +9591,7 @@
         <v>0.84259923379982948</v>
       </c>
       <c r="AE68" s="181">
-        <f>V68+K68</f>
+        <f t="shared" si="19"/>
         <v>57</v>
       </c>
       <c r="AF68" s="220">
@@ -9591,7 +9599,7 @@
         <v>2.1724961981316532E-2</v>
       </c>
       <c r="AG68" s="79">
-        <f>SUM(AC68,AE68)</f>
+        <f t="shared" si="20"/>
         <v>2040</v>
       </c>
       <c r="AH68" s="196">
@@ -9606,1105 +9614,1201 @@
         <v>263</v>
       </c>
     </row>
-    <row r="69" spans="1:36">
+    <row r="69" spans="1:36" s="301" customFormat="1">
+      <c r="A69" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69" s="184"/>
+      <c r="C69" s="56"/>
+      <c r="D69" s="106">
+        <f>'A&amp;TSI Pop'!L21</f>
+        <v>1208712</v>
+      </c>
+      <c r="E69" s="367">
+        <f>D69/SUM($D$61:$D$68)</f>
+        <v>0.10415777294330726</v>
+      </c>
+      <c r="F69" s="168">
+        <f>'A&amp;TSI Pop'!L39</f>
+        <v>1251412</v>
+      </c>
+      <c r="G69" s="367">
+        <f t="shared" si="13"/>
+        <v>0.1061605800380661</v>
+      </c>
+      <c r="H69" s="163">
+        <f>'A&amp;TSI Pop'!L57</f>
+        <v>2460124</v>
+      </c>
+      <c r="I69" s="180"/>
+      <c r="J69" s="216"/>
+      <c r="K69" s="180"/>
+      <c r="L69" s="216"/>
+      <c r="M69" s="180"/>
+      <c r="N69" s="427"/>
+      <c r="O69" s="106">
+        <f>'A&amp;TSI Pop'!H21</f>
+        <v>17984</v>
+      </c>
+      <c r="P69" s="367">
+        <f t="shared" si="14"/>
+        <v>4.5139089336944327E-2</v>
+      </c>
+      <c r="Q69" s="168">
+        <f>'A&amp;TSI Pop'!H39</f>
+        <v>19856</v>
+      </c>
+      <c r="R69" s="367">
+        <f t="shared" si="15"/>
+        <v>4.9645957514901785E-2</v>
+      </c>
+      <c r="S69" s="163">
+        <f>'A&amp;TSI Pop'!H57</f>
+        <v>37840</v>
+      </c>
+      <c r="T69" s="180"/>
+      <c r="U69" s="216"/>
+      <c r="V69" s="180"/>
+      <c r="W69" s="216"/>
+      <c r="X69" s="180"/>
+      <c r="Y69" s="427"/>
+      <c r="Z69" s="161">
+        <f>O69+D69</f>
+        <v>1226696</v>
+      </c>
+      <c r="AA69" s="163">
+        <f>Q69+F69</f>
+        <v>1271268</v>
+      </c>
+      <c r="AB69" s="163">
+        <f>S69+H69</f>
+        <v>2497964</v>
+      </c>
+      <c r="AC69" s="180"/>
+      <c r="AD69" s="216"/>
+      <c r="AE69" s="180"/>
+      <c r="AF69" s="216"/>
+      <c r="AG69" s="180"/>
+      <c r="AH69" s="216"/>
       <c r="AI69" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="70" spans="1:36">
-      <c r="A70" s="295" t="s">
-        <v>530</v>
-      </c>
-      <c r="B70" s="367">
-        <v>2019</v>
-      </c>
-      <c r="C70" s="367"/>
-      <c r="D70" s="364">
-        <v>2018</v>
-      </c>
-      <c r="E70" s="365"/>
-      <c r="F70" s="365"/>
-      <c r="G70" s="365"/>
-      <c r="H70" s="366"/>
-      <c r="I70" s="364">
-        <v>2019</v>
-      </c>
-      <c r="J70" s="365"/>
-      <c r="K70" s="365"/>
-      <c r="L70" s="365"/>
-      <c r="M70" s="365"/>
-      <c r="N70" s="366"/>
-      <c r="O70" s="364">
-        <v>2018</v>
-      </c>
-      <c r="P70" s="365"/>
-      <c r="Q70" s="365"/>
-      <c r="R70" s="365"/>
-      <c r="S70" s="366"/>
-      <c r="T70" s="364">
-        <v>2019</v>
-      </c>
-      <c r="U70" s="365"/>
-      <c r="V70" s="365"/>
-      <c r="W70" s="365"/>
-      <c r="X70" s="365"/>
-      <c r="Y70" s="366"/>
-      <c r="Z70" s="367">
-        <v>2018</v>
-      </c>
-      <c r="AA70" s="367"/>
-      <c r="AB70" s="367"/>
-      <c r="AC70" s="364">
-        <v>2019</v>
-      </c>
-      <c r="AD70" s="365"/>
-      <c r="AE70" s="365"/>
-      <c r="AF70" s="365"/>
-      <c r="AG70" s="365"/>
-      <c r="AH70" s="366"/>
+    <row r="70" spans="1:36" s="301" customFormat="1">
+      <c r="A70" s="72" t="s">
+        <v>613</v>
+      </c>
+      <c r="B70" s="184"/>
+      <c r="C70" s="56"/>
+      <c r="D70" s="166">
+        <f>'A&amp;TSI Pop'!L23</f>
+        <v>1118752</v>
+      </c>
+      <c r="E70" s="428">
+        <f>D70/SUM($D$61:$D$68)</f>
+        <v>9.6405692005929355E-2</v>
+      </c>
+      <c r="F70" s="429">
+        <f>'A&amp;TSI Pop'!L41</f>
+        <v>1341830</v>
+      </c>
+      <c r="G70" s="428">
+        <f t="shared" si="13"/>
+        <v>0.11383097741789133</v>
+      </c>
+      <c r="H70" s="430">
+        <f>'A&amp;TSI Pop'!L59</f>
+        <v>2460582</v>
+      </c>
+      <c r="I70" s="180"/>
+      <c r="J70" s="216"/>
+      <c r="K70" s="180"/>
+      <c r="L70" s="216"/>
+      <c r="M70" s="180"/>
+      <c r="N70" s="427"/>
+      <c r="O70" s="166">
+        <f>'A&amp;TSI Pop'!H23</f>
+        <v>7984</v>
+      </c>
+      <c r="P70" s="428">
+        <f t="shared" si="14"/>
+        <v>2.0039506743002863E-2</v>
+      </c>
+      <c r="Q70" s="429">
+        <f>'A&amp;TSI Pop'!H41</f>
+        <v>10612</v>
+      </c>
+      <c r="R70" s="428">
+        <f t="shared" si="15"/>
+        <v>2.6533183982077848E-2</v>
+      </c>
+      <c r="S70" s="430">
+        <f>'A&amp;TSI Pop'!H59</f>
+        <v>18596</v>
+      </c>
+      <c r="T70" s="180"/>
+      <c r="U70" s="216"/>
+      <c r="V70" s="180"/>
+      <c r="W70" s="216"/>
+      <c r="X70" s="180"/>
+      <c r="Y70" s="427"/>
+      <c r="Z70" s="431">
+        <f>O70+D70</f>
+        <v>1126736</v>
+      </c>
+      <c r="AA70" s="430">
+        <f>Q70+F70</f>
+        <v>1352442</v>
+      </c>
+      <c r="AB70" s="430">
+        <f>S70+H70</f>
+        <v>2479178</v>
+      </c>
+      <c r="AC70" s="180"/>
+      <c r="AD70" s="216"/>
+      <c r="AE70" s="180"/>
+      <c r="AF70" s="216"/>
+      <c r="AG70" s="180"/>
+      <c r="AH70" s="216"/>
       <c r="AI70" s="214">
         <f>AI68/(AI66/1000)</f>
         <v>51.915153020331211</v>
       </c>
     </row>
-    <row r="71" spans="1:36">
-      <c r="B71" s="59" t="s">
+    <row r="72" spans="1:36">
+      <c r="A72" s="295" t="s">
+        <v>530</v>
+      </c>
+      <c r="B72" s="382">
+        <v>2019</v>
+      </c>
+      <c r="C72" s="382"/>
+      <c r="D72" s="377">
+        <v>2016</v>
+      </c>
+      <c r="E72" s="378"/>
+      <c r="F72" s="378"/>
+      <c r="G72" s="378"/>
+      <c r="H72" s="379"/>
+      <c r="I72" s="377">
+        <v>2019</v>
+      </c>
+      <c r="J72" s="378"/>
+      <c r="K72" s="378"/>
+      <c r="L72" s="378"/>
+      <c r="M72" s="378"/>
+      <c r="N72" s="379"/>
+      <c r="O72" s="377">
+        <v>2016</v>
+      </c>
+      <c r="P72" s="378"/>
+      <c r="Q72" s="378"/>
+      <c r="R72" s="378"/>
+      <c r="S72" s="379"/>
+      <c r="T72" s="377">
+        <v>2019</v>
+      </c>
+      <c r="U72" s="378"/>
+      <c r="V72" s="378"/>
+      <c r="W72" s="378"/>
+      <c r="X72" s="378"/>
+      <c r="Y72" s="379"/>
+      <c r="Z72" s="382">
+        <v>2016</v>
+      </c>
+      <c r="AA72" s="382"/>
+      <c r="AB72" s="382"/>
+      <c r="AC72" s="377">
+        <v>2019</v>
+      </c>
+      <c r="AD72" s="378"/>
+      <c r="AE72" s="378"/>
+      <c r="AF72" s="378"/>
+      <c r="AG72" s="378"/>
+      <c r="AH72" s="379"/>
+    </row>
+    <row r="73" spans="1:36">
+      <c r="B73" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="C71" s="59" t="s">
+      <c r="C73" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="D71" s="364" t="s">
+      <c r="D73" s="377" t="s">
         <v>251</v>
       </c>
-      <c r="E71" s="365"/>
-      <c r="F71" s="365"/>
-      <c r="G71" s="365"/>
-      <c r="H71" s="366"/>
-      <c r="I71" s="364" t="s">
+      <c r="E73" s="378"/>
+      <c r="F73" s="378"/>
+      <c r="G73" s="378"/>
+      <c r="H73" s="379"/>
+      <c r="I73" s="377" t="s">
         <v>165</v>
       </c>
-      <c r="J71" s="365"/>
-      <c r="K71" s="365"/>
-      <c r="L71" s="365"/>
-      <c r="M71" s="365"/>
-      <c r="N71" s="366"/>
-      <c r="O71" s="364" t="s">
+      <c r="J73" s="378"/>
+      <c r="K73" s="378"/>
+      <c r="L73" s="378"/>
+      <c r="M73" s="378"/>
+      <c r="N73" s="379"/>
+      <c r="O73" s="377" t="s">
         <v>239</v>
       </c>
-      <c r="P71" s="365"/>
-      <c r="Q71" s="365"/>
-      <c r="R71" s="365"/>
-      <c r="S71" s="366"/>
-      <c r="T71" s="364" t="s">
+      <c r="P73" s="378"/>
+      <c r="Q73" s="378"/>
+      <c r="R73" s="378"/>
+      <c r="S73" s="379"/>
+      <c r="T73" s="377" t="s">
         <v>164</v>
       </c>
-      <c r="U71" s="365"/>
-      <c r="V71" s="365"/>
-      <c r="W71" s="365"/>
-      <c r="X71" s="365"/>
-      <c r="Y71" s="366"/>
-      <c r="Z71" s="364" t="s">
+      <c r="U73" s="378"/>
+      <c r="V73" s="378"/>
+      <c r="W73" s="378"/>
+      <c r="X73" s="378"/>
+      <c r="Y73" s="379"/>
+      <c r="Z73" s="377" t="s">
         <v>612</v>
       </c>
-      <c r="AA71" s="365"/>
-      <c r="AB71" s="366"/>
-      <c r="AC71" s="364" t="s">
+      <c r="AA73" s="378"/>
+      <c r="AB73" s="379"/>
+      <c r="AC73" s="377" t="s">
         <v>260</v>
       </c>
-      <c r="AD71" s="365"/>
-      <c r="AE71" s="365"/>
-      <c r="AF71" s="365"/>
-      <c r="AG71" s="365"/>
-      <c r="AH71" s="366"/>
-    </row>
-    <row r="72" spans="1:36">
-      <c r="B72" s="3"/>
-      <c r="C72" s="74"/>
-      <c r="D72" s="77" t="s">
+      <c r="AD73" s="378"/>
+      <c r="AE73" s="378"/>
+      <c r="AF73" s="378"/>
+      <c r="AG73" s="378"/>
+      <c r="AH73" s="379"/>
+    </row>
+    <row r="74" spans="1:36">
+      <c r="B74" s="3"/>
+      <c r="C74" s="74"/>
+      <c r="D74" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="E72" s="59" t="s">
+      <c r="E74" s="59" t="s">
         <v>300</v>
       </c>
-      <c r="F72" s="77" t="s">
+      <c r="F74" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="G72" s="422" t="s">
+      <c r="G74" s="370" t="s">
         <v>300</v>
       </c>
-      <c r="H72" s="172" t="s">
+      <c r="H74" s="172" t="s">
         <v>11</v>
       </c>
-      <c r="I72" s="112" t="s">
+      <c r="I74" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="J72" s="182" t="s">
+      <c r="J74" s="182" t="s">
         <v>252</v>
       </c>
-      <c r="K72" s="112" t="s">
+      <c r="K74" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="L72" s="182" t="s">
+      <c r="L74" s="182" t="s">
         <v>252</v>
       </c>
-      <c r="M72" s="182" t="s">
+      <c r="M74" s="182" t="s">
         <v>11</v>
       </c>
-      <c r="N72" s="182" t="s">
+      <c r="N74" s="182" t="s">
         <v>252</v>
       </c>
-      <c r="O72" s="112" t="s">
+      <c r="O74" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="P72" s="172" t="s">
+      <c r="P74" s="172" t="s">
         <v>300</v>
       </c>
-      <c r="Q72" s="112" t="s">
+      <c r="Q74" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="R72" s="172" t="s">
+      <c r="R74" s="172" t="s">
         <v>300</v>
       </c>
-      <c r="S72" s="112" t="s">
+      <c r="S74" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="T72" s="77" t="s">
+      <c r="T74" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="U72" s="182" t="s">
+      <c r="U74" s="182" t="s">
         <v>252</v>
       </c>
-      <c r="V72" s="77" t="s">
+      <c r="V74" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="W72" s="182" t="s">
+      <c r="W74" s="182" t="s">
         <v>252</v>
       </c>
-      <c r="X72" s="172" t="s">
+      <c r="X74" s="172" t="s">
         <v>11</v>
       </c>
-      <c r="Y72" s="172" t="s">
+      <c r="Y74" s="172" t="s">
         <v>252</v>
       </c>
-      <c r="Z72" s="59" t="s">
+      <c r="Z74" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="AA72" s="59" t="s">
+      <c r="AA74" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="AB72" s="59" t="s">
+      <c r="AB74" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="AC72" s="77" t="s">
+      <c r="AC74" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="AD72" s="182" t="s">
+      <c r="AD74" s="182" t="s">
         <v>252</v>
       </c>
-      <c r="AE72" s="77" t="s">
+      <c r="AE74" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="AF72" s="182" t="s">
+      <c r="AF74" s="182" t="s">
         <v>252</v>
       </c>
-      <c r="AG72" s="172" t="s">
+      <c r="AG74" s="172" t="s">
         <v>11</v>
       </c>
-      <c r="AH72" s="172" t="s">
+      <c r="AH74" s="172" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="73" spans="1:36">
-      <c r="A73" s="72" t="s">
+    <row r="75" spans="1:36">
+      <c r="A75" s="72" t="s">
         <v>202</v>
       </c>
-      <c r="B73" s="106">
+      <c r="B75" s="106">
         <f>'AU Pop'!E22</f>
         <v>5611075</v>
       </c>
-      <c r="C73" s="102">
+      <c r="C75" s="102">
         <f>'AU Pop'!F22</f>
         <v>0.22120830632986735</v>
       </c>
-      <c r="D73" s="161">
+      <c r="D75" s="161">
         <f>'A&amp;TSI Pop'!M11</f>
         <v>2921254</v>
       </c>
-      <c r="E73" s="423">
-        <f>D73/SUM($D$73:$D$78)</f>
+      <c r="E75" s="371">
+        <f t="shared" ref="E75:E80" si="21">D75/SUM($D$75:$D$80)</f>
         <v>0.25173185245263396</v>
       </c>
-      <c r="F73" s="161">
+      <c r="F75" s="161">
         <f>'A&amp;TSI Pop'!M29</f>
         <v>2771047</v>
       </c>
-      <c r="G73" s="423">
-        <f>F73/SUM($F$73:$F$78)</f>
+      <c r="G75" s="371">
+        <f t="shared" ref="G75:G80" si="22">F75/SUM($F$75:$F$80)</f>
         <v>0.23507522449260751</v>
       </c>
-      <c r="H73" s="161">
+      <c r="H75" s="161">
         <f>'A&amp;TSI Pop'!M47</f>
         <v>5692301</v>
       </c>
-      <c r="O73" s="171">
+      <c r="O75" s="171">
         <f>'A&amp;TSI Pop'!J11</f>
         <v>181881</v>
       </c>
-      <c r="P73" s="423">
-        <f>O73/SUM($O$73:$O$78)</f>
+      <c r="P75" s="371">
+        <f>O75/SUM($O$75:$O$80)</f>
         <v>0.4565137181768667</v>
       </c>
-      <c r="Q73" s="171">
+      <c r="Q75" s="171">
         <f>'A&amp;TSI Pop'!J29</f>
         <v>173569</v>
       </c>
-      <c r="R73" s="412">
-        <f>Q73/SUM($Q$73:$Q$78)</f>
+      <c r="R75" s="367">
+        <f>Q75/SUM($Q$75:$Q$80)</f>
         <v>0.43397457694923391</v>
       </c>
-      <c r="S73" s="177">
+      <c r="S75" s="177">
         <f>'A&amp;TSI Pop'!J47</f>
         <v>355450</v>
       </c>
-      <c r="T73" s="158"/>
-      <c r="V73" s="159"/>
-      <c r="X73" s="159"/>
-      <c r="Y73" s="160"/>
-      <c r="Z73" s="168">
-        <f>O73+D73</f>
+      <c r="T75" s="158"/>
+      <c r="V75" s="159"/>
+      <c r="X75" s="159"/>
+      <c r="Y75" s="160"/>
+      <c r="Z75" s="168">
+        <f t="shared" ref="Z75:Z80" si="23">O75+D75</f>
         <v>3103135</v>
       </c>
-      <c r="AA73" s="168">
-        <f>Q73+F73</f>
+      <c r="AA75" s="168">
+        <f t="shared" ref="AA75:AA80" si="24">Q75+F75</f>
         <v>2944616</v>
       </c>
-      <c r="AB73" s="163">
-        <f>S73+H73</f>
+      <c r="AB75" s="163">
+        <f t="shared" ref="AB75:AB80" si="25">S75+H75</f>
         <v>6047751</v>
       </c>
-      <c r="AC73" s="158"/>
-      <c r="AE73" s="159"/>
-      <c r="AG73" s="159"/>
-      <c r="AH73" s="160"/>
-    </row>
-    <row r="74" spans="1:36">
-      <c r="A74" s="1" t="s">
+      <c r="AC75" s="158"/>
+      <c r="AE75" s="159"/>
+      <c r="AG75" s="159"/>
+      <c r="AH75" s="160"/>
+    </row>
+    <row r="76" spans="1:36">
+      <c r="A76" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B74" s="107">
+      <c r="B76" s="107">
         <f>'AU Pop'!E31</f>
         <v>2391969</v>
       </c>
-      <c r="C74" s="55">
+      <c r="C76" s="55">
         <f>'AU Pop'!F31</f>
         <v>9.4299828692994928E-2</v>
       </c>
-      <c r="D74" s="108">
+      <c r="D76" s="108">
         <f>'A&amp;TSI Pop'!M12</f>
         <v>826809</v>
       </c>
-      <c r="E74" s="424">
-        <f>D74/SUM($D$73:$D$78)</f>
+      <c r="E76" s="372">
+        <f t="shared" si="21"/>
         <v>7.1248224630418938E-2</v>
       </c>
-      <c r="F74" s="108">
+      <c r="F76" s="108">
         <f>'A&amp;TSI Pop'!M30</f>
         <v>793203</v>
       </c>
-      <c r="G74" s="424">
-        <f>F74/SUM($F$73:$F$78)</f>
+      <c r="G76" s="372">
+        <f t="shared" si="22"/>
         <v>6.7289502232625337E-2</v>
       </c>
-      <c r="H74" s="108">
+      <c r="H76" s="108">
         <f>'A&amp;TSI Pop'!M48</f>
         <v>1620012</v>
       </c>
-      <c r="I74" s="170">
+      <c r="I76" s="170">
         <f>'Prison Pop'!M59</f>
         <v>3234</v>
       </c>
-      <c r="J74" s="174">
-        <f>I74/(D74/1000)</f>
+      <c r="J76" s="174">
+        <f>I76/(D76/1000)</f>
         <v>3.9114233154210951</v>
       </c>
-      <c r="K74" s="108">
+      <c r="K76" s="108">
         <f>'Prison Pop'!M76</f>
         <v>323</v>
       </c>
-      <c r="L74" s="174">
-        <f>K74/(F74/1000)</f>
+      <c r="L76" s="174">
+        <f>K76/(F76/1000)</f>
         <v>0.40720975588846742</v>
       </c>
-      <c r="M74" s="108">
-        <f>SUM(I74:K74)</f>
+      <c r="M76" s="108">
+        <f>SUM(I76:K76)</f>
         <v>3560.911423315421</v>
       </c>
-      <c r="N74" s="174">
-        <f>M74/(H74/1000)</f>
+      <c r="N76" s="174">
+        <f>M76/(H76/1000)</f>
         <v>2.1980771891291058</v>
       </c>
-      <c r="O74" s="109">
+      <c r="O76" s="109">
         <f>'A&amp;TSI Pop'!J12</f>
         <v>38165</v>
       </c>
-      <c r="P74" s="424">
-        <f>O74/SUM($O$73:$O$78)</f>
+      <c r="P76" s="372">
+        <f>O76/SUM($O$75:$O$80)</f>
         <v>9.5792556969777592E-2</v>
       </c>
-      <c r="Q74" s="107">
+      <c r="Q76" s="107">
         <f>'A&amp;TSI Pop'!J30</f>
         <v>35897</v>
       </c>
-      <c r="R74" s="424">
-        <f t="shared" ref="R74:R78" si="16">Q74/SUM($Q$73:$Q$78)</f>
+      <c r="R76" s="372">
+        <f t="shared" ref="R76:R80" si="26">Q76/SUM($Q$75:$Q$80)</f>
         <v>8.9753270392447099E-2</v>
       </c>
-      <c r="S74" s="164">
+      <c r="S76" s="164">
         <f>'A&amp;TSI Pop'!J48</f>
         <v>74062</v>
       </c>
-      <c r="T74" s="109">
+      <c r="T76" s="109">
         <f>'Prison Pop'!M7</f>
         <v>2257</v>
       </c>
-      <c r="U74" s="174">
-        <f>T74/(O74/1000)</f>
+      <c r="U76" s="174">
+        <f>T76/(O76/1000)</f>
         <v>59.137953622428931</v>
       </c>
-      <c r="V74" s="109">
+      <c r="V76" s="109">
         <f>'Prison Pop'!M24</f>
         <v>228</v>
       </c>
-      <c r="W74" s="174">
-        <f>V74/(Q74/1000)</f>
+      <c r="W76" s="174">
+        <f>V76/(Q76/1000)</f>
         <v>6.3515056968548906</v>
       </c>
-      <c r="X74" s="109">
-        <f>SUM(T74:V74)</f>
+      <c r="X76" s="109">
+        <f>SUM(T76:V76)</f>
         <v>2544.137953622429</v>
       </c>
-      <c r="Y74" s="175">
-        <f>X74/(S74/1000)</f>
+      <c r="Y76" s="175">
+        <f>X76/(S76/1000)</f>
         <v>34.351461662153724</v>
       </c>
-      <c r="Z74" s="108">
-        <f>O74+D74</f>
+      <c r="Z76" s="108">
+        <f t="shared" si="23"/>
         <v>864974</v>
       </c>
-      <c r="AA74" s="170">
-        <f>Q74+F74</f>
+      <c r="AA76" s="170">
+        <f t="shared" si="24"/>
         <v>829100</v>
       </c>
-      <c r="AB74" s="183">
-        <f>S74+H74</f>
+      <c r="AB76" s="183">
+        <f t="shared" si="25"/>
         <v>1694074</v>
       </c>
-      <c r="AC74" s="103">
-        <f>T74+I74</f>
+      <c r="AC76" s="103">
+        <f>T76+I76</f>
         <v>5491</v>
       </c>
-      <c r="AD74" s="174">
-        <f>AC74/(Z74/1000)</f>
+      <c r="AD76" s="174">
+        <f>AC76/(Z76/1000)</f>
         <v>6.348167690589543</v>
       </c>
-      <c r="AE74" s="180">
-        <f>V74+K74</f>
+      <c r="AE76" s="180">
+        <f>V76+K76</f>
         <v>551</v>
       </c>
-      <c r="AF74" s="174">
-        <f>AE74/(AA74/1000)</f>
+      <c r="AF76" s="174">
+        <f>AE76/(AA76/1000)</f>
         <v>0.66457604631528167</v>
       </c>
-      <c r="AG74" s="180">
-        <f>SUM(AC74:AE74)</f>
+      <c r="AG76" s="180">
+        <f>SUM(AC76:AE76)</f>
         <v>6048.3481676905894</v>
       </c>
-      <c r="AH74" s="174">
-        <f>AG74/(AB74/1000)</f>
+      <c r="AH76" s="174">
+        <f>AG76/(AB76/1000)</f>
         <v>3.5702975003987953</v>
       </c>
     </row>
-    <row r="75" spans="1:36">
-      <c r="A75" s="1" t="s">
+    <row r="77" spans="1:36">
+      <c r="A77" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B75" s="107">
+      <c r="B77" s="107">
         <f>'AU Pop'!E43</f>
         <v>3800500</v>
       </c>
-      <c r="C75" s="55">
+      <c r="C77" s="55">
         <f>'AU Pop'!F43</f>
         <v>0.1498290734318577</v>
       </c>
-      <c r="D75" s="109">
+      <c r="D77" s="109">
         <f>'A&amp;TSI Pop'!M14</f>
         <v>1742567</v>
       </c>
-      <c r="E75" s="425">
-        <f>D75/SUM($D$73:$D$78)</f>
+      <c r="E77" s="373">
+        <f t="shared" si="21"/>
         <v>0.15016140976882839</v>
       </c>
-      <c r="F75" s="109">
+      <c r="F77" s="109">
         <f>'A&amp;TSI Pop'!M32</f>
         <v>1752002</v>
       </c>
-      <c r="G75" s="425">
-        <f>F75/SUM($F$73:$F$78)</f>
+      <c r="G77" s="373">
+        <f t="shared" si="22"/>
         <v>0.14862694983574704</v>
       </c>
-      <c r="H75" s="109">
+      <c r="H77" s="109">
         <f>'A&amp;TSI Pop'!M50</f>
         <v>3494569</v>
       </c>
-      <c r="I75" s="164">
+      <c r="I77" s="164">
         <f>'Prison Pop'!M61</f>
         <v>9950</v>
       </c>
-      <c r="J75" s="175">
-        <f>I75/(D75/1000)</f>
+      <c r="J77" s="175">
+        <f>I77/(D77/1000)</f>
         <v>5.7099669625328611</v>
       </c>
-      <c r="K75" s="109">
+      <c r="K77" s="109">
         <f>'Prison Pop'!M78</f>
         <v>831</v>
       </c>
-      <c r="L75" s="175">
-        <f>K75/(F75/1000)</f>
+      <c r="L77" s="175">
+        <f>K77/(F77/1000)</f>
         <v>0.47431452703821114</v>
       </c>
-      <c r="M75" s="109">
-        <f>SUM(I75:K75)</f>
+      <c r="M77" s="109">
+        <f>SUM(I77:K77)</f>
         <v>10786.709966962533</v>
       </c>
-      <c r="N75" s="175">
-        <f>M75/(H75/1000)</f>
+      <c r="N77" s="175">
+        <f>M77/(H77/1000)</f>
         <v>3.086706820487028</v>
       </c>
-      <c r="O75" s="109">
+      <c r="O77" s="109">
         <f>'A&amp;TSI Pop'!J14</f>
         <v>57229</v>
       </c>
-      <c r="P75" s="425">
-        <f>O75/SUM($O$73:$O$78)</f>
+      <c r="P77" s="373">
+        <f>O77/SUM($O$75:$O$80)</f>
         <v>0.14364240122686761</v>
       </c>
-      <c r="Q75" s="107">
+      <c r="Q77" s="107">
         <f>'A&amp;TSI Pop'!J32</f>
         <v>56583</v>
       </c>
-      <c r="R75" s="425">
-        <f t="shared" si="16"/>
+      <c r="R77" s="373">
+        <f t="shared" si="26"/>
         <v>0.14147447693723247</v>
       </c>
-      <c r="S75" s="164">
+      <c r="S77" s="164">
         <f>'A&amp;TSI Pop'!J50</f>
         <v>113812</v>
       </c>
-      <c r="T75" s="109">
+      <c r="T77" s="109">
         <f>'Prison Pop'!M9</f>
         <v>4271</v>
       </c>
-      <c r="U75" s="175">
-        <f>T75/(O75/1000)</f>
+      <c r="U77" s="175">
+        <f>T77/(O77/1000)</f>
         <v>74.629995282112219</v>
       </c>
-      <c r="V75" s="109">
+      <c r="V77" s="109">
         <f>'Prison Pop'!M26</f>
         <v>462</v>
       </c>
-      <c r="W75" s="175">
-        <f>V75/(Q75/1000)</f>
+      <c r="W77" s="175">
+        <f>V77/(Q77/1000)</f>
         <v>8.1649965537352216</v>
       </c>
-      <c r="X75" s="109">
-        <f>SUM(T75:V75)</f>
+      <c r="X77" s="109">
+        <f>SUM(T77:V77)</f>
         <v>4807.6299952821118</v>
       </c>
-      <c r="Y75" s="175">
-        <f>X75/(S75/1000)</f>
+      <c r="Y77" s="175">
+        <f>X77/(S77/1000)</f>
         <v>42.241854947475765</v>
       </c>
-      <c r="Z75" s="109">
-        <f>O75+D75</f>
+      <c r="Z77" s="109">
+        <f t="shared" si="23"/>
         <v>1799796</v>
       </c>
-      <c r="AA75" s="164">
-        <f>Q75+F75</f>
+      <c r="AA77" s="164">
+        <f t="shared" si="24"/>
         <v>1808585</v>
       </c>
-      <c r="AB75" s="184">
-        <f>S75+H75</f>
+      <c r="AB77" s="184">
+        <f t="shared" si="25"/>
         <v>3608381</v>
       </c>
-      <c r="AC75" s="103">
-        <f>T75+I75</f>
+      <c r="AC77" s="103">
+        <f>T77+I77</f>
         <v>14221</v>
       </c>
-      <c r="AD75" s="175">
-        <f t="shared" ref="AD75:AD78" si="17">AC75/(Z75/1000)</f>
+      <c r="AD77" s="175">
+        <f t="shared" ref="AD77:AD80" si="27">AC77/(Z77/1000)</f>
         <v>7.9014510533416011</v>
       </c>
-      <c r="AE75" s="180">
-        <f>V75+K75</f>
+      <c r="AE77" s="180">
+        <f>V77+K77</f>
         <v>1293</v>
       </c>
-      <c r="AF75" s="175">
-        <f t="shared" ref="AF75:AF78" si="18">AE75/(AA75/1000)</f>
+      <c r="AF77" s="175">
+        <f t="shared" ref="AF77:AF80" si="28">AE77/(AA77/1000)</f>
         <v>0.71492354520246493</v>
       </c>
-      <c r="AG75" s="180">
-        <f>SUM(AC75:AE75)</f>
+      <c r="AG77" s="180">
+        <f>SUM(AC77:AE77)</f>
         <v>15521.901451053342</v>
       </c>
-      <c r="AH75" s="175">
-        <f t="shared" ref="AH75:AH78" si="19">AG75/(AB75/1000)</f>
+      <c r="AH77" s="175">
+        <f t="shared" ref="AH77:AH80" si="29">AG77/(AB77/1000)</f>
         <v>4.3016248702820858</v>
       </c>
     </row>
-    <row r="76" spans="1:36">
-      <c r="A76" s="1" t="s">
+    <row r="78" spans="1:36">
+      <c r="A78" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B76" s="107">
+      <c r="B78" s="107">
         <f>'AU Pop'!E55</f>
         <v>3377016</v>
       </c>
-      <c r="C76" s="55">
+      <c r="C78" s="55">
         <f>'AU Pop'!F55</f>
         <v>0.13313384508474105</v>
       </c>
-      <c r="D76" s="109">
+      <c r="D78" s="109">
         <f>'A&amp;TSI Pop'!M16</f>
         <v>1566762</v>
       </c>
-      <c r="E76" s="425">
-        <f>D76/SUM($D$73:$D$78)</f>
+      <c r="E78" s="373">
+        <f t="shared" si="21"/>
         <v>0.1350118478613615</v>
       </c>
-      <c r="F76" s="109">
+      <c r="F78" s="109">
         <f>'A&amp;TSI Pop'!M34</f>
         <v>1579694</v>
       </c>
-      <c r="G76" s="425">
-        <f>F76/SUM($F$73:$F$78)</f>
+      <c r="G78" s="373">
+        <f t="shared" si="22"/>
         <v>0.13400960780514554</v>
       </c>
-      <c r="H76" s="109">
+      <c r="H78" s="109">
         <f>'A&amp;TSI Pop'!M52</f>
         <v>3146456</v>
       </c>
-      <c r="I76" s="164">
+      <c r="I78" s="164">
         <f>'Prison Pop'!M63</f>
         <v>8145</v>
       </c>
-      <c r="J76" s="175">
-        <f>I76/(D76/1000)</f>
+      <c r="J78" s="175">
+        <f>I78/(D78/1000)</f>
         <v>5.1986198286657448</v>
       </c>
-      <c r="K76" s="109">
+      <c r="K78" s="109">
         <f>'Prison Pop'!M80</f>
         <v>675</v>
       </c>
-      <c r="L76" s="175">
-        <f>K76/(F76/1000)</f>
+      <c r="L78" s="175">
+        <f>K78/(F78/1000)</f>
         <v>0.42729794504505303</v>
       </c>
-      <c r="M76" s="109">
-        <f>SUM(I76:K76)</f>
+      <c r="M78" s="109">
+        <f>SUM(I78:K78)</f>
         <v>8825.198619828665</v>
       </c>
-      <c r="N76" s="175">
-        <f>M76/(H76/1000)</f>
+      <c r="N78" s="175">
+        <f>M78/(H78/1000)</f>
         <v>2.8048059848377553</v>
       </c>
-      <c r="O76" s="109">
+      <c r="O78" s="109">
         <f>'A&amp;TSI Pop'!J16</f>
         <v>42746</v>
       </c>
-      <c r="P76" s="425">
-        <f t="shared" ref="P76:P78" si="20">O76/SUM($O$73:$O$78)</f>
+      <c r="P78" s="373">
+        <f t="shared" ref="P78:P80" si="30">O78/SUM($O$75:$O$80)</f>
         <v>0.10729067575606217</v>
       </c>
-      <c r="Q76" s="107">
+      <c r="Q78" s="107">
         <f>'A&amp;TSI Pop'!J34</f>
         <v>45036</v>
       </c>
-      <c r="R76" s="425">
-        <f t="shared" si="16"/>
+      <c r="R78" s="373">
+        <f t="shared" si="26"/>
         <v>0.11260351242149058</v>
       </c>
-      <c r="S76" s="164">
+      <c r="S78" s="164">
         <f>'A&amp;TSI Pop'!J52</f>
         <v>87782</v>
       </c>
-      <c r="T76" s="109">
+      <c r="T78" s="109">
         <f>'Prison Pop'!M11</f>
         <v>2723</v>
       </c>
-      <c r="U76" s="175">
-        <f>T76/(O76/1000)</f>
+      <c r="U78" s="175">
+        <f>T78/(O78/1000)</f>
         <v>63.701866841341875</v>
       </c>
-      <c r="V76" s="109">
+      <c r="V78" s="109">
         <f>'Prison Pop'!M28</f>
         <v>336</v>
       </c>
-      <c r="W76" s="175">
-        <f>V76/(Q76/1000)</f>
+      <c r="W78" s="175">
+        <f>V78/(Q78/1000)</f>
         <v>7.4606981081801225</v>
       </c>
-      <c r="X76" s="109">
-        <f>SUM(T76:V76)</f>
+      <c r="X78" s="109">
+        <f>SUM(T78:V78)</f>
         <v>3122.7018668413421</v>
       </c>
-      <c r="Y76" s="175">
-        <f>X76/(S76/1000)</f>
+      <c r="Y78" s="175">
+        <f>X78/(S78/1000)</f>
         <v>35.573373434660205</v>
       </c>
-      <c r="Z76" s="109">
-        <f>O76+D76</f>
+      <c r="Z78" s="109">
+        <f t="shared" si="23"/>
         <v>1609508</v>
       </c>
-      <c r="AA76" s="164">
-        <f>Q76+F76</f>
+      <c r="AA78" s="164">
+        <f t="shared" si="24"/>
         <v>1624730</v>
       </c>
-      <c r="AB76" s="184">
-        <f>S76+H76</f>
+      <c r="AB78" s="184">
+        <f t="shared" si="25"/>
         <v>3234238</v>
       </c>
-      <c r="AC76" s="103">
-        <f>T76+I76</f>
+      <c r="AC78" s="103">
+        <f>T78+I78</f>
         <v>10868</v>
       </c>
-      <c r="AD76" s="175">
-        <f t="shared" si="17"/>
+      <c r="AD78" s="175">
+        <f t="shared" si="27"/>
         <v>6.7523740174015909</v>
       </c>
-      <c r="AE76" s="180">
-        <f>V76+K76</f>
+      <c r="AE78" s="180">
+        <f>V78+K78</f>
         <v>1011</v>
       </c>
-      <c r="AF76" s="175">
-        <f t="shared" si="18"/>
+      <c r="AF78" s="175">
+        <f t="shared" si="28"/>
         <v>0.62225723658700216</v>
       </c>
-      <c r="AG76" s="180">
-        <f>SUM(AC76:AE76)</f>
+      <c r="AG78" s="180">
+        <f>SUM(AC78:AE78)</f>
         <v>11885.752374017402</v>
       </c>
-      <c r="AH76" s="175">
-        <f t="shared" si="19"/>
+      <c r="AH78" s="175">
+        <f t="shared" si="29"/>
         <v>3.674977652855913</v>
       </c>
     </row>
-    <row r="77" spans="1:36">
-      <c r="A77" s="1" t="s">
+    <row r="79" spans="1:36">
+      <c r="A79" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B77" s="107">
+      <c r="B79" s="107">
         <f>'AU Pop'!E67</f>
         <v>3213179</v>
       </c>
-      <c r="C77" s="55">
+      <c r="C79" s="55">
         <f>'AU Pop'!F67</f>
         <v>0.12667481445617762</v>
       </c>
-      <c r="D77" s="109">
+      <c r="D79" s="109">
         <f>'A&amp;TSI Pop'!M18</f>
         <v>1510465</v>
       </c>
-      <c r="E77" s="425">
-        <f>D77/SUM($D$73:$D$78)</f>
+      <c r="E79" s="373">
+        <f t="shared" si="21"/>
         <v>0.1301605928532294</v>
       </c>
-      <c r="F77" s="109">
+      <c r="F79" s="109">
         <f>'A&amp;TSI Pop'!M36</f>
         <v>1562479</v>
       </c>
-      <c r="G77" s="425">
-        <f>F77/SUM($F$73:$F$78)</f>
+      <c r="G79" s="373">
+        <f t="shared" si="22"/>
         <v>0.13254921395775132</v>
       </c>
-      <c r="H77" s="109">
+      <c r="H79" s="109">
         <f>'A&amp;TSI Pop'!M54</f>
         <v>3072944</v>
       </c>
-      <c r="I77" s="164">
+      <c r="I79" s="164">
         <f>'Prison Pop'!M65</f>
         <v>4486</v>
       </c>
-      <c r="J77" s="175">
-        <f>I77/(D77/1000)</f>
+      <c r="J79" s="175">
+        <f>I79/(D79/1000)</f>
         <v>2.9699463410274323</v>
       </c>
-      <c r="K77" s="109">
+      <c r="K79" s="109">
         <f>'Prison Pop'!M82</f>
         <v>363</v>
       </c>
-      <c r="L77" s="175">
-        <f>K77/(F77/1000)</f>
+      <c r="L79" s="175">
+        <f>K79/(F79/1000)</f>
         <v>0.23232312242276534</v>
       </c>
-      <c r="M77" s="109">
-        <f>SUM(I77:K77)</f>
+      <c r="M79" s="109">
+        <f>SUM(I79:K79)</f>
         <v>4851.969946341027</v>
       </c>
-      <c r="N77" s="175">
-        <f>M77/(H77/1000)</f>
+      <c r="N79" s="175">
+        <f>M79/(H79/1000)</f>
         <v>1.5789321075623335</v>
       </c>
-      <c r="O77" s="109">
+      <c r="O79" s="109">
         <f>'A&amp;TSI Pop'!J18</f>
         <v>37991</v>
       </c>
-      <c r="P77" s="425">
-        <f t="shared" si="20"/>
+      <c r="P79" s="373">
+        <f t="shared" si="30"/>
         <v>9.5355824232643008E-2</v>
       </c>
-      <c r="Q77" s="107">
+      <c r="Q79" s="107">
         <f>'A&amp;TSI Pop'!J36</f>
         <v>42471</v>
       </c>
-      <c r="R77" s="425">
-        <f t="shared" si="16"/>
+      <c r="R79" s="373">
+        <f t="shared" si="26"/>
         <v>0.1061902428291395</v>
       </c>
-      <c r="S77" s="164">
+      <c r="S79" s="164">
         <f>'A&amp;TSI Pop'!J54</f>
         <v>80462</v>
       </c>
-      <c r="T77" s="109">
+      <c r="T79" s="109">
         <f>'Prison Pop'!M13</f>
         <v>1155</v>
       </c>
-      <c r="U77" s="175">
-        <f>T77/(O77/1000)</f>
+      <c r="U79" s="175">
+        <f>T79/(O79/1000)</f>
         <v>30.401937300939696</v>
       </c>
-      <c r="V77" s="109">
+      <c r="V79" s="109">
         <f>'Prison Pop'!M30</f>
         <v>115</v>
       </c>
-      <c r="W77" s="175">
-        <f>V77/(Q77/1000)</f>
+      <c r="W79" s="175">
+        <f>V79/(Q79/1000)</f>
         <v>2.7077299804572532</v>
       </c>
-      <c r="X77" s="109">
-        <f>SUM(T77:V77)</f>
+      <c r="X79" s="109">
+        <f>SUM(T79:V79)</f>
         <v>1300.4019373009396</v>
       </c>
-      <c r="Y77" s="175">
-        <f>X77/(S77/1000)</f>
+      <c r="Y79" s="175">
+        <f>X79/(S79/1000)</f>
         <v>16.161690453890525</v>
       </c>
-      <c r="Z77" s="109">
-        <f>O77+D77</f>
+      <c r="Z79" s="109">
+        <f t="shared" si="23"/>
         <v>1548456</v>
       </c>
-      <c r="AA77" s="164">
-        <f>Q77+F77</f>
+      <c r="AA79" s="164">
+        <f t="shared" si="24"/>
         <v>1604950</v>
       </c>
-      <c r="AB77" s="184">
-        <f>S77+H77</f>
+      <c r="AB79" s="184">
+        <f t="shared" si="25"/>
         <v>3153406</v>
       </c>
-      <c r="AC77" s="103">
-        <f>T77+I77</f>
+      <c r="AC79" s="103">
+        <f>T79+I79</f>
         <v>5641</v>
       </c>
-      <c r="AD77" s="175">
-        <f t="shared" si="17"/>
+      <c r="AD79" s="175">
+        <f t="shared" si="27"/>
         <v>3.6429837205577686</v>
       </c>
-      <c r="AE77" s="180">
-        <f>V77+K77</f>
+      <c r="AE79" s="180">
+        <f>V79+K79</f>
         <v>478</v>
       </c>
-      <c r="AF77" s="175">
-        <f t="shared" si="18"/>
+      <c r="AF79" s="175">
+        <f t="shared" si="28"/>
         <v>0.29782859279105267</v>
       </c>
-      <c r="AG77" s="180">
-        <f>SUM(AC77:AE77)</f>
+      <c r="AG79" s="180">
+        <f>SUM(AC79:AE79)</f>
         <v>6122.6429837205578</v>
       </c>
-      <c r="AH77" s="175">
-        <f t="shared" si="19"/>
+      <c r="AH79" s="175">
+        <f t="shared" si="29"/>
         <v>1.9415967952495041</v>
       </c>
     </row>
-    <row r="78" spans="1:36">
-      <c r="A78" s="1" t="s">
+    <row r="80" spans="1:36">
+      <c r="A80" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B78" s="73">
+      <c r="B80" s="73">
         <f>'AU Pop'!E107</f>
         <v>6971832</v>
       </c>
-      <c r="C78" s="7">
+      <c r="C80" s="7">
         <f>'AU Pop'!F107</f>
         <v>0.27485413200436132</v>
       </c>
-      <c r="D78" s="76">
+      <c r="D80" s="76">
         <f>'A&amp;TSI Pop'!M23</f>
         <v>3036769</v>
       </c>
-      <c r="E78" s="426">
-        <f>D78/SUM($D$73:$D$78)</f>
+      <c r="E80" s="374">
+        <f t="shared" si="21"/>
         <v>0.26168607243352782</v>
       </c>
-      <c r="F78" s="76">
+      <c r="F80" s="76">
         <f>'A&amp;TSI Pop'!M41</f>
         <v>3329491</v>
       </c>
-      <c r="G78" s="426">
-        <f>F78/SUM($F$73:$F$78)</f>
+      <c r="G80" s="374">
+        <f t="shared" si="22"/>
         <v>0.28244950167612326</v>
       </c>
-      <c r="H78" s="76">
+      <c r="H80" s="76">
         <f>'A&amp;TSI Pop'!M59</f>
         <v>6366260</v>
       </c>
-      <c r="I78" s="169">
+      <c r="I80" s="169">
         <f>'Prison Pop'!M68</f>
         <v>2989</v>
       </c>
-      <c r="J78" s="176">
-        <f>I78/(D78/1000)</f>
+      <c r="J80" s="176">
+        <f>I80/(D80/1000)</f>
         <v>0.98426979464029041</v>
       </c>
-      <c r="K78" s="76">
+      <c r="K80" s="76">
         <f>'Prison Pop'!M85</f>
         <v>150</v>
       </c>
-      <c r="L78" s="176">
-        <f>K78/(F78/1000)</f>
+      <c r="L80" s="176">
+        <f>K80/(F80/1000)</f>
         <v>4.5051931361280148E-2</v>
       </c>
-      <c r="M78" s="76">
-        <f>SUM(I78:K78)</f>
+      <c r="M80" s="76">
+        <f>SUM(I80:K80)</f>
         <v>3139.9842697946401</v>
       </c>
-      <c r="N78" s="176">
-        <f>M78/(H78/1000)</f>
+      <c r="N80" s="176">
+        <f>M80/(H80/1000)</f>
         <v>0.49322275084502359</v>
       </c>
-      <c r="O78" s="76">
+      <c r="O80" s="76">
         <f>'A&amp;TSI Pop'!J23</f>
         <v>40401</v>
       </c>
-      <c r="P78" s="426">
-        <f t="shared" si="20"/>
+      <c r="P80" s="374">
+        <f t="shared" si="30"/>
         <v>0.1014048236377829</v>
       </c>
-      <c r="Q78" s="73">
+      <c r="Q80" s="73">
         <f>'A&amp;TSI Pop'!J41</f>
         <v>46396</v>
       </c>
-      <c r="R78" s="426">
-        <f t="shared" si="16"/>
+      <c r="R80" s="374">
+        <f t="shared" si="26"/>
         <v>0.11600392047045645</v>
       </c>
-      <c r="S78" s="169">
+      <c r="S80" s="169">
         <f>'A&amp;TSI Pop'!J59</f>
         <v>86797</v>
       </c>
-      <c r="T78" s="76">
+      <c r="T80" s="76">
         <f>'Prison Pop'!M16</f>
         <v>309</v>
       </c>
-      <c r="U78" s="176">
-        <f>T78/(O78/1000)</f>
+      <c r="U80" s="176">
+        <f>T80/(O80/1000)</f>
         <v>7.6483255364966212</v>
       </c>
-      <c r="V78" s="76">
+      <c r="V80" s="76">
         <f>'Prison Pop'!M33</f>
         <v>19</v>
       </c>
-      <c r="W78" s="176">
-        <f>V78/(Q78/1000)</f>
+      <c r="W80" s="176">
+        <f>V80/(Q80/1000)</f>
         <v>0.40951806190188811</v>
       </c>
-      <c r="X78" s="76">
-        <f>SUM(T78:V78)</f>
+      <c r="X80" s="76">
+        <f>SUM(T80:V80)</f>
         <v>335.6483255364966</v>
       </c>
-      <c r="Y78" s="176">
-        <f>X78/(S78/1000)</f>
+      <c r="Y80" s="176">
+        <f>X80/(S80/1000)</f>
         <v>3.8670498466133232</v>
       </c>
-      <c r="Z78" s="76">
-        <f>O78+D78</f>
+      <c r="Z80" s="76">
+        <f t="shared" si="23"/>
         <v>3077170</v>
       </c>
-      <c r="AA78" s="169">
-        <f>Q78+F78</f>
+      <c r="AA80" s="169">
+        <f t="shared" si="24"/>
         <v>3375887</v>
       </c>
-      <c r="AB78" s="185">
-        <f>S78+H78</f>
+      <c r="AB80" s="185">
+        <f t="shared" si="25"/>
         <v>6453057</v>
       </c>
-      <c r="AC78" s="104">
-        <f>T78+I78</f>
+      <c r="AC80" s="104">
+        <f>T80+I80</f>
         <v>3298</v>
       </c>
-      <c r="AD78" s="176">
-        <f t="shared" si="17"/>
+      <c r="AD80" s="176">
+        <f t="shared" si="27"/>
         <v>1.071763990939727</v>
       </c>
-      <c r="AE78" s="181">
-        <f>V78+K78</f>
+      <c r="AE80" s="181">
+        <f>V80+K80</f>
         <v>169</v>
       </c>
-      <c r="AF78" s="176">
-        <f t="shared" si="18"/>
+      <c r="AF80" s="176">
+        <f t="shared" si="28"/>
         <v>5.0060917323358274E-2</v>
       </c>
-      <c r="AG78" s="181">
-        <f>SUM(AC78:AE78)</f>
+      <c r="AG80" s="181">
+        <f>SUM(AC80:AE80)</f>
         <v>3468.0717639909399</v>
       </c>
-      <c r="AH78" s="176">
-        <f t="shared" si="19"/>
+      <c r="AH80" s="176">
+        <f t="shared" si="29"/>
         <v>0.53743082758930227</v>
       </c>
     </row>
-    <row r="80" spans="1:36">
-      <c r="A80" s="295" t="s">
+    <row r="82" spans="1:11">
+      <c r="A82" s="295" t="s">
         <v>531</v>
       </c>
-      <c r="B80" s="158">
+      <c r="B82" s="158">
         <v>2018</v>
       </c>
-      <c r="C80" s="173">
-        <f>802/SUM(Q74:Q78)</f>
+      <c r="C82" s="173">
+        <f>802/SUM(Q76:Q80)</f>
         <v>3.5426688399747331E-3</v>
       </c>
-      <c r="D80" s="159" t="s">
+      <c r="D82" s="159" t="s">
         <v>209</v>
       </c>
-      <c r="E80" s="159"/>
-      <c r="F80" s="159"/>
-      <c r="G80" s="159"/>
-      <c r="H80" s="159"/>
-      <c r="I80" s="159"/>
-      <c r="J80" s="160"/>
-    </row>
-    <row r="81" spans="1:12">
-      <c r="B81" s="364" t="s">
+      <c r="E82" s="159"/>
+      <c r="F82" s="159"/>
+      <c r="G82" s="159"/>
+      <c r="H82" s="159"/>
+      <c r="I82" s="159"/>
+      <c r="J82" s="160"/>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="B83" s="377" t="s">
         <v>210</v>
       </c>
-      <c r="C81" s="365"/>
-      <c r="D81" s="365"/>
-      <c r="E81" s="365"/>
-      <c r="F81" s="365"/>
-      <c r="G81" s="365"/>
-      <c r="H81" s="365"/>
-      <c r="I81" s="365"/>
-      <c r="J81" s="366"/>
-      <c r="K81" s="114"/>
-    </row>
-    <row r="82" spans="1:12">
-      <c r="B82" s="112" t="s">
+      <c r="C83" s="378"/>
+      <c r="D83" s="378"/>
+      <c r="E83" s="378"/>
+      <c r="F83" s="378"/>
+      <c r="G83" s="378"/>
+      <c r="H83" s="378"/>
+      <c r="I83" s="378"/>
+      <c r="J83" s="379"/>
+      <c r="K83" s="114"/>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="B84" s="112" t="s">
         <v>12</v>
       </c>
-      <c r="C82" s="112" t="s">
+      <c r="C84" s="112" t="s">
         <v>13</v>
       </c>
-      <c r="D82" s="112" t="s">
+      <c r="D84" s="112" t="s">
         <v>173</v>
       </c>
-      <c r="E82" s="112" t="s">
+      <c r="E84" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="F82" s="112" t="s">
+      <c r="F84" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="G82" s="112" t="s">
+      <c r="G84" s="112" t="s">
         <v>16</v>
       </c>
-      <c r="H82" s="112" t="s">
+      <c r="H84" s="112" t="s">
         <v>208</v>
       </c>
-      <c r="I82" s="112" t="s">
+      <c r="I84" s="112" t="s">
         <v>211</v>
       </c>
-      <c r="J82" s="59" t="s">
+      <c r="J84" s="59" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="83" spans="1:12">
-      <c r="A83" t="s">
+    <row r="85" spans="1:11">
+      <c r="A85" t="s">
         <v>9</v>
       </c>
-      <c r="B83" s="110">
+      <c r="B85" s="110">
         <v>0.04</v>
       </c>
-      <c r="C83" s="110">
+      <c r="C85" s="110">
         <v>0.06</v>
       </c>
-      <c r="D83" s="110">
+      <c r="D85" s="110">
         <v>0.13</v>
-      </c>
-      <c r="E83" s="352"/>
-      <c r="F83" s="352"/>
-      <c r="G83" s="110">
-        <v>0.01</v>
-      </c>
-      <c r="H83" s="110">
-        <v>0.25</v>
-      </c>
-      <c r="I83" s="110">
-        <v>0.74</v>
-      </c>
-      <c r="J83" s="110">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12">
-      <c r="A84" t="s">
-        <v>10</v>
-      </c>
-      <c r="B84" s="111">
-        <v>0.03</v>
-      </c>
-      <c r="C84" s="111">
-        <v>0.03</v>
-      </c>
-      <c r="D84" s="111">
-        <v>0.27</v>
-      </c>
-      <c r="E84" s="353"/>
-      <c r="F84" s="353"/>
-      <c r="G84" s="111">
-        <v>0</v>
-      </c>
-      <c r="H84" s="111">
-        <v>0.36</v>
-      </c>
-      <c r="I84" s="111">
-        <v>0.86</v>
-      </c>
-      <c r="J84" s="111">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12">
-      <c r="A85" t="s">
-        <v>146</v>
-      </c>
-      <c r="B85" s="110">
-        <v>0.05</v>
-      </c>
-      <c r="C85" s="110">
-        <v>0.09</v>
-      </c>
-      <c r="D85" s="110">
-        <v>0.11</v>
       </c>
       <c r="E85" s="352"/>
       <c r="F85" s="352"/>
@@ -10712,373 +10816,401 @@
         <v>0.01</v>
       </c>
       <c r="H85" s="110">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="I85" s="110">
-        <v>0.8</v>
+        <v>0.74</v>
       </c>
       <c r="J85" s="110">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="B86" s="111">
         <v>0.03</v>
       </c>
       <c r="C86" s="111">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="D86" s="111">
-        <v>0.19</v>
+        <v>0.27</v>
       </c>
       <c r="E86" s="353"/>
       <c r="F86" s="353"/>
       <c r="G86" s="111">
+        <v>0</v>
+      </c>
+      <c r="H86" s="111">
+        <v>0.36</v>
+      </c>
+      <c r="I86" s="111">
+        <v>0.86</v>
+      </c>
+      <c r="J86" s="111">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87" t="s">
+        <v>146</v>
+      </c>
+      <c r="B87" s="110">
+        <v>0.05</v>
+      </c>
+      <c r="C87" s="110">
+        <v>0.09</v>
+      </c>
+      <c r="D87" s="110">
+        <v>0.11</v>
+      </c>
+      <c r="E87" s="352"/>
+      <c r="F87" s="352"/>
+      <c r="G87" s="110">
         <v>0.01</v>
       </c>
-      <c r="H86" s="111">
+      <c r="H87" s="110">
+        <v>0.23</v>
+      </c>
+      <c r="I87" s="110">
+        <v>0.8</v>
+      </c>
+      <c r="J87" s="110">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88" t="s">
+        <v>147</v>
+      </c>
+      <c r="B88" s="111">
+        <v>0.03</v>
+      </c>
+      <c r="C88" s="111">
+        <v>0.04</v>
+      </c>
+      <c r="D88" s="111">
+        <v>0.19</v>
+      </c>
+      <c r="E88" s="353"/>
+      <c r="F88" s="353"/>
+      <c r="G88" s="111">
+        <v>0.01</v>
+      </c>
+      <c r="H88" s="111">
         <v>0.28000000000000003</v>
       </c>
-      <c r="I86" s="111">
+      <c r="I88" s="111">
         <v>0.73</v>
       </c>
-      <c r="J86" s="111">
+      <c r="J88" s="111">
         <v>0.12</v>
       </c>
     </row>
-    <row r="87" spans="1:12">
-      <c r="A87" s="72" t="s">
+    <row r="89" spans="1:11">
+      <c r="A89" s="72" t="s">
         <v>202</v>
       </c>
-      <c r="B87" s="78"/>
-      <c r="C87" s="78"/>
-      <c r="D87" s="78"/>
-      <c r="E87" s="354"/>
-      <c r="F87" s="354"/>
-      <c r="G87" s="78"/>
-      <c r="H87" s="78"/>
-      <c r="I87" s="78"/>
-      <c r="J87" s="78"/>
-    </row>
-    <row r="88" spans="1:12">
-      <c r="A88" s="1" t="s">
+      <c r="B89" s="78"/>
+      <c r="C89" s="78"/>
+      <c r="D89" s="78"/>
+      <c r="E89" s="354"/>
+      <c r="F89" s="354"/>
+      <c r="G89" s="78"/>
+      <c r="H89" s="78"/>
+      <c r="I89" s="78"/>
+      <c r="J89" s="78"/>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B88" s="113">
+      <c r="B90" s="113">
         <v>0.01</v>
       </c>
-      <c r="C88" s="113">
+      <c r="C90" s="113">
         <v>0.01</v>
       </c>
-      <c r="D88" s="113">
+      <c r="D90" s="113">
         <v>0.18</v>
-      </c>
-      <c r="E88" s="355"/>
-      <c r="F88" s="355"/>
-      <c r="G88" s="113">
-        <v>0.01</v>
-      </c>
-      <c r="H88" s="113">
-        <v>0.21</v>
-      </c>
-      <c r="I88" s="113">
-        <v>0.8</v>
-      </c>
-      <c r="J88" s="113">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12">
-      <c r="A89" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B89" s="113">
-        <v>0.02</v>
-      </c>
-      <c r="C89" s="113">
-        <v>0.03</v>
-      </c>
-      <c r="D89" s="113">
-        <v>0.15</v>
-      </c>
-      <c r="E89" s="355"/>
-      <c r="F89" s="355"/>
-      <c r="G89" s="113">
-        <v>0.01</v>
-      </c>
-      <c r="H89" s="113">
-        <v>0.2</v>
-      </c>
-      <c r="I89" s="113">
-        <v>0.76</v>
-      </c>
-      <c r="J89" s="113">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12">
-      <c r="A90" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B90" s="113">
-        <v>0.04</v>
-      </c>
-      <c r="C90" s="113">
-        <v>0.08</v>
-      </c>
-      <c r="D90" s="113">
-        <v>0.15</v>
       </c>
       <c r="E90" s="355"/>
       <c r="F90" s="355"/>
       <c r="G90" s="113">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H90" s="113">
-        <v>0.28000000000000003</v>
+        <v>0.21</v>
       </c>
       <c r="I90" s="113">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="J90" s="113">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B91" s="113">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="C91" s="113">
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
       <c r="D91" s="113">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="E91" s="355"/>
       <c r="F91" s="355"/>
       <c r="G91" s="113">
+        <v>0.01</v>
+      </c>
+      <c r="H91" s="113">
+        <v>0.2</v>
+      </c>
+      <c r="I91" s="113">
+        <v>0.76</v>
+      </c>
+      <c r="J91" s="113">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B92" s="113">
+        <v>0.04</v>
+      </c>
+      <c r="C92" s="113">
+        <v>0.08</v>
+      </c>
+      <c r="D92" s="113">
+        <v>0.15</v>
+      </c>
+      <c r="E92" s="355"/>
+      <c r="F92" s="355"/>
+      <c r="G92" s="113">
+        <v>0</v>
+      </c>
+      <c r="H92" s="113">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I92" s="113">
+        <v>0.79</v>
+      </c>
+      <c r="J92" s="113">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B93" s="113">
+        <v>0.04</v>
+      </c>
+      <c r="C93" s="113">
+        <v>0.08</v>
+      </c>
+      <c r="D93" s="113">
+        <v>0.18</v>
+      </c>
+      <c r="E93" s="355"/>
+      <c r="F93" s="355"/>
+      <c r="G93" s="113">
         <v>0.03</v>
       </c>
-      <c r="H91" s="113">
+      <c r="H93" s="113">
         <v>0.36</v>
       </c>
-      <c r="I91" s="113">
+      <c r="I93" s="113">
         <v>0.66</v>
       </c>
-      <c r="J91" s="113">
+      <c r="J93" s="113">
         <v>0.15</v>
       </c>
     </row>
-    <row r="92" spans="1:12">
-      <c r="A92" s="1" t="s">
+    <row r="94" spans="1:11">
+      <c r="A94" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B92" s="111">
+      <c r="B94" s="111">
         <v>0.38</v>
       </c>
-      <c r="C92" s="111">
+      <c r="C94" s="111">
         <v>0.28999999999999998</v>
       </c>
-      <c r="D92" s="111">
+      <c r="D94" s="111">
         <v>0.09</v>
       </c>
-      <c r="E92" s="353"/>
-      <c r="F92" s="353"/>
-      <c r="G92" s="111">
+      <c r="E94" s="353"/>
+      <c r="F94" s="353"/>
+      <c r="G94" s="111">
         <v>0</v>
       </c>
-      <c r="H92" s="111">
+      <c r="H94" s="111">
         <v>0.71</v>
       </c>
-      <c r="I92" s="111">
+      <c r="I94" s="111">
         <v>0.53</v>
       </c>
-      <c r="J92" s="111">
+      <c r="J94" s="111">
         <v>0.21</v>
       </c>
     </row>
-    <row r="93" spans="1:12">
-      <c r="A93" s="1"/>
-      <c r="B93" s="197"/>
-      <c r="C93" s="197"/>
-      <c r="D93" s="197"/>
-      <c r="E93" s="197"/>
-      <c r="F93" s="197"/>
-      <c r="G93" s="197"/>
-      <c r="H93" s="197"/>
-      <c r="I93" s="197"/>
-      <c r="J93" s="197"/>
-    </row>
-    <row r="94" spans="1:12">
-      <c r="A94" s="296" t="s">
+    <row r="95" spans="1:11">
+      <c r="A95" s="1"/>
+      <c r="B95" s="197"/>
+      <c r="C95" s="197"/>
+      <c r="D95" s="197"/>
+      <c r="E95" s="197"/>
+      <c r="F95" s="197"/>
+      <c r="G95" s="197"/>
+      <c r="H95" s="197"/>
+      <c r="I95" s="197"/>
+      <c r="J95" s="197"/>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96" s="296" t="s">
         <v>532</v>
       </c>
-      <c r="B94" s="197"/>
-      <c r="C94" s="197"/>
-      <c r="D94" s="197"/>
-      <c r="E94" s="197"/>
-      <c r="F94" s="197"/>
-      <c r="G94" s="197"/>
-      <c r="H94" s="197"/>
-      <c r="I94" s="197"/>
-      <c r="J94" s="197"/>
-    </row>
-    <row r="95" spans="1:12">
-      <c r="A95" s="1" t="s">
+      <c r="B96" s="197"/>
+      <c r="C96" s="197"/>
+      <c r="D96" s="197"/>
+      <c r="E96" s="197"/>
+      <c r="F96" s="197"/>
+      <c r="G96" s="197"/>
+      <c r="H96" s="197"/>
+      <c r="I96" s="197"/>
+      <c r="J96" s="197"/>
+    </row>
+    <row r="97" spans="1:12">
+      <c r="A97" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B95" s="59" t="s">
+      <c r="B97" s="59" t="s">
         <v>273</v>
       </c>
-      <c r="C95" s="198" t="s">
+      <c r="C97" s="198" t="s">
         <v>283</v>
       </c>
-      <c r="D95" s="198" t="s">
+      <c r="D97" s="198" t="s">
         <v>269</v>
       </c>
-      <c r="E95" s="60" t="s">
+      <c r="E97" s="60" t="s">
         <v>170</v>
       </c>
-      <c r="F95" s="160"/>
-      <c r="G95" s="59" t="s">
+      <c r="F97" s="160"/>
+      <c r="G97" s="59" t="s">
         <v>169</v>
       </c>
-      <c r="H95" s="160"/>
-      <c r="I95" s="59" t="s">
+      <c r="H97" s="160"/>
+      <c r="I97" s="59" t="s">
         <v>171</v>
       </c>
-      <c r="J95" s="160"/>
-      <c r="K95" s="165" t="s">
+      <c r="J97" s="160"/>
+      <c r="K97" s="165" t="s">
         <v>611</v>
       </c>
-      <c r="L95" s="75"/>
-    </row>
-    <row r="96" spans="1:12">
-      <c r="A96" t="s">
+      <c r="L97" s="75"/>
+    </row>
+    <row r="98" spans="1:12">
+      <c r="A98" t="s">
         <v>9</v>
       </c>
-      <c r="B96" s="167">
+      <c r="B98" s="167">
         <f>SUM(AC63:AC68)</f>
         <v>39519</v>
       </c>
-      <c r="C96" s="54">
+      <c r="C98" s="54">
         <f>H27</f>
         <v>1.7159199237368923E-2</v>
       </c>
-      <c r="D96" s="203">
-        <f>B96*C96</f>
+      <c r="D98" s="203">
+        <f>B98*C98</f>
         <v>678.11439466158242</v>
       </c>
-      <c r="E96" s="361">
+      <c r="E98" s="361">
         <v>0.64</v>
       </c>
-      <c r="F96" s="61">
-        <f>K27*E96</f>
+      <c r="F98" s="61">
+        <f>K27*E98</f>
         <v>3.5327999999999998E-2</v>
       </c>
-      <c r="G96" s="361">
+      <c r="G98" s="361">
         <v>0.62</v>
       </c>
-      <c r="H96" s="61">
-        <f>L27*G96</f>
+      <c r="H98" s="61">
+        <f>L27*G98</f>
         <v>8.6241999999999999E-2</v>
       </c>
-      <c r="I96" s="361">
+      <c r="I98" s="361">
         <v>0.57999999999999996</v>
       </c>
-      <c r="J96" s="54">
-        <f>M27*I96</f>
+      <c r="J98" s="54">
+        <f>M27*I98</f>
         <v>6.8323999999999996E-2</v>
       </c>
-      <c r="K96" s="361">
+      <c r="K98" s="361">
         <v>0.52</v>
       </c>
-      <c r="L96" s="61">
-        <f>N27*K96</f>
+      <c r="L98" s="61">
+        <f>N27*K98</f>
         <v>1.2272E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:12">
-      <c r="A97" t="s">
+    <row r="99" spans="1:12">
+      <c r="A99" t="s">
         <v>10</v>
       </c>
-      <c r="B97" s="104">
+      <c r="B99" s="104">
         <f>SUM(AE63:AE68)</f>
         <v>3502</v>
       </c>
-      <c r="C97" s="47">
+      <c r="C99" s="47">
         <f>I27</f>
         <v>1.4111610006414367E-2</v>
       </c>
-      <c r="D97" s="190">
-        <f>B97*C97</f>
+      <c r="D99" s="190">
+        <f>B99*C99</f>
         <v>49.418858242463116</v>
       </c>
-      <c r="E97" s="199">
+      <c r="E99" s="199">
         <v>0.36</v>
       </c>
-      <c r="F97" s="64">
-        <f>K27*E97</f>
+      <c r="F99" s="64">
+        <f>K27*E99</f>
         <v>1.9871999999999997E-2</v>
       </c>
-      <c r="G97" s="199">
+      <c r="G99" s="199">
         <v>0.38</v>
       </c>
-      <c r="H97" s="64">
-        <f>L27*G97</f>
+      <c r="H99" s="64">
+        <f>L27*G99</f>
         <v>5.2858000000000002E-2</v>
       </c>
-      <c r="I97" s="199">
+      <c r="I99" s="199">
         <v>0.42</v>
       </c>
-      <c r="J97" s="47">
-        <f>M27*I97</f>
+      <c r="J99" s="47">
+        <f>M27*I99</f>
         <v>4.9475999999999999E-2</v>
       </c>
-      <c r="K97" s="199">
+      <c r="K99" s="199">
         <v>0.48</v>
       </c>
-      <c r="L97" s="64">
-        <f>N27*K97</f>
+      <c r="L99" s="64">
+        <f>N27*K99</f>
         <v>1.1328E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:12">
-      <c r="A98" s="1"/>
-      <c r="B98" s="197"/>
-      <c r="C98" s="197"/>
-      <c r="D98" s="197"/>
-      <c r="E98" s="197"/>
-      <c r="F98" s="197"/>
-      <c r="G98" s="197"/>
-      <c r="H98" s="197"/>
-      <c r="I98" s="197"/>
-      <c r="J98" s="197"/>
-    </row>
-    <row r="99" spans="1:12">
-      <c r="A99" s="296" t="s">
-        <v>533</v>
-      </c>
-      <c r="B99" s="197"/>
-      <c r="C99" s="197"/>
-      <c r="D99" s="197"/>
-      <c r="E99" s="197"/>
-      <c r="F99" s="197"/>
-      <c r="G99" s="197"/>
-      <c r="H99" s="197"/>
-      <c r="I99" s="197"/>
-      <c r="J99" s="197"/>
-    </row>
     <row r="100" spans="1:12">
-      <c r="A100" s="1" t="s">
-        <v>271</v>
-      </c>
+      <c r="A100" s="1"/>
       <c r="B100" s="197"/>
       <c r="C100" s="197"/>
       <c r="D100" s="197"/>
@@ -11090,312 +11222,312 @@
       <c r="J100" s="197"/>
     </row>
     <row r="101" spans="1:12">
-      <c r="A101" s="1"/>
+      <c r="A101" s="296" t="s">
+        <v>533</v>
+      </c>
       <c r="B101" s="197"/>
-      <c r="C101" s="362" t="s">
-        <v>11</v>
-      </c>
-      <c r="D101" s="363"/>
-      <c r="E101" s="362" t="s">
-        <v>237</v>
-      </c>
-      <c r="F101" s="363"/>
-      <c r="G101" s="362" t="s">
-        <v>146</v>
-      </c>
-      <c r="H101" s="363"/>
+      <c r="C101" s="197"/>
+      <c r="D101" s="197"/>
+      <c r="E101" s="197"/>
+      <c r="F101" s="197"/>
+      <c r="G101" s="197"/>
+      <c r="H101" s="197"/>
       <c r="I101" s="197"/>
       <c r="J101" s="197"/>
     </row>
     <row r="102" spans="1:12">
-      <c r="A102" s="1"/>
-      <c r="B102" s="198" t="s">
-        <v>168</v>
-      </c>
-      <c r="C102" s="198" t="s">
-        <v>273</v>
-      </c>
-      <c r="D102" s="59" t="s">
-        <v>269</v>
-      </c>
-      <c r="E102" s="59" t="s">
-        <v>273</v>
-      </c>
-      <c r="F102" s="198" t="s">
-        <v>269</v>
-      </c>
-      <c r="G102" s="198" t="s">
-        <v>273</v>
-      </c>
-      <c r="H102" s="198" t="s">
-        <v>269</v>
-      </c>
+      <c r="A102" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B102" s="197"/>
+      <c r="C102" s="197"/>
+      <c r="D102" s="197"/>
+      <c r="E102" s="197"/>
+      <c r="F102" s="197"/>
+      <c r="G102" s="197"/>
+      <c r="H102" s="197"/>
       <c r="I102" s="197"/>
       <c r="J102" s="197"/>
     </row>
     <row r="103" spans="1:12">
-      <c r="A103" s="1" t="s">
+      <c r="A103" s="1"/>
+      <c r="B103" s="197"/>
+      <c r="C103" s="393" t="s">
+        <v>11</v>
+      </c>
+      <c r="D103" s="394"/>
+      <c r="E103" s="393" t="s">
+        <v>237</v>
+      </c>
+      <c r="F103" s="394"/>
+      <c r="G103" s="393" t="s">
+        <v>146</v>
+      </c>
+      <c r="H103" s="394"/>
+      <c r="I103" s="197"/>
+      <c r="J103" s="197"/>
+    </row>
+    <row r="104" spans="1:12">
+      <c r="A104" s="1"/>
+      <c r="B104" s="198" t="s">
+        <v>168</v>
+      </c>
+      <c r="C104" s="198" t="s">
+        <v>273</v>
+      </c>
+      <c r="D104" s="59" t="s">
+        <v>269</v>
+      </c>
+      <c r="E104" s="59" t="s">
+        <v>273</v>
+      </c>
+      <c r="F104" s="198" t="s">
+        <v>269</v>
+      </c>
+      <c r="G104" s="198" t="s">
+        <v>273</v>
+      </c>
+      <c r="H104" s="198" t="s">
+        <v>269</v>
+      </c>
+      <c r="I104" s="197"/>
+      <c r="J104" s="197"/>
+    </row>
+    <row r="105" spans="1:12">
+      <c r="A105" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B103" s="100">
+      <c r="B105" s="100">
         <f>J20</f>
         <v>0</v>
       </c>
-      <c r="C103" s="180">
+      <c r="C105" s="180">
         <f>AG64</f>
         <v>13043</v>
       </c>
-      <c r="D103" s="105">
-        <f>C103*B103</f>
+      <c r="D105" s="105">
+        <f>C105*B105</f>
         <v>0</v>
       </c>
-      <c r="E103" s="180">
+      <c r="E105" s="180">
         <f>M64</f>
         <v>8439</v>
       </c>
-      <c r="F103" s="80">
-        <f>E103*B103</f>
+      <c r="F105" s="80">
+        <f>E105*B105</f>
         <v>0</v>
       </c>
-      <c r="G103" s="103">
+      <c r="G105" s="103">
         <f>X64</f>
         <v>4604</v>
       </c>
-      <c r="H103" s="80">
-        <f>G103*B103</f>
+      <c r="H105" s="80">
+        <f>G105*B105</f>
         <v>0</v>
       </c>
-      <c r="I103" s="197"/>
-      <c r="J103" s="180">
-        <f>E103+G103</f>
+      <c r="I105" s="197"/>
+      <c r="J105" s="180">
+        <f>E105+G105</f>
         <v>13043</v>
       </c>
     </row>
-    <row r="104" spans="1:12">
-      <c r="A104" s="1" t="s">
+    <row r="106" spans="1:12">
+      <c r="A106" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B104" s="100">
+      <c r="B106" s="100">
         <f>J21</f>
         <v>0</v>
       </c>
-      <c r="C104" s="180">
+      <c r="C106" s="180">
         <f>AG65</f>
         <v>14584</v>
       </c>
-      <c r="D104" s="105">
-        <f t="shared" ref="D104:D107" si="21">C104*B104</f>
+      <c r="D106" s="105">
+        <f t="shared" ref="D106:D109" si="31">C106*B106</f>
         <v>0</v>
       </c>
-      <c r="E104" s="180">
+      <c r="E106" s="180">
         <f>M65</f>
         <v>10529</v>
       </c>
-      <c r="F104" s="105">
-        <f t="shared" ref="F104:F107" si="22">E104*B104</f>
+      <c r="F106" s="105">
+        <f t="shared" ref="F106:F109" si="32">E106*B106</f>
         <v>0</v>
       </c>
-      <c r="G104" s="103">
+      <c r="G106" s="103">
         <f>X65</f>
         <v>4055</v>
       </c>
-      <c r="H104" s="105">
-        <f t="shared" ref="H104:H107" si="23">G104*B104</f>
+      <c r="H106" s="105">
+        <f t="shared" ref="H106:H109" si="33">G106*B106</f>
         <v>0</v>
       </c>
-      <c r="I104" s="197"/>
-      <c r="J104" s="197"/>
-    </row>
-    <row r="105" spans="1:12">
-      <c r="A105" s="1" t="s">
+      <c r="I106" s="197"/>
+      <c r="J106" s="197"/>
+    </row>
+    <row r="107" spans="1:12">
+      <c r="A107" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B105" s="100">
+      <c r="B107" s="100">
         <f>J22</f>
         <v>1.2738853503184713E-3</v>
       </c>
-      <c r="C105" s="180">
+      <c r="C107" s="180">
         <f>AG66</f>
         <v>8840</v>
       </c>
-      <c r="D105" s="105">
-        <f t="shared" si="21"/>
+      <c r="D107" s="105">
+        <f t="shared" si="31"/>
         <v>11.261146496815286</v>
       </c>
-      <c r="E105" s="180">
+      <c r="E107" s="180">
         <f>M66</f>
         <v>6767</v>
       </c>
-      <c r="F105" s="105">
-        <f t="shared" si="22"/>
+      <c r="F107" s="105">
+        <f t="shared" si="32"/>
         <v>8.6203821656050952</v>
       </c>
-      <c r="G105" s="103">
+      <c r="G107" s="103">
         <f>X66</f>
         <v>2073</v>
       </c>
-      <c r="H105" s="105">
-        <f t="shared" si="23"/>
+      <c r="H107" s="105">
+        <f t="shared" si="33"/>
         <v>2.6407643312101912</v>
       </c>
-      <c r="I105" s="197"/>
-      <c r="J105" s="197"/>
-    </row>
-    <row r="106" spans="1:12">
-      <c r="A106" s="1" t="s">
+      <c r="I107" s="197"/>
+      <c r="J107" s="197"/>
+    </row>
+    <row r="108" spans="1:12">
+      <c r="A108" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B106" s="100">
+      <c r="B108" s="100">
         <f>J23</f>
         <v>1.9880715705765406E-3</v>
       </c>
-      <c r="C106" s="180">
+      <c r="C108" s="180">
         <f>AG67</f>
         <v>3760</v>
       </c>
-      <c r="D106" s="105">
-        <f t="shared" si="21"/>
+      <c r="D108" s="105">
+        <f t="shared" si="31"/>
         <v>7.4751491053677928</v>
       </c>
-      <c r="E106" s="180">
+      <c r="E108" s="180">
         <f>M67</f>
         <v>3118</v>
       </c>
-      <c r="F106" s="105">
-        <f t="shared" si="22"/>
+      <c r="F108" s="105">
+        <f t="shared" si="32"/>
         <v>6.1988071570576535</v>
       </c>
-      <c r="G106" s="103">
+      <c r="G108" s="103">
         <f>X67</f>
         <v>642</v>
       </c>
-      <c r="H106" s="105">
-        <f t="shared" si="23"/>
+      <c r="H108" s="105">
+        <f t="shared" si="33"/>
         <v>1.276341948310139</v>
       </c>
-      <c r="I106" s="197"/>
-      <c r="J106" s="197"/>
-    </row>
-    <row r="107" spans="1:12">
-      <c r="A107" s="1" t="s">
+      <c r="I108" s="197"/>
+      <c r="J108" s="197"/>
+    </row>
+    <row r="109" spans="1:12">
+      <c r="A109" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B107" s="111">
+      <c r="B109" s="111">
         <f>SUM(F24:F26)/SUM(F10:F12)</f>
         <v>4.917184265010352E-2</v>
       </c>
-      <c r="C107" s="180">
+      <c r="C109" s="180">
         <f>AG68</f>
         <v>2040</v>
       </c>
-      <c r="D107" s="79">
-        <f t="shared" si="21"/>
+      <c r="D109" s="79">
+        <f t="shared" si="31"/>
         <v>100.31055900621118</v>
       </c>
-      <c r="E107" s="180">
+      <c r="E109" s="180">
         <f>M68</f>
         <v>1917</v>
       </c>
-      <c r="F107" s="79">
-        <f t="shared" si="22"/>
+      <c r="F109" s="79">
+        <f t="shared" si="32"/>
         <v>94.262422360248451</v>
       </c>
-      <c r="G107" s="103">
+      <c r="G109" s="103">
         <f>X68</f>
         <v>123</v>
       </c>
-      <c r="H107" s="79">
-        <f t="shared" si="23"/>
+      <c r="H109" s="79">
+        <f t="shared" si="33"/>
         <v>6.0481366459627326</v>
-      </c>
-      <c r="I107" s="197"/>
-      <c r="J107" s="197"/>
-    </row>
-    <row r="108" spans="1:12">
-      <c r="A108" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B108" s="197"/>
-      <c r="C108" s="201">
-        <f>SUM(C103:C107)</f>
-        <v>42267</v>
-      </c>
-      <c r="D108" s="201">
-        <f t="shared" ref="D108:H108" si="24">SUM(D103:D107)</f>
-        <v>119.04685460839426</v>
-      </c>
-      <c r="E108" s="201">
-        <f>SUM(E103:E107)</f>
-        <v>30770</v>
-      </c>
-      <c r="F108" s="201">
-        <f t="shared" si="24"/>
-        <v>109.0816116829112</v>
-      </c>
-      <c r="G108" s="201">
-        <f>SUM(G103:G107)</f>
-        <v>11497</v>
-      </c>
-      <c r="H108" s="201">
-        <f t="shared" si="24"/>
-        <v>9.9652429254830626</v>
-      </c>
-      <c r="I108" s="197"/>
-      <c r="J108" s="197"/>
-    </row>
-    <row r="109" spans="1:12">
-      <c r="A109" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="B109" s="197"/>
-      <c r="C109" s="197"/>
-      <c r="D109" s="201">
-        <f>D108*0.8</f>
-        <v>95.237483686715407</v>
-      </c>
-      <c r="E109" s="197"/>
-      <c r="F109" s="201">
-        <f>F108*0.8</f>
-        <v>87.26528934632897</v>
-      </c>
-      <c r="G109" s="197"/>
-      <c r="H109" s="201">
-        <f>H108*0.8</f>
-        <v>7.9721943403864506</v>
       </c>
       <c r="I109" s="197"/>
       <c r="J109" s="197"/>
     </row>
     <row r="110" spans="1:12">
-      <c r="A110" s="1"/>
+      <c r="A110" s="1" t="s">
+        <v>207</v>
+      </c>
       <c r="B110" s="197"/>
-      <c r="C110" s="197"/>
-      <c r="D110" s="197"/>
-      <c r="E110" s="197"/>
-      <c r="F110" s="197"/>
-      <c r="G110" s="197"/>
-      <c r="H110" s="197"/>
+      <c r="C110" s="201">
+        <f>SUM(C105:C109)</f>
+        <v>42267</v>
+      </c>
+      <c r="D110" s="201">
+        <f t="shared" ref="D110:H110" si="34">SUM(D105:D109)</f>
+        <v>119.04685460839426</v>
+      </c>
+      <c r="E110" s="201">
+        <f>SUM(E105:E109)</f>
+        <v>30770</v>
+      </c>
+      <c r="F110" s="201">
+        <f t="shared" si="34"/>
+        <v>109.0816116829112</v>
+      </c>
+      <c r="G110" s="201">
+        <f>SUM(G105:G109)</f>
+        <v>11497</v>
+      </c>
+      <c r="H110" s="201">
+        <f t="shared" si="34"/>
+        <v>9.9652429254830626</v>
+      </c>
       <c r="I110" s="197"/>
       <c r="J110" s="197"/>
     </row>
     <row r="111" spans="1:12">
-      <c r="A111" s="296" t="s">
-        <v>534</v>
+      <c r="A111" s="1" t="s">
+        <v>270</v>
       </c>
       <c r="B111" s="197"/>
       <c r="C111" s="197"/>
-      <c r="D111" s="197"/>
+      <c r="D111" s="201">
+        <f>D110*0.8</f>
+        <v>95.237483686715407</v>
+      </c>
       <c r="E111" s="197"/>
-      <c r="F111" s="197"/>
+      <c r="F111" s="201">
+        <f>F110*0.8</f>
+        <v>87.26528934632897</v>
+      </c>
       <c r="G111" s="197"/>
-      <c r="H111" s="197"/>
+      <c r="H111" s="201">
+        <f>H110*0.8</f>
+        <v>7.9721943403864506</v>
+      </c>
       <c r="I111" s="197"/>
       <c r="J111" s="197"/>
     </row>
     <row r="112" spans="1:12">
-      <c r="A112" s="1" t="s">
-        <v>272</v>
-      </c>
+      <c r="A112" s="1"/>
       <c r="B112" s="197"/>
       <c r="C112" s="197"/>
       <c r="D112" s="197"/>
@@ -11407,1090 +11539,1090 @@
       <c r="J112" s="197"/>
     </row>
     <row r="113" spans="1:30">
-      <c r="B113" s="52" t="s">
+      <c r="A113" s="296" t="s">
+        <v>534</v>
+      </c>
+      <c r="B113" s="197"/>
+      <c r="C113" s="197"/>
+      <c r="D113" s="197"/>
+      <c r="E113" s="197"/>
+      <c r="F113" s="197"/>
+      <c r="G113" s="197"/>
+      <c r="H113" s="197"/>
+      <c r="I113" s="197"/>
+      <c r="J113" s="197"/>
+    </row>
+    <row r="114" spans="1:30">
+      <c r="A114" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B114" s="197"/>
+      <c r="C114" s="197"/>
+      <c r="D114" s="197"/>
+      <c r="E114" s="197"/>
+      <c r="F114" s="197"/>
+      <c r="G114" s="197"/>
+      <c r="H114" s="197"/>
+      <c r="I114" s="197"/>
+      <c r="J114" s="197"/>
+    </row>
+    <row r="115" spans="1:30">
+      <c r="B115" s="52" t="s">
         <v>273</v>
       </c>
-      <c r="C113" s="158" t="s">
+      <c r="C115" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="D113" s="159" t="s">
+      <c r="D115" s="159" t="s">
         <v>274</v>
       </c>
-      <c r="E113" s="159" t="s">
+      <c r="E115" s="159" t="s">
         <v>269</v>
       </c>
-      <c r="F113" s="158" t="s">
+      <c r="F115" s="158" t="s">
         <v>13</v>
       </c>
-      <c r="G113" s="159" t="s">
+      <c r="G115" s="159" t="s">
         <v>274</v>
       </c>
-      <c r="H113" s="159" t="s">
+      <c r="H115" s="159" t="s">
         <v>269</v>
       </c>
-      <c r="I113" s="300" t="s">
+      <c r="I115" s="300" t="s">
         <v>527</v>
       </c>
-      <c r="J113" s="50" t="s">
+      <c r="J115" s="50" t="s">
         <v>274</v>
       </c>
-      <c r="K113" s="75" t="s">
+      <c r="K115" s="75" t="s">
         <v>269</v>
       </c>
-      <c r="L113" s="158" t="s">
+      <c r="L115" s="158" t="s">
         <v>173</v>
       </c>
-      <c r="M113" s="159" t="s">
+      <c r="M115" s="159" t="s">
         <v>274</v>
       </c>
-      <c r="N113" s="159" t="s">
+      <c r="N115" s="159" t="s">
         <v>269</v>
       </c>
-      <c r="O113" s="210" t="s">
+      <c r="O115" s="210" t="s">
         <v>15</v>
       </c>
-      <c r="P113" s="159" t="s">
+      <c r="P115" s="159" t="s">
         <v>274</v>
       </c>
-      <c r="Q113" s="160" t="s">
+      <c r="Q115" s="160" t="s">
         <v>269</v>
       </c>
-      <c r="R113" s="158" t="s">
+      <c r="R115" s="158" t="s">
         <v>16</v>
       </c>
-      <c r="S113" s="159" t="s">
+      <c r="S115" s="159" t="s">
         <v>274</v>
       </c>
-      <c r="T113" s="160" t="s">
+      <c r="T115" s="160" t="s">
         <v>269</v>
       </c>
-      <c r="U113" s="300" t="s">
+      <c r="U115" s="300" t="s">
         <v>275</v>
       </c>
-      <c r="V113" s="356" t="s">
+      <c r="V115" s="356" t="s">
         <v>276</v>
       </c>
-      <c r="X113" s="307"/>
-      <c r="Y113" s="59" t="s">
+      <c r="X115" s="307"/>
+      <c r="Y115" s="59" t="s">
         <v>208</v>
       </c>
-      <c r="Z113" s="209" t="s">
+      <c r="Z115" s="209" t="s">
         <v>274</v>
       </c>
-      <c r="AA113" s="158" t="s">
+      <c r="AA115" s="158" t="s">
         <v>211</v>
       </c>
-      <c r="AB113" s="209" t="s">
+      <c r="AB115" s="209" t="s">
         <v>274</v>
       </c>
-      <c r="AC113" s="158" t="s">
+      <c r="AC115" s="158" t="s">
         <v>212</v>
       </c>
-      <c r="AD113" s="208" t="s">
+      <c r="AD115" s="208" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="114" spans="1:30">
-      <c r="A114" s="78" t="s">
+    <row r="116" spans="1:30">
+      <c r="A116" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B114" s="202">
+      <c r="B116" s="202">
         <f>SUM(AC63:AC68)</f>
         <v>39519</v>
       </c>
-      <c r="C114" s="113">
+      <c r="C116" s="113">
         <v>0.04</v>
       </c>
-      <c r="D114" s="180">
-        <f>B114*C114</f>
+      <c r="D116" s="180">
+        <f>B116*C116</f>
         <v>1580.76</v>
       </c>
-      <c r="E114" s="180">
-        <f>D114*$C$32</f>
+      <c r="E116" s="180">
+        <f>D116*$C$32</f>
         <v>165.97979999999998</v>
       </c>
-      <c r="F114" s="113">
+      <c r="F116" s="113">
         <v>0.06</v>
       </c>
-      <c r="G114" s="180">
-        <f>B114*F114</f>
+      <c r="G116" s="180">
+        <f>B116*F116</f>
         <v>2371.14</v>
       </c>
-      <c r="H114" s="180">
-        <f>G114*$C$33</f>
+      <c r="H116" s="180">
+        <f>G116*$C$33</f>
         <v>173.09321999999997</v>
       </c>
-      <c r="I114" s="99">
+      <c r="I116" s="99">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="J114" s="202">
-        <f>B114*I114</f>
+      <c r="J116" s="202">
+        <f>B116*I116</f>
         <v>1699.3169999999998</v>
       </c>
-      <c r="K114" s="203">
-        <f>J114*$C$34</f>
+      <c r="K116" s="203">
+        <f>J116*$C$34</f>
         <v>107.05697099999999</v>
       </c>
-      <c r="L114" s="297">
+      <c r="L116" s="297">
         <v>0.13</v>
       </c>
-      <c r="M114" s="180">
-        <f t="shared" ref="M114:M122" si="25">B114*L114</f>
+      <c r="M116" s="180">
+        <f t="shared" ref="M116:M124" si="35">B116*L116</f>
         <v>5137.47</v>
       </c>
-      <c r="N114" s="180">
-        <f t="shared" ref="N114:N122" si="26">M114*$C$35</f>
+      <c r="N116" s="180">
+        <f t="shared" ref="N116:N124" si="36">M116*$C$35</f>
         <v>0</v>
       </c>
-      <c r="O114" s="99">
+      <c r="O116" s="99">
         <v>0.36</v>
       </c>
-      <c r="P114" s="202">
-        <f>B114*O114</f>
+      <c r="P116" s="202">
+        <f>B116*O116</f>
         <v>14226.84</v>
       </c>
-      <c r="Q114" s="203">
-        <f>P114*$C$36</f>
+      <c r="Q116" s="203">
+        <f>P116*$C$36</f>
         <v>853.61040000000003</v>
       </c>
-      <c r="R114" s="297">
+      <c r="R116" s="297">
         <v>0.01</v>
       </c>
-      <c r="S114" s="180">
-        <f t="shared" ref="S114:S122" si="27">B114*R114</f>
+      <c r="S116" s="180">
+        <f t="shared" ref="S116:S124" si="37">B116*R116</f>
         <v>395.19</v>
       </c>
-      <c r="T114" s="180">
-        <f>S114*$C$37</f>
+      <c r="T116" s="180">
+        <f>S116*$C$37</f>
         <v>22.13064</v>
       </c>
-      <c r="U114" s="167">
-        <f>D114+G114+J114+M114+P114+S114</f>
+      <c r="U116" s="167">
+        <f>D116+G116+J116+M116+P116+S116</f>
         <v>25410.717000000001</v>
       </c>
-      <c r="V114" s="203">
-        <f>E114+H114+K114+N114+Q114+T114</f>
+      <c r="V116" s="203">
+        <f>E116+H116+K116+N116+Q116+T116</f>
         <v>1321.8710309999999</v>
       </c>
-      <c r="X114" s="197"/>
-      <c r="Y114" s="113">
+      <c r="X116" s="197"/>
+      <c r="Y116" s="113">
         <v>0.25</v>
       </c>
-      <c r="Z114" s="203">
-        <f t="shared" ref="Z114:Z122" si="28">B114*Y114</f>
+      <c r="Z116" s="203">
+        <f t="shared" ref="Z116:Z124" si="38">B116*Y116</f>
         <v>9879.75</v>
       </c>
-      <c r="AA114" s="113">
+      <c r="AA116" s="113">
         <v>0.74</v>
       </c>
-      <c r="AB114" s="80">
-        <f t="shared" ref="AB114:AB122" si="29">B114*AA114</f>
+      <c r="AB116" s="80">
+        <f t="shared" ref="AB116:AB124" si="39">B116*AA116</f>
         <v>29244.06</v>
       </c>
-      <c r="AC114" s="113">
+      <c r="AC116" s="113">
         <v>0.11</v>
       </c>
-      <c r="AD114" s="80">
-        <f t="shared" ref="AD114:AD122" si="30">B114*AC114</f>
+      <c r="AD116" s="80">
+        <f t="shared" ref="AD116:AD124" si="40">B116*AC116</f>
         <v>4347.09</v>
       </c>
     </row>
-    <row r="115" spans="1:30">
-      <c r="A115" s="112" t="s">
+    <row r="117" spans="1:30">
+      <c r="A117" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="B115" s="181">
+      <c r="B117" s="181">
         <f>SUM(AE63:AE68)</f>
         <v>3502</v>
       </c>
-      <c r="C115" s="111">
+      <c r="C117" s="111">
         <v>0.03</v>
       </c>
-      <c r="D115" s="181">
-        <f>B115*C115</f>
+      <c r="D117" s="181">
+        <f>B117*C117</f>
         <v>105.06</v>
       </c>
-      <c r="E115" s="181">
-        <f>D115*$C$32</f>
+      <c r="E117" s="181">
+        <f>D117*$C$32</f>
         <v>11.0313</v>
       </c>
-      <c r="F115" s="111">
+      <c r="F117" s="111">
         <v>0.03</v>
       </c>
-      <c r="G115" s="181">
-        <f>B115*F115</f>
+      <c r="G117" s="181">
+        <f>B117*F117</f>
         <v>105.06</v>
       </c>
-      <c r="H115" s="181">
-        <f>G115*$C$33</f>
+      <c r="H117" s="181">
+        <f>G117*$C$33</f>
         <v>7.6693799999999994</v>
       </c>
-      <c r="I115" s="101">
+      <c r="I117" s="101">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="J115" s="181">
-        <f t="shared" ref="J115:J122" si="31">B115*I115</f>
+      <c r="J117" s="181">
+        <f t="shared" ref="J117:J124" si="41">B117*I117</f>
         <v>168.096</v>
       </c>
-      <c r="K115" s="190">
-        <f t="shared" ref="K115:K122" si="32">J115*$C$34</f>
+      <c r="K117" s="190">
+        <f t="shared" ref="K117:K124" si="42">J117*$C$34</f>
         <v>10.590047999999999</v>
       </c>
-      <c r="L115" s="298">
+      <c r="L117" s="298">
         <v>0.27</v>
       </c>
-      <c r="M115" s="181">
-        <f t="shared" si="25"/>
+      <c r="M117" s="181">
+        <f t="shared" si="35"/>
         <v>945.54000000000008</v>
       </c>
-      <c r="N115" s="181">
-        <f t="shared" si="26"/>
+      <c r="N117" s="181">
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="O115" s="101">
+      <c r="O117" s="101">
         <v>0.314</v>
       </c>
-      <c r="P115" s="181">
-        <f t="shared" ref="P115:P122" si="33">B115*O115</f>
+      <c r="P117" s="181">
+        <f t="shared" ref="P117:P124" si="43">B117*O117</f>
         <v>1099.6279999999999</v>
       </c>
-      <c r="Q115" s="190">
-        <f t="shared" ref="Q115:Q122" si="34">P115*$C$36</f>
+      <c r="Q117" s="190">
+        <f t="shared" ref="Q117:Q124" si="44">P117*$C$36</f>
         <v>65.977679999999992</v>
       </c>
-      <c r="R115" s="298">
+      <c r="R117" s="298">
         <v>0</v>
       </c>
-      <c r="S115" s="181">
-        <f t="shared" si="27"/>
+      <c r="S117" s="181">
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="T115" s="181">
-        <f>S115*$C$37</f>
+      <c r="T117" s="181">
+        <f>S117*$C$37</f>
         <v>0</v>
       </c>
-      <c r="U115" s="103">
-        <f t="shared" ref="U115:U121" si="35">D115+G115+J115+M115+P115+S115</f>
+      <c r="U117" s="103">
+        <f t="shared" ref="U117:U123" si="45">D117+G117+J117+M117+P117+S117</f>
         <v>2423.384</v>
       </c>
-      <c r="V115" s="189">
-        <f t="shared" ref="V115:V122" si="36">E115+H115+K115+N115+Q115+T115</f>
+      <c r="V117" s="189">
+        <f t="shared" ref="V117:V124" si="46">E117+H117+K117+N117+Q117+T117</f>
         <v>95.268407999999994</v>
       </c>
-      <c r="X115" s="197"/>
-      <c r="Y115" s="111">
+      <c r="X117" s="197"/>
+      <c r="Y117" s="111">
         <v>0.36</v>
       </c>
-      <c r="Z115" s="190">
-        <f t="shared" si="28"/>
+      <c r="Z117" s="190">
+        <f t="shared" si="38"/>
         <v>1260.72</v>
       </c>
-      <c r="AA115" s="111">
+      <c r="AA117" s="111">
         <v>0.86</v>
       </c>
-      <c r="AB115" s="79">
-        <f t="shared" si="29"/>
+      <c r="AB117" s="79">
+        <f t="shared" si="39"/>
         <v>3011.72</v>
       </c>
-      <c r="AC115" s="111">
+      <c r="AC117" s="111">
         <v>0.05</v>
       </c>
-      <c r="AD115" s="79">
-        <f t="shared" si="30"/>
+      <c r="AD117" s="79">
+        <f t="shared" si="40"/>
         <v>175.10000000000002</v>
       </c>
     </row>
-    <row r="116" spans="1:30">
-      <c r="A116" s="78" t="s">
+    <row r="118" spans="1:30">
+      <c r="A118" s="78" t="s">
         <v>146</v>
       </c>
-      <c r="B116" s="180">
+      <c r="B118" s="180">
         <f>SUM(X63:X68)</f>
         <v>11875</v>
       </c>
-      <c r="C116" s="110">
+      <c r="C118" s="110">
         <v>0.05</v>
       </c>
-      <c r="D116" s="202">
-        <f>B116*C116</f>
+      <c r="D118" s="202">
+        <f>B118*C118</f>
         <v>593.75</v>
       </c>
-      <c r="E116" s="202">
-        <f>D116*$C$32</f>
+      <c r="E118" s="202">
+        <f>D118*$C$32</f>
         <v>62.34375</v>
       </c>
-      <c r="F116" s="110">
+      <c r="F118" s="110">
         <v>0.09</v>
       </c>
-      <c r="G116" s="202">
-        <f>B116*F116</f>
+      <c r="G118" s="202">
+        <f>B118*F118</f>
         <v>1068.75</v>
       </c>
-      <c r="H116" s="202">
-        <f>G116*$C$33</f>
+      <c r="H118" s="202">
+        <f>G118*$C$33</f>
         <v>78.018749999999997</v>
       </c>
-      <c r="I116" s="357">
+      <c r="I118" s="357">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="J116" s="202">
-        <f t="shared" si="31"/>
+      <c r="J118" s="202">
+        <f t="shared" si="41"/>
         <v>534.375</v>
       </c>
-      <c r="K116" s="203">
-        <f t="shared" si="32"/>
+      <c r="K118" s="203">
+        <f t="shared" si="42"/>
         <v>33.665624999999999</v>
       </c>
-      <c r="L116" s="299">
+      <c r="L118" s="299">
         <v>0.11</v>
       </c>
-      <c r="M116" s="202">
-        <f t="shared" si="25"/>
+      <c r="M118" s="202">
+        <f t="shared" si="35"/>
         <v>1306.25</v>
       </c>
-      <c r="N116" s="202">
-        <f t="shared" si="26"/>
+      <c r="N118" s="202">
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="O116" s="357">
+      <c r="O118" s="357">
         <v>0.33700000000000002</v>
       </c>
-      <c r="P116" s="202">
-        <f t="shared" si="33"/>
+      <c r="P118" s="202">
+        <f t="shared" si="43"/>
         <v>4001.8750000000005</v>
       </c>
-      <c r="Q116" s="203">
-        <f t="shared" si="34"/>
+      <c r="Q118" s="203">
+        <f t="shared" si="44"/>
         <v>240.11250000000001</v>
       </c>
-      <c r="R116" s="299">
+      <c r="R118" s="299">
         <v>0.01</v>
       </c>
-      <c r="S116" s="202">
-        <f t="shared" si="27"/>
+      <c r="S118" s="202">
+        <f t="shared" si="37"/>
         <v>118.75</v>
       </c>
-      <c r="T116" s="202">
-        <f>S116*$C$37</f>
+      <c r="T118" s="202">
+        <f>S118*$C$37</f>
         <v>6.65</v>
       </c>
-      <c r="U116" s="167">
-        <f t="shared" si="35"/>
+      <c r="U118" s="167">
+        <f t="shared" si="45"/>
         <v>7623.75</v>
       </c>
-      <c r="V116" s="203">
-        <f t="shared" si="36"/>
+      <c r="V118" s="203">
+        <f t="shared" si="46"/>
         <v>420.79062499999998</v>
       </c>
-      <c r="X116" s="197"/>
-      <c r="Y116" s="110">
+      <c r="X118" s="197"/>
+      <c r="Y118" s="110">
         <v>0.23</v>
       </c>
-      <c r="Z116" s="203">
-        <f t="shared" si="28"/>
+      <c r="Z118" s="203">
+        <f t="shared" si="38"/>
         <v>2731.25</v>
       </c>
-      <c r="AA116" s="110">
+      <c r="AA118" s="110">
         <v>0.8</v>
       </c>
-      <c r="AB116" s="80">
-        <f t="shared" si="29"/>
+      <c r="AB118" s="80">
+        <f t="shared" si="39"/>
         <v>9500</v>
       </c>
-      <c r="AC116" s="110">
+      <c r="AC118" s="110">
         <v>0.06</v>
       </c>
-      <c r="AD116" s="80">
-        <f t="shared" si="30"/>
+      <c r="AD118" s="80">
+        <f t="shared" si="40"/>
         <v>712.5</v>
       </c>
     </row>
-    <row r="117" spans="1:30">
-      <c r="A117" s="112" t="s">
+    <row r="119" spans="1:30">
+      <c r="A119" s="112" t="s">
         <v>147</v>
       </c>
-      <c r="B117" s="180">
+      <c r="B119" s="180">
         <f>SUM(M63:M68)</f>
         <v>31146</v>
       </c>
-      <c r="C117" s="111">
+      <c r="C119" s="111">
         <v>0.03</v>
       </c>
-      <c r="D117" s="180">
-        <f>B117*C117</f>
+      <c r="D119" s="180">
+        <f>B119*C119</f>
         <v>934.38</v>
       </c>
-      <c r="E117" s="180">
-        <f>D117*$C$32</f>
+      <c r="E119" s="180">
+        <f>D119*$C$32</f>
         <v>98.109899999999996</v>
       </c>
-      <c r="F117" s="111">
+      <c r="F119" s="111">
         <v>0.04</v>
       </c>
-      <c r="G117" s="180">
-        <f>B117*F117</f>
+      <c r="G119" s="180">
+        <f>B119*F119</f>
         <v>1245.8399999999999</v>
       </c>
-      <c r="H117" s="180">
-        <f>G117*$C$33</f>
+      <c r="H119" s="180">
+        <f>G119*$C$33</f>
         <v>90.946319999999986</v>
       </c>
-      <c r="I117" s="358">
+      <c r="I119" s="358">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="J117" s="181">
-        <f t="shared" si="31"/>
+      <c r="J119" s="181">
+        <f t="shared" si="41"/>
         <v>1401.57</v>
       </c>
-      <c r="K117" s="190">
-        <f t="shared" si="32"/>
+      <c r="K119" s="190">
+        <f t="shared" si="42"/>
         <v>88.298909999999992</v>
       </c>
-      <c r="L117" s="298">
+      <c r="L119" s="298">
         <v>0.19</v>
       </c>
-      <c r="M117" s="180">
-        <f t="shared" si="25"/>
+      <c r="M119" s="180">
+        <f t="shared" si="35"/>
         <v>5917.74</v>
       </c>
-      <c r="N117" s="180">
-        <f t="shared" si="26"/>
+      <c r="N119" s="180">
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="O117" s="358">
+      <c r="O119" s="358">
         <v>0.33700000000000002</v>
       </c>
-      <c r="P117" s="181">
-        <f t="shared" si="33"/>
+      <c r="P119" s="181">
+        <f t="shared" si="43"/>
         <v>10496.202000000001</v>
       </c>
-      <c r="Q117" s="190">
-        <f t="shared" si="34"/>
+      <c r="Q119" s="190">
+        <f t="shared" si="44"/>
         <v>629.77212000000009</v>
       </c>
-      <c r="R117" s="298">
+      <c r="R119" s="298">
         <v>0.01</v>
       </c>
-      <c r="S117" s="180">
-        <f t="shared" si="27"/>
+      <c r="S119" s="180">
+        <f t="shared" si="37"/>
         <v>311.45999999999998</v>
       </c>
-      <c r="T117" s="180">
-        <f>S117*$C$37</f>
+      <c r="T119" s="180">
+        <f>S119*$C$37</f>
         <v>17.441759999999999</v>
       </c>
-      <c r="U117" s="103">
-        <f t="shared" si="35"/>
+      <c r="U119" s="103">
+        <f t="shared" si="45"/>
         <v>20307.191999999999</v>
       </c>
-      <c r="V117" s="189">
-        <f t="shared" si="36"/>
+      <c r="V119" s="189">
+        <f t="shared" si="46"/>
         <v>924.56901000000005</v>
       </c>
-      <c r="X117" s="197"/>
-      <c r="Y117" s="111">
+      <c r="X119" s="197"/>
+      <c r="Y119" s="111">
         <v>0.28000000000000003</v>
       </c>
-      <c r="Z117" s="190">
-        <f t="shared" si="28"/>
+      <c r="Z119" s="190">
+        <f t="shared" si="38"/>
         <v>8720.880000000001</v>
       </c>
-      <c r="AA117" s="111">
+      <c r="AA119" s="111">
         <v>0.73</v>
       </c>
-      <c r="AB117" s="79">
-        <f t="shared" si="29"/>
+      <c r="AB119" s="79">
+        <f t="shared" si="39"/>
         <v>22736.579999999998</v>
       </c>
-      <c r="AC117" s="111">
+      <c r="AC119" s="111">
         <v>0.12</v>
       </c>
-      <c r="AD117" s="79">
-        <f t="shared" si="30"/>
+      <c r="AD119" s="79">
+        <f t="shared" si="40"/>
         <v>3737.52</v>
       </c>
     </row>
-    <row r="118" spans="1:30">
-      <c r="A118" s="205" t="s">
+    <row r="120" spans="1:30">
+      <c r="A120" s="205" t="s">
         <v>203</v>
       </c>
-      <c r="B118" s="80">
-        <f>AG74</f>
+      <c r="B120" s="80">
+        <f>AG76</f>
         <v>6048.3481676905894</v>
       </c>
-      <c r="C118" s="204">
+      <c r="C120" s="204">
         <v>0.01</v>
       </c>
-      <c r="D118" s="167">
-        <f t="shared" ref="D118:D122" si="37">B118*C118</f>
+      <c r="D120" s="167">
+        <f t="shared" ref="D120:D124" si="47">B120*C120</f>
         <v>60.483481676905896</v>
       </c>
-      <c r="E118" s="203">
-        <f t="shared" ref="E118:E122" si="38">D118*$C$32</f>
+      <c r="E120" s="203">
+        <f t="shared" ref="E120:E124" si="48">D120*$C$32</f>
         <v>6.3507655760751192</v>
       </c>
-      <c r="F118" s="197">
+      <c r="F120" s="197">
         <v>0.01</v>
       </c>
-      <c r="G118" s="167">
-        <f t="shared" ref="G118:G122" si="39">B118*F118</f>
+      <c r="G120" s="167">
+        <f t="shared" ref="G120:G124" si="49">B120*F120</f>
         <v>60.483481676905896</v>
       </c>
-      <c r="H118" s="202">
-        <f t="shared" ref="H118:H122" si="40">G118*$C$33</f>
+      <c r="H120" s="202">
+        <f t="shared" ref="H120:H124" si="50">G120*$C$33</f>
         <v>4.4152941624141304</v>
-      </c>
-      <c r="I118" s="100">
-        <v>0</v>
-      </c>
-      <c r="J118" s="180">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="K118" s="189">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="L118" s="197">
-        <v>0.18</v>
-      </c>
-      <c r="M118" s="167">
-        <f t="shared" si="25"/>
-        <v>1088.702670184306</v>
-      </c>
-      <c r="N118" s="202">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="O118" s="100">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="P118" s="180">
-        <f t="shared" si="33"/>
-        <v>453.62611257679418</v>
-      </c>
-      <c r="Q118" s="189">
-        <f t="shared" si="34"/>
-        <v>27.217566754607649</v>
-      </c>
-      <c r="R118" s="197">
-        <v>0.01</v>
-      </c>
-      <c r="S118" s="167">
-        <f t="shared" si="27"/>
-        <v>60.483481676905896</v>
-      </c>
-      <c r="T118" s="202">
-        <f t="shared" ref="T118:T122" si="41">S118*$C$37</f>
-        <v>3.3870749739067301</v>
-      </c>
-      <c r="U118" s="167">
-        <f t="shared" si="35"/>
-        <v>1723.7792277918179</v>
-      </c>
-      <c r="V118" s="203">
-        <f t="shared" si="36"/>
-        <v>41.370701467003627</v>
-      </c>
-      <c r="X118" s="307"/>
-      <c r="Y118" s="113">
-        <v>0.21</v>
-      </c>
-      <c r="Z118" s="203">
-        <f t="shared" si="28"/>
-        <v>1270.1531152150237</v>
-      </c>
-      <c r="AA118" s="113">
-        <v>0.8</v>
-      </c>
-      <c r="AB118" s="80">
-        <f t="shared" si="29"/>
-        <v>4838.6785341524719</v>
-      </c>
-      <c r="AC118" s="113">
-        <v>0.05</v>
-      </c>
-      <c r="AD118" s="80">
-        <f t="shared" si="30"/>
-        <v>302.41740838452949</v>
-      </c>
-    </row>
-    <row r="119" spans="1:30">
-      <c r="A119" s="206" t="s">
-        <v>204</v>
-      </c>
-      <c r="B119" s="105">
-        <f>AG75</f>
-        <v>15521.901451053342</v>
-      </c>
-      <c r="C119" s="204">
-        <v>0.02</v>
-      </c>
-      <c r="D119" s="103">
-        <f t="shared" si="37"/>
-        <v>310.43802902106682</v>
-      </c>
-      <c r="E119" s="189">
-        <f t="shared" si="38"/>
-        <v>32.595993047212012</v>
-      </c>
-      <c r="F119" s="197">
-        <v>0.03</v>
-      </c>
-      <c r="G119" s="103">
-        <f t="shared" si="39"/>
-        <v>465.65704353160021</v>
-      </c>
-      <c r="H119" s="180">
-        <f t="shared" si="40"/>
-        <v>33.992964177806812</v>
-      </c>
-      <c r="I119" s="100">
-        <v>0</v>
-      </c>
-      <c r="J119" s="180">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="K119" s="189">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="L119" s="197">
-        <v>0.15</v>
-      </c>
-      <c r="M119" s="103">
-        <f t="shared" si="25"/>
-        <v>2328.2852176580013</v>
-      </c>
-      <c r="N119" s="180">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="O119" s="100">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="P119" s="180">
-        <f t="shared" si="33"/>
-        <v>1164.1426088290007</v>
-      </c>
-      <c r="Q119" s="189">
-        <f t="shared" si="34"/>
-        <v>69.848556529740037</v>
-      </c>
-      <c r="R119" s="197">
-        <v>0.01</v>
-      </c>
-      <c r="S119" s="103">
-        <f t="shared" si="27"/>
-        <v>155.21901451053341</v>
-      </c>
-      <c r="T119" s="180">
-        <f t="shared" si="41"/>
-        <v>8.6922648125898707</v>
-      </c>
-      <c r="U119" s="103">
-        <f t="shared" si="35"/>
-        <v>4423.7419135502023</v>
-      </c>
-      <c r="V119" s="189">
-        <f t="shared" si="36"/>
-        <v>145.12977856734875</v>
-      </c>
-      <c r="X119" s="307"/>
-      <c r="Y119" s="113">
-        <v>0.2</v>
-      </c>
-      <c r="Z119" s="189">
-        <f t="shared" si="28"/>
-        <v>3104.3802902106686</v>
-      </c>
-      <c r="AA119" s="113">
-        <v>0.76</v>
-      </c>
-      <c r="AB119" s="105">
-        <f t="shared" si="29"/>
-        <v>11796.645102800539</v>
-      </c>
-      <c r="AC119" s="113">
-        <v>0.1</v>
-      </c>
-      <c r="AD119" s="105">
-        <f t="shared" si="30"/>
-        <v>1552.1901451053343</v>
-      </c>
-    </row>
-    <row r="120" spans="1:30">
-      <c r="A120" s="206" t="s">
-        <v>205</v>
-      </c>
-      <c r="B120" s="105">
-        <f>AG76</f>
-        <v>11885.752374017402</v>
-      </c>
-      <c r="C120" s="204">
-        <v>0.04</v>
-      </c>
-      <c r="D120" s="103">
-        <f t="shared" si="37"/>
-        <v>475.43009496069607</v>
-      </c>
-      <c r="E120" s="189">
-        <f t="shared" si="38"/>
-        <v>49.920159970873087</v>
-      </c>
-      <c r="F120" s="197">
-        <v>0.08</v>
-      </c>
-      <c r="G120" s="103">
-        <f t="shared" si="39"/>
-        <v>950.86018992139213</v>
-      </c>
-      <c r="H120" s="180">
-        <f t="shared" si="40"/>
-        <v>69.412793864261616</v>
       </c>
       <c r="I120" s="100">
         <v>0</v>
       </c>
       <c r="J120" s="180">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="K120" s="189">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="L120" s="197">
-        <v>0.15</v>
-      </c>
-      <c r="M120" s="103">
-        <f t="shared" si="25"/>
-        <v>1782.8628561026103</v>
-      </c>
-      <c r="N120" s="180">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="O120" s="100">
-        <v>0.159</v>
-      </c>
-      <c r="P120" s="180">
-        <f t="shared" si="33"/>
-        <v>1889.8346274687669</v>
-      </c>
-      <c r="Q120" s="189">
-        <f t="shared" si="34"/>
-        <v>113.39007764812601</v>
-      </c>
-      <c r="R120" s="197">
-        <v>0</v>
-      </c>
-      <c r="S120" s="103">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="T120" s="180">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="U120" s="103">
+      <c r="K120" s="189">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="L120" s="197">
+        <v>0.18</v>
+      </c>
+      <c r="M120" s="167">
         <f t="shared" si="35"/>
-        <v>5098.9877684534658</v>
-      </c>
-      <c r="V120" s="189">
+        <v>1088.702670184306</v>
+      </c>
+      <c r="N120" s="202">
         <f t="shared" si="36"/>
-        <v>232.72303148326071</v>
+        <v>0</v>
+      </c>
+      <c r="O120" s="100">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="P120" s="180">
+        <f t="shared" si="43"/>
+        <v>453.62611257679418</v>
+      </c>
+      <c r="Q120" s="189">
+        <f t="shared" si="44"/>
+        <v>27.217566754607649</v>
+      </c>
+      <c r="R120" s="197">
+        <v>0.01</v>
+      </c>
+      <c r="S120" s="167">
+        <f t="shared" si="37"/>
+        <v>60.483481676905896</v>
+      </c>
+      <c r="T120" s="202">
+        <f t="shared" ref="T120:T124" si="51">S120*$C$37</f>
+        <v>3.3870749739067301</v>
+      </c>
+      <c r="U120" s="167">
+        <f t="shared" si="45"/>
+        <v>1723.7792277918179</v>
+      </c>
+      <c r="V120" s="203">
+        <f t="shared" si="46"/>
+        <v>41.370701467003627</v>
       </c>
       <c r="X120" s="307"/>
       <c r="Y120" s="113">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="Z120" s="189">
-        <f t="shared" si="28"/>
-        <v>3328.0106647248726</v>
+        <v>0.21</v>
+      </c>
+      <c r="Z120" s="203">
+        <f t="shared" si="38"/>
+        <v>1270.1531152150237</v>
       </c>
       <c r="AA120" s="113">
-        <v>0.79</v>
-      </c>
-      <c r="AB120" s="105">
-        <f t="shared" si="29"/>
-        <v>9389.7443754737487</v>
+        <v>0.8</v>
+      </c>
+      <c r="AB120" s="80">
+        <f t="shared" si="39"/>
+        <v>4838.6785341524719</v>
       </c>
       <c r="AC120" s="113">
-        <v>0.09</v>
-      </c>
-      <c r="AD120" s="105">
-        <f t="shared" si="30"/>
-        <v>1069.7177136615662</v>
+        <v>0.05</v>
+      </c>
+      <c r="AD120" s="80">
+        <f t="shared" si="40"/>
+        <v>302.41740838452949</v>
       </c>
     </row>
     <row r="121" spans="1:30">
       <c r="A121" s="206" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B121" s="105">
         <f>AG77</f>
-        <v>6122.6429837205578</v>
+        <v>15521.901451053342</v>
       </c>
       <c r="C121" s="204">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="D121" s="103">
+        <f t="shared" si="47"/>
+        <v>310.43802902106682</v>
+      </c>
+      <c r="E121" s="189">
+        <f t="shared" si="48"/>
+        <v>32.595993047212012</v>
+      </c>
+      <c r="F121" s="197">
+        <v>0.03</v>
+      </c>
+      <c r="G121" s="103">
+        <f t="shared" si="49"/>
+        <v>465.65704353160021</v>
+      </c>
+      <c r="H121" s="180">
+        <f t="shared" si="50"/>
+        <v>33.992964177806812</v>
+      </c>
+      <c r="I121" s="100">
+        <v>0</v>
+      </c>
+      <c r="J121" s="180">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="K121" s="189">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="L121" s="197">
+        <v>0.15</v>
+      </c>
+      <c r="M121" s="103">
+        <f t="shared" si="35"/>
+        <v>2328.2852176580013</v>
+      </c>
+      <c r="N121" s="180">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="O121" s="100">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="P121" s="180">
+        <f t="shared" si="43"/>
+        <v>1164.1426088290007</v>
+      </c>
+      <c r="Q121" s="189">
+        <f t="shared" si="44"/>
+        <v>69.848556529740037</v>
+      </c>
+      <c r="R121" s="197">
+        <v>0.01</v>
+      </c>
+      <c r="S121" s="103">
         <f t="shared" si="37"/>
-        <v>244.90571934882232</v>
-      </c>
-      <c r="E121" s="189">
-        <f t="shared" si="38"/>
-        <v>25.715100531626341</v>
-      </c>
-      <c r="F121" s="197">
-        <v>0.08</v>
-      </c>
-      <c r="G121" s="103">
-        <f t="shared" si="39"/>
-        <v>489.81143869764463</v>
-      </c>
-      <c r="H121" s="180">
-        <f t="shared" si="40"/>
-        <v>35.756235024928053</v>
-      </c>
-      <c r="I121" s="100">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="J121" s="180">
-        <f t="shared" si="31"/>
-        <v>134.69814564185228</v>
-      </c>
-      <c r="K121" s="189">
-        <f t="shared" si="32"/>
-        <v>8.4859831754366937</v>
-      </c>
-      <c r="L121" s="197">
-        <v>0.18</v>
-      </c>
-      <c r="M121" s="103">
-        <f t="shared" si="25"/>
-        <v>1102.0757370697004</v>
-      </c>
-      <c r="N121" s="180">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="O121" s="359">
-        <v>0.26400000000000001</v>
-      </c>
-      <c r="P121" s="180">
-        <f t="shared" si="33"/>
-        <v>1616.3777477022275</v>
-      </c>
-      <c r="Q121" s="189">
-        <f t="shared" si="34"/>
-        <v>96.982664862133646</v>
-      </c>
-      <c r="R121" s="197">
-        <v>0.03</v>
-      </c>
-      <c r="S121" s="103">
-        <f t="shared" si="27"/>
-        <v>183.67928951161673</v>
+        <v>155.21901451053341</v>
       </c>
       <c r="T121" s="180">
-        <f t="shared" si="41"/>
-        <v>10.286040212650537</v>
+        <f t="shared" si="51"/>
+        <v>8.6922648125898707</v>
       </c>
       <c r="U121" s="103">
-        <f t="shared" si="35"/>
-        <v>3771.5480779718637</v>
+        <f t="shared" si="45"/>
+        <v>4423.7419135502023</v>
       </c>
       <c r="V121" s="189">
-        <f t="shared" si="36"/>
-        <v>177.22602380677526</v>
+        <f t="shared" si="46"/>
+        <v>145.12977856734875</v>
       </c>
       <c r="X121" s="307"/>
       <c r="Y121" s="113">
-        <v>0.36</v>
+        <v>0.2</v>
       </c>
       <c r="Z121" s="189">
-        <f t="shared" si="28"/>
-        <v>2204.1514741394008</v>
+        <f t="shared" si="38"/>
+        <v>3104.3802902106686</v>
       </c>
       <c r="AA121" s="113">
-        <v>0.66</v>
+        <v>0.76</v>
       </c>
       <c r="AB121" s="105">
-        <f t="shared" si="29"/>
-        <v>4040.9443692555683</v>
+        <f t="shared" si="39"/>
+        <v>11796.645102800539</v>
       </c>
       <c r="AC121" s="113">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="AD121" s="105">
-        <f t="shared" si="30"/>
-        <v>918.39644755808365</v>
+        <f t="shared" si="40"/>
+        <v>1552.1901451053343</v>
       </c>
     </row>
     <row r="122" spans="1:30">
-      <c r="A122" s="207" t="s">
-        <v>189</v>
-      </c>
-      <c r="B122" s="79">
+      <c r="A122" s="206" t="s">
+        <v>205</v>
+      </c>
+      <c r="B122" s="105">
         <f>AG78</f>
-        <v>3468.0717639909399</v>
-      </c>
-      <c r="C122" s="199">
-        <v>0.38</v>
-      </c>
-      <c r="D122" s="104">
-        <f t="shared" si="37"/>
-        <v>1317.8672703165571</v>
-      </c>
-      <c r="E122" s="190">
-        <f t="shared" si="38"/>
-        <v>138.37606338323849</v>
-      </c>
-      <c r="F122" s="200">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="G122" s="104">
-        <f t="shared" si="39"/>
-        <v>1005.7408115573725</v>
-      </c>
-      <c r="H122" s="181">
-        <f t="shared" si="40"/>
-        <v>73.419079243688188</v>
-      </c>
-      <c r="I122" s="101">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="J122" s="181">
-        <f t="shared" si="31"/>
-        <v>169.93551643555605</v>
-      </c>
-      <c r="K122" s="190">
-        <f t="shared" si="32"/>
-        <v>10.705937535440031</v>
-      </c>
-      <c r="L122" s="200">
-        <v>0.09</v>
-      </c>
-      <c r="M122" s="104">
-        <f t="shared" si="25"/>
-        <v>312.12645875918457</v>
-      </c>
-      <c r="N122" s="181">
-        <f t="shared" si="26"/>
+        <v>11885.752374017402</v>
+      </c>
+      <c r="C122" s="204">
+        <v>0.04</v>
+      </c>
+      <c r="D122" s="103">
+        <f t="shared" si="47"/>
+        <v>475.43009496069607</v>
+      </c>
+      <c r="E122" s="189">
+        <f t="shared" si="48"/>
+        <v>49.920159970873087</v>
+      </c>
+      <c r="F122" s="197">
+        <v>0.08</v>
+      </c>
+      <c r="G122" s="103">
+        <f t="shared" si="49"/>
+        <v>950.86018992139213</v>
+      </c>
+      <c r="H122" s="180">
+        <f t="shared" si="50"/>
+        <v>69.412793864261616</v>
+      </c>
+      <c r="I122" s="100">
         <v>0</v>
       </c>
-      <c r="O122" s="101">
-        <v>0.33500000000000002</v>
-      </c>
-      <c r="P122" s="181">
-        <f t="shared" si="33"/>
-        <v>1161.8040409369648</v>
-      </c>
-      <c r="Q122" s="190">
-        <f t="shared" si="34"/>
-        <v>69.708242456217889</v>
-      </c>
-      <c r="R122" s="200">
-        <v>0</v>
-      </c>
-      <c r="S122" s="104">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="T122" s="181">
+      <c r="J122" s="180">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="U122" s="104">
-        <f>D122+G122+J122+M122+P122+S122</f>
+      <c r="K122" s="189">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="L122" s="197">
+        <v>0.15</v>
+      </c>
+      <c r="M122" s="103">
+        <f t="shared" si="35"/>
+        <v>1782.8628561026103</v>
+      </c>
+      <c r="N122" s="180">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="O122" s="100">
+        <v>0.159</v>
+      </c>
+      <c r="P122" s="180">
+        <f t="shared" si="43"/>
+        <v>1889.8346274687669</v>
+      </c>
+      <c r="Q122" s="189">
+        <f t="shared" si="44"/>
+        <v>113.39007764812601</v>
+      </c>
+      <c r="R122" s="197">
+        <v>0</v>
+      </c>
+      <c r="S122" s="103">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="T122" s="180">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="U122" s="103">
+        <f t="shared" si="45"/>
+        <v>5098.9877684534658</v>
+      </c>
+      <c r="V122" s="189">
+        <f t="shared" si="46"/>
+        <v>232.72303148326071</v>
+      </c>
+      <c r="X122" s="307"/>
+      <c r="Y122" s="113">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Z122" s="189">
+        <f t="shared" si="38"/>
+        <v>3328.0106647248726</v>
+      </c>
+      <c r="AA122" s="113">
+        <v>0.79</v>
+      </c>
+      <c r="AB122" s="105">
+        <f t="shared" si="39"/>
+        <v>9389.7443754737487</v>
+      </c>
+      <c r="AC122" s="113">
+        <v>0.09</v>
+      </c>
+      <c r="AD122" s="105">
+        <f t="shared" si="40"/>
+        <v>1069.7177136615662</v>
+      </c>
+    </row>
+    <row r="123" spans="1:30">
+      <c r="A123" s="206" t="s">
+        <v>206</v>
+      </c>
+      <c r="B123" s="105">
+        <f>AG79</f>
+        <v>6122.6429837205578</v>
+      </c>
+      <c r="C123" s="204">
+        <v>0.04</v>
+      </c>
+      <c r="D123" s="103">
+        <f t="shared" si="47"/>
+        <v>244.90571934882232</v>
+      </c>
+      <c r="E123" s="189">
+        <f t="shared" si="48"/>
+        <v>25.715100531626341</v>
+      </c>
+      <c r="F123" s="197">
+        <v>0.08</v>
+      </c>
+      <c r="G123" s="103">
+        <f t="shared" si="49"/>
+        <v>489.81143869764463</v>
+      </c>
+      <c r="H123" s="180">
+        <f t="shared" si="50"/>
+        <v>35.756235024928053</v>
+      </c>
+      <c r="I123" s="100">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="J123" s="180">
+        <f t="shared" si="41"/>
+        <v>134.69814564185228</v>
+      </c>
+      <c r="K123" s="189">
+        <f t="shared" si="42"/>
+        <v>8.4859831754366937</v>
+      </c>
+      <c r="L123" s="197">
+        <v>0.18</v>
+      </c>
+      <c r="M123" s="103">
+        <f t="shared" si="35"/>
+        <v>1102.0757370697004</v>
+      </c>
+      <c r="N123" s="180">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="O123" s="359">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="P123" s="180">
+        <f t="shared" si="43"/>
+        <v>1616.3777477022275</v>
+      </c>
+      <c r="Q123" s="189">
+        <f t="shared" si="44"/>
+        <v>96.982664862133646</v>
+      </c>
+      <c r="R123" s="197">
+        <v>0.03</v>
+      </c>
+      <c r="S123" s="103">
+        <f t="shared" si="37"/>
+        <v>183.67928951161673</v>
+      </c>
+      <c r="T123" s="180">
+        <f t="shared" si="51"/>
+        <v>10.286040212650537</v>
+      </c>
+      <c r="U123" s="103">
+        <f t="shared" si="45"/>
+        <v>3771.5480779718637</v>
+      </c>
+      <c r="V123" s="189">
+        <f t="shared" si="46"/>
+        <v>177.22602380677526</v>
+      </c>
+      <c r="X123" s="307"/>
+      <c r="Y123" s="113">
+        <v>0.36</v>
+      </c>
+      <c r="Z123" s="189">
+        <f t="shared" si="38"/>
+        <v>2204.1514741394008</v>
+      </c>
+      <c r="AA123" s="113">
+        <v>0.66</v>
+      </c>
+      <c r="AB123" s="105">
+        <f t="shared" si="39"/>
+        <v>4040.9443692555683</v>
+      </c>
+      <c r="AC123" s="113">
+        <v>0.15</v>
+      </c>
+      <c r="AD123" s="105">
+        <f t="shared" si="40"/>
+        <v>918.39644755808365</v>
+      </c>
+    </row>
+    <row r="124" spans="1:30">
+      <c r="A124" s="207" t="s">
+        <v>189</v>
+      </c>
+      <c r="B124" s="79">
+        <f>AG80</f>
+        <v>3468.0717639909399</v>
+      </c>
+      <c r="C124" s="199">
+        <v>0.38</v>
+      </c>
+      <c r="D124" s="104">
+        <f t="shared" si="47"/>
+        <v>1317.8672703165571</v>
+      </c>
+      <c r="E124" s="190">
+        <f t="shared" si="48"/>
+        <v>138.37606338323849</v>
+      </c>
+      <c r="F124" s="200">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G124" s="104">
+        <f t="shared" si="49"/>
+        <v>1005.7408115573725</v>
+      </c>
+      <c r="H124" s="181">
+        <f t="shared" si="50"/>
+        <v>73.419079243688188</v>
+      </c>
+      <c r="I124" s="101">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="J124" s="181">
+        <f t="shared" si="41"/>
+        <v>169.93551643555605</v>
+      </c>
+      <c r="K124" s="190">
+        <f t="shared" si="42"/>
+        <v>10.705937535440031</v>
+      </c>
+      <c r="L124" s="200">
+        <v>0.09</v>
+      </c>
+      <c r="M124" s="104">
+        <f t="shared" si="35"/>
+        <v>312.12645875918457</v>
+      </c>
+      <c r="N124" s="181">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="O124" s="101">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="P124" s="181">
+        <f t="shared" si="43"/>
+        <v>1161.8040409369648</v>
+      </c>
+      <c r="Q124" s="190">
+        <f t="shared" si="44"/>
+        <v>69.708242456217889</v>
+      </c>
+      <c r="R124" s="200">
+        <v>0</v>
+      </c>
+      <c r="S124" s="104">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="T124" s="181">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="U124" s="104">
+        <f>D124+G124+J124+M124+P124+S124</f>
         <v>3967.4740980056349</v>
       </c>
-      <c r="V122" s="190">
-        <f t="shared" si="36"/>
+      <c r="V124" s="190">
+        <f t="shared" si="46"/>
         <v>292.20932261858462</v>
       </c>
-      <c r="X122" s="307"/>
-      <c r="Y122" s="111">
+      <c r="X124" s="307"/>
+      <c r="Y124" s="111">
         <v>0.71</v>
       </c>
-      <c r="Z122" s="190">
-        <f t="shared" si="28"/>
+      <c r="Z124" s="190">
+        <f t="shared" si="38"/>
         <v>2462.3309524335673</v>
       </c>
-      <c r="AA122" s="111">
+      <c r="AA124" s="111">
         <v>0.53</v>
       </c>
-      <c r="AB122" s="79">
-        <f t="shared" si="29"/>
+      <c r="AB124" s="79">
+        <f t="shared" si="39"/>
         <v>1838.0780349151983</v>
       </c>
-      <c r="AC122" s="111">
+      <c r="AC124" s="111">
         <v>0.21</v>
       </c>
-      <c r="AD122" s="79">
-        <f t="shared" si="30"/>
+      <c r="AD124" s="79">
+        <f t="shared" si="40"/>
         <v>728.29507043809735</v>
       </c>
     </row>
-    <row r="123" spans="1:30">
-      <c r="A123" s="1" t="s">
+    <row r="125" spans="1:30">
+      <c r="A125" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="B123" s="197"/>
-      <c r="C123" s="197"/>
-      <c r="D123" s="197"/>
-      <c r="E123" s="197"/>
-      <c r="F123" s="197"/>
-      <c r="G123" s="197"/>
-      <c r="H123" s="197"/>
-      <c r="L123" s="197"/>
-      <c r="M123" s="197"/>
-      <c r="S123" t="s">
-        <v>277</v>
-      </c>
-      <c r="U123" s="79">
-        <f>SUM(U118:U122)</f>
-        <v>18985.531085772986</v>
-      </c>
-      <c r="V123" s="79">
-        <f>SUM(V118:V122)</f>
-        <v>888.6588579429731</v>
-      </c>
-    </row>
-    <row r="124" spans="1:30">
-      <c r="A124" s="1"/>
-      <c r="B124" s="197"/>
-      <c r="C124" s="197"/>
-      <c r="D124" s="197"/>
-      <c r="E124" s="197"/>
-      <c r="F124" s="197"/>
-      <c r="G124" s="197"/>
-      <c r="H124" s="197"/>
-      <c r="I124" s="197"/>
-      <c r="J124" s="197"/>
-    </row>
-    <row r="125" spans="1:30">
-      <c r="A125" s="1"/>
-      <c r="B125" s="197" t="s">
-        <v>562</v>
-      </c>
+      <c r="B125" s="197"/>
       <c r="C125" s="197"/>
       <c r="D125" s="197"/>
       <c r="E125" s="197"/>
       <c r="F125" s="197"/>
       <c r="G125" s="197"/>
       <c r="H125" s="197"/>
-      <c r="I125" s="197"/>
-      <c r="J125" s="197"/>
+      <c r="L125" s="197"/>
+      <c r="M125" s="197"/>
+      <c r="S125" t="s">
+        <v>277</v>
+      </c>
+      <c r="U125" s="79">
+        <f>SUM(U120:U124)</f>
+        <v>18985.531085772986</v>
+      </c>
+      <c r="V125" s="79">
+        <f>SUM(V120:V124)</f>
+        <v>888.6588579429731</v>
+      </c>
     </row>
     <row r="126" spans="1:30">
       <c r="A126" s="1"/>
-      <c r="B126" s="197" t="s">
-        <v>609</v>
-      </c>
+      <c r="B126" s="197"/>
       <c r="C126" s="197"/>
       <c r="D126" s="197"/>
       <c r="E126" s="197"/>
@@ -12500,184 +12632,233 @@
       <c r="I126" s="197"/>
       <c r="J126" s="197"/>
     </row>
-    <row r="129" spans="1:5">
-      <c r="B129" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5">
-      <c r="B130" t="s">
-        <v>216</v>
-      </c>
-      <c r="E130" s="46" t="s">
-        <v>218</v>
-      </c>
+    <row r="127" spans="1:30">
+      <c r="A127" s="1"/>
+      <c r="B127" s="197" t="s">
+        <v>562</v>
+      </c>
+      <c r="C127" s="197"/>
+      <c r="D127" s="197"/>
+      <c r="E127" s="197"/>
+      <c r="F127" s="197"/>
+      <c r="G127" s="197"/>
+      <c r="H127" s="197"/>
+      <c r="I127" s="197"/>
+      <c r="J127" s="197"/>
+    </row>
+    <row r="128" spans="1:30">
+      <c r="A128" s="1"/>
+      <c r="B128" s="197" t="s">
+        <v>609</v>
+      </c>
+      <c r="C128" s="197"/>
+      <c r="D128" s="197"/>
+      <c r="E128" s="197"/>
+      <c r="F128" s="197"/>
+      <c r="G128" s="197"/>
+      <c r="H128" s="197"/>
+      <c r="I128" s="197"/>
+      <c r="J128" s="197"/>
     </row>
     <row r="131" spans="1:5">
       <c r="B131" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="B132" t="s">
+        <v>216</v>
+      </c>
+      <c r="E132" s="46" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="B133" t="s">
         <v>213</v>
       </c>
-      <c r="E131" s="46" t="s">
+      <c r="E133" s="46" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
-      <c r="E132" s="46" t="s">
+    <row r="134" spans="1:5">
+      <c r="E134" s="46" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
-      <c r="A134" t="s">
+    <row r="136" spans="1:5">
+      <c r="A136" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
-      <c r="B135" s="20">
+    <row r="137" spans="1:5">
+      <c r="B137" s="20">
         <v>31000</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C137" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
-      <c r="B136" s="115">
+    <row r="138" spans="1:5">
+      <c r="B138" s="115">
         <v>81397.070000000007</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C138" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
-      <c r="B137" s="8">
+    <row r="139" spans="1:5">
+      <c r="B139" s="8">
         <v>0.41</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C139" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
-      <c r="B138" s="26">
-        <f>B135*(1-B137)</f>
+    <row r="140" spans="1:5">
+      <c r="B140" s="26">
+        <f>B137*(1-B139)</f>
         <v>18290.000000000004</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C140" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
-      <c r="B139" s="26">
-        <f>B135*B137</f>
+    <row r="141" spans="1:5">
+      <c r="B141" s="26">
+        <f>B137*B139</f>
         <v>12710</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C141" t="s">
         <v>288</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5">
-      <c r="B140" s="8">
-        <v>0.38</v>
-      </c>
-      <c r="C140" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5">
-      <c r="B141">
-        <v>45</v>
-      </c>
-      <c r="C141" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="B142" s="8">
+        <v>0.38</v>
+      </c>
+      <c r="C142" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="B143">
+        <v>45</v>
+      </c>
+      <c r="C143" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="B144" s="8">
         <v>0.15</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C144" t="s">
         <v>225</v>
-      </c>
-    </row>
-    <row r="148" spans="2:3">
-      <c r="B148" t="s">
-        <v>226</v>
-      </c>
-      <c r="C148" s="46" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="150" spans="2:3">
       <c r="B150" t="s">
+        <v>226</v>
+      </c>
+      <c r="C150" s="46" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="152" spans="2:3">
+      <c r="B152" t="s">
         <v>230</v>
-      </c>
-    </row>
-    <row r="151" spans="2:3">
-      <c r="B151" t="s">
-        <v>228</v>
-      </c>
-      <c r="C151" s="46" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="152" spans="2:3">
-      <c r="C152" s="46" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="153" spans="2:3">
       <c r="B153" t="s">
+        <v>228</v>
+      </c>
+      <c r="C153" s="46" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="154" spans="2:3">
+      <c r="C154" s="46" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="155" spans="2:3">
+      <c r="B155" t="s">
         <v>232</v>
       </c>
-      <c r="C153" s="46" t="s">
+      <c r="C155" s="46" t="s">
         <v>231</v>
-      </c>
-    </row>
-    <row r="154" spans="2:3">
-      <c r="B154" t="s">
-        <v>233</v>
-      </c>
-      <c r="C154" s="46" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="156" spans="2:3">
       <c r="B156" t="s">
-        <v>254</v>
+        <v>233</v>
       </c>
       <c r="C156" s="46" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="157" spans="2:3">
-      <c r="B157" t="s">
-        <v>256</v>
-      </c>
-      <c r="C157" s="46" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
     </row>
     <row r="158" spans="2:3">
       <c r="B158" t="s">
+        <v>254</v>
+      </c>
+      <c r="C158" s="46" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="159" spans="2:3">
+      <c r="B159" t="s">
+        <v>256</v>
+      </c>
+      <c r="C159" s="46" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="160" spans="2:3">
+      <c r="B160" t="s">
         <v>258</v>
       </c>
-      <c r="C158" s="46" t="s">
+      <c r="C160" s="46" t="s">
         <v>259</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="D58:H58"/>
-    <mergeCell ref="D59:H59"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="T43:AB43"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="B43:J43"/>
-    <mergeCell ref="K43:S43"/>
-    <mergeCell ref="Q44:S44"/>
-    <mergeCell ref="T44:V44"/>
-    <mergeCell ref="T70:Y70"/>
-    <mergeCell ref="T71:Y71"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="E103:F103"/>
+    <mergeCell ref="G103:H103"/>
+    <mergeCell ref="AC58:AH58"/>
+    <mergeCell ref="AC59:AH59"/>
+    <mergeCell ref="AC72:AH72"/>
+    <mergeCell ref="AC73:AH73"/>
+    <mergeCell ref="Z58:AB58"/>
+    <mergeCell ref="Z59:AB59"/>
+    <mergeCell ref="Z62:Z63"/>
+    <mergeCell ref="AA62:AA63"/>
+    <mergeCell ref="AB62:AB63"/>
+    <mergeCell ref="Z72:AB72"/>
+    <mergeCell ref="Z73:AB73"/>
+    <mergeCell ref="B83:J83"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="I59:N59"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="K44:M44"/>
+    <mergeCell ref="N44:P44"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="I58:N58"/>
+    <mergeCell ref="I72:N72"/>
+    <mergeCell ref="I73:N73"/>
+    <mergeCell ref="D72:H72"/>
+    <mergeCell ref="D73:H73"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="T72:Y72"/>
+    <mergeCell ref="T73:Y73"/>
     <mergeCell ref="W44:Y44"/>
     <mergeCell ref="Z44:AB44"/>
     <mergeCell ref="O62:O63"/>
@@ -12687,58 +12868,37 @@
     <mergeCell ref="S62:S63"/>
     <mergeCell ref="O58:S58"/>
     <mergeCell ref="O59:S59"/>
-    <mergeCell ref="O70:S70"/>
-    <mergeCell ref="O71:S71"/>
-    <mergeCell ref="I70:N70"/>
-    <mergeCell ref="I71:N71"/>
-    <mergeCell ref="D70:H70"/>
-    <mergeCell ref="D71:H71"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="I58:N58"/>
-    <mergeCell ref="I59:N59"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="K44:M44"/>
-    <mergeCell ref="N44:P44"/>
+    <mergeCell ref="O72:S72"/>
+    <mergeCell ref="O73:S73"/>
     <mergeCell ref="T58:Y58"/>
     <mergeCell ref="T59:Y59"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="E101:F101"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="AC58:AH58"/>
-    <mergeCell ref="AC59:AH59"/>
-    <mergeCell ref="AC70:AH70"/>
-    <mergeCell ref="AC71:AH71"/>
-    <mergeCell ref="Z58:AB58"/>
-    <mergeCell ref="Z59:AB59"/>
-    <mergeCell ref="Z62:Z63"/>
-    <mergeCell ref="AA62:AA63"/>
-    <mergeCell ref="AB62:AB63"/>
-    <mergeCell ref="Z70:AB70"/>
-    <mergeCell ref="Z71:AB71"/>
-    <mergeCell ref="B81:J81"/>
-    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="T43:AB43"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="B43:J43"/>
+    <mergeCell ref="K43:S43"/>
+    <mergeCell ref="Q44:S44"/>
+    <mergeCell ref="T44:V44"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="D58:H58"/>
+    <mergeCell ref="D59:H59"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="G62:G63"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C31" r:id="rId1" location="case-fatality-rate-of-covid-19-by-preexisting-health-conditions" xr:uid="{7F3EF4B5-28AC-495F-9AED-D8A19838DCA0}"/>
     <hyperlink ref="K17" r:id="rId2" location="case-fatality-rate-of-covid-19-by-age" display="Initial Chinese mortality" xr:uid="{183ECF60-965C-4822-BD01-FB83BF400BD7}"/>
     <hyperlink ref="A2" r:id="rId3" display="AU Confirmed Cases 3/5/2019" xr:uid="{EA4EA9FD-247C-43EE-9F46-36B5228542D6}"/>
-    <hyperlink ref="E131" r:id="rId4" xr:uid="{1585CA60-E6B6-42FD-BDBE-8EF974DA7901}"/>
-    <hyperlink ref="E132" r:id="rId5" xr:uid="{C57D5C41-B8A1-4FAF-85B5-BAAEDF1FE18F}"/>
-    <hyperlink ref="E130" r:id="rId6" xr:uid="{59CE06C0-7BDA-45E5-8E17-630827382160}"/>
-    <hyperlink ref="C148" r:id="rId7" xr:uid="{EDDA48E5-EBBC-4EEF-AD0C-C4A613889633}"/>
-    <hyperlink ref="C151" r:id="rId8" xr:uid="{79E99A61-67D0-4AA9-A28F-AE7580E87F34}"/>
-    <hyperlink ref="C153" r:id="rId9" xr:uid="{D9CEC52A-8E70-47F4-BFC7-BF26577DE8C5}"/>
-    <hyperlink ref="C154" r:id="rId10" xr:uid="{F3CE41E5-4126-4F42-A968-60AA002221F4}"/>
-    <hyperlink ref="C152" r:id="rId11" xr:uid="{106FCC1A-4AC5-4E51-B991-1DE3A9D88BEC}"/>
-    <hyperlink ref="C156" r:id="rId12" xr:uid="{A9675D30-9DDA-470C-AE28-023EE9CE7BA0}"/>
-    <hyperlink ref="C157" r:id="rId13" xr:uid="{D40D0658-C2FE-4ABD-9D76-9799C01AC2C3}"/>
-    <hyperlink ref="C158" r:id="rId14" display="https://www.publicdefenders.nsw.gov.au/Documents/butler-et-al-report-on-covid-19-and-impact on-nsw-prisoners.pdf" xr:uid="{3ED1E157-E9C9-4126-9B71-1B35FD600374}"/>
+    <hyperlink ref="E133" r:id="rId4" xr:uid="{1585CA60-E6B6-42FD-BDBE-8EF974DA7901}"/>
+    <hyperlink ref="E134" r:id="rId5" xr:uid="{C57D5C41-B8A1-4FAF-85B5-BAAEDF1FE18F}"/>
+    <hyperlink ref="E132" r:id="rId6" xr:uid="{59CE06C0-7BDA-45E5-8E17-630827382160}"/>
+    <hyperlink ref="C150" r:id="rId7" xr:uid="{EDDA48E5-EBBC-4EEF-AD0C-C4A613889633}"/>
+    <hyperlink ref="C153" r:id="rId8" xr:uid="{79E99A61-67D0-4AA9-A28F-AE7580E87F34}"/>
+    <hyperlink ref="C155" r:id="rId9" xr:uid="{D9CEC52A-8E70-47F4-BFC7-BF26577DE8C5}"/>
+    <hyperlink ref="C156" r:id="rId10" xr:uid="{F3CE41E5-4126-4F42-A968-60AA002221F4}"/>
+    <hyperlink ref="C154" r:id="rId11" xr:uid="{106FCC1A-4AC5-4E51-B991-1DE3A9D88BEC}"/>
+    <hyperlink ref="C158" r:id="rId12" xr:uid="{A9675D30-9DDA-470C-AE28-023EE9CE7BA0}"/>
+    <hyperlink ref="C159" r:id="rId13" xr:uid="{D40D0658-C2FE-4ABD-9D76-9799C01AC2C3}"/>
+    <hyperlink ref="C160" r:id="rId14" display="https://www.publicdefenders.nsw.gov.au/Documents/butler-et-al-report-on-covid-19-and-impact on-nsw-prisoners.pdf" xr:uid="{3ED1E157-E9C9-4126-9B71-1B35FD600374}"/>
     <hyperlink ref="A33" r:id="rId15" xr:uid="{08A5AB61-BC31-4144-BE39-E60167E0FB18}"/>
     <hyperlink ref="A37" r:id="rId16" xr:uid="{01BBAF31-5A4B-44F7-B26F-87E03D4296FB}"/>
     <hyperlink ref="A36" r:id="rId17" xr:uid="{0D1A4070-8FC2-4EC3-8138-CC31CF0C857B}"/>
@@ -12747,7 +12907,7 @@
     <hyperlink ref="A35" r:id="rId20" xr:uid="{835DA959-D71B-4B56-94C4-289E50701209}"/>
     <hyperlink ref="A32" r:id="rId21" xr:uid="{57162B4F-9074-4543-A7ED-DEAC3AB59B9C}"/>
     <hyperlink ref="A34" r:id="rId22" xr:uid="{60813F71-2D48-4FC4-BB31-2C80537C581A}"/>
-    <hyperlink ref="E95" r:id="rId23" xr:uid="{1E10D623-F632-4900-8692-DFD69F89DFB9}"/>
+    <hyperlink ref="E97" r:id="rId23" xr:uid="{1E10D623-F632-4900-8692-DFD69F89DFB9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId24"/>
@@ -14296,7 +14456,7 @@
   <dimension ref="A1:IU63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15"/>
@@ -14812,15 +14972,15 @@
       </c>
     </row>
     <row r="7" spans="1:255">
-      <c r="A7" s="379" t="s">
+      <c r="A7" s="400" t="s">
         <v>143</v>
       </c>
-      <c r="B7" s="379"/>
-      <c r="C7" s="379"/>
-      <c r="D7" s="379"/>
-      <c r="E7" s="380"/>
-      <c r="F7" s="380"/>
-      <c r="G7" s="379"/>
+      <c r="B7" s="400"/>
+      <c r="C7" s="400"/>
+      <c r="D7" s="400"/>
+      <c r="E7" s="401"/>
+      <c r="F7" s="401"/>
+      <c r="G7" s="400"/>
       <c r="H7" s="153" t="s">
         <v>249</v>
       </c>
@@ -15455,15 +15615,15 @@
       <c r="M24" s="20"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="379" t="s">
+      <c r="A25" s="400" t="s">
         <v>144</v>
       </c>
-      <c r="B25" s="379"/>
-      <c r="C25" s="379"/>
-      <c r="D25" s="379"/>
-      <c r="E25" s="380"/>
-      <c r="F25" s="380"/>
-      <c r="G25" s="379"/>
+      <c r="B25" s="400"/>
+      <c r="C25" s="400"/>
+      <c r="D25" s="400"/>
+      <c r="E25" s="401"/>
+      <c r="F25" s="401"/>
+      <c r="G25" s="400"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="67" t="s">
@@ -16079,15 +16239,15 @@
       </c>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="379" t="s">
+      <c r="A43" s="400" t="s">
         <v>145</v>
       </c>
-      <c r="B43" s="379"/>
-      <c r="C43" s="379"/>
-      <c r="D43" s="379"/>
-      <c r="E43" s="380"/>
-      <c r="F43" s="380"/>
-      <c r="G43" s="379"/>
+      <c r="B43" s="400"/>
+      <c r="C43" s="400"/>
+      <c r="D43" s="400"/>
+      <c r="E43" s="401"/>
+      <c r="F43" s="401"/>
+      <c r="G43" s="400"/>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="67" t="s">
@@ -16785,23 +16945,23 @@
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="381" t="s">
+      <c r="A3" s="402" t="s">
         <v>159</v>
       </c>
-      <c r="B3" s="381"/>
-      <c r="C3" s="381"/>
-      <c r="D3" s="381"/>
-      <c r="E3" s="381"/>
-      <c r="F3" s="381"/>
-      <c r="G3" s="381"/>
-      <c r="H3" s="381"/>
-      <c r="I3" s="381"/>
-      <c r="J3" s="381"/>
-      <c r="K3" s="381"/>
-      <c r="L3" s="382" t="s">
+      <c r="B3" s="402"/>
+      <c r="C3" s="402"/>
+      <c r="D3" s="402"/>
+      <c r="E3" s="402"/>
+      <c r="F3" s="402"/>
+      <c r="G3" s="402"/>
+      <c r="H3" s="402"/>
+      <c r="I3" s="402"/>
+      <c r="J3" s="402"/>
+      <c r="K3" s="402"/>
+      <c r="L3" s="403" t="s">
         <v>207</v>
       </c>
-      <c r="M3" s="382"/>
+      <c r="M3" s="403"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="29" t="s">
@@ -18622,19 +18782,19 @@
       <c r="K54" s="40"/>
     </row>
     <row r="55" spans="1:13">
-      <c r="A55" s="381" t="s">
+      <c r="A55" s="402" t="s">
         <v>162</v>
       </c>
-      <c r="B55" s="381"/>
-      <c r="C55" s="381"/>
-      <c r="D55" s="381"/>
-      <c r="E55" s="381"/>
-      <c r="F55" s="381"/>
-      <c r="G55" s="381"/>
-      <c r="H55" s="381"/>
-      <c r="I55" s="381"/>
-      <c r="J55" s="381"/>
-      <c r="K55" s="381"/>
+      <c r="B55" s="402"/>
+      <c r="C55" s="402"/>
+      <c r="D55" s="402"/>
+      <c r="E55" s="402"/>
+      <c r="F55" s="402"/>
+      <c r="G55" s="402"/>
+      <c r="H55" s="402"/>
+      <c r="I55" s="402"/>
+      <c r="J55" s="402"/>
+      <c r="K55" s="402"/>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="29" t="s">
@@ -20455,19 +20615,19 @@
       <c r="K106" s="40"/>
     </row>
     <row r="107" spans="1:13">
-      <c r="A107" s="381" t="s">
+      <c r="A107" s="402" t="s">
         <v>163</v>
       </c>
-      <c r="B107" s="381"/>
-      <c r="C107" s="381"/>
-      <c r="D107" s="381"/>
-      <c r="E107" s="381"/>
-      <c r="F107" s="381"/>
-      <c r="G107" s="381"/>
-      <c r="H107" s="381"/>
-      <c r="I107" s="381"/>
-      <c r="J107" s="381"/>
-      <c r="K107" s="381"/>
+      <c r="B107" s="402"/>
+      <c r="C107" s="402"/>
+      <c r="D107" s="402"/>
+      <c r="E107" s="402"/>
+      <c r="F107" s="402"/>
+      <c r="G107" s="402"/>
+      <c r="H107" s="402"/>
+      <c r="I107" s="402"/>
+      <c r="J107" s="402"/>
+      <c r="K107" s="402"/>
     </row>
     <row r="108" spans="1:13">
       <c r="A108" s="29" t="s">
@@ -22357,15 +22517,15 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="90"/>
-      <c r="B4" s="383" t="s">
+      <c r="B4" s="404" t="s">
         <v>178</v>
       </c>
-      <c r="C4" s="383"/>
-      <c r="D4" s="383"/>
-      <c r="E4" s="383"/>
-      <c r="F4" s="383"/>
-      <c r="G4" s="383"/>
-      <c r="H4" s="383"/>
+      <c r="C4" s="404"/>
+      <c r="D4" s="404"/>
+      <c r="E4" s="404"/>
+      <c r="F4" s="404"/>
+      <c r="G4" s="404"/>
+      <c r="H4" s="404"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="91" t="s">
@@ -22665,15 +22825,15 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="90"/>
-      <c r="B18" s="383" t="s">
+      <c r="B18" s="404" t="s">
         <v>191</v>
       </c>
-      <c r="C18" s="383"/>
-      <c r="D18" s="383"/>
-      <c r="E18" s="383"/>
-      <c r="F18" s="383"/>
-      <c r="G18" s="383"/>
-      <c r="H18" s="383"/>
+      <c r="C18" s="404"/>
+      <c r="D18" s="404"/>
+      <c r="E18" s="404"/>
+      <c r="F18" s="404"/>
+      <c r="G18" s="404"/>
+      <c r="H18" s="404"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="91" t="s">
@@ -23103,160 +23263,160 @@
     </row>
     <row r="2" spans="1:54">
       <c r="A2" s="223"/>
-      <c r="B2" s="384" t="s">
+      <c r="B2" s="411" t="s">
         <v>290</v>
       </c>
-      <c r="C2" s="384"/>
-      <c r="D2" s="384"/>
-      <c r="E2" s="384"/>
-      <c r="F2" s="384"/>
-      <c r="G2" s="384"/>
-      <c r="H2" s="384"/>
-      <c r="I2" s="384"/>
+      <c r="C2" s="411"/>
+      <c r="D2" s="411"/>
+      <c r="E2" s="411"/>
+      <c r="F2" s="411"/>
+      <c r="G2" s="411"/>
+      <c r="H2" s="411"/>
+      <c r="I2" s="411"/>
       <c r="J2" s="224"/>
-      <c r="K2" s="384" t="s">
+      <c r="K2" s="411" t="s">
         <v>291</v>
       </c>
-      <c r="L2" s="384"/>
-      <c r="M2" s="384"/>
-      <c r="N2" s="384"/>
-      <c r="O2" s="384"/>
-      <c r="P2" s="384"/>
-      <c r="Q2" s="384"/>
-      <c r="R2" s="384"/>
+      <c r="L2" s="411"/>
+      <c r="M2" s="411"/>
+      <c r="N2" s="411"/>
+      <c r="O2" s="411"/>
+      <c r="P2" s="411"/>
+      <c r="Q2" s="411"/>
+      <c r="R2" s="411"/>
       <c r="S2" s="224"/>
-      <c r="T2" s="384" t="s">
+      <c r="T2" s="411" t="s">
         <v>292</v>
       </c>
-      <c r="U2" s="384"/>
-      <c r="V2" s="384"/>
-      <c r="W2" s="384"/>
-      <c r="X2" s="384"/>
-      <c r="Y2" s="384"/>
-      <c r="Z2" s="384"/>
-      <c r="AA2" s="384"/>
+      <c r="U2" s="411"/>
+      <c r="V2" s="411"/>
+      <c r="W2" s="411"/>
+      <c r="X2" s="411"/>
+      <c r="Y2" s="411"/>
+      <c r="Z2" s="411"/>
+      <c r="AA2" s="411"/>
       <c r="AB2" s="224"/>
-      <c r="AC2" s="384" t="s">
+      <c r="AC2" s="411" t="s">
         <v>293</v>
       </c>
-      <c r="AD2" s="384"/>
-      <c r="AE2" s="384"/>
-      <c r="AF2" s="384"/>
-      <c r="AG2" s="384"/>
-      <c r="AH2" s="384"/>
-      <c r="AI2" s="384"/>
-      <c r="AJ2" s="384"/>
+      <c r="AD2" s="411"/>
+      <c r="AE2" s="411"/>
+      <c r="AF2" s="411"/>
+      <c r="AG2" s="411"/>
+      <c r="AH2" s="411"/>
+      <c r="AI2" s="411"/>
+      <c r="AJ2" s="411"/>
       <c r="AK2" s="224"/>
-      <c r="AL2" s="384" t="s">
+      <c r="AL2" s="411" t="s">
         <v>294</v>
       </c>
-      <c r="AM2" s="384"/>
-      <c r="AN2" s="384"/>
-      <c r="AO2" s="384"/>
-      <c r="AP2" s="384"/>
-      <c r="AQ2" s="384"/>
-      <c r="AR2" s="384"/>
-      <c r="AS2" s="384"/>
+      <c r="AM2" s="411"/>
+      <c r="AN2" s="411"/>
+      <c r="AO2" s="411"/>
+      <c r="AP2" s="411"/>
+      <c r="AQ2" s="411"/>
+      <c r="AR2" s="411"/>
+      <c r="AS2" s="411"/>
       <c r="AT2" s="225"/>
-      <c r="AU2" s="385" t="s">
+      <c r="AU2" s="412" t="s">
         <v>295</v>
       </c>
-      <c r="AV2" s="386"/>
-      <c r="AW2" s="386"/>
-      <c r="AX2" s="386"/>
-      <c r="AY2" s="386"/>
-      <c r="AZ2" s="386"/>
-      <c r="BA2" s="386"/>
-      <c r="BB2" s="386"/>
+      <c r="AV2" s="413"/>
+      <c r="AW2" s="413"/>
+      <c r="AX2" s="413"/>
+      <c r="AY2" s="413"/>
+      <c r="AZ2" s="413"/>
+      <c r="BA2" s="413"/>
+      <c r="BB2" s="413"/>
     </row>
     <row r="3" spans="1:54" ht="25.5" customHeight="1">
       <c r="A3" s="226"/>
-      <c r="B3" s="388" t="s">
+      <c r="B3" s="409" t="s">
         <v>296</v>
       </c>
-      <c r="C3" s="388"/>
+      <c r="C3" s="409"/>
       <c r="D3" s="227"/>
-      <c r="E3" s="389" t="s">
+      <c r="E3" s="410" t="s">
         <v>297</v>
       </c>
-      <c r="F3" s="389"/>
+      <c r="F3" s="410"/>
       <c r="G3" s="227"/>
-      <c r="H3" s="388" t="s">
+      <c r="H3" s="409" t="s">
         <v>298</v>
       </c>
-      <c r="I3" s="388"/>
+      <c r="I3" s="409"/>
       <c r="J3" s="228"/>
-      <c r="K3" s="387" t="s">
+      <c r="K3" s="414" t="s">
         <v>296</v>
       </c>
-      <c r="L3" s="387"/>
+      <c r="L3" s="414"/>
       <c r="M3" s="229"/>
-      <c r="N3" s="387" t="s">
+      <c r="N3" s="414" t="s">
         <v>297</v>
       </c>
-      <c r="O3" s="387"/>
+      <c r="O3" s="414"/>
       <c r="P3" s="229"/>
-      <c r="Q3" s="387" t="s">
+      <c r="Q3" s="414" t="s">
         <v>298</v>
       </c>
-      <c r="R3" s="387"/>
+      <c r="R3" s="414"/>
       <c r="S3" s="227"/>
-      <c r="T3" s="388" t="s">
+      <c r="T3" s="409" t="s">
         <v>296</v>
       </c>
-      <c r="U3" s="388"/>
+      <c r="U3" s="409"/>
       <c r="V3" s="227"/>
-      <c r="W3" s="389" t="s">
+      <c r="W3" s="410" t="s">
         <v>297</v>
       </c>
-      <c r="X3" s="389"/>
+      <c r="X3" s="410"/>
       <c r="Y3" s="227"/>
-      <c r="Z3" s="388" t="s">
+      <c r="Z3" s="409" t="s">
         <v>298</v>
       </c>
-      <c r="AA3" s="388"/>
+      <c r="AA3" s="409"/>
       <c r="AB3" s="228"/>
-      <c r="AC3" s="388" t="s">
+      <c r="AC3" s="409" t="s">
         <v>296</v>
       </c>
-      <c r="AD3" s="388"/>
+      <c r="AD3" s="409"/>
       <c r="AE3" s="227"/>
-      <c r="AF3" s="389" t="s">
+      <c r="AF3" s="410" t="s">
         <v>297</v>
       </c>
-      <c r="AG3" s="389"/>
+      <c r="AG3" s="410"/>
       <c r="AH3" s="227"/>
-      <c r="AI3" s="388" t="s">
+      <c r="AI3" s="409" t="s">
         <v>298</v>
       </c>
-      <c r="AJ3" s="388"/>
+      <c r="AJ3" s="409"/>
       <c r="AK3" s="228"/>
-      <c r="AL3" s="388" t="s">
+      <c r="AL3" s="409" t="s">
         <v>296</v>
       </c>
-      <c r="AM3" s="388"/>
+      <c r="AM3" s="409"/>
       <c r="AN3" s="227"/>
-      <c r="AO3" s="389" t="s">
+      <c r="AO3" s="410" t="s">
         <v>297</v>
       </c>
-      <c r="AP3" s="389"/>
-      <c r="AR3" s="388" t="s">
+      <c r="AP3" s="410"/>
+      <c r="AR3" s="409" t="s">
         <v>298</v>
       </c>
-      <c r="AS3" s="388"/>
-      <c r="AU3" s="388" t="s">
+      <c r="AS3" s="409"/>
+      <c r="AU3" s="409" t="s">
         <v>296</v>
       </c>
-      <c r="AV3" s="388"/>
+      <c r="AV3" s="409"/>
       <c r="AW3" s="227"/>
-      <c r="AX3" s="389" t="s">
+      <c r="AX3" s="410" t="s">
         <v>297</v>
       </c>
-      <c r="AY3" s="389"/>
-      <c r="BA3" s="388" t="s">
+      <c r="AY3" s="410"/>
+      <c r="BA3" s="409" t="s">
         <v>298</v>
       </c>
-      <c r="BB3" s="388"/>
+      <c r="BB3" s="409"/>
     </row>
     <row r="4" spans="1:54">
       <c r="A4" s="230" t="s">
@@ -24566,85 +24726,85 @@
     </row>
     <row r="22" spans="1:42">
       <c r="A22" s="264"/>
-      <c r="B22" s="391" t="s">
+      <c r="B22" s="405" t="s">
         <v>180</v>
       </c>
-      <c r="C22" s="391"/>
-      <c r="D22" s="391"/>
-      <c r="E22" s="391"/>
-      <c r="F22" s="391"/>
-      <c r="G22" s="391"/>
-      <c r="H22" s="391"/>
-      <c r="I22" s="391"/>
+      <c r="C22" s="405"/>
+      <c r="D22" s="405"/>
+      <c r="E22" s="405"/>
+      <c r="F22" s="405"/>
+      <c r="G22" s="405"/>
+      <c r="H22" s="405"/>
+      <c r="I22" s="405"/>
       <c r="J22" s="265"/>
-      <c r="K22" s="391" t="s">
+      <c r="K22" s="405" t="s">
         <v>181</v>
       </c>
-      <c r="L22" s="391"/>
-      <c r="M22" s="391"/>
-      <c r="N22" s="391"/>
-      <c r="O22" s="391"/>
-      <c r="P22" s="391"/>
-      <c r="Q22" s="391"/>
-      <c r="R22" s="391"/>
+      <c r="L22" s="405"/>
+      <c r="M22" s="405"/>
+      <c r="N22" s="405"/>
+      <c r="O22" s="405"/>
+      <c r="P22" s="405"/>
+      <c r="Q22" s="405"/>
+      <c r="R22" s="405"/>
       <c r="S22" s="265"/>
-      <c r="T22" s="391" t="s">
+      <c r="T22" s="405" t="s">
         <v>435</v>
       </c>
-      <c r="U22" s="391"/>
-      <c r="V22" s="391"/>
-      <c r="W22" s="391"/>
-      <c r="X22" s="391"/>
-      <c r="Y22" s="391"/>
-      <c r="Z22" s="391"/>
-      <c r="AA22" s="391"/>
+      <c r="U22" s="405"/>
+      <c r="V22" s="405"/>
+      <c r="W22" s="405"/>
+      <c r="X22" s="405"/>
+      <c r="Y22" s="405"/>
+      <c r="Z22" s="405"/>
+      <c r="AA22" s="405"/>
     </row>
     <row r="23" spans="1:42" ht="22.5" customHeight="1">
       <c r="A23" s="266"/>
-      <c r="B23" s="392" t="s">
+      <c r="B23" s="406" t="s">
         <v>296</v>
       </c>
-      <c r="C23" s="392"/>
+      <c r="C23" s="406"/>
       <c r="D23" s="267"/>
-      <c r="E23" s="390" t="s">
+      <c r="E23" s="407" t="s">
         <v>297</v>
       </c>
-      <c r="F23" s="390"/>
+      <c r="F23" s="407"/>
       <c r="G23" s="268"/>
-      <c r="H23" s="393" t="s">
+      <c r="H23" s="408" t="s">
         <v>298</v>
       </c>
-      <c r="I23" s="393"/>
+      <c r="I23" s="408"/>
       <c r="J23" s="269"/>
-      <c r="K23" s="392" t="s">
+      <c r="K23" s="406" t="s">
         <v>296</v>
       </c>
-      <c r="L23" s="392"/>
+      <c r="L23" s="406"/>
       <c r="M23" s="267"/>
-      <c r="N23" s="390" t="s">
+      <c r="N23" s="407" t="s">
         <v>297</v>
       </c>
-      <c r="O23" s="390"/>
+      <c r="O23" s="407"/>
       <c r="P23" s="268"/>
-      <c r="Q23" s="393" t="s">
+      <c r="Q23" s="408" t="s">
         <v>298</v>
       </c>
-      <c r="R23" s="393"/>
+      <c r="R23" s="408"/>
       <c r="S23" s="269"/>
-      <c r="T23" s="390" t="s">
+      <c r="T23" s="407" t="s">
         <v>296</v>
       </c>
-      <c r="U23" s="390"/>
+      <c r="U23" s="407"/>
       <c r="V23" s="268"/>
-      <c r="W23" s="390" t="s">
+      <c r="W23" s="407" t="s">
         <v>297</v>
       </c>
-      <c r="X23" s="390"/>
+      <c r="X23" s="407"/>
       <c r="Y23" s="270"/>
-      <c r="Z23" s="390" t="s">
+      <c r="Z23" s="407" t="s">
         <v>298</v>
       </c>
-      <c r="AA23" s="390"/>
+      <c r="AA23" s="407"/>
     </row>
     <row r="24" spans="1:42">
       <c r="A24" s="271" t="s">
@@ -25483,26 +25643,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="K22:R22"/>
-    <mergeCell ref="T22:AA22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="T23:U23"/>
-    <mergeCell ref="AR3:AS3"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AX3:AY3"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="Z23:AA23"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AL3:AM3"/>
-    <mergeCell ref="AO3:AP3"/>
     <mergeCell ref="AL2:AS2"/>
     <mergeCell ref="AU2:BB2"/>
     <mergeCell ref="Q3:R3"/>
@@ -25519,6 +25659,26 @@
     <mergeCell ref="T3:U3"/>
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AR3:AS3"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AX3:AY3"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="Z23:AA23"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AL3:AM3"/>
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="K22:R22"/>
+    <mergeCell ref="T22:AA22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="T23:U23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -25553,10 +25713,10 @@
       <c r="E2" s="301"/>
       <c r="F2" s="301"/>
       <c r="G2" s="301"/>
-      <c r="H2" s="395" t="s">
+      <c r="H2" s="416" t="s">
         <v>535</v>
       </c>
-      <c r="I2" s="396"/>
+      <c r="I2" s="417"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickTop="1">
       <c r="A3" s="301"/>
@@ -25582,32 +25742,32 @@
     </row>
     <row r="6" spans="1:9" ht="15.75">
       <c r="A6" s="301"/>
-      <c r="B6" s="397" t="s">
+      <c r="B6" s="418" t="s">
         <v>536</v>
       </c>
-      <c r="C6" s="397"/>
-      <c r="D6" s="397"/>
-      <c r="E6" s="398"/>
-      <c r="F6" s="398"/>
-      <c r="G6" s="398"/>
-      <c r="H6" s="398"/>
-      <c r="I6" s="398"/>
+      <c r="C6" s="418"/>
+      <c r="D6" s="418"/>
+      <c r="E6" s="419"/>
+      <c r="F6" s="419"/>
+      <c r="G6" s="419"/>
+      <c r="H6" s="419"/>
+      <c r="I6" s="419"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="301"/>
       <c r="B7" s="305"/>
-      <c r="C7" s="399" t="s">
+      <c r="C7" s="420" t="s">
         <v>180</v>
       </c>
-      <c r="D7" s="399"/>
-      <c r="E7" s="399" t="s">
+      <c r="D7" s="420"/>
+      <c r="E7" s="420" t="s">
         <v>181</v>
       </c>
-      <c r="F7" s="400"/>
-      <c r="G7" s="399" t="s">
+      <c r="F7" s="421"/>
+      <c r="G7" s="420" t="s">
         <v>435</v>
       </c>
-      <c r="H7" s="400"/>
+      <c r="H7" s="421"/>
       <c r="I7" s="301"/>
     </row>
     <row r="8" spans="1:9">
@@ -25787,15 +25947,15 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="301"/>
-      <c r="B15" s="394" t="s">
+      <c r="B15" s="415" t="s">
         <v>558</v>
       </c>
-      <c r="C15" s="394"/>
-      <c r="D15" s="394"/>
-      <c r="E15" s="394"/>
-      <c r="F15" s="394"/>
-      <c r="G15" s="394"/>
-      <c r="H15" s="394"/>
+      <c r="C15" s="415"/>
+      <c r="D15" s="415"/>
+      <c r="E15" s="415"/>
+      <c r="F15" s="415"/>
+      <c r="G15" s="415"/>
+      <c r="H15" s="415"/>
       <c r="I15" s="301"/>
     </row>
     <row r="16" spans="1:9">
@@ -25905,8 +26065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2383582F-E559-4175-AFC0-39080E0B28DD}">
   <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="U22" sqref="U22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -25916,11 +26076,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="43.5" customHeight="1">
-      <c r="A1" s="402" t="s">
+      <c r="A1" s="426" t="s">
         <v>563</v>
       </c>
-      <c r="B1" s="402"/>
-      <c r="C1" s="402"/>
+      <c r="B1" s="426"/>
+      <c r="C1" s="426"/>
       <c r="D1" s="318"/>
       <c r="E1" s="318"/>
       <c r="F1" s="318"/>
@@ -26087,11 +26247,11 @@
       <c r="H18" s="331"/>
     </row>
     <row r="19" spans="1:15" ht="24.75" customHeight="1">
-      <c r="A19" s="403" t="s">
+      <c r="A19" s="422" t="s">
         <v>577</v>
       </c>
-      <c r="B19" s="403"/>
-      <c r="C19" s="403"/>
+      <c r="B19" s="422"/>
+      <c r="C19" s="422"/>
       <c r="D19" s="331"/>
       <c r="E19" s="331"/>
       <c r="F19" s="331"/>
@@ -26099,11 +26259,11 @@
       <c r="H19" s="331"/>
     </row>
     <row r="20" spans="1:15" ht="46.5" customHeight="1">
-      <c r="A20" s="403" t="s">
+      <c r="A20" s="422" t="s">
         <v>578</v>
       </c>
-      <c r="B20" s="403"/>
-      <c r="C20" s="403"/>
+      <c r="B20" s="422"/>
+      <c r="C20" s="422"/>
       <c r="D20" s="331"/>
       <c r="E20" s="331"/>
       <c r="F20" s="331"/>
@@ -26111,11 +26271,11 @@
       <c r="H20" s="331"/>
     </row>
     <row r="21" spans="1:15" ht="59.25" customHeight="1">
-      <c r="A21" s="403" t="s">
+      <c r="A21" s="422" t="s">
         <v>579</v>
       </c>
-      <c r="B21" s="403"/>
-      <c r="C21" s="403"/>
+      <c r="B21" s="422"/>
+      <c r="C21" s="422"/>
       <c r="D21" s="333"/>
       <c r="E21" s="333"/>
       <c r="F21" s="333"/>
@@ -26123,11 +26283,11 @@
       <c r="H21" s="333"/>
     </row>
     <row r="22" spans="1:15" ht="26.25" customHeight="1">
-      <c r="A22" s="403" t="s">
+      <c r="A22" s="422" t="s">
         <v>431</v>
       </c>
-      <c r="B22" s="403"/>
-      <c r="C22" s="403"/>
+      <c r="B22" s="422"/>
+      <c r="C22" s="422"/>
       <c r="D22" s="334"/>
       <c r="E22" s="335"/>
       <c r="F22" s="335"/>
@@ -26165,15 +26325,15 @@
       <c r="C25" s="336"/>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="401" t="s">
+      <c r="A26" s="425" t="s">
         <v>581</v>
       </c>
-      <c r="B26" s="401"/>
-      <c r="C26" s="401"/>
-      <c r="D26" s="401"/>
-      <c r="E26" s="401"/>
-      <c r="F26" s="401"/>
-      <c r="G26" s="401"/>
+      <c r="B26" s="425"/>
+      <c r="C26" s="425"/>
+      <c r="D26" s="425"/>
+      <c r="E26" s="425"/>
+      <c r="F26" s="425"/>
+      <c r="G26" s="425"/>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="338"/>
@@ -26186,29 +26346,29 @@
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="340"/>
-      <c r="B28" s="404" t="s">
+      <c r="B28" s="423" t="s">
         <v>582</v>
       </c>
-      <c r="C28" s="404"/>
-      <c r="D28" s="404"/>
-      <c r="E28" s="404"/>
-      <c r="F28" s="404"/>
-      <c r="G28" s="404"/>
+      <c r="C28" s="423"/>
+      <c r="D28" s="423"/>
+      <c r="E28" s="423"/>
+      <c r="F28" s="423"/>
+      <c r="G28" s="423"/>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="341"/>
-      <c r="B29" s="405" t="s">
+      <c r="B29" s="424" t="s">
         <v>180</v>
       </c>
-      <c r="C29" s="405"/>
-      <c r="D29" s="405" t="s">
+      <c r="C29" s="424"/>
+      <c r="D29" s="424" t="s">
         <v>181</v>
       </c>
-      <c r="E29" s="405"/>
-      <c r="F29" s="405" t="s">
+      <c r="E29" s="424"/>
+      <c r="F29" s="424" t="s">
         <v>435</v>
       </c>
-      <c r="G29" s="405"/>
+      <c r="G29" s="424"/>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="342" t="s">
@@ -26429,48 +26589,48 @@
       <c r="G39" s="339"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="403" t="s">
+      <c r="A40" s="422" t="s">
         <v>606</v>
       </c>
-      <c r="B40" s="403"/>
-      <c r="C40" s="403"/>
-      <c r="D40" s="403"/>
-      <c r="E40" s="403"/>
-      <c r="F40" s="403"/>
-      <c r="G40" s="403"/>
+      <c r="B40" s="422"/>
+      <c r="C40" s="422"/>
+      <c r="D40" s="422"/>
+      <c r="E40" s="422"/>
+      <c r="F40" s="422"/>
+      <c r="G40" s="422"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="403" t="s">
+      <c r="A41" s="422" t="s">
         <v>579</v>
       </c>
-      <c r="B41" s="403"/>
-      <c r="C41" s="403"/>
-      <c r="D41" s="403"/>
-      <c r="E41" s="403"/>
-      <c r="F41" s="403"/>
-      <c r="G41" s="403"/>
+      <c r="B41" s="422"/>
+      <c r="C41" s="422"/>
+      <c r="D41" s="422"/>
+      <c r="E41" s="422"/>
+      <c r="F41" s="422"/>
+      <c r="G41" s="422"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="403" t="s">
+      <c r="A42" s="422" t="s">
         <v>431</v>
       </c>
-      <c r="B42" s="403"/>
-      <c r="C42" s="403"/>
-      <c r="D42" s="403"/>
-      <c r="E42" s="403"/>
-      <c r="F42" s="403"/>
-      <c r="G42" s="403"/>
+      <c r="B42" s="422"/>
+      <c r="C42" s="422"/>
+      <c r="D42" s="422"/>
+      <c r="E42" s="422"/>
+      <c r="F42" s="422"/>
+      <c r="G42" s="422"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="403" t="s">
+      <c r="A43" s="422" t="s">
         <v>607</v>
       </c>
-      <c r="B43" s="403"/>
-      <c r="C43" s="403"/>
-      <c r="D43" s="403"/>
-      <c r="E43" s="403"/>
-      <c r="F43" s="403"/>
-      <c r="G43" s="403"/>
+      <c r="B43" s="422"/>
+      <c r="C43" s="422"/>
+      <c r="D43" s="422"/>
+      <c r="E43" s="422"/>
+      <c r="F43" s="422"/>
+      <c r="G43" s="422"/>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="339"/>
@@ -26494,6 +26654,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
     <mergeCell ref="A42:G42"/>
     <mergeCell ref="A43:G43"/>
     <mergeCell ref="B28:G28"/>
@@ -26502,12 +26668,6 @@
     <mergeCell ref="F29:G29"/>
     <mergeCell ref="A40:G40"/>
     <mergeCell ref="A41:G41"/>
-    <mergeCell ref="A26:G26"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Population/data/Population Indicators.xlsx
+++ b/Population/data/Population Indicators.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\JusticeCOVID\Population\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55880A6D-A95B-4275-8E43-3C05F8DD9C21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B80C2FD6-9D94-4E34-97E2-D71A8D70E27E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{B9AFA079-0671-40AD-860D-809D829A87F1}"/>
+    <workbookView xWindow="39030" yWindow="0" windowWidth="37605" windowHeight="21000" xr2:uid="{B9AFA079-0671-40AD-860D-809D829A87F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Summaries" sheetId="1" r:id="rId1"/>
@@ -2636,12 +2636,6 @@
     <t>AU mortality for Age group</t>
   </si>
   <si>
-    <t>AU Confirmed Cases 7/5/2019</t>
-  </si>
-  <si>
-    <t>AU Deaths 7/5/2020</t>
-  </si>
-  <si>
     <t>Projected deaths by Sex</t>
   </si>
   <si>
@@ -3766,6 +3760,12 @@
   </si>
   <si>
     <t>70+</t>
+  </si>
+  <si>
+    <t>AU Confirmed Cases 27/5/2019</t>
+  </si>
+  <si>
+    <t>AU Deaths 27/5/2020</t>
   </si>
 </sst>
 </file>
@@ -5866,11 +5866,16 @@
     <xf numFmtId="164" fontId="60" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="60" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="60" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="38" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="38" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="38" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="38" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="38" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="38" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5881,50 +5886,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="3" fontId="38" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="38" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="38" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="38" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="38" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="38" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="38" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5941,6 +5910,42 @@
     <xf numFmtId="3" fontId="38" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="38" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="38" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="38" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="38" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="38" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="38" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="38" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -5956,24 +5961,6 @@
     <xf numFmtId="0" fontId="32" fillId="33" borderId="24" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="42" fillId="35" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="35" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="35" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="42" fillId="35" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5985,6 +5972,24 @@
     </xf>
     <xf numFmtId="49" fontId="42" fillId="35" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="35" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="35" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="35" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="59" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -6003,6 +6008,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="41" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="24" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -6012,17 +6023,6 @@
     <xf numFmtId="49" fontId="42" fillId="37" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="38" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="38" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="38" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="38" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="73">
     <cellStyle name="20% - Accent1" xfId="17" builtinId="30" customBuiltin="1"/>
@@ -6422,8 +6422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69445D4F-6ED8-41C8-8CD1-A1D8E95413A8}">
   <dimension ref="A2:AJ160"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U21" sqref="U21"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="M104" sqref="M104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6438,48 +6438,48 @@
   <sheetData>
     <row r="2" spans="1:10">
       <c r="A2" s="46" t="s">
-        <v>280</v>
+        <v>612</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="B3" s="377" t="s">
+      <c r="B3" s="382" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="379"/>
-      <c r="D3" s="377" t="s">
+      <c r="C3" s="384"/>
+      <c r="D3" s="382" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="379"/>
-      <c r="F3" s="377" t="s">
+      <c r="E3" s="384"/>
+      <c r="F3" s="382" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="379"/>
+      <c r="G3" s="384"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="52">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C4" s="57">
         <f>B4/$B$13</f>
-        <v>1.1439466158245948E-2</v>
+        <v>1.3289036544850499E-2</v>
       </c>
       <c r="D4" s="50">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="E4" s="57">
         <f>D4/$D$13</f>
-        <v>1.0904425914047467E-2</v>
+        <v>1.2842465753424657E-2</v>
       </c>
       <c r="F4" s="52">
         <f>SUM(B4,D4)</f>
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="G4" s="57">
         <f>F4/$F$13</f>
-        <v>1.11731843575419E-2</v>
+        <v>1.3069139966273187E-2</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -6487,26 +6487,26 @@
         <v>1</v>
       </c>
       <c r="B5" s="3">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="C5" s="55">
         <f t="shared" ref="C5:C12" si="0">B5/$B$13</f>
-        <v>2.7963139497934542E-2</v>
+        <v>3.1284606866002214E-2</v>
       </c>
       <c r="D5" s="58">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="E5" s="55">
         <f t="shared" ref="E5:E12" si="1">D5/$D$13</f>
-        <v>3.2071840923669021E-2</v>
+        <v>3.1963470319634701E-2</v>
       </c>
       <c r="F5" s="3">
         <f t="shared" ref="F5:F12" si="2">SUM(B5,D5)</f>
-        <v>188</v>
+        <v>225</v>
       </c>
       <c r="G5" s="55">
         <f t="shared" ref="G5:G12" si="3">F5/$F$13</f>
-        <v>3.0007980845969673E-2</v>
+        <v>3.1618887015177066E-2</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -6514,26 +6514,26 @@
         <v>2</v>
       </c>
       <c r="B6" s="3">
-        <v>577</v>
+        <v>671</v>
       </c>
       <c r="C6" s="55">
         <f t="shared" si="0"/>
-        <v>0.18334922148077534</v>
+        <v>0.18576965669988926</v>
       </c>
       <c r="D6" s="58">
-        <v>726</v>
+        <v>814</v>
       </c>
       <c r="E6" s="55">
         <f t="shared" si="1"/>
-        <v>0.23284156510583706</v>
+        <v>0.23230593607305935</v>
       </c>
       <c r="F6" s="3">
         <f t="shared" si="2"/>
-        <v>1303</v>
+        <v>1485</v>
       </c>
       <c r="G6" s="55">
         <f t="shared" si="3"/>
-        <v>0.20798084596967278</v>
+        <v>0.20868465430016864</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -6541,26 +6541,26 @@
         <v>3</v>
       </c>
       <c r="B7" s="3">
-        <v>507</v>
+        <v>592</v>
       </c>
       <c r="C7" s="55">
         <f t="shared" si="0"/>
-        <v>0.16110581506196378</v>
+        <v>0.16389811738648949</v>
       </c>
       <c r="D7" s="58">
-        <v>474</v>
+        <v>536</v>
       </c>
       <c r="E7" s="55">
         <f t="shared" si="1"/>
-        <v>0.15202052597819116</v>
+        <v>0.15296803652968036</v>
       </c>
       <c r="F7" s="3">
         <f t="shared" si="2"/>
-        <v>981</v>
+        <v>1128</v>
       </c>
       <c r="G7" s="55">
         <f t="shared" si="3"/>
-        <v>0.15658419792498005</v>
+        <v>0.15851602023608768</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -6568,26 +6568,26 @@
         <v>4</v>
       </c>
       <c r="B8" s="3">
-        <v>452</v>
+        <v>511</v>
       </c>
       <c r="C8" s="55">
         <f t="shared" si="0"/>
-        <v>0.14362885287575469</v>
+        <v>0.14147286821705427</v>
       </c>
       <c r="D8" s="58">
-        <v>333</v>
+        <v>393</v>
       </c>
       <c r="E8" s="55">
         <f t="shared" si="1"/>
-        <v>0.10679923027581784</v>
+        <v>0.11215753424657535</v>
       </c>
       <c r="F8" s="3">
         <f t="shared" si="2"/>
-        <v>785</v>
+        <v>904</v>
       </c>
       <c r="G8" s="55">
         <f t="shared" si="3"/>
-        <v>0.12529928172386273</v>
+        <v>0.12703766160764474</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -6595,26 +6595,26 @@
         <v>5</v>
       </c>
       <c r="B9" s="3">
-        <v>488</v>
+        <v>550</v>
       </c>
       <c r="C9" s="55">
         <f t="shared" si="0"/>
-        <v>0.15506831903400065</v>
+        <v>0.15227021040974528</v>
       </c>
       <c r="D9" s="58">
-        <v>518</v>
+        <v>578</v>
       </c>
       <c r="E9" s="55">
         <f t="shared" si="1"/>
-        <v>0.16613213598460552</v>
+        <v>0.16495433789954339</v>
       </c>
       <c r="F9" s="3">
         <f t="shared" si="2"/>
-        <v>1006</v>
+        <v>1128</v>
       </c>
       <c r="G9" s="55">
         <f t="shared" si="3"/>
-        <v>0.16057462090981645</v>
+        <v>0.15851602023608768</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -6622,26 +6622,26 @@
         <v>6</v>
       </c>
       <c r="B10" s="3">
-        <v>520</v>
+        <v>584</v>
       </c>
       <c r="C10" s="55">
         <f t="shared" si="0"/>
-        <v>0.16523673339688591</v>
+        <v>0.16168327796234774</v>
       </c>
       <c r="D10" s="58">
-        <v>524</v>
+        <v>577</v>
       </c>
       <c r="E10" s="55">
         <f t="shared" si="1"/>
-        <v>0.16805644644002565</v>
+        <v>0.1646689497716895</v>
       </c>
       <c r="F10" s="3">
         <f t="shared" si="2"/>
-        <v>1044</v>
+        <v>1161</v>
       </c>
       <c r="G10" s="55">
         <f t="shared" si="3"/>
-        <v>0.16664006384676774</v>
+        <v>0.16315345699831366</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -6649,26 +6649,26 @@
         <v>7</v>
       </c>
       <c r="B11" s="3">
-        <v>367</v>
+        <v>416</v>
       </c>
       <c r="C11" s="55">
         <f t="shared" si="0"/>
-        <v>0.11661900222434064</v>
+        <v>0.11517165005537099</v>
       </c>
       <c r="D11" s="58">
-        <v>311</v>
+        <v>334</v>
       </c>
       <c r="E11" s="55">
         <f t="shared" si="1"/>
-        <v>9.9743425272610653E-2</v>
+        <v>9.5319634703196349E-2</v>
       </c>
       <c r="F11" s="3">
         <f t="shared" si="2"/>
-        <v>678</v>
+        <v>750</v>
       </c>
       <c r="G11" s="55">
         <f t="shared" si="3"/>
-        <v>0.10822027134876297</v>
+        <v>0.10539629005059022</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -6676,26 +6676,26 @@
         <v>8</v>
       </c>
       <c r="B12" s="4">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="C12" s="7">
         <f t="shared" si="0"/>
-        <v>3.5589450270098508E-2</v>
+        <v>3.5160575858250276E-2</v>
       </c>
       <c r="D12" s="2">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="E12" s="7">
         <f t="shared" si="1"/>
-        <v>3.1430404105195639E-2</v>
+        <v>3.2819634703196349E-2</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" si="2"/>
-        <v>210</v>
+        <v>242</v>
       </c>
       <c r="G12" s="7">
         <f t="shared" si="3"/>
-        <v>3.3519553072625698E-2</v>
+        <v>3.4007869589657111E-2</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -6704,37 +6704,37 @@
       </c>
       <c r="B13" s="59">
         <f>SUM(B4:B12)</f>
-        <v>3147</v>
+        <v>3612</v>
       </c>
       <c r="D13" s="59">
         <f t="shared" ref="D13:F13" si="4">SUM(D4:D12)</f>
-        <v>3118</v>
+        <v>3504</v>
       </c>
       <c r="F13" s="59">
         <f t="shared" si="4"/>
-        <v>6265</v>
+        <v>7116</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1"/>
       <c r="B14" s="65">
         <f>B13/F13</f>
-        <v>0.50231444533120506</v>
+        <v>0.50758853288364247</v>
       </c>
       <c r="D14" s="65">
         <f>D13/F13</f>
-        <v>0.49768555466879488</v>
+        <v>0.49241146711635753</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="H16" s="377" t="s">
+        <v>613</v>
+      </c>
+      <c r="H16" s="382" t="s">
         <v>279</v>
       </c>
-      <c r="I16" s="378"/>
-      <c r="J16" s="379"/>
+      <c r="I16" s="383"/>
+      <c r="J16" s="384"/>
     </row>
     <row r="17" spans="1:14">
       <c r="B17" s="178" t="s">
@@ -6774,7 +6774,7 @@
         <v>171</v>
       </c>
       <c r="N17" s="165" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -6804,15 +6804,15 @@
         <v>0</v>
       </c>
       <c r="H18" s="53">
-        <f t="shared" ref="H18:H27" si="9">B18/B4</f>
+        <f>B18/B4</f>
         <v>0</v>
       </c>
       <c r="I18" s="54">
-        <f t="shared" ref="I18:I26" si="10">D18/D4</f>
+        <f>D18/D4</f>
         <v>0</v>
       </c>
       <c r="J18" s="54">
-        <f t="shared" ref="J18:J27" si="11">F18/F4</f>
+        <f>F18/F4</f>
         <v>0</v>
       </c>
       <c r="K18" s="53">
@@ -6855,15 +6855,15 @@
         <v>0</v>
       </c>
       <c r="H19" s="48">
-        <f t="shared" si="9"/>
+        <f>B19/B5</f>
         <v>0</v>
       </c>
       <c r="I19" s="9">
-        <f t="shared" si="10"/>
+        <f>D19/D5</f>
         <v>0</v>
       </c>
       <c r="J19" s="9">
-        <f t="shared" si="11"/>
+        <f>F19/F5</f>
         <v>0</v>
       </c>
       <c r="K19" s="48">
@@ -6906,15 +6906,15 @@
         <v>0</v>
       </c>
       <c r="H20" s="48">
-        <f t="shared" si="9"/>
+        <f>B20/B6</f>
         <v>0</v>
       </c>
       <c r="I20" s="9">
-        <f t="shared" si="10"/>
+        <f>D20/D6</f>
         <v>0</v>
       </c>
       <c r="J20" s="9">
-        <f t="shared" si="11"/>
+        <f>F20/F6</f>
         <v>0</v>
       </c>
       <c r="K20" s="48">
@@ -6935,11 +6935,11 @@
         <v>3</v>
       </c>
       <c r="B21" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" s="56">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2.768549280177187E-4</v>
       </c>
       <c r="D21" s="3">
         <v>0</v>
@@ -6950,23 +6950,23 @@
       </c>
       <c r="F21" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" s="5">
         <f t="shared" si="8"/>
+        <v>1.4052838673412029E-4</v>
+      </c>
+      <c r="H21" s="48">
+        <f>B21/B7</f>
+        <v>1.6891891891891893E-3</v>
+      </c>
+      <c r="I21" s="9">
+        <f>D21/D7</f>
         <v>0</v>
       </c>
-      <c r="H21" s="48">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I21" s="9">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
       <c r="J21" s="9">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f>F21/F7</f>
+        <v>8.8652482269503544E-4</v>
       </c>
       <c r="K21" s="48">
         <v>2E-3</v>
@@ -6990,7 +6990,7 @@
       </c>
       <c r="C22" s="56">
         <f t="shared" si="5"/>
-        <v>3.1776294884016526E-4</v>
+        <v>2.768549280177187E-4</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
@@ -7005,19 +7005,19 @@
       </c>
       <c r="G22" s="5">
         <f t="shared" si="8"/>
-        <v>1.5961691939345569E-4</v>
+        <v>1.4052838673412029E-4</v>
       </c>
       <c r="H22" s="48">
-        <f t="shared" si="9"/>
-        <v>2.2123893805309734E-3</v>
+        <f>B22/B8</f>
+        <v>1.9569471624266144E-3</v>
       </c>
       <c r="I22" s="9">
-        <f t="shared" si="10"/>
+        <f>D22/D8</f>
         <v>0</v>
       </c>
       <c r="J22" s="9">
-        <f t="shared" si="11"/>
-        <v>1.2738853503184713E-3</v>
+        <f>F22/F8</f>
+        <v>1.1061946902654867E-3</v>
       </c>
       <c r="K22" s="48">
         <v>4.0000000000000001E-3</v>
@@ -7041,34 +7041,34 @@
       </c>
       <c r="C23" s="56">
         <f t="shared" si="5"/>
-        <v>3.1776294884016526E-4</v>
+        <v>2.768549280177187E-4</v>
       </c>
       <c r="D23" s="3">
         <v>1</v>
       </c>
       <c r="E23" s="55">
-        <f t="shared" si="6"/>
-        <v>3.2071840923669016E-4</v>
+        <f>D23/$D$13</f>
+        <v>2.8538812785388126E-4</v>
       </c>
       <c r="F23" s="3">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="G23" s="5">
-        <f t="shared" si="8"/>
-        <v>3.1923383878691139E-4</v>
+        <f>F23/$F$13</f>
+        <v>2.8105677346824059E-4</v>
       </c>
       <c r="H23" s="48">
-        <f t="shared" si="9"/>
-        <v>2.0491803278688526E-3</v>
+        <f>B23/B9</f>
+        <v>1.8181818181818182E-3</v>
       </c>
       <c r="I23" s="9">
-        <f t="shared" si="10"/>
-        <v>1.9305019305019305E-3</v>
+        <f>D23/D9</f>
+        <v>1.7301038062283738E-3</v>
       </c>
       <c r="J23" s="9">
-        <f t="shared" si="11"/>
-        <v>1.9880715705765406E-3</v>
+        <f>F23/F9</f>
+        <v>1.7730496453900709E-3</v>
       </c>
       <c r="K23" s="48">
         <v>1.2999999999999999E-2</v>
@@ -7088,38 +7088,38 @@
         <v>6</v>
       </c>
       <c r="B24" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C24" s="56">
         <f t="shared" si="5"/>
-        <v>1.5888147442008262E-3</v>
+        <v>1.6611295681063123E-3</v>
       </c>
       <c r="D24" s="3">
         <v>4</v>
       </c>
       <c r="E24" s="55">
         <f t="shared" si="6"/>
-        <v>1.2828736369467607E-3</v>
+        <v>1.1415525114155251E-3</v>
       </c>
       <c r="F24" s="3">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G24" s="5">
-        <f t="shared" si="8"/>
-        <v>1.4365522745411015E-3</v>
+        <f>F24/$F$13</f>
+        <v>1.405283867341203E-3</v>
       </c>
       <c r="H24" s="48">
-        <f t="shared" si="9"/>
-        <v>9.6153846153846159E-3</v>
+        <f>B24/B10</f>
+        <v>1.0273972602739725E-2</v>
       </c>
       <c r="I24" s="9">
-        <f t="shared" si="10"/>
-        <v>7.6335877862595417E-3</v>
+        <f>D24/D10</f>
+        <v>6.9324090121317154E-3</v>
       </c>
       <c r="J24" s="9">
-        <f t="shared" si="11"/>
-        <v>8.6206896551724137E-3</v>
+        <f>F24/F10</f>
+        <v>8.6132644272179162E-3</v>
       </c>
       <c r="K24" s="48">
         <v>3.5999999999999997E-2</v>
@@ -7139,38 +7139,38 @@
         <v>7</v>
       </c>
       <c r="B25" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C25" s="56">
         <f t="shared" si="5"/>
-        <v>6.6730219256434702E-3</v>
+        <v>6.090808416389812E-3</v>
       </c>
       <c r="D25" s="3">
         <v>12</v>
       </c>
       <c r="E25" s="55">
         <f t="shared" si="6"/>
-        <v>3.8486209108402822E-3</v>
+        <v>3.4246575342465752E-3</v>
       </c>
       <c r="F25" s="3">
         <f t="shared" si="7"/>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G25" s="5">
         <f t="shared" si="8"/>
-        <v>5.2673583399840381E-3</v>
+        <v>4.7779651489600903E-3</v>
       </c>
       <c r="H25" s="48">
-        <f t="shared" si="9"/>
-        <v>5.7220708446866483E-2</v>
+        <f>B25/B11</f>
+        <v>5.2884615384615384E-2</v>
       </c>
       <c r="I25" s="9">
-        <f t="shared" si="10"/>
-        <v>3.8585209003215437E-2</v>
+        <f>D25/D11</f>
+        <v>3.5928143712574849E-2</v>
       </c>
       <c r="J25" s="9">
-        <f t="shared" si="11"/>
-        <v>4.8672566371681415E-2</v>
+        <f>F25/F11</f>
+        <v>4.5333333333333337E-2</v>
       </c>
       <c r="K25" s="48">
         <v>0.08</v>
@@ -7190,38 +7190,38 @@
         <v>8</v>
       </c>
       <c r="B26" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C26" s="6">
         <f t="shared" si="5"/>
-        <v>8.2618366698442962E-3</v>
+        <v>7.4750830564784057E-3</v>
       </c>
       <c r="D26" s="4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E26" s="7">
         <f t="shared" si="6"/>
-        <v>8.6593970493906349E-3</v>
+        <v>7.9908675799086754E-3</v>
       </c>
       <c r="F26" s="4">
         <f t="shared" si="7"/>
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G26" s="6">
         <f t="shared" si="8"/>
-        <v>8.4596967278531519E-3</v>
+        <v>7.7290612703766158E-3</v>
       </c>
       <c r="H26" s="49">
-        <f t="shared" si="9"/>
-        <v>0.23214285714285715</v>
+        <f>B26/B12</f>
+        <v>0.2125984251968504</v>
       </c>
       <c r="I26" s="47">
-        <f t="shared" si="10"/>
-        <v>0.27551020408163263</v>
+        <f>D26/D12</f>
+        <v>0.24347826086956523</v>
       </c>
       <c r="J26" s="47">
-        <f t="shared" si="11"/>
-        <v>0.25238095238095237</v>
+        <f>F26/F12</f>
+        <v>0.22727272727272727</v>
       </c>
       <c r="K26" s="49">
         <v>0.14799999999999999</v>
@@ -7242,27 +7242,27 @@
       </c>
       <c r="B27" s="59">
         <f>SUM(B18:B26)</f>
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D27" s="59">
         <f>SUM(D18:D26)</f>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" s="59">
         <f>SUM(F18:F26)</f>
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H27" s="66">
-        <f t="shared" si="9"/>
-        <v>1.7159199237368923E-2</v>
+        <f>B27/B13</f>
+        <v>1.6057585825027684E-2</v>
       </c>
       <c r="I27" s="66">
         <f>D27/D13</f>
-        <v>1.4111610006414367E-2</v>
+        <v>1.2842465753424657E-2</v>
       </c>
       <c r="J27" s="66">
-        <f t="shared" si="11"/>
-        <v>1.564245810055866E-2</v>
+        <f>F27/F13</f>
+        <v>1.4474423833614389E-2</v>
       </c>
       <c r="K27" s="5">
         <v>5.5199999999999999E-2</v>
@@ -7281,11 +7281,11 @@
       <c r="A28" s="1"/>
       <c r="B28" s="65">
         <f>B27/F27</f>
-        <v>0.55102040816326525</v>
+        <v>0.56310679611650483</v>
       </c>
       <c r="D28" s="65">
         <f>D27/F27</f>
-        <v>0.44897959183673469</v>
+        <v>0.43689320388349512</v>
       </c>
       <c r="H28" s="9"/>
       <c r="J28" s="9"/>
@@ -7299,7 +7299,7 @@
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="302" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -7312,7 +7312,7 @@
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="211" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B32" s="99">
         <v>0.05</v>
@@ -7389,7 +7389,7 @@
     </row>
     <row r="39" spans="1:28">
       <c r="A39" s="212" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B39" s="66">
         <v>0.20100000000000001</v>
@@ -7412,170 +7412,170 @@
     </row>
     <row r="43" spans="1:28">
       <c r="A43" s="295" t="s">
-        <v>528</v>
-      </c>
-      <c r="B43" s="383" t="s">
-        <v>434</v>
-      </c>
-      <c r="C43" s="384"/>
-      <c r="D43" s="384"/>
-      <c r="E43" s="384"/>
-      <c r="F43" s="384"/>
-      <c r="G43" s="384"/>
-      <c r="H43" s="384"/>
-      <c r="I43" s="384"/>
-      <c r="J43" s="385"/>
-      <c r="K43" s="377" t="s">
+        <v>526</v>
+      </c>
+      <c r="B43" s="402" t="s">
+        <v>432</v>
+      </c>
+      <c r="C43" s="403"/>
+      <c r="D43" s="403"/>
+      <c r="E43" s="403"/>
+      <c r="F43" s="403"/>
+      <c r="G43" s="403"/>
+      <c r="H43" s="403"/>
+      <c r="I43" s="403"/>
+      <c r="J43" s="404"/>
+      <c r="K43" s="382" t="s">
         <v>237</v>
       </c>
-      <c r="L43" s="378"/>
-      <c r="M43" s="378"/>
-      <c r="N43" s="378"/>
-      <c r="O43" s="378"/>
-      <c r="P43" s="378"/>
-      <c r="Q43" s="378"/>
-      <c r="R43" s="378"/>
-      <c r="S43" s="379"/>
-      <c r="T43" s="382" t="s">
-        <v>525</v>
-      </c>
-      <c r="U43" s="382"/>
-      <c r="V43" s="382"/>
-      <c r="W43" s="382"/>
-      <c r="X43" s="382"/>
-      <c r="Y43" s="382"/>
-      <c r="Z43" s="382"/>
-      <c r="AA43" s="382"/>
-      <c r="AB43" s="382"/>
+      <c r="L43" s="383"/>
+      <c r="M43" s="383"/>
+      <c r="N43" s="383"/>
+      <c r="O43" s="383"/>
+      <c r="P43" s="383"/>
+      <c r="Q43" s="383"/>
+      <c r="R43" s="383"/>
+      <c r="S43" s="384"/>
+      <c r="T43" s="385" t="s">
+        <v>523</v>
+      </c>
+      <c r="U43" s="385"/>
+      <c r="V43" s="385"/>
+      <c r="W43" s="385"/>
+      <c r="X43" s="385"/>
+      <c r="Y43" s="385"/>
+      <c r="Z43" s="385"/>
+      <c r="AA43" s="385"/>
+      <c r="AB43" s="385"/>
     </row>
     <row r="44" spans="1:28" ht="15" customHeight="1">
-      <c r="B44" s="382" t="s">
+      <c r="B44" s="385" t="s">
         <v>180</v>
       </c>
-      <c r="C44" s="382"/>
-      <c r="D44" s="382"/>
-      <c r="E44" s="382" t="s">
+      <c r="C44" s="385"/>
+      <c r="D44" s="385"/>
+      <c r="E44" s="385" t="s">
         <v>181</v>
       </c>
-      <c r="F44" s="382"/>
-      <c r="G44" s="382"/>
-      <c r="H44" s="382" t="s">
-        <v>435</v>
-      </c>
-      <c r="I44" s="382"/>
-      <c r="J44" s="382"/>
-      <c r="K44" s="392" t="s">
+      <c r="F44" s="385"/>
+      <c r="G44" s="385"/>
+      <c r="H44" s="385" t="s">
+        <v>433</v>
+      </c>
+      <c r="I44" s="385"/>
+      <c r="J44" s="385"/>
+      <c r="K44" s="393" t="s">
         <v>180</v>
       </c>
-      <c r="L44" s="392"/>
-      <c r="M44" s="392"/>
-      <c r="N44" s="392" t="s">
+      <c r="L44" s="393"/>
+      <c r="M44" s="393"/>
+      <c r="N44" s="393" t="s">
         <v>181</v>
       </c>
-      <c r="O44" s="392"/>
-      <c r="P44" s="392"/>
-      <c r="Q44" s="377" t="s">
-        <v>435</v>
-      </c>
-      <c r="R44" s="378"/>
-      <c r="S44" s="379"/>
-      <c r="T44" s="382" t="s">
+      <c r="O44" s="393"/>
+      <c r="P44" s="393"/>
+      <c r="Q44" s="382" t="s">
+        <v>433</v>
+      </c>
+      <c r="R44" s="383"/>
+      <c r="S44" s="384"/>
+      <c r="T44" s="385" t="s">
         <v>180</v>
       </c>
-      <c r="U44" s="382"/>
-      <c r="V44" s="382"/>
-      <c r="W44" s="382" t="s">
+      <c r="U44" s="385"/>
+      <c r="V44" s="385"/>
+      <c r="W44" s="385" t="s">
         <v>181</v>
       </c>
-      <c r="X44" s="382"/>
-      <c r="Y44" s="382"/>
-      <c r="Z44" s="382" t="s">
-        <v>435</v>
-      </c>
-      <c r="AA44" s="382"/>
-      <c r="AB44" s="382"/>
+      <c r="X44" s="385"/>
+      <c r="Y44" s="385"/>
+      <c r="Z44" s="385" t="s">
+        <v>433</v>
+      </c>
+      <c r="AA44" s="385"/>
+      <c r="AB44" s="385"/>
     </row>
     <row r="45" spans="1:28">
       <c r="B45" s="66" t="s">
+        <v>294</v>
+      </c>
+      <c r="C45" s="66" t="s">
+        <v>295</v>
+      </c>
+      <c r="D45" s="59" t="s">
         <v>296</v>
       </c>
-      <c r="C45" s="66" t="s">
-        <v>297</v>
-      </c>
-      <c r="D45" s="59" t="s">
-        <v>298</v>
-      </c>
       <c r="E45" s="66" t="s">
+        <v>294</v>
+      </c>
+      <c r="F45" s="66" t="s">
+        <v>295</v>
+      </c>
+      <c r="G45" s="59" t="s">
         <v>296</v>
       </c>
-      <c r="F45" s="66" t="s">
-        <v>297</v>
-      </c>
-      <c r="G45" s="59" t="s">
-        <v>298</v>
-      </c>
       <c r="H45" s="66" t="s">
+        <v>294</v>
+      </c>
+      <c r="I45" s="66" t="s">
+        <v>295</v>
+      </c>
+      <c r="J45" s="59" t="s">
         <v>296</v>
       </c>
-      <c r="I45" s="66" t="s">
-        <v>297</v>
-      </c>
-      <c r="J45" s="59" t="s">
-        <v>298</v>
-      </c>
       <c r="K45" s="66" t="s">
+        <v>294</v>
+      </c>
+      <c r="L45" s="66" t="s">
+        <v>295</v>
+      </c>
+      <c r="M45" s="59" t="s">
         <v>296</v>
       </c>
-      <c r="L45" s="66" t="s">
-        <v>297</v>
-      </c>
-      <c r="M45" s="59" t="s">
-        <v>298</v>
-      </c>
       <c r="N45" s="66" t="s">
+        <v>294</v>
+      </c>
+      <c r="O45" s="66" t="s">
+        <v>295</v>
+      </c>
+      <c r="P45" s="59" t="s">
         <v>296</v>
       </c>
-      <c r="O45" s="66" t="s">
-        <v>297</v>
-      </c>
-      <c r="P45" s="59" t="s">
-        <v>298</v>
-      </c>
       <c r="Q45" s="66" t="s">
+        <v>294</v>
+      </c>
+      <c r="R45" s="66" t="s">
+        <v>295</v>
+      </c>
+      <c r="S45" s="59" t="s">
         <v>296</v>
       </c>
-      <c r="R45" s="66" t="s">
-        <v>297</v>
-      </c>
-      <c r="S45" s="59" t="s">
-        <v>298</v>
-      </c>
       <c r="T45" s="66" t="s">
+        <v>294</v>
+      </c>
+      <c r="U45" s="66" t="s">
+        <v>295</v>
+      </c>
+      <c r="V45" s="59" t="s">
         <v>296</v>
       </c>
-      <c r="U45" s="66" t="s">
-        <v>297</v>
-      </c>
-      <c r="V45" s="59" t="s">
-        <v>298</v>
-      </c>
       <c r="W45" s="66" t="s">
+        <v>294</v>
+      </c>
+      <c r="X45" s="66" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y45" s="59" t="s">
         <v>296</v>
       </c>
-      <c r="X45" s="66" t="s">
-        <v>297</v>
-      </c>
-      <c r="Y45" s="59" t="s">
-        <v>298</v>
-      </c>
       <c r="Z45" s="66" t="s">
+        <v>294</v>
+      </c>
+      <c r="AA45" s="66" t="s">
+        <v>295</v>
+      </c>
+      <c r="AB45" s="59" t="s">
         <v>296</v>
-      </c>
-      <c r="AA45" s="66" t="s">
-        <v>297</v>
-      </c>
-      <c r="AB45" s="59" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="46" spans="1:28">
@@ -8032,7 +8032,7 @@
     </row>
     <row r="50" spans="1:36">
       <c r="A50" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B50" s="49">
         <f>Obesity!B9/100</f>
@@ -8118,7 +8118,7 @@
     </row>
     <row r="51" spans="1:36">
       <c r="A51" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B51" s="291"/>
       <c r="C51" s="291"/>
@@ -8177,7 +8177,7 @@
     </row>
     <row r="52" spans="1:36">
       <c r="A52" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B52" s="291"/>
       <c r="C52" s="291"/>
@@ -8236,7 +8236,7 @@
     </row>
     <row r="53" spans="1:36">
       <c r="A53" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B53" s="291"/>
       <c r="C53" s="291"/>
@@ -8295,7 +8295,7 @@
     </row>
     <row r="54" spans="1:36">
       <c r="A54" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B54" s="291"/>
       <c r="C54" s="291"/>
@@ -8354,7 +8354,7 @@
     </row>
     <row r="55" spans="1:36">
       <c r="A55" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B55" s="66">
         <f>Obesity!B11/100</f>
@@ -8471,55 +8471,55 @@
     </row>
     <row r="58" spans="1:36">
       <c r="A58" s="295" t="s">
-        <v>529</v>
-      </c>
-      <c r="B58" s="382">
+        <v>527</v>
+      </c>
+      <c r="B58" s="385">
         <v>2019</v>
       </c>
-      <c r="C58" s="382"/>
-      <c r="D58" s="377">
+      <c r="C58" s="385"/>
+      <c r="D58" s="382">
         <v>2016</v>
       </c>
-      <c r="E58" s="378"/>
-      <c r="F58" s="378"/>
-      <c r="G58" s="378"/>
-      <c r="H58" s="379"/>
-      <c r="I58" s="377">
+      <c r="E58" s="383"/>
+      <c r="F58" s="383"/>
+      <c r="G58" s="383"/>
+      <c r="H58" s="384"/>
+      <c r="I58" s="382">
         <v>2019</v>
       </c>
-      <c r="J58" s="378"/>
-      <c r="K58" s="378"/>
-      <c r="L58" s="378"/>
-      <c r="M58" s="378"/>
-      <c r="N58" s="379"/>
-      <c r="O58" s="377">
+      <c r="J58" s="383"/>
+      <c r="K58" s="383"/>
+      <c r="L58" s="383"/>
+      <c r="M58" s="383"/>
+      <c r="N58" s="384"/>
+      <c r="O58" s="382">
         <v>2016</v>
       </c>
-      <c r="P58" s="378"/>
-      <c r="Q58" s="378"/>
-      <c r="R58" s="378"/>
-      <c r="S58" s="379"/>
-      <c r="T58" s="377">
+      <c r="P58" s="383"/>
+      <c r="Q58" s="383"/>
+      <c r="R58" s="383"/>
+      <c r="S58" s="384"/>
+      <c r="T58" s="382">
         <v>2019</v>
       </c>
-      <c r="U58" s="378"/>
-      <c r="V58" s="378"/>
-      <c r="W58" s="378"/>
-      <c r="X58" s="378"/>
-      <c r="Y58" s="379"/>
-      <c r="Z58" s="379">
+      <c r="U58" s="383"/>
+      <c r="V58" s="383"/>
+      <c r="W58" s="383"/>
+      <c r="X58" s="383"/>
+      <c r="Y58" s="384"/>
+      <c r="Z58" s="384">
         <v>2016</v>
       </c>
-      <c r="AA58" s="382"/>
-      <c r="AB58" s="382"/>
-      <c r="AC58" s="377">
+      <c r="AA58" s="385"/>
+      <c r="AB58" s="385"/>
+      <c r="AC58" s="382">
         <v>2019</v>
       </c>
-      <c r="AD58" s="378"/>
-      <c r="AE58" s="378"/>
-      <c r="AF58" s="378"/>
-      <c r="AG58" s="378"/>
-      <c r="AH58" s="379"/>
+      <c r="AD58" s="383"/>
+      <c r="AE58" s="383"/>
+      <c r="AF58" s="383"/>
+      <c r="AG58" s="383"/>
+      <c r="AH58" s="384"/>
       <c r="AI58" s="172" t="s">
         <v>262</v>
       </c>
@@ -8531,49 +8531,49 @@
       <c r="C59" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="D59" s="377" t="s">
+      <c r="D59" s="382" t="s">
         <v>251</v>
       </c>
-      <c r="E59" s="378"/>
-      <c r="F59" s="378"/>
-      <c r="G59" s="378"/>
-      <c r="H59" s="379"/>
-      <c r="I59" s="377" t="s">
+      <c r="E59" s="383"/>
+      <c r="F59" s="383"/>
+      <c r="G59" s="383"/>
+      <c r="H59" s="384"/>
+      <c r="I59" s="382" t="s">
         <v>165</v>
       </c>
-      <c r="J59" s="378"/>
-      <c r="K59" s="378"/>
-      <c r="L59" s="378"/>
-      <c r="M59" s="378"/>
-      <c r="N59" s="379"/>
-      <c r="O59" s="377" t="s">
+      <c r="J59" s="383"/>
+      <c r="K59" s="383"/>
+      <c r="L59" s="383"/>
+      <c r="M59" s="383"/>
+      <c r="N59" s="384"/>
+      <c r="O59" s="382" t="s">
         <v>239</v>
       </c>
-      <c r="P59" s="378"/>
-      <c r="Q59" s="378"/>
-      <c r="R59" s="378"/>
-      <c r="S59" s="379"/>
-      <c r="T59" s="377" t="s">
+      <c r="P59" s="383"/>
+      <c r="Q59" s="383"/>
+      <c r="R59" s="383"/>
+      <c r="S59" s="384"/>
+      <c r="T59" s="382" t="s">
         <v>164</v>
       </c>
-      <c r="U59" s="378"/>
-      <c r="V59" s="378"/>
-      <c r="W59" s="378"/>
-      <c r="X59" s="378"/>
-      <c r="Y59" s="379"/>
-      <c r="Z59" s="378" t="s">
+      <c r="U59" s="383"/>
+      <c r="V59" s="383"/>
+      <c r="W59" s="383"/>
+      <c r="X59" s="383"/>
+      <c r="Y59" s="384"/>
+      <c r="Z59" s="383" t="s">
         <v>261</v>
       </c>
-      <c r="AA59" s="378"/>
-      <c r="AB59" s="379"/>
-      <c r="AC59" s="377" t="s">
+      <c r="AA59" s="383"/>
+      <c r="AB59" s="384"/>
+      <c r="AC59" s="382" t="s">
         <v>260</v>
       </c>
-      <c r="AD59" s="378"/>
-      <c r="AE59" s="378"/>
-      <c r="AF59" s="378"/>
-      <c r="AG59" s="378"/>
-      <c r="AH59" s="379"/>
+      <c r="AD59" s="383"/>
+      <c r="AE59" s="383"/>
+      <c r="AF59" s="383"/>
+      <c r="AG59" s="383"/>
+      <c r="AH59" s="384"/>
       <c r="AI59" s="20">
         <f>SUM(H64:H68)</f>
         <v>17700241</v>
@@ -8586,13 +8586,13 @@
         <v>9</v>
       </c>
       <c r="E60" s="159" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F60" s="59" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="208" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H60" s="165" t="s">
         <v>11</v>
@@ -8619,13 +8619,13 @@
         <v>9</v>
       </c>
       <c r="P60" s="369" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="Q60" s="362" t="s">
         <v>10</v>
       </c>
       <c r="R60" s="369" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="S60" s="362" t="s">
         <v>11</v>
@@ -8775,20 +8775,20 @@
         <f>'AU Pop'!H22</f>
         <v>9.5612474089386751E-2</v>
       </c>
-      <c r="D62" s="398">
+      <c r="D62" s="391">
         <f>'A&amp;TSI Pop'!L11</f>
         <v>1405253</v>
       </c>
-      <c r="E62" s="375">
-        <f t="shared" ref="E62:E68" si="12">D62/SUM($D$61:$D$68)</f>
+      <c r="E62" s="396">
+        <f t="shared" ref="E62:E68" si="9">D62/SUM($D$61:$D$68)</f>
         <v>0.12109420846479671</v>
       </c>
-      <c r="F62" s="380">
+      <c r="F62" s="386">
         <f>'A&amp;TSI Pop'!L29</f>
         <v>1333829</v>
       </c>
-      <c r="G62" s="375">
-        <f t="shared" ref="G62:G70" si="13">F62/SUM($F$61:$F$68)</f>
+      <c r="G62" s="396">
+        <f t="shared" ref="G62:G70" si="10">F62/SUM($F$61:$F$68)</f>
         <v>0.11315223148858543</v>
       </c>
       <c r="H62" s="363">
@@ -8799,23 +8799,23 @@
       <c r="K62" s="58"/>
       <c r="M62" s="58"/>
       <c r="N62" s="74"/>
-      <c r="O62" s="386">
+      <c r="O62" s="394">
         <f>'A&amp;TSI Pop'!H11</f>
         <v>85770</v>
       </c>
-      <c r="P62" s="375">
-        <f t="shared" ref="P62:P70" si="14">O62/SUM($O$61:$O$68)</f>
+      <c r="P62" s="396">
+        <f t="shared" ref="P62:P70" si="11">O62/SUM($O$61:$O$68)</f>
         <v>0.21527911990823592</v>
       </c>
-      <c r="Q62" s="388">
+      <c r="Q62" s="398">
         <f>'A&amp;TSI Pop'!H29</f>
         <v>81992</v>
       </c>
-      <c r="R62" s="375">
-        <f t="shared" ref="R62:R70" si="15">Q62/SUM($Q$61:$Q$68)</f>
+      <c r="R62" s="396">
+        <f t="shared" ref="R62:R70" si="12">Q62/SUM($Q$61:$Q$68)</f>
         <v>0.20500460055206624</v>
       </c>
-      <c r="S62" s="390">
+      <c r="S62" s="400">
         <f>'A&amp;TSI Pop'!H47</f>
         <v>167762</v>
       </c>
@@ -8823,15 +8823,15 @@
       <c r="V62" s="58"/>
       <c r="X62" s="74"/>
       <c r="Y62" s="74"/>
-      <c r="Z62" s="380">
+      <c r="Z62" s="386">
         <f>O62+D62</f>
         <v>1491023</v>
       </c>
-      <c r="AA62" s="395">
+      <c r="AA62" s="388">
         <f>Q62+F62</f>
         <v>1415821</v>
       </c>
-      <c r="AB62" s="397">
+      <c r="AB62" s="390">
         <f>S62+H62</f>
         <v>2906844</v>
       </c>
@@ -8855,10 +8855,10 @@
         <f>'AU Pop'!H25</f>
         <v>2.4952286703894818E-2</v>
       </c>
-      <c r="D63" s="399"/>
-      <c r="E63" s="376"/>
-      <c r="F63" s="381"/>
-      <c r="G63" s="376"/>
+      <c r="D63" s="392"/>
+      <c r="E63" s="397"/>
+      <c r="F63" s="387"/>
+      <c r="G63" s="397"/>
       <c r="H63" s="364"/>
       <c r="I63" s="80">
         <f>'Prison Pop'!L58</f>
@@ -8869,15 +8869,15 @@
         <v>23</v>
       </c>
       <c r="M63" s="80">
-        <f t="shared" ref="M63:M68" si="16">SUM(I63,K63)</f>
+        <f t="shared" ref="M63:M68" si="13">SUM(I63,K63)</f>
         <v>376</v>
       </c>
       <c r="N63" s="74"/>
-      <c r="O63" s="387"/>
-      <c r="P63" s="376"/>
-      <c r="Q63" s="389"/>
-      <c r="R63" s="376"/>
-      <c r="S63" s="391"/>
+      <c r="O63" s="395"/>
+      <c r="P63" s="397"/>
+      <c r="Q63" s="399"/>
+      <c r="R63" s="397"/>
+      <c r="S63" s="401"/>
       <c r="T63" s="80">
         <f>'Prison Pop'!L6</f>
         <v>348</v>
@@ -8887,23 +8887,23 @@
         <v>30</v>
       </c>
       <c r="X63" s="80">
-        <f t="shared" ref="X63:X68" si="17">SUM(T63,V63)</f>
+        <f t="shared" ref="X63:X68" si="14">SUM(T63,V63)</f>
         <v>378</v>
       </c>
       <c r="Y63" s="74"/>
-      <c r="Z63" s="381"/>
-      <c r="AA63" s="396"/>
-      <c r="AB63" s="396"/>
+      <c r="Z63" s="387"/>
+      <c r="AA63" s="389"/>
+      <c r="AB63" s="389"/>
       <c r="AC63" s="80">
-        <f t="shared" ref="AC63:AC68" si="18">T63+I63</f>
+        <f t="shared" ref="AC63:AC68" si="15">T63+I63</f>
         <v>701</v>
       </c>
       <c r="AE63" s="80">
-        <f t="shared" ref="AE63:AE68" si="19">V63+K63</f>
+        <f t="shared" ref="AE63:AE68" si="16">V63+K63</f>
         <v>53</v>
       </c>
       <c r="AG63" s="80">
-        <f t="shared" ref="AG63:AG68" si="20">SUM(AC63,AE63)</f>
+        <f t="shared" ref="AG63:AG68" si="17">SUM(AC63,AE63)</f>
         <v>754</v>
       </c>
       <c r="AH63" s="74"/>
@@ -8929,7 +8929,7 @@
         <v>1702705</v>
       </c>
       <c r="E64" s="100">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0.14672640031656342</v>
       </c>
       <c r="F64" s="109">
@@ -8937,7 +8937,7 @@
         <v>1668970</v>
       </c>
       <c r="G64" s="99">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0.14158312631342129</v>
       </c>
       <c r="H64" s="109">
@@ -8961,7 +8961,7 @@
         <v>0.42061870494975945</v>
       </c>
       <c r="M64" s="105">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>8439</v>
       </c>
       <c r="N64" s="186">
@@ -8973,7 +8973,7 @@
         <v>70004</v>
       </c>
       <c r="P64" s="100">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>0.17570711799062783</v>
       </c>
       <c r="Q64" s="184">
@@ -8981,7 +8981,7 @@
         <v>66691</v>
       </c>
       <c r="R64" s="100">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>0.16674750970116414</v>
       </c>
       <c r="S64" s="164">
@@ -9005,7 +9005,7 @@
         <v>6.6125864059618236</v>
       </c>
       <c r="X64" s="105">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>4604</v>
       </c>
       <c r="Y64" s="186">
@@ -9013,19 +9013,19 @@
         <v>33.680822268554081</v>
       </c>
       <c r="Z64" s="108">
-        <f>O64+D64</f>
+        <f t="shared" ref="Z64:Z70" si="18">O64+D64</f>
         <v>1772709</v>
       </c>
       <c r="AA64" s="170">
-        <f>Q64+F64</f>
+        <f t="shared" ref="AA64:AA70" si="19">Q64+F64</f>
         <v>1735661</v>
       </c>
       <c r="AB64" s="183">
-        <f>S64+H64</f>
+        <f t="shared" ref="AB64:AB70" si="20">S64+H64</f>
         <v>3508370</v>
       </c>
       <c r="AC64" s="103">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>11900</v>
       </c>
       <c r="AD64" s="191">
@@ -9033,7 +9033,7 @@
         <v>6.7128897072221099</v>
       </c>
       <c r="AE64" s="180">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>1143</v>
       </c>
       <c r="AF64" s="218">
@@ -9041,7 +9041,7 @@
         <v>0.65853873538669128</v>
       </c>
       <c r="AG64" s="105">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>13043</v>
       </c>
       <c r="AH64" s="194">
@@ -9066,7 +9066,7 @@
         <v>1647555</v>
       </c>
       <c r="E65" s="100">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0.14197398520210819</v>
       </c>
       <c r="F65" s="109">
@@ -9074,7 +9074,7 @@
         <v>1659922</v>
       </c>
       <c r="G65" s="100">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0.14081556061308886</v>
       </c>
       <c r="H65" s="109">
@@ -9098,7 +9098,7 @@
         <v>0.48676986027054281</v>
       </c>
       <c r="M65" s="105">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>10529</v>
       </c>
       <c r="N65" s="187">
@@ -9110,7 +9110,7 @@
         <v>46374</v>
       </c>
       <c r="P65" s="100">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>0.11639680432114415</v>
       </c>
       <c r="Q65" s="184">
@@ -9118,7 +9118,7 @@
         <v>47696</v>
       </c>
       <c r="R65" s="100">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>0.11925431051726207</v>
       </c>
       <c r="S65" s="164">
@@ -9142,7 +9142,7 @@
         <v>9.1412277759141229</v>
       </c>
       <c r="X65" s="105">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>4055</v>
       </c>
       <c r="Y65" s="187">
@@ -9150,19 +9150,19 @@
         <v>43.106197512490702</v>
       </c>
       <c r="Z65" s="109">
-        <f>O65+D65</f>
+        <f t="shared" si="18"/>
         <v>1693929</v>
       </c>
       <c r="AA65" s="164">
-        <f>Q65+F65</f>
+        <f t="shared" si="19"/>
         <v>1707618</v>
       </c>
       <c r="AB65" s="184">
-        <f>S65+H65</f>
+        <f t="shared" si="20"/>
         <v>3401547</v>
       </c>
       <c r="AC65" s="103">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>13340</v>
       </c>
       <c r="AD65" s="192">
@@ -9170,7 +9170,7 @@
         <v>7.8751824899390703</v>
       </c>
       <c r="AE65" s="180">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>1244</v>
       </c>
       <c r="AF65" s="219">
@@ -9178,7 +9178,7 @@
         <v>0.72850016807037643</v>
       </c>
       <c r="AG65" s="105">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>14584</v>
       </c>
       <c r="AH65" s="195">
@@ -9206,7 +9206,7 @@
         <v>1551221</v>
       </c>
       <c r="E66" s="100">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0.13367264054869152</v>
       </c>
       <c r="F66" s="109">
@@ -9214,7 +9214,7 @@
         <v>1592347</v>
       </c>
       <c r="G66" s="100">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0.13508299516216438</v>
       </c>
       <c r="H66" s="109">
@@ -9238,7 +9238,7 @@
         <v>0.32781799444467818</v>
       </c>
       <c r="M66" s="105">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>6767</v>
       </c>
       <c r="N66" s="187">
@@ -9250,7 +9250,7 @@
         <v>42087</v>
       </c>
       <c r="P66" s="100">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>0.10563661326312143</v>
       </c>
       <c r="Q66" s="184">
@@ -9258,7 +9258,7 @@
         <v>46051</v>
       </c>
       <c r="R66" s="100">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>0.11514131695803496</v>
       </c>
       <c r="S66" s="164">
@@ -9282,7 +9282,7 @@
         <v>4.4733013398188959</v>
       </c>
       <c r="X66" s="105">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>2073</v>
       </c>
       <c r="Y66" s="187">
@@ -9290,19 +9290,19 @@
         <v>23.519934647938459</v>
       </c>
       <c r="Z66" s="109">
-        <f>O66+D66</f>
+        <f t="shared" si="18"/>
         <v>1593308</v>
       </c>
       <c r="AA66" s="164">
-        <f>Q66+F66</f>
+        <f t="shared" si="19"/>
         <v>1638398</v>
       </c>
       <c r="AB66" s="184">
-        <f>S66+H66</f>
+        <f t="shared" si="20"/>
         <v>3231706</v>
       </c>
       <c r="AC66" s="103">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>8112</v>
       </c>
       <c r="AD66" s="192">
@@ -9310,7 +9310,7 @@
         <v>5.0912943385710738</v>
       </c>
       <c r="AE66" s="180">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>728</v>
       </c>
       <c r="AF66" s="219">
@@ -9318,7 +9318,7 @@
         <v>0.44433647990292957</v>
       </c>
       <c r="AG66" s="105">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>8840</v>
       </c>
       <c r="AH66" s="195">
@@ -9355,7 +9355,7 @@
         <v>1502388</v>
       </c>
       <c r="G67" s="100">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0.12745153596276051</v>
       </c>
       <c r="H67" s="109">
@@ -9379,7 +9379,7 @@
         <v>0.1550864357276549</v>
       </c>
       <c r="M67" s="105">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>3118</v>
       </c>
       <c r="N67" s="187">
@@ -9391,7 +9391,7 @@
         <v>32099</v>
       </c>
       <c r="P67" s="100">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>8.0567150168292703E-2</v>
       </c>
       <c r="Q67" s="184">
@@ -9399,7 +9399,7 @@
         <v>35477</v>
       </c>
       <c r="R67" s="100">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>8.870314437732528E-2</v>
       </c>
       <c r="S67" s="164">
@@ -9423,7 +9423,7 @@
         <v>1.240240155593765</v>
       </c>
       <c r="X67" s="105">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>642</v>
       </c>
       <c r="Y67" s="187">
@@ -9431,19 +9431,19 @@
         <v>9.5004143482893344</v>
       </c>
       <c r="Z67" s="109">
-        <f>O67+D67</f>
+        <f t="shared" si="18"/>
         <v>1486526</v>
       </c>
       <c r="AA67" s="164">
-        <f>Q67+F67</f>
+        <f t="shared" si="19"/>
         <v>1537865</v>
       </c>
       <c r="AB67" s="184">
-        <f>S67+H67</f>
+        <f t="shared" si="20"/>
         <v>3024391</v>
       </c>
       <c r="AC67" s="103">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>3483</v>
       </c>
       <c r="AD67" s="192">
@@ -9451,7 +9451,7 @@
         <v>2.3430468084648366</v>
       </c>
       <c r="AE67" s="180">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>277</v>
       </c>
       <c r="AF67" s="219">
@@ -9459,7 +9459,7 @@
         <v>0.18011984146852941</v>
       </c>
       <c r="AG67" s="105">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>3760</v>
       </c>
       <c r="AH67" s="195">
@@ -9487,7 +9487,7 @@
         <v>2327464</v>
       </c>
       <c r="E68" s="101">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0.20056346494923663</v>
       </c>
       <c r="F68" s="76">
@@ -9495,7 +9495,7 @@
         <v>2593242</v>
       </c>
       <c r="G68" s="101">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0.21999155745595744</v>
       </c>
       <c r="H68" s="76">
@@ -9519,7 +9519,7 @@
         <v>2.0823355475501321E-2</v>
       </c>
       <c r="M68" s="79">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>1917</v>
       </c>
       <c r="N68" s="188">
@@ -9531,7 +9531,7 @@
         <v>25968</v>
       </c>
       <c r="P68" s="101">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>6.5178596079947193E-2</v>
       </c>
       <c r="Q68" s="185">
@@ -9539,7 +9539,7 @@
         <v>30468</v>
       </c>
       <c r="R68" s="101">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>7.6179141496979644E-2</v>
       </c>
       <c r="S68" s="169">
@@ -9563,7 +9563,7 @@
         <v>9.8463962189838522E-2</v>
       </c>
       <c r="X68" s="79">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>123</v>
       </c>
       <c r="Y68" s="188">
@@ -9571,19 +9571,19 @@
         <v>2.1794599192005104</v>
       </c>
       <c r="Z68" s="76">
-        <f>O68+D68</f>
+        <f t="shared" si="18"/>
         <v>2353432</v>
       </c>
       <c r="AA68" s="169">
-        <f>Q68+F68</f>
+        <f t="shared" si="19"/>
         <v>2623710</v>
       </c>
       <c r="AB68" s="185">
-        <f>S68+H68</f>
+        <f t="shared" si="20"/>
         <v>4977142</v>
       </c>
       <c r="AC68" s="104">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>1983</v>
       </c>
       <c r="AD68" s="193">
@@ -9591,7 +9591,7 @@
         <v>0.84259923379982948</v>
       </c>
       <c r="AE68" s="181">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>57</v>
       </c>
       <c r="AF68" s="220">
@@ -9599,7 +9599,7 @@
         <v>2.1724961981316532E-2</v>
       </c>
       <c r="AG68" s="79">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>2040</v>
       </c>
       <c r="AH68" s="196">
@@ -9633,7 +9633,7 @@
         <v>1251412</v>
       </c>
       <c r="G69" s="367">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0.1061605800380661</v>
       </c>
       <c r="H69" s="163">
@@ -9645,13 +9645,13 @@
       <c r="K69" s="180"/>
       <c r="L69" s="216"/>
       <c r="M69" s="180"/>
-      <c r="N69" s="427"/>
+      <c r="N69" s="375"/>
       <c r="O69" s="106">
         <f>'A&amp;TSI Pop'!H21</f>
         <v>17984</v>
       </c>
       <c r="P69" s="367">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>4.5139089336944327E-2</v>
       </c>
       <c r="Q69" s="168">
@@ -9659,7 +9659,7 @@
         <v>19856</v>
       </c>
       <c r="R69" s="367">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>4.9645957514901785E-2</v>
       </c>
       <c r="S69" s="163">
@@ -9671,17 +9671,17 @@
       <c r="V69" s="180"/>
       <c r="W69" s="216"/>
       <c r="X69" s="180"/>
-      <c r="Y69" s="427"/>
+      <c r="Y69" s="375"/>
       <c r="Z69" s="161">
-        <f>O69+D69</f>
+        <f t="shared" si="18"/>
         <v>1226696</v>
       </c>
       <c r="AA69" s="163">
-        <f>Q69+F69</f>
+        <f t="shared" si="19"/>
         <v>1271268</v>
       </c>
       <c r="AB69" s="163">
-        <f>S69+H69</f>
+        <f t="shared" si="20"/>
         <v>2497964</v>
       </c>
       <c r="AC69" s="180"/>
@@ -9696,7 +9696,7 @@
     </row>
     <row r="70" spans="1:36" s="301" customFormat="1">
       <c r="A70" s="72" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B70" s="184"/>
       <c r="C70" s="56"/>
@@ -9704,19 +9704,19 @@
         <f>'A&amp;TSI Pop'!L23</f>
         <v>1118752</v>
       </c>
-      <c r="E70" s="428">
+      <c r="E70" s="376">
         <f>D70/SUM($D$61:$D$68)</f>
         <v>9.6405692005929355E-2</v>
       </c>
-      <c r="F70" s="429">
+      <c r="F70" s="377">
         <f>'A&amp;TSI Pop'!L41</f>
         <v>1341830</v>
       </c>
-      <c r="G70" s="428">
-        <f t="shared" si="13"/>
+      <c r="G70" s="376">
+        <f t="shared" si="10"/>
         <v>0.11383097741789133</v>
       </c>
-      <c r="H70" s="430">
+      <c r="H70" s="378">
         <f>'A&amp;TSI Pop'!L59</f>
         <v>2460582</v>
       </c>
@@ -9725,24 +9725,24 @@
       <c r="K70" s="180"/>
       <c r="L70" s="216"/>
       <c r="M70" s="180"/>
-      <c r="N70" s="427"/>
+      <c r="N70" s="375"/>
       <c r="O70" s="166">
         <f>'A&amp;TSI Pop'!H23</f>
         <v>7984</v>
       </c>
-      <c r="P70" s="428">
-        <f t="shared" si="14"/>
+      <c r="P70" s="376">
+        <f t="shared" si="11"/>
         <v>2.0039506743002863E-2</v>
       </c>
-      <c r="Q70" s="429">
+      <c r="Q70" s="377">
         <f>'A&amp;TSI Pop'!H41</f>
         <v>10612</v>
       </c>
-      <c r="R70" s="428">
-        <f t="shared" si="15"/>
+      <c r="R70" s="376">
+        <f t="shared" si="12"/>
         <v>2.6533183982077848E-2</v>
       </c>
-      <c r="S70" s="430">
+      <c r="S70" s="378">
         <f>'A&amp;TSI Pop'!H59</f>
         <v>18596</v>
       </c>
@@ -9751,17 +9751,17 @@
       <c r="V70" s="180"/>
       <c r="W70" s="216"/>
       <c r="X70" s="180"/>
-      <c r="Y70" s="427"/>
-      <c r="Z70" s="431">
-        <f>O70+D70</f>
+      <c r="Y70" s="375"/>
+      <c r="Z70" s="379">
+        <f t="shared" si="18"/>
         <v>1126736</v>
       </c>
-      <c r="AA70" s="430">
-        <f>Q70+F70</f>
+      <c r="AA70" s="378">
+        <f t="shared" si="19"/>
         <v>1352442</v>
       </c>
-      <c r="AB70" s="430">
-        <f>S70+H70</f>
+      <c r="AB70" s="378">
+        <f t="shared" si="20"/>
         <v>2479178</v>
       </c>
       <c r="AC70" s="180"/>
@@ -9777,55 +9777,55 @@
     </row>
     <row r="72" spans="1:36">
       <c r="A72" s="295" t="s">
-        <v>530</v>
-      </c>
-      <c r="B72" s="382">
+        <v>528</v>
+      </c>
+      <c r="B72" s="385">
         <v>2019</v>
       </c>
-      <c r="C72" s="382"/>
-      <c r="D72" s="377">
+      <c r="C72" s="385"/>
+      <c r="D72" s="382">
         <v>2016</v>
       </c>
-      <c r="E72" s="378"/>
-      <c r="F72" s="378"/>
-      <c r="G72" s="378"/>
-      <c r="H72" s="379"/>
-      <c r="I72" s="377">
+      <c r="E72" s="383"/>
+      <c r="F72" s="383"/>
+      <c r="G72" s="383"/>
+      <c r="H72" s="384"/>
+      <c r="I72" s="382">
         <v>2019</v>
       </c>
-      <c r="J72" s="378"/>
-      <c r="K72" s="378"/>
-      <c r="L72" s="378"/>
-      <c r="M72" s="378"/>
-      <c r="N72" s="379"/>
-      <c r="O72" s="377">
+      <c r="J72" s="383"/>
+      <c r="K72" s="383"/>
+      <c r="L72" s="383"/>
+      <c r="M72" s="383"/>
+      <c r="N72" s="384"/>
+      <c r="O72" s="382">
         <v>2016</v>
       </c>
-      <c r="P72" s="378"/>
-      <c r="Q72" s="378"/>
-      <c r="R72" s="378"/>
-      <c r="S72" s="379"/>
-      <c r="T72" s="377">
+      <c r="P72" s="383"/>
+      <c r="Q72" s="383"/>
+      <c r="R72" s="383"/>
+      <c r="S72" s="384"/>
+      <c r="T72" s="382">
         <v>2019</v>
       </c>
-      <c r="U72" s="378"/>
-      <c r="V72" s="378"/>
-      <c r="W72" s="378"/>
-      <c r="X72" s="378"/>
-      <c r="Y72" s="379"/>
-      <c r="Z72" s="382">
+      <c r="U72" s="383"/>
+      <c r="V72" s="383"/>
+      <c r="W72" s="383"/>
+      <c r="X72" s="383"/>
+      <c r="Y72" s="384"/>
+      <c r="Z72" s="385">
         <v>2016</v>
       </c>
-      <c r="AA72" s="382"/>
-      <c r="AB72" s="382"/>
-      <c r="AC72" s="377">
+      <c r="AA72" s="385"/>
+      <c r="AB72" s="385"/>
+      <c r="AC72" s="382">
         <v>2019</v>
       </c>
-      <c r="AD72" s="378"/>
-      <c r="AE72" s="378"/>
-      <c r="AF72" s="378"/>
-      <c r="AG72" s="378"/>
-      <c r="AH72" s="379"/>
+      <c r="AD72" s="383"/>
+      <c r="AE72" s="383"/>
+      <c r="AF72" s="383"/>
+      <c r="AG72" s="383"/>
+      <c r="AH72" s="384"/>
     </row>
     <row r="73" spans="1:36">
       <c r="B73" s="59" t="s">
@@ -9834,49 +9834,49 @@
       <c r="C73" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="D73" s="377" t="s">
+      <c r="D73" s="382" t="s">
         <v>251</v>
       </c>
-      <c r="E73" s="378"/>
-      <c r="F73" s="378"/>
-      <c r="G73" s="378"/>
-      <c r="H73" s="379"/>
-      <c r="I73" s="377" t="s">
+      <c r="E73" s="383"/>
+      <c r="F73" s="383"/>
+      <c r="G73" s="383"/>
+      <c r="H73" s="384"/>
+      <c r="I73" s="382" t="s">
         <v>165</v>
       </c>
-      <c r="J73" s="378"/>
-      <c r="K73" s="378"/>
-      <c r="L73" s="378"/>
-      <c r="M73" s="378"/>
-      <c r="N73" s="379"/>
-      <c r="O73" s="377" t="s">
+      <c r="J73" s="383"/>
+      <c r="K73" s="383"/>
+      <c r="L73" s="383"/>
+      <c r="M73" s="383"/>
+      <c r="N73" s="384"/>
+      <c r="O73" s="382" t="s">
         <v>239</v>
       </c>
-      <c r="P73" s="378"/>
-      <c r="Q73" s="378"/>
-      <c r="R73" s="378"/>
-      <c r="S73" s="379"/>
-      <c r="T73" s="377" t="s">
+      <c r="P73" s="383"/>
+      <c r="Q73" s="383"/>
+      <c r="R73" s="383"/>
+      <c r="S73" s="384"/>
+      <c r="T73" s="382" t="s">
         <v>164</v>
       </c>
-      <c r="U73" s="378"/>
-      <c r="V73" s="378"/>
-      <c r="W73" s="378"/>
-      <c r="X73" s="378"/>
-      <c r="Y73" s="379"/>
-      <c r="Z73" s="377" t="s">
-        <v>612</v>
-      </c>
-      <c r="AA73" s="378"/>
-      <c r="AB73" s="379"/>
-      <c r="AC73" s="377" t="s">
+      <c r="U73" s="383"/>
+      <c r="V73" s="383"/>
+      <c r="W73" s="383"/>
+      <c r="X73" s="383"/>
+      <c r="Y73" s="384"/>
+      <c r="Z73" s="382" t="s">
+        <v>610</v>
+      </c>
+      <c r="AA73" s="383"/>
+      <c r="AB73" s="384"/>
+      <c r="AC73" s="382" t="s">
         <v>260</v>
       </c>
-      <c r="AD73" s="378"/>
-      <c r="AE73" s="378"/>
-      <c r="AF73" s="378"/>
-      <c r="AG73" s="378"/>
-      <c r="AH73" s="379"/>
+      <c r="AD73" s="383"/>
+      <c r="AE73" s="383"/>
+      <c r="AF73" s="383"/>
+      <c r="AG73" s="383"/>
+      <c r="AH73" s="384"/>
     </row>
     <row r="74" spans="1:36">
       <c r="B74" s="3"/>
@@ -9885,13 +9885,13 @@
         <v>9</v>
       </c>
       <c r="E74" s="59" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F74" s="77" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="370" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H74" s="172" t="s">
         <v>11</v>
@@ -9918,13 +9918,13 @@
         <v>9</v>
       </c>
       <c r="P74" s="172" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="Q74" s="112" t="s">
         <v>10</v>
       </c>
       <c r="R74" s="172" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="S74" s="112" t="s">
         <v>11</v>
@@ -10735,7 +10735,7 @@
     </row>
     <row r="82" spans="1:11">
       <c r="A82" s="295" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B82" s="158">
         <v>2018</v>
@@ -10755,17 +10755,17 @@
       <c r="J82" s="160"/>
     </row>
     <row r="83" spans="1:11">
-      <c r="B83" s="377" t="s">
+      <c r="B83" s="382" t="s">
         <v>210</v>
       </c>
-      <c r="C83" s="378"/>
-      <c r="D83" s="378"/>
-      <c r="E83" s="378"/>
-      <c r="F83" s="378"/>
-      <c r="G83" s="378"/>
-      <c r="H83" s="378"/>
-      <c r="I83" s="378"/>
-      <c r="J83" s="379"/>
+      <c r="C83" s="383"/>
+      <c r="D83" s="383"/>
+      <c r="E83" s="383"/>
+      <c r="F83" s="383"/>
+      <c r="G83" s="383"/>
+      <c r="H83" s="383"/>
+      <c r="I83" s="383"/>
+      <c r="J83" s="384"/>
       <c r="K83" s="114"/>
     </row>
     <row r="84" spans="1:11">
@@ -11077,7 +11077,7 @@
     </row>
     <row r="96" spans="1:11">
       <c r="A96" s="296" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B96" s="197"/>
       <c r="C96" s="197"/>
@@ -11091,13 +11091,13 @@
     </row>
     <row r="97" spans="1:12">
       <c r="A97" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B97" s="59" t="s">
         <v>273</v>
       </c>
       <c r="C97" s="198" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D97" s="198" t="s">
         <v>269</v>
@@ -11115,7 +11115,7 @@
       </c>
       <c r="J97" s="160"/>
       <c r="K97" s="165" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="L97" s="75"/>
     </row>
@@ -11129,11 +11129,11 @@
       </c>
       <c r="C98" s="54">
         <f>H27</f>
-        <v>1.7159199237368923E-2</v>
+        <v>1.6057585825027684E-2</v>
       </c>
       <c r="D98" s="203">
         <f>B98*C98</f>
-        <v>678.11439466158242</v>
+        <v>634.57973421926908</v>
       </c>
       <c r="E98" s="361">
         <v>0.64</v>
@@ -11174,11 +11174,11 @@
       </c>
       <c r="C99" s="47">
         <f>I27</f>
-        <v>1.4111610006414367E-2</v>
+        <v>1.2842465753424657E-2</v>
       </c>
       <c r="D99" s="190">
         <f>B99*C99</f>
-        <v>49.418858242463116</v>
+        <v>44.974315068493148</v>
       </c>
       <c r="E99" s="199">
         <v>0.36</v>
@@ -11223,7 +11223,7 @@
     </row>
     <row r="101" spans="1:12">
       <c r="A101" s="296" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B101" s="197"/>
       <c r="C101" s="197"/>
@@ -11252,18 +11252,18 @@
     <row r="103" spans="1:12">
       <c r="A103" s="1"/>
       <c r="B103" s="197"/>
-      <c r="C103" s="393" t="s">
+      <c r="C103" s="380" t="s">
         <v>11</v>
       </c>
-      <c r="D103" s="394"/>
-      <c r="E103" s="393" t="s">
+      <c r="D103" s="381"/>
+      <c r="E103" s="380" t="s">
         <v>237</v>
       </c>
-      <c r="F103" s="394"/>
-      <c r="G103" s="393" t="s">
+      <c r="F103" s="381"/>
+      <c r="G103" s="380" t="s">
         <v>146</v>
       </c>
-      <c r="H103" s="394"/>
+      <c r="H103" s="381"/>
       <c r="I103" s="197"/>
       <c r="J103" s="197"/>
     </row>
@@ -11337,7 +11337,7 @@
       </c>
       <c r="B106" s="100">
         <f>J21</f>
-        <v>0</v>
+        <v>8.8652482269503544E-4</v>
       </c>
       <c r="C106" s="180">
         <f>AG65</f>
@@ -11345,7 +11345,7 @@
       </c>
       <c r="D106" s="105">
         <f t="shared" ref="D106:D109" si="31">C106*B106</f>
-        <v>0</v>
+        <v>12.929078014184396</v>
       </c>
       <c r="E106" s="180">
         <f>M65</f>
@@ -11353,7 +11353,7 @@
       </c>
       <c r="F106" s="105">
         <f t="shared" ref="F106:F109" si="32">E106*B106</f>
-        <v>0</v>
+        <v>9.3342198581560289</v>
       </c>
       <c r="G106" s="103">
         <f>X65</f>
@@ -11361,7 +11361,7 @@
       </c>
       <c r="H106" s="105">
         <f t="shared" ref="H106:H109" si="33">G106*B106</f>
-        <v>0</v>
+        <v>3.5948581560283688</v>
       </c>
       <c r="I106" s="197"/>
       <c r="J106" s="197"/>
@@ -11372,7 +11372,7 @@
       </c>
       <c r="B107" s="100">
         <f>J22</f>
-        <v>1.2738853503184713E-3</v>
+        <v>1.1061946902654867E-3</v>
       </c>
       <c r="C107" s="180">
         <f>AG66</f>
@@ -11380,7 +11380,7 @@
       </c>
       <c r="D107" s="105">
         <f t="shared" si="31"/>
-        <v>11.261146496815286</v>
+        <v>9.7787610619469021</v>
       </c>
       <c r="E107" s="180">
         <f>M66</f>
@@ -11388,7 +11388,7 @@
       </c>
       <c r="F107" s="105">
         <f t="shared" si="32"/>
-        <v>8.6203821656050952</v>
+        <v>7.485619469026549</v>
       </c>
       <c r="G107" s="103">
         <f>X66</f>
@@ -11396,7 +11396,7 @@
       </c>
       <c r="H107" s="105">
         <f t="shared" si="33"/>
-        <v>2.6407643312101912</v>
+        <v>2.293141592920354</v>
       </c>
       <c r="I107" s="197"/>
       <c r="J107" s="197"/>
@@ -11407,7 +11407,7 @@
       </c>
       <c r="B108" s="100">
         <f>J23</f>
-        <v>1.9880715705765406E-3</v>
+        <v>1.7730496453900709E-3</v>
       </c>
       <c r="C108" s="180">
         <f>AG67</f>
@@ -11415,7 +11415,7 @@
       </c>
       <c r="D108" s="105">
         <f t="shared" si="31"/>
-        <v>7.4751491053677928</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="E108" s="180">
         <f>M67</f>
@@ -11423,7 +11423,7 @@
       </c>
       <c r="F108" s="105">
         <f t="shared" si="32"/>
-        <v>6.1988071570576535</v>
+        <v>5.5283687943262407</v>
       </c>
       <c r="G108" s="103">
         <f>X67</f>
@@ -11431,7 +11431,7 @@
       </c>
       <c r="H108" s="105">
         <f t="shared" si="33"/>
-        <v>1.276341948310139</v>
+        <v>1.1382978723404256</v>
       </c>
       <c r="I108" s="197"/>
       <c r="J108" s="197"/>
@@ -11442,7 +11442,7 @@
       </c>
       <c r="B109" s="111">
         <f>SUM(F24:F26)/SUM(F10:F12)</f>
-        <v>4.917184265010352E-2</v>
+        <v>4.5982350209010682E-2</v>
       </c>
       <c r="C109" s="180">
         <f>AG68</f>
@@ -11450,7 +11450,7 @@
       </c>
       <c r="D109" s="79">
         <f t="shared" si="31"/>
-        <v>100.31055900621118</v>
+        <v>93.803994426381792</v>
       </c>
       <c r="E109" s="180">
         <f>M68</f>
@@ -11458,7 +11458,7 @@
       </c>
       <c r="F109" s="79">
         <f t="shared" si="32"/>
-        <v>94.262422360248451</v>
+        <v>88.14816535067348</v>
       </c>
       <c r="G109" s="103">
         <f>X68</f>
@@ -11466,7 +11466,7 @@
       </c>
       <c r="H109" s="79">
         <f t="shared" si="33"/>
-        <v>6.0481366459627326</v>
+        <v>5.6558290757083141</v>
       </c>
       <c r="I109" s="197"/>
       <c r="J109" s="197"/>
@@ -11482,7 +11482,7 @@
       </c>
       <c r="D110" s="201">
         <f t="shared" ref="D110:H110" si="34">SUM(D105:D109)</f>
-        <v>119.04685460839426</v>
+        <v>123.17850016917976</v>
       </c>
       <c r="E110" s="201">
         <f>SUM(E105:E109)</f>
@@ -11490,7 +11490,7 @@
       </c>
       <c r="F110" s="201">
         <f t="shared" si="34"/>
-        <v>109.0816116829112</v>
+        <v>110.4963734721823</v>
       </c>
       <c r="G110" s="201">
         <f>SUM(G105:G109)</f>
@@ -11498,7 +11498,7 @@
       </c>
       <c r="H110" s="201">
         <f t="shared" si="34"/>
-        <v>9.9652429254830626</v>
+        <v>12.682126696997461</v>
       </c>
       <c r="I110" s="197"/>
       <c r="J110" s="197"/>
@@ -11511,17 +11511,17 @@
       <c r="C111" s="197"/>
       <c r="D111" s="201">
         <f>D110*0.8</f>
-        <v>95.237483686715407</v>
+        <v>98.542800135343811</v>
       </c>
       <c r="E111" s="197"/>
       <c r="F111" s="201">
         <f>F110*0.8</f>
-        <v>87.26528934632897</v>
+        <v>88.397098777745839</v>
       </c>
       <c r="G111" s="197"/>
       <c r="H111" s="201">
         <f>H110*0.8</f>
-        <v>7.9721943403864506</v>
+        <v>10.14570135759797</v>
       </c>
       <c r="I111" s="197"/>
       <c r="J111" s="197"/>
@@ -11540,7 +11540,7 @@
     </row>
     <row r="113" spans="1:30">
       <c r="A113" s="296" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B113" s="197"/>
       <c r="C113" s="197"/>
@@ -11589,7 +11589,7 @@
         <v>269</v>
       </c>
       <c r="I115" s="300" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="J115" s="50" t="s">
         <v>274</v>
@@ -12597,7 +12597,7 @@
     </row>
     <row r="125" spans="1:30">
       <c r="A125" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B125" s="197"/>
       <c r="C125" s="197"/>
@@ -12635,7 +12635,7 @@
     <row r="127" spans="1:30">
       <c r="A127" s="1"/>
       <c r="B127" s="197" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C127" s="197"/>
       <c r="D127" s="197"/>
@@ -12649,7 +12649,7 @@
     <row r="128" spans="1:30">
       <c r="A128" s="1"/>
       <c r="B128" s="197" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C128" s="197"/>
       <c r="D128" s="197"/>
@@ -12721,7 +12721,7 @@
         <v>18290.000000000004</v>
       </c>
       <c r="C140" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -12730,7 +12730,7 @@
         <v>12710</v>
       </c>
       <c r="C141" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -12825,6 +12825,48 @@
     </row>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="D58:H58"/>
+    <mergeCell ref="D59:H59"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="T43:AB43"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="B43:J43"/>
+    <mergeCell ref="K43:S43"/>
+    <mergeCell ref="Q44:S44"/>
+    <mergeCell ref="T44:V44"/>
+    <mergeCell ref="T72:Y72"/>
+    <mergeCell ref="T73:Y73"/>
+    <mergeCell ref="W44:Y44"/>
+    <mergeCell ref="Z44:AB44"/>
+    <mergeCell ref="O62:O63"/>
+    <mergeCell ref="P62:P63"/>
+    <mergeCell ref="R62:R63"/>
+    <mergeCell ref="Q62:Q63"/>
+    <mergeCell ref="S62:S63"/>
+    <mergeCell ref="O58:S58"/>
+    <mergeCell ref="O59:S59"/>
+    <mergeCell ref="O72:S72"/>
+    <mergeCell ref="O73:S73"/>
+    <mergeCell ref="T58:Y58"/>
+    <mergeCell ref="T59:Y59"/>
+    <mergeCell ref="I72:N72"/>
+    <mergeCell ref="I73:N73"/>
+    <mergeCell ref="D72:H72"/>
+    <mergeCell ref="D73:H73"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="I58:N58"/>
+    <mergeCell ref="I59:N59"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="K44:M44"/>
+    <mergeCell ref="N44:P44"/>
     <mergeCell ref="C103:D103"/>
     <mergeCell ref="E103:F103"/>
     <mergeCell ref="G103:H103"/>
@@ -12841,48 +12883,6 @@
     <mergeCell ref="Z73:AB73"/>
     <mergeCell ref="B83:J83"/>
     <mergeCell ref="D62:D63"/>
-    <mergeCell ref="I59:N59"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="K44:M44"/>
-    <mergeCell ref="N44:P44"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="I58:N58"/>
-    <mergeCell ref="I72:N72"/>
-    <mergeCell ref="I73:N73"/>
-    <mergeCell ref="D72:H72"/>
-    <mergeCell ref="D73:H73"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="T72:Y72"/>
-    <mergeCell ref="T73:Y73"/>
-    <mergeCell ref="W44:Y44"/>
-    <mergeCell ref="Z44:AB44"/>
-    <mergeCell ref="O62:O63"/>
-    <mergeCell ref="P62:P63"/>
-    <mergeCell ref="R62:R63"/>
-    <mergeCell ref="Q62:Q63"/>
-    <mergeCell ref="S62:S63"/>
-    <mergeCell ref="O58:S58"/>
-    <mergeCell ref="O59:S59"/>
-    <mergeCell ref="O72:S72"/>
-    <mergeCell ref="O73:S73"/>
-    <mergeCell ref="T58:Y58"/>
-    <mergeCell ref="T59:Y59"/>
-    <mergeCell ref="T43:AB43"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="B43:J43"/>
-    <mergeCell ref="K43:S43"/>
-    <mergeCell ref="Q44:S44"/>
-    <mergeCell ref="T44:V44"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="D58:H58"/>
-    <mergeCell ref="D59:H59"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="G62:G63"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C31" r:id="rId1" location="case-fatality-rate-of-covid-19-by-preexisting-health-conditions" xr:uid="{7F3EF4B5-28AC-495F-9AED-D8A19838DCA0}"/>
@@ -14972,15 +14972,15 @@
       </c>
     </row>
     <row r="7" spans="1:255">
-      <c r="A7" s="400" t="s">
+      <c r="A7" s="405" t="s">
         <v>143</v>
       </c>
-      <c r="B7" s="400"/>
-      <c r="C7" s="400"/>
-      <c r="D7" s="400"/>
-      <c r="E7" s="401"/>
-      <c r="F7" s="401"/>
-      <c r="G7" s="400"/>
+      <c r="B7" s="405"/>
+      <c r="C7" s="405"/>
+      <c r="D7" s="405"/>
+      <c r="E7" s="406"/>
+      <c r="F7" s="406"/>
+      <c r="G7" s="405"/>
       <c r="H7" s="153" t="s">
         <v>249</v>
       </c>
@@ -15615,15 +15615,15 @@
       <c r="M24" s="20"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="400" t="s">
+      <c r="A25" s="405" t="s">
         <v>144</v>
       </c>
-      <c r="B25" s="400"/>
-      <c r="C25" s="400"/>
-      <c r="D25" s="400"/>
-      <c r="E25" s="401"/>
-      <c r="F25" s="401"/>
-      <c r="G25" s="400"/>
+      <c r="B25" s="405"/>
+      <c r="C25" s="405"/>
+      <c r="D25" s="405"/>
+      <c r="E25" s="406"/>
+      <c r="F25" s="406"/>
+      <c r="G25" s="405"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="67" t="s">
@@ -16239,15 +16239,15 @@
       </c>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="400" t="s">
+      <c r="A43" s="405" t="s">
         <v>145</v>
       </c>
-      <c r="B43" s="400"/>
-      <c r="C43" s="400"/>
-      <c r="D43" s="400"/>
-      <c r="E43" s="401"/>
-      <c r="F43" s="401"/>
-      <c r="G43" s="400"/>
+      <c r="B43" s="405"/>
+      <c r="C43" s="405"/>
+      <c r="D43" s="405"/>
+      <c r="E43" s="406"/>
+      <c r="F43" s="406"/>
+      <c r="G43" s="405"/>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="67" t="s">
@@ -16945,23 +16945,23 @@
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="402" t="s">
+      <c r="A3" s="407" t="s">
         <v>159</v>
       </c>
-      <c r="B3" s="402"/>
-      <c r="C3" s="402"/>
-      <c r="D3" s="402"/>
-      <c r="E3" s="402"/>
-      <c r="F3" s="402"/>
-      <c r="G3" s="402"/>
-      <c r="H3" s="402"/>
-      <c r="I3" s="402"/>
-      <c r="J3" s="402"/>
-      <c r="K3" s="402"/>
-      <c r="L3" s="403" t="s">
+      <c r="B3" s="407"/>
+      <c r="C3" s="407"/>
+      <c r="D3" s="407"/>
+      <c r="E3" s="407"/>
+      <c r="F3" s="407"/>
+      <c r="G3" s="407"/>
+      <c r="H3" s="407"/>
+      <c r="I3" s="407"/>
+      <c r="J3" s="407"/>
+      <c r="K3" s="407"/>
+      <c r="L3" s="408" t="s">
         <v>207</v>
       </c>
-      <c r="M3" s="403"/>
+      <c r="M3" s="408"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="29" t="s">
@@ -18782,19 +18782,19 @@
       <c r="K54" s="40"/>
     </row>
     <row r="55" spans="1:13">
-      <c r="A55" s="402" t="s">
+      <c r="A55" s="407" t="s">
         <v>162</v>
       </c>
-      <c r="B55" s="402"/>
-      <c r="C55" s="402"/>
-      <c r="D55" s="402"/>
-      <c r="E55" s="402"/>
-      <c r="F55" s="402"/>
-      <c r="G55" s="402"/>
-      <c r="H55" s="402"/>
-      <c r="I55" s="402"/>
-      <c r="J55" s="402"/>
-      <c r="K55" s="402"/>
+      <c r="B55" s="407"/>
+      <c r="C55" s="407"/>
+      <c r="D55" s="407"/>
+      <c r="E55" s="407"/>
+      <c r="F55" s="407"/>
+      <c r="G55" s="407"/>
+      <c r="H55" s="407"/>
+      <c r="I55" s="407"/>
+      <c r="J55" s="407"/>
+      <c r="K55" s="407"/>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="29" t="s">
@@ -20615,19 +20615,19 @@
       <c r="K106" s="40"/>
     </row>
     <row r="107" spans="1:13">
-      <c r="A107" s="402" t="s">
+      <c r="A107" s="407" t="s">
         <v>163</v>
       </c>
-      <c r="B107" s="402"/>
-      <c r="C107" s="402"/>
-      <c r="D107" s="402"/>
-      <c r="E107" s="402"/>
-      <c r="F107" s="402"/>
-      <c r="G107" s="402"/>
-      <c r="H107" s="402"/>
-      <c r="I107" s="402"/>
-      <c r="J107" s="402"/>
-      <c r="K107" s="402"/>
+      <c r="B107" s="407"/>
+      <c r="C107" s="407"/>
+      <c r="D107" s="407"/>
+      <c r="E107" s="407"/>
+      <c r="F107" s="407"/>
+      <c r="G107" s="407"/>
+      <c r="H107" s="407"/>
+      <c r="I107" s="407"/>
+      <c r="J107" s="407"/>
+      <c r="K107" s="407"/>
     </row>
     <row r="108" spans="1:13">
       <c r="A108" s="29" t="s">
@@ -22517,15 +22517,15 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="90"/>
-      <c r="B4" s="404" t="s">
+      <c r="B4" s="409" t="s">
         <v>178</v>
       </c>
-      <c r="C4" s="404"/>
-      <c r="D4" s="404"/>
-      <c r="E4" s="404"/>
-      <c r="F4" s="404"/>
-      <c r="G4" s="404"/>
-      <c r="H4" s="404"/>
+      <c r="C4" s="409"/>
+      <c r="D4" s="409"/>
+      <c r="E4" s="409"/>
+      <c r="F4" s="409"/>
+      <c r="G4" s="409"/>
+      <c r="H4" s="409"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="91" t="s">
@@ -22825,15 +22825,15 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="90"/>
-      <c r="B18" s="404" t="s">
+      <c r="B18" s="409" t="s">
         <v>191</v>
       </c>
-      <c r="C18" s="404"/>
-      <c r="D18" s="404"/>
-      <c r="E18" s="404"/>
-      <c r="F18" s="404"/>
-      <c r="G18" s="404"/>
-      <c r="H18" s="404"/>
+      <c r="C18" s="409"/>
+      <c r="D18" s="409"/>
+      <c r="E18" s="409"/>
+      <c r="F18" s="409"/>
+      <c r="G18" s="409"/>
+      <c r="H18" s="409"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="91" t="s">
@@ -23258,291 +23258,291 @@
   <sheetData>
     <row r="1" spans="1:54" s="222" customFormat="1" ht="12.75">
       <c r="A1" s="221" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2" spans="1:54">
       <c r="A2" s="223"/>
-      <c r="B2" s="411" t="s">
+      <c r="B2" s="410" t="s">
+        <v>288</v>
+      </c>
+      <c r="C2" s="410"/>
+      <c r="D2" s="410"/>
+      <c r="E2" s="410"/>
+      <c r="F2" s="410"/>
+      <c r="G2" s="410"/>
+      <c r="H2" s="410"/>
+      <c r="I2" s="410"/>
+      <c r="J2" s="224"/>
+      <c r="K2" s="410" t="s">
+        <v>289</v>
+      </c>
+      <c r="L2" s="410"/>
+      <c r="M2" s="410"/>
+      <c r="N2" s="410"/>
+      <c r="O2" s="410"/>
+      <c r="P2" s="410"/>
+      <c r="Q2" s="410"/>
+      <c r="R2" s="410"/>
+      <c r="S2" s="224"/>
+      <c r="T2" s="410" t="s">
         <v>290</v>
       </c>
-      <c r="C2" s="411"/>
-      <c r="D2" s="411"/>
-      <c r="E2" s="411"/>
-      <c r="F2" s="411"/>
-      <c r="G2" s="411"/>
-      <c r="H2" s="411"/>
-      <c r="I2" s="411"/>
-      <c r="J2" s="224"/>
-      <c r="K2" s="411" t="s">
+      <c r="U2" s="410"/>
+      <c r="V2" s="410"/>
+      <c r="W2" s="410"/>
+      <c r="X2" s="410"/>
+      <c r="Y2" s="410"/>
+      <c r="Z2" s="410"/>
+      <c r="AA2" s="410"/>
+      <c r="AB2" s="224"/>
+      <c r="AC2" s="410" t="s">
         <v>291</v>
       </c>
-      <c r="L2" s="411"/>
-      <c r="M2" s="411"/>
-      <c r="N2" s="411"/>
-      <c r="O2" s="411"/>
-      <c r="P2" s="411"/>
-      <c r="Q2" s="411"/>
-      <c r="R2" s="411"/>
-      <c r="S2" s="224"/>
-      <c r="T2" s="411" t="s">
+      <c r="AD2" s="410"/>
+      <c r="AE2" s="410"/>
+      <c r="AF2" s="410"/>
+      <c r="AG2" s="410"/>
+      <c r="AH2" s="410"/>
+      <c r="AI2" s="410"/>
+      <c r="AJ2" s="410"/>
+      <c r="AK2" s="224"/>
+      <c r="AL2" s="410" t="s">
         <v>292</v>
       </c>
-      <c r="U2" s="411"/>
-      <c r="V2" s="411"/>
-      <c r="W2" s="411"/>
-      <c r="X2" s="411"/>
-      <c r="Y2" s="411"/>
-      <c r="Z2" s="411"/>
-      <c r="AA2" s="411"/>
-      <c r="AB2" s="224"/>
-      <c r="AC2" s="411" t="s">
+      <c r="AM2" s="410"/>
+      <c r="AN2" s="410"/>
+      <c r="AO2" s="410"/>
+      <c r="AP2" s="410"/>
+      <c r="AQ2" s="410"/>
+      <c r="AR2" s="410"/>
+      <c r="AS2" s="410"/>
+      <c r="AT2" s="225"/>
+      <c r="AU2" s="411" t="s">
         <v>293</v>
       </c>
-      <c r="AD2" s="411"/>
-      <c r="AE2" s="411"/>
-      <c r="AF2" s="411"/>
-      <c r="AG2" s="411"/>
-      <c r="AH2" s="411"/>
-      <c r="AI2" s="411"/>
-      <c r="AJ2" s="411"/>
-      <c r="AK2" s="224"/>
-      <c r="AL2" s="411" t="s">
-        <v>294</v>
-      </c>
-      <c r="AM2" s="411"/>
-      <c r="AN2" s="411"/>
-      <c r="AO2" s="411"/>
-      <c r="AP2" s="411"/>
-      <c r="AQ2" s="411"/>
-      <c r="AR2" s="411"/>
-      <c r="AS2" s="411"/>
-      <c r="AT2" s="225"/>
-      <c r="AU2" s="412" t="s">
-        <v>295</v>
-      </c>
-      <c r="AV2" s="413"/>
-      <c r="AW2" s="413"/>
-      <c r="AX2" s="413"/>
-      <c r="AY2" s="413"/>
-      <c r="AZ2" s="413"/>
-      <c r="BA2" s="413"/>
-      <c r="BB2" s="413"/>
+      <c r="AV2" s="412"/>
+      <c r="AW2" s="412"/>
+      <c r="AX2" s="412"/>
+      <c r="AY2" s="412"/>
+      <c r="AZ2" s="412"/>
+      <c r="BA2" s="412"/>
+      <c r="BB2" s="412"/>
     </row>
     <row r="3" spans="1:54" ht="25.5" customHeight="1">
       <c r="A3" s="226"/>
-      <c r="B3" s="409" t="s">
+      <c r="B3" s="414" t="s">
+        <v>294</v>
+      </c>
+      <c r="C3" s="414"/>
+      <c r="D3" s="227"/>
+      <c r="E3" s="415" t="s">
+        <v>295</v>
+      </c>
+      <c r="F3" s="415"/>
+      <c r="G3" s="227"/>
+      <c r="H3" s="414" t="s">
         <v>296</v>
       </c>
-      <c r="C3" s="409"/>
-      <c r="D3" s="227"/>
-      <c r="E3" s="410" t="s">
-        <v>297</v>
-      </c>
-      <c r="F3" s="410"/>
-      <c r="G3" s="227"/>
-      <c r="H3" s="409" t="s">
-        <v>298</v>
-      </c>
-      <c r="I3" s="409"/>
+      <c r="I3" s="414"/>
       <c r="J3" s="228"/>
-      <c r="K3" s="414" t="s">
+      <c r="K3" s="413" t="s">
+        <v>294</v>
+      </c>
+      <c r="L3" s="413"/>
+      <c r="M3" s="229"/>
+      <c r="N3" s="413" t="s">
+        <v>295</v>
+      </c>
+      <c r="O3" s="413"/>
+      <c r="P3" s="229"/>
+      <c r="Q3" s="413" t="s">
         <v>296</v>
       </c>
-      <c r="L3" s="414"/>
-      <c r="M3" s="229"/>
-      <c r="N3" s="414" t="s">
-        <v>297</v>
-      </c>
-      <c r="O3" s="414"/>
-      <c r="P3" s="229"/>
-      <c r="Q3" s="414" t="s">
-        <v>298</v>
-      </c>
-      <c r="R3" s="414"/>
+      <c r="R3" s="413"/>
       <c r="S3" s="227"/>
-      <c r="T3" s="409" t="s">
+      <c r="T3" s="414" t="s">
+        <v>294</v>
+      </c>
+      <c r="U3" s="414"/>
+      <c r="V3" s="227"/>
+      <c r="W3" s="415" t="s">
+        <v>295</v>
+      </c>
+      <c r="X3" s="415"/>
+      <c r="Y3" s="227"/>
+      <c r="Z3" s="414" t="s">
         <v>296</v>
       </c>
-      <c r="U3" s="409"/>
-      <c r="V3" s="227"/>
-      <c r="W3" s="410" t="s">
-        <v>297</v>
-      </c>
-      <c r="X3" s="410"/>
-      <c r="Y3" s="227"/>
-      <c r="Z3" s="409" t="s">
-        <v>298</v>
-      </c>
-      <c r="AA3" s="409"/>
+      <c r="AA3" s="414"/>
       <c r="AB3" s="228"/>
-      <c r="AC3" s="409" t="s">
+      <c r="AC3" s="414" t="s">
+        <v>294</v>
+      </c>
+      <c r="AD3" s="414"/>
+      <c r="AE3" s="227"/>
+      <c r="AF3" s="415" t="s">
+        <v>295</v>
+      </c>
+      <c r="AG3" s="415"/>
+      <c r="AH3" s="227"/>
+      <c r="AI3" s="414" t="s">
         <v>296</v>
       </c>
-      <c r="AD3" s="409"/>
-      <c r="AE3" s="227"/>
-      <c r="AF3" s="410" t="s">
-        <v>297</v>
-      </c>
-      <c r="AG3" s="410"/>
-      <c r="AH3" s="227"/>
-      <c r="AI3" s="409" t="s">
-        <v>298</v>
-      </c>
-      <c r="AJ3" s="409"/>
+      <c r="AJ3" s="414"/>
       <c r="AK3" s="228"/>
-      <c r="AL3" s="409" t="s">
+      <c r="AL3" s="414" t="s">
+        <v>294</v>
+      </c>
+      <c r="AM3" s="414"/>
+      <c r="AN3" s="227"/>
+      <c r="AO3" s="415" t="s">
+        <v>295</v>
+      </c>
+      <c r="AP3" s="415"/>
+      <c r="AR3" s="414" t="s">
         <v>296</v>
       </c>
-      <c r="AM3" s="409"/>
-      <c r="AN3" s="227"/>
-      <c r="AO3" s="410" t="s">
-        <v>297</v>
-      </c>
-      <c r="AP3" s="410"/>
-      <c r="AR3" s="409" t="s">
-        <v>298</v>
-      </c>
-      <c r="AS3" s="409"/>
-      <c r="AU3" s="409" t="s">
+      <c r="AS3" s="414"/>
+      <c r="AU3" s="414" t="s">
+        <v>294</v>
+      </c>
+      <c r="AV3" s="414"/>
+      <c r="AW3" s="227"/>
+      <c r="AX3" s="415" t="s">
+        <v>295</v>
+      </c>
+      <c r="AY3" s="415"/>
+      <c r="BA3" s="414" t="s">
         <v>296</v>
       </c>
-      <c r="AV3" s="409"/>
-      <c r="AW3" s="227"/>
-      <c r="AX3" s="410" t="s">
-        <v>297</v>
-      </c>
-      <c r="AY3" s="410"/>
-      <c r="BA3" s="409" t="s">
-        <v>298</v>
-      </c>
-      <c r="BB3" s="409"/>
+      <c r="BB3" s="414"/>
     </row>
     <row r="4" spans="1:54">
       <c r="A4" s="230" t="s">
+        <v>297</v>
+      </c>
+      <c r="B4" s="231" t="s">
+        <v>298</v>
+      </c>
+      <c r="C4" s="231" t="s">
         <v>299</v>
-      </c>
-      <c r="B4" s="231" t="s">
-        <v>300</v>
-      </c>
-      <c r="C4" s="231" t="s">
-        <v>301</v>
       </c>
       <c r="D4" s="227"/>
       <c r="E4" s="231" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F4" s="231" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G4" s="227"/>
       <c r="H4" s="232" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I4" s="232" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="J4" s="227"/>
       <c r="K4" s="232" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="L4" s="232" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M4" s="227"/>
       <c r="N4" s="232" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="O4" s="232" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="P4" s="227"/>
       <c r="Q4" s="232" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="R4" s="232" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="S4" s="227"/>
       <c r="T4" s="231" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="U4" s="231" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="V4" s="227"/>
       <c r="W4" s="231" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="X4" s="231" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="Y4" s="227"/>
       <c r="Z4" s="232" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AA4" s="232" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="AB4" s="227"/>
       <c r="AC4" s="232" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AD4" s="232" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="AE4" s="227"/>
       <c r="AF4" s="232" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AG4" s="232" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="AH4" s="227"/>
       <c r="AI4" s="232" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AJ4" s="232" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="AK4" s="227"/>
       <c r="AL4" s="231" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AM4" s="231" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="AN4" s="227"/>
       <c r="AO4" s="231" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AP4" s="231" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="AR4" s="232" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AS4" s="232" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="AU4" s="232" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AV4" s="232" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="AW4" s="227"/>
       <c r="AX4" s="232" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AY4" s="232" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="BA4" s="232" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="BB4" s="232" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="5" spans="1:54">
@@ -23553,122 +23553,122 @@
         <v>27.5</v>
       </c>
       <c r="C5" s="234" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D5" s="235"/>
       <c r="E5" s="234">
         <v>25.9</v>
       </c>
       <c r="F5" s="234" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G5" s="235"/>
       <c r="H5" s="235">
         <v>53.4</v>
       </c>
       <c r="I5" s="235" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="J5" s="235"/>
       <c r="K5" s="235">
         <v>28.4</v>
       </c>
       <c r="L5" s="236" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="M5" s="235"/>
       <c r="N5" s="235">
         <v>12.4</v>
       </c>
       <c r="O5" s="236" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="P5" s="235"/>
       <c r="Q5" s="235">
         <v>40.700000000000003</v>
       </c>
       <c r="R5" s="236" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="S5" s="235"/>
       <c r="T5" s="234">
         <v>26.2</v>
       </c>
       <c r="U5" s="237" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="V5" s="235"/>
       <c r="W5" s="234">
         <v>31</v>
       </c>
       <c r="X5" s="237" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="Y5" s="238"/>
       <c r="Z5" s="238">
         <v>57.2</v>
       </c>
       <c r="AA5" s="239" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="AB5" s="238"/>
       <c r="AC5" s="240">
         <v>14.6</v>
       </c>
       <c r="AD5" s="239" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AE5" s="238"/>
       <c r="AF5" s="238">
         <v>16.5</v>
       </c>
       <c r="AG5" s="239" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AH5" s="238"/>
       <c r="AI5" s="238">
         <v>31.1</v>
       </c>
       <c r="AJ5" s="239" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AK5" s="238"/>
       <c r="AL5" s="234">
         <v>26.9</v>
       </c>
       <c r="AM5" s="234" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="AN5" s="235"/>
       <c r="AO5" s="234">
         <v>28.4</v>
       </c>
       <c r="AP5" s="234" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="AR5" s="240">
         <v>55.3</v>
       </c>
       <c r="AS5" s="241" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="AU5" s="32">
         <v>21.7</v>
       </c>
       <c r="AV5" s="241" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="AX5" s="240">
         <v>14.4</v>
       </c>
       <c r="AY5" s="241" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="BA5" s="32">
         <v>36.1</v>
       </c>
       <c r="BB5" s="241" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="6" spans="1:54">
@@ -23679,122 +23679,122 @@
         <v>34.6</v>
       </c>
       <c r="C6" s="235" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D6" s="235"/>
       <c r="E6" s="235">
         <v>32.799999999999997</v>
       </c>
       <c r="F6" s="235" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G6" s="235"/>
       <c r="H6" s="235">
         <v>67.400000000000006</v>
       </c>
       <c r="I6" s="235" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="J6" s="235"/>
       <c r="K6" s="235">
         <v>43.8</v>
       </c>
       <c r="L6" s="236" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="M6" s="235"/>
       <c r="N6" s="235">
         <v>20.7</v>
       </c>
       <c r="O6" s="236" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="P6" s="235"/>
       <c r="Q6" s="235">
         <v>64.599999999999994</v>
       </c>
       <c r="R6" s="236" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="S6" s="235"/>
       <c r="T6" s="235">
         <v>24.7</v>
       </c>
       <c r="U6" s="238" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="V6" s="235"/>
       <c r="W6" s="235">
         <v>39.700000000000003</v>
       </c>
       <c r="X6" s="238" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="Y6" s="238"/>
       <c r="Z6" s="238">
         <v>64.3</v>
       </c>
       <c r="AA6" s="239" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="AB6" s="238"/>
       <c r="AC6" s="238">
         <v>22.9</v>
       </c>
       <c r="AD6" s="239" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="AE6" s="238"/>
       <c r="AF6" s="238">
         <v>19.899999999999999</v>
       </c>
       <c r="AG6" s="239" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="AH6" s="238"/>
       <c r="AI6" s="238">
         <v>42.8</v>
       </c>
       <c r="AJ6" s="239" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AK6" s="238"/>
       <c r="AL6" s="235">
         <v>29.6</v>
       </c>
       <c r="AM6" s="235" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AN6" s="235"/>
       <c r="AO6" s="235">
         <v>36.299999999999997</v>
       </c>
       <c r="AP6" s="235" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AR6" s="240">
         <v>65.900000000000006</v>
       </c>
       <c r="AS6" s="241" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="AU6" s="41">
         <v>34</v>
       </c>
       <c r="AV6" s="241" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="AX6" s="240">
         <v>20.399999999999999</v>
       </c>
       <c r="AY6" s="241" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="BA6" s="32">
         <v>54.3</v>
       </c>
       <c r="BB6" s="241" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="7" spans="1:54">
@@ -23805,122 +23805,122 @@
         <v>32.299999999999997</v>
       </c>
       <c r="C7" s="235" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D7" s="235"/>
       <c r="E7" s="235">
         <v>42.7</v>
       </c>
       <c r="F7" s="235" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G7" s="235"/>
       <c r="H7" s="235">
         <v>75</v>
       </c>
       <c r="I7" s="235" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="J7" s="235"/>
       <c r="K7" s="235">
         <v>45.6</v>
       </c>
       <c r="L7" s="236" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="M7" s="235"/>
       <c r="N7" s="235">
         <v>29.3</v>
       </c>
       <c r="O7" s="236" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="P7" s="235"/>
       <c r="Q7" s="235">
         <v>74.900000000000006</v>
       </c>
       <c r="R7" s="236" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="S7" s="235"/>
       <c r="T7" s="235">
         <v>26.8</v>
       </c>
       <c r="U7" s="238" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="V7" s="235"/>
       <c r="W7" s="235">
         <v>48.6</v>
       </c>
       <c r="X7" s="238" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="Y7" s="238"/>
       <c r="Z7" s="238">
         <v>75.400000000000006</v>
       </c>
       <c r="AA7" s="239" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="AB7" s="238"/>
       <c r="AC7" s="238">
         <v>27.3</v>
       </c>
       <c r="AD7" s="239" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="AE7" s="238"/>
       <c r="AF7" s="238">
         <v>27.1</v>
       </c>
       <c r="AG7" s="239" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="AH7" s="238"/>
       <c r="AI7" s="238">
         <v>54.4</v>
       </c>
       <c r="AJ7" s="239" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AK7" s="238"/>
       <c r="AL7" s="235">
         <v>29.5</v>
       </c>
       <c r="AM7" s="235" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="AN7" s="235"/>
       <c r="AO7" s="235">
         <v>45.7</v>
       </c>
       <c r="AP7" s="235" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="AR7" s="240">
         <v>75.2</v>
       </c>
       <c r="AS7" s="241" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="AU7" s="32">
         <v>36.6</v>
       </c>
       <c r="AV7" s="241" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="AX7" s="240">
         <v>28.2</v>
       </c>
       <c r="AY7" s="241" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="BA7" s="32">
         <v>64.8</v>
       </c>
       <c r="BB7" s="241" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="8" spans="1:54">
@@ -23931,495 +23931,495 @@
         <v>38.299999999999997</v>
       </c>
       <c r="C8" s="235" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D8" s="235"/>
       <c r="E8" s="235">
         <v>38.700000000000003</v>
       </c>
       <c r="F8" s="235" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G8" s="235"/>
       <c r="H8" s="235">
         <v>76.900000000000006</v>
       </c>
       <c r="I8" s="235" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="J8" s="235"/>
       <c r="K8" s="240">
         <v>45.4</v>
       </c>
       <c r="L8" s="241" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="N8" s="240">
         <v>33.200000000000003</v>
       </c>
       <c r="O8" s="243" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="P8" s="240"/>
       <c r="Q8" s="240">
         <v>78.5</v>
       </c>
       <c r="R8" s="236" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="S8" s="235"/>
       <c r="T8" s="235">
         <v>25.1</v>
       </c>
       <c r="U8" s="238" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="V8" s="235"/>
       <c r="W8" s="235">
         <v>51.2</v>
       </c>
       <c r="X8" s="238" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="Y8" s="238"/>
       <c r="Z8" s="238">
         <v>76.3</v>
       </c>
       <c r="AA8" s="239" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AB8" s="238"/>
       <c r="AC8" s="238">
         <v>32.799999999999997</v>
       </c>
       <c r="AD8" s="239" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="AE8" s="238"/>
       <c r="AF8" s="238">
         <v>30.6</v>
       </c>
       <c r="AG8" s="239" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="AH8" s="238"/>
       <c r="AI8" s="238">
         <v>63.4</v>
       </c>
       <c r="AJ8" s="239" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="AK8" s="238"/>
       <c r="AL8" s="235">
         <v>31.5</v>
       </c>
       <c r="AM8" s="235" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="AN8" s="235"/>
       <c r="AO8" s="235">
         <v>45.1</v>
       </c>
       <c r="AP8" s="235" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="AR8" s="240">
         <v>76.599999999999994</v>
       </c>
       <c r="AS8" s="241" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AU8" s="32">
         <v>39.1</v>
       </c>
       <c r="AV8" s="241" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AX8" s="240">
         <v>31.9</v>
       </c>
       <c r="AY8" s="241" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="BA8" s="41">
         <v>71</v>
       </c>
       <c r="BB8" s="241" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="9" spans="1:54">
       <c r="A9" s="244" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B9" s="235">
         <v>29.7</v>
       </c>
       <c r="C9" s="235" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D9" s="235"/>
       <c r="E9" s="235">
         <v>46.8</v>
       </c>
       <c r="F9" s="235" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G9" s="235"/>
       <c r="H9" s="235">
         <v>76.5</v>
       </c>
       <c r="I9" s="235" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="J9" s="235"/>
       <c r="K9" s="235">
         <v>44</v>
       </c>
       <c r="L9" s="236" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="M9" s="235"/>
       <c r="N9" s="235">
         <v>33.5</v>
       </c>
       <c r="O9" s="236" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="P9" s="235"/>
       <c r="Q9" s="235">
         <v>77.5</v>
       </c>
       <c r="R9" s="236" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="S9" s="235"/>
       <c r="T9" s="235">
         <v>31.8</v>
       </c>
       <c r="U9" s="238" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="V9" s="235"/>
       <c r="W9" s="235">
         <v>50.7</v>
       </c>
       <c r="X9" s="238" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="Y9" s="238"/>
       <c r="Z9" s="238">
         <v>82.6</v>
       </c>
       <c r="AA9" s="239" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="AB9" s="238"/>
       <c r="AC9" s="238">
         <v>34.5</v>
       </c>
       <c r="AD9" s="239" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="AE9" s="238"/>
       <c r="AF9" s="238">
         <v>33.700000000000003</v>
       </c>
       <c r="AG9" s="239" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="AH9" s="238"/>
       <c r="AI9" s="238">
         <v>68.2</v>
       </c>
       <c r="AJ9" s="239" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AK9" s="238"/>
       <c r="AL9" s="235">
         <v>30.8</v>
       </c>
       <c r="AM9" s="235" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="AN9" s="235"/>
       <c r="AO9" s="235">
         <v>48.8</v>
       </c>
       <c r="AP9" s="235" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="AR9" s="240">
         <v>79.599999999999994</v>
       </c>
       <c r="AS9" s="241" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="AU9" s="32">
         <v>39.200000000000003</v>
       </c>
       <c r="AV9" s="241" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="AX9" s="240">
         <v>33.6</v>
       </c>
       <c r="AY9" s="241" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="BA9" s="32">
         <v>72.8</v>
       </c>
       <c r="BB9" s="241" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="10" spans="1:54" s="246" customFormat="1" ht="22.5">
       <c r="A10" s="245" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B10" s="246">
         <v>32.299999999999997</v>
       </c>
       <c r="C10" s="246" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E10" s="246">
         <v>36.200000000000003</v>
       </c>
       <c r="F10" s="246" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="H10" s="246">
         <v>68.5</v>
       </c>
       <c r="I10" s="246" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="K10" s="246">
         <v>42.4</v>
       </c>
       <c r="L10" s="247" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="N10" s="246">
         <v>27.4</v>
       </c>
       <c r="O10" s="247" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="Q10" s="246">
         <v>69.8</v>
       </c>
       <c r="R10" s="247" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="T10" s="246">
         <v>26.6</v>
       </c>
       <c r="U10" s="246" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="W10" s="246">
         <v>43.3</v>
       </c>
       <c r="X10" s="246" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="Z10" s="246">
         <v>69.900000000000006</v>
       </c>
       <c r="AA10" s="247" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="AC10" s="246">
         <v>28.2</v>
       </c>
       <c r="AD10" s="247" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="AF10" s="246">
         <v>27.2</v>
       </c>
       <c r="AG10" s="247" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="AI10" s="246">
         <v>55.4</v>
       </c>
       <c r="AJ10" s="247" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="AL10" s="246">
         <v>29.4</v>
       </c>
       <c r="AM10" s="246" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="AO10" s="246">
         <v>39.799999999999997</v>
       </c>
       <c r="AP10" s="246" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="AR10" s="246">
         <v>69.2</v>
       </c>
       <c r="AS10" s="247" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="AU10" s="246">
         <v>35.4</v>
       </c>
       <c r="AV10" s="247" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="AX10" s="246">
         <v>27.3</v>
       </c>
       <c r="AY10" s="247" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="BA10" s="246">
         <v>62.7</v>
       </c>
       <c r="BB10" s="247" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="11" spans="1:54" s="246" customFormat="1" ht="33.75">
       <c r="A11" s="248" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B11" s="249">
         <v>32.5</v>
       </c>
       <c r="C11" s="250" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D11" s="249"/>
       <c r="E11" s="249">
         <v>39.1</v>
       </c>
       <c r="F11" s="250" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G11" s="249"/>
       <c r="H11" s="249">
         <v>71.599999999999994</v>
       </c>
       <c r="I11" s="249" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="J11" s="249"/>
       <c r="K11" s="249">
         <v>42.6</v>
       </c>
       <c r="L11" s="250" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="M11" s="249"/>
       <c r="N11" s="249">
         <v>27.4</v>
       </c>
       <c r="O11" s="250" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="P11" s="249"/>
       <c r="Q11" s="251">
         <v>70</v>
       </c>
       <c r="R11" s="250" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="S11" s="249"/>
       <c r="T11" s="251">
         <v>27.5</v>
       </c>
       <c r="U11" s="250" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="V11" s="249"/>
       <c r="W11" s="249">
         <v>45.7</v>
       </c>
       <c r="X11" s="250" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="Y11" s="249"/>
       <c r="Z11" s="251">
         <v>73.2</v>
       </c>
       <c r="AA11" s="250" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AB11" s="249"/>
       <c r="AC11" s="249">
         <v>27.9</v>
       </c>
       <c r="AD11" s="250" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AE11" s="249"/>
       <c r="AF11" s="249">
         <v>26.9</v>
       </c>
       <c r="AG11" s="250" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="AH11" s="249"/>
       <c r="AI11" s="249">
         <v>54.9</v>
       </c>
       <c r="AJ11" s="250" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AK11" s="249"/>
       <c r="AL11" s="249">
         <v>29.9</v>
       </c>
       <c r="AM11" s="250" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AN11" s="249"/>
       <c r="AO11" s="249">
         <v>42.5</v>
       </c>
       <c r="AP11" s="250" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AQ11" s="249"/>
       <c r="AR11" s="249">
         <v>72.400000000000006</v>
       </c>
       <c r="AS11" s="249" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="AT11" s="249"/>
       <c r="AU11" s="249">
         <v>35.4</v>
       </c>
       <c r="AV11" s="250" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="AW11" s="249"/>
       <c r="AX11" s="249">
         <v>27.2</v>
       </c>
       <c r="AY11" s="250" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="AZ11" s="249"/>
       <c r="BA11" s="249">
         <v>62.6</v>
       </c>
       <c r="BB11" s="250" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="12" spans="1:54" ht="14.25">
       <c r="A12" s="252" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B12" s="253"/>
       <c r="C12" s="253"/>
@@ -24466,7 +24466,7 @@
     </row>
     <row r="13" spans="1:54">
       <c r="A13" s="256" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B13" s="257"/>
       <c r="C13" s="257"/>
@@ -24513,7 +24513,7 @@
     </row>
     <row r="14" spans="1:54">
       <c r="A14" s="256" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B14" s="257"/>
       <c r="C14" s="257"/>
@@ -24559,7 +24559,7 @@
     </row>
     <row r="15" spans="1:54">
       <c r="A15" s="256" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B15" s="257"/>
       <c r="C15" s="257"/>
@@ -24605,7 +24605,7 @@
     </row>
     <row r="16" spans="1:54">
       <c r="A16" s="258" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B16" s="259"/>
       <c r="C16" s="259"/>
@@ -24695,7 +24695,7 @@
     </row>
     <row r="21" spans="1:42" ht="12.75">
       <c r="A21" s="222" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B21" s="222"/>
       <c r="C21" s="222"/>
@@ -24726,150 +24726,150 @@
     </row>
     <row r="22" spans="1:42">
       <c r="A22" s="264"/>
-      <c r="B22" s="405" t="s">
+      <c r="B22" s="417" t="s">
         <v>180</v>
       </c>
-      <c r="C22" s="405"/>
-      <c r="D22" s="405"/>
-      <c r="E22" s="405"/>
-      <c r="F22" s="405"/>
-      <c r="G22" s="405"/>
-      <c r="H22" s="405"/>
-      <c r="I22" s="405"/>
+      <c r="C22" s="417"/>
+      <c r="D22" s="417"/>
+      <c r="E22" s="417"/>
+      <c r="F22" s="417"/>
+      <c r="G22" s="417"/>
+      <c r="H22" s="417"/>
+      <c r="I22" s="417"/>
       <c r="J22" s="265"/>
-      <c r="K22" s="405" t="s">
+      <c r="K22" s="417" t="s">
         <v>181</v>
       </c>
-      <c r="L22" s="405"/>
-      <c r="M22" s="405"/>
-      <c r="N22" s="405"/>
-      <c r="O22" s="405"/>
-      <c r="P22" s="405"/>
-      <c r="Q22" s="405"/>
-      <c r="R22" s="405"/>
+      <c r="L22" s="417"/>
+      <c r="M22" s="417"/>
+      <c r="N22" s="417"/>
+      <c r="O22" s="417"/>
+      <c r="P22" s="417"/>
+      <c r="Q22" s="417"/>
+      <c r="R22" s="417"/>
       <c r="S22" s="265"/>
-      <c r="T22" s="405" t="s">
-        <v>435</v>
-      </c>
-      <c r="U22" s="405"/>
-      <c r="V22" s="405"/>
-      <c r="W22" s="405"/>
-      <c r="X22" s="405"/>
-      <c r="Y22" s="405"/>
-      <c r="Z22" s="405"/>
-      <c r="AA22" s="405"/>
+      <c r="T22" s="417" t="s">
+        <v>433</v>
+      </c>
+      <c r="U22" s="417"/>
+      <c r="V22" s="417"/>
+      <c r="W22" s="417"/>
+      <c r="X22" s="417"/>
+      <c r="Y22" s="417"/>
+      <c r="Z22" s="417"/>
+      <c r="AA22" s="417"/>
     </row>
     <row r="23" spans="1:42" ht="22.5" customHeight="1">
       <c r="A23" s="266"/>
-      <c r="B23" s="406" t="s">
+      <c r="B23" s="418" t="s">
+        <v>294</v>
+      </c>
+      <c r="C23" s="418"/>
+      <c r="D23" s="267"/>
+      <c r="E23" s="416" t="s">
+        <v>295</v>
+      </c>
+      <c r="F23" s="416"/>
+      <c r="G23" s="268"/>
+      <c r="H23" s="419" t="s">
         <v>296</v>
       </c>
-      <c r="C23" s="406"/>
-      <c r="D23" s="267"/>
-      <c r="E23" s="407" t="s">
-        <v>297</v>
-      </c>
-      <c r="F23" s="407"/>
-      <c r="G23" s="268"/>
-      <c r="H23" s="408" t="s">
-        <v>298</v>
-      </c>
-      <c r="I23" s="408"/>
+      <c r="I23" s="419"/>
       <c r="J23" s="269"/>
-      <c r="K23" s="406" t="s">
+      <c r="K23" s="418" t="s">
+        <v>294</v>
+      </c>
+      <c r="L23" s="418"/>
+      <c r="M23" s="267"/>
+      <c r="N23" s="416" t="s">
+        <v>295</v>
+      </c>
+      <c r="O23" s="416"/>
+      <c r="P23" s="268"/>
+      <c r="Q23" s="419" t="s">
         <v>296</v>
       </c>
-      <c r="L23" s="406"/>
-      <c r="M23" s="267"/>
-      <c r="N23" s="407" t="s">
-        <v>297</v>
-      </c>
-      <c r="O23" s="407"/>
-      <c r="P23" s="268"/>
-      <c r="Q23" s="408" t="s">
-        <v>298</v>
-      </c>
-      <c r="R23" s="408"/>
+      <c r="R23" s="419"/>
       <c r="S23" s="269"/>
-      <c r="T23" s="407" t="s">
+      <c r="T23" s="416" t="s">
+        <v>294</v>
+      </c>
+      <c r="U23" s="416"/>
+      <c r="V23" s="268"/>
+      <c r="W23" s="416" t="s">
+        <v>295</v>
+      </c>
+      <c r="X23" s="416"/>
+      <c r="Y23" s="270"/>
+      <c r="Z23" s="416" t="s">
         <v>296</v>
       </c>
-      <c r="U23" s="407"/>
-      <c r="V23" s="268"/>
-      <c r="W23" s="407" t="s">
-        <v>297</v>
-      </c>
-      <c r="X23" s="407"/>
-      <c r="Y23" s="270"/>
-      <c r="Z23" s="407" t="s">
-        <v>298</v>
-      </c>
-      <c r="AA23" s="407"/>
+      <c r="AA23" s="416"/>
     </row>
     <row r="24" spans="1:42">
       <c r="A24" s="271" t="s">
+        <v>297</v>
+      </c>
+      <c r="B24" s="232" t="s">
+        <v>298</v>
+      </c>
+      <c r="C24" s="232" t="s">
         <v>299</v>
-      </c>
-      <c r="B24" s="232" t="s">
-        <v>300</v>
-      </c>
-      <c r="C24" s="232" t="s">
-        <v>301</v>
       </c>
       <c r="D24" s="227"/>
       <c r="E24" s="232" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F24" s="232" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G24" s="227"/>
       <c r="H24" s="232" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I24" s="232" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="J24" s="227"/>
       <c r="K24" s="232" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="L24" s="232" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M24" s="227"/>
       <c r="N24" s="232" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="O24" s="232" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="P24" s="227"/>
       <c r="Q24" s="232" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="R24" s="232" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="S24" s="227"/>
       <c r="T24" s="232" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="U24" s="232" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="V24" s="227"/>
       <c r="W24" s="232" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="X24" s="232" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="Z24" s="232" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AA24" s="232" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="25" spans="1:42">
@@ -24880,62 +24880,62 @@
         <v>35</v>
       </c>
       <c r="C25" s="237" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D25" s="238"/>
       <c r="E25" s="273">
         <v>18.100000000000001</v>
       </c>
       <c r="F25" s="237" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G25" s="238"/>
       <c r="H25" s="273">
         <v>52.4</v>
       </c>
       <c r="I25" s="238" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="J25" s="238"/>
       <c r="K25" s="273">
         <v>26</v>
       </c>
       <c r="L25" s="237" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="M25" s="238"/>
       <c r="N25" s="273">
         <v>13.5</v>
       </c>
       <c r="O25" s="237" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="P25" s="238"/>
       <c r="Q25" s="273">
         <v>39.9</v>
       </c>
       <c r="R25" s="238" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="S25" s="238"/>
       <c r="T25" s="273">
         <v>30.3</v>
       </c>
       <c r="U25" s="237" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="V25" s="238"/>
       <c r="W25" s="273">
         <v>15.5</v>
       </c>
       <c r="X25" s="237" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="Z25" s="273">
         <v>46</v>
       </c>
       <c r="AA25" s="32" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="26" spans="1:42">
@@ -24946,62 +24946,62 @@
         <v>42.2</v>
       </c>
       <c r="C26" s="238" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D26" s="238"/>
       <c r="E26" s="273">
         <v>24.6</v>
       </c>
       <c r="F26" s="238" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G26" s="238"/>
       <c r="H26" s="273">
         <v>66.5</v>
       </c>
       <c r="I26" s="238" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="J26" s="238"/>
       <c r="K26" s="273">
         <v>26</v>
       </c>
       <c r="L26" s="238" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="M26" s="238"/>
       <c r="N26" s="273">
         <v>22.9</v>
       </c>
       <c r="O26" s="238" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="P26" s="238"/>
       <c r="Q26" s="273">
         <v>49.2</v>
       </c>
       <c r="R26" s="238" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="S26" s="238"/>
       <c r="T26" s="273">
         <v>33.9</v>
       </c>
       <c r="U26" s="238" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="V26" s="238"/>
       <c r="W26" s="273">
         <v>23.8</v>
       </c>
       <c r="X26" s="238" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="Z26" s="273">
         <v>57.7</v>
       </c>
       <c r="AA26" s="32" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="27" spans="1:42">
@@ -25012,62 +25012,62 @@
         <v>45.4</v>
       </c>
       <c r="C27" s="238" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D27" s="238"/>
       <c r="E27" s="273">
         <v>32</v>
       </c>
       <c r="F27" s="238" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G27" s="238"/>
       <c r="H27" s="273">
         <v>77.5</v>
       </c>
       <c r="I27" s="238" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="J27" s="238"/>
       <c r="K27" s="273">
         <v>30.7</v>
       </c>
       <c r="L27" s="238" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="M27" s="238"/>
       <c r="N27" s="273">
         <v>29.6</v>
       </c>
       <c r="O27" s="238" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="P27" s="238"/>
       <c r="Q27" s="273">
         <v>60.1</v>
       </c>
       <c r="R27" s="238" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="S27" s="238"/>
       <c r="T27" s="273">
         <v>38.1</v>
       </c>
       <c r="U27" s="238" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="V27" s="238"/>
       <c r="W27" s="273">
         <v>30.6</v>
       </c>
       <c r="X27" s="238" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="Z27" s="273">
         <v>68.7</v>
       </c>
       <c r="AA27" s="32" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="28" spans="1:42">
@@ -25078,398 +25078,398 @@
         <v>43</v>
       </c>
       <c r="C28" s="238" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D28" s="238"/>
       <c r="E28" s="273">
         <v>40.6</v>
       </c>
       <c r="F28" s="238" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G28" s="238"/>
       <c r="H28" s="273">
         <v>82.9</v>
       </c>
       <c r="I28" s="238" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="J28" s="238"/>
       <c r="K28" s="273">
         <v>30.7</v>
       </c>
       <c r="L28" s="238" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="M28" s="238"/>
       <c r="N28" s="273">
         <v>34.5</v>
       </c>
       <c r="O28" s="238" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="P28" s="238"/>
       <c r="Q28" s="273">
         <v>65.2</v>
       </c>
       <c r="R28" s="238" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="S28" s="238"/>
       <c r="T28" s="273">
         <v>36.6</v>
       </c>
       <c r="U28" s="238" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="V28" s="238"/>
       <c r="W28" s="273">
         <v>37.4</v>
       </c>
       <c r="X28" s="238" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="Z28" s="273">
         <v>74</v>
       </c>
       <c r="AA28" s="32" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="29" spans="1:42">
       <c r="A29" s="274" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B29" s="273">
         <v>42.2</v>
       </c>
       <c r="C29" s="238" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D29" s="238"/>
       <c r="E29" s="273">
         <v>41.6</v>
       </c>
       <c r="F29" s="238" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="G29" s="238"/>
       <c r="H29" s="273">
         <v>83.6</v>
       </c>
       <c r="I29" s="238" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="J29" s="238"/>
       <c r="K29" s="273">
         <v>28.4</v>
       </c>
       <c r="L29" s="238" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="M29" s="238"/>
       <c r="N29" s="273">
         <v>38.1</v>
       </c>
       <c r="O29" s="238" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="P29" s="238"/>
       <c r="Q29" s="273">
         <v>66.599999999999994</v>
       </c>
       <c r="R29" s="238" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="S29" s="238"/>
       <c r="T29" s="273">
         <v>34.799999999999997</v>
       </c>
       <c r="U29" s="238" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="V29" s="238"/>
       <c r="W29" s="273">
         <v>39.9</v>
       </c>
       <c r="X29" s="238" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="Z29" s="273">
         <v>74.7</v>
       </c>
       <c r="AA29" s="32" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="30" spans="1:42">
       <c r="A30" s="274" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B30" s="275">
         <v>40.9</v>
       </c>
       <c r="C30" s="276" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D30" s="276"/>
       <c r="E30" s="276">
         <v>42.2</v>
       </c>
       <c r="F30" s="238" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G30" s="276"/>
       <c r="H30" s="276">
         <v>83.3</v>
       </c>
       <c r="I30" s="238" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="J30" s="276"/>
       <c r="K30" s="276">
         <v>34.4</v>
       </c>
       <c r="L30" s="238" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="M30" s="276"/>
       <c r="N30" s="276">
         <v>38.700000000000003</v>
       </c>
       <c r="O30" s="238" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="P30" s="276"/>
       <c r="Q30" s="276">
         <v>73.3</v>
       </c>
       <c r="R30" s="238" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="S30" s="276"/>
       <c r="T30" s="276">
         <v>37.5</v>
       </c>
       <c r="U30" s="238" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="V30" s="276"/>
       <c r="W30" s="276">
         <v>40.5</v>
       </c>
       <c r="X30" s="238" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="Z30" s="240">
         <v>78.2</v>
       </c>
       <c r="AA30" s="32" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="31" spans="1:42">
       <c r="A31" s="274" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B31" s="277">
         <v>44</v>
       </c>
       <c r="C31" s="276" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D31" s="276"/>
       <c r="E31" s="276">
         <v>33.200000000000003</v>
       </c>
       <c r="F31" s="238" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G31" s="276"/>
       <c r="H31" s="276">
         <v>78.3</v>
       </c>
       <c r="I31" s="238" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="J31" s="276"/>
       <c r="K31" s="276">
         <v>33.299999999999997</v>
       </c>
       <c r="L31" s="238" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="M31" s="276"/>
       <c r="N31" s="273">
         <v>38.6</v>
       </c>
       <c r="O31" s="238" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="P31" s="276"/>
       <c r="Q31" s="273">
         <v>72.099999999999994</v>
       </c>
       <c r="R31" s="238" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="S31" s="276"/>
       <c r="T31" s="273">
         <v>38.1</v>
       </c>
       <c r="U31" s="238" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="V31" s="276"/>
       <c r="W31" s="273">
         <v>36.299999999999997</v>
       </c>
       <c r="X31" s="238" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="Z31" s="273">
         <v>75</v>
       </c>
       <c r="AA31" s="32" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="32" spans="1:42">
       <c r="A32" s="278" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B32" s="279">
         <v>46.2</v>
       </c>
       <c r="C32" s="276" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D32" s="276"/>
       <c r="E32" s="280">
         <v>16</v>
       </c>
       <c r="F32" s="238" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G32" s="276"/>
       <c r="H32" s="276">
         <v>65.099999999999994</v>
       </c>
       <c r="I32" s="238" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="J32" s="276"/>
       <c r="K32" s="280">
         <v>38</v>
       </c>
       <c r="L32" s="238" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="M32" s="276"/>
       <c r="N32" s="273">
         <v>22.8</v>
       </c>
       <c r="O32" s="238" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="P32" s="276"/>
       <c r="Q32" s="273">
         <v>61.2</v>
       </c>
       <c r="R32" s="238" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="S32" s="276"/>
       <c r="T32" s="273">
         <v>42.3</v>
       </c>
       <c r="U32" s="238" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="V32" s="276"/>
       <c r="W32" s="273">
         <v>19.8</v>
       </c>
       <c r="X32" s="238" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="Z32" s="273">
         <v>61.8</v>
       </c>
       <c r="AA32" s="32" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="33" spans="1:27" ht="22.5">
       <c r="A33" s="281" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B33" s="282">
         <v>42</v>
       </c>
       <c r="C33" s="282" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D33" s="282"/>
       <c r="E33" s="282">
         <v>32.5</v>
       </c>
       <c r="F33" s="283" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G33" s="282"/>
       <c r="H33" s="282">
         <v>74.5</v>
       </c>
       <c r="I33" s="283" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="J33" s="284"/>
       <c r="K33" s="282">
         <v>29.6</v>
       </c>
       <c r="L33" s="283" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="M33" s="282"/>
       <c r="N33" s="282">
         <v>30.2</v>
       </c>
       <c r="O33" s="283" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="P33" s="282"/>
       <c r="Q33" s="282">
         <v>59.7</v>
       </c>
       <c r="R33" s="283" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="S33" s="284"/>
       <c r="T33" s="282">
         <v>35.6</v>
       </c>
       <c r="U33" s="283" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="V33" s="282"/>
       <c r="W33" s="282">
         <v>31.3</v>
       </c>
       <c r="X33" s="283" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="Y33" s="285"/>
       <c r="Z33" s="286">
         <v>67</v>
       </c>
       <c r="AA33" s="287" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="34" spans="1:27">
       <c r="A34" s="288" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B34" s="257"/>
       <c r="C34" s="257"/>
@@ -25497,7 +25497,7 @@
     </row>
     <row r="35" spans="1:27">
       <c r="A35" s="289" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B35" s="257"/>
       <c r="C35" s="257"/>
@@ -25525,7 +25525,7 @@
     </row>
     <row r="36" spans="1:27">
       <c r="A36" s="260" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B36" s="257"/>
       <c r="C36" s="257"/>
@@ -25553,7 +25553,7 @@
     </row>
     <row r="37" spans="1:27">
       <c r="A37" s="260" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B37" s="257"/>
       <c r="C37" s="257"/>
@@ -25581,7 +25581,7 @@
     </row>
     <row r="38" spans="1:27">
       <c r="A38" s="260" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B38" s="257"/>
       <c r="C38" s="257"/>
@@ -25609,7 +25609,7 @@
     </row>
     <row r="39" spans="1:27">
       <c r="A39" s="289" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B39" s="259"/>
       <c r="C39" s="259"/>
@@ -25643,6 +25643,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="K22:R22"/>
+    <mergeCell ref="T22:AA22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="AR3:AS3"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AX3:AY3"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="Z23:AA23"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AL3:AM3"/>
+    <mergeCell ref="AO3:AP3"/>
     <mergeCell ref="AL2:AS2"/>
     <mergeCell ref="AU2:BB2"/>
     <mergeCell ref="Q3:R3"/>
@@ -25659,26 +25679,6 @@
     <mergeCell ref="T3:U3"/>
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AR3:AS3"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AX3:AY3"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="Z23:AA23"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AL3:AM3"/>
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="K22:R22"/>
-    <mergeCell ref="T22:AA22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="T23:U23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -25713,10 +25713,10 @@
       <c r="E2" s="301"/>
       <c r="F2" s="301"/>
       <c r="G2" s="301"/>
-      <c r="H2" s="416" t="s">
-        <v>535</v>
-      </c>
-      <c r="I2" s="417"/>
+      <c r="H2" s="421" t="s">
+        <v>533</v>
+      </c>
+      <c r="I2" s="422"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickTop="1">
       <c r="A3" s="301"/>
@@ -25742,56 +25742,56 @@
     </row>
     <row r="6" spans="1:9" ht="15.75">
       <c r="A6" s="301"/>
-      <c r="B6" s="418" t="s">
-        <v>536</v>
-      </c>
-      <c r="C6" s="418"/>
-      <c r="D6" s="418"/>
-      <c r="E6" s="419"/>
-      <c r="F6" s="419"/>
-      <c r="G6" s="419"/>
-      <c r="H6" s="419"/>
-      <c r="I6" s="419"/>
+      <c r="B6" s="423" t="s">
+        <v>534</v>
+      </c>
+      <c r="C6" s="423"/>
+      <c r="D6" s="423"/>
+      <c r="E6" s="424"/>
+      <c r="F6" s="424"/>
+      <c r="G6" s="424"/>
+      <c r="H6" s="424"/>
+      <c r="I6" s="424"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="301"/>
       <c r="B7" s="305"/>
-      <c r="C7" s="420" t="s">
+      <c r="C7" s="425" t="s">
         <v>180</v>
       </c>
-      <c r="D7" s="420"/>
-      <c r="E7" s="420" t="s">
+      <c r="D7" s="425"/>
+      <c r="E7" s="425" t="s">
         <v>181</v>
       </c>
-      <c r="F7" s="421"/>
-      <c r="G7" s="420" t="s">
-        <v>435</v>
-      </c>
-      <c r="H7" s="421"/>
+      <c r="F7" s="426"/>
+      <c r="G7" s="425" t="s">
+        <v>433</v>
+      </c>
+      <c r="H7" s="426"/>
       <c r="I7" s="301"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="301"/>
       <c r="B8" s="303" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C8" s="308" t="s">
         <v>191</v>
       </c>
       <c r="D8" s="309" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E8" s="309" t="s">
         <v>191</v>
       </c>
       <c r="F8" s="309" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="G8" s="309" t="s">
         <v>191</v>
       </c>
       <c r="H8" s="309" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="I8" s="301"/>
     </row>
@@ -25804,94 +25804,94 @@
         <v>2</v>
       </c>
       <c r="D9" s="310" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E9" s="310">
         <v>2.5</v>
       </c>
       <c r="F9" s="310" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="G9" s="310">
         <v>2.2000000000000002</v>
       </c>
       <c r="H9" s="311" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="I9" s="301"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="301"/>
       <c r="B10" s="304" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C10" s="310">
         <v>3.6</v>
       </c>
       <c r="D10" s="310" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E10" s="310">
         <v>6.1666312772165996</v>
       </c>
       <c r="F10" s="310" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="G10" s="310">
         <v>4.9000000000000004</v>
       </c>
       <c r="H10" s="311" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="I10" s="301"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="301"/>
       <c r="B11" s="304" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C11" s="310">
         <v>7.5456429129401998</v>
       </c>
       <c r="D11" s="310" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="E11" s="310">
         <v>6.7</v>
       </c>
       <c r="F11" s="310" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="G11" s="310">
         <v>7.1</v>
       </c>
       <c r="H11" s="311" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="I11" s="301"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="301"/>
       <c r="B12" s="304" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C12" s="310">
         <v>7.3</v>
       </c>
       <c r="D12" s="310" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E12" s="310">
         <v>5.9</v>
       </c>
       <c r="F12" s="310" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="G12" s="310">
         <v>6.6</v>
       </c>
       <c r="H12" s="311" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="I12" s="301"/>
     </row>
@@ -25904,64 +25904,64 @@
         <v>4.5</v>
       </c>
       <c r="D13" s="310" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="E13" s="310">
         <v>5.0999999999999996</v>
       </c>
       <c r="F13" s="310" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G13" s="310">
         <v>4.8</v>
       </c>
       <c r="H13" s="311" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="I13" s="301"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="301"/>
       <c r="B14" s="315" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C14" s="316">
         <v>4.3</v>
       </c>
       <c r="D14" s="316" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E14" s="316">
         <v>4.8</v>
       </c>
       <c r="F14" s="316" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="G14" s="316">
         <v>4.5999999999999996</v>
       </c>
       <c r="H14" s="317" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="I14" s="301"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="301"/>
-      <c r="B15" s="415" t="s">
-        <v>558</v>
-      </c>
-      <c r="C15" s="415"/>
-      <c r="D15" s="415"/>
-      <c r="E15" s="415"/>
-      <c r="F15" s="415"/>
-      <c r="G15" s="415"/>
-      <c r="H15" s="415"/>
+      <c r="B15" s="420" t="s">
+        <v>556</v>
+      </c>
+      <c r="C15" s="420"/>
+      <c r="D15" s="420"/>
+      <c r="E15" s="420"/>
+      <c r="F15" s="420"/>
+      <c r="G15" s="420"/>
+      <c r="H15" s="420"/>
       <c r="I15" s="301"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="301"/>
       <c r="B16" s="304" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C16" s="301"/>
       <c r="D16" s="301"/>
@@ -25973,7 +25973,7 @@
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="304" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C17" s="301"/>
       <c r="D17" s="301"/>
@@ -25985,7 +25985,7 @@
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="312" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C18" s="301"/>
       <c r="D18" s="301"/>
@@ -26076,11 +26076,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="43.5" customHeight="1">
-      <c r="A1" s="426" t="s">
-        <v>563</v>
-      </c>
-      <c r="B1" s="426"/>
-      <c r="C1" s="426"/>
+      <c r="A1" s="428" t="s">
+        <v>561</v>
+      </c>
+      <c r="B1" s="428"/>
+      <c r="C1" s="428"/>
       <c r="D1" s="318"/>
       <c r="E1" s="318"/>
       <c r="F1" s="318"/>
@@ -26089,51 +26089,51 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="319" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B2" s="320" t="s">
         <v>191</v>
       </c>
       <c r="C2" s="320" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="321" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="322" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B4" s="323">
         <v>33.665999999999997</v>
       </c>
       <c r="C4" s="324" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="325" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B5" s="323">
         <v>22.814</v>
       </c>
       <c r="C5" s="324" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="326" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B6" s="323">
         <v>10.852</v>
       </c>
       <c r="C6" s="324" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -26150,35 +26150,35 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="241" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B9" s="323">
         <v>35.994</v>
       </c>
       <c r="C9" s="324" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="326" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B10" s="323">
         <v>25.445</v>
       </c>
       <c r="C10" s="324" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="326" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B11" s="323">
         <v>10.548999999999999</v>
       </c>
       <c r="C11" s="324" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -26195,35 +26195,35 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="322" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B14" s="323">
         <v>31.428000000000001</v>
       </c>
       <c r="C14" s="324" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="325" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B15" s="323">
         <v>20.286000000000001</v>
       </c>
       <c r="C15" s="324" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="328" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B16" s="329">
         <v>11.141999999999999</v>
       </c>
       <c r="C16" s="330" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D16" s="331"/>
     </row>
@@ -26236,7 +26236,7 @@
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="332" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B18" s="331"/>
       <c r="C18" s="331"/>
@@ -26247,11 +26247,11 @@
       <c r="H18" s="331"/>
     </row>
     <row r="19" spans="1:15" ht="24.75" customHeight="1">
-      <c r="A19" s="422" t="s">
-        <v>577</v>
-      </c>
-      <c r="B19" s="422"/>
-      <c r="C19" s="422"/>
+      <c r="A19" s="429" t="s">
+        <v>575</v>
+      </c>
+      <c r="B19" s="429"/>
+      <c r="C19" s="429"/>
       <c r="D19" s="331"/>
       <c r="E19" s="331"/>
       <c r="F19" s="331"/>
@@ -26259,11 +26259,11 @@
       <c r="H19" s="331"/>
     </row>
     <row r="20" spans="1:15" ht="46.5" customHeight="1">
-      <c r="A20" s="422" t="s">
-        <v>578</v>
-      </c>
-      <c r="B20" s="422"/>
-      <c r="C20" s="422"/>
+      <c r="A20" s="429" t="s">
+        <v>576</v>
+      </c>
+      <c r="B20" s="429"/>
+      <c r="C20" s="429"/>
       <c r="D20" s="331"/>
       <c r="E20" s="331"/>
       <c r="F20" s="331"/>
@@ -26271,11 +26271,11 @@
       <c r="H20" s="331"/>
     </row>
     <row r="21" spans="1:15" ht="59.25" customHeight="1">
-      <c r="A21" s="422" t="s">
-        <v>579</v>
-      </c>
-      <c r="B21" s="422"/>
-      <c r="C21" s="422"/>
+      <c r="A21" s="429" t="s">
+        <v>577</v>
+      </c>
+      <c r="B21" s="429"/>
+      <c r="C21" s="429"/>
       <c r="D21" s="333"/>
       <c r="E21" s="333"/>
       <c r="F21" s="333"/>
@@ -26283,11 +26283,11 @@
       <c r="H21" s="333"/>
     </row>
     <row r="22" spans="1:15" ht="26.25" customHeight="1">
-      <c r="A22" s="422" t="s">
-        <v>431</v>
-      </c>
-      <c r="B22" s="422"/>
-      <c r="C22" s="422"/>
+      <c r="A22" s="429" t="s">
+        <v>429</v>
+      </c>
+      <c r="B22" s="429"/>
+      <c r="C22" s="429"/>
       <c r="D22" s="334"/>
       <c r="E22" s="335"/>
       <c r="F22" s="335"/>
@@ -26303,7 +26303,7 @@
     </row>
     <row r="23" spans="1:15" ht="25.5" customHeight="1">
       <c r="A23" s="333" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B23" s="333"/>
       <c r="C23" s="333"/>
@@ -26325,15 +26325,15 @@
       <c r="C25" s="336"/>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="425" t="s">
-        <v>581</v>
-      </c>
-      <c r="B26" s="425"/>
-      <c r="C26" s="425"/>
-      <c r="D26" s="425"/>
-      <c r="E26" s="425"/>
-      <c r="F26" s="425"/>
-      <c r="G26" s="425"/>
+      <c r="A26" s="427" t="s">
+        <v>579</v>
+      </c>
+      <c r="B26" s="427"/>
+      <c r="C26" s="427"/>
+      <c r="D26" s="427"/>
+      <c r="E26" s="427"/>
+      <c r="F26" s="427"/>
+      <c r="G26" s="427"/>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="338"/>
@@ -26346,74 +26346,74 @@
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="340"/>
-      <c r="B28" s="423" t="s">
-        <v>582</v>
-      </c>
-      <c r="C28" s="423"/>
-      <c r="D28" s="423"/>
-      <c r="E28" s="423"/>
-      <c r="F28" s="423"/>
-      <c r="G28" s="423"/>
+      <c r="B28" s="430" t="s">
+        <v>580</v>
+      </c>
+      <c r="C28" s="430"/>
+      <c r="D28" s="430"/>
+      <c r="E28" s="430"/>
+      <c r="F28" s="430"/>
+      <c r="G28" s="430"/>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="341"/>
-      <c r="B29" s="424" t="s">
+      <c r="B29" s="431" t="s">
         <v>180</v>
       </c>
-      <c r="C29" s="424"/>
-      <c r="D29" s="424" t="s">
+      <c r="C29" s="431"/>
+      <c r="D29" s="431" t="s">
         <v>181</v>
       </c>
-      <c r="E29" s="424"/>
-      <c r="F29" s="424" t="s">
-        <v>435</v>
-      </c>
-      <c r="G29" s="424"/>
+      <c r="E29" s="431"/>
+      <c r="F29" s="431" t="s">
+        <v>433</v>
+      </c>
+      <c r="G29" s="431"/>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="342" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B30" s="343" t="s">
         <v>191</v>
       </c>
       <c r="C30" s="343" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D30" s="343" t="s">
         <v>191</v>
       </c>
       <c r="E30" s="343" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F30" s="343" t="s">
         <v>191</v>
       </c>
       <c r="G30" s="343" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="344" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B31" s="345">
         <v>10.186328305</v>
       </c>
       <c r="C31" s="346" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D31" s="346">
         <v>4.9072006353999997</v>
       </c>
       <c r="E31" s="346" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F31" s="346">
         <v>7.5</v>
       </c>
       <c r="G31" s="346" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -26424,19 +26424,19 @@
         <v>18.3</v>
       </c>
       <c r="C32" s="348" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D32" s="348">
         <v>13.8</v>
       </c>
       <c r="E32" s="348" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="F32" s="348">
         <v>15.9</v>
       </c>
       <c r="G32" s="348" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -26447,139 +26447,139 @@
         <v>32.700000000000003</v>
       </c>
       <c r="C33" s="348" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D33" s="348">
         <v>20.7</v>
       </c>
       <c r="E33" s="348" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F33" s="348">
         <v>26.4</v>
       </c>
       <c r="G33" s="348" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="347" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B34" s="348">
         <v>37</v>
       </c>
       <c r="C34" s="348" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D34" s="348">
         <v>30.4</v>
       </c>
       <c r="E34" s="348" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="F34" s="348">
         <v>33.5</v>
       </c>
       <c r="G34" s="348" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="347" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B35" s="348">
         <v>42.1</v>
       </c>
       <c r="C35" s="348" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D35" s="348">
         <v>38.5</v>
       </c>
       <c r="E35" s="348" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F35" s="348">
         <v>40.200000000000003</v>
       </c>
       <c r="G35" s="348" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="347" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B36" s="348">
         <v>41.8</v>
       </c>
       <c r="C36" s="348" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D36" s="348">
         <v>45.5</v>
       </c>
       <c r="E36" s="348" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="F36" s="348">
         <v>43.8</v>
       </c>
       <c r="G36" s="348" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="349" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B37" s="348">
         <v>51</v>
       </c>
       <c r="C37" s="348" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D37" s="348">
         <v>47.5</v>
       </c>
       <c r="E37" s="348" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="F37" s="348">
         <v>47.4</v>
       </c>
       <c r="G37" s="348" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="350" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B38" s="351">
         <v>25.4</v>
       </c>
       <c r="C38" s="351" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D38" s="351">
         <v>20.3</v>
       </c>
       <c r="E38" s="351" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F38" s="351">
         <v>22.8</v>
       </c>
       <c r="G38" s="351" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="332" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B39" s="339"/>
       <c r="C39" s="339"/>
@@ -26589,48 +26589,48 @@
       <c r="G39" s="339"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="422" t="s">
-        <v>606</v>
-      </c>
-      <c r="B40" s="422"/>
-      <c r="C40" s="422"/>
-      <c r="D40" s="422"/>
-      <c r="E40" s="422"/>
-      <c r="F40" s="422"/>
-      <c r="G40" s="422"/>
+      <c r="A40" s="429" t="s">
+        <v>604</v>
+      </c>
+      <c r="B40" s="429"/>
+      <c r="C40" s="429"/>
+      <c r="D40" s="429"/>
+      <c r="E40" s="429"/>
+      <c r="F40" s="429"/>
+      <c r="G40" s="429"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="422" t="s">
-        <v>579</v>
-      </c>
-      <c r="B41" s="422"/>
-      <c r="C41" s="422"/>
-      <c r="D41" s="422"/>
-      <c r="E41" s="422"/>
-      <c r="F41" s="422"/>
-      <c r="G41" s="422"/>
+      <c r="A41" s="429" t="s">
+        <v>577</v>
+      </c>
+      <c r="B41" s="429"/>
+      <c r="C41" s="429"/>
+      <c r="D41" s="429"/>
+      <c r="E41" s="429"/>
+      <c r="F41" s="429"/>
+      <c r="G41" s="429"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="422" t="s">
-        <v>431</v>
-      </c>
-      <c r="B42" s="422"/>
-      <c r="C42" s="422"/>
-      <c r="D42" s="422"/>
-      <c r="E42" s="422"/>
-      <c r="F42" s="422"/>
-      <c r="G42" s="422"/>
+      <c r="A42" s="429" t="s">
+        <v>429</v>
+      </c>
+      <c r="B42" s="429"/>
+      <c r="C42" s="429"/>
+      <c r="D42" s="429"/>
+      <c r="E42" s="429"/>
+      <c r="F42" s="429"/>
+      <c r="G42" s="429"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="422" t="s">
-        <v>607</v>
-      </c>
-      <c r="B43" s="422"/>
-      <c r="C43" s="422"/>
-      <c r="D43" s="422"/>
-      <c r="E43" s="422"/>
-      <c r="F43" s="422"/>
-      <c r="G43" s="422"/>
+      <c r="A43" s="429" t="s">
+        <v>605</v>
+      </c>
+      <c r="B43" s="429"/>
+      <c r="C43" s="429"/>
+      <c r="D43" s="429"/>
+      <c r="E43" s="429"/>
+      <c r="F43" s="429"/>
+      <c r="G43" s="429"/>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="339"/>
@@ -26643,7 +26643,7 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="332" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B45" s="339"/>
       <c r="C45" s="339"/>
@@ -26654,12 +26654,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A26:G26"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
     <mergeCell ref="A42:G42"/>
     <mergeCell ref="A43:G43"/>
     <mergeCell ref="B28:G28"/>
@@ -26668,6 +26662,12 @@
     <mergeCell ref="F29:G29"/>
     <mergeCell ref="A40:G40"/>
     <mergeCell ref="A41:G41"/>
+    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Population/data/Population Indicators.xlsx
+++ b/Population/data/Population Indicators.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\JusticeCOVID\Population\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B80C2FD6-9D94-4E34-97E2-D71A8D70E27E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DFC4215-1F46-4688-B593-FA837E30F2B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39030" yWindow="0" windowWidth="37605" windowHeight="21000" xr2:uid="{B9AFA079-0671-40AD-860D-809D829A87F1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{B9AFA079-0671-40AD-860D-809D829A87F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Summaries" sheetId="1" r:id="rId1"/>
@@ -5871,11 +5871,11 @@
     <xf numFmtId="3" fontId="38" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="38" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="38" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="38" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="38" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5886,14 +5886,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="38" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="38" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="38" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="38" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="38" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="38" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="38" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5910,42 +5946,6 @@
     <xf numFmtId="3" fontId="38" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="38" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="38" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="38" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="38" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="38" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="38" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="38" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -5961,6 +5961,24 @@
     <xf numFmtId="0" fontId="32" fillId="33" borderId="24" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="42" fillId="35" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="35" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="35" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="42" fillId="35" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5972,24 +5990,6 @@
     </xf>
     <xf numFmtId="49" fontId="42" fillId="35" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="35" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="35" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="35" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="59" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -6008,12 +6008,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="41" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="24" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -6022,6 +6016,12 @@
     </xf>
     <xf numFmtId="49" fontId="42" fillId="37" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="73">
@@ -6422,8 +6422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69445D4F-6ED8-41C8-8CD1-A1D8E95413A8}">
   <dimension ref="A2:AJ160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="M104" sqref="M104"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="J105" sqref="J105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6434,6 +6434,7 @@
     <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" customWidth="1"/>
     <col min="31" max="31" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10">
@@ -6804,15 +6805,15 @@
         <v>0</v>
       </c>
       <c r="H18" s="53">
-        <f>B18/B4</f>
+        <f t="shared" ref="H18:H27" si="9">B18/B4</f>
         <v>0</v>
       </c>
       <c r="I18" s="54">
-        <f>D18/D4</f>
+        <f t="shared" ref="I18:I27" si="10">D18/D4</f>
         <v>0</v>
       </c>
       <c r="J18" s="54">
-        <f>F18/F4</f>
+        <f t="shared" ref="J18:J27" si="11">F18/F4</f>
         <v>0</v>
       </c>
       <c r="K18" s="53">
@@ -6855,15 +6856,15 @@
         <v>0</v>
       </c>
       <c r="H19" s="48">
-        <f>B19/B5</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I19" s="9">
-        <f>D19/D5</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J19" s="9">
-        <f>F19/F5</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K19" s="48">
@@ -6906,15 +6907,15 @@
         <v>0</v>
       </c>
       <c r="H20" s="48">
-        <f>B20/B6</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I20" s="9">
-        <f>D20/D6</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J20" s="9">
-        <f>F20/F6</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K20" s="48">
@@ -6957,15 +6958,15 @@
         <v>1.4052838673412029E-4</v>
       </c>
       <c r="H21" s="48">
-        <f>B21/B7</f>
+        <f t="shared" si="9"/>
         <v>1.6891891891891893E-3</v>
       </c>
       <c r="I21" s="9">
-        <f>D21/D7</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J21" s="9">
-        <f>F21/F7</f>
+        <f t="shared" si="11"/>
         <v>8.8652482269503544E-4</v>
       </c>
       <c r="K21" s="48">
@@ -7008,15 +7009,15 @@
         <v>1.4052838673412029E-4</v>
       </c>
       <c r="H22" s="48">
-        <f>B22/B8</f>
+        <f t="shared" si="9"/>
         <v>1.9569471624266144E-3</v>
       </c>
       <c r="I22" s="9">
-        <f>D22/D8</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J22" s="9">
-        <f>F22/F8</f>
+        <f t="shared" si="11"/>
         <v>1.1061946902654867E-3</v>
       </c>
       <c r="K22" s="48">
@@ -7059,15 +7060,15 @@
         <v>2.8105677346824059E-4</v>
       </c>
       <c r="H23" s="48">
-        <f>B23/B9</f>
+        <f t="shared" si="9"/>
         <v>1.8181818181818182E-3</v>
       </c>
       <c r="I23" s="9">
-        <f>D23/D9</f>
+        <f t="shared" si="10"/>
         <v>1.7301038062283738E-3</v>
       </c>
       <c r="J23" s="9">
-        <f>F23/F9</f>
+        <f t="shared" si="11"/>
         <v>1.7730496453900709E-3</v>
       </c>
       <c r="K23" s="48">
@@ -7110,15 +7111,15 @@
         <v>1.405283867341203E-3</v>
       </c>
       <c r="H24" s="48">
-        <f>B24/B10</f>
+        <f t="shared" si="9"/>
         <v>1.0273972602739725E-2</v>
       </c>
       <c r="I24" s="9">
-        <f>D24/D10</f>
+        <f t="shared" si="10"/>
         <v>6.9324090121317154E-3</v>
       </c>
       <c r="J24" s="9">
-        <f>F24/F10</f>
+        <f t="shared" si="11"/>
         <v>8.6132644272179162E-3</v>
       </c>
       <c r="K24" s="48">
@@ -7161,15 +7162,15 @@
         <v>4.7779651489600903E-3</v>
       </c>
       <c r="H25" s="48">
-        <f>B25/B11</f>
+        <f t="shared" si="9"/>
         <v>5.2884615384615384E-2</v>
       </c>
       <c r="I25" s="9">
-        <f>D25/D11</f>
+        <f t="shared" si="10"/>
         <v>3.5928143712574849E-2</v>
       </c>
       <c r="J25" s="9">
-        <f>F25/F11</f>
+        <f t="shared" si="11"/>
         <v>4.5333333333333337E-2</v>
       </c>
       <c r="K25" s="48">
@@ -7212,15 +7213,15 @@
         <v>7.7290612703766158E-3</v>
       </c>
       <c r="H26" s="49">
-        <f>B26/B12</f>
+        <f t="shared" si="9"/>
         <v>0.2125984251968504</v>
       </c>
       <c r="I26" s="47">
-        <f>D26/D12</f>
+        <f t="shared" si="10"/>
         <v>0.24347826086956523</v>
       </c>
       <c r="J26" s="47">
-        <f>F26/F12</f>
+        <f t="shared" si="11"/>
         <v>0.22727272727272727</v>
       </c>
       <c r="K26" s="49">
@@ -7253,15 +7254,15 @@
         <v>103</v>
       </c>
       <c r="H27" s="66">
-        <f>B27/B13</f>
+        <f t="shared" si="9"/>
         <v>1.6057585825027684E-2</v>
       </c>
       <c r="I27" s="66">
-        <f>D27/D13</f>
+        <f t="shared" si="10"/>
         <v>1.2842465753424657E-2</v>
       </c>
       <c r="J27" s="66">
-        <f>F27/F13</f>
+        <f t="shared" si="11"/>
         <v>1.4474423833614389E-2</v>
       </c>
       <c r="K27" s="5">
@@ -7414,17 +7415,17 @@
       <c r="A43" s="295" t="s">
         <v>526</v>
       </c>
-      <c r="B43" s="402" t="s">
+      <c r="B43" s="388" t="s">
         <v>432</v>
       </c>
-      <c r="C43" s="403"/>
-      <c r="D43" s="403"/>
-      <c r="E43" s="403"/>
-      <c r="F43" s="403"/>
-      <c r="G43" s="403"/>
-      <c r="H43" s="403"/>
-      <c r="I43" s="403"/>
-      <c r="J43" s="404"/>
+      <c r="C43" s="389"/>
+      <c r="D43" s="389"/>
+      <c r="E43" s="389"/>
+      <c r="F43" s="389"/>
+      <c r="G43" s="389"/>
+      <c r="H43" s="389"/>
+      <c r="I43" s="389"/>
+      <c r="J43" s="390"/>
       <c r="K43" s="382" t="s">
         <v>237</v>
       </c>
@@ -7436,64 +7437,64 @@
       <c r="Q43" s="383"/>
       <c r="R43" s="383"/>
       <c r="S43" s="384"/>
-      <c r="T43" s="385" t="s">
+      <c r="T43" s="387" t="s">
         <v>523</v>
       </c>
-      <c r="U43" s="385"/>
-      <c r="V43" s="385"/>
-      <c r="W43" s="385"/>
-      <c r="X43" s="385"/>
-      <c r="Y43" s="385"/>
-      <c r="Z43" s="385"/>
-      <c r="AA43" s="385"/>
-      <c r="AB43" s="385"/>
+      <c r="U43" s="387"/>
+      <c r="V43" s="387"/>
+      <c r="W43" s="387"/>
+      <c r="X43" s="387"/>
+      <c r="Y43" s="387"/>
+      <c r="Z43" s="387"/>
+      <c r="AA43" s="387"/>
+      <c r="AB43" s="387"/>
     </row>
     <row r="44" spans="1:28" ht="15" customHeight="1">
-      <c r="B44" s="385" t="s">
+      <c r="B44" s="387" t="s">
         <v>180</v>
       </c>
-      <c r="C44" s="385"/>
-      <c r="D44" s="385"/>
-      <c r="E44" s="385" t="s">
+      <c r="C44" s="387"/>
+      <c r="D44" s="387"/>
+      <c r="E44" s="387" t="s">
         <v>181</v>
       </c>
-      <c r="F44" s="385"/>
-      <c r="G44" s="385"/>
-      <c r="H44" s="385" t="s">
+      <c r="F44" s="387"/>
+      <c r="G44" s="387"/>
+      <c r="H44" s="387" t="s">
         <v>433</v>
       </c>
-      <c r="I44" s="385"/>
-      <c r="J44" s="385"/>
-      <c r="K44" s="393" t="s">
+      <c r="I44" s="387"/>
+      <c r="J44" s="387"/>
+      <c r="K44" s="397" t="s">
         <v>180</v>
       </c>
-      <c r="L44" s="393"/>
-      <c r="M44" s="393"/>
-      <c r="N44" s="393" t="s">
+      <c r="L44" s="397"/>
+      <c r="M44" s="397"/>
+      <c r="N44" s="397" t="s">
         <v>181</v>
       </c>
-      <c r="O44" s="393"/>
-      <c r="P44" s="393"/>
+      <c r="O44" s="397"/>
+      <c r="P44" s="397"/>
       <c r="Q44" s="382" t="s">
         <v>433</v>
       </c>
       <c r="R44" s="383"/>
       <c r="S44" s="384"/>
-      <c r="T44" s="385" t="s">
+      <c r="T44" s="387" t="s">
         <v>180</v>
       </c>
-      <c r="U44" s="385"/>
-      <c r="V44" s="385"/>
-      <c r="W44" s="385" t="s">
+      <c r="U44" s="387"/>
+      <c r="V44" s="387"/>
+      <c r="W44" s="387" t="s">
         <v>181</v>
       </c>
-      <c r="X44" s="385"/>
-      <c r="Y44" s="385"/>
-      <c r="Z44" s="385" t="s">
+      <c r="X44" s="387"/>
+      <c r="Y44" s="387"/>
+      <c r="Z44" s="387" t="s">
         <v>433</v>
       </c>
-      <c r="AA44" s="385"/>
-      <c r="AB44" s="385"/>
+      <c r="AA44" s="387"/>
+      <c r="AB44" s="387"/>
     </row>
     <row r="45" spans="1:28">
       <c r="B45" s="66" t="s">
@@ -8473,10 +8474,10 @@
       <c r="A58" s="295" t="s">
         <v>527</v>
       </c>
-      <c r="B58" s="385">
+      <c r="B58" s="387">
         <v>2019</v>
       </c>
-      <c r="C58" s="385"/>
+      <c r="C58" s="387"/>
       <c r="D58" s="382">
         <v>2016</v>
       </c>
@@ -8510,8 +8511,8 @@
       <c r="Z58" s="384">
         <v>2016</v>
       </c>
-      <c r="AA58" s="385"/>
-      <c r="AB58" s="385"/>
+      <c r="AA58" s="387"/>
+      <c r="AB58" s="387"/>
       <c r="AC58" s="382">
         <v>2019</v>
       </c>
@@ -8775,20 +8776,20 @@
         <f>'AU Pop'!H22</f>
         <v>9.5612474089386751E-2</v>
       </c>
-      <c r="D62" s="391">
+      <c r="D62" s="403">
         <f>'A&amp;TSI Pop'!L11</f>
         <v>1405253</v>
       </c>
-      <c r="E62" s="396">
-        <f t="shared" ref="E62:E68" si="9">D62/SUM($D$61:$D$68)</f>
+      <c r="E62" s="380">
+        <f t="shared" ref="E62:E68" si="12">D62/SUM($D$61:$D$68)</f>
         <v>0.12109420846479671</v>
       </c>
-      <c r="F62" s="386">
+      <c r="F62" s="385">
         <f>'A&amp;TSI Pop'!L29</f>
         <v>1333829</v>
       </c>
-      <c r="G62" s="396">
-        <f t="shared" ref="G62:G70" si="10">F62/SUM($F$61:$F$68)</f>
+      <c r="G62" s="380">
+        <f t="shared" ref="G62:G70" si="13">F62/SUM($F$61:$F$68)</f>
         <v>0.11315223148858543</v>
       </c>
       <c r="H62" s="363">
@@ -8799,23 +8800,23 @@
       <c r="K62" s="58"/>
       <c r="M62" s="58"/>
       <c r="N62" s="74"/>
-      <c r="O62" s="394">
+      <c r="O62" s="391">
         <f>'A&amp;TSI Pop'!H11</f>
         <v>85770</v>
       </c>
-      <c r="P62" s="396">
-        <f t="shared" ref="P62:P70" si="11">O62/SUM($O$61:$O$68)</f>
+      <c r="P62" s="380">
+        <f t="shared" ref="P62:P70" si="14">O62/SUM($O$61:$O$68)</f>
         <v>0.21527911990823592</v>
       </c>
-      <c r="Q62" s="398">
+      <c r="Q62" s="393">
         <f>'A&amp;TSI Pop'!H29</f>
         <v>81992</v>
       </c>
-      <c r="R62" s="396">
-        <f t="shared" ref="R62:R70" si="12">Q62/SUM($Q$61:$Q$68)</f>
+      <c r="R62" s="380">
+        <f t="shared" ref="R62:R70" si="15">Q62/SUM($Q$61:$Q$68)</f>
         <v>0.20500460055206624</v>
       </c>
-      <c r="S62" s="400">
+      <c r="S62" s="395">
         <f>'A&amp;TSI Pop'!H47</f>
         <v>167762</v>
       </c>
@@ -8823,15 +8824,15 @@
       <c r="V62" s="58"/>
       <c r="X62" s="74"/>
       <c r="Y62" s="74"/>
-      <c r="Z62" s="386">
+      <c r="Z62" s="385">
         <f>O62+D62</f>
         <v>1491023</v>
       </c>
-      <c r="AA62" s="388">
+      <c r="AA62" s="400">
         <f>Q62+F62</f>
         <v>1415821</v>
       </c>
-      <c r="AB62" s="390">
+      <c r="AB62" s="402">
         <f>S62+H62</f>
         <v>2906844</v>
       </c>
@@ -8855,10 +8856,10 @@
         <f>'AU Pop'!H25</f>
         <v>2.4952286703894818E-2</v>
       </c>
-      <c r="D63" s="392"/>
-      <c r="E63" s="397"/>
-      <c r="F63" s="387"/>
-      <c r="G63" s="397"/>
+      <c r="D63" s="404"/>
+      <c r="E63" s="381"/>
+      <c r="F63" s="386"/>
+      <c r="G63" s="381"/>
       <c r="H63" s="364"/>
       <c r="I63" s="80">
         <f>'Prison Pop'!L58</f>
@@ -8869,15 +8870,15 @@
         <v>23</v>
       </c>
       <c r="M63" s="80">
-        <f t="shared" ref="M63:M68" si="13">SUM(I63,K63)</f>
+        <f t="shared" ref="M63:M68" si="16">SUM(I63,K63)</f>
         <v>376</v>
       </c>
       <c r="N63" s="74"/>
-      <c r="O63" s="395"/>
-      <c r="P63" s="397"/>
-      <c r="Q63" s="399"/>
-      <c r="R63" s="397"/>
-      <c r="S63" s="401"/>
+      <c r="O63" s="392"/>
+      <c r="P63" s="381"/>
+      <c r="Q63" s="394"/>
+      <c r="R63" s="381"/>
+      <c r="S63" s="396"/>
       <c r="T63" s="80">
         <f>'Prison Pop'!L6</f>
         <v>348</v>
@@ -8887,23 +8888,23 @@
         <v>30</v>
       </c>
       <c r="X63" s="80">
-        <f t="shared" ref="X63:X68" si="14">SUM(T63,V63)</f>
+        <f t="shared" ref="X63:X68" si="17">SUM(T63,V63)</f>
         <v>378</v>
       </c>
       <c r="Y63" s="74"/>
-      <c r="Z63" s="387"/>
-      <c r="AA63" s="389"/>
-      <c r="AB63" s="389"/>
+      <c r="Z63" s="386"/>
+      <c r="AA63" s="401"/>
+      <c r="AB63" s="401"/>
       <c r="AC63" s="80">
-        <f t="shared" ref="AC63:AC68" si="15">T63+I63</f>
+        <f t="shared" ref="AC63:AC68" si="18">T63+I63</f>
         <v>701</v>
       </c>
       <c r="AE63" s="80">
-        <f t="shared" ref="AE63:AE68" si="16">V63+K63</f>
+        <f t="shared" ref="AE63:AE68" si="19">V63+K63</f>
         <v>53</v>
       </c>
       <c r="AG63" s="80">
-        <f t="shared" ref="AG63:AG68" si="17">SUM(AC63,AE63)</f>
+        <f t="shared" ref="AG63:AG68" si="20">SUM(AC63,AE63)</f>
         <v>754</v>
       </c>
       <c r="AH63" s="74"/>
@@ -8929,7 +8930,7 @@
         <v>1702705</v>
       </c>
       <c r="E64" s="100">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.14672640031656342</v>
       </c>
       <c r="F64" s="109">
@@ -8937,7 +8938,7 @@
         <v>1668970</v>
       </c>
       <c r="G64" s="99">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.14158312631342129</v>
       </c>
       <c r="H64" s="109">
@@ -8961,7 +8962,7 @@
         <v>0.42061870494975945</v>
       </c>
       <c r="M64" s="105">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>8439</v>
       </c>
       <c r="N64" s="186">
@@ -8973,7 +8974,7 @@
         <v>70004</v>
       </c>
       <c r="P64" s="100">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.17570711799062783</v>
       </c>
       <c r="Q64" s="184">
@@ -8981,7 +8982,7 @@
         <v>66691</v>
       </c>
       <c r="R64" s="100">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.16674750970116414</v>
       </c>
       <c r="S64" s="164">
@@ -9005,7 +9006,7 @@
         <v>6.6125864059618236</v>
       </c>
       <c r="X64" s="105">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>4604</v>
       </c>
       <c r="Y64" s="186">
@@ -9013,19 +9014,19 @@
         <v>33.680822268554081</v>
       </c>
       <c r="Z64" s="108">
-        <f t="shared" ref="Z64:Z70" si="18">O64+D64</f>
+        <f t="shared" ref="Z64:Z70" si="21">O64+D64</f>
         <v>1772709</v>
       </c>
       <c r="AA64" s="170">
-        <f t="shared" ref="AA64:AA70" si="19">Q64+F64</f>
+        <f t="shared" ref="AA64:AA70" si="22">Q64+F64</f>
         <v>1735661</v>
       </c>
       <c r="AB64" s="183">
-        <f t="shared" ref="AB64:AB70" si="20">S64+H64</f>
+        <f t="shared" ref="AB64:AB70" si="23">S64+H64</f>
         <v>3508370</v>
       </c>
       <c r="AC64" s="103">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>11900</v>
       </c>
       <c r="AD64" s="191">
@@ -9033,7 +9034,7 @@
         <v>6.7128897072221099</v>
       </c>
       <c r="AE64" s="180">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1143</v>
       </c>
       <c r="AF64" s="218">
@@ -9041,7 +9042,7 @@
         <v>0.65853873538669128</v>
       </c>
       <c r="AG64" s="105">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>13043</v>
       </c>
       <c r="AH64" s="194">
@@ -9066,7 +9067,7 @@
         <v>1647555</v>
       </c>
       <c r="E65" s="100">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.14197398520210819</v>
       </c>
       <c r="F65" s="109">
@@ -9074,7 +9075,7 @@
         <v>1659922</v>
       </c>
       <c r="G65" s="100">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.14081556061308886</v>
       </c>
       <c r="H65" s="109">
@@ -9098,7 +9099,7 @@
         <v>0.48676986027054281</v>
       </c>
       <c r="M65" s="105">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>10529</v>
       </c>
       <c r="N65" s="187">
@@ -9110,7 +9111,7 @@
         <v>46374</v>
       </c>
       <c r="P65" s="100">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.11639680432114415</v>
       </c>
       <c r="Q65" s="184">
@@ -9118,7 +9119,7 @@
         <v>47696</v>
       </c>
       <c r="R65" s="100">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.11925431051726207</v>
       </c>
       <c r="S65" s="164">
@@ -9142,7 +9143,7 @@
         <v>9.1412277759141229</v>
       </c>
       <c r="X65" s="105">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>4055</v>
       </c>
       <c r="Y65" s="187">
@@ -9150,19 +9151,19 @@
         <v>43.106197512490702</v>
       </c>
       <c r="Z65" s="109">
+        <f t="shared" si="21"/>
+        <v>1693929</v>
+      </c>
+      <c r="AA65" s="164">
+        <f t="shared" si="22"/>
+        <v>1707618</v>
+      </c>
+      <c r="AB65" s="184">
+        <f t="shared" si="23"/>
+        <v>3401547</v>
+      </c>
+      <c r="AC65" s="103">
         <f t="shared" si="18"/>
-        <v>1693929</v>
-      </c>
-      <c r="AA65" s="164">
-        <f t="shared" si="19"/>
-        <v>1707618</v>
-      </c>
-      <c r="AB65" s="184">
-        <f t="shared" si="20"/>
-        <v>3401547</v>
-      </c>
-      <c r="AC65" s="103">
-        <f t="shared" si="15"/>
         <v>13340</v>
       </c>
       <c r="AD65" s="192">
@@ -9170,7 +9171,7 @@
         <v>7.8751824899390703</v>
       </c>
       <c r="AE65" s="180">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1244</v>
       </c>
       <c r="AF65" s="219">
@@ -9178,7 +9179,7 @@
         <v>0.72850016807037643</v>
       </c>
       <c r="AG65" s="105">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>14584</v>
       </c>
       <c r="AH65" s="195">
@@ -9206,7 +9207,7 @@
         <v>1551221</v>
       </c>
       <c r="E66" s="100">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.13367264054869152</v>
       </c>
       <c r="F66" s="109">
@@ -9214,7 +9215,7 @@
         <v>1592347</v>
       </c>
       <c r="G66" s="100">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.13508299516216438</v>
       </c>
       <c r="H66" s="109">
@@ -9238,7 +9239,7 @@
         <v>0.32781799444467818</v>
       </c>
       <c r="M66" s="105">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>6767</v>
       </c>
       <c r="N66" s="187">
@@ -9250,7 +9251,7 @@
         <v>42087</v>
       </c>
       <c r="P66" s="100">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.10563661326312143</v>
       </c>
       <c r="Q66" s="184">
@@ -9258,7 +9259,7 @@
         <v>46051</v>
       </c>
       <c r="R66" s="100">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.11514131695803496</v>
       </c>
       <c r="S66" s="164">
@@ -9282,7 +9283,7 @@
         <v>4.4733013398188959</v>
       </c>
       <c r="X66" s="105">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>2073</v>
       </c>
       <c r="Y66" s="187">
@@ -9290,19 +9291,19 @@
         <v>23.519934647938459</v>
       </c>
       <c r="Z66" s="109">
+        <f t="shared" si="21"/>
+        <v>1593308</v>
+      </c>
+      <c r="AA66" s="164">
+        <f t="shared" si="22"/>
+        <v>1638398</v>
+      </c>
+      <c r="AB66" s="184">
+        <f t="shared" si="23"/>
+        <v>3231706</v>
+      </c>
+      <c r="AC66" s="103">
         <f t="shared" si="18"/>
-        <v>1593308</v>
-      </c>
-      <c r="AA66" s="164">
-        <f t="shared" si="19"/>
-        <v>1638398</v>
-      </c>
-      <c r="AB66" s="184">
-        <f t="shared" si="20"/>
-        <v>3231706</v>
-      </c>
-      <c r="AC66" s="103">
-        <f t="shared" si="15"/>
         <v>8112</v>
       </c>
       <c r="AD66" s="192">
@@ -9310,7 +9311,7 @@
         <v>5.0912943385710738</v>
       </c>
       <c r="AE66" s="180">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>728</v>
       </c>
       <c r="AF66" s="219">
@@ -9318,7 +9319,7 @@
         <v>0.44433647990292957</v>
       </c>
       <c r="AG66" s="105">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>8840</v>
       </c>
       <c r="AH66" s="195">
@@ -9355,7 +9356,7 @@
         <v>1502388</v>
       </c>
       <c r="G67" s="100">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.12745153596276051</v>
       </c>
       <c r="H67" s="109">
@@ -9379,7 +9380,7 @@
         <v>0.1550864357276549</v>
       </c>
       <c r="M67" s="105">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>3118</v>
       </c>
       <c r="N67" s="187">
@@ -9391,7 +9392,7 @@
         <v>32099</v>
       </c>
       <c r="P67" s="100">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>8.0567150168292703E-2</v>
       </c>
       <c r="Q67" s="184">
@@ -9399,7 +9400,7 @@
         <v>35477</v>
       </c>
       <c r="R67" s="100">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>8.870314437732528E-2</v>
       </c>
       <c r="S67" s="164">
@@ -9423,7 +9424,7 @@
         <v>1.240240155593765</v>
       </c>
       <c r="X67" s="105">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>642</v>
       </c>
       <c r="Y67" s="187">
@@ -9431,19 +9432,19 @@
         <v>9.5004143482893344</v>
       </c>
       <c r="Z67" s="109">
+        <f t="shared" si="21"/>
+        <v>1486526</v>
+      </c>
+      <c r="AA67" s="164">
+        <f t="shared" si="22"/>
+        <v>1537865</v>
+      </c>
+      <c r="AB67" s="184">
+        <f t="shared" si="23"/>
+        <v>3024391</v>
+      </c>
+      <c r="AC67" s="103">
         <f t="shared" si="18"/>
-        <v>1486526</v>
-      </c>
-      <c r="AA67" s="164">
-        <f t="shared" si="19"/>
-        <v>1537865</v>
-      </c>
-      <c r="AB67" s="184">
-        <f t="shared" si="20"/>
-        <v>3024391</v>
-      </c>
-      <c r="AC67" s="103">
-        <f t="shared" si="15"/>
         <v>3483</v>
       </c>
       <c r="AD67" s="192">
@@ -9451,7 +9452,7 @@
         <v>2.3430468084648366</v>
       </c>
       <c r="AE67" s="180">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>277</v>
       </c>
       <c r="AF67" s="219">
@@ -9459,7 +9460,7 @@
         <v>0.18011984146852941</v>
       </c>
       <c r="AG67" s="105">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3760</v>
       </c>
       <c r="AH67" s="195">
@@ -9487,7 +9488,7 @@
         <v>2327464</v>
       </c>
       <c r="E68" s="101">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.20056346494923663</v>
       </c>
       <c r="F68" s="76">
@@ -9495,7 +9496,7 @@
         <v>2593242</v>
       </c>
       <c r="G68" s="101">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.21999155745595744</v>
       </c>
       <c r="H68" s="76">
@@ -9519,7 +9520,7 @@
         <v>2.0823355475501321E-2</v>
       </c>
       <c r="M68" s="79">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1917</v>
       </c>
       <c r="N68" s="188">
@@ -9531,7 +9532,7 @@
         <v>25968</v>
       </c>
       <c r="P68" s="101">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>6.5178596079947193E-2</v>
       </c>
       <c r="Q68" s="185">
@@ -9539,7 +9540,7 @@
         <v>30468</v>
       </c>
       <c r="R68" s="101">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>7.6179141496979644E-2</v>
       </c>
       <c r="S68" s="169">
@@ -9563,7 +9564,7 @@
         <v>9.8463962189838522E-2</v>
       </c>
       <c r="X68" s="79">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>123</v>
       </c>
       <c r="Y68" s="188">
@@ -9571,19 +9572,19 @@
         <v>2.1794599192005104</v>
       </c>
       <c r="Z68" s="76">
+        <f t="shared" si="21"/>
+        <v>2353432</v>
+      </c>
+      <c r="AA68" s="169">
+        <f t="shared" si="22"/>
+        <v>2623710</v>
+      </c>
+      <c r="AB68" s="185">
+        <f t="shared" si="23"/>
+        <v>4977142</v>
+      </c>
+      <c r="AC68" s="104">
         <f t="shared" si="18"/>
-        <v>2353432</v>
-      </c>
-      <c r="AA68" s="169">
-        <f t="shared" si="19"/>
-        <v>2623710</v>
-      </c>
-      <c r="AB68" s="185">
-        <f t="shared" si="20"/>
-        <v>4977142</v>
-      </c>
-      <c r="AC68" s="104">
-        <f t="shared" si="15"/>
         <v>1983</v>
       </c>
       <c r="AD68" s="193">
@@ -9591,7 +9592,7 @@
         <v>0.84259923379982948</v>
       </c>
       <c r="AE68" s="181">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>57</v>
       </c>
       <c r="AF68" s="220">
@@ -9599,7 +9600,7 @@
         <v>2.1724961981316532E-2</v>
       </c>
       <c r="AG68" s="79">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2040</v>
       </c>
       <c r="AH68" s="196">
@@ -9633,7 +9634,7 @@
         <v>1251412</v>
       </c>
       <c r="G69" s="367">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.1061605800380661</v>
       </c>
       <c r="H69" s="163">
@@ -9651,7 +9652,7 @@
         <v>17984</v>
       </c>
       <c r="P69" s="367">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>4.5139089336944327E-2</v>
       </c>
       <c r="Q69" s="168">
@@ -9659,7 +9660,7 @@
         <v>19856</v>
       </c>
       <c r="R69" s="367">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>4.9645957514901785E-2</v>
       </c>
       <c r="S69" s="163">
@@ -9673,15 +9674,15 @@
       <c r="X69" s="180"/>
       <c r="Y69" s="375"/>
       <c r="Z69" s="161">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1226696</v>
       </c>
       <c r="AA69" s="163">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1271268</v>
       </c>
       <c r="AB69" s="163">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>2497964</v>
       </c>
       <c r="AC69" s="180"/>
@@ -9713,7 +9714,7 @@
         <v>1341830</v>
       </c>
       <c r="G70" s="376">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.11383097741789133</v>
       </c>
       <c r="H70" s="378">
@@ -9731,7 +9732,7 @@
         <v>7984</v>
       </c>
       <c r="P70" s="376">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2.0039506743002863E-2</v>
       </c>
       <c r="Q70" s="377">
@@ -9739,7 +9740,7 @@
         <v>10612</v>
       </c>
       <c r="R70" s="376">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>2.6533183982077848E-2</v>
       </c>
       <c r="S70" s="378">
@@ -9753,15 +9754,15 @@
       <c r="X70" s="180"/>
       <c r="Y70" s="375"/>
       <c r="Z70" s="379">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1126736</v>
       </c>
       <c r="AA70" s="378">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1352442</v>
       </c>
       <c r="AB70" s="378">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>2479178</v>
       </c>
       <c r="AC70" s="180"/>
@@ -9779,10 +9780,10 @@
       <c r="A72" s="295" t="s">
         <v>528</v>
       </c>
-      <c r="B72" s="385">
+      <c r="B72" s="387">
         <v>2019</v>
       </c>
-      <c r="C72" s="385"/>
+      <c r="C72" s="387"/>
       <c r="D72" s="382">
         <v>2016</v>
       </c>
@@ -9813,11 +9814,11 @@
       <c r="W72" s="383"/>
       <c r="X72" s="383"/>
       <c r="Y72" s="384"/>
-      <c r="Z72" s="385">
+      <c r="Z72" s="387">
         <v>2016</v>
       </c>
-      <c r="AA72" s="385"/>
-      <c r="AB72" s="385"/>
+      <c r="AA72" s="387"/>
+      <c r="AB72" s="387"/>
       <c r="AC72" s="382">
         <v>2019</v>
       </c>
@@ -9992,7 +9993,7 @@
         <v>2921254</v>
       </c>
       <c r="E75" s="371">
-        <f t="shared" ref="E75:E80" si="21">D75/SUM($D$75:$D$80)</f>
+        <f t="shared" ref="E75:E80" si="24">D75/SUM($D$75:$D$80)</f>
         <v>0.25173185245263396</v>
       </c>
       <c r="F75" s="161">
@@ -10000,7 +10001,7 @@
         <v>2771047</v>
       </c>
       <c r="G75" s="371">
-        <f t="shared" ref="G75:G80" si="22">F75/SUM($F$75:$F$80)</f>
+        <f t="shared" ref="G75:G80" si="25">F75/SUM($F$75:$F$80)</f>
         <v>0.23507522449260751</v>
       </c>
       <c r="H75" s="161">
@@ -10032,15 +10033,15 @@
       <c r="X75" s="159"/>
       <c r="Y75" s="160"/>
       <c r="Z75" s="168">
-        <f t="shared" ref="Z75:Z80" si="23">O75+D75</f>
+        <f t="shared" ref="Z75:Z80" si="26">O75+D75</f>
         <v>3103135</v>
       </c>
       <c r="AA75" s="168">
-        <f t="shared" ref="AA75:AA80" si="24">Q75+F75</f>
+        <f t="shared" ref="AA75:AA80" si="27">Q75+F75</f>
         <v>2944616</v>
       </c>
       <c r="AB75" s="163">
-        <f t="shared" ref="AB75:AB80" si="25">S75+H75</f>
+        <f t="shared" ref="AB75:AB80" si="28">S75+H75</f>
         <v>6047751</v>
       </c>
       <c r="AC75" s="158"/>
@@ -10065,7 +10066,7 @@
         <v>826809</v>
       </c>
       <c r="E76" s="372">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>7.1248224630418938E-2</v>
       </c>
       <c r="F76" s="108">
@@ -10073,7 +10074,7 @@
         <v>793203</v>
       </c>
       <c r="G76" s="372">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>6.7289502232625337E-2</v>
       </c>
       <c r="H76" s="108">
@@ -10117,7 +10118,7 @@
         <v>35897</v>
       </c>
       <c r="R76" s="372">
-        <f t="shared" ref="R76:R80" si="26">Q76/SUM($Q$75:$Q$80)</f>
+        <f t="shared" ref="R76:R80" si="29">Q76/SUM($Q$75:$Q$80)</f>
         <v>8.9753270392447099E-2</v>
       </c>
       <c r="S76" s="164">
@@ -10149,15 +10150,15 @@
         <v>34.351461662153724</v>
       </c>
       <c r="Z76" s="108">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>864974</v>
       </c>
       <c r="AA76" s="170">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>829100</v>
       </c>
       <c r="AB76" s="183">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>1694074</v>
       </c>
       <c r="AC76" s="103">
@@ -10202,7 +10203,7 @@
         <v>1742567</v>
       </c>
       <c r="E77" s="373">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0.15016140976882839</v>
       </c>
       <c r="F77" s="109">
@@ -10210,7 +10211,7 @@
         <v>1752002</v>
       </c>
       <c r="G77" s="373">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0.14862694983574704</v>
       </c>
       <c r="H77" s="109">
@@ -10254,7 +10255,7 @@
         <v>56583</v>
       </c>
       <c r="R77" s="373">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0.14147447693723247</v>
       </c>
       <c r="S77" s="164">
@@ -10286,15 +10287,15 @@
         <v>42.241854947475765</v>
       </c>
       <c r="Z77" s="109">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>1799796</v>
       </c>
       <c r="AA77" s="164">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>1808585</v>
       </c>
       <c r="AB77" s="184">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>3608381</v>
       </c>
       <c r="AC77" s="103">
@@ -10302,7 +10303,7 @@
         <v>14221</v>
       </c>
       <c r="AD77" s="175">
-        <f t="shared" ref="AD77:AD80" si="27">AC77/(Z77/1000)</f>
+        <f t="shared" ref="AD77:AD80" si="30">AC77/(Z77/1000)</f>
         <v>7.9014510533416011</v>
       </c>
       <c r="AE77" s="180">
@@ -10310,7 +10311,7 @@
         <v>1293</v>
       </c>
       <c r="AF77" s="175">
-        <f t="shared" ref="AF77:AF80" si="28">AE77/(AA77/1000)</f>
+        <f t="shared" ref="AF77:AF80" si="31">AE77/(AA77/1000)</f>
         <v>0.71492354520246493</v>
       </c>
       <c r="AG77" s="180">
@@ -10318,7 +10319,7 @@
         <v>15521.901451053342</v>
       </c>
       <c r="AH77" s="175">
-        <f t="shared" ref="AH77:AH80" si="29">AG77/(AB77/1000)</f>
+        <f t="shared" ref="AH77:AH80" si="32">AG77/(AB77/1000)</f>
         <v>4.3016248702820858</v>
       </c>
     </row>
@@ -10339,7 +10340,7 @@
         <v>1566762</v>
       </c>
       <c r="E78" s="373">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0.1350118478613615</v>
       </c>
       <c r="F78" s="109">
@@ -10347,7 +10348,7 @@
         <v>1579694</v>
       </c>
       <c r="G78" s="373">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0.13400960780514554</v>
       </c>
       <c r="H78" s="109">
@@ -10383,7 +10384,7 @@
         <v>42746</v>
       </c>
       <c r="P78" s="373">
-        <f t="shared" ref="P78:P80" si="30">O78/SUM($O$75:$O$80)</f>
+        <f t="shared" ref="P78:P80" si="33">O78/SUM($O$75:$O$80)</f>
         <v>0.10729067575606217</v>
       </c>
       <c r="Q78" s="107">
@@ -10391,7 +10392,7 @@
         <v>45036</v>
       </c>
       <c r="R78" s="373">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0.11260351242149058</v>
       </c>
       <c r="S78" s="164">
@@ -10423,15 +10424,15 @@
         <v>35.573373434660205</v>
       </c>
       <c r="Z78" s="109">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>1609508</v>
       </c>
       <c r="AA78" s="164">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>1624730</v>
       </c>
       <c r="AB78" s="184">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>3234238</v>
       </c>
       <c r="AC78" s="103">
@@ -10439,7 +10440,7 @@
         <v>10868</v>
       </c>
       <c r="AD78" s="175">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>6.7523740174015909</v>
       </c>
       <c r="AE78" s="180">
@@ -10447,7 +10448,7 @@
         <v>1011</v>
       </c>
       <c r="AF78" s="175">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0.62225723658700216</v>
       </c>
       <c r="AG78" s="180">
@@ -10455,7 +10456,7 @@
         <v>11885.752374017402</v>
       </c>
       <c r="AH78" s="175">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>3.674977652855913</v>
       </c>
     </row>
@@ -10476,7 +10477,7 @@
         <v>1510465</v>
       </c>
       <c r="E79" s="373">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0.1301605928532294</v>
       </c>
       <c r="F79" s="109">
@@ -10484,7 +10485,7 @@
         <v>1562479</v>
       </c>
       <c r="G79" s="373">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0.13254921395775132</v>
       </c>
       <c r="H79" s="109">
@@ -10520,7 +10521,7 @@
         <v>37991</v>
       </c>
       <c r="P79" s="373">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>9.5355824232643008E-2</v>
       </c>
       <c r="Q79" s="107">
@@ -10528,7 +10529,7 @@
         <v>42471</v>
       </c>
       <c r="R79" s="373">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0.1061902428291395</v>
       </c>
       <c r="S79" s="164">
@@ -10560,15 +10561,15 @@
         <v>16.161690453890525</v>
       </c>
       <c r="Z79" s="109">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>1548456</v>
       </c>
       <c r="AA79" s="164">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>1604950</v>
       </c>
       <c r="AB79" s="184">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>3153406</v>
       </c>
       <c r="AC79" s="103">
@@ -10576,7 +10577,7 @@
         <v>5641</v>
       </c>
       <c r="AD79" s="175">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>3.6429837205577686</v>
       </c>
       <c r="AE79" s="180">
@@ -10584,7 +10585,7 @@
         <v>478</v>
       </c>
       <c r="AF79" s="175">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0.29782859279105267</v>
       </c>
       <c r="AG79" s="180">
@@ -10592,7 +10593,7 @@
         <v>6122.6429837205578</v>
       </c>
       <c r="AH79" s="175">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>1.9415967952495041</v>
       </c>
     </row>
@@ -10613,7 +10614,7 @@
         <v>3036769</v>
       </c>
       <c r="E80" s="374">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0.26168607243352782</v>
       </c>
       <c r="F80" s="76">
@@ -10621,7 +10622,7 @@
         <v>3329491</v>
       </c>
       <c r="G80" s="374">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0.28244950167612326</v>
       </c>
       <c r="H80" s="76">
@@ -10657,7 +10658,7 @@
         <v>40401</v>
       </c>
       <c r="P80" s="374">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>0.1014048236377829</v>
       </c>
       <c r="Q80" s="73">
@@ -10665,7 +10666,7 @@
         <v>46396</v>
       </c>
       <c r="R80" s="374">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0.11600392047045645</v>
       </c>
       <c r="S80" s="169">
@@ -10697,15 +10698,15 @@
         <v>3.8670498466133232</v>
       </c>
       <c r="Z80" s="76">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>3077170</v>
       </c>
       <c r="AA80" s="169">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>3375887</v>
       </c>
       <c r="AB80" s="185">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>6453057</v>
       </c>
       <c r="AC80" s="104">
@@ -10713,7 +10714,7 @@
         <v>3298</v>
       </c>
       <c r="AD80" s="176">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>1.071763990939727</v>
       </c>
       <c r="AE80" s="181">
@@ -10721,7 +10722,7 @@
         <v>169</v>
       </c>
       <c r="AF80" s="176">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>5.0060917323358274E-2</v>
       </c>
       <c r="AG80" s="181">
@@ -10729,7 +10730,7 @@
         <v>3468.0717639909399</v>
       </c>
       <c r="AH80" s="176">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.53743082758930227</v>
       </c>
     </row>
@@ -11252,18 +11253,18 @@
     <row r="103" spans="1:12">
       <c r="A103" s="1"/>
       <c r="B103" s="197"/>
-      <c r="C103" s="380" t="s">
+      <c r="C103" s="398" t="s">
         <v>11</v>
       </c>
-      <c r="D103" s="381"/>
-      <c r="E103" s="380" t="s">
+      <c r="D103" s="399"/>
+      <c r="E103" s="398" t="s">
         <v>237</v>
       </c>
-      <c r="F103" s="381"/>
-      <c r="G103" s="380" t="s">
+      <c r="F103" s="399"/>
+      <c r="G103" s="398" t="s">
         <v>146</v>
       </c>
-      <c r="H103" s="381"/>
+      <c r="H103" s="399"/>
       <c r="I103" s="197"/>
       <c r="J103" s="197"/>
     </row>
@@ -11326,10 +11327,7 @@
         <v>0</v>
       </c>
       <c r="I105" s="197"/>
-      <c r="J105" s="180">
-        <f>E105+G105</f>
-        <v>13043</v>
-      </c>
+      <c r="J105" s="180"/>
     </row>
     <row r="106" spans="1:12">
       <c r="A106" s="1" t="s">
@@ -11344,7 +11342,7 @@
         <v>14584</v>
       </c>
       <c r="D106" s="105">
-        <f t="shared" ref="D106:D109" si="31">C106*B106</f>
+        <f t="shared" ref="D106:D109" si="34">C106*B106</f>
         <v>12.929078014184396</v>
       </c>
       <c r="E106" s="180">
@@ -11352,7 +11350,7 @@
         <v>10529</v>
       </c>
       <c r="F106" s="105">
-        <f t="shared" ref="F106:F109" si="32">E106*B106</f>
+        <f t="shared" ref="F106:F109" si="35">E106*B106</f>
         <v>9.3342198581560289</v>
       </c>
       <c r="G106" s="103">
@@ -11360,7 +11358,7 @@
         <v>4055</v>
       </c>
       <c r="H106" s="105">
-        <f t="shared" ref="H106:H109" si="33">G106*B106</f>
+        <f t="shared" ref="H106:H109" si="36">G106*B106</f>
         <v>3.5948581560283688</v>
       </c>
       <c r="I106" s="197"/>
@@ -11379,7 +11377,7 @@
         <v>8840</v>
       </c>
       <c r="D107" s="105">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>9.7787610619469021</v>
       </c>
       <c r="E107" s="180">
@@ -11387,7 +11385,7 @@
         <v>6767</v>
       </c>
       <c r="F107" s="105">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>7.485619469026549</v>
       </c>
       <c r="G107" s="103">
@@ -11395,7 +11393,7 @@
         <v>2073</v>
       </c>
       <c r="H107" s="105">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>2.293141592920354</v>
       </c>
       <c r="I107" s="197"/>
@@ -11414,7 +11412,7 @@
         <v>3760</v>
       </c>
       <c r="D108" s="105">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>6.6666666666666661</v>
       </c>
       <c r="E108" s="180">
@@ -11422,7 +11420,7 @@
         <v>3118</v>
       </c>
       <c r="F108" s="105">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>5.5283687943262407</v>
       </c>
       <c r="G108" s="103">
@@ -11430,7 +11428,7 @@
         <v>642</v>
       </c>
       <c r="H108" s="105">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>1.1382978723404256</v>
       </c>
       <c r="I108" s="197"/>
@@ -11449,7 +11447,7 @@
         <v>2040</v>
       </c>
       <c r="D109" s="79">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>93.803994426381792</v>
       </c>
       <c r="E109" s="180">
@@ -11457,7 +11455,7 @@
         <v>1917</v>
       </c>
       <c r="F109" s="79">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>88.14816535067348</v>
       </c>
       <c r="G109" s="103">
@@ -11465,7 +11463,7 @@
         <v>123</v>
       </c>
       <c r="H109" s="79">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>5.6558290757083141</v>
       </c>
       <c r="I109" s="197"/>
@@ -11481,7 +11479,7 @@
         <v>42267</v>
       </c>
       <c r="D110" s="201">
-        <f t="shared" ref="D110:H110" si="34">SUM(D105:D109)</f>
+        <f t="shared" ref="D110:H110" si="37">SUM(D105:D109)</f>
         <v>123.17850016917976</v>
       </c>
       <c r="E110" s="201">
@@ -11489,7 +11487,7 @@
         <v>30770</v>
       </c>
       <c r="F110" s="201">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>110.4963734721823</v>
       </c>
       <c r="G110" s="201">
@@ -11497,7 +11495,7 @@
         <v>11497</v>
       </c>
       <c r="H110" s="201">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>12.682126696997461</v>
       </c>
       <c r="I110" s="197"/>
@@ -11695,11 +11693,11 @@
         <v>0.13</v>
       </c>
       <c r="M116" s="180">
-        <f t="shared" ref="M116:M124" si="35">B116*L116</f>
+        <f t="shared" ref="M116:M124" si="38">B116*L116</f>
         <v>5137.47</v>
       </c>
       <c r="N116" s="180">
-        <f t="shared" ref="N116:N124" si="36">M116*$C$35</f>
+        <f t="shared" ref="N116:N124" si="39">M116*$C$35</f>
         <v>0</v>
       </c>
       <c r="O116" s="99">
@@ -11717,7 +11715,7 @@
         <v>0.01</v>
       </c>
       <c r="S116" s="180">
-        <f t="shared" ref="S116:S124" si="37">B116*R116</f>
+        <f t="shared" ref="S116:S124" si="40">B116*R116</f>
         <v>395.19</v>
       </c>
       <c r="T116" s="180">
@@ -11737,21 +11735,21 @@
         <v>0.25</v>
       </c>
       <c r="Z116" s="203">
-        <f t="shared" ref="Z116:Z124" si="38">B116*Y116</f>
+        <f t="shared" ref="Z116:Z124" si="41">B116*Y116</f>
         <v>9879.75</v>
       </c>
       <c r="AA116" s="113">
         <v>0.74</v>
       </c>
       <c r="AB116" s="80">
-        <f t="shared" ref="AB116:AB124" si="39">B116*AA116</f>
+        <f t="shared" ref="AB116:AB124" si="42">B116*AA116</f>
         <v>29244.06</v>
       </c>
       <c r="AC116" s="113">
         <v>0.11</v>
       </c>
       <c r="AD116" s="80">
-        <f t="shared" ref="AD116:AD124" si="40">B116*AC116</f>
+        <f t="shared" ref="AD116:AD124" si="43">B116*AC116</f>
         <v>4347.09</v>
       </c>
     </row>
@@ -11789,40 +11787,40 @@
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="J117" s="181">
-        <f t="shared" ref="J117:J124" si="41">B117*I117</f>
+        <f t="shared" ref="J117:J124" si="44">B117*I117</f>
         <v>168.096</v>
       </c>
       <c r="K117" s="190">
-        <f t="shared" ref="K117:K124" si="42">J117*$C$34</f>
+        <f t="shared" ref="K117:K124" si="45">J117*$C$34</f>
         <v>10.590047999999999</v>
       </c>
       <c r="L117" s="298">
         <v>0.27</v>
       </c>
       <c r="M117" s="181">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>945.54000000000008</v>
       </c>
       <c r="N117" s="181">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="O117" s="101">
         <v>0.314</v>
       </c>
       <c r="P117" s="181">
-        <f t="shared" ref="P117:P124" si="43">B117*O117</f>
+        <f t="shared" ref="P117:P124" si="46">B117*O117</f>
         <v>1099.6279999999999</v>
       </c>
       <c r="Q117" s="190">
-        <f t="shared" ref="Q117:Q124" si="44">P117*$C$36</f>
+        <f t="shared" ref="Q117:Q124" si="47">P117*$C$36</f>
         <v>65.977679999999992</v>
       </c>
       <c r="R117" s="298">
         <v>0</v>
       </c>
       <c r="S117" s="181">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="T117" s="181">
@@ -11830,11 +11828,11 @@
         <v>0</v>
       </c>
       <c r="U117" s="103">
-        <f t="shared" ref="U117:U123" si="45">D117+G117+J117+M117+P117+S117</f>
+        <f t="shared" ref="U117:U123" si="48">D117+G117+J117+M117+P117+S117</f>
         <v>2423.384</v>
       </c>
       <c r="V117" s="189">
-        <f t="shared" ref="V117:V124" si="46">E117+H117+K117+N117+Q117+T117</f>
+        <f t="shared" ref="V117:V124" si="49">E117+H117+K117+N117+Q117+T117</f>
         <v>95.268407999999994</v>
       </c>
       <c r="X117" s="197"/>
@@ -11842,21 +11840,21 @@
         <v>0.36</v>
       </c>
       <c r="Z117" s="190">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>1260.72</v>
       </c>
       <c r="AA117" s="111">
         <v>0.86</v>
       </c>
       <c r="AB117" s="79">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>3011.72</v>
       </c>
       <c r="AC117" s="111">
         <v>0.05</v>
       </c>
       <c r="AD117" s="79">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>175.10000000000002</v>
       </c>
     </row>
@@ -11894,40 +11892,40 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="J118" s="202">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>534.375</v>
       </c>
       <c r="K118" s="203">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>33.665624999999999</v>
       </c>
       <c r="L118" s="299">
         <v>0.11</v>
       </c>
       <c r="M118" s="202">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>1306.25</v>
       </c>
       <c r="N118" s="202">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="O118" s="357">
         <v>0.33700000000000002</v>
       </c>
       <c r="P118" s="202">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>4001.8750000000005</v>
       </c>
       <c r="Q118" s="203">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>240.11250000000001</v>
       </c>
       <c r="R118" s="299">
         <v>0.01</v>
       </c>
       <c r="S118" s="202">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>118.75</v>
       </c>
       <c r="T118" s="202">
@@ -11935,11 +11933,11 @@
         <v>6.65</v>
       </c>
       <c r="U118" s="167">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>7623.75</v>
       </c>
       <c r="V118" s="203">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>420.79062499999998</v>
       </c>
       <c r="X118" s="197"/>
@@ -11947,21 +11945,21 @@
         <v>0.23</v>
       </c>
       <c r="Z118" s="203">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>2731.25</v>
       </c>
       <c r="AA118" s="110">
         <v>0.8</v>
       </c>
       <c r="AB118" s="80">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>9500</v>
       </c>
       <c r="AC118" s="110">
         <v>0.06</v>
       </c>
       <c r="AD118" s="80">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>712.5</v>
       </c>
     </row>
@@ -11999,40 +11997,40 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="J119" s="181">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>1401.57</v>
       </c>
       <c r="K119" s="190">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>88.298909999999992</v>
       </c>
       <c r="L119" s="298">
         <v>0.19</v>
       </c>
       <c r="M119" s="180">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>5917.74</v>
       </c>
       <c r="N119" s="180">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="O119" s="358">
         <v>0.33700000000000002</v>
       </c>
       <c r="P119" s="181">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>10496.202000000001</v>
       </c>
       <c r="Q119" s="190">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>629.77212000000009</v>
       </c>
       <c r="R119" s="298">
         <v>0.01</v>
       </c>
       <c r="S119" s="180">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>311.45999999999998</v>
       </c>
       <c r="T119" s="180">
@@ -12040,11 +12038,11 @@
         <v>17.441759999999999</v>
       </c>
       <c r="U119" s="103">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>20307.191999999999</v>
       </c>
       <c r="V119" s="189">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>924.56901000000005</v>
       </c>
       <c r="X119" s="197"/>
@@ -12052,21 +12050,21 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="Z119" s="190">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>8720.880000000001</v>
       </c>
       <c r="AA119" s="111">
         <v>0.73</v>
       </c>
       <c r="AB119" s="79">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>22736.579999999998</v>
       </c>
       <c r="AC119" s="111">
         <v>0.12</v>
       </c>
       <c r="AD119" s="79">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>3737.52</v>
       </c>
     </row>
@@ -12082,74 +12080,74 @@
         <v>0.01</v>
       </c>
       <c r="D120" s="167">
-        <f t="shared" ref="D120:D124" si="47">B120*C120</f>
+        <f t="shared" ref="D120:D124" si="50">B120*C120</f>
         <v>60.483481676905896</v>
       </c>
       <c r="E120" s="203">
-        <f t="shared" ref="E120:E124" si="48">D120*$C$32</f>
+        <f t="shared" ref="E120:E124" si="51">D120*$C$32</f>
         <v>6.3507655760751192</v>
       </c>
       <c r="F120" s="197">
         <v>0.01</v>
       </c>
       <c r="G120" s="167">
-        <f t="shared" ref="G120:G124" si="49">B120*F120</f>
+        <f t="shared" ref="G120:G124" si="52">B120*F120</f>
         <v>60.483481676905896</v>
       </c>
       <c r="H120" s="202">
-        <f t="shared" ref="H120:H124" si="50">G120*$C$33</f>
+        <f t="shared" ref="H120:H124" si="53">G120*$C$33</f>
         <v>4.4152941624141304</v>
       </c>
       <c r="I120" s="100">
         <v>0</v>
       </c>
       <c r="J120" s="180">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="K120" s="189">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="L120" s="197">
         <v>0.18</v>
       </c>
       <c r="M120" s="167">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>1088.702670184306</v>
       </c>
       <c r="N120" s="202">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="O120" s="100">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="P120" s="180">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>453.62611257679418</v>
       </c>
       <c r="Q120" s="189">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>27.217566754607649</v>
       </c>
       <c r="R120" s="197">
         <v>0.01</v>
       </c>
       <c r="S120" s="167">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>60.483481676905896</v>
       </c>
       <c r="T120" s="202">
-        <f t="shared" ref="T120:T124" si="51">S120*$C$37</f>
+        <f t="shared" ref="T120:T124" si="54">S120*$C$37</f>
         <v>3.3870749739067301</v>
       </c>
       <c r="U120" s="167">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>1723.7792277918179</v>
       </c>
       <c r="V120" s="203">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>41.370701467003627</v>
       </c>
       <c r="X120" s="307"/>
@@ -12157,21 +12155,21 @@
         <v>0.21</v>
       </c>
       <c r="Z120" s="203">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>1270.1531152150237</v>
       </c>
       <c r="AA120" s="113">
         <v>0.8</v>
       </c>
       <c r="AB120" s="80">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>4838.6785341524719</v>
       </c>
       <c r="AC120" s="113">
         <v>0.05</v>
       </c>
       <c r="AD120" s="80">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>302.41740838452949</v>
       </c>
     </row>
@@ -12187,74 +12185,74 @@
         <v>0.02</v>
       </c>
       <c r="D121" s="103">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>310.43802902106682</v>
       </c>
       <c r="E121" s="189">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>32.595993047212012</v>
       </c>
       <c r="F121" s="197">
         <v>0.03</v>
       </c>
       <c r="G121" s="103">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>465.65704353160021</v>
       </c>
       <c r="H121" s="180">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>33.992964177806812</v>
       </c>
       <c r="I121" s="100">
         <v>0</v>
       </c>
       <c r="J121" s="180">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="K121" s="189">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="L121" s="197">
         <v>0.15</v>
       </c>
       <c r="M121" s="103">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>2328.2852176580013</v>
       </c>
       <c r="N121" s="180">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="O121" s="100">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="P121" s="180">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>1164.1426088290007</v>
       </c>
       <c r="Q121" s="189">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>69.848556529740037</v>
       </c>
       <c r="R121" s="197">
         <v>0.01</v>
       </c>
       <c r="S121" s="103">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>155.21901451053341</v>
       </c>
       <c r="T121" s="180">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>8.6922648125898707</v>
       </c>
       <c r="U121" s="103">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>4423.7419135502023</v>
       </c>
       <c r="V121" s="189">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>145.12977856734875</v>
       </c>
       <c r="X121" s="307"/>
@@ -12262,21 +12260,21 @@
         <v>0.2</v>
       </c>
       <c r="Z121" s="189">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>3104.3802902106686</v>
       </c>
       <c r="AA121" s="113">
         <v>0.76</v>
       </c>
       <c r="AB121" s="105">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>11796.645102800539</v>
       </c>
       <c r="AC121" s="113">
         <v>0.1</v>
       </c>
       <c r="AD121" s="105">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>1552.1901451053343</v>
       </c>
     </row>
@@ -12292,74 +12290,74 @@
         <v>0.04</v>
       </c>
       <c r="D122" s="103">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>475.43009496069607</v>
       </c>
       <c r="E122" s="189">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>49.920159970873087</v>
       </c>
       <c r="F122" s="197">
         <v>0.08</v>
       </c>
       <c r="G122" s="103">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>950.86018992139213</v>
       </c>
       <c r="H122" s="180">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>69.412793864261616</v>
       </c>
       <c r="I122" s="100">
         <v>0</v>
       </c>
       <c r="J122" s="180">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="K122" s="189">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="L122" s="197">
         <v>0.15</v>
       </c>
       <c r="M122" s="103">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>1782.8628561026103</v>
       </c>
       <c r="N122" s="180">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="O122" s="100">
         <v>0.159</v>
       </c>
       <c r="P122" s="180">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>1889.8346274687669</v>
       </c>
       <c r="Q122" s="189">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>113.39007764812601</v>
       </c>
       <c r="R122" s="197">
         <v>0</v>
       </c>
       <c r="S122" s="103">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="T122" s="180">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="U122" s="103">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>5098.9877684534658</v>
       </c>
       <c r="V122" s="189">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>232.72303148326071</v>
       </c>
       <c r="X122" s="307"/>
@@ -12367,21 +12365,21 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="Z122" s="189">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>3328.0106647248726</v>
       </c>
       <c r="AA122" s="113">
         <v>0.79</v>
       </c>
       <c r="AB122" s="105">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>9389.7443754737487</v>
       </c>
       <c r="AC122" s="113">
         <v>0.09</v>
       </c>
       <c r="AD122" s="105">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>1069.7177136615662</v>
       </c>
     </row>
@@ -12397,74 +12395,74 @@
         <v>0.04</v>
       </c>
       <c r="D123" s="103">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>244.90571934882232</v>
       </c>
       <c r="E123" s="189">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>25.715100531626341</v>
       </c>
       <c r="F123" s="197">
         <v>0.08</v>
       </c>
       <c r="G123" s="103">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>489.81143869764463</v>
       </c>
       <c r="H123" s="180">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>35.756235024928053</v>
       </c>
       <c r="I123" s="100">
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="J123" s="180">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>134.69814564185228</v>
       </c>
       <c r="K123" s="189">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>8.4859831754366937</v>
       </c>
       <c r="L123" s="197">
         <v>0.18</v>
       </c>
       <c r="M123" s="103">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>1102.0757370697004</v>
       </c>
       <c r="N123" s="180">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="O123" s="359">
         <v>0.26400000000000001</v>
       </c>
       <c r="P123" s="180">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>1616.3777477022275</v>
       </c>
       <c r="Q123" s="189">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>96.982664862133646</v>
       </c>
       <c r="R123" s="197">
         <v>0.03</v>
       </c>
       <c r="S123" s="103">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>183.67928951161673</v>
       </c>
       <c r="T123" s="180">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>10.286040212650537</v>
       </c>
       <c r="U123" s="103">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>3771.5480779718637</v>
       </c>
       <c r="V123" s="189">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>177.22602380677526</v>
       </c>
       <c r="X123" s="307"/>
@@ -12472,21 +12470,21 @@
         <v>0.36</v>
       </c>
       <c r="Z123" s="189">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>2204.1514741394008</v>
       </c>
       <c r="AA123" s="113">
         <v>0.66</v>
       </c>
       <c r="AB123" s="105">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>4040.9443692555683</v>
       </c>
       <c r="AC123" s="113">
         <v>0.15</v>
       </c>
       <c r="AD123" s="105">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>918.39644755808365</v>
       </c>
     </row>
@@ -12502,66 +12500,66 @@
         <v>0.38</v>
       </c>
       <c r="D124" s="104">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>1317.8672703165571</v>
       </c>
       <c r="E124" s="190">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>138.37606338323849</v>
       </c>
       <c r="F124" s="200">
         <v>0.28999999999999998</v>
       </c>
       <c r="G124" s="104">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>1005.7408115573725</v>
       </c>
       <c r="H124" s="181">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>73.419079243688188</v>
       </c>
       <c r="I124" s="101">
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="J124" s="181">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>169.93551643555605</v>
       </c>
       <c r="K124" s="190">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>10.705937535440031</v>
       </c>
       <c r="L124" s="200">
         <v>0.09</v>
       </c>
       <c r="M124" s="104">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>312.12645875918457</v>
       </c>
       <c r="N124" s="181">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="O124" s="101">
         <v>0.33500000000000002</v>
       </c>
       <c r="P124" s="181">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>1161.8040409369648</v>
       </c>
       <c r="Q124" s="190">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>69.708242456217889</v>
       </c>
       <c r="R124" s="200">
         <v>0</v>
       </c>
       <c r="S124" s="104">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="T124" s="181">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="U124" s="104">
@@ -12569,7 +12567,7 @@
         <v>3967.4740980056349</v>
       </c>
       <c r="V124" s="190">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>292.20932261858462</v>
       </c>
       <c r="X124" s="307"/>
@@ -12577,21 +12575,21 @@
         <v>0.71</v>
       </c>
       <c r="Z124" s="190">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>2462.3309524335673</v>
       </c>
       <c r="AA124" s="111">
         <v>0.53</v>
       </c>
       <c r="AB124" s="79">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>1838.0780349151983</v>
       </c>
       <c r="AC124" s="111">
         <v>0.21</v>
       </c>
       <c r="AD124" s="79">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>728.29507043809735</v>
       </c>
     </row>
@@ -12825,48 +12823,6 @@
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="D58:H58"/>
-    <mergeCell ref="D59:H59"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="T43:AB43"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="B43:J43"/>
-    <mergeCell ref="K43:S43"/>
-    <mergeCell ref="Q44:S44"/>
-    <mergeCell ref="T44:V44"/>
-    <mergeCell ref="T72:Y72"/>
-    <mergeCell ref="T73:Y73"/>
-    <mergeCell ref="W44:Y44"/>
-    <mergeCell ref="Z44:AB44"/>
-    <mergeCell ref="O62:O63"/>
-    <mergeCell ref="P62:P63"/>
-    <mergeCell ref="R62:R63"/>
-    <mergeCell ref="Q62:Q63"/>
-    <mergeCell ref="S62:S63"/>
-    <mergeCell ref="O58:S58"/>
-    <mergeCell ref="O59:S59"/>
-    <mergeCell ref="O72:S72"/>
-    <mergeCell ref="O73:S73"/>
-    <mergeCell ref="T58:Y58"/>
-    <mergeCell ref="T59:Y59"/>
-    <mergeCell ref="I72:N72"/>
-    <mergeCell ref="I73:N73"/>
-    <mergeCell ref="D72:H72"/>
-    <mergeCell ref="D73:H73"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="I58:N58"/>
-    <mergeCell ref="I59:N59"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="K44:M44"/>
-    <mergeCell ref="N44:P44"/>
     <mergeCell ref="C103:D103"/>
     <mergeCell ref="E103:F103"/>
     <mergeCell ref="G103:H103"/>
@@ -12883,6 +12839,48 @@
     <mergeCell ref="Z73:AB73"/>
     <mergeCell ref="B83:J83"/>
     <mergeCell ref="D62:D63"/>
+    <mergeCell ref="I59:N59"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="K44:M44"/>
+    <mergeCell ref="N44:P44"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="I58:N58"/>
+    <mergeCell ref="I72:N72"/>
+    <mergeCell ref="I73:N73"/>
+    <mergeCell ref="D72:H72"/>
+    <mergeCell ref="D73:H73"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="T72:Y72"/>
+    <mergeCell ref="T73:Y73"/>
+    <mergeCell ref="W44:Y44"/>
+    <mergeCell ref="Z44:AB44"/>
+    <mergeCell ref="O62:O63"/>
+    <mergeCell ref="P62:P63"/>
+    <mergeCell ref="R62:R63"/>
+    <mergeCell ref="Q62:Q63"/>
+    <mergeCell ref="S62:S63"/>
+    <mergeCell ref="O58:S58"/>
+    <mergeCell ref="O59:S59"/>
+    <mergeCell ref="O72:S72"/>
+    <mergeCell ref="O73:S73"/>
+    <mergeCell ref="T58:Y58"/>
+    <mergeCell ref="T59:Y59"/>
+    <mergeCell ref="T43:AB43"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="B43:J43"/>
+    <mergeCell ref="K43:S43"/>
+    <mergeCell ref="Q44:S44"/>
+    <mergeCell ref="T44:V44"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="D58:H58"/>
+    <mergeCell ref="D59:H59"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="G62:G63"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C31" r:id="rId1" location="case-fatality-rate-of-covid-19-by-preexisting-health-conditions" xr:uid="{7F3EF4B5-28AC-495F-9AED-D8A19838DCA0}"/>
@@ -23263,71 +23261,71 @@
     </row>
     <row r="2" spans="1:54">
       <c r="A2" s="223"/>
-      <c r="B2" s="410" t="s">
+      <c r="B2" s="416" t="s">
         <v>288</v>
       </c>
-      <c r="C2" s="410"/>
-      <c r="D2" s="410"/>
-      <c r="E2" s="410"/>
-      <c r="F2" s="410"/>
-      <c r="G2" s="410"/>
-      <c r="H2" s="410"/>
-      <c r="I2" s="410"/>
+      <c r="C2" s="416"/>
+      <c r="D2" s="416"/>
+      <c r="E2" s="416"/>
+      <c r="F2" s="416"/>
+      <c r="G2" s="416"/>
+      <c r="H2" s="416"/>
+      <c r="I2" s="416"/>
       <c r="J2" s="224"/>
-      <c r="K2" s="410" t="s">
+      <c r="K2" s="416" t="s">
         <v>289</v>
       </c>
-      <c r="L2" s="410"/>
-      <c r="M2" s="410"/>
-      <c r="N2" s="410"/>
-      <c r="O2" s="410"/>
-      <c r="P2" s="410"/>
-      <c r="Q2" s="410"/>
-      <c r="R2" s="410"/>
+      <c r="L2" s="416"/>
+      <c r="M2" s="416"/>
+      <c r="N2" s="416"/>
+      <c r="O2" s="416"/>
+      <c r="P2" s="416"/>
+      <c r="Q2" s="416"/>
+      <c r="R2" s="416"/>
       <c r="S2" s="224"/>
-      <c r="T2" s="410" t="s">
+      <c r="T2" s="416" t="s">
         <v>290</v>
       </c>
-      <c r="U2" s="410"/>
-      <c r="V2" s="410"/>
-      <c r="W2" s="410"/>
-      <c r="X2" s="410"/>
-      <c r="Y2" s="410"/>
-      <c r="Z2" s="410"/>
-      <c r="AA2" s="410"/>
+      <c r="U2" s="416"/>
+      <c r="V2" s="416"/>
+      <c r="W2" s="416"/>
+      <c r="X2" s="416"/>
+      <c r="Y2" s="416"/>
+      <c r="Z2" s="416"/>
+      <c r="AA2" s="416"/>
       <c r="AB2" s="224"/>
-      <c r="AC2" s="410" t="s">
+      <c r="AC2" s="416" t="s">
         <v>291</v>
       </c>
-      <c r="AD2" s="410"/>
-      <c r="AE2" s="410"/>
-      <c r="AF2" s="410"/>
-      <c r="AG2" s="410"/>
-      <c r="AH2" s="410"/>
-      <c r="AI2" s="410"/>
-      <c r="AJ2" s="410"/>
+      <c r="AD2" s="416"/>
+      <c r="AE2" s="416"/>
+      <c r="AF2" s="416"/>
+      <c r="AG2" s="416"/>
+      <c r="AH2" s="416"/>
+      <c r="AI2" s="416"/>
+      <c r="AJ2" s="416"/>
       <c r="AK2" s="224"/>
-      <c r="AL2" s="410" t="s">
+      <c r="AL2" s="416" t="s">
         <v>292</v>
       </c>
-      <c r="AM2" s="410"/>
-      <c r="AN2" s="410"/>
-      <c r="AO2" s="410"/>
-      <c r="AP2" s="410"/>
-      <c r="AQ2" s="410"/>
-      <c r="AR2" s="410"/>
-      <c r="AS2" s="410"/>
+      <c r="AM2" s="416"/>
+      <c r="AN2" s="416"/>
+      <c r="AO2" s="416"/>
+      <c r="AP2" s="416"/>
+      <c r="AQ2" s="416"/>
+      <c r="AR2" s="416"/>
+      <c r="AS2" s="416"/>
       <c r="AT2" s="225"/>
-      <c r="AU2" s="411" t="s">
+      <c r="AU2" s="417" t="s">
         <v>293</v>
       </c>
-      <c r="AV2" s="412"/>
-      <c r="AW2" s="412"/>
-      <c r="AX2" s="412"/>
-      <c r="AY2" s="412"/>
-      <c r="AZ2" s="412"/>
-      <c r="BA2" s="412"/>
-      <c r="BB2" s="412"/>
+      <c r="AV2" s="418"/>
+      <c r="AW2" s="418"/>
+      <c r="AX2" s="418"/>
+      <c r="AY2" s="418"/>
+      <c r="AZ2" s="418"/>
+      <c r="BA2" s="418"/>
+      <c r="BB2" s="418"/>
     </row>
     <row r="3" spans="1:54" ht="25.5" customHeight="1">
       <c r="A3" s="226"/>
@@ -23346,20 +23344,20 @@
       </c>
       <c r="I3" s="414"/>
       <c r="J3" s="228"/>
-      <c r="K3" s="413" t="s">
+      <c r="K3" s="419" t="s">
         <v>294</v>
       </c>
-      <c r="L3" s="413"/>
+      <c r="L3" s="419"/>
       <c r="M3" s="229"/>
-      <c r="N3" s="413" t="s">
+      <c r="N3" s="419" t="s">
         <v>295</v>
       </c>
-      <c r="O3" s="413"/>
+      <c r="O3" s="419"/>
       <c r="P3" s="229"/>
-      <c r="Q3" s="413" t="s">
+      <c r="Q3" s="419" t="s">
         <v>296</v>
       </c>
-      <c r="R3" s="413"/>
+      <c r="R3" s="419"/>
       <c r="S3" s="227"/>
       <c r="T3" s="414" t="s">
         <v>294</v>
@@ -24726,85 +24724,85 @@
     </row>
     <row r="22" spans="1:42">
       <c r="A22" s="264"/>
-      <c r="B22" s="417" t="s">
+      <c r="B22" s="410" t="s">
         <v>180</v>
       </c>
-      <c r="C22" s="417"/>
-      <c r="D22" s="417"/>
-      <c r="E22" s="417"/>
-      <c r="F22" s="417"/>
-      <c r="G22" s="417"/>
-      <c r="H22" s="417"/>
-      <c r="I22" s="417"/>
+      <c r="C22" s="410"/>
+      <c r="D22" s="410"/>
+      <c r="E22" s="410"/>
+      <c r="F22" s="410"/>
+      <c r="G22" s="410"/>
+      <c r="H22" s="410"/>
+      <c r="I22" s="410"/>
       <c r="J22" s="265"/>
-      <c r="K22" s="417" t="s">
+      <c r="K22" s="410" t="s">
         <v>181</v>
       </c>
-      <c r="L22" s="417"/>
-      <c r="M22" s="417"/>
-      <c r="N22" s="417"/>
-      <c r="O22" s="417"/>
-      <c r="P22" s="417"/>
-      <c r="Q22" s="417"/>
-      <c r="R22" s="417"/>
+      <c r="L22" s="410"/>
+      <c r="M22" s="410"/>
+      <c r="N22" s="410"/>
+      <c r="O22" s="410"/>
+      <c r="P22" s="410"/>
+      <c r="Q22" s="410"/>
+      <c r="R22" s="410"/>
       <c r="S22" s="265"/>
-      <c r="T22" s="417" t="s">
+      <c r="T22" s="410" t="s">
         <v>433</v>
       </c>
-      <c r="U22" s="417"/>
-      <c r="V22" s="417"/>
-      <c r="W22" s="417"/>
-      <c r="X22" s="417"/>
-      <c r="Y22" s="417"/>
-      <c r="Z22" s="417"/>
-      <c r="AA22" s="417"/>
+      <c r="U22" s="410"/>
+      <c r="V22" s="410"/>
+      <c r="W22" s="410"/>
+      <c r="X22" s="410"/>
+      <c r="Y22" s="410"/>
+      <c r="Z22" s="410"/>
+      <c r="AA22" s="410"/>
     </row>
     <row r="23" spans="1:42" ht="22.5" customHeight="1">
       <c r="A23" s="266"/>
-      <c r="B23" s="418" t="s">
+      <c r="B23" s="411" t="s">
         <v>294</v>
       </c>
-      <c r="C23" s="418"/>
+      <c r="C23" s="411"/>
       <c r="D23" s="267"/>
-      <c r="E23" s="416" t="s">
+      <c r="E23" s="412" t="s">
         <v>295</v>
       </c>
-      <c r="F23" s="416"/>
+      <c r="F23" s="412"/>
       <c r="G23" s="268"/>
-      <c r="H23" s="419" t="s">
+      <c r="H23" s="413" t="s">
         <v>296</v>
       </c>
-      <c r="I23" s="419"/>
+      <c r="I23" s="413"/>
       <c r="J23" s="269"/>
-      <c r="K23" s="418" t="s">
+      <c r="K23" s="411" t="s">
         <v>294</v>
       </c>
-      <c r="L23" s="418"/>
+      <c r="L23" s="411"/>
       <c r="M23" s="267"/>
-      <c r="N23" s="416" t="s">
+      <c r="N23" s="412" t="s">
         <v>295</v>
       </c>
-      <c r="O23" s="416"/>
+      <c r="O23" s="412"/>
       <c r="P23" s="268"/>
-      <c r="Q23" s="419" t="s">
+      <c r="Q23" s="413" t="s">
         <v>296</v>
       </c>
-      <c r="R23" s="419"/>
+      <c r="R23" s="413"/>
       <c r="S23" s="269"/>
-      <c r="T23" s="416" t="s">
+      <c r="T23" s="412" t="s">
         <v>294</v>
       </c>
-      <c r="U23" s="416"/>
+      <c r="U23" s="412"/>
       <c r="V23" s="268"/>
-      <c r="W23" s="416" t="s">
+      <c r="W23" s="412" t="s">
         <v>295</v>
       </c>
-      <c r="X23" s="416"/>
+      <c r="X23" s="412"/>
       <c r="Y23" s="270"/>
-      <c r="Z23" s="416" t="s">
+      <c r="Z23" s="412" t="s">
         <v>296</v>
       </c>
-      <c r="AA23" s="416"/>
+      <c r="AA23" s="412"/>
     </row>
     <row r="24" spans="1:42">
       <c r="A24" s="271" t="s">
@@ -25643,26 +25641,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="K22:R22"/>
-    <mergeCell ref="T22:AA22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="T23:U23"/>
-    <mergeCell ref="AR3:AS3"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AX3:AY3"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="Z23:AA23"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AL3:AM3"/>
-    <mergeCell ref="AO3:AP3"/>
     <mergeCell ref="AL2:AS2"/>
     <mergeCell ref="AU2:BB2"/>
     <mergeCell ref="Q3:R3"/>
@@ -25679,6 +25657,26 @@
     <mergeCell ref="T3:U3"/>
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AR3:AS3"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AX3:AY3"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="Z23:AA23"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AL3:AM3"/>
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="K22:R22"/>
+    <mergeCell ref="T22:AA22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="T23:U23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -26076,11 +26074,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="43.5" customHeight="1">
-      <c r="A1" s="428" t="s">
+      <c r="A1" s="431" t="s">
         <v>561</v>
       </c>
-      <c r="B1" s="428"/>
-      <c r="C1" s="428"/>
+      <c r="B1" s="431"/>
+      <c r="C1" s="431"/>
       <c r="D1" s="318"/>
       <c r="E1" s="318"/>
       <c r="F1" s="318"/>
@@ -26247,11 +26245,11 @@
       <c r="H18" s="331"/>
     </row>
     <row r="19" spans="1:15" ht="24.75" customHeight="1">
-      <c r="A19" s="429" t="s">
+      <c r="A19" s="427" t="s">
         <v>575</v>
       </c>
-      <c r="B19" s="429"/>
-      <c r="C19" s="429"/>
+      <c r="B19" s="427"/>
+      <c r="C19" s="427"/>
       <c r="D19" s="331"/>
       <c r="E19" s="331"/>
       <c r="F19" s="331"/>
@@ -26259,11 +26257,11 @@
       <c r="H19" s="331"/>
     </row>
     <row r="20" spans="1:15" ht="46.5" customHeight="1">
-      <c r="A20" s="429" t="s">
+      <c r="A20" s="427" t="s">
         <v>576</v>
       </c>
-      <c r="B20" s="429"/>
-      <c r="C20" s="429"/>
+      <c r="B20" s="427"/>
+      <c r="C20" s="427"/>
       <c r="D20" s="331"/>
       <c r="E20" s="331"/>
       <c r="F20" s="331"/>
@@ -26271,11 +26269,11 @@
       <c r="H20" s="331"/>
     </row>
     <row r="21" spans="1:15" ht="59.25" customHeight="1">
-      <c r="A21" s="429" t="s">
+      <c r="A21" s="427" t="s">
         <v>577</v>
       </c>
-      <c r="B21" s="429"/>
-      <c r="C21" s="429"/>
+      <c r="B21" s="427"/>
+      <c r="C21" s="427"/>
       <c r="D21" s="333"/>
       <c r="E21" s="333"/>
       <c r="F21" s="333"/>
@@ -26283,11 +26281,11 @@
       <c r="H21" s="333"/>
     </row>
     <row r="22" spans="1:15" ht="26.25" customHeight="1">
-      <c r="A22" s="429" t="s">
+      <c r="A22" s="427" t="s">
         <v>429</v>
       </c>
-      <c r="B22" s="429"/>
-      <c r="C22" s="429"/>
+      <c r="B22" s="427"/>
+      <c r="C22" s="427"/>
       <c r="D22" s="334"/>
       <c r="E22" s="335"/>
       <c r="F22" s="335"/>
@@ -26325,15 +26323,15 @@
       <c r="C25" s="336"/>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="427" t="s">
+      <c r="A26" s="430" t="s">
         <v>579</v>
       </c>
-      <c r="B26" s="427"/>
-      <c r="C26" s="427"/>
-      <c r="D26" s="427"/>
-      <c r="E26" s="427"/>
-      <c r="F26" s="427"/>
-      <c r="G26" s="427"/>
+      <c r="B26" s="430"/>
+      <c r="C26" s="430"/>
+      <c r="D26" s="430"/>
+      <c r="E26" s="430"/>
+      <c r="F26" s="430"/>
+      <c r="G26" s="430"/>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="338"/>
@@ -26346,29 +26344,29 @@
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="340"/>
-      <c r="B28" s="430" t="s">
+      <c r="B28" s="428" t="s">
         <v>580</v>
       </c>
-      <c r="C28" s="430"/>
-      <c r="D28" s="430"/>
-      <c r="E28" s="430"/>
-      <c r="F28" s="430"/>
-      <c r="G28" s="430"/>
+      <c r="C28" s="428"/>
+      <c r="D28" s="428"/>
+      <c r="E28" s="428"/>
+      <c r="F28" s="428"/>
+      <c r="G28" s="428"/>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="341"/>
-      <c r="B29" s="431" t="s">
+      <c r="B29" s="429" t="s">
         <v>180</v>
       </c>
-      <c r="C29" s="431"/>
-      <c r="D29" s="431" t="s">
+      <c r="C29" s="429"/>
+      <c r="D29" s="429" t="s">
         <v>181</v>
       </c>
-      <c r="E29" s="431"/>
-      <c r="F29" s="431" t="s">
+      <c r="E29" s="429"/>
+      <c r="F29" s="429" t="s">
         <v>433</v>
       </c>
-      <c r="G29" s="431"/>
+      <c r="G29" s="429"/>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="342" t="s">
@@ -26589,48 +26587,48 @@
       <c r="G39" s="339"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="429" t="s">
+      <c r="A40" s="427" t="s">
         <v>604</v>
       </c>
-      <c r="B40" s="429"/>
-      <c r="C40" s="429"/>
-      <c r="D40" s="429"/>
-      <c r="E40" s="429"/>
-      <c r="F40" s="429"/>
-      <c r="G40" s="429"/>
+      <c r="B40" s="427"/>
+      <c r="C40" s="427"/>
+      <c r="D40" s="427"/>
+      <c r="E40" s="427"/>
+      <c r="F40" s="427"/>
+      <c r="G40" s="427"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="429" t="s">
+      <c r="A41" s="427" t="s">
         <v>577</v>
       </c>
-      <c r="B41" s="429"/>
-      <c r="C41" s="429"/>
-      <c r="D41" s="429"/>
-      <c r="E41" s="429"/>
-      <c r="F41" s="429"/>
-      <c r="G41" s="429"/>
+      <c r="B41" s="427"/>
+      <c r="C41" s="427"/>
+      <c r="D41" s="427"/>
+      <c r="E41" s="427"/>
+      <c r="F41" s="427"/>
+      <c r="G41" s="427"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="429" t="s">
+      <c r="A42" s="427" t="s">
         <v>429</v>
       </c>
-      <c r="B42" s="429"/>
-      <c r="C42" s="429"/>
-      <c r="D42" s="429"/>
-      <c r="E42" s="429"/>
-      <c r="F42" s="429"/>
-      <c r="G42" s="429"/>
+      <c r="B42" s="427"/>
+      <c r="C42" s="427"/>
+      <c r="D42" s="427"/>
+      <c r="E42" s="427"/>
+      <c r="F42" s="427"/>
+      <c r="G42" s="427"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="429" t="s">
+      <c r="A43" s="427" t="s">
         <v>605</v>
       </c>
-      <c r="B43" s="429"/>
-      <c r="C43" s="429"/>
-      <c r="D43" s="429"/>
-      <c r="E43" s="429"/>
-      <c r="F43" s="429"/>
-      <c r="G43" s="429"/>
+      <c r="B43" s="427"/>
+      <c r="C43" s="427"/>
+      <c r="D43" s="427"/>
+      <c r="E43" s="427"/>
+      <c r="F43" s="427"/>
+      <c r="G43" s="427"/>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="339"/>
@@ -26654,6 +26652,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
     <mergeCell ref="A42:G42"/>
     <mergeCell ref="A43:G43"/>
     <mergeCell ref="B28:G28"/>
@@ -26662,12 +26666,6 @@
     <mergeCell ref="F29:G29"/>
     <mergeCell ref="A40:G40"/>
     <mergeCell ref="A41:G41"/>
-    <mergeCell ref="A26:G26"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Population/data/Population Indicators.xlsx
+++ b/Population/data/Population Indicators.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\JusticeCOVID\Population\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DFC4215-1F46-4688-B593-FA837E30F2B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA10BBBC-39B9-4855-9738-4071DA6F421D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{B9AFA079-0671-40AD-860D-809D829A87F1}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{B9AFA079-0671-40AD-860D-809D829A87F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Summaries" sheetId="1" r:id="rId1"/>
-    <sheet name="AU Pop" sheetId="2" r:id="rId2"/>
-    <sheet name="A&amp;TSI Pop" sheetId="7" r:id="rId3"/>
-    <sheet name="Prison Pop" sheetId="3" r:id="rId4"/>
-    <sheet name="Prison Chronic Conditions" sheetId="4" r:id="rId5"/>
-    <sheet name="Obesity" sheetId="8" r:id="rId6"/>
-    <sheet name="COPD" sheetId="9" r:id="rId7"/>
-    <sheet name="Hypertension" sheetId="10" r:id="rId8"/>
+    <sheet name="Data Traceability" sheetId="11" r:id="rId2"/>
+    <sheet name="AU Pop" sheetId="2" r:id="rId3"/>
+    <sheet name="A&amp;TSI Pop" sheetId="7" r:id="rId4"/>
+    <sheet name="Prison Pop" sheetId="3" r:id="rId5"/>
+    <sheet name="Prison Chronic Conditions" sheetId="4" r:id="rId6"/>
+    <sheet name="Obesity" sheetId="8" r:id="rId7"/>
+    <sheet name="COPD" sheetId="9" r:id="rId8"/>
+    <sheet name="Hypertension" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1794,7 +1795,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1306" uniqueCount="687">
   <si>
     <t>&lt; 10</t>
   </si>
@@ -3767,12 +3768,231 @@
   <si>
     <t>AU Deaths 27/5/2020</t>
   </si>
+  <si>
+    <t>Overweight</t>
+  </si>
+  <si>
+    <t>prisoner_health.html</t>
+  </si>
+  <si>
+    <t>prisoner_population.html</t>
+  </si>
+  <si>
+    <t>age1</t>
+  </si>
+  <si>
+    <t>age2</t>
+  </si>
+  <si>
+    <t>0-9</t>
+  </si>
+  <si>
+    <t>covid19_prisoner_impact.html</t>
+  </si>
+  <si>
+    <t>chronic_illnesses</t>
+  </si>
+  <si>
+    <t>au_population_chronic_illness</t>
+  </si>
+  <si>
+    <t>male_prisoner_chronic_illness</t>
+  </si>
+  <si>
+    <t>female_prisoner_chronic_illness</t>
+  </si>
+  <si>
+    <t>age_18_24_prisoner_chronic_illness</t>
+  </si>
+  <si>
+    <t>age_25_34_prisoner_chronic_illness</t>
+  </si>
+  <si>
+    <t>age_35_44_prisoner_chronic_illness</t>
+  </si>
+  <si>
+    <t>age_45_54_prisoner_chronic_illness</t>
+  </si>
+  <si>
+    <t>age_55plus_prisoner_chronic_illness</t>
+  </si>
+  <si>
+    <t>age_full</t>
+  </si>
+  <si>
+    <t>total_per1k_prisoners</t>
+  </si>
+  <si>
+    <t>male_per1k_prisoners</t>
+  </si>
+  <si>
+    <t>female_per1k_prisoners</t>
+  </si>
+  <si>
+    <t>nonIndigenous_per1k_prisoners</t>
+  </si>
+  <si>
+    <t>Indigenous_per1k_prisoners</t>
+  </si>
+  <si>
+    <t>male_nonIndigenous_per1k_prisoners</t>
+  </si>
+  <si>
+    <t>female_nonIndigenous_per1k_prisoners</t>
+  </si>
+  <si>
+    <t>male_Indigenous_per1k_prisoners</t>
+  </si>
+  <si>
+    <t>female_Indigenous_per1k_prisoners</t>
+  </si>
+  <si>
+    <t>nonIndigenous_total_prisoners</t>
+  </si>
+  <si>
+    <t>Indigenous_total_prisoners</t>
+  </si>
+  <si>
+    <t>male_adult_nonIndigenous_prisoners</t>
+  </si>
+  <si>
+    <t>female_adult_nonIndigenous_prisoners</t>
+  </si>
+  <si>
+    <t>male_adult_Indigenous_prisoners</t>
+  </si>
+  <si>
+    <t>female_adult_Indigenous_prisoners</t>
+  </si>
+  <si>
+    <t>total_adult_prisoners</t>
+  </si>
+  <si>
+    <t>male_nonIndigenous_population_perc</t>
+  </si>
+  <si>
+    <t>female_nonIndigenous_population_perc</t>
+  </si>
+  <si>
+    <t>male_Indigenous_population_perc</t>
+  </si>
+  <si>
+    <t>female_Indigenous_population_perc</t>
+  </si>
+  <si>
+    <t>male_nonIndigenous_population_all</t>
+  </si>
+  <si>
+    <t>female_nonIndigenous_population_all</t>
+  </si>
+  <si>
+    <t>male_Indigenous_population_all</t>
+  </si>
+  <si>
+    <t>female_Indigenous_population_all</t>
+  </si>
+  <si>
+    <t>male_prisoners</t>
+  </si>
+  <si>
+    <t>female_prisoners</t>
+  </si>
+  <si>
+    <t>non_indigenous_per1K_count</t>
+  </si>
+  <si>
+    <t>indigenous_per1K_count</t>
+  </si>
+  <si>
+    <t>indigenous_prisoner_chronic_illness</t>
+  </si>
+  <si>
+    <t>non_indigenous_prisoner_chronic_illness</t>
+  </si>
+  <si>
+    <t>prisoner_count_by_age1</t>
+  </si>
+  <si>
+    <t>au_covid19_mortality_by_age1</t>
+  </si>
+  <si>
+    <t>cn_covid19_mortality_by_age1</t>
+  </si>
+  <si>
+    <t>it_covid19_mortality_by_age1</t>
+  </si>
+  <si>
+    <t>kr_covid19_mortality_by_age1</t>
+  </si>
+  <si>
+    <t>es_covid19_mortality_by_age1</t>
+  </si>
+  <si>
+    <t>covid19_mortality_by_chronic_illness</t>
+  </si>
+  <si>
+    <t>male_staff</t>
+  </si>
+  <si>
+    <t>female_staff</t>
+  </si>
+  <si>
+    <t>indigenous_prisoners</t>
+  </si>
+  <si>
+    <t>indigenous_population</t>
+  </si>
+  <si>
+    <t>non_indigenous_prisoners</t>
+  </si>
+  <si>
+    <t>non_indigenous_population</t>
+  </si>
+  <si>
+    <t>au_sex_covid19_mortality</t>
+  </si>
+  <si>
+    <t>cn_sex_covid19_mortality</t>
+  </si>
+  <si>
+    <t>it_sex_covid19_mortality</t>
+  </si>
+  <si>
+    <t>kr_sex_covid19_mortality</t>
+  </si>
+  <si>
+    <t>es_sex_covid19_mortality</t>
+  </si>
+  <si>
+    <t>au_covid19_mortality_by_age2</t>
+  </si>
+  <si>
+    <t>cn_covid19_mortality_by_age2</t>
+  </si>
+  <si>
+    <t>it_covid19_mortality_by_age2</t>
+  </si>
+  <si>
+    <t>kr_covid19_mortality_by_age2</t>
+  </si>
+  <si>
+    <t>es_covid19_mortality_by_age2</t>
+  </si>
+  <si>
+    <t>prisoner_count_by_age2</t>
+  </si>
+  <si>
+    <t>non_indigenous_prisoner_count_by_age2</t>
+  </si>
+  <si>
+    <t>indigenous_prisoner_count_by_age2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -3780,6 +4000,7 @@
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="&quot;&quot;#,##0.0&quot;&quot;"/>
     <numFmt numFmtId="168" formatCode="&quot;#&quot;#,##0.0"/>
+    <numFmt numFmtId="173" formatCode="0.000"/>
   </numFmts>
   <fonts count="64">
     <font>
@@ -4215,7 +4436,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4428,6 +4649,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5204,7 +5431,7 @@
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="432">
+  <cellXfs count="441">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -5871,11 +6098,11 @@
     <xf numFmtId="3" fontId="38" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="38" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="38" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="38" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="38" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5886,50 +6113,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="3" fontId="38" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="38" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="38" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="38" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="38" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="38" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="38" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5946,6 +6137,42 @@
     <xf numFmtId="3" fontId="38" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="38" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="38" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="38" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="38" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="38" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="38" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="38" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -5961,24 +6188,6 @@
     <xf numFmtId="0" fontId="32" fillId="33" borderId="24" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="42" fillId="35" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="35" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="35" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="42" fillId="35" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5990,6 +6199,24 @@
     </xf>
     <xf numFmtId="49" fontId="42" fillId="35" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="35" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="35" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="35" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="59" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -6008,6 +6235,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="41" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="24" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -6017,12 +6250,15 @@
     <xf numFmtId="49" fontId="42" fillId="37" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="173" fontId="0" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="73">
     <cellStyle name="20% - Accent1" xfId="17" builtinId="30" customBuiltin="1"/>
@@ -6422,8 +6658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69445D4F-6ED8-41C8-8CD1-A1D8E95413A8}">
   <dimension ref="A2:AJ160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="J105" sqref="J105"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7415,17 +7651,17 @@
       <c r="A43" s="295" t="s">
         <v>526</v>
       </c>
-      <c r="B43" s="388" t="s">
+      <c r="B43" s="402" t="s">
         <v>432</v>
       </c>
-      <c r="C43" s="389"/>
-      <c r="D43" s="389"/>
-      <c r="E43" s="389"/>
-      <c r="F43" s="389"/>
-      <c r="G43" s="389"/>
-      <c r="H43" s="389"/>
-      <c r="I43" s="389"/>
-      <c r="J43" s="390"/>
+      <c r="C43" s="403"/>
+      <c r="D43" s="403"/>
+      <c r="E43" s="403"/>
+      <c r="F43" s="403"/>
+      <c r="G43" s="403"/>
+      <c r="H43" s="403"/>
+      <c r="I43" s="403"/>
+      <c r="J43" s="404"/>
       <c r="K43" s="382" t="s">
         <v>237</v>
       </c>
@@ -7437,64 +7673,64 @@
       <c r="Q43" s="383"/>
       <c r="R43" s="383"/>
       <c r="S43" s="384"/>
-      <c r="T43" s="387" t="s">
+      <c r="T43" s="385" t="s">
         <v>523</v>
       </c>
-      <c r="U43" s="387"/>
-      <c r="V43" s="387"/>
-      <c r="W43" s="387"/>
-      <c r="X43" s="387"/>
-      <c r="Y43" s="387"/>
-      <c r="Z43" s="387"/>
-      <c r="AA43" s="387"/>
-      <c r="AB43" s="387"/>
+      <c r="U43" s="385"/>
+      <c r="V43" s="385"/>
+      <c r="W43" s="385"/>
+      <c r="X43" s="385"/>
+      <c r="Y43" s="385"/>
+      <c r="Z43" s="385"/>
+      <c r="AA43" s="385"/>
+      <c r="AB43" s="385"/>
     </row>
     <row r="44" spans="1:28" ht="15" customHeight="1">
-      <c r="B44" s="387" t="s">
+      <c r="B44" s="385" t="s">
         <v>180</v>
       </c>
-      <c r="C44" s="387"/>
-      <c r="D44" s="387"/>
-      <c r="E44" s="387" t="s">
+      <c r="C44" s="385"/>
+      <c r="D44" s="385"/>
+      <c r="E44" s="385" t="s">
         <v>181</v>
       </c>
-      <c r="F44" s="387"/>
-      <c r="G44" s="387"/>
-      <c r="H44" s="387" t="s">
+      <c r="F44" s="385"/>
+      <c r="G44" s="385"/>
+      <c r="H44" s="385" t="s">
         <v>433</v>
       </c>
-      <c r="I44" s="387"/>
-      <c r="J44" s="387"/>
-      <c r="K44" s="397" t="s">
+      <c r="I44" s="385"/>
+      <c r="J44" s="385"/>
+      <c r="K44" s="393" t="s">
         <v>180</v>
       </c>
-      <c r="L44" s="397"/>
-      <c r="M44" s="397"/>
-      <c r="N44" s="397" t="s">
+      <c r="L44" s="393"/>
+      <c r="M44" s="393"/>
+      <c r="N44" s="393" t="s">
         <v>181</v>
       </c>
-      <c r="O44" s="397"/>
-      <c r="P44" s="397"/>
+      <c r="O44" s="393"/>
+      <c r="P44" s="393"/>
       <c r="Q44" s="382" t="s">
         <v>433</v>
       </c>
       <c r="R44" s="383"/>
       <c r="S44" s="384"/>
-      <c r="T44" s="387" t="s">
+      <c r="T44" s="385" t="s">
         <v>180</v>
       </c>
-      <c r="U44" s="387"/>
-      <c r="V44" s="387"/>
-      <c r="W44" s="387" t="s">
+      <c r="U44" s="385"/>
+      <c r="V44" s="385"/>
+      <c r="W44" s="385" t="s">
         <v>181</v>
       </c>
-      <c r="X44" s="387"/>
-      <c r="Y44" s="387"/>
-      <c r="Z44" s="387" t="s">
+      <c r="X44" s="385"/>
+      <c r="Y44" s="385"/>
+      <c r="Z44" s="385" t="s">
         <v>433</v>
       </c>
-      <c r="AA44" s="387"/>
-      <c r="AB44" s="387"/>
+      <c r="AA44" s="385"/>
+      <c r="AB44" s="385"/>
     </row>
     <row r="45" spans="1:28">
       <c r="B45" s="66" t="s">
@@ -8474,10 +8710,10 @@
       <c r="A58" s="295" t="s">
         <v>527</v>
       </c>
-      <c r="B58" s="387">
+      <c r="B58" s="385">
         <v>2019</v>
       </c>
-      <c r="C58" s="387"/>
+      <c r="C58" s="385"/>
       <c r="D58" s="382">
         <v>2016</v>
       </c>
@@ -8511,8 +8747,8 @@
       <c r="Z58" s="384">
         <v>2016</v>
       </c>
-      <c r="AA58" s="387"/>
-      <c r="AB58" s="387"/>
+      <c r="AA58" s="385"/>
+      <c r="AB58" s="385"/>
       <c r="AC58" s="382">
         <v>2019</v>
       </c>
@@ -8757,8 +8993,8 @@
       <c r="AG61" s="74"/>
       <c r="AH61" s="74"/>
       <c r="AI61" s="26">
-        <f>SUM(I64:I68,K64:K68,M64:M68)</f>
-        <v>61540</v>
+        <f>SUM(M64:M68)</f>
+        <v>30770</v>
       </c>
       <c r="AJ61" t="s">
         <v>263</v>
@@ -8776,19 +9012,19 @@
         <f>'AU Pop'!H22</f>
         <v>9.5612474089386751E-2</v>
       </c>
-      <c r="D62" s="403">
+      <c r="D62" s="391">
         <f>'A&amp;TSI Pop'!L11</f>
         <v>1405253</v>
       </c>
-      <c r="E62" s="380">
+      <c r="E62" s="396">
         <f t="shared" ref="E62:E68" si="12">D62/SUM($D$61:$D$68)</f>
         <v>0.12109420846479671</v>
       </c>
-      <c r="F62" s="385">
+      <c r="F62" s="386">
         <f>'A&amp;TSI Pop'!L29</f>
         <v>1333829</v>
       </c>
-      <c r="G62" s="380">
+      <c r="G62" s="396">
         <f t="shared" ref="G62:G70" si="13">F62/SUM($F$61:$F$68)</f>
         <v>0.11315223148858543</v>
       </c>
@@ -8800,23 +9036,23 @@
       <c r="K62" s="58"/>
       <c r="M62" s="58"/>
       <c r="N62" s="74"/>
-      <c r="O62" s="391">
+      <c r="O62" s="394">
         <f>'A&amp;TSI Pop'!H11</f>
         <v>85770</v>
       </c>
-      <c r="P62" s="380">
+      <c r="P62" s="396">
         <f t="shared" ref="P62:P70" si="14">O62/SUM($O$61:$O$68)</f>
         <v>0.21527911990823592</v>
       </c>
-      <c r="Q62" s="393">
+      <c r="Q62" s="398">
         <f>'A&amp;TSI Pop'!H29</f>
         <v>81992</v>
       </c>
-      <c r="R62" s="380">
+      <c r="R62" s="396">
         <f t="shared" ref="R62:R70" si="15">Q62/SUM($Q$61:$Q$68)</f>
         <v>0.20500460055206624</v>
       </c>
-      <c r="S62" s="395">
+      <c r="S62" s="400">
         <f>'A&amp;TSI Pop'!H47</f>
         <v>167762</v>
       </c>
@@ -8824,15 +9060,15 @@
       <c r="V62" s="58"/>
       <c r="X62" s="74"/>
       <c r="Y62" s="74"/>
-      <c r="Z62" s="385">
+      <c r="Z62" s="386">
         <f>O62+D62</f>
         <v>1491023</v>
       </c>
-      <c r="AA62" s="400">
+      <c r="AA62" s="388">
         <f>Q62+F62</f>
         <v>1415821</v>
       </c>
-      <c r="AB62" s="402">
+      <c r="AB62" s="390">
         <f>S62+H62</f>
         <v>2906844</v>
       </c>
@@ -8856,10 +9092,10 @@
         <f>'AU Pop'!H25</f>
         <v>2.4952286703894818E-2</v>
       </c>
-      <c r="D63" s="404"/>
-      <c r="E63" s="381"/>
-      <c r="F63" s="386"/>
-      <c r="G63" s="381"/>
+      <c r="D63" s="392"/>
+      <c r="E63" s="397"/>
+      <c r="F63" s="387"/>
+      <c r="G63" s="397"/>
       <c r="H63" s="364"/>
       <c r="I63" s="80">
         <f>'Prison Pop'!L58</f>
@@ -8874,11 +9110,11 @@
         <v>376</v>
       </c>
       <c r="N63" s="74"/>
-      <c r="O63" s="392"/>
-      <c r="P63" s="381"/>
-      <c r="Q63" s="394"/>
-      <c r="R63" s="381"/>
-      <c r="S63" s="396"/>
+      <c r="O63" s="395"/>
+      <c r="P63" s="397"/>
+      <c r="Q63" s="399"/>
+      <c r="R63" s="397"/>
+      <c r="S63" s="401"/>
       <c r="T63" s="80">
         <f>'Prison Pop'!L6</f>
         <v>348</v>
@@ -8892,9 +9128,9 @@
         <v>378</v>
       </c>
       <c r="Y63" s="74"/>
-      <c r="Z63" s="386"/>
-      <c r="AA63" s="401"/>
-      <c r="AB63" s="401"/>
+      <c r="Z63" s="387"/>
+      <c r="AA63" s="389"/>
+      <c r="AB63" s="389"/>
       <c r="AC63" s="80">
         <f t="shared" ref="AC63:AC68" si="18">T63+I63</f>
         <v>701</v>
@@ -8910,7 +9146,7 @@
       <c r="AH63" s="74"/>
       <c r="AI63" s="214">
         <f>AI61/(AI59/1000)</f>
-        <v>3.4767888188641045</v>
+        <v>1.7383944094320523</v>
       </c>
     </row>
     <row r="64" spans="1:36">
@@ -9608,8 +9844,8 @@
         <v>0.40987377896792981</v>
       </c>
       <c r="AI68" s="26">
-        <f>SUM(T64:T68,V64:V68,X64:X68)</f>
-        <v>22994</v>
+        <f>SUM(X64:X68)</f>
+        <v>11497</v>
       </c>
       <c r="AJ68" t="s">
         <v>263</v>
@@ -9773,17 +10009,17 @@
       <c r="AH70" s="216"/>
       <c r="AI70" s="214">
         <f>AI68/(AI66/1000)</f>
-        <v>51.915153020331211</v>
+        <v>25.957576510165605</v>
       </c>
     </row>
     <row r="72" spans="1:36">
       <c r="A72" s="295" t="s">
         <v>528</v>
       </c>
-      <c r="B72" s="387">
+      <c r="B72" s="385">
         <v>2019</v>
       </c>
-      <c r="C72" s="387"/>
+      <c r="C72" s="385"/>
       <c r="D72" s="382">
         <v>2016</v>
       </c>
@@ -9814,11 +10050,11 @@
       <c r="W72" s="383"/>
       <c r="X72" s="383"/>
       <c r="Y72" s="384"/>
-      <c r="Z72" s="387">
+      <c r="Z72" s="385">
         <v>2016</v>
       </c>
-      <c r="AA72" s="387"/>
-      <c r="AB72" s="387"/>
+      <c r="AA72" s="385"/>
+      <c r="AB72" s="385"/>
       <c r="AC72" s="382">
         <v>2019</v>
       </c>
@@ -11253,18 +11489,18 @@
     <row r="103" spans="1:12">
       <c r="A103" s="1"/>
       <c r="B103" s="197"/>
-      <c r="C103" s="398" t="s">
+      <c r="C103" s="380" t="s">
         <v>11</v>
       </c>
-      <c r="D103" s="399"/>
-      <c r="E103" s="398" t="s">
+      <c r="D103" s="381"/>
+      <c r="E103" s="380" t="s">
         <v>237</v>
       </c>
-      <c r="F103" s="399"/>
-      <c r="G103" s="398" t="s">
+      <c r="F103" s="381"/>
+      <c r="G103" s="380" t="s">
         <v>146</v>
       </c>
-      <c r="H103" s="399"/>
+      <c r="H103" s="381"/>
       <c r="I103" s="197"/>
       <c r="J103" s="197"/>
     </row>
@@ -11889,15 +12125,15 @@
         <v>78.018749999999997</v>
       </c>
       <c r="I118" s="357">
-        <v>4.4999999999999998E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="J118" s="202">
         <f t="shared" si="44"/>
-        <v>534.375</v>
+        <v>546.25</v>
       </c>
       <c r="K118" s="203">
         <f t="shared" si="45"/>
-        <v>33.665624999999999</v>
+        <v>34.41375</v>
       </c>
       <c r="L118" s="299">
         <v>0.11</v>
@@ -11934,11 +12170,11 @@
       </c>
       <c r="U118" s="167">
         <f t="shared" si="48"/>
-        <v>7623.75</v>
+        <v>7635.625</v>
       </c>
       <c r="V118" s="203">
         <f t="shared" si="49"/>
-        <v>420.79062499999998</v>
+        <v>421.53874999999999</v>
       </c>
       <c r="X118" s="197"/>
       <c r="Y118" s="110">
@@ -11994,15 +12230,15 @@
         <v>90.946319999999986</v>
       </c>
       <c r="I119" s="358">
-        <v>4.4999999999999998E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="J119" s="181">
         <f t="shared" si="44"/>
-        <v>1401.57</v>
+        <v>1432.7159999999999</v>
       </c>
       <c r="K119" s="190">
         <f t="shared" si="45"/>
-        <v>88.298909999999992</v>
+        <v>90.261107999999993</v>
       </c>
       <c r="L119" s="298">
         <v>0.19</v>
@@ -12039,11 +12275,11 @@
       </c>
       <c r="U119" s="103">
         <f t="shared" si="48"/>
-        <v>20307.191999999999</v>
+        <v>20338.338</v>
       </c>
       <c r="V119" s="189">
         <f t="shared" si="49"/>
-        <v>924.56901000000005</v>
+        <v>926.53120800000011</v>
       </c>
       <c r="X119" s="197"/>
       <c r="Y119" s="111">
@@ -12823,6 +13059,48 @@
     </row>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="D58:H58"/>
+    <mergeCell ref="D59:H59"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="T43:AB43"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="B43:J43"/>
+    <mergeCell ref="K43:S43"/>
+    <mergeCell ref="Q44:S44"/>
+    <mergeCell ref="T44:V44"/>
+    <mergeCell ref="T72:Y72"/>
+    <mergeCell ref="T73:Y73"/>
+    <mergeCell ref="W44:Y44"/>
+    <mergeCell ref="Z44:AB44"/>
+    <mergeCell ref="O62:O63"/>
+    <mergeCell ref="P62:P63"/>
+    <mergeCell ref="R62:R63"/>
+    <mergeCell ref="Q62:Q63"/>
+    <mergeCell ref="S62:S63"/>
+    <mergeCell ref="O58:S58"/>
+    <mergeCell ref="O59:S59"/>
+    <mergeCell ref="O72:S72"/>
+    <mergeCell ref="O73:S73"/>
+    <mergeCell ref="T58:Y58"/>
+    <mergeCell ref="T59:Y59"/>
+    <mergeCell ref="I72:N72"/>
+    <mergeCell ref="I73:N73"/>
+    <mergeCell ref="D72:H72"/>
+    <mergeCell ref="D73:H73"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="I58:N58"/>
+    <mergeCell ref="I59:N59"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="K44:M44"/>
+    <mergeCell ref="N44:P44"/>
     <mergeCell ref="C103:D103"/>
     <mergeCell ref="E103:F103"/>
     <mergeCell ref="G103:H103"/>
@@ -12839,48 +13117,6 @@
     <mergeCell ref="Z73:AB73"/>
     <mergeCell ref="B83:J83"/>
     <mergeCell ref="D62:D63"/>
-    <mergeCell ref="I59:N59"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="K44:M44"/>
-    <mergeCell ref="N44:P44"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="I58:N58"/>
-    <mergeCell ref="I72:N72"/>
-    <mergeCell ref="I73:N73"/>
-    <mergeCell ref="D72:H72"/>
-    <mergeCell ref="D73:H73"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="T72:Y72"/>
-    <mergeCell ref="T73:Y73"/>
-    <mergeCell ref="W44:Y44"/>
-    <mergeCell ref="Z44:AB44"/>
-    <mergeCell ref="O62:O63"/>
-    <mergeCell ref="P62:P63"/>
-    <mergeCell ref="R62:R63"/>
-    <mergeCell ref="Q62:Q63"/>
-    <mergeCell ref="S62:S63"/>
-    <mergeCell ref="O58:S58"/>
-    <mergeCell ref="O59:S59"/>
-    <mergeCell ref="O72:S72"/>
-    <mergeCell ref="O73:S73"/>
-    <mergeCell ref="T58:Y58"/>
-    <mergeCell ref="T59:Y59"/>
-    <mergeCell ref="T43:AB43"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="B43:J43"/>
-    <mergeCell ref="K43:S43"/>
-    <mergeCell ref="Q44:S44"/>
-    <mergeCell ref="T44:V44"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="D58:H58"/>
-    <mergeCell ref="D59:H59"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="G62:G63"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C31" r:id="rId1" location="case-fatality-rate-of-covid-19-by-preexisting-health-conditions" xr:uid="{7F3EF4B5-28AC-495F-9AED-D8A19838DCA0}"/>
@@ -12914,6 +13150,2276 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4A3361E-C79A-4ECF-AC8C-A789F3D7C0DB}">
+  <dimension ref="A1:I98"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L85" sqref="L85"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="38.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" customWidth="1"/>
+    <col min="5" max="8" width="9.140625" customWidth="1"/>
+    <col min="9" max="9" width="9" customWidth="1"/>
+    <col min="12" max="12" width="26.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="302" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>621</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>525</v>
+      </c>
+      <c r="E2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>622</v>
+      </c>
+      <c r="B3">
+        <f>'Data Summaries'!B32</f>
+        <v>0.05</v>
+      </c>
+      <c r="C3">
+        <f>'Data Summaries'!B33</f>
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="D3" s="437">
+        <f>COPD!G14</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E3">
+        <f>'Data Summaries'!B35</f>
+        <v>0.112</v>
+      </c>
+      <c r="F3" s="439">
+        <f>Hypertension!B4/100</f>
+        <v>0.33665999999999996</v>
+      </c>
+      <c r="G3">
+        <f>'Data Summaries'!B37</f>
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="H3">
+        <f>'Data Summaries'!B38</f>
+        <v>0.152</v>
+      </c>
+      <c r="I3" s="437">
+        <f>'Data Summaries'!AB55</f>
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>623</v>
+      </c>
+      <c r="B4" s="432">
+        <f>'Data Summaries'!C116</f>
+        <v>0.04</v>
+      </c>
+      <c r="C4" s="432">
+        <f>'Data Summaries'!F116</f>
+        <v>0.06</v>
+      </c>
+      <c r="D4" s="433">
+        <f>'Data Summaries'!I116</f>
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="E4" s="432">
+        <f>'Data Summaries'!L116</f>
+        <v>0.13</v>
+      </c>
+      <c r="F4" s="432">
+        <f>'Data Summaries'!O116</f>
+        <v>0.36</v>
+      </c>
+      <c r="G4" s="432">
+        <f>'Data Summaries'!R116</f>
+        <v>0.01</v>
+      </c>
+      <c r="H4" s="432">
+        <f>'Data Summaries'!AA116</f>
+        <v>0.74</v>
+      </c>
+      <c r="I4" s="439">
+        <f>'Data Summaries'!V55</f>
+        <v>0.745</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>624</v>
+      </c>
+      <c r="B5" s="432">
+        <f>'Data Summaries'!C117</f>
+        <v>0.03</v>
+      </c>
+      <c r="C5" s="432">
+        <f>'Data Summaries'!F117</f>
+        <v>0.03</v>
+      </c>
+      <c r="D5" s="433">
+        <f>'Data Summaries'!I117</f>
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="E5" s="432">
+        <f>'Data Summaries'!L117</f>
+        <v>0.27</v>
+      </c>
+      <c r="F5" s="433">
+        <f>'Data Summaries'!O117</f>
+        <v>0.314</v>
+      </c>
+      <c r="G5" s="432">
+        <f>'Data Summaries'!R117</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="432">
+        <f>'Data Summaries'!AA117</f>
+        <v>0.86</v>
+      </c>
+      <c r="I5" s="439">
+        <f>'Data Summaries'!Y55</f>
+        <v>0.59699999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>659</v>
+      </c>
+      <c r="B6" s="432">
+        <f>'Data Summaries'!C118</f>
+        <v>0.05</v>
+      </c>
+      <c r="C6" s="432">
+        <f>'Data Summaries'!F118</f>
+        <v>0.09</v>
+      </c>
+      <c r="D6" s="439">
+        <f>'Data Summaries'!I118</f>
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="E6" s="432">
+        <f>'Data Summaries'!L118</f>
+        <v>0.11</v>
+      </c>
+      <c r="F6" s="439">
+        <f>'Data Summaries'!O118</f>
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="G6" s="432">
+        <f>'Data Summaries'!R118</f>
+        <v>0.01</v>
+      </c>
+      <c r="H6" s="432">
+        <f>'Data Summaries'!AA118</f>
+        <v>0.8</v>
+      </c>
+      <c r="I6" s="439">
+        <f>'Data Summaries'!J55</f>
+        <v>0.72400000000000009</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>660</v>
+      </c>
+      <c r="B7" s="432">
+        <f>'Data Summaries'!C119</f>
+        <v>0.03</v>
+      </c>
+      <c r="C7" s="432">
+        <f>'Data Summaries'!F119</f>
+        <v>0.04</v>
+      </c>
+      <c r="D7" s="439">
+        <f>'Data Summaries'!I119</f>
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="E7" s="432">
+        <f>'Data Summaries'!L119</f>
+        <v>0.19</v>
+      </c>
+      <c r="F7" s="439">
+        <f>'Data Summaries'!O119</f>
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="G7" s="432">
+        <f>'Data Summaries'!R119</f>
+        <v>0.01</v>
+      </c>
+      <c r="H7" s="432">
+        <f>'Data Summaries'!AA119</f>
+        <v>0.73</v>
+      </c>
+      <c r="I7" s="439">
+        <f>'Data Summaries'!S55</f>
+        <v>0.626</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="301" customFormat="1">
+      <c r="A8" t="s">
+        <v>617</v>
+      </c>
+      <c r="B8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D8" t="s">
+        <v>205</v>
+      </c>
+      <c r="E8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F8" t="s">
+        <v>189</v>
+      </c>
+      <c r="G8" s="432"/>
+      <c r="H8" s="432"/>
+      <c r="I8" s="436"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>625</v>
+      </c>
+      <c r="B9" s="432">
+        <f>'Data Summaries'!C120</f>
+        <v>0.01</v>
+      </c>
+      <c r="C9" s="432">
+        <f>'Data Summaries'!F120</f>
+        <v>0.01</v>
+      </c>
+      <c r="D9" s="434">
+        <f>'Data Summaries'!I120</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="432">
+        <f>'Data Summaries'!L120</f>
+        <v>0.18</v>
+      </c>
+      <c r="F9" s="434">
+        <f>'Data Summaries'!O120</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="G9" s="432">
+        <f>'Data Summaries'!R120</f>
+        <v>0.01</v>
+      </c>
+      <c r="H9" s="432">
+        <f>'Data Summaries'!AA120</f>
+        <v>0.8</v>
+      </c>
+      <c r="I9" s="439">
+        <f>'Data Summaries'!AB46</f>
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>626</v>
+      </c>
+      <c r="B10" s="432">
+        <f>'Data Summaries'!C121</f>
+        <v>0.02</v>
+      </c>
+      <c r="C10" s="432">
+        <f>'Data Summaries'!F121</f>
+        <v>0.03</v>
+      </c>
+      <c r="D10" s="434">
+        <f>'Data Summaries'!I121</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="432">
+        <f>'Data Summaries'!L121</f>
+        <v>0.15</v>
+      </c>
+      <c r="F10" s="434">
+        <f>'Data Summaries'!O121</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="G10" s="432">
+        <f>'Data Summaries'!R121</f>
+        <v>0.01</v>
+      </c>
+      <c r="H10" s="432">
+        <f>'Data Summaries'!AA121</f>
+        <v>0.76</v>
+      </c>
+      <c r="I10" s="439">
+        <f>'Data Summaries'!AB47</f>
+        <v>0.57700000000000007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>627</v>
+      </c>
+      <c r="B11" s="432">
+        <f>'Data Summaries'!C122</f>
+        <v>0.04</v>
+      </c>
+      <c r="C11" s="432">
+        <f>'Data Summaries'!F122</f>
+        <v>0.08</v>
+      </c>
+      <c r="D11" s="434">
+        <f>'Data Summaries'!I122</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="432">
+        <f>'Data Summaries'!L122</f>
+        <v>0.15</v>
+      </c>
+      <c r="F11" s="434">
+        <f>'Data Summaries'!O122</f>
+        <v>0.159</v>
+      </c>
+      <c r="G11" s="432">
+        <f>'Data Summaries'!R122</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="432">
+        <f>'Data Summaries'!AA122</f>
+        <v>0.79</v>
+      </c>
+      <c r="I11" s="439">
+        <f>'Data Summaries'!AB48</f>
+        <v>0.68700000000000006</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>628</v>
+      </c>
+      <c r="B12" s="432">
+        <f>'Data Summaries'!C123</f>
+        <v>0.04</v>
+      </c>
+      <c r="C12" s="432">
+        <f>'Data Summaries'!F123</f>
+        <v>0.08</v>
+      </c>
+      <c r="D12" s="434">
+        <f>'Data Summaries'!I123</f>
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="E12" s="432">
+        <f>'Data Summaries'!L123</f>
+        <v>0.18</v>
+      </c>
+      <c r="F12" s="434">
+        <f>'Data Summaries'!O123</f>
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="G12" s="432">
+        <f>'Data Summaries'!R123</f>
+        <v>0.03</v>
+      </c>
+      <c r="H12" s="432">
+        <f>'Data Summaries'!AA123</f>
+        <v>0.66</v>
+      </c>
+      <c r="I12" s="439">
+        <f>'Data Summaries'!AB49</f>
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>629</v>
+      </c>
+      <c r="B13" s="432">
+        <f>'Data Summaries'!C124</f>
+        <v>0.38</v>
+      </c>
+      <c r="C13" s="432">
+        <f>'Data Summaries'!F124</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D13" s="434">
+        <f>'Data Summaries'!I124</f>
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="E13" s="432">
+        <f>'Data Summaries'!L124</f>
+        <v>0.09</v>
+      </c>
+      <c r="F13" s="434">
+        <f>'Data Summaries'!O124</f>
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="G13" s="432">
+        <f>'Data Summaries'!R124</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="432">
+        <f>'Data Summaries'!AA124</f>
+        <v>0.53</v>
+      </c>
+      <c r="I13" s="439">
+        <f>'Data Summaries'!S50</f>
+        <v>0.72799999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="302" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>617</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>631</v>
+      </c>
+      <c r="B18" s="432">
+        <f>'Data Summaries'!AH64</f>
+        <v>3.7176808603425524</v>
+      </c>
+      <c r="C18" s="432">
+        <f>'Data Summaries'!AH65</f>
+        <v>4.2874609699645481</v>
+      </c>
+      <c r="D18" s="432">
+        <f>'Data Summaries'!AH66</f>
+        <v>2.7353973412185391</v>
+      </c>
+      <c r="E18" s="432">
+        <f>'Data Summaries'!AH67</f>
+        <v>1.2432254956452389</v>
+      </c>
+      <c r="F18" s="432">
+        <f>'Data Summaries'!AH68</f>
+        <v>0.40987377896792981</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>632</v>
+      </c>
+      <c r="B19" s="432">
+        <f>'Data Summaries'!AD64</f>
+        <v>6.7128897072221099</v>
+      </c>
+      <c r="C19" s="432">
+        <f>'Data Summaries'!AD65</f>
+        <v>7.8751824899390703</v>
+      </c>
+      <c r="D19" s="432">
+        <f>'Data Summaries'!AD66</f>
+        <v>5.0912943385710738</v>
+      </c>
+      <c r="E19" s="432">
+        <f>'Data Summaries'!AD67</f>
+        <v>2.3430468084648366</v>
+      </c>
+      <c r="F19" s="432">
+        <f>'Data Summaries'!AD68</f>
+        <v>0.84259923379982948</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>633</v>
+      </c>
+      <c r="B20" s="432">
+        <f>'Data Summaries'!AF64</f>
+        <v>0.65853873538669128</v>
+      </c>
+      <c r="C20" s="432">
+        <f>'Data Summaries'!AF65</f>
+        <v>0.72850016807037643</v>
+      </c>
+      <c r="D20" s="432">
+        <f>'Data Summaries'!AF66</f>
+        <v>0.44433647990292957</v>
+      </c>
+      <c r="E20" s="432">
+        <f>'Data Summaries'!AF67</f>
+        <v>0.18011984146852941</v>
+      </c>
+      <c r="F20" s="432">
+        <f>'Data Summaries'!AF68</f>
+        <v>2.1724961981316532E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>634</v>
+      </c>
+      <c r="B21" s="214">
+        <f>'Data Summaries'!N64</f>
+        <v>2.5029102745667955</v>
+      </c>
+      <c r="C21" s="214">
+        <f>'Data Summaries'!N65</f>
+        <v>3.1833932632033419</v>
+      </c>
+      <c r="D21" s="214">
+        <f>'Data Summaries'!N66</f>
+        <v>2.1526494734645469</v>
+      </c>
+      <c r="E21" s="214">
+        <f>'Data Summaries'!N67</f>
+        <v>1.0545130486689225</v>
+      </c>
+      <c r="F21" s="214">
+        <f>'Data Summaries'!N68</f>
+        <v>0.38957824344718012</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>635</v>
+      </c>
+      <c r="B22" s="214">
+        <f>'Data Summaries'!Y64</f>
+        <v>33.680822268554081</v>
+      </c>
+      <c r="C22" s="214">
+        <f>'Data Summaries'!Y65</f>
+        <v>43.106197512490702</v>
+      </c>
+      <c r="D22" s="214">
+        <f>'Data Summaries'!Y66</f>
+        <v>23.519934647938459</v>
+      </c>
+      <c r="E22" s="214">
+        <f>'Data Summaries'!Y67</f>
+        <v>9.5004143482893344</v>
+      </c>
+      <c r="F22" s="214">
+        <f>'Data Summaries'!Y68</f>
+        <v>2.1794599192005104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>636</v>
+      </c>
+      <c r="B23" s="432">
+        <f>'Data Summaries'!J64</f>
+        <v>4.54394625023125</v>
+      </c>
+      <c r="C23" s="432">
+        <f>'Data Summaries'!J65</f>
+        <v>5.9002582614844421</v>
+      </c>
+      <c r="D23" s="432">
+        <f>'Data Summaries'!J66</f>
+        <v>4.0258609185925156</v>
+      </c>
+      <c r="E23" s="432">
+        <f>'Data Summaries'!J67</f>
+        <v>1.9835990393467668</v>
+      </c>
+      <c r="F23" s="432">
+        <f>'Data Summaries'!J68</f>
+        <v>0.80044202617097404</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>637</v>
+      </c>
+      <c r="B24" s="432">
+        <f>'Data Summaries'!L64</f>
+        <v>0.42061870494975945</v>
+      </c>
+      <c r="C24" s="432">
+        <f>'Data Summaries'!L65</f>
+        <v>0.48676986027054281</v>
+      </c>
+      <c r="D24" s="432">
+        <f>'Data Summaries'!L66</f>
+        <v>0.32781799444467818</v>
+      </c>
+      <c r="E24" s="432">
+        <f>'Data Summaries'!L67</f>
+        <v>0.1550864357276549</v>
+      </c>
+      <c r="F24" s="432">
+        <f>'Data Summaries'!L68</f>
+        <v>2.0823355475501321E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>638</v>
+      </c>
+      <c r="B25" s="432">
+        <f>'Data Summaries'!U64</f>
+        <v>59.468030398262954</v>
+      </c>
+      <c r="C25" s="432">
+        <f>'Data Summaries'!U65</f>
+        <v>78.039418639755027</v>
+      </c>
+      <c r="D25" s="432">
+        <f>'Data Summaries'!U66</f>
+        <v>44.360491363128752</v>
+      </c>
+      <c r="E25" s="432">
+        <f>'Data Summaries'!U67</f>
+        <v>18.629863858687187</v>
+      </c>
+      <c r="F25" s="432">
+        <f>'Data Summaries'!U68</f>
+        <v>4.621072088724584</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>639</v>
+      </c>
+      <c r="B26" s="432">
+        <f>'Data Summaries'!W64</f>
+        <v>6.6125864059618236</v>
+      </c>
+      <c r="C26" s="432">
+        <f>'Data Summaries'!W65</f>
+        <v>9.1412277759141229</v>
+      </c>
+      <c r="D26" s="432">
+        <f>'Data Summaries'!W66</f>
+        <v>4.4733013398188959</v>
+      </c>
+      <c r="E26" s="432">
+        <f>'Data Summaries'!W67</f>
+        <v>1.240240155593765</v>
+      </c>
+      <c r="F26" s="432">
+        <f>'Data Summaries'!W68</f>
+        <v>9.8463962189838522E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>618</v>
+      </c>
+      <c r="B28" t="s">
+        <v>200</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>640</v>
+      </c>
+      <c r="B29" s="26">
+        <f>'Data Summaries'!M63</f>
+        <v>376</v>
+      </c>
+      <c r="C29" s="26">
+        <f>'Data Summaries'!M64</f>
+        <v>8439</v>
+      </c>
+      <c r="D29" s="26">
+        <f>'Data Summaries'!M65</f>
+        <v>10529</v>
+      </c>
+      <c r="E29" s="26">
+        <f>'Data Summaries'!M66</f>
+        <v>6767</v>
+      </c>
+      <c r="F29" s="26">
+        <f>'Data Summaries'!M67</f>
+        <v>3118</v>
+      </c>
+      <c r="G29" s="26">
+        <f>'Data Summaries'!M68</f>
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>641</v>
+      </c>
+      <c r="B30" s="26">
+        <f>'Data Summaries'!X63</f>
+        <v>378</v>
+      </c>
+      <c r="C30" s="26">
+        <f>'Data Summaries'!X64</f>
+        <v>4604</v>
+      </c>
+      <c r="D30" s="26">
+        <f>'Data Summaries'!X65</f>
+        <v>4055</v>
+      </c>
+      <c r="E30" s="26">
+        <f>'Data Summaries'!X66</f>
+        <v>2073</v>
+      </c>
+      <c r="F30" s="26">
+        <f>'Data Summaries'!X67</f>
+        <v>642</v>
+      </c>
+      <c r="G30" s="26">
+        <f>'Data Summaries'!X68</f>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>642</v>
+      </c>
+      <c r="B31" s="26">
+        <f>'Data Summaries'!I63</f>
+        <v>353</v>
+      </c>
+      <c r="C31" s="26">
+        <f>'Data Summaries'!I64</f>
+        <v>7737</v>
+      </c>
+      <c r="D31" s="26">
+        <f>'Data Summaries'!I65</f>
+        <v>9721</v>
+      </c>
+      <c r="E31" s="26">
+        <f>'Data Summaries'!I66</f>
+        <v>6245</v>
+      </c>
+      <c r="F31" s="26">
+        <f>'Data Summaries'!I67</f>
+        <v>2885</v>
+      </c>
+      <c r="G31" s="26">
+        <f>'Data Summaries'!I68</f>
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>643</v>
+      </c>
+      <c r="B32" s="26">
+        <f>'Data Summaries'!K63</f>
+        <v>23</v>
+      </c>
+      <c r="C32" s="26">
+        <f>'Data Summaries'!K64</f>
+        <v>702</v>
+      </c>
+      <c r="D32" s="26">
+        <f>'Data Summaries'!K65</f>
+        <v>808</v>
+      </c>
+      <c r="E32" s="26">
+        <f>'Data Summaries'!K66</f>
+        <v>522</v>
+      </c>
+      <c r="F32" s="26">
+        <f>'Data Summaries'!K67</f>
+        <v>233</v>
+      </c>
+      <c r="G32" s="26">
+        <f>'Data Summaries'!K68</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="s">
+        <v>644</v>
+      </c>
+      <c r="B33" s="26">
+        <f>'Data Summaries'!T63</f>
+        <v>348</v>
+      </c>
+      <c r="C33" s="26">
+        <f>'Data Summaries'!T64</f>
+        <v>4163</v>
+      </c>
+      <c r="D33" s="26">
+        <f>'Data Summaries'!T65</f>
+        <v>3619</v>
+      </c>
+      <c r="E33" s="26">
+        <f>'Data Summaries'!T66</f>
+        <v>1867</v>
+      </c>
+      <c r="F33" s="26">
+        <f>'Data Summaries'!T67</f>
+        <v>598</v>
+      </c>
+      <c r="G33" s="26">
+        <f>'Data Summaries'!T68</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" t="s">
+        <v>645</v>
+      </c>
+      <c r="B34" s="26">
+        <f>'Data Summaries'!V63</f>
+        <v>30</v>
+      </c>
+      <c r="C34" s="26">
+        <f>'Data Summaries'!V64</f>
+        <v>441</v>
+      </c>
+      <c r="D34" s="26">
+        <f>'Data Summaries'!V65</f>
+        <v>436</v>
+      </c>
+      <c r="E34" s="26">
+        <f>'Data Summaries'!V66</f>
+        <v>206</v>
+      </c>
+      <c r="F34" s="26">
+        <f>'Data Summaries'!V67</f>
+        <v>44</v>
+      </c>
+      <c r="G34" s="26">
+        <f>'Data Summaries'!V68</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" t="s">
+        <v>646</v>
+      </c>
+      <c r="B35" s="26">
+        <f>'Data Summaries'!AG63</f>
+        <v>754</v>
+      </c>
+      <c r="C35" s="26">
+        <f>'Data Summaries'!AG64</f>
+        <v>13043</v>
+      </c>
+      <c r="D35" s="26">
+        <f>'Data Summaries'!AG65</f>
+        <v>14584</v>
+      </c>
+      <c r="E35" s="26">
+        <f>'Data Summaries'!AG66</f>
+        <v>8840</v>
+      </c>
+      <c r="F35" s="26">
+        <f>'Data Summaries'!AG67</f>
+        <v>3760</v>
+      </c>
+      <c r="G35" s="26">
+        <f>'Data Summaries'!AG68</f>
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" s="301" customFormat="1">
+      <c r="A36" s="301" t="s">
+        <v>655</v>
+      </c>
+      <c r="B36" s="26">
+        <f>'Data Summaries'!AC63</f>
+        <v>701</v>
+      </c>
+      <c r="C36" s="26">
+        <f>'Data Summaries'!AC64</f>
+        <v>11900</v>
+      </c>
+      <c r="D36" s="26">
+        <f>'Data Summaries'!AC65</f>
+        <v>13340</v>
+      </c>
+      <c r="E36" s="26">
+        <f>'Data Summaries'!AC66</f>
+        <v>8112</v>
+      </c>
+      <c r="F36" s="26">
+        <f>'Data Summaries'!AC67</f>
+        <v>3483</v>
+      </c>
+      <c r="G36" s="26">
+        <f>'Data Summaries'!AC68</f>
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="301" customFormat="1">
+      <c r="A37" s="301" t="s">
+        <v>656</v>
+      </c>
+      <c r="B37" s="26">
+        <f>'Data Summaries'!AE63</f>
+        <v>53</v>
+      </c>
+      <c r="C37" s="26">
+        <f>'Data Summaries'!AE64</f>
+        <v>1143</v>
+      </c>
+      <c r="D37" s="26">
+        <f>'Data Summaries'!AE65</f>
+        <v>1244</v>
+      </c>
+      <c r="E37" s="26">
+        <f>'Data Summaries'!AE66</f>
+        <v>728</v>
+      </c>
+      <c r="F37" s="26">
+        <f>'Data Summaries'!AE67</f>
+        <v>277</v>
+      </c>
+      <c r="G37" s="26">
+        <f>'Data Summaries'!AE68</f>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
+        <v>630</v>
+      </c>
+      <c r="B39" t="s">
+        <v>619</v>
+      </c>
+      <c r="C39" s="435" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>2</v>
+      </c>
+      <c r="E39" t="s">
+        <v>3</v>
+      </c>
+      <c r="F39" t="s">
+        <v>4</v>
+      </c>
+      <c r="G39" t="s">
+        <v>5</v>
+      </c>
+      <c r="H39" t="s">
+        <v>6</v>
+      </c>
+      <c r="I39" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" t="s">
+        <v>647</v>
+      </c>
+      <c r="B40" s="433">
+        <f>'Data Summaries'!E61</f>
+        <v>0.13063764398783725</v>
+      </c>
+      <c r="C40" s="433">
+        <f>'Data Summaries'!E62</f>
+        <v>0.12109420846479671</v>
+      </c>
+      <c r="D40" s="433">
+        <f>'Data Summaries'!E64</f>
+        <v>0.14672640031656342</v>
+      </c>
+      <c r="E40" s="433">
+        <f>'Data Summaries'!E65</f>
+        <v>0.14197398520210819</v>
+      </c>
+      <c r="F40" s="433">
+        <f>'Data Summaries'!E66</f>
+        <v>0.13367264054869152</v>
+      </c>
+      <c r="G40" s="433">
+        <f>'Data Summaries'!E67</f>
+        <v>0.12533165653076628</v>
+      </c>
+      <c r="H40" s="433">
+        <f>'Data Summaries'!E69</f>
+        <v>0.10415777294330726</v>
+      </c>
+      <c r="I40" s="433">
+        <f>'Data Summaries'!E70</f>
+        <v>9.6405692005929355E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" t="s">
+        <v>648</v>
+      </c>
+      <c r="B41" s="433">
+        <f>'Data Summaries'!G61</f>
+        <v>0.12192299300402208</v>
+      </c>
+      <c r="C41" s="433">
+        <f>'Data Summaries'!G62</f>
+        <v>0.11315223148858543</v>
+      </c>
+      <c r="D41" s="433">
+        <f>'Data Summaries'!G64</f>
+        <v>0.14158312631342129</v>
+      </c>
+      <c r="E41" s="433">
+        <f>'Data Summaries'!G65</f>
+        <v>0.14081556061308886</v>
+      </c>
+      <c r="F41" s="433">
+        <f>'Data Summaries'!G66</f>
+        <v>0.13508299516216438</v>
+      </c>
+      <c r="G41" s="433">
+        <f>'Data Summaries'!G67</f>
+        <v>0.12745153596276051</v>
+      </c>
+      <c r="H41" s="433">
+        <f>'Data Summaries'!G69</f>
+        <v>0.1061605800380661</v>
+      </c>
+      <c r="I41" s="433">
+        <f>'Data Summaries'!G70</f>
+        <v>0.11383097741789133</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" t="s">
+        <v>649</v>
+      </c>
+      <c r="B42" s="433">
+        <f>'Data Summaries'!P61</f>
+        <v>0.24123459826863078</v>
+      </c>
+      <c r="C42" s="433">
+        <f>'Data Summaries'!P62</f>
+        <v>0.21527911990823592</v>
+      </c>
+      <c r="D42" s="433">
+        <f>'Data Summaries'!P64</f>
+        <v>0.17570711799062783</v>
+      </c>
+      <c r="E42" s="433">
+        <f>'Data Summaries'!P65</f>
+        <v>0.11639680432114415</v>
+      </c>
+      <c r="F42" s="433">
+        <f>'Data Summaries'!P66</f>
+        <v>0.10563661326312143</v>
+      </c>
+      <c r="G42" s="433">
+        <f>'Data Summaries'!P67</f>
+        <v>8.0567150168292703E-2</v>
+      </c>
+      <c r="H42" s="433">
+        <f>'Data Summaries'!P69</f>
+        <v>4.5139089336944327E-2</v>
+      </c>
+      <c r="I42" s="433">
+        <f>'Data Summaries'!P70</f>
+        <v>2.0039506743002863E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
+        <v>650</v>
+      </c>
+      <c r="B43" s="433">
+        <f>'Data Summaries'!R61</f>
+        <v>0.22896997639716765</v>
+      </c>
+      <c r="C43" s="433">
+        <f>'Data Summaries'!R62</f>
+        <v>0.20500460055206624</v>
+      </c>
+      <c r="D43" s="433">
+        <f>'Data Summaries'!R64</f>
+        <v>0.16674750970116414</v>
+      </c>
+      <c r="E43" s="433">
+        <f>'Data Summaries'!R65</f>
+        <v>0.11925431051726207</v>
+      </c>
+      <c r="F43" s="433">
+        <f>'Data Summaries'!R66</f>
+        <v>0.11514131695803496</v>
+      </c>
+      <c r="G43" s="433">
+        <f>'Data Summaries'!R67</f>
+        <v>8.870314437732528E-2</v>
+      </c>
+      <c r="H43" s="433">
+        <f>'Data Summaries'!R69</f>
+        <v>4.9645957514901785E-2</v>
+      </c>
+      <c r="I43" s="433">
+        <f>'Data Summaries'!R70</f>
+        <v>2.6533183982077848E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" t="s">
+        <v>651</v>
+      </c>
+      <c r="B44" s="26">
+        <f>'Data Summaries'!D61</f>
+        <v>1516001</v>
+      </c>
+      <c r="C44" s="26">
+        <f>'Data Summaries'!D62</f>
+        <v>1405253</v>
+      </c>
+      <c r="D44" s="26">
+        <f>'Data Summaries'!D64</f>
+        <v>1702705</v>
+      </c>
+      <c r="E44" s="26">
+        <f>'Data Summaries'!D65</f>
+        <v>1647555</v>
+      </c>
+      <c r="F44" s="26">
+        <f>'Data Summaries'!D66</f>
+        <v>1551221</v>
+      </c>
+      <c r="G44" s="26">
+        <f>'Data Summaries'!D67</f>
+        <v>1454427</v>
+      </c>
+      <c r="H44" s="26">
+        <f>'Data Summaries'!D69</f>
+        <v>1208712</v>
+      </c>
+      <c r="I44" s="26">
+        <f>'Data Summaries'!D70</f>
+        <v>1118752</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" t="s">
+        <v>652</v>
+      </c>
+      <c r="B45" s="26">
+        <f>'Data Summaries'!F61</f>
+        <v>1437218</v>
+      </c>
+      <c r="C45" s="26">
+        <f>'Data Summaries'!F62</f>
+        <v>1333829</v>
+      </c>
+      <c r="D45" s="26">
+        <f>'Data Summaries'!F64</f>
+        <v>1668970</v>
+      </c>
+      <c r="E45" s="26">
+        <f>'Data Summaries'!F65</f>
+        <v>1659922</v>
+      </c>
+      <c r="F45" s="26">
+        <f>'Data Summaries'!F66</f>
+        <v>1592347</v>
+      </c>
+      <c r="G45" s="26">
+        <f>'Data Summaries'!F67</f>
+        <v>1502388</v>
+      </c>
+      <c r="H45" s="26">
+        <f>'Data Summaries'!F69</f>
+        <v>1251412</v>
+      </c>
+      <c r="I45" s="26">
+        <f>'Data Summaries'!F70</f>
+        <v>1341830</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" t="s">
+        <v>653</v>
+      </c>
+      <c r="B46" s="26">
+        <f>'Data Summaries'!O61</f>
+        <v>96111</v>
+      </c>
+      <c r="C46" s="26">
+        <f>'Data Summaries'!O62</f>
+        <v>85770</v>
+      </c>
+      <c r="D46" s="26">
+        <f>'Data Summaries'!O64</f>
+        <v>70004</v>
+      </c>
+      <c r="E46" s="26">
+        <f>'Data Summaries'!O65</f>
+        <v>46374</v>
+      </c>
+      <c r="F46" s="26">
+        <f>'Data Summaries'!O66</f>
+        <v>42087</v>
+      </c>
+      <c r="G46" s="26">
+        <f>'Data Summaries'!O67</f>
+        <v>32099</v>
+      </c>
+      <c r="H46" s="26">
+        <f>'Data Summaries'!O69</f>
+        <v>17984</v>
+      </c>
+      <c r="I46" s="26">
+        <f>'Data Summaries'!O70</f>
+        <v>7984</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" t="s">
+        <v>654</v>
+      </c>
+      <c r="B47" s="26">
+        <f>'Data Summaries'!Q61</f>
+        <v>91577</v>
+      </c>
+      <c r="C47" s="26">
+        <f>'Data Summaries'!Q62</f>
+        <v>81992</v>
+      </c>
+      <c r="D47" s="26">
+        <f>'Data Summaries'!Q64</f>
+        <v>66691</v>
+      </c>
+      <c r="E47" s="26">
+        <f>'Data Summaries'!Q65</f>
+        <v>47696</v>
+      </c>
+      <c r="F47" s="26">
+        <f>'Data Summaries'!Q66</f>
+        <v>46051</v>
+      </c>
+      <c r="G47" s="26">
+        <f>'Data Summaries'!Q67</f>
+        <v>35477</v>
+      </c>
+      <c r="H47" s="26">
+        <f>'Data Summaries'!Q69</f>
+        <v>19856</v>
+      </c>
+      <c r="I47" s="26">
+        <f>'Data Summaries'!Q70</f>
+        <v>10612</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" s="301" customFormat="1"/>
+    <row r="49" spans="1:9" s="301" customFormat="1">
+      <c r="A49" s="301" t="s">
+        <v>657</v>
+      </c>
+      <c r="B49" s="214">
+        <f>'Data Summaries'!AI63</f>
+        <v>1.7383944094320523</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" s="301" customFormat="1">
+      <c r="A50" s="301" t="s">
+        <v>658</v>
+      </c>
+      <c r="B50" s="214">
+        <f>'Data Summaries'!AI70</f>
+        <v>25.957576510165605</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="302" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="301" t="s">
+        <v>621</v>
+      </c>
+      <c r="B53" s="301" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" s="301" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53" s="301" t="s">
+        <v>525</v>
+      </c>
+      <c r="E53" s="301" t="s">
+        <v>173</v>
+      </c>
+      <c r="F53" s="301" t="s">
+        <v>15</v>
+      </c>
+      <c r="G53" s="301" t="s">
+        <v>16</v>
+      </c>
+      <c r="H53" s="301" t="s">
+        <v>17</v>
+      </c>
+      <c r="I53" s="301" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="301" t="s">
+        <v>623</v>
+      </c>
+      <c r="B54" s="432">
+        <f>'Data Summaries'!C116</f>
+        <v>0.04</v>
+      </c>
+      <c r="C54" s="432">
+        <f>'Data Summaries'!F116</f>
+        <v>0.06</v>
+      </c>
+      <c r="D54" s="433">
+        <f>'Data Summaries'!I116</f>
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="E54" s="432">
+        <f>'Data Summaries'!L116</f>
+        <v>0.13</v>
+      </c>
+      <c r="F54" s="432">
+        <f>'Data Summaries'!O116</f>
+        <v>0.36</v>
+      </c>
+      <c r="G54" s="432">
+        <f>'Data Summaries'!R116</f>
+        <v>0.01</v>
+      </c>
+      <c r="H54" s="432">
+        <f>'Data Summaries'!AA116</f>
+        <v>0.74</v>
+      </c>
+      <c r="I54" s="439">
+        <f>'Data Summaries'!V55</f>
+        <v>0.745</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="301" t="s">
+        <v>624</v>
+      </c>
+      <c r="B55" s="432">
+        <f>'Data Summaries'!C117</f>
+        <v>0.03</v>
+      </c>
+      <c r="C55" s="432">
+        <f>'Data Summaries'!F117</f>
+        <v>0.03</v>
+      </c>
+      <c r="D55" s="433">
+        <f>'Data Summaries'!I117</f>
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="E55" s="432">
+        <f>'Data Summaries'!L117</f>
+        <v>0.27</v>
+      </c>
+      <c r="F55" s="433">
+        <f>'Data Summaries'!O117</f>
+        <v>0.314</v>
+      </c>
+      <c r="G55" s="432">
+        <f>'Data Summaries'!R117</f>
+        <v>0</v>
+      </c>
+      <c r="H55" s="432">
+        <f>'Data Summaries'!AA117</f>
+        <v>0.86</v>
+      </c>
+      <c r="I55" s="439">
+        <f>'Data Summaries'!Y55</f>
+        <v>0.59699999999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="301" t="s">
+        <v>659</v>
+      </c>
+      <c r="B56" s="432">
+        <f>'Data Summaries'!C118</f>
+        <v>0.05</v>
+      </c>
+      <c r="C56" s="432">
+        <f>'Data Summaries'!F118</f>
+        <v>0.09</v>
+      </c>
+      <c r="D56" s="433">
+        <f>'Data Summaries'!I118</f>
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="E56" s="432">
+        <f>'Data Summaries'!L118</f>
+        <v>0.11</v>
+      </c>
+      <c r="F56" s="433">
+        <f>'Data Summaries'!O118</f>
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="G56" s="432">
+        <f>'Data Summaries'!R118</f>
+        <v>0.01</v>
+      </c>
+      <c r="H56" s="432">
+        <f>'Data Summaries'!AA118</f>
+        <v>0.8</v>
+      </c>
+      <c r="I56" s="439">
+        <f>'Data Summaries'!J55</f>
+        <v>0.72400000000000009</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="301" t="s">
+        <v>660</v>
+      </c>
+      <c r="B57" s="432">
+        <f>'Data Summaries'!C119</f>
+        <v>0.03</v>
+      </c>
+      <c r="C57" s="432">
+        <f>'Data Summaries'!F119</f>
+        <v>0.04</v>
+      </c>
+      <c r="D57" s="433">
+        <f>'Data Summaries'!I119</f>
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="E57" s="432">
+        <f>'Data Summaries'!L119</f>
+        <v>0.19</v>
+      </c>
+      <c r="F57" s="433">
+        <f>'Data Summaries'!O119</f>
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="G57" s="432">
+        <f>'Data Summaries'!R119</f>
+        <v>0.01</v>
+      </c>
+      <c r="H57" s="432">
+        <f>'Data Summaries'!AA119</f>
+        <v>0.73</v>
+      </c>
+      <c r="I57" s="439">
+        <f>'Data Summaries'!S55</f>
+        <v>0.626</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="301" t="s">
+        <v>617</v>
+      </c>
+      <c r="B59" s="301" t="s">
+        <v>203</v>
+      </c>
+      <c r="C59" s="301" t="s">
+        <v>204</v>
+      </c>
+      <c r="D59" s="301" t="s">
+        <v>205</v>
+      </c>
+      <c r="E59" s="301" t="s">
+        <v>206</v>
+      </c>
+      <c r="F59" s="301" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" t="s">
+        <v>661</v>
+      </c>
+      <c r="B60" s="26">
+        <f>'Data Summaries'!AG76</f>
+        <v>6048.3481676905894</v>
+      </c>
+      <c r="C60" s="26">
+        <f>'Data Summaries'!AG77</f>
+        <v>15521.901451053342</v>
+      </c>
+      <c r="D60" s="26">
+        <f>'Data Summaries'!AG78</f>
+        <v>11885.752374017402</v>
+      </c>
+      <c r="E60" s="26">
+        <f>'Data Summaries'!AG79</f>
+        <v>6122.6429837205578</v>
+      </c>
+      <c r="F60" s="26">
+        <f>'Data Summaries'!AG80</f>
+        <v>3468.0717639909399</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" t="s">
+        <v>662</v>
+      </c>
+      <c r="B61" s="433">
+        <f>'Data Summaries'!J20</f>
+        <v>0</v>
+      </c>
+      <c r="C61" s="433">
+        <f>'Data Summaries'!J21</f>
+        <v>8.8652482269503544E-4</v>
+      </c>
+      <c r="D61" s="433">
+        <f>'Data Summaries'!J22</f>
+        <v>1.1061946902654867E-3</v>
+      </c>
+      <c r="E61" s="433">
+        <f>'Data Summaries'!J23</f>
+        <v>1.7730496453900709E-3</v>
+      </c>
+      <c r="F61" s="433">
+        <f>'Data Summaries'!J24</f>
+        <v>8.6132644272179162E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" t="s">
+        <v>663</v>
+      </c>
+      <c r="B62" s="433">
+        <f>'Data Summaries'!K20</f>
+        <v>2E-3</v>
+      </c>
+      <c r="C62" s="433">
+        <f>'Data Summaries'!K21</f>
+        <v>2E-3</v>
+      </c>
+      <c r="D62" s="433">
+        <f>'Data Summaries'!K22</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E62" s="433">
+        <f>'Data Summaries'!K23</f>
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="F62" s="433">
+        <f>'Data Summaries'!K24</f>
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" t="s">
+        <v>664</v>
+      </c>
+      <c r="B63" s="433">
+        <f>'Data Summaries'!L20</f>
+        <v>0</v>
+      </c>
+      <c r="C63" s="433">
+        <f>'Data Summaries'!L21</f>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D63" s="433">
+        <f>'Data Summaries'!L22</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E63" s="433">
+        <f>'Data Summaries'!L23</f>
+        <v>0.01</v>
+      </c>
+      <c r="F63" s="433">
+        <f>'Data Summaries'!L24</f>
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" t="s">
+        <v>665</v>
+      </c>
+      <c r="B64" s="433">
+        <f>'Data Summaries'!N20</f>
+        <v>0</v>
+      </c>
+      <c r="C64" s="433">
+        <f>'Data Summaries'!N21</f>
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="D64" s="433">
+        <f>'Data Summaries'!N22</f>
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="E64" s="433">
+        <f>'Data Summaries'!N23</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F64" s="433">
+        <f>'Data Summaries'!N24</f>
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" t="s">
+        <v>666</v>
+      </c>
+      <c r="B65" s="433">
+        <f>'Data Summaries'!M20</f>
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="C65" s="433">
+        <f>'Data Summaries'!M21</f>
+        <v>1.4E-3</v>
+      </c>
+      <c r="D65" s="433">
+        <f>'Data Summaries'!M22</f>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E65" s="433">
+        <f>'Data Summaries'!M23</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F65" s="433">
+        <f>'Data Summaries'!M24</f>
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" t="s">
+        <v>625</v>
+      </c>
+      <c r="B67" s="432">
+        <f>'Data Summaries'!C120</f>
+        <v>0.01</v>
+      </c>
+      <c r="C67" s="432">
+        <f>'Data Summaries'!F120</f>
+        <v>0.01</v>
+      </c>
+      <c r="D67">
+        <f>'Data Summaries'!I120</f>
+        <v>0</v>
+      </c>
+      <c r="E67" s="432">
+        <f>'Data Summaries'!L120</f>
+        <v>0.18</v>
+      </c>
+      <c r="F67">
+        <f>'Data Summaries'!O120</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="G67" s="432">
+        <f>'Data Summaries'!G90</f>
+        <v>0.01</v>
+      </c>
+      <c r="H67" s="432">
+        <f>'Data Summaries'!I90</f>
+        <v>0.8</v>
+      </c>
+      <c r="I67">
+        <f>'Data Summaries'!AB46</f>
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" t="s">
+        <v>626</v>
+      </c>
+      <c r="B68" s="432">
+        <f>'Data Summaries'!C121</f>
+        <v>0.02</v>
+      </c>
+      <c r="C68" s="432">
+        <f>'Data Summaries'!F121</f>
+        <v>0.03</v>
+      </c>
+      <c r="D68" s="301">
+        <f>'Data Summaries'!I121</f>
+        <v>0</v>
+      </c>
+      <c r="E68" s="432">
+        <f>'Data Summaries'!L121</f>
+        <v>0.15</v>
+      </c>
+      <c r="F68" s="301">
+        <f>'Data Summaries'!O121</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="G68" s="432">
+        <f>'Data Summaries'!G91</f>
+        <v>0.01</v>
+      </c>
+      <c r="H68" s="432">
+        <f>'Data Summaries'!I91</f>
+        <v>0.76</v>
+      </c>
+      <c r="I68" s="301">
+        <f>'Data Summaries'!AB47</f>
+        <v>0.57700000000000007</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" t="s">
+        <v>627</v>
+      </c>
+      <c r="B69" s="432">
+        <f>'Data Summaries'!C122</f>
+        <v>0.04</v>
+      </c>
+      <c r="C69" s="432">
+        <f>'Data Summaries'!F122</f>
+        <v>0.08</v>
+      </c>
+      <c r="D69" s="301">
+        <f>'Data Summaries'!I122</f>
+        <v>0</v>
+      </c>
+      <c r="E69" s="432">
+        <f>'Data Summaries'!L122</f>
+        <v>0.15</v>
+      </c>
+      <c r="F69" s="301">
+        <f>'Data Summaries'!O122</f>
+        <v>0.159</v>
+      </c>
+      <c r="G69" s="432">
+        <f>'Data Summaries'!G92</f>
+        <v>0</v>
+      </c>
+      <c r="H69" s="432">
+        <f>'Data Summaries'!I92</f>
+        <v>0.79</v>
+      </c>
+      <c r="I69" s="301">
+        <f>'Data Summaries'!AB48</f>
+        <v>0.68700000000000006</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" t="s">
+        <v>628</v>
+      </c>
+      <c r="B70" s="432">
+        <f>'Data Summaries'!C123</f>
+        <v>0.04</v>
+      </c>
+      <c r="C70" s="432">
+        <f>'Data Summaries'!F123</f>
+        <v>0.08</v>
+      </c>
+      <c r="D70" s="301">
+        <f>'Data Summaries'!I123</f>
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="E70" s="432">
+        <f>'Data Summaries'!L123</f>
+        <v>0.18</v>
+      </c>
+      <c r="F70" s="301">
+        <f>'Data Summaries'!O123</f>
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="G70" s="432">
+        <f>'Data Summaries'!G93</f>
+        <v>0.03</v>
+      </c>
+      <c r="H70" s="432">
+        <f>'Data Summaries'!I93</f>
+        <v>0.66</v>
+      </c>
+      <c r="I70" s="301">
+        <f>'Data Summaries'!AB49</f>
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" t="s">
+        <v>629</v>
+      </c>
+      <c r="B71" s="432">
+        <f>'Data Summaries'!C124</f>
+        <v>0.38</v>
+      </c>
+      <c r="C71" s="432">
+        <f>'Data Summaries'!F124</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D71" s="301">
+        <f>'Data Summaries'!I124</f>
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="E71" s="432">
+        <f>'Data Summaries'!L124</f>
+        <v>0.09</v>
+      </c>
+      <c r="F71" s="301">
+        <f>'Data Summaries'!O124</f>
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="G71" s="432">
+        <f>'Data Summaries'!G94</f>
+        <v>0</v>
+      </c>
+      <c r="H71" s="432">
+        <f>'Data Summaries'!I94</f>
+        <v>0.53</v>
+      </c>
+      <c r="I71" s="437">
+        <f>'Data Summaries'!S50</f>
+        <v>0.72799999999999998</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" t="s">
+        <v>667</v>
+      </c>
+      <c r="B72" s="433">
+        <f>'Data Summaries'!C32</f>
+        <v>0.105</v>
+      </c>
+      <c r="C72" s="433">
+        <f>'Data Summaries'!C33</f>
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="D72" s="433">
+        <f>'Data Summaries'!C34</f>
+        <v>6.3E-2</v>
+      </c>
+      <c r="E72" s="433">
+        <f>'Data Summaries'!C35</f>
+        <v>0</v>
+      </c>
+      <c r="F72" s="433">
+        <f>'Data Summaries'!C36</f>
+        <v>0.06</v>
+      </c>
+      <c r="G72" s="433">
+        <f>'Data Summaries'!C37</f>
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="H72" s="437">
+        <v>0</v>
+      </c>
+      <c r="I72" s="437">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" t="s">
+        <v>655</v>
+      </c>
+      <c r="B74" s="26">
+        <f>SUM('Data Summaries'!AC63:AC68)</f>
+        <v>39519</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" t="s">
+        <v>656</v>
+      </c>
+      <c r="B75" s="26">
+        <f>SUM('Data Summaries'!AE63:AE68)</f>
+        <v>3502</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" t="s">
+        <v>668</v>
+      </c>
+      <c r="B76">
+        <f>'Data Summaries'!B137*(1-'Data Summaries'!B139)</f>
+        <v>18290.000000000004</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" t="s">
+        <v>669</v>
+      </c>
+      <c r="B77">
+        <f>'Data Summaries'!B137*'Data Summaries'!B139</f>
+        <v>12710</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" t="s">
+        <v>670</v>
+      </c>
+      <c r="B78" s="440">
+        <f>SUM('Data Summaries'!X76:X80)</f>
+        <v>12110.520078583319</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" t="s">
+        <v>671</v>
+      </c>
+      <c r="B79" s="438">
+        <f>SUM('Data Summaries'!S75:S80)</f>
+        <v>798365</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" t="s">
+        <v>672</v>
+      </c>
+      <c r="B80" s="440">
+        <f>SUM('Data Summaries'!M76:M80)</f>
+        <v>31164.774226242287</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" t="s">
+        <v>673</v>
+      </c>
+      <c r="B81" s="440">
+        <f>SUM('Data Summaries'!H75:H80)</f>
+        <v>23392542</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" s="301" customFormat="1">
+      <c r="B82" s="438"/>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="B83" t="s">
+        <v>9</v>
+      </c>
+      <c r="C83" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" t="s">
+        <v>674</v>
+      </c>
+      <c r="B84" s="433">
+        <f>'Data Summaries'!C98</f>
+        <v>1.6057585825027684E-2</v>
+      </c>
+      <c r="C84" s="433">
+        <f>'Data Summaries'!C99</f>
+        <v>1.2842465753424657E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" t="s">
+        <v>675</v>
+      </c>
+      <c r="B85" s="433">
+        <f>'Data Summaries'!F98</f>
+        <v>3.5327999999999998E-2</v>
+      </c>
+      <c r="C85" s="433">
+        <f>'Data Summaries'!F99</f>
+        <v>1.9871999999999997E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" t="s">
+        <v>676</v>
+      </c>
+      <c r="B86" s="433">
+        <f>'Data Summaries'!H98</f>
+        <v>8.6241999999999999E-2</v>
+      </c>
+      <c r="C86" s="433">
+        <f>'Data Summaries'!H99</f>
+        <v>5.2858000000000002E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" t="s">
+        <v>677</v>
+      </c>
+      <c r="B87" s="433">
+        <f>'Data Summaries'!L98</f>
+        <v>1.2272E-2</v>
+      </c>
+      <c r="C87" s="433">
+        <f>'Data Summaries'!L99</f>
+        <v>1.1328E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" t="s">
+        <v>678</v>
+      </c>
+      <c r="B88" s="433">
+        <f>'Data Summaries'!J98</f>
+        <v>6.8323999999999996E-2</v>
+      </c>
+      <c r="C88" s="433">
+        <f>'Data Summaries'!J99</f>
+        <v>4.9475999999999999E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" t="s">
+        <v>618</v>
+      </c>
+      <c r="B90" s="301" t="s">
+        <v>2</v>
+      </c>
+      <c r="C90" s="301" t="s">
+        <v>3</v>
+      </c>
+      <c r="D90" s="301" t="s">
+        <v>4</v>
+      </c>
+      <c r="E90" s="301" t="s">
+        <v>5</v>
+      </c>
+      <c r="F90" s="301" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" t="s">
+        <v>684</v>
+      </c>
+      <c r="B91" s="26">
+        <f>'Data Summaries'!AG64</f>
+        <v>13043</v>
+      </c>
+      <c r="C91" s="26">
+        <f>'Data Summaries'!AG65</f>
+        <v>14584</v>
+      </c>
+      <c r="D91" s="26">
+        <f>'Data Summaries'!AG66</f>
+        <v>8840</v>
+      </c>
+      <c r="E91" s="26">
+        <f>'Data Summaries'!AG67</f>
+        <v>3760</v>
+      </c>
+      <c r="F91" s="26">
+        <f>'Data Summaries'!AG68</f>
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" t="s">
+        <v>679</v>
+      </c>
+      <c r="B92" s="433">
+        <f>'Data Summaries'!J20</f>
+        <v>0</v>
+      </c>
+      <c r="C92" s="433">
+        <f>'Data Summaries'!J21</f>
+        <v>8.8652482269503544E-4</v>
+      </c>
+      <c r="D92" s="433">
+        <f>'Data Summaries'!J22</f>
+        <v>1.1061946902654867E-3</v>
+      </c>
+      <c r="E92" s="433">
+        <f>'Data Summaries'!J23</f>
+        <v>1.7730496453900709E-3</v>
+      </c>
+      <c r="F92" s="433">
+        <f>'Data Summaries'!J24</f>
+        <v>8.6132644272179162E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" t="s">
+        <v>680</v>
+      </c>
+      <c r="B93" s="433">
+        <f>'Data Summaries'!K20</f>
+        <v>2E-3</v>
+      </c>
+      <c r="C93" s="433">
+        <f>'Data Summaries'!K21</f>
+        <v>2E-3</v>
+      </c>
+      <c r="D93" s="433">
+        <f>'Data Summaries'!K22</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E93" s="433">
+        <f>'Data Summaries'!K23</f>
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="F93" s="433">
+        <f>'Data Summaries'!K24</f>
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" t="s">
+        <v>681</v>
+      </c>
+      <c r="B94" s="433">
+        <f>'Data Summaries'!L20</f>
+        <v>0</v>
+      </c>
+      <c r="C94" s="433">
+        <f>'Data Summaries'!L21</f>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D94" s="433">
+        <f>'Data Summaries'!L22</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E94" s="433">
+        <f>'Data Summaries'!L23</f>
+        <v>0.01</v>
+      </c>
+      <c r="F94" s="433">
+        <f>'Data Summaries'!L24</f>
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" t="s">
+        <v>682</v>
+      </c>
+      <c r="B95" s="433">
+        <f>'Data Summaries'!N20</f>
+        <v>0</v>
+      </c>
+      <c r="C95" s="433">
+        <f>'Data Summaries'!N21</f>
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="D95" s="433">
+        <f>'Data Summaries'!N22</f>
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="E95" s="433">
+        <f>'Data Summaries'!N23</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F95" s="433">
+        <f>'Data Summaries'!N24</f>
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" t="s">
+        <v>683</v>
+      </c>
+      <c r="B96" s="433">
+        <f>'Data Summaries'!M20</f>
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="C96" s="433">
+        <f>'Data Summaries'!M21</f>
+        <v>1.4E-3</v>
+      </c>
+      <c r="D96" s="433">
+        <f>'Data Summaries'!M22</f>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E96" s="433">
+        <f>'Data Summaries'!M23</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F96" s="433">
+        <f>'Data Summaries'!M24</f>
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" t="s">
+        <v>685</v>
+      </c>
+      <c r="B97" s="26">
+        <f>'Data Summaries'!M64</f>
+        <v>8439</v>
+      </c>
+      <c r="C97" s="26">
+        <f>'Data Summaries'!M65</f>
+        <v>10529</v>
+      </c>
+      <c r="D97" s="26">
+        <f>'Data Summaries'!M66</f>
+        <v>6767</v>
+      </c>
+      <c r="E97" s="26">
+        <f>'Data Summaries'!M67</f>
+        <v>3118</v>
+      </c>
+      <c r="F97" s="26">
+        <f>'Data Summaries'!M68</f>
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" t="s">
+        <v>686</v>
+      </c>
+      <c r="B98" s="26">
+        <f>'Data Summaries'!X64</f>
+        <v>4604</v>
+      </c>
+      <c r="C98" s="26">
+        <f>'Data Summaries'!X65</f>
+        <v>4055</v>
+      </c>
+      <c r="D98" s="26">
+        <f>'Data Summaries'!X66</f>
+        <v>2073</v>
+      </c>
+      <c r="E98" s="26">
+        <f>'Data Summaries'!X67</f>
+        <v>642</v>
+      </c>
+      <c r="F98" s="26">
+        <f>'Data Summaries'!X68</f>
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{700DC135-295E-45A6-9D8A-ABA304F30F0E}">
   <dimension ref="A1:L108"/>
   <sheetViews>
@@ -14449,7 +16955,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6205817-3C53-46FD-A1E7-ECB63C82D6F9}">
   <dimension ref="A1:IU63"/>
   <sheetViews>
@@ -16888,7 +19394,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1805004C-4081-426D-BC01-F05BBF9CAE23}">
   <dimension ref="A1:M158"/>
   <sheetViews>
@@ -22457,7 +24963,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A1605B-3639-4A5F-B875-D10E7BB4922A}">
   <dimension ref="A1:H45"/>
   <sheetViews>
@@ -23187,7 +25693,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C28EDC59-5AE6-484B-AF0C-93F19C29C298}">
   <dimension ref="A1:BB41"/>
   <sheetViews>
@@ -23261,71 +25767,71 @@
     </row>
     <row r="2" spans="1:54">
       <c r="A2" s="223"/>
-      <c r="B2" s="416" t="s">
+      <c r="B2" s="410" t="s">
         <v>288</v>
       </c>
-      <c r="C2" s="416"/>
-      <c r="D2" s="416"/>
-      <c r="E2" s="416"/>
-      <c r="F2" s="416"/>
-      <c r="G2" s="416"/>
-      <c r="H2" s="416"/>
-      <c r="I2" s="416"/>
+      <c r="C2" s="410"/>
+      <c r="D2" s="410"/>
+      <c r="E2" s="410"/>
+      <c r="F2" s="410"/>
+      <c r="G2" s="410"/>
+      <c r="H2" s="410"/>
+      <c r="I2" s="410"/>
       <c r="J2" s="224"/>
-      <c r="K2" s="416" t="s">
+      <c r="K2" s="410" t="s">
         <v>289</v>
       </c>
-      <c r="L2" s="416"/>
-      <c r="M2" s="416"/>
-      <c r="N2" s="416"/>
-      <c r="O2" s="416"/>
-      <c r="P2" s="416"/>
-      <c r="Q2" s="416"/>
-      <c r="R2" s="416"/>
+      <c r="L2" s="410"/>
+      <c r="M2" s="410"/>
+      <c r="N2" s="410"/>
+      <c r="O2" s="410"/>
+      <c r="P2" s="410"/>
+      <c r="Q2" s="410"/>
+      <c r="R2" s="410"/>
       <c r="S2" s="224"/>
-      <c r="T2" s="416" t="s">
+      <c r="T2" s="410" t="s">
         <v>290</v>
       </c>
-      <c r="U2" s="416"/>
-      <c r="V2" s="416"/>
-      <c r="W2" s="416"/>
-      <c r="X2" s="416"/>
-      <c r="Y2" s="416"/>
-      <c r="Z2" s="416"/>
-      <c r="AA2" s="416"/>
+      <c r="U2" s="410"/>
+      <c r="V2" s="410"/>
+      <c r="W2" s="410"/>
+      <c r="X2" s="410"/>
+      <c r="Y2" s="410"/>
+      <c r="Z2" s="410"/>
+      <c r="AA2" s="410"/>
       <c r="AB2" s="224"/>
-      <c r="AC2" s="416" t="s">
+      <c r="AC2" s="410" t="s">
         <v>291</v>
       </c>
-      <c r="AD2" s="416"/>
-      <c r="AE2" s="416"/>
-      <c r="AF2" s="416"/>
-      <c r="AG2" s="416"/>
-      <c r="AH2" s="416"/>
-      <c r="AI2" s="416"/>
-      <c r="AJ2" s="416"/>
+      <c r="AD2" s="410"/>
+      <c r="AE2" s="410"/>
+      <c r="AF2" s="410"/>
+      <c r="AG2" s="410"/>
+      <c r="AH2" s="410"/>
+      <c r="AI2" s="410"/>
+      <c r="AJ2" s="410"/>
       <c r="AK2" s="224"/>
-      <c r="AL2" s="416" t="s">
+      <c r="AL2" s="410" t="s">
         <v>292</v>
       </c>
-      <c r="AM2" s="416"/>
-      <c r="AN2" s="416"/>
-      <c r="AO2" s="416"/>
-      <c r="AP2" s="416"/>
-      <c r="AQ2" s="416"/>
-      <c r="AR2" s="416"/>
-      <c r="AS2" s="416"/>
+      <c r="AM2" s="410"/>
+      <c r="AN2" s="410"/>
+      <c r="AO2" s="410"/>
+      <c r="AP2" s="410"/>
+      <c r="AQ2" s="410"/>
+      <c r="AR2" s="410"/>
+      <c r="AS2" s="410"/>
       <c r="AT2" s="225"/>
-      <c r="AU2" s="417" t="s">
+      <c r="AU2" s="411" t="s">
         <v>293</v>
       </c>
-      <c r="AV2" s="418"/>
-      <c r="AW2" s="418"/>
-      <c r="AX2" s="418"/>
-      <c r="AY2" s="418"/>
-      <c r="AZ2" s="418"/>
-      <c r="BA2" s="418"/>
-      <c r="BB2" s="418"/>
+      <c r="AV2" s="412"/>
+      <c r="AW2" s="412"/>
+      <c r="AX2" s="412"/>
+      <c r="AY2" s="412"/>
+      <c r="AZ2" s="412"/>
+      <c r="BA2" s="412"/>
+      <c r="BB2" s="412"/>
     </row>
     <row r="3" spans="1:54" ht="25.5" customHeight="1">
       <c r="A3" s="226"/>
@@ -23344,20 +25850,20 @@
       </c>
       <c r="I3" s="414"/>
       <c r="J3" s="228"/>
-      <c r="K3" s="419" t="s">
+      <c r="K3" s="413" t="s">
         <v>294</v>
       </c>
-      <c r="L3" s="419"/>
+      <c r="L3" s="413"/>
       <c r="M3" s="229"/>
-      <c r="N3" s="419" t="s">
+      <c r="N3" s="413" t="s">
         <v>295</v>
       </c>
-      <c r="O3" s="419"/>
+      <c r="O3" s="413"/>
       <c r="P3" s="229"/>
-      <c r="Q3" s="419" t="s">
+      <c r="Q3" s="413" t="s">
         <v>296</v>
       </c>
-      <c r="R3" s="419"/>
+      <c r="R3" s="413"/>
       <c r="S3" s="227"/>
       <c r="T3" s="414" t="s">
         <v>294</v>
@@ -24724,85 +27230,85 @@
     </row>
     <row r="22" spans="1:42">
       <c r="A22" s="264"/>
-      <c r="B22" s="410" t="s">
+      <c r="B22" s="417" t="s">
         <v>180</v>
       </c>
-      <c r="C22" s="410"/>
-      <c r="D22" s="410"/>
-      <c r="E22" s="410"/>
-      <c r="F22" s="410"/>
-      <c r="G22" s="410"/>
-      <c r="H22" s="410"/>
-      <c r="I22" s="410"/>
+      <c r="C22" s="417"/>
+      <c r="D22" s="417"/>
+      <c r="E22" s="417"/>
+      <c r="F22" s="417"/>
+      <c r="G22" s="417"/>
+      <c r="H22" s="417"/>
+      <c r="I22" s="417"/>
       <c r="J22" s="265"/>
-      <c r="K22" s="410" t="s">
+      <c r="K22" s="417" t="s">
         <v>181</v>
       </c>
-      <c r="L22" s="410"/>
-      <c r="M22" s="410"/>
-      <c r="N22" s="410"/>
-      <c r="O22" s="410"/>
-      <c r="P22" s="410"/>
-      <c r="Q22" s="410"/>
-      <c r="R22" s="410"/>
+      <c r="L22" s="417"/>
+      <c r="M22" s="417"/>
+      <c r="N22" s="417"/>
+      <c r="O22" s="417"/>
+      <c r="P22" s="417"/>
+      <c r="Q22" s="417"/>
+      <c r="R22" s="417"/>
       <c r="S22" s="265"/>
-      <c r="T22" s="410" t="s">
+      <c r="T22" s="417" t="s">
         <v>433</v>
       </c>
-      <c r="U22" s="410"/>
-      <c r="V22" s="410"/>
-      <c r="W22" s="410"/>
-      <c r="X22" s="410"/>
-      <c r="Y22" s="410"/>
-      <c r="Z22" s="410"/>
-      <c r="AA22" s="410"/>
+      <c r="U22" s="417"/>
+      <c r="V22" s="417"/>
+      <c r="W22" s="417"/>
+      <c r="X22" s="417"/>
+      <c r="Y22" s="417"/>
+      <c r="Z22" s="417"/>
+      <c r="AA22" s="417"/>
     </row>
     <row r="23" spans="1:42" ht="22.5" customHeight="1">
       <c r="A23" s="266"/>
-      <c r="B23" s="411" t="s">
+      <c r="B23" s="418" t="s">
         <v>294</v>
       </c>
-      <c r="C23" s="411"/>
+      <c r="C23" s="418"/>
       <c r="D23" s="267"/>
-      <c r="E23" s="412" t="s">
+      <c r="E23" s="416" t="s">
         <v>295</v>
       </c>
-      <c r="F23" s="412"/>
+      <c r="F23" s="416"/>
       <c r="G23" s="268"/>
-      <c r="H23" s="413" t="s">
+      <c r="H23" s="419" t="s">
         <v>296</v>
       </c>
-      <c r="I23" s="413"/>
+      <c r="I23" s="419"/>
       <c r="J23" s="269"/>
-      <c r="K23" s="411" t="s">
+      <c r="K23" s="418" t="s">
         <v>294</v>
       </c>
-      <c r="L23" s="411"/>
+      <c r="L23" s="418"/>
       <c r="M23" s="267"/>
-      <c r="N23" s="412" t="s">
+      <c r="N23" s="416" t="s">
         <v>295</v>
       </c>
-      <c r="O23" s="412"/>
+      <c r="O23" s="416"/>
       <c r="P23" s="268"/>
-      <c r="Q23" s="413" t="s">
+      <c r="Q23" s="419" t="s">
         <v>296</v>
       </c>
-      <c r="R23" s="413"/>
+      <c r="R23" s="419"/>
       <c r="S23" s="269"/>
-      <c r="T23" s="412" t="s">
+      <c r="T23" s="416" t="s">
         <v>294</v>
       </c>
-      <c r="U23" s="412"/>
+      <c r="U23" s="416"/>
       <c r="V23" s="268"/>
-      <c r="W23" s="412" t="s">
+      <c r="W23" s="416" t="s">
         <v>295</v>
       </c>
-      <c r="X23" s="412"/>
+      <c r="X23" s="416"/>
       <c r="Y23" s="270"/>
-      <c r="Z23" s="412" t="s">
+      <c r="Z23" s="416" t="s">
         <v>296</v>
       </c>
-      <c r="AA23" s="412"/>
+      <c r="AA23" s="416"/>
     </row>
     <row r="24" spans="1:42">
       <c r="A24" s="271" t="s">
@@ -25641,6 +28147,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="K22:R22"/>
+    <mergeCell ref="T22:AA22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="AR3:AS3"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AX3:AY3"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="Z23:AA23"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AL3:AM3"/>
+    <mergeCell ref="AO3:AP3"/>
     <mergeCell ref="AL2:AS2"/>
     <mergeCell ref="AU2:BB2"/>
     <mergeCell ref="Q3:R3"/>
@@ -25657,37 +28183,17 @@
     <mergeCell ref="T3:U3"/>
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AR3:AS3"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AX3:AY3"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="Z23:AA23"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AL3:AM3"/>
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="K22:R22"/>
-    <mergeCell ref="T22:AA22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="T23:U23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47B37301-E1FE-4294-8D48-65F6FF26C74D}">
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -26059,11 +28565,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2383582F-E559-4175-AFC0-39080E0B28DD}">
   <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U22" sqref="U22"/>
     </sheetView>
   </sheetViews>
@@ -26074,11 +28580,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="43.5" customHeight="1">
-      <c r="A1" s="431" t="s">
+      <c r="A1" s="428" t="s">
         <v>561</v>
       </c>
-      <c r="B1" s="431"/>
-      <c r="C1" s="431"/>
+      <c r="B1" s="428"/>
+      <c r="C1" s="428"/>
       <c r="D1" s="318"/>
       <c r="E1" s="318"/>
       <c r="F1" s="318"/>
@@ -26245,11 +28751,11 @@
       <c r="H18" s="331"/>
     </row>
     <row r="19" spans="1:15" ht="24.75" customHeight="1">
-      <c r="A19" s="427" t="s">
+      <c r="A19" s="429" t="s">
         <v>575</v>
       </c>
-      <c r="B19" s="427"/>
-      <c r="C19" s="427"/>
+      <c r="B19" s="429"/>
+      <c r="C19" s="429"/>
       <c r="D19" s="331"/>
       <c r="E19" s="331"/>
       <c r="F19" s="331"/>
@@ -26257,11 +28763,11 @@
       <c r="H19" s="331"/>
     </row>
     <row r="20" spans="1:15" ht="46.5" customHeight="1">
-      <c r="A20" s="427" t="s">
+      <c r="A20" s="429" t="s">
         <v>576</v>
       </c>
-      <c r="B20" s="427"/>
-      <c r="C20" s="427"/>
+      <c r="B20" s="429"/>
+      <c r="C20" s="429"/>
       <c r="D20" s="331"/>
       <c r="E20" s="331"/>
       <c r="F20" s="331"/>
@@ -26269,11 +28775,11 @@
       <c r="H20" s="331"/>
     </row>
     <row r="21" spans="1:15" ht="59.25" customHeight="1">
-      <c r="A21" s="427" t="s">
+      <c r="A21" s="429" t="s">
         <v>577</v>
       </c>
-      <c r="B21" s="427"/>
-      <c r="C21" s="427"/>
+      <c r="B21" s="429"/>
+      <c r="C21" s="429"/>
       <c r="D21" s="333"/>
       <c r="E21" s="333"/>
       <c r="F21" s="333"/>
@@ -26281,11 +28787,11 @@
       <c r="H21" s="333"/>
     </row>
     <row r="22" spans="1:15" ht="26.25" customHeight="1">
-      <c r="A22" s="427" t="s">
+      <c r="A22" s="429" t="s">
         <v>429</v>
       </c>
-      <c r="B22" s="427"/>
-      <c r="C22" s="427"/>
+      <c r="B22" s="429"/>
+      <c r="C22" s="429"/>
       <c r="D22" s="334"/>
       <c r="E22" s="335"/>
       <c r="F22" s="335"/>
@@ -26323,15 +28829,15 @@
       <c r="C25" s="336"/>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="430" t="s">
+      <c r="A26" s="427" t="s">
         <v>579</v>
       </c>
-      <c r="B26" s="430"/>
-      <c r="C26" s="430"/>
-      <c r="D26" s="430"/>
-      <c r="E26" s="430"/>
-      <c r="F26" s="430"/>
-      <c r="G26" s="430"/>
+      <c r="B26" s="427"/>
+      <c r="C26" s="427"/>
+      <c r="D26" s="427"/>
+      <c r="E26" s="427"/>
+      <c r="F26" s="427"/>
+      <c r="G26" s="427"/>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="338"/>
@@ -26344,29 +28850,29 @@
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="340"/>
-      <c r="B28" s="428" t="s">
+      <c r="B28" s="430" t="s">
         <v>580</v>
       </c>
-      <c r="C28" s="428"/>
-      <c r="D28" s="428"/>
-      <c r="E28" s="428"/>
-      <c r="F28" s="428"/>
-      <c r="G28" s="428"/>
+      <c r="C28" s="430"/>
+      <c r="D28" s="430"/>
+      <c r="E28" s="430"/>
+      <c r="F28" s="430"/>
+      <c r="G28" s="430"/>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="341"/>
-      <c r="B29" s="429" t="s">
+      <c r="B29" s="431" t="s">
         <v>180</v>
       </c>
-      <c r="C29" s="429"/>
-      <c r="D29" s="429" t="s">
+      <c r="C29" s="431"/>
+      <c r="D29" s="431" t="s">
         <v>181</v>
       </c>
-      <c r="E29" s="429"/>
-      <c r="F29" s="429" t="s">
+      <c r="E29" s="431"/>
+      <c r="F29" s="431" t="s">
         <v>433</v>
       </c>
-      <c r="G29" s="429"/>
+      <c r="G29" s="431"/>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="342" t="s">
@@ -26587,48 +29093,48 @@
       <c r="G39" s="339"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="427" t="s">
+      <c r="A40" s="429" t="s">
         <v>604</v>
       </c>
-      <c r="B40" s="427"/>
-      <c r="C40" s="427"/>
-      <c r="D40" s="427"/>
-      <c r="E40" s="427"/>
-      <c r="F40" s="427"/>
-      <c r="G40" s="427"/>
+      <c r="B40" s="429"/>
+      <c r="C40" s="429"/>
+      <c r="D40" s="429"/>
+      <c r="E40" s="429"/>
+      <c r="F40" s="429"/>
+      <c r="G40" s="429"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="427" t="s">
+      <c r="A41" s="429" t="s">
         <v>577</v>
       </c>
-      <c r="B41" s="427"/>
-      <c r="C41" s="427"/>
-      <c r="D41" s="427"/>
-      <c r="E41" s="427"/>
-      <c r="F41" s="427"/>
-      <c r="G41" s="427"/>
+      <c r="B41" s="429"/>
+      <c r="C41" s="429"/>
+      <c r="D41" s="429"/>
+      <c r="E41" s="429"/>
+      <c r="F41" s="429"/>
+      <c r="G41" s="429"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="427" t="s">
+      <c r="A42" s="429" t="s">
         <v>429</v>
       </c>
-      <c r="B42" s="427"/>
-      <c r="C42" s="427"/>
-      <c r="D42" s="427"/>
-      <c r="E42" s="427"/>
-      <c r="F42" s="427"/>
-      <c r="G42" s="427"/>
+      <c r="B42" s="429"/>
+      <c r="C42" s="429"/>
+      <c r="D42" s="429"/>
+      <c r="E42" s="429"/>
+      <c r="F42" s="429"/>
+      <c r="G42" s="429"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="427" t="s">
+      <c r="A43" s="429" t="s">
         <v>605</v>
       </c>
-      <c r="B43" s="427"/>
-      <c r="C43" s="427"/>
-      <c r="D43" s="427"/>
-      <c r="E43" s="427"/>
-      <c r="F43" s="427"/>
-      <c r="G43" s="427"/>
+      <c r="B43" s="429"/>
+      <c r="C43" s="429"/>
+      <c r="D43" s="429"/>
+      <c r="E43" s="429"/>
+      <c r="F43" s="429"/>
+      <c r="G43" s="429"/>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="339"/>
@@ -26652,12 +29158,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A26:G26"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
     <mergeCell ref="A42:G42"/>
     <mergeCell ref="A43:G43"/>
     <mergeCell ref="B28:G28"/>
@@ -26666,6 +29166,12 @@
     <mergeCell ref="F29:G29"/>
     <mergeCell ref="A40:G40"/>
     <mergeCell ref="A41:G41"/>
+    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Population/data/Population Indicators.xlsx
+++ b/Population/data/Population Indicators.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\JusticeCOVID\Population\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA10BBBC-39B9-4855-9738-4071DA6F421D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{793F4247-A821-4EF8-B524-DB2D61D3F42B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{B9AFA079-0671-40AD-860D-809D829A87F1}"/>
+    <workbookView xWindow="38865" yWindow="45" windowWidth="37605" windowHeight="21000" xr2:uid="{B9AFA079-0671-40AD-860D-809D829A87F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Summaries" sheetId="1" r:id="rId1"/>
@@ -3763,9 +3763,6 @@
     <t>70+</t>
   </si>
   <si>
-    <t>AU Confirmed Cases 27/5/2019</t>
-  </si>
-  <si>
     <t>AU Deaths 27/5/2020</t>
   </si>
   <si>
@@ -3986,13 +3983,16 @@
   </si>
   <si>
     <t>indigenous_prisoner_count_by_age2</t>
+  </si>
+  <si>
+    <t>AU Confirmed Cases 22/8/2019</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="8">
+  <numFmts count="10">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -4000,7 +4000,9 @@
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="&quot;&quot;#,##0.0&quot;&quot;"/>
     <numFmt numFmtId="168" formatCode="&quot;#&quot;#,##0.0"/>
-    <numFmt numFmtId="173" formatCode="0.000"/>
+    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="170" formatCode="0.0000"/>
+    <numFmt numFmtId="171" formatCode="0.00000"/>
   </numFmts>
   <fonts count="64">
     <font>
@@ -5431,7 +5433,7 @@
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="441">
+  <cellXfs count="443">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -6098,11 +6100,20 @@
     <xf numFmtId="3" fontId="38" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="38" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="38" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="38" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="38" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6113,14 +6124,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="38" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="38" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="38" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="38" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="38" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="38" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="38" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6137,42 +6184,6 @@
     <xf numFmtId="3" fontId="38" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="38" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="38" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="38" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="38" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="38" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="38" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="38" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -6188,6 +6199,24 @@
     <xf numFmtId="0" fontId="32" fillId="33" borderId="24" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="42" fillId="35" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="35" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="35" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="42" fillId="35" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6199,24 +6228,6 @@
     </xf>
     <xf numFmtId="49" fontId="42" fillId="35" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="35" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="35" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="35" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="59" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -6235,12 +6246,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="41" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="24" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -6250,15 +6255,14 @@
     <xf numFmtId="49" fontId="42" fillId="37" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="173" fontId="0" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="41" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="73">
     <cellStyle name="20% - Accent1" xfId="17" builtinId="30" customBuiltin="1"/>
@@ -6659,7 +6663,7 @@
   <dimension ref="A2:AJ160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6675,48 +6679,48 @@
   <sheetData>
     <row r="2" spans="1:10">
       <c r="A2" s="46" t="s">
-        <v>612</v>
+        <v>686</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="B3" s="382" t="s">
+      <c r="B3" s="391" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="384"/>
-      <c r="D3" s="382" t="s">
+      <c r="C3" s="393"/>
+      <c r="D3" s="391" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="384"/>
-      <c r="F3" s="382" t="s">
+      <c r="E3" s="393"/>
+      <c r="F3" s="391" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="384"/>
+      <c r="G3" s="393"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="52">
-        <v>48</v>
+        <v>603</v>
       </c>
       <c r="C4" s="57">
         <f>B4/$B$13</f>
-        <v>1.3289036544850499E-2</v>
+        <v>5.0599983217252661E-2</v>
       </c>
       <c r="D4" s="50">
-        <v>45</v>
+        <v>547</v>
       </c>
       <c r="E4" s="57">
         <f>D4/$D$13</f>
-        <v>1.2842465753424657E-2</v>
+        <v>4.369707621025723E-2</v>
       </c>
       <c r="F4" s="52">
         <f>SUM(B4,D4)</f>
-        <v>93</v>
+        <v>1150</v>
       </c>
       <c r="G4" s="57">
         <f>F4/$F$13</f>
-        <v>1.3069139966273187E-2</v>
+        <v>4.7063638223859221E-2</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -6724,26 +6728,26 @@
         <v>1</v>
       </c>
       <c r="B5" s="3">
-        <v>113</v>
+        <v>1052</v>
       </c>
       <c r="C5" s="55">
         <f t="shared" ref="C5:C12" si="0">B5/$B$13</f>
-        <v>3.1284606866002214E-2</v>
+        <v>8.8277250985986405E-2</v>
       </c>
       <c r="D5" s="58">
-        <v>112</v>
+        <v>985</v>
       </c>
       <c r="E5" s="55">
         <f t="shared" ref="E5:E12" si="1">D5/$D$13</f>
-        <v>3.1963470319634701E-2</v>
+        <v>7.8686691164722794E-2</v>
       </c>
       <c r="F5" s="3">
         <f t="shared" ref="F5:F12" si="2">SUM(B5,D5)</f>
-        <v>225</v>
+        <v>2037</v>
       </c>
       <c r="G5" s="55">
         <f t="shared" ref="G5:G12" si="3">F5/$F$13</f>
-        <v>3.1618887015177066E-2</v>
+        <v>8.3364027010435854E-2</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -6751,26 +6755,26 @@
         <v>2</v>
       </c>
       <c r="B6" s="3">
-        <v>671</v>
+        <v>2643</v>
       </c>
       <c r="C6" s="55">
         <f t="shared" si="0"/>
-        <v>0.18576965669988926</v>
+        <v>0.22178400604178905</v>
       </c>
       <c r="D6" s="58">
-        <v>814</v>
+        <v>2873</v>
       </c>
       <c r="E6" s="55">
         <f t="shared" si="1"/>
-        <v>0.23230593607305935</v>
+        <v>0.2295095063109123</v>
       </c>
       <c r="F6" s="3">
         <f t="shared" si="2"/>
-        <v>1485</v>
+        <v>5516</v>
       </c>
       <c r="G6" s="55">
         <f t="shared" si="3"/>
-        <v>0.20868465430016864</v>
+        <v>0.22574176386331082</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -6778,26 +6782,26 @@
         <v>3</v>
       </c>
       <c r="B7" s="3">
-        <v>592</v>
+        <v>2135</v>
       </c>
       <c r="C7" s="55">
         <f t="shared" si="0"/>
-        <v>0.16389811738648949</v>
+        <v>0.17915582780901235</v>
       </c>
       <c r="D7" s="58">
-        <v>536</v>
+        <v>2095</v>
       </c>
       <c r="E7" s="55">
         <f t="shared" si="1"/>
-        <v>0.15296803652968036</v>
+        <v>0.1673590030356287</v>
       </c>
       <c r="F7" s="3">
         <f t="shared" si="2"/>
-        <v>1128</v>
+        <v>4230</v>
       </c>
       <c r="G7" s="55">
         <f t="shared" si="3"/>
-        <v>0.15851602023608768</v>
+        <v>0.17311233885819521</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -6805,26 +6809,26 @@
         <v>4</v>
       </c>
       <c r="B8" s="3">
-        <v>511</v>
+        <v>1602</v>
       </c>
       <c r="C8" s="55">
         <f t="shared" si="0"/>
-        <v>0.14147286821705427</v>
+        <v>0.13442980615926828</v>
       </c>
       <c r="D8" s="58">
-        <v>393</v>
+        <v>1552</v>
       </c>
       <c r="E8" s="55">
         <f t="shared" si="1"/>
-        <v>0.11215753424657535</v>
+        <v>0.12398146668796932</v>
       </c>
       <c r="F8" s="3">
         <f t="shared" si="2"/>
-        <v>904</v>
+        <v>3154</v>
       </c>
       <c r="G8" s="55">
         <f t="shared" si="3"/>
-        <v>0.12703766160764474</v>
+        <v>0.12907714344178434</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -6832,26 +6836,26 @@
         <v>5</v>
       </c>
       <c r="B9" s="3">
-        <v>550</v>
+        <v>1405</v>
       </c>
       <c r="C9" s="55">
         <f t="shared" si="0"/>
-        <v>0.15227021040974528</v>
+        <v>0.1178988000335655</v>
       </c>
       <c r="D9" s="58">
-        <v>578</v>
+        <v>1527</v>
       </c>
       <c r="E9" s="55">
         <f t="shared" si="1"/>
-        <v>0.16495433789954339</v>
+        <v>0.12198434254673271</v>
       </c>
       <c r="F9" s="3">
         <f t="shared" si="2"/>
-        <v>1128</v>
+        <v>2932</v>
       </c>
       <c r="G9" s="55">
         <f t="shared" si="3"/>
-        <v>0.15851602023608768</v>
+        <v>0.11999181501943933</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -6859,26 +6863,26 @@
         <v>6</v>
       </c>
       <c r="B10" s="3">
-        <v>584</v>
+        <v>1065</v>
       </c>
       <c r="C10" s="55">
         <f t="shared" si="0"/>
-        <v>0.16168327796234774</v>
+        <v>8.9368129562809429E-2</v>
       </c>
       <c r="D10" s="58">
-        <v>577</v>
+        <v>1101</v>
       </c>
       <c r="E10" s="55">
         <f t="shared" si="1"/>
-        <v>0.1646689497716895</v>
+        <v>8.7953347180060718E-2</v>
       </c>
       <c r="F10" s="3">
         <f t="shared" si="2"/>
-        <v>1161</v>
+        <v>2166</v>
       </c>
       <c r="G10" s="55">
         <f t="shared" si="3"/>
-        <v>0.16315345699831366</v>
+        <v>8.8643339472068761E-2</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -6886,26 +6890,26 @@
         <v>7</v>
       </c>
       <c r="B11" s="3">
-        <v>416</v>
+        <v>775</v>
       </c>
       <c r="C11" s="55">
         <f t="shared" si="0"/>
-        <v>0.11517165005537099</v>
+        <v>6.5033145925988078E-2</v>
       </c>
       <c r="D11" s="58">
-        <v>334</v>
+        <v>685</v>
       </c>
       <c r="E11" s="55">
         <f t="shared" si="1"/>
-        <v>9.5319634703196349E-2</v>
+        <v>5.4721201469883365E-2</v>
       </c>
       <c r="F11" s="3">
         <f t="shared" si="2"/>
-        <v>750</v>
+        <v>1460</v>
       </c>
       <c r="G11" s="55">
         <f t="shared" si="3"/>
-        <v>0.10539629005059022</v>
+        <v>5.9750358092899532E-2</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -6913,26 +6917,26 @@
         <v>8</v>
       </c>
       <c r="B12" s="4">
-        <v>127</v>
+        <v>637</v>
       </c>
       <c r="C12" s="7">
         <f t="shared" si="0"/>
-        <v>3.5160575858250276E-2</v>
+        <v>5.345305026432827E-2</v>
       </c>
       <c r="D12" s="2">
-        <v>115</v>
+        <v>1153</v>
       </c>
       <c r="E12" s="7">
         <f t="shared" si="1"/>
-        <v>3.2819634703196349E-2</v>
+        <v>9.210736539383288E-2</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" si="2"/>
-        <v>242</v>
+        <v>1790</v>
       </c>
       <c r="G12" s="7">
         <f t="shared" si="3"/>
-        <v>3.4007869589657111E-2</v>
+        <v>7.325557601800696E-2</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -6941,37 +6945,37 @@
       </c>
       <c r="B13" s="59">
         <f>SUM(B4:B12)</f>
-        <v>3612</v>
+        <v>11917</v>
       </c>
       <c r="D13" s="59">
         <f t="shared" ref="D13:F13" si="4">SUM(D4:D12)</f>
-        <v>3504</v>
+        <v>12518</v>
       </c>
       <c r="F13" s="59">
         <f t="shared" si="4"/>
-        <v>7116</v>
+        <v>24435</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1"/>
       <c r="B14" s="65">
         <f>B13/F13</f>
-        <v>0.50758853288364247</v>
+        <v>0.48770206670759159</v>
       </c>
       <c r="D14" s="65">
         <f>D13/F13</f>
-        <v>0.49241146711635753</v>
+        <v>0.51229793329240847</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="H16" s="382" t="s">
+        <v>612</v>
+      </c>
+      <c r="H16" s="391" t="s">
         <v>279</v>
       </c>
-      <c r="I16" s="383"/>
-      <c r="J16" s="384"/>
+      <c r="I16" s="392"/>
+      <c r="J16" s="393"/>
     </row>
     <row r="17" spans="1:14">
       <c r="B17" s="178" t="s">
@@ -7121,11 +7125,11 @@
         <v>2</v>
       </c>
       <c r="B20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" s="56">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>8.3913736678694305E-5</v>
       </c>
       <c r="D20" s="3">
         <v>0</v>
@@ -7136,15 +7140,15 @@
       </c>
       <c r="F20" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" s="5">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>4.092490280335584E-5</v>
       </c>
       <c r="H20" s="48">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>3.7835792659856227E-4</v>
       </c>
       <c r="I20" s="9">
         <f t="shared" si="10"/>
@@ -7152,7 +7156,7 @@
       </c>
       <c r="J20" s="9">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1.8129079042784627E-4</v>
       </c>
       <c r="K20" s="48">
         <v>2E-3</v>
@@ -7172,11 +7176,11 @@
         <v>3</v>
       </c>
       <c r="B21" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21" s="56">
         <f t="shared" si="5"/>
-        <v>2.768549280177187E-4</v>
+        <v>1.6782747335738861E-4</v>
       </c>
       <c r="D21" s="3">
         <v>0</v>
@@ -7187,15 +7191,15 @@
       </c>
       <c r="F21" s="3">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G21" s="5">
         <f t="shared" si="8"/>
-        <v>1.4052838673412029E-4</v>
+        <v>8.1849805606711679E-5</v>
       </c>
       <c r="H21" s="48">
         <f t="shared" si="9"/>
-        <v>1.6891891891891893E-3</v>
+        <v>9.3676814988290398E-4</v>
       </c>
       <c r="I21" s="9">
         <f t="shared" si="10"/>
@@ -7203,7 +7207,7 @@
       </c>
       <c r="J21" s="9">
         <f t="shared" si="11"/>
-        <v>8.8652482269503544E-4</v>
+        <v>4.7281323877068556E-4</v>
       </c>
       <c r="K21" s="48">
         <v>2E-3</v>
@@ -7223,11 +7227,11 @@
         <v>4</v>
       </c>
       <c r="B22" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22" s="56">
         <f t="shared" si="5"/>
-        <v>2.768549280177187E-4</v>
+        <v>1.6782747335738861E-4</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
@@ -7238,15 +7242,15 @@
       </c>
       <c r="F22" s="3">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G22" s="5">
         <f t="shared" si="8"/>
-        <v>1.4052838673412029E-4</v>
+        <v>8.1849805606711679E-5</v>
       </c>
       <c r="H22" s="48">
         <f t="shared" si="9"/>
-        <v>1.9569471624266144E-3</v>
+        <v>1.2484394506866417E-3</v>
       </c>
       <c r="I22" s="9">
         <f t="shared" si="10"/>
@@ -7254,7 +7258,7 @@
       </c>
       <c r="J22" s="9">
         <f t="shared" si="11"/>
-        <v>1.1061946902654867E-3</v>
+        <v>6.3411540900443881E-4</v>
       </c>
       <c r="K22" s="48">
         <v>4.0000000000000001E-3</v>
@@ -7274,38 +7278,38 @@
         <v>5</v>
       </c>
       <c r="B23" s="3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C23" s="56">
         <f t="shared" si="5"/>
-        <v>2.768549280177187E-4</v>
+        <v>7.5522363010824874E-4</v>
       </c>
       <c r="D23" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E23" s="55">
         <f>D23/$D$13</f>
-        <v>2.8538812785388126E-4</v>
+        <v>3.1953986259785906E-4</v>
       </c>
       <c r="F23" s="3">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="G23" s="5">
         <f>F23/$F$13</f>
-        <v>2.8105677346824059E-4</v>
+        <v>5.3202373644362598E-4</v>
       </c>
       <c r="H23" s="48">
         <f t="shared" si="9"/>
-        <v>1.8181818181818182E-3</v>
+        <v>6.405693950177936E-3</v>
       </c>
       <c r="I23" s="9">
         <f t="shared" si="10"/>
-        <v>1.7301038062283738E-3</v>
+        <v>2.6195153896529143E-3</v>
       </c>
       <c r="J23" s="9">
         <f t="shared" si="11"/>
-        <v>1.7730496453900709E-3</v>
+        <v>4.4338335607094137E-3</v>
       </c>
       <c r="K23" s="48">
         <v>1.2999999999999999E-2</v>
@@ -7325,38 +7329,38 @@
         <v>6</v>
       </c>
       <c r="B24" s="3">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C24" s="56">
         <f t="shared" si="5"/>
-        <v>1.6611295681063123E-3</v>
+        <v>1.2587060501804146E-3</v>
       </c>
       <c r="D24" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E24" s="55">
         <f t="shared" si="6"/>
-        <v>1.1415525114155251E-3</v>
+        <v>4.7930979389678862E-4</v>
       </c>
       <c r="F24" s="3">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G24" s="5">
         <f>F24/$F$13</f>
-        <v>1.405283867341203E-3</v>
+        <v>8.594229588704727E-4</v>
       </c>
       <c r="H24" s="48">
         <f t="shared" si="9"/>
-        <v>1.0273972602739725E-2</v>
+        <v>1.4084507042253521E-2</v>
       </c>
       <c r="I24" s="9">
         <f t="shared" si="10"/>
-        <v>6.9324090121317154E-3</v>
+        <v>5.4495912806539508E-3</v>
       </c>
       <c r="J24" s="9">
         <f t="shared" si="11"/>
-        <v>8.6132644272179162E-3</v>
+        <v>9.6952908587257611E-3</v>
       </c>
       <c r="K24" s="48">
         <v>3.5999999999999997E-2</v>
@@ -7376,38 +7380,38 @@
         <v>7</v>
       </c>
       <c r="B25" s="3">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="C25" s="56">
         <f t="shared" si="5"/>
-        <v>6.090808416389812E-3</v>
+        <v>5.4543928841151298E-3</v>
       </c>
       <c r="D25" s="3">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="E25" s="55">
         <f t="shared" si="6"/>
-        <v>3.4246575342465752E-3</v>
+        <v>2.7959737977312671E-3</v>
       </c>
       <c r="F25" s="3">
         <f t="shared" si="7"/>
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="G25" s="5">
         <f t="shared" si="8"/>
-        <v>4.7779651489600903E-3</v>
+        <v>4.0924902803355845E-3</v>
       </c>
       <c r="H25" s="48">
         <f t="shared" si="9"/>
-        <v>5.2884615384615384E-2</v>
+        <v>8.387096774193549E-2</v>
       </c>
       <c r="I25" s="9">
         <f t="shared" si="10"/>
-        <v>3.5928143712574849E-2</v>
+        <v>5.1094890510948905E-2</v>
       </c>
       <c r="J25" s="9">
         <f t="shared" si="11"/>
-        <v>4.5333333333333337E-2</v>
+        <v>6.8493150684931503E-2</v>
       </c>
       <c r="K25" s="48">
         <v>0.08</v>
@@ -7427,38 +7431,38 @@
         <v>8</v>
       </c>
       <c r="B26" s="4">
-        <v>27</v>
+        <v>157</v>
       </c>
       <c r="C26" s="6">
         <f t="shared" si="5"/>
-        <v>7.4750830564784057E-3</v>
+        <v>1.3174456658555005E-2</v>
       </c>
       <c r="D26" s="4">
-        <v>28</v>
+        <v>189</v>
       </c>
       <c r="E26" s="7">
         <f t="shared" si="6"/>
-        <v>7.9908675799086754E-3</v>
+        <v>1.5098258507748841E-2</v>
       </c>
       <c r="F26" s="4">
         <f t="shared" si="7"/>
-        <v>55</v>
+        <v>346</v>
       </c>
       <c r="G26" s="6">
         <f t="shared" si="8"/>
-        <v>7.7290612703766158E-3</v>
+        <v>1.4160016369961122E-2</v>
       </c>
       <c r="H26" s="49">
         <f t="shared" si="9"/>
-        <v>0.2125984251968504</v>
+        <v>0.24646781789638933</v>
       </c>
       <c r="I26" s="47">
         <f t="shared" si="10"/>
-        <v>0.24347826086956523</v>
+        <v>0.16392020815264527</v>
       </c>
       <c r="J26" s="47">
         <f t="shared" si="11"/>
-        <v>0.22727272727272727</v>
+        <v>0.19329608938547485</v>
       </c>
       <c r="K26" s="49">
         <v>0.14799999999999999</v>
@@ -7479,27 +7483,27 @@
       </c>
       <c r="B27" s="59">
         <f>SUM(B18:B26)</f>
-        <v>58</v>
+        <v>251</v>
       </c>
       <c r="D27" s="59">
         <f>SUM(D18:D26)</f>
-        <v>45</v>
+        <v>234</v>
       </c>
       <c r="F27" s="59">
         <f>SUM(F18:F26)</f>
-        <v>103</v>
+        <v>485</v>
       </c>
       <c r="H27" s="66">
         <f t="shared" si="9"/>
-        <v>1.6057585825027684E-2</v>
+        <v>2.106234790635227E-2</v>
       </c>
       <c r="I27" s="66">
         <f t="shared" si="10"/>
-        <v>1.2842465753424657E-2</v>
+        <v>1.8693081961974757E-2</v>
       </c>
       <c r="J27" s="66">
         <f t="shared" si="11"/>
-        <v>1.4474423833614389E-2</v>
+        <v>1.9848577859627584E-2</v>
       </c>
       <c r="K27" s="5">
         <v>5.5199999999999999E-2</v>
@@ -7518,11 +7522,11 @@
       <c r="A28" s="1"/>
       <c r="B28" s="65">
         <f>B27/F27</f>
-        <v>0.56310679611650483</v>
+        <v>0.51752577319587634</v>
       </c>
       <c r="D28" s="65">
         <f>D27/F27</f>
-        <v>0.43689320388349512</v>
+        <v>0.48247422680412372</v>
       </c>
       <c r="H28" s="9"/>
       <c r="J28" s="9"/>
@@ -7651,86 +7655,86 @@
       <c r="A43" s="295" t="s">
         <v>526</v>
       </c>
-      <c r="B43" s="402" t="s">
+      <c r="B43" s="397" t="s">
         <v>432</v>
       </c>
-      <c r="C43" s="403"/>
-      <c r="D43" s="403"/>
-      <c r="E43" s="403"/>
-      <c r="F43" s="403"/>
-      <c r="G43" s="403"/>
-      <c r="H43" s="403"/>
-      <c r="I43" s="403"/>
-      <c r="J43" s="404"/>
-      <c r="K43" s="382" t="s">
+      <c r="C43" s="398"/>
+      <c r="D43" s="398"/>
+      <c r="E43" s="398"/>
+      <c r="F43" s="398"/>
+      <c r="G43" s="398"/>
+      <c r="H43" s="398"/>
+      <c r="I43" s="398"/>
+      <c r="J43" s="399"/>
+      <c r="K43" s="391" t="s">
         <v>237</v>
       </c>
-      <c r="L43" s="383"/>
-      <c r="M43" s="383"/>
-      <c r="N43" s="383"/>
-      <c r="O43" s="383"/>
-      <c r="P43" s="383"/>
-      <c r="Q43" s="383"/>
-      <c r="R43" s="383"/>
-      <c r="S43" s="384"/>
-      <c r="T43" s="385" t="s">
+      <c r="L43" s="392"/>
+      <c r="M43" s="392"/>
+      <c r="N43" s="392"/>
+      <c r="O43" s="392"/>
+      <c r="P43" s="392"/>
+      <c r="Q43" s="392"/>
+      <c r="R43" s="392"/>
+      <c r="S43" s="393"/>
+      <c r="T43" s="396" t="s">
         <v>523</v>
       </c>
-      <c r="U43" s="385"/>
-      <c r="V43" s="385"/>
-      <c r="W43" s="385"/>
-      <c r="X43" s="385"/>
-      <c r="Y43" s="385"/>
-      <c r="Z43" s="385"/>
-      <c r="AA43" s="385"/>
-      <c r="AB43" s="385"/>
+      <c r="U43" s="396"/>
+      <c r="V43" s="396"/>
+      <c r="W43" s="396"/>
+      <c r="X43" s="396"/>
+      <c r="Y43" s="396"/>
+      <c r="Z43" s="396"/>
+      <c r="AA43" s="396"/>
+      <c r="AB43" s="396"/>
     </row>
     <row r="44" spans="1:28" ht="15" customHeight="1">
-      <c r="B44" s="385" t="s">
+      <c r="B44" s="396" t="s">
         <v>180</v>
       </c>
-      <c r="C44" s="385"/>
-      <c r="D44" s="385"/>
-      <c r="E44" s="385" t="s">
+      <c r="C44" s="396"/>
+      <c r="D44" s="396"/>
+      <c r="E44" s="396" t="s">
         <v>181</v>
       </c>
-      <c r="F44" s="385"/>
-      <c r="G44" s="385"/>
-      <c r="H44" s="385" t="s">
+      <c r="F44" s="396"/>
+      <c r="G44" s="396"/>
+      <c r="H44" s="396" t="s">
         <v>433</v>
       </c>
-      <c r="I44" s="385"/>
-      <c r="J44" s="385"/>
-      <c r="K44" s="393" t="s">
+      <c r="I44" s="396"/>
+      <c r="J44" s="396"/>
+      <c r="K44" s="406" t="s">
         <v>180</v>
       </c>
-      <c r="L44" s="393"/>
-      <c r="M44" s="393"/>
-      <c r="N44" s="393" t="s">
+      <c r="L44" s="406"/>
+      <c r="M44" s="406"/>
+      <c r="N44" s="406" t="s">
         <v>181</v>
       </c>
-      <c r="O44" s="393"/>
-      <c r="P44" s="393"/>
-      <c r="Q44" s="382" t="s">
+      <c r="O44" s="406"/>
+      <c r="P44" s="406"/>
+      <c r="Q44" s="391" t="s">
         <v>433</v>
       </c>
-      <c r="R44" s="383"/>
-      <c r="S44" s="384"/>
-      <c r="T44" s="385" t="s">
+      <c r="R44" s="392"/>
+      <c r="S44" s="393"/>
+      <c r="T44" s="396" t="s">
         <v>180</v>
       </c>
-      <c r="U44" s="385"/>
-      <c r="V44" s="385"/>
-      <c r="W44" s="385" t="s">
+      <c r="U44" s="396"/>
+      <c r="V44" s="396"/>
+      <c r="W44" s="396" t="s">
         <v>181</v>
       </c>
-      <c r="X44" s="385"/>
-      <c r="Y44" s="385"/>
-      <c r="Z44" s="385" t="s">
+      <c r="X44" s="396"/>
+      <c r="Y44" s="396"/>
+      <c r="Z44" s="396" t="s">
         <v>433</v>
       </c>
-      <c r="AA44" s="385"/>
-      <c r="AB44" s="385"/>
+      <c r="AA44" s="396"/>
+      <c r="AB44" s="396"/>
     </row>
     <row r="45" spans="1:28">
       <c r="B45" s="66" t="s">
@@ -8710,53 +8714,53 @@
       <c r="A58" s="295" t="s">
         <v>527</v>
       </c>
-      <c r="B58" s="385">
+      <c r="B58" s="396">
         <v>2019</v>
       </c>
-      <c r="C58" s="385"/>
-      <c r="D58" s="382">
+      <c r="C58" s="396"/>
+      <c r="D58" s="391">
         <v>2016</v>
       </c>
-      <c r="E58" s="383"/>
-      <c r="F58" s="383"/>
-      <c r="G58" s="383"/>
-      <c r="H58" s="384"/>
-      <c r="I58" s="382">
+      <c r="E58" s="392"/>
+      <c r="F58" s="392"/>
+      <c r="G58" s="392"/>
+      <c r="H58" s="393"/>
+      <c r="I58" s="391">
         <v>2019</v>
       </c>
-      <c r="J58" s="383"/>
-      <c r="K58" s="383"/>
-      <c r="L58" s="383"/>
-      <c r="M58" s="383"/>
-      <c r="N58" s="384"/>
-      <c r="O58" s="382">
+      <c r="J58" s="392"/>
+      <c r="K58" s="392"/>
+      <c r="L58" s="392"/>
+      <c r="M58" s="392"/>
+      <c r="N58" s="393"/>
+      <c r="O58" s="391">
         <v>2016</v>
       </c>
-      <c r="P58" s="383"/>
-      <c r="Q58" s="383"/>
-      <c r="R58" s="383"/>
-      <c r="S58" s="384"/>
-      <c r="T58" s="382">
+      <c r="P58" s="392"/>
+      <c r="Q58" s="392"/>
+      <c r="R58" s="392"/>
+      <c r="S58" s="393"/>
+      <c r="T58" s="391">
         <v>2019</v>
       </c>
-      <c r="U58" s="383"/>
-      <c r="V58" s="383"/>
-      <c r="W58" s="383"/>
-      <c r="X58" s="383"/>
-      <c r="Y58" s="384"/>
-      <c r="Z58" s="384">
+      <c r="U58" s="392"/>
+      <c r="V58" s="392"/>
+      <c r="W58" s="392"/>
+      <c r="X58" s="392"/>
+      <c r="Y58" s="393"/>
+      <c r="Z58" s="393">
         <v>2016</v>
       </c>
-      <c r="AA58" s="385"/>
-      <c r="AB58" s="385"/>
-      <c r="AC58" s="382">
+      <c r="AA58" s="396"/>
+      <c r="AB58" s="396"/>
+      <c r="AC58" s="391">
         <v>2019</v>
       </c>
-      <c r="AD58" s="383"/>
-      <c r="AE58" s="383"/>
-      <c r="AF58" s="383"/>
-      <c r="AG58" s="383"/>
-      <c r="AH58" s="384"/>
+      <c r="AD58" s="392"/>
+      <c r="AE58" s="392"/>
+      <c r="AF58" s="392"/>
+      <c r="AG58" s="392"/>
+      <c r="AH58" s="393"/>
       <c r="AI58" s="172" t="s">
         <v>262</v>
       </c>
@@ -8768,49 +8772,49 @@
       <c r="C59" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="D59" s="382" t="s">
+      <c r="D59" s="391" t="s">
         <v>251</v>
       </c>
-      <c r="E59" s="383"/>
-      <c r="F59" s="383"/>
-      <c r="G59" s="383"/>
-      <c r="H59" s="384"/>
-      <c r="I59" s="382" t="s">
+      <c r="E59" s="392"/>
+      <c r="F59" s="392"/>
+      <c r="G59" s="392"/>
+      <c r="H59" s="393"/>
+      <c r="I59" s="391" t="s">
         <v>165</v>
       </c>
-      <c r="J59" s="383"/>
-      <c r="K59" s="383"/>
-      <c r="L59" s="383"/>
-      <c r="M59" s="383"/>
-      <c r="N59" s="384"/>
-      <c r="O59" s="382" t="s">
+      <c r="J59" s="392"/>
+      <c r="K59" s="392"/>
+      <c r="L59" s="392"/>
+      <c r="M59" s="392"/>
+      <c r="N59" s="393"/>
+      <c r="O59" s="391" t="s">
         <v>239</v>
       </c>
-      <c r="P59" s="383"/>
-      <c r="Q59" s="383"/>
-      <c r="R59" s="383"/>
-      <c r="S59" s="384"/>
-      <c r="T59" s="382" t="s">
+      <c r="P59" s="392"/>
+      <c r="Q59" s="392"/>
+      <c r="R59" s="392"/>
+      <c r="S59" s="393"/>
+      <c r="T59" s="391" t="s">
         <v>164</v>
       </c>
-      <c r="U59" s="383"/>
-      <c r="V59" s="383"/>
-      <c r="W59" s="383"/>
-      <c r="X59" s="383"/>
-      <c r="Y59" s="384"/>
-      <c r="Z59" s="383" t="s">
+      <c r="U59" s="392"/>
+      <c r="V59" s="392"/>
+      <c r="W59" s="392"/>
+      <c r="X59" s="392"/>
+      <c r="Y59" s="393"/>
+      <c r="Z59" s="392" t="s">
         <v>261</v>
       </c>
-      <c r="AA59" s="383"/>
-      <c r="AB59" s="384"/>
-      <c r="AC59" s="382" t="s">
+      <c r="AA59" s="392"/>
+      <c r="AB59" s="393"/>
+      <c r="AC59" s="391" t="s">
         <v>260</v>
       </c>
-      <c r="AD59" s="383"/>
-      <c r="AE59" s="383"/>
-      <c r="AF59" s="383"/>
-      <c r="AG59" s="383"/>
-      <c r="AH59" s="384"/>
+      <c r="AD59" s="392"/>
+      <c r="AE59" s="392"/>
+      <c r="AF59" s="392"/>
+      <c r="AG59" s="392"/>
+      <c r="AH59" s="393"/>
       <c r="AI59" s="20">
         <f>SUM(H64:H68)</f>
         <v>17700241</v>
@@ -9012,19 +9016,19 @@
         <f>'AU Pop'!H22</f>
         <v>9.5612474089386751E-2</v>
       </c>
-      <c r="D62" s="391">
+      <c r="D62" s="412">
         <f>'A&amp;TSI Pop'!L11</f>
         <v>1405253</v>
       </c>
-      <c r="E62" s="396">
+      <c r="E62" s="389">
         <f t="shared" ref="E62:E68" si="12">D62/SUM($D$61:$D$68)</f>
         <v>0.12109420846479671</v>
       </c>
-      <c r="F62" s="386">
+      <c r="F62" s="394">
         <f>'A&amp;TSI Pop'!L29</f>
         <v>1333829</v>
       </c>
-      <c r="G62" s="396">
+      <c r="G62" s="389">
         <f t="shared" ref="G62:G70" si="13">F62/SUM($F$61:$F$68)</f>
         <v>0.11315223148858543</v>
       </c>
@@ -9036,23 +9040,23 @@
       <c r="K62" s="58"/>
       <c r="M62" s="58"/>
       <c r="N62" s="74"/>
-      <c r="O62" s="394">
+      <c r="O62" s="400">
         <f>'A&amp;TSI Pop'!H11</f>
         <v>85770</v>
       </c>
-      <c r="P62" s="396">
+      <c r="P62" s="389">
         <f t="shared" ref="P62:P70" si="14">O62/SUM($O$61:$O$68)</f>
         <v>0.21527911990823592</v>
       </c>
-      <c r="Q62" s="398">
+      <c r="Q62" s="402">
         <f>'A&amp;TSI Pop'!H29</f>
         <v>81992</v>
       </c>
-      <c r="R62" s="396">
+      <c r="R62" s="389">
         <f t="shared" ref="R62:R70" si="15">Q62/SUM($Q$61:$Q$68)</f>
         <v>0.20500460055206624</v>
       </c>
-      <c r="S62" s="400">
+      <c r="S62" s="404">
         <f>'A&amp;TSI Pop'!H47</f>
         <v>167762</v>
       </c>
@@ -9060,15 +9064,15 @@
       <c r="V62" s="58"/>
       <c r="X62" s="74"/>
       <c r="Y62" s="74"/>
-      <c r="Z62" s="386">
+      <c r="Z62" s="394">
         <f>O62+D62</f>
         <v>1491023</v>
       </c>
-      <c r="AA62" s="388">
+      <c r="AA62" s="409">
         <f>Q62+F62</f>
         <v>1415821</v>
       </c>
-      <c r="AB62" s="390">
+      <c r="AB62" s="411">
         <f>S62+H62</f>
         <v>2906844</v>
       </c>
@@ -9092,10 +9096,10 @@
         <f>'AU Pop'!H25</f>
         <v>2.4952286703894818E-2</v>
       </c>
-      <c r="D63" s="392"/>
-      <c r="E63" s="397"/>
-      <c r="F63" s="387"/>
-      <c r="G63" s="397"/>
+      <c r="D63" s="413"/>
+      <c r="E63" s="390"/>
+      <c r="F63" s="395"/>
+      <c r="G63" s="390"/>
       <c r="H63" s="364"/>
       <c r="I63" s="80">
         <f>'Prison Pop'!L58</f>
@@ -9110,11 +9114,11 @@
         <v>376</v>
       </c>
       <c r="N63" s="74"/>
-      <c r="O63" s="395"/>
-      <c r="P63" s="397"/>
-      <c r="Q63" s="399"/>
-      <c r="R63" s="397"/>
-      <c r="S63" s="401"/>
+      <c r="O63" s="401"/>
+      <c r="P63" s="390"/>
+      <c r="Q63" s="403"/>
+      <c r="R63" s="390"/>
+      <c r="S63" s="405"/>
       <c r="T63" s="80">
         <f>'Prison Pop'!L6</f>
         <v>348</v>
@@ -9128,9 +9132,9 @@
         <v>378</v>
       </c>
       <c r="Y63" s="74"/>
-      <c r="Z63" s="387"/>
-      <c r="AA63" s="389"/>
-      <c r="AB63" s="389"/>
+      <c r="Z63" s="395"/>
+      <c r="AA63" s="410"/>
+      <c r="AB63" s="410"/>
       <c r="AC63" s="80">
         <f t="shared" ref="AC63:AC68" si="18">T63+I63</f>
         <v>701</v>
@@ -10016,53 +10020,53 @@
       <c r="A72" s="295" t="s">
         <v>528</v>
       </c>
-      <c r="B72" s="385">
+      <c r="B72" s="396">
         <v>2019</v>
       </c>
-      <c r="C72" s="385"/>
-      <c r="D72" s="382">
+      <c r="C72" s="396"/>
+      <c r="D72" s="391">
         <v>2016</v>
       </c>
-      <c r="E72" s="383"/>
-      <c r="F72" s="383"/>
-      <c r="G72" s="383"/>
-      <c r="H72" s="384"/>
-      <c r="I72" s="382">
+      <c r="E72" s="392"/>
+      <c r="F72" s="392"/>
+      <c r="G72" s="392"/>
+      <c r="H72" s="393"/>
+      <c r="I72" s="391">
         <v>2019</v>
       </c>
-      <c r="J72" s="383"/>
-      <c r="K72" s="383"/>
-      <c r="L72" s="383"/>
-      <c r="M72" s="383"/>
-      <c r="N72" s="384"/>
-      <c r="O72" s="382">
+      <c r="J72" s="392"/>
+      <c r="K72" s="392"/>
+      <c r="L72" s="392"/>
+      <c r="M72" s="392"/>
+      <c r="N72" s="393"/>
+      <c r="O72" s="391">
         <v>2016</v>
       </c>
-      <c r="P72" s="383"/>
-      <c r="Q72" s="383"/>
-      <c r="R72" s="383"/>
-      <c r="S72" s="384"/>
-      <c r="T72" s="382">
+      <c r="P72" s="392"/>
+      <c r="Q72" s="392"/>
+      <c r="R72" s="392"/>
+      <c r="S72" s="393"/>
+      <c r="T72" s="391">
         <v>2019</v>
       </c>
-      <c r="U72" s="383"/>
-      <c r="V72" s="383"/>
-      <c r="W72" s="383"/>
-      <c r="X72" s="383"/>
-      <c r="Y72" s="384"/>
-      <c r="Z72" s="385">
+      <c r="U72" s="392"/>
+      <c r="V72" s="392"/>
+      <c r="W72" s="392"/>
+      <c r="X72" s="392"/>
+      <c r="Y72" s="393"/>
+      <c r="Z72" s="396">
         <v>2016</v>
       </c>
-      <c r="AA72" s="385"/>
-      <c r="AB72" s="385"/>
-      <c r="AC72" s="382">
+      <c r="AA72" s="396"/>
+      <c r="AB72" s="396"/>
+      <c r="AC72" s="391">
         <v>2019</v>
       </c>
-      <c r="AD72" s="383"/>
-      <c r="AE72" s="383"/>
-      <c r="AF72" s="383"/>
-      <c r="AG72" s="383"/>
-      <c r="AH72" s="384"/>
+      <c r="AD72" s="392"/>
+      <c r="AE72" s="392"/>
+      <c r="AF72" s="392"/>
+      <c r="AG72" s="392"/>
+      <c r="AH72" s="393"/>
     </row>
     <row r="73" spans="1:36">
       <c r="B73" s="59" t="s">
@@ -10071,49 +10075,49 @@
       <c r="C73" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="D73" s="382" t="s">
+      <c r="D73" s="391" t="s">
         <v>251</v>
       </c>
-      <c r="E73" s="383"/>
-      <c r="F73" s="383"/>
-      <c r="G73" s="383"/>
-      <c r="H73" s="384"/>
-      <c r="I73" s="382" t="s">
+      <c r="E73" s="392"/>
+      <c r="F73" s="392"/>
+      <c r="G73" s="392"/>
+      <c r="H73" s="393"/>
+      <c r="I73" s="391" t="s">
         <v>165</v>
       </c>
-      <c r="J73" s="383"/>
-      <c r="K73" s="383"/>
-      <c r="L73" s="383"/>
-      <c r="M73" s="383"/>
-      <c r="N73" s="384"/>
-      <c r="O73" s="382" t="s">
+      <c r="J73" s="392"/>
+      <c r="K73" s="392"/>
+      <c r="L73" s="392"/>
+      <c r="M73" s="392"/>
+      <c r="N73" s="393"/>
+      <c r="O73" s="391" t="s">
         <v>239</v>
       </c>
-      <c r="P73" s="383"/>
-      <c r="Q73" s="383"/>
-      <c r="R73" s="383"/>
-      <c r="S73" s="384"/>
-      <c r="T73" s="382" t="s">
+      <c r="P73" s="392"/>
+      <c r="Q73" s="392"/>
+      <c r="R73" s="392"/>
+      <c r="S73" s="393"/>
+      <c r="T73" s="391" t="s">
         <v>164</v>
       </c>
-      <c r="U73" s="383"/>
-      <c r="V73" s="383"/>
-      <c r="W73" s="383"/>
-      <c r="X73" s="383"/>
-      <c r="Y73" s="384"/>
-      <c r="Z73" s="382" t="s">
+      <c r="U73" s="392"/>
+      <c r="V73" s="392"/>
+      <c r="W73" s="392"/>
+      <c r="X73" s="392"/>
+      <c r="Y73" s="393"/>
+      <c r="Z73" s="391" t="s">
         <v>610</v>
       </c>
-      <c r="AA73" s="383"/>
-      <c r="AB73" s="384"/>
-      <c r="AC73" s="382" t="s">
+      <c r="AA73" s="392"/>
+      <c r="AB73" s="393"/>
+      <c r="AC73" s="391" t="s">
         <v>260</v>
       </c>
-      <c r="AD73" s="383"/>
-      <c r="AE73" s="383"/>
-      <c r="AF73" s="383"/>
-      <c r="AG73" s="383"/>
-      <c r="AH73" s="384"/>
+      <c r="AD73" s="392"/>
+      <c r="AE73" s="392"/>
+      <c r="AF73" s="392"/>
+      <c r="AG73" s="392"/>
+      <c r="AH73" s="393"/>
     </row>
     <row r="74" spans="1:36">
       <c r="B74" s="3"/>
@@ -10992,17 +10996,17 @@
       <c r="J82" s="160"/>
     </row>
     <row r="83" spans="1:11">
-      <c r="B83" s="382" t="s">
+      <c r="B83" s="391" t="s">
         <v>210</v>
       </c>
-      <c r="C83" s="383"/>
-      <c r="D83" s="383"/>
-      <c r="E83" s="383"/>
-      <c r="F83" s="383"/>
-      <c r="G83" s="383"/>
-      <c r="H83" s="383"/>
-      <c r="I83" s="383"/>
-      <c r="J83" s="384"/>
+      <c r="C83" s="392"/>
+      <c r="D83" s="392"/>
+      <c r="E83" s="392"/>
+      <c r="F83" s="392"/>
+      <c r="G83" s="392"/>
+      <c r="H83" s="392"/>
+      <c r="I83" s="392"/>
+      <c r="J83" s="393"/>
       <c r="K83" s="114"/>
     </row>
     <row r="84" spans="1:11">
@@ -11366,11 +11370,11 @@
       </c>
       <c r="C98" s="54">
         <f>H27</f>
-        <v>1.6057585825027684E-2</v>
+        <v>2.106234790635227E-2</v>
       </c>
       <c r="D98" s="203">
         <f>B98*C98</f>
-        <v>634.57973421926908</v>
+        <v>832.36292691113533</v>
       </c>
       <c r="E98" s="361">
         <v>0.64</v>
@@ -11411,11 +11415,11 @@
       </c>
       <c r="C99" s="47">
         <f>I27</f>
-        <v>1.2842465753424657E-2</v>
+        <v>1.8693081961974757E-2</v>
       </c>
       <c r="D99" s="190">
         <f>B99*C99</f>
-        <v>44.974315068493148</v>
+        <v>65.463173030835605</v>
       </c>
       <c r="E99" s="199">
         <v>0.36</v>
@@ -11489,18 +11493,18 @@
     <row r="103" spans="1:12">
       <c r="A103" s="1"/>
       <c r="B103" s="197"/>
-      <c r="C103" s="380" t="s">
+      <c r="C103" s="407" t="s">
         <v>11</v>
       </c>
-      <c r="D103" s="381"/>
-      <c r="E103" s="380" t="s">
+      <c r="D103" s="408"/>
+      <c r="E103" s="407" t="s">
         <v>237</v>
       </c>
-      <c r="F103" s="381"/>
-      <c r="G103" s="380" t="s">
+      <c r="F103" s="408"/>
+      <c r="G103" s="407" t="s">
         <v>146</v>
       </c>
-      <c r="H103" s="381"/>
+      <c r="H103" s="408"/>
       <c r="I103" s="197"/>
       <c r="J103" s="197"/>
     </row>
@@ -11536,7 +11540,7 @@
       </c>
       <c r="B105" s="100">
         <f>J20</f>
-        <v>0</v>
+        <v>1.8129079042784627E-4</v>
       </c>
       <c r="C105" s="180">
         <f>AG64</f>
@@ -11544,7 +11548,7 @@
       </c>
       <c r="D105" s="105">
         <f>C105*B105</f>
-        <v>0</v>
+        <v>2.3645757795503988</v>
       </c>
       <c r="E105" s="180">
         <f>M64</f>
@@ -11552,7 +11556,7 @@
       </c>
       <c r="F105" s="80">
         <f>E105*B105</f>
-        <v>0</v>
+        <v>1.5299129804205946</v>
       </c>
       <c r="G105" s="103">
         <f>X64</f>
@@ -11560,7 +11564,7 @@
       </c>
       <c r="H105" s="80">
         <f>G105*B105</f>
-        <v>0</v>
+        <v>0.83466279912980423</v>
       </c>
       <c r="I105" s="197"/>
       <c r="J105" s="180"/>
@@ -11571,7 +11575,7 @@
       </c>
       <c r="B106" s="100">
         <f>J21</f>
-        <v>8.8652482269503544E-4</v>
+        <v>4.7281323877068556E-4</v>
       </c>
       <c r="C106" s="180">
         <f>AG65</f>
@@ -11579,7 +11583,7 @@
       </c>
       <c r="D106" s="105">
         <f t="shared" ref="D106:D109" si="34">C106*B106</f>
-        <v>12.929078014184396</v>
+        <v>6.8955082742316778</v>
       </c>
       <c r="E106" s="180">
         <f>M65</f>
@@ -11587,7 +11591,7 @@
       </c>
       <c r="F106" s="105">
         <f t="shared" ref="F106:F109" si="35">E106*B106</f>
-        <v>9.3342198581560289</v>
+        <v>4.9782505910165487</v>
       </c>
       <c r="G106" s="103">
         <f>X65</f>
@@ -11595,7 +11599,7 @@
       </c>
       <c r="H106" s="105">
         <f t="shared" ref="H106:H109" si="36">G106*B106</f>
-        <v>3.5948581560283688</v>
+        <v>1.91725768321513</v>
       </c>
       <c r="I106" s="197"/>
       <c r="J106" s="197"/>
@@ -11606,7 +11610,7 @@
       </c>
       <c r="B107" s="100">
         <f>J22</f>
-        <v>1.1061946902654867E-3</v>
+        <v>6.3411540900443881E-4</v>
       </c>
       <c r="C107" s="180">
         <f>AG66</f>
@@ -11614,7 +11618,7 @@
       </c>
       <c r="D107" s="105">
         <f t="shared" si="34"/>
-        <v>9.7787610619469021</v>
+        <v>5.6055802155992387</v>
       </c>
       <c r="E107" s="180">
         <f>M66</f>
@@ -11622,7 +11626,7 @@
       </c>
       <c r="F107" s="105">
         <f t="shared" si="35"/>
-        <v>7.485619469026549</v>
+        <v>4.2910589727330377</v>
       </c>
       <c r="G107" s="103">
         <f>X66</f>
@@ -11630,7 +11634,7 @@
       </c>
       <c r="H107" s="105">
         <f t="shared" si="36"/>
-        <v>2.293141592920354</v>
+        <v>1.3145212428662016</v>
       </c>
       <c r="I107" s="197"/>
       <c r="J107" s="197"/>
@@ -11641,7 +11645,7 @@
       </c>
       <c r="B108" s="100">
         <f>J23</f>
-        <v>1.7730496453900709E-3</v>
+        <v>4.4338335607094137E-3</v>
       </c>
       <c r="C108" s="180">
         <f>AG67</f>
@@ -11649,7 +11653,7 @@
       </c>
       <c r="D108" s="105">
         <f t="shared" si="34"/>
-        <v>6.6666666666666661</v>
+        <v>16.671214188267395</v>
       </c>
       <c r="E108" s="180">
         <f>M67</f>
@@ -11657,7 +11661,7 @@
       </c>
       <c r="F108" s="105">
         <f t="shared" si="35"/>
-        <v>5.5283687943262407</v>
+        <v>13.824693042291951</v>
       </c>
       <c r="G108" s="103">
         <f>X67</f>
@@ -11665,7 +11669,7 @@
       </c>
       <c r="H108" s="105">
         <f t="shared" si="36"/>
-        <v>1.1382978723404256</v>
+        <v>2.8465211459754434</v>
       </c>
       <c r="I108" s="197"/>
       <c r="J108" s="197"/>
@@ -11676,7 +11680,7 @@
       </c>
       <c r="B109" s="111">
         <f>SUM(F24:F26)/SUM(F10:F12)</f>
-        <v>4.5982350209010682E-2</v>
+        <v>8.6225997045790245E-2</v>
       </c>
       <c r="C109" s="180">
         <f>AG68</f>
@@ -11684,7 +11688,7 @@
       </c>
       <c r="D109" s="79">
         <f t="shared" si="34"/>
-        <v>93.803994426381792</v>
+        <v>175.9010339734121</v>
       </c>
       <c r="E109" s="180">
         <f>M68</f>
@@ -11692,7 +11696,7 @@
       </c>
       <c r="F109" s="79">
         <f t="shared" si="35"/>
-        <v>88.14816535067348</v>
+        <v>165.29523633677991</v>
       </c>
       <c r="G109" s="103">
         <f>X68</f>
@@ -11700,7 +11704,7 @@
       </c>
       <c r="H109" s="79">
         <f t="shared" si="36"/>
-        <v>5.6558290757083141</v>
+        <v>10.6057976366322</v>
       </c>
       <c r="I109" s="197"/>
       <c r="J109" s="197"/>
@@ -11716,7 +11720,7 @@
       </c>
       <c r="D110" s="201">
         <f t="shared" ref="D110:H110" si="37">SUM(D105:D109)</f>
-        <v>123.17850016917976</v>
+        <v>207.43791243106079</v>
       </c>
       <c r="E110" s="201">
         <f>SUM(E105:E109)</f>
@@ -11724,7 +11728,7 @@
       </c>
       <c r="F110" s="201">
         <f t="shared" si="37"/>
-        <v>110.4963734721823</v>
+        <v>189.91915192324205</v>
       </c>
       <c r="G110" s="201">
         <f>SUM(G105:G109)</f>
@@ -11732,7 +11736,7 @@
       </c>
       <c r="H110" s="201">
         <f t="shared" si="37"/>
-        <v>12.682126696997461</v>
+        <v>17.518760507818779</v>
       </c>
       <c r="I110" s="197"/>
       <c r="J110" s="197"/>
@@ -11745,17 +11749,17 @@
       <c r="C111" s="197"/>
       <c r="D111" s="201">
         <f>D110*0.8</f>
-        <v>98.542800135343811</v>
+        <v>165.95032994484865</v>
       </c>
       <c r="E111" s="197"/>
       <c r="F111" s="201">
         <f>F110*0.8</f>
-        <v>88.397098777745839</v>
+        <v>151.93532153859366</v>
       </c>
       <c r="G111" s="197"/>
       <c r="H111" s="201">
         <f>H110*0.8</f>
-        <v>10.14570135759797</v>
+        <v>14.015008406255024</v>
       </c>
       <c r="I111" s="197"/>
       <c r="J111" s="197"/>
@@ -13059,48 +13063,6 @@
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="D58:H58"/>
-    <mergeCell ref="D59:H59"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="T43:AB43"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="B43:J43"/>
-    <mergeCell ref="K43:S43"/>
-    <mergeCell ref="Q44:S44"/>
-    <mergeCell ref="T44:V44"/>
-    <mergeCell ref="T72:Y72"/>
-    <mergeCell ref="T73:Y73"/>
-    <mergeCell ref="W44:Y44"/>
-    <mergeCell ref="Z44:AB44"/>
-    <mergeCell ref="O62:O63"/>
-    <mergeCell ref="P62:P63"/>
-    <mergeCell ref="R62:R63"/>
-    <mergeCell ref="Q62:Q63"/>
-    <mergeCell ref="S62:S63"/>
-    <mergeCell ref="O58:S58"/>
-    <mergeCell ref="O59:S59"/>
-    <mergeCell ref="O72:S72"/>
-    <mergeCell ref="O73:S73"/>
-    <mergeCell ref="T58:Y58"/>
-    <mergeCell ref="T59:Y59"/>
-    <mergeCell ref="I72:N72"/>
-    <mergeCell ref="I73:N73"/>
-    <mergeCell ref="D72:H72"/>
-    <mergeCell ref="D73:H73"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="I58:N58"/>
-    <mergeCell ref="I59:N59"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="K44:M44"/>
-    <mergeCell ref="N44:P44"/>
     <mergeCell ref="C103:D103"/>
     <mergeCell ref="E103:F103"/>
     <mergeCell ref="G103:H103"/>
@@ -13117,6 +13079,48 @@
     <mergeCell ref="Z73:AB73"/>
     <mergeCell ref="B83:J83"/>
     <mergeCell ref="D62:D63"/>
+    <mergeCell ref="I59:N59"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="K44:M44"/>
+    <mergeCell ref="N44:P44"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="I58:N58"/>
+    <mergeCell ref="I72:N72"/>
+    <mergeCell ref="I73:N73"/>
+    <mergeCell ref="D72:H72"/>
+    <mergeCell ref="D73:H73"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="T72:Y72"/>
+    <mergeCell ref="T73:Y73"/>
+    <mergeCell ref="W44:Y44"/>
+    <mergeCell ref="Z44:AB44"/>
+    <mergeCell ref="O62:O63"/>
+    <mergeCell ref="P62:P63"/>
+    <mergeCell ref="R62:R63"/>
+    <mergeCell ref="Q62:Q63"/>
+    <mergeCell ref="S62:S63"/>
+    <mergeCell ref="O58:S58"/>
+    <mergeCell ref="O59:S59"/>
+    <mergeCell ref="O72:S72"/>
+    <mergeCell ref="O73:S73"/>
+    <mergeCell ref="T58:Y58"/>
+    <mergeCell ref="T59:Y59"/>
+    <mergeCell ref="T43:AB43"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="B43:J43"/>
+    <mergeCell ref="K43:S43"/>
+    <mergeCell ref="Q44:S44"/>
+    <mergeCell ref="T44:V44"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="D58:H58"/>
+    <mergeCell ref="D59:H59"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="G62:G63"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C31" r:id="rId1" location="case-fatality-rate-of-covid-19-by-preexisting-health-conditions" xr:uid="{7F3EF4B5-28AC-495F-9AED-D8A19838DCA0}"/>
@@ -13153,8 +13157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4A3361E-C79A-4ECF-AC8C-A789F3D7C0DB}">
   <dimension ref="A1:I98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L85" sqref="L85"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="I94" sqref="I94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13170,12 +13174,12 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="302" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
@@ -13199,12 +13203,12 @@
         <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B3">
         <f>'Data Summaries'!B32</f>
@@ -13214,15 +13218,15 @@
         <f>'Data Summaries'!B33</f>
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="D3" s="437">
-        <f>COPD!G14</f>
-        <v>4.5999999999999996</v>
+      <c r="D3" s="385">
+        <f>COPD!G14/100</f>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="E3">
         <f>'Data Summaries'!B35</f>
         <v>0.112</v>
       </c>
-      <c r="F3" s="439">
+      <c r="F3" s="387">
         <f>Hypertension!B4/100</f>
         <v>0.33665999999999996</v>
       </c>
@@ -13234,162 +13238,162 @@
         <f>'Data Summaries'!B38</f>
         <v>0.152</v>
       </c>
-      <c r="I3" s="437">
+      <c r="I3" s="385">
         <f>'Data Summaries'!AB55</f>
         <v>0.67</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>623</v>
-      </c>
-      <c r="B4" s="432">
+        <v>622</v>
+      </c>
+      <c r="B4" s="380">
         <f>'Data Summaries'!C116</f>
         <v>0.04</v>
       </c>
-      <c r="C4" s="432">
+      <c r="C4" s="380">
         <f>'Data Summaries'!F116</f>
         <v>0.06</v>
       </c>
-      <c r="D4" s="433">
+      <c r="D4" s="381">
         <f>'Data Summaries'!I116</f>
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="E4" s="432">
+      <c r="E4" s="380">
         <f>'Data Summaries'!L116</f>
         <v>0.13</v>
       </c>
-      <c r="F4" s="432">
+      <c r="F4" s="380">
         <f>'Data Summaries'!O116</f>
         <v>0.36</v>
       </c>
-      <c r="G4" s="432">
+      <c r="G4" s="380">
         <f>'Data Summaries'!R116</f>
         <v>0.01</v>
       </c>
-      <c r="H4" s="432">
+      <c r="H4" s="380">
         <f>'Data Summaries'!AA116</f>
         <v>0.74</v>
       </c>
-      <c r="I4" s="439">
+      <c r="I4" s="387">
         <f>'Data Summaries'!V55</f>
         <v>0.745</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>624</v>
-      </c>
-      <c r="B5" s="432">
+        <v>623</v>
+      </c>
+      <c r="B5" s="380">
         <f>'Data Summaries'!C117</f>
         <v>0.03</v>
       </c>
-      <c r="C5" s="432">
+      <c r="C5" s="380">
         <f>'Data Summaries'!F117</f>
         <v>0.03</v>
       </c>
-      <c r="D5" s="433">
+      <c r="D5" s="381">
         <f>'Data Summaries'!I117</f>
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="E5" s="432">
+      <c r="E5" s="380">
         <f>'Data Summaries'!L117</f>
         <v>0.27</v>
       </c>
-      <c r="F5" s="433">
+      <c r="F5" s="381">
         <f>'Data Summaries'!O117</f>
         <v>0.314</v>
       </c>
-      <c r="G5" s="432">
+      <c r="G5" s="380">
         <f>'Data Summaries'!R117</f>
         <v>0</v>
       </c>
-      <c r="H5" s="432">
+      <c r="H5" s="380">
         <f>'Data Summaries'!AA117</f>
         <v>0.86</v>
       </c>
-      <c r="I5" s="439">
+      <c r="I5" s="387">
         <f>'Data Summaries'!Y55</f>
         <v>0.59699999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>659</v>
-      </c>
-      <c r="B6" s="432">
+        <v>658</v>
+      </c>
+      <c r="B6" s="380">
         <f>'Data Summaries'!C118</f>
         <v>0.05</v>
       </c>
-      <c r="C6" s="432">
+      <c r="C6" s="380">
         <f>'Data Summaries'!F118</f>
         <v>0.09</v>
       </c>
-      <c r="D6" s="439">
+      <c r="D6" s="387">
         <f>'Data Summaries'!I118</f>
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="E6" s="432">
+      <c r="E6" s="380">
         <f>'Data Summaries'!L118</f>
         <v>0.11</v>
       </c>
-      <c r="F6" s="439">
+      <c r="F6" s="387">
         <f>'Data Summaries'!O118</f>
         <v>0.33700000000000002</v>
       </c>
-      <c r="G6" s="432">
+      <c r="G6" s="380">
         <f>'Data Summaries'!R118</f>
         <v>0.01</v>
       </c>
-      <c r="H6" s="432">
+      <c r="H6" s="380">
         <f>'Data Summaries'!AA118</f>
         <v>0.8</v>
       </c>
-      <c r="I6" s="439">
+      <c r="I6" s="387">
         <f>'Data Summaries'!J55</f>
         <v>0.72400000000000009</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>660</v>
-      </c>
-      <c r="B7" s="432">
+        <v>659</v>
+      </c>
+      <c r="B7" s="380">
         <f>'Data Summaries'!C119</f>
         <v>0.03</v>
       </c>
-      <c r="C7" s="432">
+      <c r="C7" s="380">
         <f>'Data Summaries'!F119</f>
         <v>0.04</v>
       </c>
-      <c r="D7" s="439">
+      <c r="D7" s="387">
         <f>'Data Summaries'!I119</f>
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="E7" s="432">
+      <c r="E7" s="380">
         <f>'Data Summaries'!L119</f>
         <v>0.19</v>
       </c>
-      <c r="F7" s="439">
+      <c r="F7" s="387">
         <f>'Data Summaries'!O119</f>
         <v>0.33700000000000002</v>
       </c>
-      <c r="G7" s="432">
+      <c r="G7" s="380">
         <f>'Data Summaries'!R119</f>
         <v>0.01</v>
       </c>
-      <c r="H7" s="432">
+      <c r="H7" s="380">
         <f>'Data Summaries'!AA119</f>
         <v>0.73</v>
       </c>
-      <c r="I7" s="439">
+      <c r="I7" s="387">
         <f>'Data Summaries'!S55</f>
         <v>0.626</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="301" customFormat="1">
       <c r="A8" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B8" t="s">
         <v>203</v>
@@ -13406,203 +13410,203 @@
       <c r="F8" t="s">
         <v>189</v>
       </c>
-      <c r="G8" s="432"/>
-      <c r="H8" s="432"/>
-      <c r="I8" s="436"/>
+      <c r="G8" s="380"/>
+      <c r="H8" s="380"/>
+      <c r="I8" s="384"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>625</v>
-      </c>
-      <c r="B9" s="432">
+        <v>624</v>
+      </c>
+      <c r="B9" s="380">
         <f>'Data Summaries'!C120</f>
         <v>0.01</v>
       </c>
-      <c r="C9" s="432">
+      <c r="C9" s="380">
         <f>'Data Summaries'!F120</f>
         <v>0.01</v>
       </c>
-      <c r="D9" s="434">
+      <c r="D9" s="382">
         <f>'Data Summaries'!I120</f>
         <v>0</v>
       </c>
-      <c r="E9" s="432">
+      <c r="E9" s="380">
         <f>'Data Summaries'!L120</f>
         <v>0.18</v>
       </c>
-      <c r="F9" s="434">
+      <c r="F9" s="382">
         <f>'Data Summaries'!O120</f>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="G9" s="432">
+      <c r="G9" s="380">
         <f>'Data Summaries'!R120</f>
         <v>0.01</v>
       </c>
-      <c r="H9" s="432">
+      <c r="H9" s="380">
         <f>'Data Summaries'!AA120</f>
         <v>0.8</v>
       </c>
-      <c r="I9" s="439">
+      <c r="I9" s="387">
         <f>'Data Summaries'!AB46</f>
         <v>0.46</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>626</v>
-      </c>
-      <c r="B10" s="432">
+        <v>625</v>
+      </c>
+      <c r="B10" s="380">
         <f>'Data Summaries'!C121</f>
         <v>0.02</v>
       </c>
-      <c r="C10" s="432">
+      <c r="C10" s="380">
         <f>'Data Summaries'!F121</f>
         <v>0.03</v>
       </c>
-      <c r="D10" s="434">
+      <c r="D10" s="382">
         <f>'Data Summaries'!I121</f>
         <v>0</v>
       </c>
-      <c r="E10" s="432">
+      <c r="E10" s="380">
         <f>'Data Summaries'!L121</f>
         <v>0.15</v>
       </c>
-      <c r="F10" s="434">
+      <c r="F10" s="382">
         <f>'Data Summaries'!O121</f>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="G10" s="432">
+      <c r="G10" s="380">
         <f>'Data Summaries'!R121</f>
         <v>0.01</v>
       </c>
-      <c r="H10" s="432">
+      <c r="H10" s="380">
         <f>'Data Summaries'!AA121</f>
         <v>0.76</v>
       </c>
-      <c r="I10" s="439">
+      <c r="I10" s="387">
         <f>'Data Summaries'!AB47</f>
         <v>0.57700000000000007</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>627</v>
-      </c>
-      <c r="B11" s="432">
+        <v>626</v>
+      </c>
+      <c r="B11" s="380">
         <f>'Data Summaries'!C122</f>
         <v>0.04</v>
       </c>
-      <c r="C11" s="432">
+      <c r="C11" s="380">
         <f>'Data Summaries'!F122</f>
         <v>0.08</v>
       </c>
-      <c r="D11" s="434">
+      <c r="D11" s="382">
         <f>'Data Summaries'!I122</f>
         <v>0</v>
       </c>
-      <c r="E11" s="432">
+      <c r="E11" s="380">
         <f>'Data Summaries'!L122</f>
         <v>0.15</v>
       </c>
-      <c r="F11" s="434">
+      <c r="F11" s="382">
         <f>'Data Summaries'!O122</f>
         <v>0.159</v>
       </c>
-      <c r="G11" s="432">
+      <c r="G11" s="380">
         <f>'Data Summaries'!R122</f>
         <v>0</v>
       </c>
-      <c r="H11" s="432">
+      <c r="H11" s="380">
         <f>'Data Summaries'!AA122</f>
         <v>0.79</v>
       </c>
-      <c r="I11" s="439">
+      <c r="I11" s="387">
         <f>'Data Summaries'!AB48</f>
         <v>0.68700000000000006</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>628</v>
-      </c>
-      <c r="B12" s="432">
+        <v>627</v>
+      </c>
+      <c r="B12" s="380">
         <f>'Data Summaries'!C123</f>
         <v>0.04</v>
       </c>
-      <c r="C12" s="432">
+      <c r="C12" s="380">
         <f>'Data Summaries'!F123</f>
         <v>0.08</v>
       </c>
-      <c r="D12" s="434">
+      <c r="D12" s="382">
         <f>'Data Summaries'!I123</f>
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="E12" s="432">
+      <c r="E12" s="380">
         <f>'Data Summaries'!L123</f>
         <v>0.18</v>
       </c>
-      <c r="F12" s="434">
+      <c r="F12" s="382">
         <f>'Data Summaries'!O123</f>
         <v>0.26400000000000001</v>
       </c>
-      <c r="G12" s="432">
+      <c r="G12" s="380">
         <f>'Data Summaries'!R123</f>
         <v>0.03</v>
       </c>
-      <c r="H12" s="432">
+      <c r="H12" s="380">
         <f>'Data Summaries'!AA123</f>
         <v>0.66</v>
       </c>
-      <c r="I12" s="439">
+      <c r="I12" s="387">
         <f>'Data Summaries'!AB49</f>
         <v>0.74</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>629</v>
-      </c>
-      <c r="B13" s="432">
+        <v>628</v>
+      </c>
+      <c r="B13" s="380">
         <f>'Data Summaries'!C124</f>
         <v>0.38</v>
       </c>
-      <c r="C13" s="432">
+      <c r="C13" s="380">
         <f>'Data Summaries'!F124</f>
         <v>0.28999999999999998</v>
       </c>
-      <c r="D13" s="434">
+      <c r="D13" s="382">
         <f>'Data Summaries'!I124</f>
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="E13" s="432">
+      <c r="E13" s="380">
         <f>'Data Summaries'!L124</f>
         <v>0.09</v>
       </c>
-      <c r="F13" s="434">
+      <c r="F13" s="382">
         <f>'Data Summaries'!O124</f>
         <v>0.33500000000000002</v>
       </c>
-      <c r="G13" s="432">
+      <c r="G13" s="380">
         <f>'Data Summaries'!R124</f>
         <v>0</v>
       </c>
-      <c r="H13" s="432">
+      <c r="H13" s="380">
         <f>'Data Summaries'!AA124</f>
         <v>0.53</v>
       </c>
-      <c r="I13" s="439">
+      <c r="I13" s="387">
         <f>'Data Summaries'!S50</f>
         <v>0.72799999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="302" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B17" t="s">
         <v>2</v>
@@ -13622,82 +13626,82 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>631</v>
-      </c>
-      <c r="B18" s="432">
+        <v>630</v>
+      </c>
+      <c r="B18" s="380">
         <f>'Data Summaries'!AH64</f>
         <v>3.7176808603425524</v>
       </c>
-      <c r="C18" s="432">
+      <c r="C18" s="380">
         <f>'Data Summaries'!AH65</f>
         <v>4.2874609699645481</v>
       </c>
-      <c r="D18" s="432">
+      <c r="D18" s="380">
         <f>'Data Summaries'!AH66</f>
         <v>2.7353973412185391</v>
       </c>
-      <c r="E18" s="432">
+      <c r="E18" s="380">
         <f>'Data Summaries'!AH67</f>
         <v>1.2432254956452389</v>
       </c>
-      <c r="F18" s="432">
+      <c r="F18" s="380">
         <f>'Data Summaries'!AH68</f>
         <v>0.40987377896792981</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>632</v>
-      </c>
-      <c r="B19" s="432">
+        <v>631</v>
+      </c>
+      <c r="B19" s="380">
         <f>'Data Summaries'!AD64</f>
         <v>6.7128897072221099</v>
       </c>
-      <c r="C19" s="432">
+      <c r="C19" s="380">
         <f>'Data Summaries'!AD65</f>
         <v>7.8751824899390703</v>
       </c>
-      <c r="D19" s="432">
+      <c r="D19" s="380">
         <f>'Data Summaries'!AD66</f>
         <v>5.0912943385710738</v>
       </c>
-      <c r="E19" s="432">
+      <c r="E19" s="380">
         <f>'Data Summaries'!AD67</f>
         <v>2.3430468084648366</v>
       </c>
-      <c r="F19" s="432">
+      <c r="F19" s="380">
         <f>'Data Summaries'!AD68</f>
         <v>0.84259923379982948</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>633</v>
-      </c>
-      <c r="B20" s="432">
+        <v>632</v>
+      </c>
+      <c r="B20" s="380">
         <f>'Data Summaries'!AF64</f>
         <v>0.65853873538669128</v>
       </c>
-      <c r="C20" s="432">
+      <c r="C20" s="380">
         <f>'Data Summaries'!AF65</f>
         <v>0.72850016807037643</v>
       </c>
-      <c r="D20" s="432">
+      <c r="D20" s="380">
         <f>'Data Summaries'!AF66</f>
         <v>0.44433647990292957</v>
       </c>
-      <c r="E20" s="432">
+      <c r="E20" s="380">
         <f>'Data Summaries'!AF67</f>
         <v>0.18011984146852941</v>
       </c>
-      <c r="F20" s="432">
+      <c r="F20" s="380">
         <f>'Data Summaries'!AF68</f>
         <v>2.1724961981316532E-2</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B21" s="214">
         <f>'Data Summaries'!N64</f>
@@ -13722,7 +13726,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B22" s="214">
         <f>'Data Summaries'!Y64</f>
@@ -13747,107 +13751,107 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>636</v>
-      </c>
-      <c r="B23" s="432">
+        <v>635</v>
+      </c>
+      <c r="B23" s="380">
         <f>'Data Summaries'!J64</f>
         <v>4.54394625023125</v>
       </c>
-      <c r="C23" s="432">
+      <c r="C23" s="380">
         <f>'Data Summaries'!J65</f>
         <v>5.9002582614844421</v>
       </c>
-      <c r="D23" s="432">
+      <c r="D23" s="380">
         <f>'Data Summaries'!J66</f>
         <v>4.0258609185925156</v>
       </c>
-      <c r="E23" s="432">
+      <c r="E23" s="380">
         <f>'Data Summaries'!J67</f>
         <v>1.9835990393467668</v>
       </c>
-      <c r="F23" s="432">
+      <c r="F23" s="380">
         <f>'Data Summaries'!J68</f>
         <v>0.80044202617097404</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>637</v>
-      </c>
-      <c r="B24" s="432">
+        <v>636</v>
+      </c>
+      <c r="B24" s="380">
         <f>'Data Summaries'!L64</f>
         <v>0.42061870494975945</v>
       </c>
-      <c r="C24" s="432">
+      <c r="C24" s="380">
         <f>'Data Summaries'!L65</f>
         <v>0.48676986027054281</v>
       </c>
-      <c r="D24" s="432">
+      <c r="D24" s="380">
         <f>'Data Summaries'!L66</f>
         <v>0.32781799444467818</v>
       </c>
-      <c r="E24" s="432">
+      <c r="E24" s="380">
         <f>'Data Summaries'!L67</f>
         <v>0.1550864357276549</v>
       </c>
-      <c r="F24" s="432">
+      <c r="F24" s="380">
         <f>'Data Summaries'!L68</f>
         <v>2.0823355475501321E-2</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>638</v>
-      </c>
-      <c r="B25" s="432">
+        <v>637</v>
+      </c>
+      <c r="B25" s="380">
         <f>'Data Summaries'!U64</f>
         <v>59.468030398262954</v>
       </c>
-      <c r="C25" s="432">
+      <c r="C25" s="380">
         <f>'Data Summaries'!U65</f>
         <v>78.039418639755027</v>
       </c>
-      <c r="D25" s="432">
+      <c r="D25" s="380">
         <f>'Data Summaries'!U66</f>
         <v>44.360491363128752</v>
       </c>
-      <c r="E25" s="432">
+      <c r="E25" s="380">
         <f>'Data Summaries'!U67</f>
         <v>18.629863858687187</v>
       </c>
-      <c r="F25" s="432">
+      <c r="F25" s="380">
         <f>'Data Summaries'!U68</f>
         <v>4.621072088724584</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>639</v>
-      </c>
-      <c r="B26" s="432">
+        <v>638</v>
+      </c>
+      <c r="B26" s="380">
         <f>'Data Summaries'!W64</f>
         <v>6.6125864059618236</v>
       </c>
-      <c r="C26" s="432">
+      <c r="C26" s="380">
         <f>'Data Summaries'!W65</f>
         <v>9.1412277759141229</v>
       </c>
-      <c r="D26" s="432">
+      <c r="D26" s="380">
         <f>'Data Summaries'!W66</f>
         <v>4.4733013398188959</v>
       </c>
-      <c r="E26" s="432">
+      <c r="E26" s="380">
         <f>'Data Summaries'!W67</f>
         <v>1.240240155593765</v>
       </c>
-      <c r="F26" s="432">
+      <c r="F26" s="380">
         <f>'Data Summaries'!W68</f>
         <v>9.8463962189838522E-2</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B28" t="s">
         <v>200</v>
@@ -13870,7 +13874,7 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B29" s="26">
         <f>'Data Summaries'!M63</f>
@@ -13899,7 +13903,7 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B30" s="26">
         <f>'Data Summaries'!X63</f>
@@ -13928,7 +13932,7 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B31" s="26">
         <f>'Data Summaries'!I63</f>
@@ -13957,7 +13961,7 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B32" s="26">
         <f>'Data Summaries'!K63</f>
@@ -13986,7 +13990,7 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B33" s="26">
         <f>'Data Summaries'!T63</f>
@@ -14015,7 +14019,7 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B34" s="26">
         <f>'Data Summaries'!V63</f>
@@ -14044,7 +14048,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B35" s="26">
         <f>'Data Summaries'!AG63</f>
@@ -14073,7 +14077,7 @@
     </row>
     <row r="36" spans="1:9" s="301" customFormat="1">
       <c r="A36" s="301" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B36" s="26">
         <f>'Data Summaries'!AC63</f>
@@ -14102,7 +14106,7 @@
     </row>
     <row r="37" spans="1:9" s="301" customFormat="1">
       <c r="A37" s="301" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B37" s="26">
         <f>'Data Summaries'!AE63</f>
@@ -14131,12 +14135,12 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B39" t="s">
-        <v>619</v>
-      </c>
-      <c r="C39" s="435" t="s">
+        <v>618</v>
+      </c>
+      <c r="C39" s="383" t="s">
         <v>1</v>
       </c>
       <c r="D39" t="s">
@@ -14160,155 +14164,155 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>647</v>
-      </c>
-      <c r="B40" s="433">
+        <v>646</v>
+      </c>
+      <c r="B40" s="381">
         <f>'Data Summaries'!E61</f>
         <v>0.13063764398783725</v>
       </c>
-      <c r="C40" s="433">
+      <c r="C40" s="381">
         <f>'Data Summaries'!E62</f>
         <v>0.12109420846479671</v>
       </c>
-      <c r="D40" s="433">
+      <c r="D40" s="381">
         <f>'Data Summaries'!E64</f>
         <v>0.14672640031656342</v>
       </c>
-      <c r="E40" s="433">
+      <c r="E40" s="381">
         <f>'Data Summaries'!E65</f>
         <v>0.14197398520210819</v>
       </c>
-      <c r="F40" s="433">
+      <c r="F40" s="381">
         <f>'Data Summaries'!E66</f>
         <v>0.13367264054869152</v>
       </c>
-      <c r="G40" s="433">
+      <c r="G40" s="381">
         <f>'Data Summaries'!E67</f>
         <v>0.12533165653076628</v>
       </c>
-      <c r="H40" s="433">
+      <c r="H40" s="381">
         <f>'Data Summaries'!E69</f>
         <v>0.10415777294330726</v>
       </c>
-      <c r="I40" s="433">
+      <c r="I40" s="381">
         <f>'Data Summaries'!E70</f>
         <v>9.6405692005929355E-2</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>648</v>
-      </c>
-      <c r="B41" s="433">
+        <v>647</v>
+      </c>
+      <c r="B41" s="381">
         <f>'Data Summaries'!G61</f>
         <v>0.12192299300402208</v>
       </c>
-      <c r="C41" s="433">
+      <c r="C41" s="381">
         <f>'Data Summaries'!G62</f>
         <v>0.11315223148858543</v>
       </c>
-      <c r="D41" s="433">
+      <c r="D41" s="381">
         <f>'Data Summaries'!G64</f>
         <v>0.14158312631342129</v>
       </c>
-      <c r="E41" s="433">
+      <c r="E41" s="381">
         <f>'Data Summaries'!G65</f>
         <v>0.14081556061308886</v>
       </c>
-      <c r="F41" s="433">
+      <c r="F41" s="381">
         <f>'Data Summaries'!G66</f>
         <v>0.13508299516216438</v>
       </c>
-      <c r="G41" s="433">
+      <c r="G41" s="381">
         <f>'Data Summaries'!G67</f>
         <v>0.12745153596276051</v>
       </c>
-      <c r="H41" s="433">
+      <c r="H41" s="381">
         <f>'Data Summaries'!G69</f>
         <v>0.1061605800380661</v>
       </c>
-      <c r="I41" s="433">
+      <c r="I41" s="381">
         <f>'Data Summaries'!G70</f>
         <v>0.11383097741789133</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>649</v>
-      </c>
-      <c r="B42" s="433">
+        <v>648</v>
+      </c>
+      <c r="B42" s="381">
         <f>'Data Summaries'!P61</f>
         <v>0.24123459826863078</v>
       </c>
-      <c r="C42" s="433">
+      <c r="C42" s="381">
         <f>'Data Summaries'!P62</f>
         <v>0.21527911990823592</v>
       </c>
-      <c r="D42" s="433">
+      <c r="D42" s="381">
         <f>'Data Summaries'!P64</f>
         <v>0.17570711799062783</v>
       </c>
-      <c r="E42" s="433">
+      <c r="E42" s="381">
         <f>'Data Summaries'!P65</f>
         <v>0.11639680432114415</v>
       </c>
-      <c r="F42" s="433">
+      <c r="F42" s="381">
         <f>'Data Summaries'!P66</f>
         <v>0.10563661326312143</v>
       </c>
-      <c r="G42" s="433">
+      <c r="G42" s="381">
         <f>'Data Summaries'!P67</f>
         <v>8.0567150168292703E-2</v>
       </c>
-      <c r="H42" s="433">
+      <c r="H42" s="381">
         <f>'Data Summaries'!P69</f>
         <v>4.5139089336944327E-2</v>
       </c>
-      <c r="I42" s="433">
+      <c r="I42" s="381">
         <f>'Data Summaries'!P70</f>
         <v>2.0039506743002863E-2</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>650</v>
-      </c>
-      <c r="B43" s="433">
+        <v>649</v>
+      </c>
+      <c r="B43" s="381">
         <f>'Data Summaries'!R61</f>
         <v>0.22896997639716765</v>
       </c>
-      <c r="C43" s="433">
+      <c r="C43" s="381">
         <f>'Data Summaries'!R62</f>
         <v>0.20500460055206624</v>
       </c>
-      <c r="D43" s="433">
+      <c r="D43" s="381">
         <f>'Data Summaries'!R64</f>
         <v>0.16674750970116414</v>
       </c>
-      <c r="E43" s="433">
+      <c r="E43" s="381">
         <f>'Data Summaries'!R65</f>
         <v>0.11925431051726207</v>
       </c>
-      <c r="F43" s="433">
+      <c r="F43" s="381">
         <f>'Data Summaries'!R66</f>
         <v>0.11514131695803496</v>
       </c>
-      <c r="G43" s="433">
+      <c r="G43" s="381">
         <f>'Data Summaries'!R67</f>
         <v>8.870314437732528E-2</v>
       </c>
-      <c r="H43" s="433">
+      <c r="H43" s="381">
         <f>'Data Summaries'!R69</f>
         <v>4.9645957514901785E-2</v>
       </c>
-      <c r="I43" s="433">
+      <c r="I43" s="381">
         <f>'Data Summaries'!R70</f>
         <v>2.6533183982077848E-2</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B44" s="26">
         <f>'Data Summaries'!D61</f>
@@ -14345,7 +14349,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B45" s="26">
         <f>'Data Summaries'!F61</f>
@@ -14382,7 +14386,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B46" s="26">
         <f>'Data Summaries'!O61</f>
@@ -14419,7 +14423,7 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B47" s="26">
         <f>'Data Summaries'!Q61</f>
@@ -14457,7 +14461,7 @@
     <row r="48" spans="1:9" s="301" customFormat="1"/>
     <row r="49" spans="1:9" s="301" customFormat="1">
       <c r="A49" s="301" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B49" s="214">
         <f>'Data Summaries'!AI63</f>
@@ -14466,7 +14470,7 @@
     </row>
     <row r="50" spans="1:9" s="301" customFormat="1">
       <c r="A50" s="301" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B50" s="214">
         <f>'Data Summaries'!AI70</f>
@@ -14475,12 +14479,12 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="302" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="301" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B53" s="301" t="s">
         <v>12</v>
@@ -14504,160 +14508,160 @@
         <v>17</v>
       </c>
       <c r="I53" s="301" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="301" t="s">
-        <v>623</v>
-      </c>
-      <c r="B54" s="432">
+        <v>622</v>
+      </c>
+      <c r="B54" s="380">
         <f>'Data Summaries'!C116</f>
         <v>0.04</v>
       </c>
-      <c r="C54" s="432">
+      <c r="C54" s="380">
         <f>'Data Summaries'!F116</f>
         <v>0.06</v>
       </c>
-      <c r="D54" s="433">
+      <c r="D54" s="381">
         <f>'Data Summaries'!I116</f>
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="E54" s="432">
+      <c r="E54" s="380">
         <f>'Data Summaries'!L116</f>
         <v>0.13</v>
       </c>
-      <c r="F54" s="432">
+      <c r="F54" s="380">
         <f>'Data Summaries'!O116</f>
         <v>0.36</v>
       </c>
-      <c r="G54" s="432">
+      <c r="G54" s="380">
         <f>'Data Summaries'!R116</f>
         <v>0.01</v>
       </c>
-      <c r="H54" s="432">
+      <c r="H54" s="380">
         <f>'Data Summaries'!AA116</f>
         <v>0.74</v>
       </c>
-      <c r="I54" s="439">
+      <c r="I54" s="387">
         <f>'Data Summaries'!V55</f>
         <v>0.745</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="301" t="s">
-        <v>624</v>
-      </c>
-      <c r="B55" s="432">
+        <v>623</v>
+      </c>
+      <c r="B55" s="380">
         <f>'Data Summaries'!C117</f>
         <v>0.03</v>
       </c>
-      <c r="C55" s="432">
+      <c r="C55" s="380">
         <f>'Data Summaries'!F117</f>
         <v>0.03</v>
       </c>
-      <c r="D55" s="433">
+      <c r="D55" s="381">
         <f>'Data Summaries'!I117</f>
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="E55" s="432">
+      <c r="E55" s="380">
         <f>'Data Summaries'!L117</f>
         <v>0.27</v>
       </c>
-      <c r="F55" s="433">
+      <c r="F55" s="381">
         <f>'Data Summaries'!O117</f>
         <v>0.314</v>
       </c>
-      <c r="G55" s="432">
+      <c r="G55" s="380">
         <f>'Data Summaries'!R117</f>
         <v>0</v>
       </c>
-      <c r="H55" s="432">
+      <c r="H55" s="380">
         <f>'Data Summaries'!AA117</f>
         <v>0.86</v>
       </c>
-      <c r="I55" s="439">
+      <c r="I55" s="387">
         <f>'Data Summaries'!Y55</f>
         <v>0.59699999999999998</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="301" t="s">
-        <v>659</v>
-      </c>
-      <c r="B56" s="432">
+        <v>658</v>
+      </c>
+      <c r="B56" s="380">
         <f>'Data Summaries'!C118</f>
         <v>0.05</v>
       </c>
-      <c r="C56" s="432">
+      <c r="C56" s="380">
         <f>'Data Summaries'!F118</f>
         <v>0.09</v>
       </c>
-      <c r="D56" s="433">
+      <c r="D56" s="381">
         <f>'Data Summaries'!I118</f>
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="E56" s="432">
+      <c r="E56" s="380">
         <f>'Data Summaries'!L118</f>
         <v>0.11</v>
       </c>
-      <c r="F56" s="433">
+      <c r="F56" s="381">
         <f>'Data Summaries'!O118</f>
         <v>0.33700000000000002</v>
       </c>
-      <c r="G56" s="432">
+      <c r="G56" s="380">
         <f>'Data Summaries'!R118</f>
         <v>0.01</v>
       </c>
-      <c r="H56" s="432">
+      <c r="H56" s="380">
         <f>'Data Summaries'!AA118</f>
         <v>0.8</v>
       </c>
-      <c r="I56" s="439">
+      <c r="I56" s="387">
         <f>'Data Summaries'!J55</f>
         <v>0.72400000000000009</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="301" t="s">
-        <v>660</v>
-      </c>
-      <c r="B57" s="432">
+        <v>659</v>
+      </c>
+      <c r="B57" s="380">
         <f>'Data Summaries'!C119</f>
         <v>0.03</v>
       </c>
-      <c r="C57" s="432">
+      <c r="C57" s="380">
         <f>'Data Summaries'!F119</f>
         <v>0.04</v>
       </c>
-      <c r="D57" s="433">
+      <c r="D57" s="381">
         <f>'Data Summaries'!I119</f>
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="E57" s="432">
+      <c r="E57" s="380">
         <f>'Data Summaries'!L119</f>
         <v>0.19</v>
       </c>
-      <c r="F57" s="433">
+      <c r="F57" s="381">
         <f>'Data Summaries'!O119</f>
         <v>0.33700000000000002</v>
       </c>
-      <c r="G57" s="432">
+      <c r="G57" s="380">
         <f>'Data Summaries'!R119</f>
         <v>0.01</v>
       </c>
-      <c r="H57" s="432">
+      <c r="H57" s="380">
         <f>'Data Summaries'!AA119</f>
         <v>0.73</v>
       </c>
-      <c r="I57" s="439">
+      <c r="I57" s="387">
         <f>'Data Summaries'!S55</f>
         <v>0.626</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="301" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B59" s="301" t="s">
         <v>203</v>
@@ -14677,7 +14681,7 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B60" s="26">
         <f>'Data Summaries'!AG76</f>
@@ -14702,138 +14706,138 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>662</v>
-      </c>
-      <c r="B61" s="433">
+        <v>661</v>
+      </c>
+      <c r="B61" s="442">
         <f>'Data Summaries'!J20</f>
-        <v>0</v>
-      </c>
-      <c r="C61" s="433">
+        <v>1.8129079042784627E-4</v>
+      </c>
+      <c r="C61" s="442">
         <f>'Data Summaries'!J21</f>
-        <v>8.8652482269503544E-4</v>
-      </c>
-      <c r="D61" s="433">
+        <v>4.7281323877068556E-4</v>
+      </c>
+      <c r="D61" s="442">
         <f>'Data Summaries'!J22</f>
-        <v>1.1061946902654867E-3</v>
-      </c>
-      <c r="E61" s="433">
+        <v>6.3411540900443881E-4</v>
+      </c>
+      <c r="E61" s="441">
         <f>'Data Summaries'!J23</f>
-        <v>1.7730496453900709E-3</v>
-      </c>
-      <c r="F61" s="433">
+        <v>4.4338335607094137E-3</v>
+      </c>
+      <c r="F61" s="441">
         <f>'Data Summaries'!J24</f>
-        <v>8.6132644272179162E-3</v>
+        <v>9.6952908587257611E-3</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>663</v>
-      </c>
-      <c r="B62" s="433">
+        <v>662</v>
+      </c>
+      <c r="B62" s="381">
         <f>'Data Summaries'!K20</f>
         <v>2E-3</v>
       </c>
-      <c r="C62" s="433">
+      <c r="C62" s="381">
         <f>'Data Summaries'!K21</f>
         <v>2E-3</v>
       </c>
-      <c r="D62" s="433">
+      <c r="D62" s="381">
         <f>'Data Summaries'!K22</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="E62" s="433">
+      <c r="E62" s="381">
         <f>'Data Summaries'!K23</f>
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="F62" s="433">
+      <c r="F62" s="381">
         <f>'Data Summaries'!K24</f>
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>664</v>
-      </c>
-      <c r="B63" s="433">
+        <v>663</v>
+      </c>
+      <c r="B63" s="381">
         <f>'Data Summaries'!L20</f>
         <v>0</v>
       </c>
-      <c r="C63" s="433">
+      <c r="C63" s="381">
         <f>'Data Summaries'!L21</f>
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="D63" s="433">
+      <c r="D63" s="381">
         <f>'Data Summaries'!L22</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="E63" s="433">
+      <c r="E63" s="381">
         <f>'Data Summaries'!L23</f>
         <v>0.01</v>
       </c>
-      <c r="F63" s="433">
+      <c r="F63" s="381">
         <f>'Data Summaries'!L24</f>
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>665</v>
-      </c>
-      <c r="B64" s="433">
+        <v>664</v>
+      </c>
+      <c r="B64" s="381">
         <f>'Data Summaries'!N20</f>
         <v>0</v>
       </c>
-      <c r="C64" s="433">
+      <c r="C64" s="381">
         <f>'Data Summaries'!N21</f>
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="D64" s="433">
+      <c r="D64" s="381">
         <f>'Data Summaries'!N22</f>
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="E64" s="433">
+      <c r="E64" s="381">
         <f>'Data Summaries'!N23</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F64" s="433">
+      <c r="F64" s="381">
         <f>'Data Summaries'!N24</f>
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>666</v>
-      </c>
-      <c r="B65" s="433">
+        <v>665</v>
+      </c>
+      <c r="B65" s="381">
         <f>'Data Summaries'!M20</f>
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="C65" s="433">
+      <c r="C65" s="381">
         <f>'Data Summaries'!M21</f>
         <v>1.4E-3</v>
       </c>
-      <c r="D65" s="433">
+      <c r="D65" s="381">
         <f>'Data Summaries'!M22</f>
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="E65" s="433">
+      <c r="E65" s="381">
         <f>'Data Summaries'!M23</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F65" s="433">
+      <c r="F65" s="381">
         <f>'Data Summaries'!M24</f>
         <v>1.9E-2</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>625</v>
-      </c>
-      <c r="B67" s="432">
+        <v>624</v>
+      </c>
+      <c r="B67" s="380">
         <f>'Data Summaries'!C120</f>
         <v>0.01</v>
       </c>
-      <c r="C67" s="432">
+      <c r="C67" s="380">
         <f>'Data Summaries'!F120</f>
         <v>0.01</v>
       </c>
@@ -14841,7 +14845,7 @@
         <f>'Data Summaries'!I120</f>
         <v>0</v>
       </c>
-      <c r="E67" s="432">
+      <c r="E67" s="380">
         <f>'Data Summaries'!L120</f>
         <v>0.18</v>
       </c>
@@ -14849,11 +14853,11 @@
         <f>'Data Summaries'!O120</f>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="G67" s="432">
+      <c r="G67" s="380">
         <f>'Data Summaries'!G90</f>
         <v>0.01</v>
       </c>
-      <c r="H67" s="432">
+      <c r="H67" s="380">
         <f>'Data Summaries'!I90</f>
         <v>0.8</v>
       </c>
@@ -14864,13 +14868,13 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>626</v>
-      </c>
-      <c r="B68" s="432">
+        <v>625</v>
+      </c>
+      <c r="B68" s="380">
         <f>'Data Summaries'!C121</f>
         <v>0.02</v>
       </c>
-      <c r="C68" s="432">
+      <c r="C68" s="380">
         <f>'Data Summaries'!F121</f>
         <v>0.03</v>
       </c>
@@ -14878,7 +14882,7 @@
         <f>'Data Summaries'!I121</f>
         <v>0</v>
       </c>
-      <c r="E68" s="432">
+      <c r="E68" s="380">
         <f>'Data Summaries'!L121</f>
         <v>0.15</v>
       </c>
@@ -14886,11 +14890,11 @@
         <f>'Data Summaries'!O121</f>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="G68" s="432">
+      <c r="G68" s="380">
         <f>'Data Summaries'!G91</f>
         <v>0.01</v>
       </c>
-      <c r="H68" s="432">
+      <c r="H68" s="380">
         <f>'Data Summaries'!I91</f>
         <v>0.76</v>
       </c>
@@ -14901,13 +14905,13 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>627</v>
-      </c>
-      <c r="B69" s="432">
+        <v>626</v>
+      </c>
+      <c r="B69" s="380">
         <f>'Data Summaries'!C122</f>
         <v>0.04</v>
       </c>
-      <c r="C69" s="432">
+      <c r="C69" s="380">
         <f>'Data Summaries'!F122</f>
         <v>0.08</v>
       </c>
@@ -14915,7 +14919,7 @@
         <f>'Data Summaries'!I122</f>
         <v>0</v>
       </c>
-      <c r="E69" s="432">
+      <c r="E69" s="380">
         <f>'Data Summaries'!L122</f>
         <v>0.15</v>
       </c>
@@ -14923,11 +14927,11 @@
         <f>'Data Summaries'!O122</f>
         <v>0.159</v>
       </c>
-      <c r="G69" s="432">
+      <c r="G69" s="380">
         <f>'Data Summaries'!G92</f>
         <v>0</v>
       </c>
-      <c r="H69" s="432">
+      <c r="H69" s="380">
         <f>'Data Summaries'!I92</f>
         <v>0.79</v>
       </c>
@@ -14938,13 +14942,13 @@
     </row>
     <row r="70" spans="1:9">
       <c r="A70" t="s">
-        <v>628</v>
-      </c>
-      <c r="B70" s="432">
+        <v>627</v>
+      </c>
+      <c r="B70" s="380">
         <f>'Data Summaries'!C123</f>
         <v>0.04</v>
       </c>
-      <c r="C70" s="432">
+      <c r="C70" s="380">
         <f>'Data Summaries'!F123</f>
         <v>0.08</v>
       </c>
@@ -14952,7 +14956,7 @@
         <f>'Data Summaries'!I123</f>
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="E70" s="432">
+      <c r="E70" s="380">
         <f>'Data Summaries'!L123</f>
         <v>0.18</v>
       </c>
@@ -14960,11 +14964,11 @@
         <f>'Data Summaries'!O123</f>
         <v>0.26400000000000001</v>
       </c>
-      <c r="G70" s="432">
+      <c r="G70" s="380">
         <f>'Data Summaries'!G93</f>
         <v>0.03</v>
       </c>
-      <c r="H70" s="432">
+      <c r="H70" s="380">
         <f>'Data Summaries'!I93</f>
         <v>0.66</v>
       </c>
@@ -14975,13 +14979,13 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" t="s">
-        <v>629</v>
-      </c>
-      <c r="B71" s="432">
+        <v>628</v>
+      </c>
+      <c r="B71" s="380">
         <f>'Data Summaries'!C124</f>
         <v>0.38</v>
       </c>
-      <c r="C71" s="432">
+      <c r="C71" s="380">
         <f>'Data Summaries'!F124</f>
         <v>0.28999999999999998</v>
       </c>
@@ -14989,7 +14993,7 @@
         <f>'Data Summaries'!I124</f>
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="E71" s="432">
+      <c r="E71" s="380">
         <f>'Data Summaries'!L124</f>
         <v>0.09</v>
       </c>
@@ -14997,57 +15001,57 @@
         <f>'Data Summaries'!O124</f>
         <v>0.33500000000000002</v>
       </c>
-      <c r="G71" s="432">
+      <c r="G71" s="380">
         <f>'Data Summaries'!G94</f>
         <v>0</v>
       </c>
-      <c r="H71" s="432">
+      <c r="H71" s="380">
         <f>'Data Summaries'!I94</f>
         <v>0.53</v>
       </c>
-      <c r="I71" s="437">
+      <c r="I71" s="385">
         <f>'Data Summaries'!S50</f>
         <v>0.72799999999999998</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" t="s">
-        <v>667</v>
-      </c>
-      <c r="B72" s="433">
+        <v>666</v>
+      </c>
+      <c r="B72" s="381">
         <f>'Data Summaries'!C32</f>
         <v>0.105</v>
       </c>
-      <c r="C72" s="433">
+      <c r="C72" s="381">
         <f>'Data Summaries'!C33</f>
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="D72" s="433">
+      <c r="D72" s="381">
         <f>'Data Summaries'!C34</f>
         <v>6.3E-2</v>
       </c>
-      <c r="E72" s="433">
+      <c r="E72" s="381">
         <f>'Data Summaries'!C35</f>
         <v>0</v>
       </c>
-      <c r="F72" s="433">
+      <c r="F72" s="381">
         <f>'Data Summaries'!C36</f>
         <v>0.06</v>
       </c>
-      <c r="G72" s="433">
+      <c r="G72" s="381">
         <f>'Data Summaries'!C37</f>
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="H72" s="437">
+      <c r="H72" s="385">
         <v>0</v>
       </c>
-      <c r="I72" s="437">
+      <c r="I72" s="385">
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B74" s="26">
         <f>SUM('Data Summaries'!AC63:AC68)</f>
@@ -15056,7 +15060,7 @@
     </row>
     <row r="75" spans="1:9">
       <c r="A75" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B75" s="26">
         <f>SUM('Data Summaries'!AE63:AE68)</f>
@@ -15065,7 +15069,7 @@
     </row>
     <row r="76" spans="1:9">
       <c r="A76" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B76">
         <f>'Data Summaries'!B137*(1-'Data Summaries'!B139)</f>
@@ -15074,7 +15078,7 @@
     </row>
     <row r="77" spans="1:9">
       <c r="A77" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B77">
         <f>'Data Summaries'!B137*'Data Summaries'!B139</f>
@@ -15083,42 +15087,42 @@
     </row>
     <row r="78" spans="1:9">
       <c r="A78" t="s">
-        <v>670</v>
-      </c>
-      <c r="B78" s="440">
+        <v>669</v>
+      </c>
+      <c r="B78" s="388">
         <f>SUM('Data Summaries'!X76:X80)</f>
         <v>12110.520078583319</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" t="s">
-        <v>671</v>
-      </c>
-      <c r="B79" s="438">
+        <v>670</v>
+      </c>
+      <c r="B79" s="386">
         <f>SUM('Data Summaries'!S75:S80)</f>
         <v>798365</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" t="s">
-        <v>672</v>
-      </c>
-      <c r="B80" s="440">
+        <v>671</v>
+      </c>
+      <c r="B80" s="388">
         <f>SUM('Data Summaries'!M76:M80)</f>
         <v>31164.774226242287</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>673</v>
-      </c>
-      <c r="B81" s="440">
+        <v>672</v>
+      </c>
+      <c r="B81" s="388">
         <f>SUM('Data Summaries'!H75:H80)</f>
         <v>23392542</v>
       </c>
     </row>
     <row r="82" spans="1:6" s="301" customFormat="1">
-      <c r="B82" s="438"/>
+      <c r="B82" s="386"/>
     </row>
     <row r="83" spans="1:6">
       <c r="B83" t="s">
@@ -15130,72 +15134,72 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>674</v>
-      </c>
-      <c r="B84" s="433">
+        <v>673</v>
+      </c>
+      <c r="B84" s="381">
         <f>'Data Summaries'!C98</f>
-        <v>1.6057585825027684E-2</v>
-      </c>
-      <c r="C84" s="433">
+        <v>2.106234790635227E-2</v>
+      </c>
+      <c r="C84" s="381">
         <f>'Data Summaries'!C99</f>
-        <v>1.2842465753424657E-2</v>
+        <v>1.8693081961974757E-2</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>675</v>
-      </c>
-      <c r="B85" s="433">
+        <v>674</v>
+      </c>
+      <c r="B85" s="381">
         <f>'Data Summaries'!F98</f>
         <v>3.5327999999999998E-2</v>
       </c>
-      <c r="C85" s="433">
+      <c r="C85" s="381">
         <f>'Data Summaries'!F99</f>
         <v>1.9871999999999997E-2</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>676</v>
-      </c>
-      <c r="B86" s="433">
+        <v>675</v>
+      </c>
+      <c r="B86" s="381">
         <f>'Data Summaries'!H98</f>
         <v>8.6241999999999999E-2</v>
       </c>
-      <c r="C86" s="433">
+      <c r="C86" s="381">
         <f>'Data Summaries'!H99</f>
         <v>5.2858000000000002E-2</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>677</v>
-      </c>
-      <c r="B87" s="433">
+        <v>676</v>
+      </c>
+      <c r="B87" s="381">
         <f>'Data Summaries'!L98</f>
         <v>1.2272E-2</v>
       </c>
-      <c r="C87" s="433">
+      <c r="C87" s="381">
         <f>'Data Summaries'!L99</f>
         <v>1.1328E-2</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>678</v>
-      </c>
-      <c r="B88" s="433">
+        <v>677</v>
+      </c>
+      <c r="B88" s="381">
         <f>'Data Summaries'!J98</f>
         <v>6.8323999999999996E-2</v>
       </c>
-      <c r="C88" s="433">
+      <c r="C88" s="381">
         <f>'Data Summaries'!J99</f>
         <v>4.9475999999999999E-2</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B90" s="301" t="s">
         <v>2</v>
@@ -15215,7 +15219,7 @@
     </row>
     <row r="91" spans="1:6">
       <c r="A91" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B91" s="26">
         <f>'Data Summaries'!AG64</f>
@@ -15240,132 +15244,132 @@
     </row>
     <row r="92" spans="1:6">
       <c r="A92" t="s">
-        <v>679</v>
-      </c>
-      <c r="B92" s="433">
+        <v>678</v>
+      </c>
+      <c r="B92" s="442">
         <f>'Data Summaries'!J20</f>
-        <v>0</v>
-      </c>
-      <c r="C92" s="433">
+        <v>1.8129079042784627E-4</v>
+      </c>
+      <c r="C92" s="442">
         <f>'Data Summaries'!J21</f>
-        <v>8.8652482269503544E-4</v>
-      </c>
-      <c r="D92" s="433">
+        <v>4.7281323877068556E-4</v>
+      </c>
+      <c r="D92" s="442">
         <f>'Data Summaries'!J22</f>
-        <v>1.1061946902654867E-3</v>
-      </c>
-      <c r="E92" s="433">
+        <v>6.3411540900443881E-4</v>
+      </c>
+      <c r="E92" s="441">
         <f>'Data Summaries'!J23</f>
-        <v>1.7730496453900709E-3</v>
-      </c>
-      <c r="F92" s="433">
+        <v>4.4338335607094137E-3</v>
+      </c>
+      <c r="F92" s="441">
         <f>'Data Summaries'!J24</f>
-        <v>8.6132644272179162E-3</v>
+        <v>9.6952908587257611E-3</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" t="s">
-        <v>680</v>
-      </c>
-      <c r="B93" s="433">
+        <v>679</v>
+      </c>
+      <c r="B93" s="381">
         <f>'Data Summaries'!K20</f>
         <v>2E-3</v>
       </c>
-      <c r="C93" s="433">
+      <c r="C93" s="381">
         <f>'Data Summaries'!K21</f>
         <v>2E-3</v>
       </c>
-      <c r="D93" s="433">
+      <c r="D93" s="381">
         <f>'Data Summaries'!K22</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="E93" s="433">
+      <c r="E93" s="381">
         <f>'Data Summaries'!K23</f>
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="F93" s="433">
+      <c r="F93" s="381">
         <f>'Data Summaries'!K24</f>
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" t="s">
-        <v>681</v>
-      </c>
-      <c r="B94" s="433">
+        <v>680</v>
+      </c>
+      <c r="B94" s="381">
         <f>'Data Summaries'!L20</f>
         <v>0</v>
       </c>
-      <c r="C94" s="433">
+      <c r="C94" s="381">
         <f>'Data Summaries'!L21</f>
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="D94" s="433">
+      <c r="D94" s="381">
         <f>'Data Summaries'!L22</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="E94" s="433">
+      <c r="E94" s="381">
         <f>'Data Summaries'!L23</f>
         <v>0.01</v>
       </c>
-      <c r="F94" s="433">
+      <c r="F94" s="381">
         <f>'Data Summaries'!L24</f>
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" t="s">
-        <v>682</v>
-      </c>
-      <c r="B95" s="433">
+        <v>681</v>
+      </c>
+      <c r="B95" s="381">
         <f>'Data Summaries'!N20</f>
         <v>0</v>
       </c>
-      <c r="C95" s="433">
+      <c r="C95" s="381">
         <f>'Data Summaries'!N21</f>
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="D95" s="433">
+      <c r="D95" s="381">
         <f>'Data Summaries'!N22</f>
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="E95" s="433">
+      <c r="E95" s="381">
         <f>'Data Summaries'!N23</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F95" s="433">
+      <c r="F95" s="381">
         <f>'Data Summaries'!N24</f>
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" t="s">
-        <v>683</v>
-      </c>
-      <c r="B96" s="433">
+        <v>682</v>
+      </c>
+      <c r="B96" s="381">
         <f>'Data Summaries'!M20</f>
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="C96" s="433">
+      <c r="C96" s="381">
         <f>'Data Summaries'!M21</f>
         <v>1.4E-3</v>
       </c>
-      <c r="D96" s="433">
+      <c r="D96" s="381">
         <f>'Data Summaries'!M22</f>
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="E96" s="433">
+      <c r="E96" s="381">
         <f>'Data Summaries'!M23</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F96" s="433">
+      <c r="F96" s="381">
         <f>'Data Summaries'!M24</f>
         <v>1.9E-2</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B97" s="26">
         <f>'Data Summaries'!M64</f>
@@ -15390,7 +15394,7 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B98" s="26">
         <f>'Data Summaries'!X64</f>
@@ -17476,15 +17480,15 @@
       </c>
     </row>
     <row r="7" spans="1:255">
-      <c r="A7" s="405" t="s">
+      <c r="A7" s="414" t="s">
         <v>143</v>
       </c>
-      <c r="B7" s="405"/>
-      <c r="C7" s="405"/>
-      <c r="D7" s="405"/>
-      <c r="E7" s="406"/>
-      <c r="F7" s="406"/>
-      <c r="G7" s="405"/>
+      <c r="B7" s="414"/>
+      <c r="C7" s="414"/>
+      <c r="D7" s="414"/>
+      <c r="E7" s="415"/>
+      <c r="F7" s="415"/>
+      <c r="G7" s="414"/>
       <c r="H7" s="153" t="s">
         <v>249</v>
       </c>
@@ -18119,15 +18123,15 @@
       <c r="M24" s="20"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="405" t="s">
+      <c r="A25" s="414" t="s">
         <v>144</v>
       </c>
-      <c r="B25" s="405"/>
-      <c r="C25" s="405"/>
-      <c r="D25" s="405"/>
-      <c r="E25" s="406"/>
-      <c r="F25" s="406"/>
-      <c r="G25" s="405"/>
+      <c r="B25" s="414"/>
+      <c r="C25" s="414"/>
+      <c r="D25" s="414"/>
+      <c r="E25" s="415"/>
+      <c r="F25" s="415"/>
+      <c r="G25" s="414"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="67" t="s">
@@ -18743,15 +18747,15 @@
       </c>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="405" t="s">
+      <c r="A43" s="414" t="s">
         <v>145</v>
       </c>
-      <c r="B43" s="405"/>
-      <c r="C43" s="405"/>
-      <c r="D43" s="405"/>
-      <c r="E43" s="406"/>
-      <c r="F43" s="406"/>
-      <c r="G43" s="405"/>
+      <c r="B43" s="414"/>
+      <c r="C43" s="414"/>
+      <c r="D43" s="414"/>
+      <c r="E43" s="415"/>
+      <c r="F43" s="415"/>
+      <c r="G43" s="414"/>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="67" t="s">
@@ -19449,23 +19453,23 @@
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="407" t="s">
+      <c r="A3" s="416" t="s">
         <v>159</v>
       </c>
-      <c r="B3" s="407"/>
-      <c r="C3" s="407"/>
-      <c r="D3" s="407"/>
-      <c r="E3" s="407"/>
-      <c r="F3" s="407"/>
-      <c r="G3" s="407"/>
-      <c r="H3" s="407"/>
-      <c r="I3" s="407"/>
-      <c r="J3" s="407"/>
-      <c r="K3" s="407"/>
-      <c r="L3" s="408" t="s">
+      <c r="B3" s="416"/>
+      <c r="C3" s="416"/>
+      <c r="D3" s="416"/>
+      <c r="E3" s="416"/>
+      <c r="F3" s="416"/>
+      <c r="G3" s="416"/>
+      <c r="H3" s="416"/>
+      <c r="I3" s="416"/>
+      <c r="J3" s="416"/>
+      <c r="K3" s="416"/>
+      <c r="L3" s="417" t="s">
         <v>207</v>
       </c>
-      <c r="M3" s="408"/>
+      <c r="M3" s="417"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="29" t="s">
@@ -21286,19 +21290,19 @@
       <c r="K54" s="40"/>
     </row>
     <row r="55" spans="1:13">
-      <c r="A55" s="407" t="s">
+      <c r="A55" s="416" t="s">
         <v>162</v>
       </c>
-      <c r="B55" s="407"/>
-      <c r="C55" s="407"/>
-      <c r="D55" s="407"/>
-      <c r="E55" s="407"/>
-      <c r="F55" s="407"/>
-      <c r="G55" s="407"/>
-      <c r="H55" s="407"/>
-      <c r="I55" s="407"/>
-      <c r="J55" s="407"/>
-      <c r="K55" s="407"/>
+      <c r="B55" s="416"/>
+      <c r="C55" s="416"/>
+      <c r="D55" s="416"/>
+      <c r="E55" s="416"/>
+      <c r="F55" s="416"/>
+      <c r="G55" s="416"/>
+      <c r="H55" s="416"/>
+      <c r="I55" s="416"/>
+      <c r="J55" s="416"/>
+      <c r="K55" s="416"/>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="29" t="s">
@@ -23119,19 +23123,19 @@
       <c r="K106" s="40"/>
     </row>
     <row r="107" spans="1:13">
-      <c r="A107" s="407" t="s">
+      <c r="A107" s="416" t="s">
         <v>163</v>
       </c>
-      <c r="B107" s="407"/>
-      <c r="C107" s="407"/>
-      <c r="D107" s="407"/>
-      <c r="E107" s="407"/>
-      <c r="F107" s="407"/>
-      <c r="G107" s="407"/>
-      <c r="H107" s="407"/>
-      <c r="I107" s="407"/>
-      <c r="J107" s="407"/>
-      <c r="K107" s="407"/>
+      <c r="B107" s="416"/>
+      <c r="C107" s="416"/>
+      <c r="D107" s="416"/>
+      <c r="E107" s="416"/>
+      <c r="F107" s="416"/>
+      <c r="G107" s="416"/>
+      <c r="H107" s="416"/>
+      <c r="I107" s="416"/>
+      <c r="J107" s="416"/>
+      <c r="K107" s="416"/>
     </row>
     <row r="108" spans="1:13">
       <c r="A108" s="29" t="s">
@@ -25021,15 +25025,15 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="90"/>
-      <c r="B4" s="409" t="s">
+      <c r="B4" s="418" t="s">
         <v>178</v>
       </c>
-      <c r="C4" s="409"/>
-      <c r="D4" s="409"/>
-      <c r="E4" s="409"/>
-      <c r="F4" s="409"/>
-      <c r="G4" s="409"/>
-      <c r="H4" s="409"/>
+      <c r="C4" s="418"/>
+      <c r="D4" s="418"/>
+      <c r="E4" s="418"/>
+      <c r="F4" s="418"/>
+      <c r="G4" s="418"/>
+      <c r="H4" s="418"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="91" t="s">
@@ -25329,15 +25333,15 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="90"/>
-      <c r="B18" s="409" t="s">
+      <c r="B18" s="418" t="s">
         <v>191</v>
       </c>
-      <c r="C18" s="409"/>
-      <c r="D18" s="409"/>
-      <c r="E18" s="409"/>
-      <c r="F18" s="409"/>
-      <c r="G18" s="409"/>
-      <c r="H18" s="409"/>
+      <c r="C18" s="418"/>
+      <c r="D18" s="418"/>
+      <c r="E18" s="418"/>
+      <c r="F18" s="418"/>
+      <c r="G18" s="418"/>
+      <c r="H18" s="418"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="91" t="s">
@@ -25767,160 +25771,160 @@
     </row>
     <row r="2" spans="1:54">
       <c r="A2" s="223"/>
-      <c r="B2" s="410" t="s">
+      <c r="B2" s="425" t="s">
         <v>288</v>
       </c>
-      <c r="C2" s="410"/>
-      <c r="D2" s="410"/>
-      <c r="E2" s="410"/>
-      <c r="F2" s="410"/>
-      <c r="G2" s="410"/>
-      <c r="H2" s="410"/>
-      <c r="I2" s="410"/>
+      <c r="C2" s="425"/>
+      <c r="D2" s="425"/>
+      <c r="E2" s="425"/>
+      <c r="F2" s="425"/>
+      <c r="G2" s="425"/>
+      <c r="H2" s="425"/>
+      <c r="I2" s="425"/>
       <c r="J2" s="224"/>
-      <c r="K2" s="410" t="s">
+      <c r="K2" s="425" t="s">
         <v>289</v>
       </c>
-      <c r="L2" s="410"/>
-      <c r="M2" s="410"/>
-      <c r="N2" s="410"/>
-      <c r="O2" s="410"/>
-      <c r="P2" s="410"/>
-      <c r="Q2" s="410"/>
-      <c r="R2" s="410"/>
+      <c r="L2" s="425"/>
+      <c r="M2" s="425"/>
+      <c r="N2" s="425"/>
+      <c r="O2" s="425"/>
+      <c r="P2" s="425"/>
+      <c r="Q2" s="425"/>
+      <c r="R2" s="425"/>
       <c r="S2" s="224"/>
-      <c r="T2" s="410" t="s">
+      <c r="T2" s="425" t="s">
         <v>290</v>
       </c>
-      <c r="U2" s="410"/>
-      <c r="V2" s="410"/>
-      <c r="W2" s="410"/>
-      <c r="X2" s="410"/>
-      <c r="Y2" s="410"/>
-      <c r="Z2" s="410"/>
-      <c r="AA2" s="410"/>
+      <c r="U2" s="425"/>
+      <c r="V2" s="425"/>
+      <c r="W2" s="425"/>
+      <c r="X2" s="425"/>
+      <c r="Y2" s="425"/>
+      <c r="Z2" s="425"/>
+      <c r="AA2" s="425"/>
       <c r="AB2" s="224"/>
-      <c r="AC2" s="410" t="s">
+      <c r="AC2" s="425" t="s">
         <v>291</v>
       </c>
-      <c r="AD2" s="410"/>
-      <c r="AE2" s="410"/>
-      <c r="AF2" s="410"/>
-      <c r="AG2" s="410"/>
-      <c r="AH2" s="410"/>
-      <c r="AI2" s="410"/>
-      <c r="AJ2" s="410"/>
+      <c r="AD2" s="425"/>
+      <c r="AE2" s="425"/>
+      <c r="AF2" s="425"/>
+      <c r="AG2" s="425"/>
+      <c r="AH2" s="425"/>
+      <c r="AI2" s="425"/>
+      <c r="AJ2" s="425"/>
       <c r="AK2" s="224"/>
-      <c r="AL2" s="410" t="s">
+      <c r="AL2" s="425" t="s">
         <v>292</v>
       </c>
-      <c r="AM2" s="410"/>
-      <c r="AN2" s="410"/>
-      <c r="AO2" s="410"/>
-      <c r="AP2" s="410"/>
-      <c r="AQ2" s="410"/>
-      <c r="AR2" s="410"/>
-      <c r="AS2" s="410"/>
+      <c r="AM2" s="425"/>
+      <c r="AN2" s="425"/>
+      <c r="AO2" s="425"/>
+      <c r="AP2" s="425"/>
+      <c r="AQ2" s="425"/>
+      <c r="AR2" s="425"/>
+      <c r="AS2" s="425"/>
       <c r="AT2" s="225"/>
-      <c r="AU2" s="411" t="s">
+      <c r="AU2" s="426" t="s">
         <v>293</v>
       </c>
-      <c r="AV2" s="412"/>
-      <c r="AW2" s="412"/>
-      <c r="AX2" s="412"/>
-      <c r="AY2" s="412"/>
-      <c r="AZ2" s="412"/>
-      <c r="BA2" s="412"/>
-      <c r="BB2" s="412"/>
+      <c r="AV2" s="427"/>
+      <c r="AW2" s="427"/>
+      <c r="AX2" s="427"/>
+      <c r="AY2" s="427"/>
+      <c r="AZ2" s="427"/>
+      <c r="BA2" s="427"/>
+      <c r="BB2" s="427"/>
     </row>
     <row r="3" spans="1:54" ht="25.5" customHeight="1">
       <c r="A3" s="226"/>
-      <c r="B3" s="414" t="s">
+      <c r="B3" s="423" t="s">
         <v>294</v>
       </c>
-      <c r="C3" s="414"/>
+      <c r="C3" s="423"/>
       <c r="D3" s="227"/>
-      <c r="E3" s="415" t="s">
+      <c r="E3" s="424" t="s">
         <v>295</v>
       </c>
-      <c r="F3" s="415"/>
+      <c r="F3" s="424"/>
       <c r="G3" s="227"/>
-      <c r="H3" s="414" t="s">
+      <c r="H3" s="423" t="s">
         <v>296</v>
       </c>
-      <c r="I3" s="414"/>
+      <c r="I3" s="423"/>
       <c r="J3" s="228"/>
-      <c r="K3" s="413" t="s">
+      <c r="K3" s="428" t="s">
         <v>294</v>
       </c>
-      <c r="L3" s="413"/>
+      <c r="L3" s="428"/>
       <c r="M3" s="229"/>
-      <c r="N3" s="413" t="s">
+      <c r="N3" s="428" t="s">
         <v>295</v>
       </c>
-      <c r="O3" s="413"/>
+      <c r="O3" s="428"/>
       <c r="P3" s="229"/>
-      <c r="Q3" s="413" t="s">
+      <c r="Q3" s="428" t="s">
         <v>296</v>
       </c>
-      <c r="R3" s="413"/>
+      <c r="R3" s="428"/>
       <c r="S3" s="227"/>
-      <c r="T3" s="414" t="s">
+      <c r="T3" s="423" t="s">
         <v>294</v>
       </c>
-      <c r="U3" s="414"/>
+      <c r="U3" s="423"/>
       <c r="V3" s="227"/>
-      <c r="W3" s="415" t="s">
+      <c r="W3" s="424" t="s">
         <v>295</v>
       </c>
-      <c r="X3" s="415"/>
+      <c r="X3" s="424"/>
       <c r="Y3" s="227"/>
-      <c r="Z3" s="414" t="s">
+      <c r="Z3" s="423" t="s">
         <v>296</v>
       </c>
-      <c r="AA3" s="414"/>
+      <c r="AA3" s="423"/>
       <c r="AB3" s="228"/>
-      <c r="AC3" s="414" t="s">
+      <c r="AC3" s="423" t="s">
         <v>294</v>
       </c>
-      <c r="AD3" s="414"/>
+      <c r="AD3" s="423"/>
       <c r="AE3" s="227"/>
-      <c r="AF3" s="415" t="s">
+      <c r="AF3" s="424" t="s">
         <v>295</v>
       </c>
-      <c r="AG3" s="415"/>
+      <c r="AG3" s="424"/>
       <c r="AH3" s="227"/>
-      <c r="AI3" s="414" t="s">
+      <c r="AI3" s="423" t="s">
         <v>296</v>
       </c>
-      <c r="AJ3" s="414"/>
+      <c r="AJ3" s="423"/>
       <c r="AK3" s="228"/>
-      <c r="AL3" s="414" t="s">
+      <c r="AL3" s="423" t="s">
         <v>294</v>
       </c>
-      <c r="AM3" s="414"/>
+      <c r="AM3" s="423"/>
       <c r="AN3" s="227"/>
-      <c r="AO3" s="415" t="s">
+      <c r="AO3" s="424" t="s">
         <v>295</v>
       </c>
-      <c r="AP3" s="415"/>
-      <c r="AR3" s="414" t="s">
+      <c r="AP3" s="424"/>
+      <c r="AR3" s="423" t="s">
         <v>296</v>
       </c>
-      <c r="AS3" s="414"/>
-      <c r="AU3" s="414" t="s">
+      <c r="AS3" s="423"/>
+      <c r="AU3" s="423" t="s">
         <v>294</v>
       </c>
-      <c r="AV3" s="414"/>
+      <c r="AV3" s="423"/>
       <c r="AW3" s="227"/>
-      <c r="AX3" s="415" t="s">
+      <c r="AX3" s="424" t="s">
         <v>295</v>
       </c>
-      <c r="AY3" s="415"/>
-      <c r="BA3" s="414" t="s">
+      <c r="AY3" s="424"/>
+      <c r="BA3" s="423" t="s">
         <v>296</v>
       </c>
-      <c r="BB3" s="414"/>
+      <c r="BB3" s="423"/>
     </row>
     <row r="4" spans="1:54">
       <c r="A4" s="230" t="s">
@@ -27230,85 +27234,85 @@
     </row>
     <row r="22" spans="1:42">
       <c r="A22" s="264"/>
-      <c r="B22" s="417" t="s">
+      <c r="B22" s="419" t="s">
         <v>180</v>
       </c>
-      <c r="C22" s="417"/>
-      <c r="D22" s="417"/>
-      <c r="E22" s="417"/>
-      <c r="F22" s="417"/>
-      <c r="G22" s="417"/>
-      <c r="H22" s="417"/>
-      <c r="I22" s="417"/>
+      <c r="C22" s="419"/>
+      <c r="D22" s="419"/>
+      <c r="E22" s="419"/>
+      <c r="F22" s="419"/>
+      <c r="G22" s="419"/>
+      <c r="H22" s="419"/>
+      <c r="I22" s="419"/>
       <c r="J22" s="265"/>
-      <c r="K22" s="417" t="s">
+      <c r="K22" s="419" t="s">
         <v>181</v>
       </c>
-      <c r="L22" s="417"/>
-      <c r="M22" s="417"/>
-      <c r="N22" s="417"/>
-      <c r="O22" s="417"/>
-      <c r="P22" s="417"/>
-      <c r="Q22" s="417"/>
-      <c r="R22" s="417"/>
+      <c r="L22" s="419"/>
+      <c r="M22" s="419"/>
+      <c r="N22" s="419"/>
+      <c r="O22" s="419"/>
+      <c r="P22" s="419"/>
+      <c r="Q22" s="419"/>
+      <c r="R22" s="419"/>
       <c r="S22" s="265"/>
-      <c r="T22" s="417" t="s">
+      <c r="T22" s="419" t="s">
         <v>433</v>
       </c>
-      <c r="U22" s="417"/>
-      <c r="V22" s="417"/>
-      <c r="W22" s="417"/>
-      <c r="X22" s="417"/>
-      <c r="Y22" s="417"/>
-      <c r="Z22" s="417"/>
-      <c r="AA22" s="417"/>
+      <c r="U22" s="419"/>
+      <c r="V22" s="419"/>
+      <c r="W22" s="419"/>
+      <c r="X22" s="419"/>
+      <c r="Y22" s="419"/>
+      <c r="Z22" s="419"/>
+      <c r="AA22" s="419"/>
     </row>
     <row r="23" spans="1:42" ht="22.5" customHeight="1">
       <c r="A23" s="266"/>
-      <c r="B23" s="418" t="s">
+      <c r="B23" s="420" t="s">
         <v>294</v>
       </c>
-      <c r="C23" s="418"/>
+      <c r="C23" s="420"/>
       <c r="D23" s="267"/>
-      <c r="E23" s="416" t="s">
+      <c r="E23" s="421" t="s">
         <v>295</v>
       </c>
-      <c r="F23" s="416"/>
+      <c r="F23" s="421"/>
       <c r="G23" s="268"/>
-      <c r="H23" s="419" t="s">
+      <c r="H23" s="422" t="s">
         <v>296</v>
       </c>
-      <c r="I23" s="419"/>
+      <c r="I23" s="422"/>
       <c r="J23" s="269"/>
-      <c r="K23" s="418" t="s">
+      <c r="K23" s="420" t="s">
         <v>294</v>
       </c>
-      <c r="L23" s="418"/>
+      <c r="L23" s="420"/>
       <c r="M23" s="267"/>
-      <c r="N23" s="416" t="s">
+      <c r="N23" s="421" t="s">
         <v>295</v>
       </c>
-      <c r="O23" s="416"/>
+      <c r="O23" s="421"/>
       <c r="P23" s="268"/>
-      <c r="Q23" s="419" t="s">
+      <c r="Q23" s="422" t="s">
         <v>296</v>
       </c>
-      <c r="R23" s="419"/>
+      <c r="R23" s="422"/>
       <c r="S23" s="269"/>
-      <c r="T23" s="416" t="s">
+      <c r="T23" s="421" t="s">
         <v>294</v>
       </c>
-      <c r="U23" s="416"/>
+      <c r="U23" s="421"/>
       <c r="V23" s="268"/>
-      <c r="W23" s="416" t="s">
+      <c r="W23" s="421" t="s">
         <v>295</v>
       </c>
-      <c r="X23" s="416"/>
+      <c r="X23" s="421"/>
       <c r="Y23" s="270"/>
-      <c r="Z23" s="416" t="s">
+      <c r="Z23" s="421" t="s">
         <v>296</v>
       </c>
-      <c r="AA23" s="416"/>
+      <c r="AA23" s="421"/>
     </row>
     <row r="24" spans="1:42">
       <c r="A24" s="271" t="s">
@@ -28147,26 +28151,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="K22:R22"/>
-    <mergeCell ref="T22:AA22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="T23:U23"/>
-    <mergeCell ref="AR3:AS3"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AX3:AY3"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="Z23:AA23"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AL3:AM3"/>
-    <mergeCell ref="AO3:AP3"/>
     <mergeCell ref="AL2:AS2"/>
     <mergeCell ref="AU2:BB2"/>
     <mergeCell ref="Q3:R3"/>
@@ -28183,6 +28167,26 @@
     <mergeCell ref="T3:U3"/>
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AR3:AS3"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AX3:AY3"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="Z23:AA23"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AL3:AM3"/>
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="K22:R22"/>
+    <mergeCell ref="T22:AA22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="T23:U23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -28217,10 +28221,10 @@
       <c r="E2" s="301"/>
       <c r="F2" s="301"/>
       <c r="G2" s="301"/>
-      <c r="H2" s="421" t="s">
+      <c r="H2" s="430" t="s">
         <v>533</v>
       </c>
-      <c r="I2" s="422"/>
+      <c r="I2" s="431"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickTop="1">
       <c r="A3" s="301"/>
@@ -28246,32 +28250,32 @@
     </row>
     <row r="6" spans="1:9" ht="15.75">
       <c r="A6" s="301"/>
-      <c r="B6" s="423" t="s">
+      <c r="B6" s="432" t="s">
         <v>534</v>
       </c>
-      <c r="C6" s="423"/>
-      <c r="D6" s="423"/>
-      <c r="E6" s="424"/>
-      <c r="F6" s="424"/>
-      <c r="G6" s="424"/>
-      <c r="H6" s="424"/>
-      <c r="I6" s="424"/>
+      <c r="C6" s="432"/>
+      <c r="D6" s="432"/>
+      <c r="E6" s="433"/>
+      <c r="F6" s="433"/>
+      <c r="G6" s="433"/>
+      <c r="H6" s="433"/>
+      <c r="I6" s="433"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="301"/>
       <c r="B7" s="305"/>
-      <c r="C7" s="425" t="s">
+      <c r="C7" s="434" t="s">
         <v>180</v>
       </c>
-      <c r="D7" s="425"/>
-      <c r="E7" s="425" t="s">
+      <c r="D7" s="434"/>
+      <c r="E7" s="434" t="s">
         <v>181</v>
       </c>
-      <c r="F7" s="426"/>
-      <c r="G7" s="425" t="s">
+      <c r="F7" s="435"/>
+      <c r="G7" s="434" t="s">
         <v>433</v>
       </c>
-      <c r="H7" s="426"/>
+      <c r="H7" s="435"/>
       <c r="I7" s="301"/>
     </row>
     <row r="8" spans="1:9">
@@ -28451,15 +28455,15 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="301"/>
-      <c r="B15" s="420" t="s">
+      <c r="B15" s="429" t="s">
         <v>556</v>
       </c>
-      <c r="C15" s="420"/>
-      <c r="D15" s="420"/>
-      <c r="E15" s="420"/>
-      <c r="F15" s="420"/>
-      <c r="G15" s="420"/>
-      <c r="H15" s="420"/>
+      <c r="C15" s="429"/>
+      <c r="D15" s="429"/>
+      <c r="E15" s="429"/>
+      <c r="F15" s="429"/>
+      <c r="G15" s="429"/>
+      <c r="H15" s="429"/>
       <c r="I15" s="301"/>
     </row>
     <row r="16" spans="1:9">
@@ -28580,11 +28584,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="43.5" customHeight="1">
-      <c r="A1" s="428" t="s">
+      <c r="A1" s="440" t="s">
         <v>561</v>
       </c>
-      <c r="B1" s="428"/>
-      <c r="C1" s="428"/>
+      <c r="B1" s="440"/>
+      <c r="C1" s="440"/>
       <c r="D1" s="318"/>
       <c r="E1" s="318"/>
       <c r="F1" s="318"/>
@@ -28751,11 +28755,11 @@
       <c r="H18" s="331"/>
     </row>
     <row r="19" spans="1:15" ht="24.75" customHeight="1">
-      <c r="A19" s="429" t="s">
+      <c r="A19" s="436" t="s">
         <v>575</v>
       </c>
-      <c r="B19" s="429"/>
-      <c r="C19" s="429"/>
+      <c r="B19" s="436"/>
+      <c r="C19" s="436"/>
       <c r="D19" s="331"/>
       <c r="E19" s="331"/>
       <c r="F19" s="331"/>
@@ -28763,11 +28767,11 @@
       <c r="H19" s="331"/>
     </row>
     <row r="20" spans="1:15" ht="46.5" customHeight="1">
-      <c r="A20" s="429" t="s">
+      <c r="A20" s="436" t="s">
         <v>576</v>
       </c>
-      <c r="B20" s="429"/>
-      <c r="C20" s="429"/>
+      <c r="B20" s="436"/>
+      <c r="C20" s="436"/>
       <c r="D20" s="331"/>
       <c r="E20" s="331"/>
       <c r="F20" s="331"/>
@@ -28775,11 +28779,11 @@
       <c r="H20" s="331"/>
     </row>
     <row r="21" spans="1:15" ht="59.25" customHeight="1">
-      <c r="A21" s="429" t="s">
+      <c r="A21" s="436" t="s">
         <v>577</v>
       </c>
-      <c r="B21" s="429"/>
-      <c r="C21" s="429"/>
+      <c r="B21" s="436"/>
+      <c r="C21" s="436"/>
       <c r="D21" s="333"/>
       <c r="E21" s="333"/>
       <c r="F21" s="333"/>
@@ -28787,11 +28791,11 @@
       <c r="H21" s="333"/>
     </row>
     <row r="22" spans="1:15" ht="26.25" customHeight="1">
-      <c r="A22" s="429" t="s">
+      <c r="A22" s="436" t="s">
         <v>429</v>
       </c>
-      <c r="B22" s="429"/>
-      <c r="C22" s="429"/>
+      <c r="B22" s="436"/>
+      <c r="C22" s="436"/>
       <c r="D22" s="334"/>
       <c r="E22" s="335"/>
       <c r="F22" s="335"/>
@@ -28829,15 +28833,15 @@
       <c r="C25" s="336"/>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="427" t="s">
+      <c r="A26" s="439" t="s">
         <v>579</v>
       </c>
-      <c r="B26" s="427"/>
-      <c r="C26" s="427"/>
-      <c r="D26" s="427"/>
-      <c r="E26" s="427"/>
-      <c r="F26" s="427"/>
-      <c r="G26" s="427"/>
+      <c r="B26" s="439"/>
+      <c r="C26" s="439"/>
+      <c r="D26" s="439"/>
+      <c r="E26" s="439"/>
+      <c r="F26" s="439"/>
+      <c r="G26" s="439"/>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="338"/>
@@ -28850,29 +28854,29 @@
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="340"/>
-      <c r="B28" s="430" t="s">
+      <c r="B28" s="437" t="s">
         <v>580</v>
       </c>
-      <c r="C28" s="430"/>
-      <c r="D28" s="430"/>
-      <c r="E28" s="430"/>
-      <c r="F28" s="430"/>
-      <c r="G28" s="430"/>
+      <c r="C28" s="437"/>
+      <c r="D28" s="437"/>
+      <c r="E28" s="437"/>
+      <c r="F28" s="437"/>
+      <c r="G28" s="437"/>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="341"/>
-      <c r="B29" s="431" t="s">
+      <c r="B29" s="438" t="s">
         <v>180</v>
       </c>
-      <c r="C29" s="431"/>
-      <c r="D29" s="431" t="s">
+      <c r="C29" s="438"/>
+      <c r="D29" s="438" t="s">
         <v>181</v>
       </c>
-      <c r="E29" s="431"/>
-      <c r="F29" s="431" t="s">
+      <c r="E29" s="438"/>
+      <c r="F29" s="438" t="s">
         <v>433</v>
       </c>
-      <c r="G29" s="431"/>
+      <c r="G29" s="438"/>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="342" t="s">
@@ -29093,48 +29097,48 @@
       <c r="G39" s="339"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="429" t="s">
+      <c r="A40" s="436" t="s">
         <v>604</v>
       </c>
-      <c r="B40" s="429"/>
-      <c r="C40" s="429"/>
-      <c r="D40" s="429"/>
-      <c r="E40" s="429"/>
-      <c r="F40" s="429"/>
-      <c r="G40" s="429"/>
+      <c r="B40" s="436"/>
+      <c r="C40" s="436"/>
+      <c r="D40" s="436"/>
+      <c r="E40" s="436"/>
+      <c r="F40" s="436"/>
+      <c r="G40" s="436"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="429" t="s">
+      <c r="A41" s="436" t="s">
         <v>577</v>
       </c>
-      <c r="B41" s="429"/>
-      <c r="C41" s="429"/>
-      <c r="D41" s="429"/>
-      <c r="E41" s="429"/>
-      <c r="F41" s="429"/>
-      <c r="G41" s="429"/>
+      <c r="B41" s="436"/>
+      <c r="C41" s="436"/>
+      <c r="D41" s="436"/>
+      <c r="E41" s="436"/>
+      <c r="F41" s="436"/>
+      <c r="G41" s="436"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="429" t="s">
+      <c r="A42" s="436" t="s">
         <v>429</v>
       </c>
-      <c r="B42" s="429"/>
-      <c r="C42" s="429"/>
-      <c r="D42" s="429"/>
-      <c r="E42" s="429"/>
-      <c r="F42" s="429"/>
-      <c r="G42" s="429"/>
+      <c r="B42" s="436"/>
+      <c r="C42" s="436"/>
+      <c r="D42" s="436"/>
+      <c r="E42" s="436"/>
+      <c r="F42" s="436"/>
+      <c r="G42" s="436"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="429" t="s">
+      <c r="A43" s="436" t="s">
         <v>605</v>
       </c>
-      <c r="B43" s="429"/>
-      <c r="C43" s="429"/>
-      <c r="D43" s="429"/>
-      <c r="E43" s="429"/>
-      <c r="F43" s="429"/>
-      <c r="G43" s="429"/>
+      <c r="B43" s="436"/>
+      <c r="C43" s="436"/>
+      <c r="D43" s="436"/>
+      <c r="E43" s="436"/>
+      <c r="F43" s="436"/>
+      <c r="G43" s="436"/>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="339"/>
@@ -29158,6 +29162,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
     <mergeCell ref="A42:G42"/>
     <mergeCell ref="A43:G43"/>
     <mergeCell ref="B28:G28"/>
@@ -29166,12 +29176,6 @@
     <mergeCell ref="F29:G29"/>
     <mergeCell ref="A40:G40"/>
     <mergeCell ref="A41:G41"/>
-    <mergeCell ref="A26:G26"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
